--- a/tables/SWIP_Module_Results.xlsx
+++ b/tables/SWIP_Module_Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t xml:space="preserve">Module</t>
   </si>
@@ -44,6 +44,12 @@
     <t xml:space="preserve">isSingular</t>
   </si>
   <si>
+    <t xml:space="preserve">Proteins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nProts</t>
+  </si>
+  <si>
     <t xml:space="preserve">FDR</t>
   </si>
   <si>
@@ -56,154 +62,307 @@
     <t xml:space="preserve">Mutant-Control</t>
   </si>
   <si>
+    <t xml:space="preserve">Osbpl9|A2A8Z1; Ice1|E9Q286; Dsp|E9Q557; Myo1e|E9Q634; Myh11|O08638; Kifc2|O08672; Lhb|O09108; Col15a1|O35206; Cdk5r2|O35926; Prx|O55103; Pip4k2a|O70172; Hcn4|O70507; Avil|O88398; Cga|P01216; Cfb|P04186; Nr3c1|P06537; Gh|P06880; Prph|P15331; Mpz|P27573; Mt3|P28184; Dcn|P28654; Usp46|P62069; Cbx1|P83917; St3gal3|P97325; Cnn1|Q08091; Fam219b|Q14DQ1; A1bg|Q19LI2; Cpne9|Q1RLL3; Snx27|Q3UHD6; Washc4|Q3UMB9; Cdc42bpa|Q3UU96; Ankrd34b|Q3UUF8; Psd|Q5DTT2; Slc38a10|Q5I012; Ccdc88a|Q5SNZ0; Ogn|Q62000; Tsn|Q62348; Spen|Q62504; Patj|Q63ZW7; Pde1c|Q64338; Col11a2|Q64739; Fkbp15|Q6P9Q6; Ankrd13d|Q6PD24; Mylk|Q6PDN3; Washc2|Q6PGL7; Camk2n1|Q6QWF9; Fam102a|Q78T81; Cdc42bpb|Q7TT50; Ripor2|Q80U16; Col14a1|Q80X19; Usp6nl|Q80XC3; Stk17b|Q8BG48; Rufy1|Q8BIJ7; Tsen34|Q8BMZ5; Snx17|Q8BVL3; Etnppl|Q8BWU8; Pxk|Q8BX57; Rgs8|Q8BXT1; Neu4|Q8BZL1; Washc5|Q8C2E7; Rln3|Q8CHK2; Bag5|Q8CI32; Alkbh3|Q8K1E6; Mtss1|Q8R1S4; Spg20|Q8R1X6; Washc1|Q8VDD8; Acy3|Q91XE4; Rnf126|Q91YL2; Bicd2|Q921C5; Tinagl1|Q99JR5; Grk2|Q99MK8; Sytl2|Q99N50; Nup155|Q99P88; Rbm7|Q9CQT2; Washc3|Q9CR27; Wdr45b|Q9CR39; Tppp3|Q9CRB6; Wwp2|Q9DBH0; Chrnb2|Q9ERK7; Car7|Q9ERQ8; Palld|Q9ET54; Cbln3|Q9JHG0; Cd2ap|Q9JLQ0; Dbn1|Q9QXS6; Gyg|Q9R062; Tfeb|Q9R210; Phlda3|Q9WV95; Atg4c|Q811C2; Stbd1|Q8C7E7; Fcho1|Q8K285; Lgi3|Q8K406; Galnt11|Q921L8; Mfsd5|Q921Y4; Krt1|P04104; Mbp|P04370; Rab21|P35282; Vav2|Q60992; Zranb3|Q6NZP1; Slc18a2|Q8BRU6; Rcbtb2|Q99LJ7</t>
+  </si>
+  <si>
     <t xml:space="preserve">M12</t>
   </si>
   <si>
+    <t xml:space="preserve">Pakap|O54931; Snx12|O70493; Hsp90b1|P08113; Ace|P09470; Myo1b|P46735; Ndst1|Q3UHN9; Shh|Q62226; Sez6|Q7TSK2; Slc9a8|Q8R4D1; Pex13|Q9D0K1; Slc48a1|Q9D8M3; Tspan3|Q9QY33; Trpc3|Q9QZC1; Ece2|B2RQR8; Vsig10|D3YX43; Sypl|O09117; Kcnh2|O35219; Rnf13|O54965; Stmn3|O70166; Itgb5|O70309; Snx3|O70492; Lrp6|O88572; Cpd|O89001; Lmnb1|P14733; Atp6v0a2|P15920; Lmnb2|P21619; Acp2|P24638; Dpep1|P31428; Rab6a|P35279; Rab22a|P35285; Abca2|P41234; Rab11b|P46638; Kcnj9|P48543; Clcn3|P51791; Slc1a1|P51906; Cckbr|P56481; Gal3st3|P61315; Selenot|P62342; Pcsk1|P63239; Sgcd|P82347; Vldlr|P98156; Atp11a|P98197; Cpe|Q00493; Bche|Q03311; Drp2|Q05AA6; Mest|Q07646; Slc7a1|Q09143; Dennd11|Q3UHG7; Ece1|Q4PZA2; Sez6l2|Q4V9Z5; Slc22a15|Q504N2; Pcnx2|Q5DU28; Trpc6|Q61143; Clcn4|Q61418; Fcgrt|Q61559; Ndrg1|Q62433; Itga3|Q62470; Mrc2|Q64449; Chpf|Q6IQX7; Manea|Q6NXH2; Sez6l|Q6P1D5; Txndc15|Q6P6J9; Gpr135|Q7TQP2; Hs6st2|Q80UW0; Aatk|Q80YE4; Tmem127|Q8BGP5; Slc45a1|Q8BIV7; Plekhm3|Q8BM47; Enpp4|Q8BTJ4; Steap2|Q8BWB6; Lnpep|Q8C129; Tmem145|Q8C4U2; Slfn5|Q8CBA2; H6pd|Q8CFX1; AU040320|Q8K135; Gulp1|Q8K2A1; Colec12|Q8K4Q8; Plaat3|Q8R3U1; Fyco1|Q8VDC1; Lrp1|Q91ZX7; Tspan2|Q922J6; Smurf1|Q9CUN6; B3gat1|Q9CW73; Zdhhc21|Q9D270; Vsir|Q9D659; Jam3|Q9D8B7; Fam3a|Q9D8T0; Abcb6|Q9DC29; Sorcs2|Q9EPR5; Nup210|Q9QY81; Vps29|Q9QZ88; Podxl|Q9R0M4; Slc35a2|Q9R0M8; Myo1c|Q9WTI7; Sema4g|Q9WUH7; Clcn5|Q9WVD4; P2rx7|Q9Z1M0; Cd320|Q9Z1P5; Nlgn4l|B0F2B4; Folh1|O35409; Emp2|O88662; Grik2|P39087; Kcnj11|Q61743; Lypd1|Q8BLC3; Clmn|Q8C5W0; Tspan14|Q8QZY6; Tmf1|B9EKI3; Tspan15|F7BWT7; Scarb2|O35114; Slc1a6|O35544; Adam10|O35598; Npc1|O35604; Bmpr2|O35607; Cd200|O54901; Cntnap1|O54991; Pde8a|O88502; Hcn2|O88703; Sparc|P07214; Clec2l|P0C7M9; Itpr1|P11881; Chrm1|P12657; Prkce|P16054; Kcna1|P16388; Npr1|P18293; Penk|P22005; Gna12|P27600; Marcksl1|P28667; Sstr2|P30875; Nectin2|P32507; Kras|P32883; Cd81|P35762; Cd9|P40240; Itgav|P43406; Arsb|P50429; Slc12a2|P55012; Ncstn|P57716; Rab6b|P61294; Lpar1|P61793; Kcnab2|P62482; Rap1a|P62835; Kcnj3|P63250; Plxna3|P70208; Dab1|P97318; Grm1|P97772; Cxadr|P97792; Dipk2a|Q3USZ8; Cep164|Q5DU05; Fat2|Q5F226; Myo1d|Q5SYD0; Igf1r|Q60751; Fzd7|Q61090; Fkbp10|Q61576; Mog|Q61885; Fstl1|Q62356; Kcnc3|Q63959; Cd34|Q64314; Atp2a3|Q64518; D630045J12Rik|Q68FD9; Myorg|Q69ZQ1; Thsd7a|Q69ZU6; Tmem151a|Q6GQT5; Asic1|Q6NXK8; Pianp|Q6P1B3; Ano6|Q6P9J9; Cachd1|Q6PDJ1; Kcnip4|Q6PHZ8; Krit1|Q6S5J6; Slc44a1|Q6X893; Mindy1|Q76LS9; Opalin|Q7M750; Gabbr2|Q80T41; Aldh3b1|Q80VQ0; Kirrel|Q80W68; Dixdc1|Q80Y83; Bcas1|Q80YN3; Astn2|Q80Z10; Amigo2|Q80ZD9; Micall1|Q8BGT6; Lrrc24|Q8BHA1; Ptk7|Q8BKG3; Fam177a|Q8BR63; Tmem67|Q8BR76; Arf2|Q8BSL7; Arfrp1|Q8BXL7; Suco|Q8C341; Pex5l|Q8C437; Snx30|Q8CE50; Steap3|Q8CI59; Abca8b|Q8K440; Pttg1ip|Q8R143; Stxbp6|Q8R3T5; Atp2a1|Q8R429; Abcc10|Q8R4P9; Dusp15|Q8R4V2; Plppr2|Q8VCY8; Sirt2|Q8VDQ8; Golga7|Q91W53; Pcdhb18|Q91Y02; Gjc3|Q921C1; Csmd1|Q923L3; Pacsin3|Q99JB8; Atp13a2|Q9CTG6; Tmem192|Q9CXT7; Susd2|Q9DBX3; Ehd4|Q9EQP2; Chrm3|Q9ERZ3; Lamtor2|Q9JHS3; Lrp1b|Q9JI18; Abcb9|Q9JJ59; Kcnip2|Q9JJ69; Plekhb1|Q9QYE9; Tollip|Q9QZ06; Clcn2|Q9R0A1; Celsr2|Q9R0M0; Tyk2|Q9R117; Scn8a|Q9WTU3; Slc2a5|Q9WV38; Ptgfrn|Q9WV91; Kcnh3|Q9WVJ0; Tpbg|Q9Z0L0; Fkrp|Q8CG64</t>
+  </si>
+  <si>
     <t xml:space="preserve">M39</t>
   </si>
   <si>
+    <t xml:space="preserve">Fga|E9PV24; Rgs9|O54828; Pja1|O55176; Fcna|O70165; C4b|P01029; Igkv6-17|P01633; Gfap|P03995; Apoe|P08226; Wipf3|P0C7L0; Fn1|P11276; Mdk|P12025; Hmga1|P17095; Hspa1b|P17879; Hexb|P20060; Pltp|P55065; Sst|P60041; Ptn|P63089; Masp1|P98064; Hivep2|Q3UHF7; Pxdn|Q3UQ28; Bag1|Q60739; Cfi|Q61129; Ecm1|Q61508; Nup98|Q6PFD9; Olfml3|Q8BK62; Smoc1|Q8BLY1; Synpo|Q8CC35; Fgb|Q8K0E8; Fgg|Q8VCM7; Dnajc9|Q91WN1; Zwint|Q9CQU5; Atp6v1g1|Q9CR51; Ntn3|Q9R1A3; Cxcl14|Q9WUQ5; Igkv12-41|P01635; Gpx3|P46412; Evl|P70429; Serpine2|Q07235; Dscaml1|Q4VA61; Pla2g7|Q60963; Unc80|Q8BLN6; Fam131a|Q8BWU3; Ltbp4|Q8K4G1; Atl3|Q91YH5; Macroh2a1|Q9QZQ8</t>
+  </si>
+  <si>
     <t xml:space="preserve">M27</t>
   </si>
   <si>
+    <t xml:space="preserve">Bin2|D3Z6Q9; Dchs1|E9PVD3; Pde8b|E9Q4S1; Ngp|O08692; Sdcbp|O08992; Man2b1|O09159; Sdc4|O35988; Ncf2|O70145; Aif1|O70200; Gpld1|O70362; Ctss|O70370; Lgmn|O89017; Matn4|O89029; Pomc|P01193; Ctsl|P06797; Serpina3k|P07759; Dmd|P11531; Lgals3|P16110; Ctsa|P16675; Ctsd|P18242; Ezr|P26040; Rdx|P26043; Vav1|P27870; Grn|P28798; Ptpn6|P29351; Vcam1|P29533; Avp|P35455; Nf2|P46662; Pdcd2|P46718; Hcls1|P49710; Jak1|P52332; Aqp4|P55088; Smpdl3b|P58242; Chl1|P70232; Myo1f|P70248; Slc9a3r1|P70441; Csrp1|P97315; Egfr|Q01279; Camkv|Q3UHL1; Snta1|Q61234; Omg|Q63912; Fam126a|Q6P9N1; Acad11|Q80XL6; Nrcam|Q810U4; Fat3|Q8BNA6; Mpp7|Q8BVD5; Gpc5|Q8CAL5; Plcg2|Q8CIH5; Pla2g15|Q8VEB4; Basp1|Q91XV3; Epdr1|Q99M71; Pfdn1|Q9CWM4; Ist1|Q9CX00; Nol3|Q9D1X0; Dtna|Q9D2N4; S100a16|Q9D708; Arfgap3|Q9D8S3; Gsdmd|Q9D8T2; Ehhadh|Q9DBM2; Dpp7|Q9ET22; Gpc6|Q9R087; Ccs|Q9WU84; Ctsz|Q9WUU7; Ncf1|Q09014; Dock2|Q8C3J5; Ppcs|Q8VDG5; Tmeff2|Q9QYM9; Plekhb2|Q9QZC7; Hexa|P29416; Rtn4r|Q99PI8; Man2b2|O54782; Cd44|P15379; Gla|P51569; Efnb2|P52800; Gfra1|P97785; Lgals3bp|Q07797; Plbd2|Q3TCN2; Pag1|Q3U1F9; Frmd8|Q3UFK8; Islr2|Q5RKR3; Gm2a|Q60648; Cbarp|Q66L44; Spred3|Q6P6N5; Kirrel2|Q7TSU7; Nav3|Q80TN7; Cd99l2|Q8BIF0; Rgs7bp|Q8BQP9; Slc4a7|Q8BTY2; Frs2|Q8C180; Plxnb1|Q8CJH3; Adgrg1|Q8K209; Ptp4a3|Q9D658; Chic2|Q9D9G3; Tesc|Q9JKL5; Lgals8|Q9JL15; Cdh13|Q9WTR5; Crybb1|Q9WVJ5; Npc2|Q9Z0J0</t>
+  </si>
+  <si>
     <t xml:space="preserve">M21</t>
   </si>
   <si>
+    <t xml:space="preserve">Marcks|P26645; Csmd3|Q80T79; Lsamp|Q8BLK3; S1pr5|Q91X56; Gipc1|Q9Z0G0; Flot1|O08917; Stx1a|O35526; Septin8|Q8CHH9; Ppp1r16a|Q923M0; Lrrc57|Q9D1G5; Phrf1|A6H619; Prrt2|E9PUL5; Ephb6|O08644; Mras|O08989; Syt3|O35681; Septin7|O55131; Slc6a2|O55192; Robo1|O89026; Thy1|P01831; Src|P05480; Nras|P08556; Igsf11|P0C673; Kcnc1|P15388; Gabra6|P16305; Kcna3|P16390; Slc7a2|P18581; Gria1|P23818; Slc6a9|P28571; Septin4|P28661; Gnb4|P29387; Rab23|P35288; Grin1|P35438; Fyn|P39688; Efnb1|P52795; Fxyd7|P59648; Il1rapl1|P59823; Stx1b|P61264; Kcna2|P63141; Cdh8|P97291; Cacna1a|P97445; Grm2|Q14BI2; Stk11ip|Q3TAA7; Aifm3|Q3TY86; Arsg|Q3TYD4; 5031439G07Rik|Q3UE31; Plxnd1|Q3UH93; Shisa6|Q3UH99; Adgrb1|Q3UHD1; Slc22a23|Q3UHH2; Tenm4|Q3UHK6; Zdhhc8|Q5Y5T5; Cacna1e|Q61290; Prkg2|Q61410; Cd47|Q61735; Kcna6|Q61923; Sema4b|Q62179; Tspan7|Q62283; Ctnna3|Q65CL1; Elfn2|Q68FM6; Cnnm4|Q69ZF7; Brinp2|Q6DFY8; Tmem132e|Q6IEE6; Panx2|Q6IMP4; Fbxo41|Q6NS60; Dpp10|Q6NXK7; Inpp4b|Q6P1Y8; Ubtd2|Q6PGH0; Ntrk3|Q6VNS1; Igsf21|Q7TNR6; Igsf1|Q7TQA1; Phf24|Q80TL4; Adgrl1|Q80TR1; Adgrl3|Q80TS3; Tspan18|Q80WR1; Slitrk4|Q810B8; Tmem169|Q8BG50; Scn3b|Q8BHK2; Lrfn3|Q8BLY3; Daam1|Q8BPM0; Rell2|Q8BRJ3; Nlgn3|Q8BYM5; Gpr158|Q8C419; Slc43a2|Q8CGA3; Adgrl2|Q8JZZ7; Trhde|Q8K093; Lgi4|Q8K1S1; Anln|Q8K298; Rell1|Q8K2J7; Lgi2|Q8K4Z0; Igsf8|Q8R366; Ntng2|Q8R4F1; Ntng1|Q8R4G0; Crtac1|Q8R555; Ppp1r16b|Q8VHQ3; Cacng8|Q8VHW2; Abca7|Q91V24; Gprc5b|Q923Z0; Tmem121b|Q99MX7; Cadm3|Q99N28; Cntnap4|Q99P47; Ntm|Q99PJ0; Cntnap2|Q9CPW0; Cldnd1|Q9CQX5; Arhgef25|Q9CWR0; Antxr1|Q9CZ52; Golga7b|Q9D428; Lgi1|Q9JIA1; Kcnj10|Q9JM63; Spry2|Q9QXV8; Ehd3|Q9QXY6; Grm3|Q9QYS2; Plxnc1|Q9QZC2; Syt7|Q9R0N7; Adam11|Q9R1V4; Adam22|Q9R1V6; Adam23|Q9R1V7; Tenm1|Q9WTS4; Tenm2|Q9WTS5; Heph|Q9Z0Z4; Septin3|Q9Z1S5; Septin5|Q9Z2Q6; Palm3|A2TJV2; Gap43|P06837; Gpm6a|P35802; Plxna1|P70206; Arf5|P84084; Yes1|Q04736; Cnnm3|Q32NY4; Tom1l2|Q5SRX1; Fgfr3|Q61851; Hepacam|Q640R3; Prcp|Q7TMR0; Cadm2|Q8BLQ9; Iglon5|Q8HW98; Spred1|Q924S8; Rhoa|Q9QUI0; Rgs20|Q9QZB1; Cdh22|Q9WTP5; Mpp2|Q9WV34; Palm|Q9Z0P4; Slc8a3|S4R2P9</t>
+  </si>
+  <si>
     <t xml:space="preserve">M7</t>
   </si>
   <si>
+    <t xml:space="preserve">Fut9|O88819; B2m|P01887; Itgam|P05555; Serpinh1|P19324; Tgfb2|P27090; Lrpap1|P55302; Edem3|Q2HXL6; Cd163|Q2VLH6; Tmtc1|Q3UV71; Endou|Q3V188; Rasef|Q5RI75; Sema5b|Q60519; Ggt1|Q60928; Cp|Q61147; Glg1|Q61543; Ktn1|Q61595; Atrnl1|Q6A051; Nomo1|Q6GQT9; Vstm2l|Q6PDS0; Txndc16|Q7TN22; Mogs|Q80UM7; Mtdh|Q80WJ7; Tmem106b|Q80X71; Wasf2|Q8BH43; Fut11|Q8BHC9; Mia3|Q8BI84; Cnpy4|Q8BQ47; Gpr107|Q8BUV8; Tmem87a|Q8BXN9; Poglut1|Q8BYB9; Sulf2|Q8CFG0; Txndc11|Q8K2W3; Tram1l1|Q8QZR0; Sumf1|Q8R0F3; Ero1a|Q8R180; Rab11fip5|Q8R361; Lrrc59|Q922Q8; Chid1|Q922Q9; Col25a1|Q99MQ5; Rrbp1|Q99PL5; Tmem147|Q9CQG6; Ssr1|Q9CY50; Creld2|Q9CYA0; Emc4|Q9CZX9; Ccdc47|Q9D024; Fam174a|Q9D3L0; Borcs6|Q9D6W8; Cnpy3|Q9DAU1; Dnajc10|Q9DC23; Ssr3|Q9DCF9; Clstn2|Q9ER65; Abhd2|Q9QXM0; Cnpy2|Q9QXT0; Tbl2|Q9R099; Pex14|Q9R0A0; Plod3|Q9R0E1; Entpd5|Q9WUZ9; Itsn2|Q9Z0R6; Minpp1|Q9Z2L6; Elapor1|A2AFS3; Dpy19l4|A2AJQ3; Ube4a|E9Q735; Mttp|O08601; Prdx4|O08807; Cx3cl1|O35188; Serpini1|O35684; Calu|O35887; Fkbp7|O54998; Sigmar1|O55242; Emc8|O70378; Tmem131|O70472; Vamp4|O70480; Dhcr7|O88455; Ugcg|O88693; F11r|O88792; Slc22a8|O88909; H2-D1|P01899; Ptprc|P06800; Enpp1|P06802; Pdia4|P08003; Hck|P08103; P4hb|P09103; Alpl|P09242; Itgb2|P11835; Icam1|P13597; Slc4a2|P13808; Calr|P14211; Chgb|P16014; Enpep|P16406; Hspa5|P20029; Abcb1a|P21447; Ppib|P24369; Timp2|P25785; Chga|P26339; Pdia3|P27773; Man1a|P45700; Fkbp2|P45878; Stt3a|P46978; Hsd11b1|P50172; Efna1|P52793; Entpd1|P55772; Erp29|P57759; Tm9sf2|P58021; Megf8|P60882; St8sia5|P70126; Fv1|P70213; Nucb2|P81117; Anpep|P97449; Dgcr2|P98154; Apoh|Q01339; Rac2|Q05144; Rcn1|Q05186; Igfbp5|Q07079; B4galnt1|Q09200; Itgb8|Q0VBD0; Rundc1|Q0VDN7; Vgf|Q0VGU4; Stt3b|Q3TDQ1; Rnf157|Q3TEL6; Tmem38a|Q3TMP8; Lmtk2|Q3TYD6; Tmem109|Q3UBX0; Sdk1|Q3UH53; Elapor2|Q3UZV7; Lmtk3|Q5XJV6; Psap|Q61207; Soat1|Q61263; Nt5e|Q61503; Il1rap|Q61730; Ltbp3|Q61810; Pon3|Q62087; Ssr4|Q62186; Sema5a|Q62217; Tgoln1|Q62313; Ccn3|Q64299; Piga|Q64323; Ugt8a|Q64676; Myof|Q69ZN7; Rftn1|Q6A0D4; Tmem130|Q6NXM3; Uggt1|Q6P5E4; Pigs|Q6PD26; Atraid|Q6PGD0; Paqr9|Q6TCG2; Mlec|Q6ZQI3; Spcs3|Q6ZWQ7; Maco1|Q7TQE6; Dnajc16|Q80TN4; Sel1l3|Q80TS8; Bpnt2|Q80V26; Ddrgk1|Q80WW9; Kxd1|Q80XH1; Erlin2|Q8BFZ9; Tmtc4|Q8BG19; P4htm|Q8BG58; Efcab14|Q8BGQ6; Tm9sf4|Q8BH24; B3glct|Q8BHT6; Spock3|Q8BKV0; Hspa13|Q8BM72; Acbd3|Q8BMP6; Mon1b|Q8BMQ8; Rcn2|Q8BP92; Sumf2|Q8BPG6; Tmtc3|Q8BRH0; Tusc3|Q8BTV1; Ankrd46|Q8BTZ5; Gprin3|Q8BWS5; Fndc3a|Q8BX90; Eogt|Q8BYW9; Abi3|Q8BYZ1; Ccz1|Q8C1Y8; Lmf2|Q8C3X8; Ccdc134|Q8C7V8; Ufl1|Q8CCJ3; Nckap1l|Q8K1X4; Os9|Q8K2C7; Mcam|Q8R2Y2; Hs2st1|Q8R3H7; Abca3|Q8R420; Ncln|Q8VCM8; Alg9|Q8VDI9; Selenom|Q8VHC3; Sec63|Q8VHE0; Itm2c|Q91VK4; Fam3c|Q91VU0; Pex16|Q91XC9; Rpn1|Q91YQ5; Dnajc3|Q91YW3; Mia2|Q91ZV0; Pofut1|Q91ZW2; Tmco1|Q921L3; Pdia6|Q922R8; Emc3|Q99KI3; Dnajb11|Q99KV1; Cdk5rap3|Q99LM2; St7|Q99M96; Zdhhc6|Q9CPV7; Nenf|Q9CQ45; Spg21|Q9CQC8; Sec61b|Q9CQS8; Txndc12|Q9CQU0; Emc2|Q9CRD2; Manf|Q9CXI5; Pigk|Q9CXY9; Spcs2|Q9CYN2; Dnajc18|Q9CZJ9; Ccdc167|Q9D162; Fkbp11|Q9D1M7; Erp44|Q9D1Q6; Tmem35a|Q9D328; Tspan13|Q9D8C2; Rpn2|Q9DBG6; Srpr|Q9DBG7; Syvn1|Q9DBY1; Sdf2|Q9DCT5; Emc7|Q9EP72; Slco1a4|Q9EP96; Chst1|Q9EQC0; Erap1|Q9EQH2; Spock2|Q9ER58; Parvg|Q9ERD8; Mesd|Q9ERE7; Selenof|Q9ERR7; Sdf2l1|Q9ESP1; Plek|Q9JHK5; Pigo|Q9JJI6; Hyou1|Q9JKR6; Selenok|Q9JLJ1; Crim1|Q9JLL0; Sec61a2|Q9JLR1; Plxnb3|Q9QY40; Dnajb12|Q9QYI4; Hs6st1|Q9QYK5; Atp11c|Q9QZW0; Bcam|Q9R069; Syt11|Q9R0N3; Cx3cr1|Q9Z0D9; Dgat1|Q9Z2A7; Ggt5|Q9Z2A9; Sel1l|Q9Z2G6; Prkcsh|O08795; Ddost|O54734; Sgce|O70258; Clcn7|O70496; Itm2b|O89051; Lifr|P42703; Nsg2|P47759; Dad1|P61804; Aplp2|Q06335; Cd55|Q61475; Nsg1|Q62092; Mon1a|Q6PDG8; Pex26|Q8BGI5; Ctso|Q8BM88; Bri3bp|Q8BXV2; Vps9d1|Q8C190; Slc36a1|Q8K4D3; C1qtnf4|Q8R066; Erlec1|Q8VEH8; Txndc5|Q91W90; Tmem63a|Q91YT8; Golph3|Q9CRA5; Borcs8|Q9D6Y4; Caly|Q9DCA7; Sts|P50427</t>
+  </si>
+  <si>
     <t xml:space="preserve">M32</t>
   </si>
   <si>
+    <t xml:space="preserve">Lcat|P16301; Uevld|Q3U1V6; Adamts2|Q8C9W3; Adap2|Q8R2V5; Wdr20rt|Q9D5R2; Tbc1d8|Q9Z1A9; Fndc10|A2A9Q0; Rundc3a|O08576; Rdh5|O55240; H2-K1|P01901; Plat|P11214; Cyp2a5|P20852; Tap1|P21958; Ptgs1|P22437; Ccn2|P29268; Slc6a13|P31649; Cyp2f2|P33267; Sqle|P52019; Alk|P97793; Scg2|Q03517; Fbln1|Q08879; Gxylt1|Q3UHH8; Vps41|Q5KU39; Pnoc|Q64387; Galnt2|Q6PB93; Kcnf1|Q7TSH7; Adgra3|Q7TT36; Slit1|Q80TR4; Ugt2a1|Q80X89; Arl5a|Q80ZU0; Pomt2|Q8BGQ4; Luzp2|Q8BGY3; Bmp3|Q8BHE5; Bicd1|Q8BR07; Slco2b1|Q8BXB6; Mb21d2|Q8C525; Lrp11|Q8CB67; Tbc1d23|Q8K0F1; Ccm2|Q8K2Y9; Pigu|Q8K358; Mgat5|Q8R4G6; Snap47|Q8R570; Flnc|Q8VHX6; Sorcs3|Q8VI51; Mgst1|Q91VS7; BC031181|Q91WE4; Gorasp1|Q91X51; Trpm2|Q91YD4; Golga2|Q921M4; Abhd17a|Q99JW1; Mgrn1|Q9D074; Usp12|Q9D9M2; Ap1s2|Q9DB50; Enpp5|Q9EQG7; Sorcs1|Q9JLC4; Ecel1|Q9JMI0; Pcsk1n|Q9QXV0; Casr|Q9QY96; Htra1|Q9R118; Rabac1|Q9Z0S9; Itpr2|Q9Z329; H4c1|P62806; Sar1a|P36536; Pald1|P70261; Notch1|Q01705; Xylt1|Q811B1; Mcoln1|Q99J21</t>
+  </si>
+  <si>
     <t xml:space="preserve">M22</t>
   </si>
   <si>
+    <t xml:space="preserve">Ckap5|A2AGT5; Ptpn3|A2ALK8; Nt5c1a|A3KFX0; Sbf2|E9PXF8; Dlg5|E9Q9R9; Trip12|G5E870; Gtpbp1|O08582; Ercc2|O08811; Pik3r2|O08908; Il16|O54824; Cbfa2t2|O70374; Ulk1|O70405; Camk2a|P11798; Rasgrf1|P27671; Kif5a|P33175; Pik3ca|P42337; Ppp3cc|P48455; Fgd1|P52734; Tnks1bp1|P58871; Nphp4|P59240; Cgn|P59242; Arpc4|P59999; Rims4|P60191; Actr2|P61161; Cyth2|P63034; Sbds|P70122; Rit2|P70425; Wnk1|P83741; Map4k4|P97820; Sos2|Q02384; Vps8|Q0P5W1; Phactr1|Q2M3X8; Gsk3a|Q2NL51; Ppp1r21|Q3TDD9; Uri1|Q3TLD5; Tgfbrap1|Q3UR70; Grk3|Q3UYH7; Carmil2|Q3V3V9; Lrrc47|Q505F5; Prag1|Q571I4; Cracd|Q5PR69; Zscan26|Q5RJ54; Wdr34|Q5U4F6; Chuk|Q60680; Ski|Q60698; Dvl3|Q61062; Shc3|Q61120; Map4k2|Q61161; Sos1|Q62245; Ppp1r13b|Q62415; Sorbs1|Q62417; Arhgap20|Q6IFT4; Phldb1|Q6PDH0; Naa35|Q6PHQ8; Camk2d|Q6PHZ2; Asap2|Q7SIG6; Khnyn|Q80U38; Rims3|Q80U57; Usp8|Q80U87; Chn2|Q80XD1; Clspn|Q80YR7; Afap1|Q80YS6; Gatd1|Q8BFQ8; Ppp1r12b|Q8BG95; Wdr92|Q8BGF3; Pan2|Q8BGF7; Arhgap22|Q8BL80; Sowaha|Q8BLS7; Tbck|Q8BM85; Wdr35|Q8BND3; Dpp9|Q8BVG4; Osbpl6|Q8BXR9; Phactr3|Q8BYK5; Wwp1|Q8BZZ3; Peli1|Q8C669; Naa30|Q8CES0; Calcoco1|Q8CGU1; Rapgef2|Q8CHG7; Slain2|Q8CI08; Spata2|Q8K004; Ift80|Q8K057; Pank1|Q8K4K6; Hecw1|Q8K4P8; Itpka|Q8R071; Taf6l|Q8R2K4; Dicer1|Q8R418; Kptn|Q8VCX6; Zcchc18|Q8VD24; Snrk|Q8VDU5; Nle1|Q8VEJ4; Agap3|Q8VHH5; D6Wsu163e|Q91YN0; Srgap2|Q91Z67; Dok5|Q91ZM9; Lpin1|Q91ZP3; Cryzl1|Q921W4; Tgs1|Q923W1; Trim66|Q924W6; Actr3|Q99JY9; Nmd3|Q99L48; Wdr6|Q99ME2; Pih1d1|Q9CQJ2; Arpc2|Q9CVB6; Rtca|Q9D7H3; Arpc5l|Q9D898; Mlst8|Q9DCJ1; Strn3|Q9ERG2; Parvb|Q9ES46; Mtor|Q9JLN9; Git2|Q9JLQ2; Gkap1|Q9JMB0; Myo9b|Q9QY06; Azi2|Q9QYP6; Spast|Q9QYY8; Arpc1a|Q9R0Q6; Slit2|Q9R1B9; Gys1|Q9Z1E4; Rexo1|Q7TT28; Usp43|Q8BUM9; Nup133|Q8R0G9; Camk2b|P28652; Agbl4|Q09LZ8; Sorbs2|Q3UTJ2; Jcad|Q5DTX6; Ppip5k2|Q6ZQB6; Unc13c|Q8K0T7; Iqsec1|Q8R0S2; Camk2g|Q923T9; Ttc9b|Q9D6E4; Mid2|Q9QUS6</t>
+  </si>
+  <si>
     <t xml:space="preserve">M6</t>
   </si>
   <si>
+    <t xml:space="preserve">Slc35d1|A2AKQ0; Syndig1|A2ANU3; Fsip2|A2ARZ3; Dpy19l1|A6X919; Triqk|B2B9E1; Clip3|B9EHT4; Tmem229a|B9EJI9; Arxes1|C0HK79; Poglut3|G5E897; Bet1l|O35153; Gosr2|O35166; Bok|O35425; Bet1|O35623; Get3|O54984; Atp2a2|O55143; Dpm1|O70152; Atp9a|O70228; Hsd17b12|O70503; Gosr1|O88630; Csf1r|P09581; Tmem254c|P0DN91; Cnp|P16330; Lamp2|P17047; Evi2a|P20934; Mfge8|P21956; Cers1|P27545; Dpp4|P28843; Canx|P35564; Tap2|P36371; Scg3|P47867; Fmo1|P50285; Fdft1|P53798; Cyb5a|P56395; Wfs1|P56695; Chp1|P61022; Sec61a1|P61620; Stim1|P70302; H3f3a|P84244; Cds1|P98191; Atp8a2|P98200; Hmgcr|Q01237; Nucb1|Q02819; Dnajb14|Q149L6; Pi4k2a|Q2TBE6; Slc39a7|Q31125; Spryd7|Q3TFQ1; Pbxip1|Q3TVI8; Pip4p1|Q3TWL2; Tmem88b|Q3TYP4; Lmf1|Q3U3R4; Xxylt1|Q3U4G3; Alg10b|Q3UGP8; Pgap1|Q3UUQ7; Ermp1|Q3UVK0; Tmub2|Q3V209; Odr4|Q4PJX1; Trp53i11|Q4QQM4; Pigh|Q5M9N4; Cyb5d2|Q5SSH8; D130043K22Rik|Q5SZV5; Mfsd3|Q5U419; Jagn1|Q5XKN4; Adam9|Q61072; Itga7|Q61738; Epha7|Q61772; Tfrc|Q62351; Atp7a|Q64430; St8sia3|Q64689; Wls|Q6DID7; Lemd2|Q6DVA0; Enpp3|Q6DYE8; Scap|Q6GQT6; Islr|Q6GU68; Sort1|Q6PHU5; Vkorc1l1|Q6TEK5; Marchf6|Q6ZQ89; Dpy19l3|Q71B07; Picalm|Q7M6Y3; Gramd1b|Q80TI0; Zdhhc17|Q80TN5; Fads6|Q80UG1; Pgrmc2|Q80UU9; Zmpste24|Q80W54; Creg2|Q8BGC9; Slc35f1|Q8BGK5; Nipa1|Q8BHK1; Ranbp6|Q8BIV3; Nceh1|Q8BLF1; Slc9a7|Q8BLV3; Tmem260|Q8BMD6; Derl2|Q8BNI4; Nmnat2|Q8BNJ3; Ric3|Q8BPM6; Yipf6|Q8BR70; Scfd1|Q8BRF7; Gpr89|Q8BS95; Asph|Q8BSY0; Pigz|Q8BTP0; Sec62|Q8BU14; Stx16|Q8BVI5; Pomgnt2|Q8BW41; Clptm1l|Q8BXA5; Tmem62|Q8BXJ9; Tmx3|Q8BXZ1; Fam234b|Q8BYI8; Rdh12|Q8BYK4; Rint1|Q8BZ36; Chpt1|Q8C025; Pm20d1|Q8C165; Cers6|Q8C172; Pcyox1l|Q8C7K6; Emc1|Q8C7X2; Podxl2|Q8CAE9; Slc38a2|Q8CFE6; Stoml1|Q8CI66; Tmem230|Q8CIB6; Tmem259|Q8CIV2; Cmtm4|Q8CJ61; Cyp51|Q8K0C4; Tmem41b|Q8K1A5; 9530068E07Rik|Q8K201; Mmgt1|Q8K273; Alg3|Q8K2A8; Hacd3|Q8K2C9; Abca5|Q8K448; Abca9|Q8K449; Sgpl1|Q8R0X7; Slc29a4|Q8R139; Tmed4|Q8R1V4; Rnf121|Q8R1Z9; Abhd6|Q8R2Y0; Dolk|Q8R2Y3; Saraf|Q8R3Q0; Vps39|Q8R5L3; Tmx1|Q8VBT0; Clptm1|Q8VBZ3; Dhcr24|Q8VCH6; Rdh10|Q8VCH7; Tmem97|Q8VD00; Adpgk|Q8VDL4; Rhbdd2|Q8VEK2; Mospd1|Q8VEL0; Pofut2|Q8VHI3; Plpp7|Q91WB2; Cdkal1|Q91WE6; Creld1|Q91XD7; Tmem205|Q91XE8; Rnf185|Q91YT2; Plxdc1|Q91ZV7; Fads1|Q920L1; Tor1aip1|Q921T2; Lrp8|Q924X6; Cers2|Q924Z4; Ghdc|Q99J23; Derl1|Q99J56; Ufsp2|Q99K23; Tmed9|Q99KF1; Clint1|Q99KN9; Vmp1|Q99KU0; Itfg1|Q99KW9; Cds2|Q99L43; Gpx7|Q99LJ6; Abhd12|Q99LR1; Scd3|Q99PL7; Mydgf|Q9CPT4; Use1|Q9CQ56; Cisd2|Q9CQB5; Ergic3|Q9CQE7; Pcyox1|Q9CQF9; Emc6|Q9CQW0; Magt1|Q9CQY5; Tmem9|Q9CR23; Ergic2|Q9CR89; Gdpd1|Q9CRY7; Mospd2|Q9CWP6; Tmed5|Q9CXE7; Tecr|Q9CY27; Prxl2a|Q9CYH2; Atp6ap2|Q9CYN9; Acsl3|Q9CZW4; Ogfod3|Q9D136; Tmed10|Q9D1D4; Hhatl|Q9D1G3; Tmem50b|Q9D1X9; Tmbim6|Q9D2C7; Rnf128|Q9D304; Hacd2|Q9D3B1; Agpat3|Q9D517; Cers4|Q9D6J1; Apmap|Q9D7N9; Tvp23b|Q9D8T4; H13|Q9D8V0; Sec11c|Q9D8V7; Slc22a17|Q9D9E0; Samd8|Q9DA37; Alg5|Q9DB25; Alg2|Q9DBE8; Tmem43|Q9DBS1; Plxdc2|Q9DC11; Ergic1|Q9DC16; Atp13a1|Q9EPE9; Glce|Q9EPS3; Hsd17b11|Q9EQ06; Tor1b|Q9ER41; Scamp2|Q9ERN0; Jph3|Q9ET77; Ank|Q9JHZ2; Herpud2|Q9JJC9; Paqr4|Q9JJE4; Porcn|Q9JJJ7; Ube2j1|Q9JJZ4; Gde1|Q9JL56; Dolpp1|Q9JMF7; Dkk3|Q9QUN9; St6galnac5|Q9QYJ1; Sec11a|Q9R0P6; Tmed2|Q9R0Q3; Dgke|Q9R1C6; Nsdhl|Q9R1J0; Pign|Q9R1S3; Tapbp|Q9R233; Gpaa1|Q9WTK3; Lemd3|Q9WU40; Srd5a3|Q9WUP4; Preb|Q9WUQ2; Cyp46a1|Q9WVK8; Slc12a7|Q9WVL3; Fads2|Q9Z0R9; Large1|Q9Z1M7; Eif2ak3|Q9Z2B5; Clcn6|O35454; Sorl1|O88307; Vti1b|O88384; St3gal5|O88829; Stx8|O88983; Itgb1|P09055; Pcsk2|P21661; Fcgr1|P26151; Ldlr|P35951; Cd82|P40237; Srprb|P47758; Stmn2|P55821; Stmn4|P63042; Rhog|P84096; Emc10|Q3TAS6; Tmem63b|Q3TWI9; Tapt1|Q4VBD2; Itga6|Q61739; Lrrn1|Q61809; Pon2|Q62086; Itga2|Q62469; Ccpg1|Q640L3; Lingo3|Q6GQU6; Casd1|Q7TN73; Galnt17|Q7TT15; Cept1|Q8BGS7; Megf9|Q8BH27; Ganab|Q8BHN3; Pigt|Q8BXQ2; Nalcn|Q8BXR5; Sidt2|Q8CIF6; Disp2|Q8CIP5; Dner|Q8JZM4; Erlin1|Q91X78; Clstn3|Q99JH7; P2ry12|Q9CPV9; Pip4p2|Q9CZX7; Glmp|Q9JHJ3; P2rx4|Q9JJX6; Elovl1|Q9JLJ5; Tmub1|Q9JMG3; Abcc5|Q9R1X5; Atrn|Q9WU60; Pld1|Q9Z280</t>
+  </si>
+  <si>
     <t xml:space="preserve">M20</t>
   </si>
   <si>
+    <t xml:space="preserve">Ctnna1|P26231; C2cd5|Q7TPS5; Slitrk2|Q810C0; Rftn2|Q8CHX7; Cacnb1|Q8R3Z5; Glipr2|Q9CYL5; Ttc7b|E9Q6P5; Slc6a1|P31648; Septin9|Q80UG5; Ctsf|Q9R013; Fam171a2|A2A699; Scn1a|A2APX8; Scn2a|B1AWN6; Stxbp1|O08599; Sema4d|O09126; Ctnnd2|O35927; Cacna1b|O55017; Adcy1|O88444; Hcn3|O88705; Lrrc4b|P0C192; Cdh2|P15116; Slc4a3|P16283; Ctnnd1|P30999; Slc2a3|P32037; Septin2|P42208; Cnr1|P47746; Kcnj4|P52189; Cdh11|P55288; Rac3|P60764; Snap25|P60879; Slc7a10|P63115; Cdh10|P70408; Slc7a3|P70423; Cdh6|P97326; Scn1b|P97952; Arvcf|P98203; Ctnnb1|Q02248; Kcnma1|Q08460; Lrfn1|Q2WF71; Ica1l|Q3TY65; Rnf150|Q5DTZ6; Cemip2|Q5FWI3; Xkr4|Q5GH67; Cdh12|Q5RJH3; Ctnna2|Q61301; Kcna4|Q61423; Grik5|Q61626; Aga|Q64191; Slc13a5|Q67BT3; Pkp4|Q68FH0; Nlgn2|Q69ZK9; Prrt3|Q6PE13; Efr3b|Q6ZQ18; Robo2|Q7TPD3; Lrfn2|Q80TG9; Rap2a|Q80ZJ1; Efr3a|Q8BG67; Olfm2|Q8BM13; Pakap|Q8BR92; Csnk1g1|Q8BTH8; Septin11|Q8C1B7; Fam126b|Q8C729; Nrn1|Q8CFV4; Unc5a|Q8K1S4; Plcd3|Q8K2J0; Kcnq3|Q8K3F6; Appl2|Q8K3G9; Slc8a2|Q8K596; 4933434E20Rik|Q8R092; Zdhhc5|Q8VDZ4; Glra3|Q91XP5; Pde2a|Q922S4; Ptprt|Q99M80; Ykt6|Q9CQW1; Nrxn1|Q9CS84; Rab3b|Q9CZT8; Lingo1|Q9D1T0; Fmn2|Q9JL04; Slc7a8|Q9QXW9; Septin6|Q9R1T4; Trpv2|Q9WTR1; Acvr1|P37172; Ednrb|P48302; Stum|Q0VBF8; Nrxn3|Q6P9K9; Rtn4rl2|Q7M6Z0; Tmem198|Q8BG75; Kirrel3|Q8BR86; Rtn4rl1|Q8K0S5; Tmem51|Q99LG1; Tmem178|Q9CZ16; Slc7a5|Q9Z127; Ptprf|A2A8L5; Gnai1|B2RSH2; Nrxn2|E9Q7X7; Gfra2|O08842; Slc6a6|O35316; Slc1a4|O35874; Entpd2|O55026; Ppt1|O88531; Gnai2|P08752; Slc3a2|P10852; L1cam|P11627; F3|P20352; Gna13|P27601; Chrm4|P32211; Bmpr1a|P36895; Adcy9|P51830; Rras2|P62071; Rhob|P62746; Gnb1|P62874; Gabrb3|P63080; Epha4|Q03137; Smpd1|Q04519; Mdga1|Q0PMG2; Cntnap5a|Q0V8T9; Fam171b|Q14CH0; Gpr162|Q3UN16; Taok1|Q5F2E8; Slc39a12|Q5FWH7; Kcnh1|Q60603; Adora1|Q60612; Slc30a1|Q60738; Sema4a|Q62178; Cntn4|Q69Z26; Mvb12b|Q6KAU4; Rhbdf1|Q6PIX5; Ankib1|Q6ZPS6; Plxna4|Q80UG2; Arl15|Q8BGR6; Tspan9|Q8BJU2; Shisa4|Q8CA71; Slc24a4|Q8CGQ8; Cadm1|Q8R5M8; Pafah2|Q8VDG7; Spred2|Q924S7; Gpr37l1|Q99JG2; Fuca1|Q99LJ1; 2810459M11Rik|Q9CYS6; Ttyh1|Q9D3A9; Fam13c|Q9DBR2; Fibp|Q9JI19; Jam2|Q9JI59; Naga|Q9QWR8; Rgs17|Q9QZB0; Gpc1|Q9QZF2; Syt10|Q9R0N4; Adam17|Q9Z0F8; Lipa|Q9Z0M5</t>
+  </si>
+  <si>
     <t xml:space="preserve">M11</t>
   </si>
   <si>
+    <t xml:space="preserve">Rnf11|Q9QYK7; Atp2b1|G5E829; Cd151|O35566; Atp1b3|P97370; Ids|Q08890; Igsf3|Q6ZQA6; Sun2|Q8BJS4; Rhof|Q8BYP3; Slc39a6|Q8C145; Lmbrd1|Q8K0B2; Slco3a1|Q8R3L5; Slc12a5|Q91V14; Lamtor1|Q9CQ22; Slc23a2|Q9EPR4; Kcnq5|Q9JK45; Car14|Q9WVT6; Xpr1|Q9Z0U0; Lynx1|P0DP60; Irgm1|Q60766; Slc9a1|Q61165; Gnai3|Q9DC51; Cdip1|Q9DB75; Serinc1|Q9QZI8; 4932438A13Rik|A2AAE1; Ano3|A2AHL1; Grik3|B1AS29; Plxnb2|B2RXS4; Rnaset2b|C0HKG6; Cacna2d1|O08532; Capn5|O08688; Snap23|O09044; Ncam2|O35136; Nrp2|O35375; Abcc1|O35379; Efnb3|O35393; Pld3|O35405; Ppt2|O35448; Prrt1|O35449; Edil3|O35474; Notch2|O35516; Neu1|O35657; Gnaz|O70443; Slc16a7|O70451; Pde9a|O70628; Cntfr|O88507; Hcn1|O88704; Kit|P05532; Pdgfrb|P05622; 1500009L16Rik|P0C913; Ctsb|P10605; Rras|P10833; Lamp1|P11438; Itga5|P11688; Ncam1|P13595; Atp1b1|P14094; Insr|P15208; Ntrk2|P15209; Fgfr1|P16092; Gba|P17439; Slc2a1|P17809; Ptpra|P18052; Bsg|P18572; Gnao1|P18872; Gna11|P21278; Gnaq|P21279; Ache|P21836; Emb|P21995; Gabrg2|P22723; Gabrd|P22933; Lyn|P25911; Gabra3|P26049; Ret|P35546; Gpm6b|P35803; Abca1|P41233; Oprm1|P42866; Kcnj6|P48542; Ptpre|P49446; Gabrb1|P50571; Slc16a1|P53986; Stom|P54116; Ephb3|P54754; Ephb2|P54763; Plscr4|P58196; Kcnn2|P58390; Rap2b|P61226; Gabra1|P62812; Gnb2|P62880; Rac1|P63001; Gnas|P63094; Gabrb2|P63137; Rala|P63321; Adcyap1r1|P70205; Plxna2|P70207; Dcc|P70211; Slc8a1|P70414; Stx4a|P70452; Gaa|P70699; Adcy5|P84309; Nptn|P97300; Nrp1|P97333; Adcy8|P97490; Neo1|P97798; Flt3|Q00342; Il6st|Q00560; Axl|Q00993; Adra2a|Q01338; Cacna1c|Q01815; Ptprg|Q05909; Cnnm1|Q0GA42; Unc79|Q0KK59; Kcnc2|Q14B80; Slc35f3|Q1LZI2; Trpm1|Q2TV84; Eepd1|Q3TGW2; Ttyh2|Q3TH73; Cnnm2|Q3TWN3; Fam131b|Q3TY60; Gprin1|Q3UNH4; Nkain3|Q3URJ8; Grm5|Q3UVX5; Lrig2|Q52KR2; Scn2b|Q56A07; Slc4a10|Q5DTL9; Lrrc8b|Q5DU41; Slc5a6|Q5U4D8; Zdhhc20|Q5Y5T1; Adora2a|Q60613; Epha5|Q60629; Mertk|Q60805; Astn1|Q61137; Acvr1b|Q61271; Hras|Q61411; Alcam|Q61490; Slc20a1|Q61609; Grid1|Q61627; Epha6|Q62413; Ptp4a1|Q63739; Abcg1|Q64343; Atp4a|Q64436; Car4|Q64444; Ptprj|Q64455; Cr1l|Q64735; Slc39a10|Q6P5F6; Ttyh3|Q6P5F7; Rgma|Q6PCX7; Mindy2|Q6PDI6; Tmeff1|Q6PFE7; Cacna2d2|Q6PHS9; Atp1a3|Q6PIC6; Atp2b4|Q6Q477; Flrt1|Q6RKD8; Npr2|Q6VVW5; Dagla|Q6WQJ1; Kcnt1|Q6ZPR4; Cspg5|Q71M36; Sema6d|Q76KF0; Scn4b|Q7M729; Plppr4|Q7TME0; Abcg2|Q7TMS5; Tmem59l|Q7TNI2; Plppr3|Q7TPB0; Lrrc75a|Q7TSF4; Tmem94|Q7TSH8; Adcy2|Q80TL1; Daam2|Q80U19; Amigo1|Q80ZD8; Slitrk3|Q810B9; Gns|Q8BFR4; Plppr1|Q8BFZ2; Lhfpl2|Q8BGA2; Lrrc8d|Q8BGR2; Flrt3|Q8BGT1; Ccny|Q8BGU5; Lrtm2|Q8BGX3; Serinc5|Q8BHJ6; Gabra5|Q8BHJ7; Slc17a5|Q8BN82; Zdhhc14|Q8BQQ1; Rap2c|Q8BU31; Slc44a2|Q8BY89; Taok3|Q8BYC6; Dock10|Q8BZN6; Fam234a|Q8C0Z1; Csnk1g3|Q8C4X2; Pde10a|Q8CA95; Gnal|Q8CGK7; Nradd|Q8CJ26; Slc4a8|Q8JZR6; Faim2|Q8K097; Dcun1d3|Q8K0V2; Unc5d|Q8K1S2; Acvr1c|Q8K348; Cystm1|Q8K353; Cables2|Q8K3M5; Clmp|Q8R373; Lrrc8c|Q8R502; Atp1a1|Q8VDN2; Rnf130|Q8VEM1; Adcy3|Q8VHH7; Lrp4|Q8VI56; Pcdhga4|Q91XY4; Scpep1|Q920A5; B3galnt1|Q920V1; Rab31|Q921E2; Rheb|Q921J2; Rap1b|Q99JI6; Tmem100|Q9CQG9; Rgs19|Q9CX84; Moxd1|Q9CXI3; Cmtm6|Q9CZ69; Gabra4|Q9D6F4; Gng12|Q9DAS9; Tril|Q9DBY4; Rp2|Q9EPK2; Tnfrsf21|Q9EPU5; Igdcc4|Q9EQS9; Kcnh7|Q9ER47; Slco1c1|Q9ERB5; C1ql3|Q9ESN4; Asah2|Q9JHE3; Slc29a1|Q9JIM1; Ralb|Q9JIW9; Plscr3|Q9JIZ9; Plscr1|Q9JJ00; Sppl2a|Q9JJF9; Smpd3|Q9JJY3; Slc5a3|Q9JKZ2; Cntn6|Q9JMB8; Neu3|Q9JMH7; Kcnip3|Q9QXT8; Gpr37|Q9QY42; Pcnx|Q9QYC1; Serinc3|Q9QZI9; Atp2b2|Q9R0K7; Rab9|Q9R0M6; Tenm3|Q9WTS6; Ly6h|Q9WUC3; Gabbr1|Q9WV18; Atp1a4|Q9WV27; Ggh|Q9Z0L8; Kcnd3|Q9Z0V1; Kcnd2|Q9Z0V2; Cacna2d3|Q9Z1L5; Dpp6|Q9Z218; Ubl3|Q9Z2M6; Kcnq2|Q9Z351</t>
+  </si>
+  <si>
     <t xml:space="preserve">M24</t>
   </si>
   <si>
+    <t xml:space="preserve">C77080|A2A7S8; Casq2|O09161; Slc18a3|O35304; Mgll|O35678; Usp2|O88623; Gdap1|O88741; Slc4a1|P04919; Mag|P20917; Grin2a|P35436; Cpox|P36552; Rph3a|P47708; Grm8|P47743; Hccs|P53702; Opa1|P58281; Timm8b|P62077; Rab33a|P97950; Grin2d|Q03391; Grid2ip|Q0QWG9; Ankrd27|Q3UMR0; Fam81a|Q3UXZ6; Prune2|Q52KR3; Ndufaf2|Q59J78; Arhgap1|Q5FWK3; Vat1|Q62465; Mtch2|Q791V5; Adgrb3|Q80ZF8; Tmem11|Q8BK08; Slc25a24|Q8BMD8; E130311K13Rik|Q8BN57; Acp6|Q8BP40; Hsdl1|Q8BTX9; Shisa7|Q8C3Q5; Rdh13|Q8CEE7; Rmnd1|Q8CI78; Rhot2|Q8JZN7; Pnpla8|Q8K1N1; Myrip|Q8K3I4; Tmem143|Q8VD26; Cdc42ep1|Q91W92; Coa7|Q921H9; Sfxn5|Q925N0; Lrrc4|Q99PH1; Acsbg1|Q99PU5; Slc25a46|Q9CQS4; Dnajc19|Q9CQV7; Ociad1|Q9CRD0; Micu3|Q9CTY5; Mtfr1l|Q9CWE0; Ears2|Q9CXJ1; Abcb8|Q9CXJ4; Naxd|Q9CZ42; Shisa9|Q9CZN4; Synj2bp|Q9D6K5; Armc1|Q9D7A8; Tmem126a|Q9D8Y1; Slc25a18|Q9DB41; Tomm20|Q9DCC8; Ube3b|Q9ES34; Abcb10|Q9JI39; Tomm40|Q9QYA2; Sh2d3c|Q9QZS8; Cbln1|Q9R171; Ak2|Q9WTP6; Prodh|Q9WU79; Arc|Q9WV31; Asah1|Q9WV54; Osbpl10|S4R1M9; Hk2|O08528; Prom1|O54990; Bnip3|O55003; Cacng2|O88602; Sh3pxd2a|O89032; Syt1|P46096; Bcl2l13|P59017; Dnajc5|P60904; Rab3c|P62823; Rab3a|P63011; Vamp2|P63044; Gng2|P63213; Ica1|P97411; Usp30|Q3UN04; Prr7|Q3V0I2; Rab26|Q504M8; Vdac2|Q60930; Vdac3|Q60931; Vdac1|Q60932; Grid2|Q61625; Pick1|Q62083; Ptprr|Q62132; Sh3gl3|Q62421; Gk|Q64516; Grm4|Q68EF4; Mff|Q6PCP5; Mfsd4a|Q6PDC8; Mtch1|Q791T5; Mfn2|Q80U63; Lrrtm4|Q80XG9; Rhot1|Q8BG51; Lrrtm2|Q8BGA3; Mief1|Q8BGV8; Slc5a7|Q8BGY9; Fbxl4|Q8BH70; Pgs1|Q8BHF7; Dnm3|Q8BZ98; Adgra1|Q8C4G9; Elfn1|Q8C8T7; Adgrb2|Q8CGM1; Minar1|Q8K3V7; Suox|Q8R086; Mul1|Q8VCM5; Mtmr14|Q8VEL2; Cisd1|Q91WS0; Trabd|Q99JY4; Gak|Q99KY4; Cyp4f18|Q99N16; Mgst3|Q9CPU4; Tomm70a|Q9CZW5; Nt5c3|Q9D020; Armc10|Q9D0L7; Mobp|Q9D2P8; Cmtm5|Q9D6G9; Cyb5r1|Q9DB73; Abhd5|Q9DBL9; 4833439L19Rik|Q9DBN4; Cend1|Q9JKC6</t>
+  </si>
+  <si>
     <t xml:space="preserve">M34</t>
   </si>
   <si>
+    <t xml:space="preserve">Arhgap27|A2AB59; Myo10|F8VQB6; Prkag1|O54950; Mt1|P02802; Prl|P06879; Ptprm|P28828; Eps15|P42567; Cpne2|P59108; Pkn1|P70268; Fer|P70451; Arap1|Q4LDD4; Prkaa1|Q5EG47; Rgl2|Q61193; Sntb2|Q61235; Birc2|Q62210; Ptpn13|Q64512; Ahcyl2|Q68FL4; Psd2|Q6P1I6; Prkab2|Q6PAM0; Tiam2|Q6ZPF3; Cyfip1|Q7TMB8; Spag1|Q80ZX8; Dennd6a|Q8BH65; Tbc1d10b|Q8BHL3; Usp54|Q8BL06; Eea1|Q8BL66; Rps6kc1|Q8BLK9; Gjc2|Q8BQU6; Pkn2|Q8BWW9; Phlpp2|Q8BXA7; Arhgap18|Q8K0Q5; Fez1|Q8K0X8; Plekho2|Q8K124; Ntmt1|Q8R2U4; Rufy2|Q8R4C2; Caskin2|Q8VHK1; Serpinb1b|Q8VHP7; Rab40c|Q8VHQ4; Sharpin|Q91WA6; Bbox1|Q924Y0; Homer3|Q99JP6; Lurap1|Q9D6I9; Necab3|Q9D6J4; Dennd6b|Q9D9V7; Mpp5|Q9JLB2; Pnck|Q9QYK9; Hebp1|Q9R257; Cldn10|Q9Z0S6; Tjp2|Q9Z0U1; Rlbp1|Q9Z275; Pdpk1|Q9Z2A0; Rgs6|Q9Z2H2; Olfm1|O88998; A830018L16Rik|Q8BZJ8; Sema6b|O54951; Pld2|P97813; Glra1|Q64018; Exoc3l4|Q6DIA2; Pcdh19|Q80TF3; Slc19a1|P41438; Adcy6|Q01341; Dock1|Q8BUR4</t>
+  </si>
+  <si>
     <t xml:space="preserve">M29</t>
   </si>
   <si>
+    <t xml:space="preserve">Arfgef2|A2A5R2; Uhrf1bp1l|A2RSJ4; Klhl3|E0CZ16; Cdk14|O35495; Limk2|O54785; Ugdh|O70475; Diaph2|O70566; Dtnb|O70585; Akap10|O88845; Ifrd1|P19182; Pik3r1|P26450; Nckap1|P28660; Ptk2|P34152; Sipa1|P46062; Cast|P51125; Rasa2|P58069; Sash1|P59808; Gabarapl2|P60521; Fgf12|P61329; Abi2|P62484; Dynlrb1|P62627; Fgf13|P70377; Rasgrf2|P70392; Lig3|P97386; Arhgap5|P97393; Rnasel|Q05921; Eps8|Q08509; Iqsec3|Q3TES0; Tbc1d2b|Q3U0J8; Abl2|Q4JIM5; Cyfip2|Q5SQX6; Ppp2r5c|Q60996; Tsc2|Q61037; Mapk6|Q61532; Jak2|Q62120; Rab3ip|Q68EF0; Git1|Q68FF6; Arhgap23|Q69ZH9; Kazn|Q69ZS8; Wdcp|Q6NV72; Ift122|Q6NWV3; Hdac4|Q6NZM9; Inppl1|Q6P549; Magi1|Q6RHR9; Sbf1|Q6ZPE2; Ppp2r2b|Q6ZWR4; Mtmr12|Q80TA6; Snupn|Q80W37; Wnk3|Q80XP9; Ireb2|Q811J3; Srgap3|Q812A2; Elmo2|Q8BHL5; Kbtbd11|Q8BNW9; Efl1|Q8C0D5; Fam110b|Q8C739; Abi1|Q8CBW3; Lancl3|Q8CD19; Map2k7|Q8CE90; Dnajc27|Q8CFP6; Stk32c|Q8QZV4; Wasf1|Q8R5H6; Rapgef3|Q8VCC8; Wasf3|Q8VHI6; Brk1|Q91VR8; Bmp2k|Q91Z96; Zfp330|Q922H9; Lims1|Q99JW4; Rad54l2|Q99NG0; Tbc1d7|Q9D0K0; Tax1bp3|Q9DBG9; Ampd2|Q9DBT5; Rai14|Q9EP71; Parva|Q9EPC1; Scyl1|Q9EQC5; Stk4|Q9JI11; Tmem47|Q9JJG6; Hip1r|Q9JKY5; Capn15|Q9JLG8; Ap3b2|Q9JME5; Add2|Q9QYB8; Add1|Q9QYC0; Afdn|Q9QZQ1; Capn7|Q9R1S8; Stat2|Q9WVL2; Nos1|Q9Z0J4; Mtmr1|Q9Z2C4; Mtm1|Q9Z2C5; Dock8|Q8C147; Sh3bp1|P55194; Xrcc1|Q60596; Ppp2r2c|Q8BG02; Limd2|Q8BGB5; Wdr37|Q8CBE3; Pacs1|Q8K212; Farp2|Q91VS8</t>
+  </si>
+  <si>
     <t xml:space="preserve">M1</t>
   </si>
   <si>
+    <t xml:space="preserve">Hsdl2|Q2TPA8; Sh3gl2|Q62420; Ppp2r5a|Q6PD03; Atpaf1|Q811I0; Zadh2|Q8BGC4; Atcay|Q8BHE3; Sgsm1|Q8BPQ7; Eci2|Q9WUR2; Ajm1|A2AJA9; Ndufaf5|A2APY7; Etl4|A2AQ25; Slc25a25|A2ASZ8; Kalrn|A2CG49; Mipep|A6H611; Cisd3|B1AR13; Xpnpep3|B7ZMP1; Gls|D3Z7P3; Igsf9b|E9PZ19; Xkr6|E9Q6C8; Ank3|G5E8K5; Endog|O08600; Dld|O08749; Hsd17b10|O08756; Ndufb11|O09111; Phb2|O35129; Atpif1|O35143; Hax1|O35387; Dhodh|O35435; Ech1|O35459; C1qbp|O35658; Mrps12|O35680; Ndufa1|O35683; Noct|O35710; Bcat2|O35855; Timm44|O35857; Bckdk|O55028; Nipsnap1|O55125; Nipsnap2|O55126; Gpx4|O70325; Mtx2|O88441; Clpp|O88696; Ctbp1|O88712; Bsn|O88737; Yme1l1|O88967; Gcat|O88986; Fhit|O89106; CYTB|P00158; Dhfr|P00375; COX1|P00397; COX2|P00405; ATP6|P00848; ND1|P03888; ND2|P03893; ND4|P03911; ND5|P03921; Got2|P05202; Spta1|P08032; Mdh2|P08249; Sod2|P09671; Surf1|P09925; Cox5a|P12787; Sptb|P15508; Mmut|P16332; Cox7c|P17665; Hk1|P17710; Mpv17|P19258; Cox5b|P19536; Cox4i1|P19783; Prdx3|P20108; Fech|P22315; Glud1|P26443; Oat|P29758; Ckmt1|P30275; Pdha1|P35486; Hmgcl|P38060; Hspa9|P38647; Tfam|P40630; Eci1|P42125; Cox6a1|P43024; Acadm|P45952; Aldh2|P47738; Mtx1|P47802; Crat|P47934; Slc25a4|P48962; Bckdha|P50136; H2-Ke6|P50171; Acadvl|P50544; Acadl|P51174; Slc25a5|P51881; Tst|P52196; Ndufs6|P52503; Cpt2|P52825; Dbt|P53395; Idh2|P54071; Galc|P54818; Atp5j2|P56135; Gfer|P56213; Atp5mpl|P56379; Atp5e|P56382; Cox6b1|P56391; Cox7b|P56393; Atp5b|P56480; Mrps21|P58059; Car10|P61215; Abat|P61922; Timm10|P62073; Timm13|P62075; Cycs|P62897; Mpc1|P63030; Hspd1|P63038; Selenow|P63300; Phb|P67778; Idh3g|P70404; Renbp|P82343; Isoc2a|P85094; Coq7|P97478; Txn2|P97493; Fh1|P97807; Dtymk|P97930; Uqcrh|P99028; Prdx5|P99029; Atp5a1|Q03265; Pcx|Q05920; Atp5k|Q06185; Acads|Q07417; Ydjc|Q14BV6; Ptcd3|Q14C51; Aars2|Q14CH7; Map3k13|Q1HKZ5; Fahd2a|Q3TC72; Nlrx1|Q3TL44; Tamm41|Q3TUH1; Rars2|Q3U186; Cmpk2|Q3U5Q7; Lyplal1|Q3UFF7; Nt5dc3|Q3UHB1; Ndufb6|Q3UIU2; Mccc2|Q3ULD5; Spg7|Q3ULF4; Mcu|Q3UMR5; Cryzl2|Q3UNZ8; Tars2|Q3UQ84; Acsf3|Q3URE1; Ccdc51|Q3URS9; Them4|Q3UUI3; Itpripl2|Q3UV16; Pdp1|Q3UV70; Ppm1h|Q3UYC0; Slc25a31|Q3V132; Afg1l|Q3V384; Mthfd1l|Q3V3R1; Mars2|Q499X9; Shank3|Q4ACU6; Ndufa4l2|Q4FZG9; Unc13a|Q4KUS2; Tmem65|Q4VAE3; Opa3|Q505D7; Coq8b|Q566J8; Gls2|Q571F8; Slc25a51|Q5HZI9; Slc30a9|Q5IRJ6; Sdr39u1|Q5M8N4; Mrs2|Q5NCE8; Tefm|Q5SSK3; Dnajc11|Q5U458; Parl|Q5XJY4; Ogdh|Q60597; Clpb|Q60649; Gcdh|Q60759; Coq8a|Q60936; Abcb7|Q61102; Arg1|Q61176; Cox7a2l|Q61387; Hadh|Q61425; Snap91|Q61548; Fdxr|Q61578; Mrps31|Q61733; Dlg4|Q62108; Ndufa4|Q62425; Syn2|Q64332; Hspe1|Q64433; Gpd2|Q64521; Ptpmt1|Q66GT5; Begain|Q68EF6; Cltc|Q68FD5; Ablim3|Q69ZX8; Slc25a23|Q6GQS1; Btbd11|Q6GQW0; Pptc7|Q6NVE9; Ocrl|Q6NVF0; Ckmt2|Q6P8J7; Lrpprc|Q6PB66; Abhd10|Q6PE15; Erc2|Q6PH08; Tlr13|Q6R5N8; Kyat3|Q71RI9; Atp5md|Q78IK2; Apool|Q78IK4; Msrb2|Q78J03; Ndufa12|Q7TMF3; Sugct|Q7TNE1; Micos10|Q7TNS2; Pdpr|Q7TSQ8; Lrrc7|Q80TE7; Rimbp2|Q80U40; Mrps7|Q80X85; Bdh1|Q80XN0; Glrx5|Q80Y14; Bsdc1|Q80Y55; Supv3l1|Q80YD1; Shank2|Q80Z38; Mrps26|Q80ZS3; Pdk1|Q8BFP9; Tufm|Q8BFR5; Coa6|Q8BGD8; Slc25a44|Q8BGF9; Samm50|Q8BGH2; Gpt2|Q8BGT5; Nars2|Q8BGV0; Timm29|Q8BGX2; Pck2|Q8BH04; Thnsl1|Q8BH55; Slc25a12|Q8BH59; Dglucy|Q8BH86; Echs1|Q8BH95; Maip1|Q8BHE8; Iars2|Q8BIJ6; Dars2|Q8BIP0; Cox15|Q8BJ03; Dlgap2|Q8BJ42; Mrps35|Q8BJZ4; Ndufv3|Q8BK30; Mrps27|Q8BK72; Pdhx|Q8BKZ9; Slc25a29|Q8BL03; Plcxd3|Q8BLJ3; Shc2|Q8BMC3; Me3|Q8BMF3; Dlat|Q8BMF4; Hadha|Q8BMS1; Tmem177|Q8BPE4; Prkaa2|Q8BRK8; Pisd|Q8BSF4; Aldh5a1|Q8BWF0; Ptges2|Q8BWM0; Acaa2|Q8BWT1; Pgam5|Q8BX10; Yars2|Q8BYL4; Cars2|Q8BYM8; Pak5|Q8C015; Lrrc4c|Q8C031; Slc25a16|Q8C0K5; Exog|Q8C163; Guf1|Q8C3X4; Nadk2|Q8C5H8; Mmaa|Q8C7H1; Scai|Q8C8N2; Iba57|Q8CAK1; Immt|Q8CAQ8; Vwa8|Q8CC88; Nhlrc3|Q8CCH2; Amt|Q8CFA2; Pars2|Q8CFI5; Lonp1|Q8CGK3; Aldh4a1|Q8CHT0; Mical3|Q8CJ19; Acad9|Q8JZN5; Afg3l2|Q8JZQ2; Slc25a1|Q8JZU2; Fnbp1l|Q8K012; Gfm1|Q8K0D5; Taco1|Q8K0Z7; Angel2|Q8K1C0; Pnpt1|Q8K1R3; Coq9|Q8K1Z0; Sdha|Q8K2B3; Sirt5|Q8K2C6; Mrpl38|Q8K2M0; Chchd7|Q8K2Q5; Acad10|Q8K370; Hscb|Q8K3A0; Ndufs8|Q8K3J1; Pitrm1|Q8K411; Abhd11|Q8K4F5; Hibch|Q8QZS1; Acat1|Q8QZT1; Fahd1|Q8R0F8; Slc25a42|Q8R0Y8; Sirt3|Q8R104; Flad1|Q8R123; Bphl|Q8R164; Uqcr10|Q8R1I1; Stard7|Q8R1R3; Coq6|Q8R1S0; Mcat|Q8R3F5; Micos13|Q8R404; Clybl|Q8R4N0; Nt5m|Q8VCE6; Lipt1|Q8VCM4; Acsf2|Q8VCW8; Micu1|Q8VCX5; Lars2|Q8VDC0; Ttc39c|Q8VE09; Mrps23|Q8VE22; Gdap1l1|Q8VE33; Oxnad1|Q8VE38; Ogfrl1|Q8VE52; Prelid3a|Q8VE85; C030006K11Rik|Q8VE95; Slc25a3|Q8VEM8; Sfxn3|Q91V61; Poldip2|Q91VA6; Ghitm|Q91VC9; Ndufs1|Q91VD9; Ppa2|Q91VM9; Chchd6|Q91VN4; Atp5c1|Q91VR2; Cbr4|Q91VT4; Gldc|Q91W43; Ndufs2|Q91WD5; Spryd4|Q91WK1; Gcsh|Q91WK5; Hdhd5|Q91WM2; Mtif2|Q91YJ5; Tbrg4|Q91YM4; L2hgdh|Q91YP0; Ndufv1|Q91YT0; Pcca|Q91ZA3; Etfdh|Q921G7; Macrod1|Q922B1; Fastkd2|Q922E6; Pdk3|Q922H2; Pycr2|Q922Q4; Glrx2|Q923X4; Mto1|Q923Z3; Rtn4ip1|Q924D0; Letmd1|Q924L1; Atad3a|Q925I1; Mlycd|Q99J39; Mpst|Q99J99; Stoml2|Q99JB2; Sfxn1|Q99JR1; Gatb|Q99JT1; Hadhb|Q99JY0; Nlgn1|Q99K10; Me2|Q99KE1; Aco2|Q99KI0; Hars2|Q99KK9; Ppif|Q99KR7; Hibadh|Q99L13; Dhrs4|Q99LB2; Sardh|Q99LB7; Ndufa10|Q99LC3; Etfa|Q99LC5; Grpel1|Q99LP6; Ndufs5|Q99LY9; Fars2|Q99M01; Lias|Q99M04; Dnaja3|Q99M87; Pccb|Q99MN9; Mccc1|Q99MR8; Mrps5|Q99N87; Mrpl16|Q99N93; Mrpl9|Q99N94; Mrpl3|Q99N95; Mrpl1|Q99N96; Acss1|Q99NB1; Ndufa5|Q9CPP6; Cox6c|Q9CPQ1; Tomm22|Q9CPQ3; Atp5l|Q9CPQ8; Ndufb2|Q9CPU2; Mrps16|Q9CPX7; Uqcr11|Q9CPX8; Dmac1|Q9CQ00; Mrpl24|Q9CQ06; Ndufc2|Q9CQ54; Decr1|Q9CQ62; Uqcrq|Q9CQ69; Ndufa2|Q9CQ75; Timm22|Q9CQ85; Ndufa3|Q9CQ91; Sdhb|Q9CQA3; Ndufb4|Q9CQC7; Nipsnap3b|Q9CQE1; Mrpl11|Q9CQF0; Mtres1|Q9CQF4; Ndufb5|Q9CQH3; Ndufb9|Q9CQJ8; Mrpl18|Q9CQL5; Trap1|Q9CQN1; Atp5pb|Q9CQQ7; Acot13|Q9CQR4; Mrps36|Q9CQX8; Ndufa6|Q9CQZ5; Ndufb3|Q9CQZ6; Gadd45gip1|Q9CR59; Ndufb7|Q9CR61; Slc25a11|Q9CR62; Uqcrfs1|Q9CR68; Atp5g1|Q9CR84; Fam136a|Q9CR98; Dmac2l|Q9CRA7; Mtfp1|Q9CRB8; Chchd3|Q9CRB9; Nubpl|Q9CWD8; Ndufaf7|Q9CWG8; Uqcc1|Q9CWU6; Ndufaf1|Q9CWX2; Coq5|Q9CXI0; Pmpcb|Q9CXT8; Sdhd|Q9CXV1; Mrps22|Q9CXW2; Ndufs4|Q9CXZ1; Mrps28|Q9CY16; Wars2|Q9CYK1; Ssbp1|Q9CYR0; Hdhd3|Q9CYW4; Uqcrc1|Q9CZ13; Mrpl55|Q9CZ83; Sdhc|Q9CZB0; Mtif3|Q9CZD5; Shmt2|Q9CZN7; Bcs1l|Q9CZP5; Tomm40l|Q9CZR3; Tsfm|Q9CZR8; Aldh1b1|Q9CZS1; Cs|Q9CZU6; Mpc2|Q9D023; Pdhb|Q9D051; Mtpap|Q9D0D3; Mrps30|Q9D0G0; Oxct1|Q9D0K2; Adck1|Q9D0L4; Cyc1|Q9D0M3; Mrpl45|Q9D0Q7; Hint2|Q9D0S9; Gatd3a|Q9D172; Mrpl28|Q9D1B9; Ndufaf4|Q9D1H6; Mcee|Q9D1I5; Mrpl14|Q9D1I6; Chchd2|Q9D1L0; Mrpl13|Q9D1P0; Dlst|Q9D2G2; Mrps33|Q9D2R8; Mrpl19|Q9D338; Atp5d|Q9D3D9; Plgrkt|Q9D3P8; Oxsm|Q9D404; Dlgap1|Q9D415; Ndufb8|Q9D6J5; Ndufv2|Q9D6J6; Slc25a22|Q9D6M3; Idh3a|Q9D6R2; Mrrf|Q9D6S7; Fam162a|Q9D6U8; Mrpl2|Q9D773; Mtfmt|Q9D799; Acad8|Q9D7B6; Mrps9|Q9D7N3; Iscu|Q9D7P6; Naaa|Q9D7V9; Uqcrb|Q9D855; Timm50|Q9D880; Rexo2|Q9D8S4; Slirp|Q9D8T7; Ociad2|Q9D8W7; Isca1|Q9D924; Tmem160|Q9D938; Gatm|Q9D964; Trmu|Q9DAT5; Smdt1|Q9DB10; Atp5o|Q9DB20; Prxl2b|Q9DB60; Uqcrc2|Q9DB77; Acadsb|Q9DBL1; Coasy|Q9DBL7; Pmpca|Q9DC61; Ndufa9|Q9DC69; Ndufs7|Q9DC70; Mrps15|Q9DC71; Mrps11|Q9DCA2; Isca2|Q9DCB8; Ndufa8|Q9DCJ5; Ethe1|Q9DCM0; Mecr|Q9DCS3; Ndufb10|Q9DCS9; Ndufs3|Q9DCT2; Mrpl4|Q9DCU6; Rmdn1|Q9DCV4; Etfb|Q9DCW4; Atp5h|Q9DCX2; Apoo|Q9DCZ4; Lactb|Q9EP89; Aldh6a1|Q9EQ20; Rapgef4|Q9EQZ6; Dap3|Q9ER88; Ndufa13|Q9ERS2; Agk|Q9ESW4; Ivd|Q9JHI5; Clpx|Q9JHS4; Mrps34|Q9JIK9; Htra2|Q9JIY5; Lancl2|Q9JJK2; Sars2|Q9JJL8; Cacng3|Q9JJV5; Pdk2|Q9JK42; Mrpl39|Q9JKF7; Ndufaf3|Q9JKL4; Txnrd2|Q9JLT4; Auh|Q9JLZ3; Srcin1|Q9QWI6; Homer2|Q9QWW1; Dguok|Q9QX60; Acot2|Q9QYR9; Pclo|Q9QYX7; Nfu1|Q9QZ23; Slc25a10|Q9QZD8; Ecsit|Q9QZH6; Tk2|Q9R088; Acot9|Q9R0X4; Sqor|Q9R112; Ak3|Q9WTP7; Timm23|Q9WTQ8; Suclg1|Q9WUM5; Ak4|Q9WUR9; Timm10b|Q9WV96; Timm9|Q9WV98; Timm8a1|Q9WVA2; Slc25a15|Q9WVD5; Gstz1|Q9WVL0; Aifm1|Q9Z0X1; Aldh18a1|Q9Z110; Nfs1|Q9Z1J3; Ndufa7|Q9Z1P6; Letm1|Q9Z2I0; Suclg2|Q9Z2I8; Sucla2|Q9Z2I9; Mrpl40|Q9Z2Q5; Slc25a20|Q9Z2Z6; Ildr2|B5TVM2; Cacnb3|P54285; Grin2b|Q01097; Lrrtm1|Q8K377; Prkag2|Q91WG5; Rnf141|Q99MB7</t>
+  </si>
+  <si>
     <t xml:space="preserve">M28</t>
   </si>
   <si>
+    <t xml:space="preserve">Klhdc7a|A2APT9; Akap1|O08715; Cnih2|O35089; Myadm|O35682; Rab33b|O35963; Chmp6|P0C0A3; Gria2|P23819; Rab12|P35283; Rab24|P35290; Acsl1|P41216; Rpia|P47968; Atp6v0d1|P51863; Anks1|P59672; Plp1|P60202; Rab10|P61027; Olfm3|P63056; Abcc9|P70170; Kcnab3|P97382; Pros1|Q08761; Marchf5|Q3KNM2; Rmdn3|Q3UJU9; Miga1|Q4QQM5; Antkmt|Q501J2; Stxbp5l|Q5DQR4; Cldn11|Q60771; Bad|Q61337; Gpam|Q61586; Rab34|Q64008; Maoa|Q64133; Dbh|Q64237; Abhd17b|Q7M759; Snph|Q80U23; Tdrkh|Q80VL1; Lrrc1|Q80VQ1; Mfn1|Q811U4; Zfp365|Q8BG89; Slc35d3|Q8BGF8; Fbxl2|Q8BH16; Sybu|Q8BHS8; Mal2|Q8BI08; Comtd1|Q8BIG7; Flrt2|Q8BLU0; Aifm2|Q8BUE4; Maob|Q8BW75; Lrrtm3|Q8BZ81; Rab15|Q8K386; Rnasek|Q8K3C0; Bmerb1|Q8R1Y2; Mavs|Q8VCF0; Angel1|Q8VCU0; Exd2|Q8VEG4; Cspg4|Q8VHY0; Snx4|Q91YJ2; Syt17|Q920M7; Mtarc2|Q922Q1; Rab30|Q923S9; Rab27b|Q99P58; Fis1|Q9CQ92; Rab5a|Q9CQD1; Cyb5b|Q9CQX2; Msmo1|Q9CRA4; Agpat5|Q9D1E8; Lamp5|Q9D387; Atad1|Q9D5T0; Fundc2|Q9D6K8; Pllp|Q9DCU2; Arfgap1|Q9EPJ9; Rab27a|Q9ERI2; Rdh14|Q9ERI6; Golga5|Q9QYE6; Bnip3l|Q9Z2F7; Htatip2|Q9Z2G9; Gria4|Q9Z2W8; Gria3|Q9Z2W9; Mgat1|P27808; Ddr1|Q03146; Mief2|Q5NCS9; Rab35|Q6PHN9; Mblac2|Q8BL86; Gbp5|Q8CFB4; Abhd17c|Q8VCV1; Sft2d2|Q8VD57; Dhrs7b|Q99J47; Zfpl1|Q9DB43; Tagln3|Q9R1Q8; Man1b1|A2AJ15; Car11|O70354; Casp1|P29452; Ppic|P30412; Man1a2|P39098; Kcnab1|P63143; Slc29a2|Q61672; Bcl2l1|Q64373; Tmem267|Q8VDR5; Znrf1|Q91V17; Dnajb2|Q9QYI5</t>
+  </si>
+  <si>
     <t xml:space="preserve">M40</t>
   </si>
   <si>
+    <t xml:space="preserve">Ccdc186|Q8C9S4; Sec14l1|A8Y5H7; Wdfy1|E9Q4P1; Sh3yl1|O08641; Mab21l1|O70299; Myo5b|P21271; Syt2|P46097; Vps33b|P59016; Lzts1|P60853; Tep1|P97499; Btrc|Q3ULA2; Jakmip3|Q5DTN8; Ankrd13b|Q5F259; Abca13|Q5SSE9; Fstl4|Q5STE3; Vamp1|Q62442; Sv2c|Q69ZS6; Armcx2|Q6A058; Tspoap1|Q7TNF8; Rusc2|Q80U22; Ap4e1|Q80V94; Rusc1|Q8BG26; Clvs2|Q8BG92; Vipas39|Q8BGQ1; Napepld|Q8BH82; Slc17a6|Q8BLE7; Zfp385b|Q8BXJ8; Klhl20|Q8VCK5; Mtmr6|Q8VE11; Thoc3|Q8VE80; Bloc1s4|Q8VED2; Hdac11|Q91WA3; Trappc2|Q9CQP2; Llph|Q9D945; Senp3|Q9EP97; Snap29|Q9ERB0; Scamp5|Q9JKD3; Rab37|Q9JKM7; Atp8a1|P70704; Ext1|P97464; Gdpd5|Q640M6; Slc6a17|Q8BJI1; Tmem163|Q8C996; Hint3|Q9CPS6</t>
+  </si>
+  <si>
     <t xml:space="preserve">M37</t>
   </si>
   <si>
+    <t xml:space="preserve">Neu2|Q9JMH3; Ttc39a|A2ACP1; Klc2|O88448; Nfix|P70257; Hs3st2|Q673U1; Sdad1|Q80UZ2; Ap4s1|Q9WVL1; Atp6v1c1|Q9Z1G3; Syngr1|O55100; Atp6v1a|P50516; Atp6v1e1|P50518; Atp6v1b2|P62814; Atp6v0c|P63082; Slc30a3|P97441; Rogdi|Q3TDK6; Slc17a7|Q3TXX4; Ccdc177|Q3UHB8; Trim41|Q5NCC3; Ppp2r5e|Q61151; Syp|Q62277; Sh3gl1|Q62419; Map3k10|Q66L42; Dgkq|Q6P5E8; Tnks|Q6PFX9; Slc6a7|Q6PGE7; Ddn|Q80TS7; Avl9|Q80U56; Sv2b|Q8BG39; Med12l|Q8BQM9; 2900026A02Rik|Q8BRV5; Atp6v1h|Q8BVE3; Slc7a14|Q8BXR1; N4bp3|Q8C7U1; Phf20l1|Q8CCJ9; Smc4|Q8CG47; Syn3|Q8JZP2; Syngr3|Q8R191; Med17|Q8VCD5; Abhd4|Q8VD66; Mzt2|Q9CQ25; Snx7|Q9CY18; Ttpal|Q9D3D0; Tprgl|Q9DBS2; Sphk2|Q9JIA7; Sv2a|Q9JIS5; Epb41l4b|Q9JMC8; Syt12|Q920N7; Ap4b1|Q9WV76; Atp6v0a1|Q9Z1G4</t>
+  </si>
+  <si>
     <t xml:space="preserve">M35</t>
   </si>
   <si>
+    <t xml:space="preserve">Exoc6b|A6H5Z3; Pi4ka|E9Q3L2; S1pr1|O08530; Exoc7|O35250; Rgs7|O54829; Cask|O70589; Lin7c|O88952; Dao|P18894; Gja1|P23242; Slc6a11|P31650; Slc1a2|P43006; Cd38|P56528; Slc1a3|P56564; Ntsr2|P70310; Gjb6|P70689; Sirpa|P97797; Kcnb1|Q03717; Prex2|Q3LAC4; Cnrip1|Q5M8N0; Slc6a3|Q61327; Atp1a2|Q6PIE5; Ahcyl1|Q80SW1; Fbxo2|Q80UW2; Nfasc|Q810U3; Cpne4|Q8BLR2; Nhsl1|Q8CAF4; Lin7a|Q8JZS0; Manba|Q8K2I4; Plcd1|Q8R3B1; Cadm4|Q8R464; Slc14a1|Q8VHL0; Snx18|Q91ZR2; Plpp3|Q99JY8; Fmnl1|Q9JL26; Mpp6|Q9JLB0; Plcb1|Q9Z1B3; Fxyd1|Q9Z239; Slc22a4|Q9Z306; Exoc5|Q3TPX4; Kctd16|Q5DTY9; Baiap3|Q80TT2; Dlg1|Q811D0; Cdc42ep4|Q9JM96; Ptprs|B0V2N1; Slc4a4|O88343; Mpp3|O88910; Atp1b2|P14231; Plcb3|P51432; Mdga2|P60755; Kctd8|Q50H33; Flot2|Q60634; Cntn2|Q61330; Sdk2|Q6V4S5; Negr1|Q80Z24; Slitrk5|Q810B7; Aida|Q8C4Q6; Septin10|Q8C650; Mlc1|Q8VHK5; Brinp1|Q920P3; Exoc8|Q6PGF7; Nectin1|Q9JKF6</t>
+  </si>
+  <si>
     <t xml:space="preserve">M36</t>
   </si>
   <si>
+    <t xml:space="preserve">Smurf2|A2A5Z6; Ccdc8|D3YZV8; Wnk2|Q3UH66; Radil|Q69Z89; Trak1|Q6PD31; Taok2|Q6ZQ29; Fsd1|Q7TPM6; Epg5|Q80TA9; Pip4k2b|Q80XI4; Prickle2|Q80Y24; Actbl2|Q8BFZ3; Samd14|Q8K070; Otud7a|Q8R554; Mapk8|Q91Y86; Nsmf|Q99NF2; Macf1|Q9QXZ0; Sh3pxd2b|A2AAY5; Dennd4c|A6H8H2; Vwa5b1|A9Z1V5; Dlgap4|B1AZP2; Shank1|D3YZU1; Abl1|P00520; Cbr2|P08074; H2ax|P27661; Kif5c|P28738; Ppfia3|P60469; Cep76|Q0VEJ0; Mettl17|Q3U2U7; Insyn2a|Q3USH1; Iqsec2|Q5DU25; C2cd4c|Q5HZI2; Arhgap44|Q5SSM3; Fgd6|Q69ZL1; Dlgap3|Q6PFD5; Whrn|Q80VW5; Polrmt|Q8BKF1; Baiap2|Q8BKX1; Timmdc1|Q8BUY5; Lrch3|Q8BVU0; Arhgef33|Q8BW86; Vps13c|Q8BX70; Bcas3|Q8CCN5; Gtpbp10|Q8K013; Atg13|Q91YI1; Nln|Q91YP2; D230025D16Rik|Q922R1; Ophn1|Q99J31; Nmnat3|Q99JR6; Erc1|Q99MI1; Rims1|Q99NE5; Rb1cc1|Q9ESK9</t>
+  </si>
+  <si>
     <t xml:space="preserve">M33</t>
   </si>
   <si>
+    <t xml:space="preserve">Exoc4|O35382; Pde11a|P0C1Q2; Sptan1|P16546; Tjp1|P39447; Smad4|P97471; Pla2g6|P97819; Pde4d|Q01063; Ank1|Q02357; Dhrs11|Q3U0B3; Prickle1|Q3U5C7; Arhgap17|Q3UIA2; Gpd1l|Q3ULJ0; Wwc1|Q5SXA9; Sptbn1|Q62261; Exoc3|Q6KAR6; Tln2|Q71LX4; Tppp|Q7TQD2; Cyld|Q80TQ2; Lrsam1|Q80ZI6; Zfyve1|Q810J8; Dtd2|Q8BHA3; Spata2l|Q8BNN1; Iffo1|Q8BXL9; Arhgap25|Q8BYW1; Wdr47|Q8CGF6; Ogt|Q8CGY8; Plcl2|Q8K394; Exoc1|Q8R3S6; Arhgef12|Q8R4H2; Sgip1|Q8VD37; Amot|Q8VHG2; Grip1|Q925T6; Exoc2|Q9D4H1; Klc4|Q9DBS5; Fbxo3|Q9DC63; Add3|Q9QYB5; Mthfd2l|D3YZG8; Syngap1|F6SEU4; Pde4a|O89084; Dnm1|P39053; Epb41|P48193; Hmgcs2|P54869; Mrps6|P58064; Dlg3|P70175; Chat|Q03059; Cblb|Q3TTA7; Plekha7|Q3UIL6; Eml6|Q5SQM0; Traf3|Q60803; Arhgap21|Q6DFV3; Nwd2|Q6P5U7; Syne1|Q6ZWR6; Amph|Q7TQF7; Madd|Q80U28; Ddhd1|Q80YA3; Arhgap33|Q80YF9; Anks1b|Q8BIZ1; Fam163b|Q8BUM6; Ston2|Q8BZ60; Ank2|Q8C8R3; Ablim1|Q8K4G5; Cacnb4|Q8R0S4; Dlg2|Q91XM9; Mrpl44|Q9CY73; Ndel1|Q9ERR1; Mapk8ip3|Q9ESN9; Homer1|Q9Z2Y3</t>
+  </si>
+  <si>
     <t xml:space="preserve">M31</t>
   </si>
   <si>
+    <t xml:space="preserve">Setx|A2AKX3; Nhsl2|B1AXH1; Akap13|E9Q394; Numa1|E9Q7G0; Srpk2|O54781; Shoc2|O88520; Ercc1|P07903; Map1b|P14873; Sars|P26638; Ftl1|P29391; Matk|P41242; Eef2|P58252; Inpp5j|P59644; Tpt1|P63028; Pip5k1a|P70182; Pdap1|Q3UHX2; Parp3|Q3ULW8; Peg3|Q3URU2; Cdv3|Q4VAA2; Deptor|Q570Y9; Tsr1|Q5SWD9; Specc1|Q5SXY1; Plekhg5|Q66T02; Ltn1|Q6A009; Dgkb|Q6NS52; Mapkbp1|Q6NS57; Abcf1|Q6P542; Dync1li2|Q6PDL0; Mob4|Q6PEB6; Ccdc25|Q78PG9; Ccnt2|Q7TQK0; Ckap2l|Q7TS74; Wdr82|Q8BFQ4; Nelfa|Q8BG30; Eif4b|Q8BGD9; Map4k5|Q8BPM2; Tyw3|Q8BSA9; Dip2a|Q8BWT5; Tbc1d4|Q8BYJ6; Nelfb|Q8C4Y3; Strip2|Q8C9H6; Dcun1d4|Q8CCA0; Riox2|Q8CD15; Rcor1|Q8CFE3; Cwf19l1|Q8CI33; Cdk17|Q8K0D0; Usp45|Q8K387; Gtf3c5|Q8R2T8; Macir|Q8VEB3; Map1lc3a|Q91VR7; Yars|Q91WQ3; Wasl|Q91YD9; Abcf2|Q99LE6; Hspa14|Q99M31; Brap|Q99MP8; Cep41|Q99NF3; Trp53rkb|Q99PW4; Pno1|Q9CPS7; Zmym2|Q9CU65; Mdm1|Q9D067; Zfp706|Q9D115; Necap2|Q9D1J1; Rpap3|Q9D706; Pold3|Q9EQ28; Wdr61|Q9ERF3; Trim2|Q9ESN6; Trpc4ap|Q9JLV2; Map1a|Q9QYR6; Eif2ak4|Q9QZ05; Ercc4|Q9QZD4; Rnf25|Q9QZR0; Syt6|Q9R0N8</t>
+  </si>
+  <si>
     <t xml:space="preserve">M45</t>
   </si>
   <si>
+    <t xml:space="preserve">Ilk|O55222; Apaf1|O88879; Ina|P46660; Limch1|Q3UH68; Mfhas1|Q3V1N1; Zc3h12c|Q5DTV4; Lbp|Q61805; Pdzrn3|Q69ZS0; Polr2m|Q6P6I6; Tango6|Q8C3S2; Dusp12|Q9D0T2; Plec|Q9QXS1; Klhdc8b|Q9D2D9</t>
+  </si>
+  <si>
     <t xml:space="preserve">M9</t>
   </si>
   <si>
+    <t xml:space="preserve">Tprn|A2AI08; Agrn|A2ASQ1; Dennd5b|A2RSQ0; Rrn3|B2RS91; Sec16a|E9QAT4; Aox3|G3X982; Hap1|O35668; Dffa|O54786; Bysl|O54825; Pde6d|O55057; Impact|O55091; Supt5|O55201; Fhl2|O70433; C3|P01027; Ighg2b|P01867; Nefl|P08551; Nefm|P08553; Fth1|P09528; Tcea1|P10711; Rps16|P14131; Rpsa|P14206; Gstm2|P15626; Nefh|P19246; Ubl4a|P21126; Xrcc6|P23475; Cdk11b|P24788; Rps2|P25444; Atxn10|P28658; Mug1|P28665; Aimp1|P31230; Msh2|P43247; Rangap1|P46061; Srp9|P49962; Pon1|P52430; Pold1|P52431; Polr1c|P52432; Msh6|P54276; Ncan|P55066; Arpp19|P56212; Gmeb2|P58929; Eif5|P59325; Rps20|P60867; Psme3|P61290; Dcaf7|P61963; Rps8|P62242; Ube2h|P62257; Rps14|P62264; Rps23|P62267; Rps29|P62274; Rps11|P62281; Rps4x|P62702; Rps6|P62754; Rps15|P62843; Rps24|P62849; Rps28|P62858; Rps3|P62908; Dnaja1|P63037; Ppp1cc|P63087; Rps17|P63276; Rps10|P63325; Prkacb|P68181; Ufd1|P70362; Vasp|P70460; Serping1|P97290; Polr1d|P97304; Mcm2|P97310; Rps3a1|P97351; Rps5|P97461; Ppp4c|P97470; Polr2c|P97760; Anp32e|P97822; Xdh|Q00519; Rsu1|Q01730; Eml1|Q05BC3; Larp7|Q05CL8; Ssrp1|Q08943; Gtf2f1|Q3THK3; Trmt1|Q3TX08; Ogfod1|Q3U0K8; Map3k9|Q3U1V8; Fam160a2|Q3U2I3; Spg11|Q3UHA3; Dop1b|Q3UHQ6; Cog7|Q3UM29; Iqgap2|Q3UQ44; Ddx46|Q569Z5; Kctd1|Q5M956; Ctc1|Q5SUQ9; Pfas|Q5SUR0; Samhd1|Q60710; Reln|Q60841; Caprin1|Q60865; Papss1|Q60967; Hars|Q61035; Cbx5|Q61686; Itih1|Q61702; Itih3|Q61704; Pdcd4|Q61823; Pzp|Q61838; Ctr9|Q62018; Map3k7|Q62073; Sin3b|Q62141; Aldh1a2|Q62148; Supt6|Q62383; Tfe3|Q64092; Isg15|Q64339; Fkbp5|Q64378; Eif3j2|Q66JS6; Sbno1|Q689Z5; Crtc1|Q68ED7; Mars1|Q68FL6; A2m|Q6GQT1; Helb|Q6NVF4; Ppp4r3a|Q6P2K6; Naa50|Q6PGB6; Ddx58|Q6Q899; Klhl9|Q6ZPT1; Kdm1a|Q6ZQ88; Usp34|Q6ZQ93; Rps9|Q6ZWN5; Akap9|Q70FJ1; Fbxo22|Q78JE5; Arhgef4|Q7TNR9; Nsun6|Q7TS68; Ctdp1|Q7TSG2; Plekhm1|Q7TSI1; Atf7ip|Q7TT18; Dcaf5|Q80T85; Mon2|Q80TL7; Ubr5|Q80TP3; Dcaf1|Q80TR8; Pja2|Q80U04; Arhgef17|Q80U35; Nup214|Q80U93; Naa15|Q80UM3; Polr2e|Q80UW8; Pde4dip|Q80YT7; Rbm11|Q80YT9; Wdtc1|Q80ZK9; Rnaseh2b|Q80ZV0; Htatsf1|Q8BGC0; Ublcp1|Q8BGR9; F13a1|Q8BH61; Sephs1|Q8BH69; Tbl1xr1|Q8BHJ5; Gcfc2|Q8BKT3; Dop1a|Q8BL99; Tarsl2|Q8BLY2; Srp68|Q8BMA6; Cdadc1|Q8BMD5; Fbxo38|Q8BMI0; Lars|Q8BMJ2; Qars|Q8BML9; Tcaf1|Q8BNE1; Mob1b|Q8BPB0; Heatr3|Q8BQM4; Ubr7|Q8BU04; Iars|Q8BU30; Plekha1|Q8BUL6; Bmt2|Q8BXK4; Cog5|Q8C0L8; Rapgef5|Q8C0Q9; Prepl|Q8C167; Klhl11|Q8CE33; Eprs|Q8CGC7; Pym1|Q8CHP5; Pdlim5|Q8CI51; Commd10|Q8JZY2; Ipo13|Q8K0C1; Lrrc41|Q8K1C9; Mtmr3|Q8K296; Stn1|Q8K2X3; Mepce|Q8K3A9; Ahsa2|Q8N9S3; Flcn|Q8QZS3; Tprkb|Q8QZZ7; Aimp2|Q8R010; Cog4|Q8R1U1; Nupl1|Q8R332; Tut1|Q8R3F9; Cluap1|Q8R3P7; Nup85|Q8R480; Ifih1|Q8R5F7; Pdcd10|Q8VE70; Rpa1|Q8VEE4; Rem2|Q8VEL9; Csde1|Q91W50; Gne|Q91WG8; Mtmr4|Q91XS1; Wrnip1|Q91XU0; Egln1|Q91YE3; Supt16|Q920B9; Cog2|Q921L5; Dars|Q922B2; Xpo5|Q924C1; Xpo6|Q924Z6; Mvd|Q99JF5; Unc45a|Q99KD5; Ttc5|Q99LG4; Cttnbp2nl|Q99LJ0; Kars|Q99MN1; Actl6b|Q99MR0; Pard3|Q99NH2; Rwdd4a|Q9CPR1; 2610002M06Rik|Q9CQD4; Rps21|Q9CQR2; Atg12|Q9CQY1; Rchy1|Q9CR50; Bccip|Q9CWI3; Smyd3|Q9CWR2; Ppil4|Q9CXG3; Cacybp|Q9CXW3; Mmachc|Q9CZD0; Rps19|Q9CZX8; Rars|Q9D0I9; Ift27|Q9D0P8; Maf1|Q9D0U6; Eef1e1|Q9D1M4; Armc9|Q9D2I5; Aacs|Q9D2R0; Aar2|Q9D2V5; Polr3c|Q9D483; Ttc33|Q9D6K7; Srp19|Q9D7A6; Cutc|Q9D8X1; Dda1|Q9D9Z5; Cmtr1|Q9DBC3; Ppp1r12a|Q9DBR7; Ccdc97|Q9DBT3; Telo2|Q9DC40; Plekha2|Q9ERS5; Anp32b|Q9EST5; Tssc4|Q9JHE7; Slc9a3r2|Q9JHL1; Lztfl1|Q9JHQ5; Prmt1|Q9JIF0; Copb1|Q9JIF7; Cog8|Q9JJA2; Iqgap1|Q9JKF1; Sart3|Q9JLI8; Bag3|Q9JLV1; Hapln1|Q9QUP5; Cyhr1|Q9QXA1; Naa10|Q9QY36; Dnajc7|Q9QYI3; Copg1|Q9QZE5; Tsnax|Q9QZE7; Sorbs3|Q9R1Z8; Stub1|Q9WUD1; Dctn3|Q9Z0Y1; Cog1|Q9Z160; Bag6|Q9Z1R2; Thbs4|Q9Z1T2; Strap|Q9Z1Z2; Ube2a|Q9Z255; Hdac5|Q9Z2V6; Stk25|Q9Z2W1</t>
+  </si>
+  <si>
     <t xml:space="preserve">M30</t>
   </si>
   <si>
+    <t xml:space="preserve">Pdzd8|B9EJ80; Slc35g2|D3YVE8; Mctp1|E9PV86; Ryr1|E9PZQ0; C2cd2|E9Q3C1; Ryr2|E9Q401; Bdnf|P21237; Rab18|P35293; Atp9b|P98195; Asphd1|Q2TA57; Zfyve27|Q3TXX3; Esyt2|Q3TZZ7; Dcp1b|Q3U564; Esyt1|Q3U7R1; Prrc1|Q3UPH1; Snx25|Q3ZT31; Map3k12|Q60700; Reep5|Q60870; Mcf2l|Q64096; H2ac20|Q64523; Atg9a|Q68FE2; Gba2|Q69ZF3; Tmcc1|Q69ZZ6; Cyp4x1|Q6A152; Retreg2|Q6NS82; G6pc3|Q6NSQ9; Snx19|Q6P4T1; Snx6|Q6P8X1; Sgsm2|Q80U12; Asphd2|Q80VP9; Tmcc2|Q80W04; Tbc1d5|Q80XQ2; Snx32|Q80ZJ7; Pcyt1b|Q811Q9; Reep1|Q8BGH4; Nipal3|Q8BGN5; Atl1|Q8BH66; Snx14|Q8BHY8; Ldah|Q8BVA5; Gpat3|Q8C0N2; Endod1|Q8C522; Inpp5k|Q8C5L6; Usp20|Q8C6M1; Gramd4|Q8CB44; Cyp2d26|Q8CIM7; Acsl5|Q8JZR0; Meak7|Q8K0P3; Rtn1|Q8K0T0; Sde2|Q8K1J5; Gpat4|Q8K2C8; Casc3|Q8K3W3; Arl6ip5|Q8R5J9; Ccdc9|Q8VC31; Ndc1|Q8VCB1; Reep2|Q8VCD6; Daglb|Q91WC9; Bag2|Q91YN9; Fyttd1|Q91Z49; Tmem189|Q99LQ7; Rtn4|Q99P72; Retreg3|Q9CQV4; Tmem167|Q9CR64; Fgfr1op2|Q9CRA9; Snx2|Q9CWK8; Yif1b|Q9CX30; Stx17|Q9D0I4; H2bu2|Q9D2U9; Fam241b|Q9D882; Tbc1d20|Q9D9I4; Rtn3|Q9ES97; Ppp1r3f|Q9JIG4; Praf2|Q9JIG8; Arl6ip1|Q9JKW0; Snx1|Q9WV80; D17H6S53E|Q9Z1R4; Fkbp1b|Q9Z2I2; Reep6|Q9JM62; Rcc1|Q8VE37</t>
+  </si>
+  <si>
     <t xml:space="preserve">M17</t>
   </si>
   <si>
+    <t xml:space="preserve">Zbtb11|G5E8B9; Lsm2|O35900; Strn|O55106; Cbx4|O55187; Hc|P06684; Crebbp|P45481; Nek1|P51954; Abce1|P61222; Lmo4|P61969; Sumo1|P63166; Rpl22|P67984; Prkdc|P97313; Frg1|P97376; Rnf40|Q3U319; Sfswap|Q3USH5; Pds5b|Q4VA53; Usp22|Q5DU02; Cluh|Q5SW19; Nop58|Q6DFW4; Dzip3|Q7TPV2; Pcid2|Q8BFV2; Txlng|Q8BHN1; Nop9|Q8BMC4; Anapc5|Q8BTZ4; Irf2bpl|Q8K3X4; Exosc2|Q8VBV3; Spats2l|Q91WJ7; Fam76a|Q922G2; Bap1|Q99PU7; Nhp2|Q9CRB2; Dis3|Q9CSH3; Ppih|Q9D868; Akap8|Q9DBR0; Wtap|Q9ER69; Cnot9|Q9JKY0; Ncor2|Q9WU42; Las1l|A2BE28; Arhgap31|A6X8Z5; Nfx1|B1AY10; Ythdc2|B2RR83; Zcchc24|B2RVL6; Tut4|B2RX14; Trappc11|B2RXC1; Gcn1|E9PVA8; Cpsf2|O35218; Dnajb6|O54946; Ttc3|O88196; Rc3h2|P0C090; Mov10|P23249; Ighmbp2|P40694; Ercc3|P49135; Cebpz|P53569; Lipe|P54310; Exosc10|P56960; Pcbp4|P57724; Snrpe|P62305; Snrpd1|P62315; Eif4e|P63073; Nfic|P70255; Surf6|P70279; Smarcc1|P97496; Rp9|P97762; Smn1|P97801; Mex3c|Q05A36; Bzw2|Q2L4X1; Trappc13|Q3TIR1; Alkbh5|Q3TSG4; Nol9|Q3TZX8; Tnrc6c|Q3UHC0; Mtcl1|Q3UHU5; Dtx3l|Q3UIR3; Tex10|Q3URQ0; Rnpc3|Q3UZ01; Rc3h1|Q4VGL6; Tut7|Q5BLK4; Unkl|Q5FWH2; Rbm27|Q5SFM8; Cnot7|Q60809; Eif1a|Q60872; Zfp638|Q61464; Smarcd1|Q61466; Msi1|Q61474; Utp14a|Q640M1; Tent4b|Q68ED3; Pnkd|Q69ZP3; Pds5a|Q6A026; Fam120a|Q6A0A9; Soga3|Q6NZL0; Ints1|Q6P4S8; Rexo4|Q6PAQ4; Bhlhb9|Q6PB60; Cnot1|Q6ZQ08; Wdr43|Q6ZQL4; Cpeb4|Q7TN98; Fbxo11|Q7TPD1; Mybbp1a|Q7TPV4; Tspyl2|Q7TQI8; Clasp1|Q80TV8; Rab3gap1|Q80UJ7; Vac14|Q80WQ2; Dapk1|Q80YE7; Med23|Q80YQ2; Trrap|Q80YV3; Vxn|Q8BG31; Krr1|Q8BGA5; Cnot10|Q8BH15; Gemin8|Q8BHE1; 1110051M20Rik|Q8BHR8; Tnrc6b|Q8BKI2; Smg1|Q8BKX6; Unk|Q8BL48; Rab3gap2|Q8BMG7; Mical2|Q8BML1; Exosc6|Q8BTW3; Jakmip1|Q8BVL9; Gemin5|Q8BX17; Zc3h6|Q8BYK8; Parp12|Q8BZ20; Fam120c|Q8C3F2; Utp15|Q8C7V3; Eloa|Q8CB77; Samd4|Q8CBY1; Smc5|Q8CG46; Fam193a|Q8CGI1; Flywch1|Q8CI03; Ago3|Q8CJF9; Ago1|Q8CJG1; Pnma3|Q8JZW8; Snapc1|Q8K0S9; Cnot3|Q8K0V4; Trappc12|Q8K2L8; Ddx18|Q8K363; Smg8|Q8VE18; Cnot6l|Q8VEG6; Dhx36|Q8VHK9; Ttll1|Q91V51; Ddx41|Q91VN6; Fig4|Q91WF7; Sh3d19|Q91X43; Lrrc49|Q91YK0; Sh3bp4|Q921I6; Nop2|Q922K7; Kctd10|Q922M3; Med15|Q924H2; Mlf2|Q99KX1; Zfp318|Q99PP2; Dhx30|Q99PU8; Nkiras2|Q9CR56; Smc1a|Q9CU62; Cnot11|Q9CWN7; Ints11|Q9CWS4; Rbm33|Q9CXK9; Bud23|Q9CY21; Sesn3|Q9CYP7; Toe1|Q9D2E2; Clvs1|Q9D4C9; Exosc8|Q9D753; Dnajb4|Q9D832; Rpl7l1|Q9D8M4; Hcfc2|Q9D968; Exosc1|Q9DAA6; Smg9|Q9DB90; Pelp1|Q9DBD5; Ftsj3|Q9DBE9; Brix1|Q9DCA5; Nmnat1|Q9EPA7; Upf1|Q9EPU0; Mkrn2|Q9ERV1; Dkc1|Q9ESX5; Gtf2h2|Q9JIB4; Rpf2|Q9JJ80; Riox1|Q9JJF3; Rcl1|Q9JJT0; Ddx20|Q9JJY4; Trappc2l|Q9JME7; Cpsf3|Q9QXK7; Prkra|Q9WTX2; Stau1|Q9Z108</t>
+  </si>
+  <si>
     <t xml:space="preserve">M51</t>
   </si>
   <si>
+    <t xml:space="preserve">Ccdc9b|A3KGF9; Scamp3|O35609; Smg7|Q5RJH6; Ptbp3|Q8BHD7; Sphk1|Q8CI15</t>
+  </si>
+  <si>
     <t xml:space="preserve">M5</t>
   </si>
   <si>
+    <t xml:space="preserve">Dhx8|A2A4P0; Camta1|A2A891; Virma|A2AIV2; Ppig|A2AR02; Rsrc2|A2RTL5; Rbm25|B2RY56; Nolc1|E9Q5C9; Ythdc1|E9Q5K9; Rnf169|E9Q7F2; Tcof1|O08784; Rpl21|O09167; Terf2|O35144; Hmgb3|O54879; Rpl35a|O55142; Rngtt|O55236; Eif3d|O70194; Eef1b2|O70251; Cript|O70333; Srpk1|O70551; Rbm3|O89086; Ighm|P01872; Eif4a2|P10630; Cfp|P11680; Rpl7a|P12970; Dnmt1|P13864; Rpl27a|P14115; Rpl7|P14148; Rplp0|P14869; Rpl13a|P19253; Eif3a|P23116; Snrpb|P27048; Rpl3|P27659; Vtn|P29788; Hmgb2|P30681; Ssb|P32067; Fbl|P35550; Rpl12|P35979; Rpl18|P35980; Col18a1|P39061; Rpl28|P41105; Rpl6|P47911; Rpl29|P47915; Rpl5|P47962; Rpl13|P47963; Rpl36|P47964; Sox2|P48432; Pa2g4|P50580; Rpl9|P51410; Usp10|P52479; Rpl10a|P53026; Eef1d|P57776; Snrpa1|P57784; Ythdf1|P59326; Eif3e|P60229; Cirbp|P60824; Rpl26|P61255; Rpl37a|P61514; Rps7|P62082; Snrpf|P62307; Snrpg|P62309; Lsm6|P62313; Snrpd2|P62317; Snrpd3|P62320; Rpl23a|P62751; Rpl23|P62830; Fau|P62862; Rpl31|P62900; Rpl32|P62911; Uba52|P62984; Tra2b|P62996; Rps12|P63323; Rad50|P70388; Phf5a|P83870; Rpl36a|P83882; Erh|P84089; Srsf3|P84104; G3bp2|P97379; Myo7a|P97479; Nfib|P97863; Rplp2|P99027; Eif5b|Q05D44; Usp39|Q3TIX9; Fam98a|Q3TJZ6; Puf60|Q3UEB3; Nom1|Q3UFM5; Usp19|Q3UJD6; Selenoh|Q3UQA7; Ncbp1|Q3UYV9; Srrm1|Q52KI8; Thrap3|Q569Z6; Gpkow|Q56A08; Zfyve26|Q5DU37; Nsrp1|Q5NCR9; Luc7l3|Q5SUF2; Wbp4|Q61048; Spin1|Q61142; Papola|Q61183; Ddx5|Q61656; Npm1|Q61937; Ddx3x|Q62167; Sf3a2|Q62203; Fkbp3|Q62446; Cavin2|Q63918; Btf3|Q64152; Zrsr1|Q64707; Rbm12b2|Q66JV4; Isy1|Q69ZQ2; Larp4b|Q6A0A2; Cpsf6|Q6NVF9; Rprd2|Q6NXI6; Dnajc8|Q6NZB0; Scube1|Q6NZL8; Klhdc10|Q6PAR0; Srsf1|Q6PDM2; Tra2a|Q6PFR5; Gigyf2|Q6Y7W8; Lsm8|Q6ZWM4; Rps27|Q6ZWU9; Gm2000|Q6ZWV7; Eif2s1|Q6ZWX6; Synm|Q70IV5; Luc7l2|Q7TNC4; Ccp110|Q7TSH4; Scaf4|Q7TSH6; Prpf38b|Q80SY5; Fam98b|Q80VD1; Hapln4|Q80WM4; Srrm3|Q80WV7; Ubap2l|Q80X50; Nrde2|Q80XC6; Ddx42|Q810A7; Cwf19l2|Q8BG79; Hook1|Q8BIL5; Snip1|Q8BIZ6; Smarcal1|Q8BJL0; Rcc2|Q8BK67; Srsf7|Q8BL97; Eif1ax|Q8BMJ3; Rpl24|Q8BP67; Utp25|Q8BTT6; Cdk19|Q8BWD8; Ythdf3|Q8BYK6; Lmo3|Q8BZL8; Srek1|Q8BZX4; Farsa|Q8C0C7; Tlk1|Q8C0V0; Dido1|Q8C9B9; Gatad2a|Q8CHY6; Ints4|Q8CIM8; Eif3b|Q8JZQ9; Bclaf1|Q8K019; Kin|Q8K339; Sf3a1|Q8K4Z5; Ccsap|Q8QZT2; Eif3l|Q8QZY1; Ilkap|Q8R0F6; Eif3c|Q8R1B4; D8Ertd738e|Q8R1F0; Ccdc59|Q8R2N0; Seh1l|Q8R2U0; Nepro|Q8R2U2; Tcf25|Q8R3L2; Rbm12|Q8R4X3; Fbxw7|Q8VBV4; Zgpat|Q8VDM1; Hnrnpul1|Q8VDM6; C330007P06Rik|Q8VDP2; Rbm4b|Q8VE92; Hnrnpu|Q8VEK3; Rbm39|Q8VH51; Recql5|Q8VID5; Ddx1|Q91VR5; Ubap2|Q91VX2; Rpp25|Q91WE3; Eif3h|Q91WK2; Rrp9|Q91WM3; Thyn1|Q91YJ3; Ythdf2|Q91YT7; Vps16|Q920Q4; Hnrnpll|Q921F4; Sf3b3|Q921M3; Prpf3|Q922U1; Wac|Q924H7; Hnrnpab|Q99020; Psip1|Q99JF8; Eif3m|Q99JX4; Nxf1|Q99JX7; Rbm10|Q99KG3; Eif2s2|Q99L45; Rtcb|Q99LF4; Gnl2|Q99LH1; Srrt|Q99MR6; Sf3b1|Q99NB9; Rpl17|Q9CPR4; Zmat2|Q9CPW7; Ncbp2|Q9CQ49; Bzw1|Q9CQC6; Rtraf|Q9CQE8; Mettl16|Q9CQG2; Ramac|Q9CQY2; Tma16|Q9CR02; Rpl14|Q9CR57; Cactin|Q9CS00; Prkrip1|Q9CWV6; Ddx47|Q9CWX9; Rpl11|Q9CXW4; Zcchc8|Q9CYA6; Luc7l|Q9CYI4; Zcrb1|Q9CZ96; Rpl15|Q9CZM2; Ssbp3|Q9D032; Snu13|Q9D0T1; Rita1|Q9D1H0; Rpl34|Q9D1R9; Phf6|Q9D4J7; Sf3a3|Q9D554; Nosip|Q9D6T0; Nop56|Q9D6Z1; Trir|Q9D735; Rpl22l1|Q9D7S7; Rpl37|Q9D823; Rpl4|Q9D8E6; Gtf2e2|Q9D902; 1810009A15Rik|Q9D937; Prpf4|Q9DAW6; Leng1|Q9DB98; Xrn2|Q9DBR1; Eif3k|Q9DBZ5; Eif3f|Q9DCH4; Pes1|Q9EQ61; Zfp287|Q9EQB9; Cars|Q9ER72; Hrg|Q9ESB3; Aff4|Q9ESC8; Hapln2|Q9ESM3; Thap11|Q9JJD0; Grb14|Q9JLM9; Arl6ip4|Q9JM93; Zfp207|Q9JMD0; Edf1|Q9JMG1; Mageh1|Q9NWG9; Lsm4|Q9QXA5; Eif3i|Q9QZD9; Morf4l2|Q9R0Q4; Srsf10|Q9R0U0; Prpf40a|Q9R1C7; Farsb|Q9WUA2; Fam50a|Q9WV03; Bub3|Q9WVA3; Eif2s3x|Q9Z0N1; Eif3g|Q9Z1D1; Hnrnpf|Q9Z2X1; Map7d1|A2AJI0; Zc3h13|E9Q784; Map7|O88735; Rplp1|P47955; Paxbp1|P58501; Rpl27|P61358; Rpl18a|P62717; Rpl30|P62889; Rpl8|P62918; Hnrnph2|P70333; Rpl19|P84099; C1qc|Q02105; Eif2ak2|Q03963; Arglu1|Q3UL36; Tspyl5|Q69ZB3; Secisbp2l|Q6A098; Txlna|Q6PAM1; Rpl10|Q6ZWV3; Rsbn1|Q80T69; Samd4b|Q80XS6; Cdkn2aip|Q8BI72; Polb|Q8K409; Hdlbp|Q8VDJ3; Prpf6|Q91YR7; Ankrd17|Q99NH0; Nop16|Q9CPT5; Nudt21|Q9CQF3; Cenpv|Q9CXS4; Dcun1d5|Q9CXV9; Mtrex|Q9CZU3; Mrto4|Q9D0I8; Eef1g|Q9D8N0; Gpatch1|Q9DBM1; Maged1|Q9QYH6; Vars|Q9Z1Q9; Sart1|Q9Z315</t>
+  </si>
+  <si>
     <t xml:space="preserve">M43</t>
   </si>
   <si>
+    <t xml:space="preserve">Map2k3|O09110; Fen1|P39749; Smad1|P70340; Vwf|Q8CIZ8; Obi1|Q8K2Y0; Lmcd1|Q8VEE1; Arpc1b|Q9WV32; Parp4|E9PYK3; Plin4|O88492; Mlip|Q5FW52; Nkiras1|Q8CEC5; Celf3|Q8CIN6; 3110082I17Rik|Q9CXL3; Mvp|Q9EQK5; Cdk5rap2|Q8K389</t>
+  </si>
+  <si>
     <t xml:space="preserve">M48</t>
   </si>
   <si>
+    <t xml:space="preserve">Sephs2|P97364; Rnf187|Q8BFX1; Bex4|Q9CWT2; Slc6a4|Q60857; Mrps10|Q80ZK0; Osbpl11|Q8CI95; Timm17a|Q9Z0V8; Nde1|Q9CZA6</t>
+  </si>
+  <si>
     <t xml:space="preserve">M25</t>
   </si>
   <si>
+    <t xml:space="preserve">Cdc27|A2A6Q5; Mocs3|A2BDX3; Kif16b|B1AVY7; Arfgef1|G3X9K3; Diaph1|O08808; Me1|P06801; Phkg1|P07934; Mapt|P10637; Glul|P15105; Ass1|P16460; Phka1|P18826; Fasn|P19096; Sag|P20443; Foxa2|P35583; Htt|P42859; Capza1|P47753; Capza2|P47754; Capzb|P47757; Pfkm|P47857; Ppp1cb|P62141; Mapk1|P63085; Map2k6|P70236; Rock2|P70336; Usp9x|P70398; Lyst|P97412; F8a|Q00558; Prkcz|Q02956; Cdk18|Q04899; Nudt18|Q3U2V3; Mylk3|Q3UIZ8; Ppp1r12c|Q3UMT1; Vps51|Q3UVL4; Ttc9|Q3V038; Garnl3|Q3V0G7; Ankrd28|Q505D1; Rabl6|Q5U3K5; Csnk2a1|Q60737; Tbc1d1|Q60949; Arhgef1|Q61210; Kif5b|Q61768; Lasp1|Q61792; Hbs1l|Q69ZS7; Ncoa7|Q6DFV7; Wwc2|Q6NXJ0; Kank4|Q6P9J5; Bcr|Q6PAJ1; Sarm1|Q6PDS3; Ppp1r9b|Q6R891; Cand1|Q6ZQ38; Dsg1b|Q7TSF1; Rpap1|Q80TE0; Rpp38|Q80UU2; Reps2|Q80XA6; Rbsn|Q80Y56; Zfand1|Q8BFR6; Katnb1|Q8BG40; Ttc26|Q8BS45; Ap3s2|Q8BSZ2; Pik3cb|Q8BTI9; Flna|Q8BTM8; Engase|Q8BX80; Dcun1d2|Q8BZJ7; Strip1|Q8C079; Ppp4r4|Q8C0Y0; Vps52|Q8C754; Gan|Q8CA72; Vps53|Q8CCB4; Trp53bp2|Q8CG79; Vps50|Q8CI71; Sh2d5|Q8JZW5; Eipr1|Q8K0G5; Katnal1|Q8K0T4; Hspa12a|Q8K0U4; Dennd1a|Q8K382; Glcci1|Q8K3I9; Mapre2|Q8R001; Blmh|Q8R016; Stac2|Q8R1B0; Tbc1d22a|Q8R5A6; Paip1|Q8VE62; Elac1|Q8VEB6; Chn1|Q91V57; Vps36|Q91XD6; Pip4k2c|Q91XU3; Ugp2|Q91ZJ5; Gmppa|Q922H4; Ppp2r2d|Q925E7; Atg5|Q99J83; Raf1|Q99N57; Lpin2|Q99PI5; Ubxn6|Q99PL6; Arpc5|Q9CPW4; Vps25|Q9CQ80; Denr|Q9CQJ6; Lrrc40|Q9CRC8; Cap2|Q9CYT6; Snf8|Q9CZ28; Pdzd11|Q9CZG9; Cul2|Q9D4H8; Tsc1|Q9EP53; Nckipsd|Q9ESJ4; Ngly1|Q9JI78; Ap3m1|Q9JKC8; Cul3|Q9JLV5; Kif21b|Q9QXL1; Jmy|Q9QXM1; Pde7b|Q9QXQ1; Dcun1d1|Q9QZ73; Pfkp|Q9WUA3; Carm1|Q9WVG6; Twf2|Q9Z0P5; Mtmr2|Q9Z2D1</t>
+  </si>
+  <si>
     <t xml:space="preserve">M46</t>
   </si>
   <si>
+    <t xml:space="preserve">Tub|P50586; Aldh16a1|Q571I9; Sepsecs|Q6P6M7; Cand2|Q6ZQ73; Ttc28|Q80XJ3; Pi4kb|Q8BKC8; Wdfy2|Q8BUB4; Fsd1l|Q8BYN5; Exoc6|Q8R313; Rhobtb2|Q91V93; Arhgap35|Q91YM2; Myo18a|Q9JMH9; Bcar3|Q9QZK2</t>
+  </si>
+  <si>
     <t xml:space="preserve">M47</t>
   </si>
   <si>
+    <t xml:space="preserve">Aldoa|P05064; Tatdn1|Q6P8M1; Kbtbd3|Q8BHI4; Tubb1|A2AQ07; Grem2|O88273; Armc2|Q3URY6; Kcna5|Q61762; Trim37|Q6PCX9; Dock9|Q8BIK4</t>
+  </si>
+  <si>
     <t xml:space="preserve">M18</t>
   </si>
   <si>
+    <t xml:space="preserve">Gpr108|Q91WD0; Tmem201|A2A8U2; Ryr3|A2AGL3; Tmem245|B1AZA5; Osbpl8|B9EJ86; Smim13|E9Q942; Sec22b|O08547; Emd|O08579; Ptgis|O35074; Agpat1|O35083; Slc27a2|O35488; Pitpnm1|O35954; Zw10|O54692; Pgrmc1|O55022; Tesk1|O70146; Hmox2|O70252; Comt|O88587; Hsd17b7|O88736; Ly6c2|P0CW03; Prkch|P23298; M6pr|P24668; Prkcd|P28867; Por|P37040; Dpagt1|P42867; Igfbp4|P47879; Lmna|P48678; Caml|P49070; Cav1|P49817; Clgn|P52194; Ptpn5|P54830; Rab4a|P56371; Lman2l|P59481; Ube2g2|P60605; Ap1s1|P61967; Aup1|P70295; Ext2|P70428; Stim2|P83093; Sptlc2|P97363; Vps45|P97390; Ptpn2|Q06180; Igf2r|Q07113; Lpcat1|Q3TFD2; Pnpla6|Q3TRM4; Pomk|Q3TUA9; Otulinl|Q3TVP5; Cybc1|Q3TYS2; Alg11|Q3TZM9; Hgsnat|Q3UDW8; Nat8l|Q3UGX3; Pitpnm3|Q3UHE1; Lsg1|Q3UM18; Lclat1|Q3UN02; Slmap|Q3URD3; Vezt|Q3ZK22; Fa2h|Q5MPP0; Tmem199|Q5SYH2; 2610507B11Rik|Q5SYL3; Cyp7b1|Q60991; Tmpo|Q61029; Ei24|Q61070; Bcap29|Q61334; Bcap31|Q61335; Surf4|Q64310; Sidt1|Q6AXF6; Kdsr|Q6GV12; Ephx4|Q6IE26; Zdhhc24|Q6IR37; Lpcat4|Q6NVG1; Ankle2|Q6P1H6; Atl2|Q6PA06; Ano8|Q6PB70; Snx13|Q6PHS6; Bnip1|Q6QD59; Fmnl3|Q6ZPF4; Pitpnm2|Q6ZPQ6; Smpd4|Q6ZPR5; Tm7sf2|Q71KT5; Vma21|Q78T54; Tlcd3b|Q7TNV1; Lnpk|Q7TQ95; Cpm|Q80V42; Jph4|Q80WT0; C2cd2l|Q80X80; Them6|Q80ZW2; Slc6a15|Q8BG16; Cpt1c|Q8BGD5; 6430571L13Rik|Q8BGK9; Sec22a|Q8BH47; Ano10|Q8BH79; Ppm1l|Q8BHN0; Nagpa|Q8BJ48; Kctd7|Q8BJK1; Ralyl|Q8BTF8; Scfd2|Q8BTY8; Ilvbl|Q8BU33; Slc39a11|Q8BWY7; Vps26b|Q8C0E2; Tmx4|Q8C0L0; Tmem120a|Q8C1E7; Rft1|Q8C3B8; Lmbrd2|Q8C561; Cnst|Q8CBC4; Rnf170|Q8CBG9; Tmem63c|Q8CBX0; Tlcd4|Q8CGF5; Arel1|Q8CHG5; Mboat7|Q8CHK3; Scamp1|Q8K021; Get1|Q8K0D7; Saysd1|Q8K190; Agpat4|Q8K4X7; Bfar|Q8R079; Ubac2|Q8R1K1; Tmcc3|Q8R310; Ubxn4|Q8VCH8; Tapbpl|Q8VD31; Cdipt|Q8VDP6; Stx18|Q8VDS8; Gramd1a|Q8VEF1; Slc27a4|Q91VE0; Rusf1|Q91W34; Lpgat1|Q91YX5; Alg1|Q921Q3; Slc33a1|Q99J27; Reep3|Q99KK1; Clcc1|Q99LI2; Tspan31|Q9CQ88; Rer1|Q9CQU3; Golt1b|Q9CR60; Tmem33|Q9CR67; Cyp2u1|Q9CX98; Lman1|Q9D0F3; Tmem53|Q9D0Z3; Ephx1|Q9D379; Plpp6|Q9D4F2; Rabl3|Q9D4V7; Tmx2|Q9D710; Aig1|Q9D8B1; Tmem41a|Q9D8U2; Tmem38b|Q9DAV9; Lman2|Q9DBH5; Cyp2s1|Q9DBX6; Sacm1l|Q9EP69; Elovl4|Q9EQC4; Yipf5|Q9EQQ2; Osbpl5|Q9ER64; Jph1|Q9ET80; Sgpp1|Q9JI99; Fads3|Q9JJE7; Tacc2|Q9JJG0; Tmem9b|Q9JJR8; Slc30a7|Q9JKN1; Acsl4|Q9QUJ7; Vapb|Q9QY76; Rdh11|Q9QYF1; Ubxn8|Q9QZ49; Amfr|Q9R049; Mpdu1|Q9R0Q9; Vapa|Q9WV55; Ptdss2|Q9Z1X2; Bscl2|Q9Z2E9</t>
+  </si>
+  <si>
     <t xml:space="preserve">M23</t>
   </si>
   <si>
+    <t xml:space="preserve">Gpatch8|A2A6A1; Pnisr|A2AJT4; Rtf1|A2AQ19; Itih4|A6X935; Irf2bp2|E9Q1P8; Kng1|O08677; Vps26c|O35075; Anp32a|O35381; Copb2|O55029; Eif6|O55135; Ess2|O70279; Cope|O89079; Igkc|P01837; H2-Q10|P01898; Hba-a1|P01942; Hbb-b1|P02088; Apoa4|P06728; Ltf|P08071; Hmgn2|P09602; Nid1|P10493; Cd14|P10810; Sub1|P11031; Hspb1|P14602; Lyz1|P17897; F2|P19221; Serpina1b|P22599; Cbx3|P23198; Cryab|P23927; Ndn|P25233; Ubtf|P25976; Xrcc5|P27641; Adssl1|P28650; Tagln|P37804; Pbx1|P41778; Eif1|P48024; Hdgf|P51859; Atxn1|P54254; Cdk5r1|P61809; Copz1|P61924; Lsm3|P62311; Hmgb1|P63158; Ube2i|P63280; Naca|P70670; Gabpa|Q00422; Apoa1|Q00623; Hspg2|Q05793; Nsun2|Q1HFZ0; Fam107b|Q3TGF2; Fam172a|Q3TNH5; BC005624|Q3TQI7; Ccdc174|Q3U155; Qrich1|Q3UA37; Foxk2|Q3UCQ1; Rrp36|Q3UFY0; Cobll1|Q3UMF0; Hdgfl2|Q3UMU9; 2210016L21Rik|Q3UY34; Commd6|Q3V4B5; Fam169a|Q5XG69; Arcn1|Q5XJY5; Eps15l1|Q60902; Ppm1g|Q61074; Nab2|Q61127; Acan|Q61282; Lamb2|Q61292; Bcan|Q61361; Atrx|Q61687; Itih2|Q61703; Mapk10|Q61831; Vcan|Q62059; Coch|Q62507; Commd3|Q63829; Nup62|Q63850; Sphkap|Q6NSW3; Pcnp|Q6P8I4; Ccdc93|Q7TQK5; Gvin1|Q80SU7; Rere|Q80TZ9; Cep104|Q80V31; Hapln3|Q80WM5; Aftph|Q80WT5; Commd7|Q8BG94; Fto|Q8BGW1; Ppp1r37|Q8BKR5; Qsox1|Q8BND5; Elmo1|Q8BPU7; Cnot4|Q8BT14; Vps35l|Q8BWQ6; Commd2|Q8BXC6; Heatr5b|Q8C547; Tceal5|Q8CCT4; Nup88|Q8CEC0; Gcc2|Q8CHG3; Copa|Q8CIE6; Tma7|Q8K003; Commd9|Q8K2Q0; Prpf39|Q8K2Z2; Commd1|Q8K4M5; Dcaf8|Q8N7N5; Tmem119|Q8R138; Vps18|Q8R307; Commd5|Q8R395; Ppp1r14a|Q91VC7; Golga4|Q91VW5; Vps11|Q91W86; Psme3ip1|Q91WE2; Dus3l|Q91XI1; Smarca5|Q91ZW3; Pdia5|Q921X9; Cic|Q924A2; Thumpd1|Q99J36; Commd4|Q9CQ02; Btf3l4|Q9CQH7; Lsm7|Q9CQQ8; Rprd1b|Q9CSU0; Snx10|Q9CWT3; Vps33a|Q9D2N9; 2310057M21Rik|Q9D2Q3; Arl2bp|Q9D385; Drap1|Q9D6N5; Dennd10|Q9D8N2; Set|Q9EQU5; Slc15a2|Q9ES07; Ccdc22|Q9JIG7; Plekho1|Q9JIY0; Dusp14|Q9JLY7; Copg2|Q9QXK3; Zranb2|Q9R020; Mad1l1|Q9WTX8; Slit3|Q9WVB4</t>
+  </si>
+  <si>
     <t xml:space="preserve">M49</t>
   </si>
   <si>
+    <t xml:space="preserve">Ap3d1|O54774; Sqstm1|Q64337; Atg2a|Q6P4T0; Aldh1l1|Q8R0Y6; Mcts1|Q9DB27; Ap3s1|Q9DCR2</t>
+  </si>
+  <si>
     <t xml:space="preserve">M38</t>
   </si>
   <si>
+    <t xml:space="preserve">Polr2a|P08775; Gpx1|P11352; Kpna2|P52293; Evi5|P97366; Topbp1|Q6ZQF0; Gorab|Q8BRM2; Eri3|Q8C460; Rps19bp1|Q8C6B9; Bdh2|Q8JZV9; Snrnp27|Q8K194; Svil|Q8K4L3; Zfp830|Q8R1N0; Ap3m2|Q8R2R9; Cul7|Q8VE73; Ptov1|Q91VU8; Coro6|Q920M5; Map1lc3b|Q9CQV6; Pop4|Q9CR08; Ascc1|Q9D8Z1; Cd5l|Q9QWK4; Nphp1|Q9QY53; Cry2|Q9R194; Pikfyve|Q9Z1T6; Fem1b|Q9Z2G0; Ap1b1|O35643; Dnah2|P0C6F1; Mex3d|Q3UE17; Spire1|Q52KF3; Pml|Q60953; Edrf1|Q6GQV7; Hltf|Q6PCN7; Rasa4|Q6PFQ7; Arhgap10|Q6Y5D8; Klhl29|Q80T74; Coro2a|Q8C0P5; Synpo2|Q91YE8; Bbs2|Q9CWF6; Mapk8ip2|Q9ERE9; Lima1|Q9ERG0; Fzr1|Q9R1K5; Fut8|Q9WTS2; Emg1|O35130; Cnih4|Q9CX13; Atp6v1f|Q9D1K2; Ap4m1|Q9JKC7; Rps6kb2|Q9Z1M4</t>
+  </si>
+  <si>
     <t xml:space="preserve">M44</t>
   </si>
   <si>
+    <t xml:space="preserve">Cdc42|P60766; Jup|Q02257; Bax|Q07813; Vangl2|Q91ZD4; Cdh20|Q9Z0M3; Ptpru|B1AUH1; Tmem240|B2RWJ3; Epb41l2|O70318; Cntn1|P12960; Cntn3|Q07409; Rhoc|Q62159; Vstm2b|Q9JME9; Slc7a11|Q9WTR6; Cpq|Q9WVJ3</t>
+  </si>
+  <si>
     <t xml:space="preserve">M8</t>
   </si>
   <si>
+    <t xml:space="preserve">Fggy|A2AJL3; Plch2|A2AP18; Rabgap1|A2AWA9; Arhgef10l|A2AWP8; Tyw5|A2RSX7; Tbc1d8b|A3KGB4; Usp24|B1AY13; Ankrd44|B2RXR6; Ptrhd1|D3Z4S3; Wdfy4|E9Q2M9; Yjefn3|F6W8I0; Bin1|O08539; Serpinb8|O08800; Ro60|O08848; Dpysl4|O35098; Kpna4|O35343; Kpna3|O35344; Kpna6|O35345; Pmm1|O35621; Aox1|O54754; Chka|O54804; Csnk2a2|O54833; Reps1|O54916; Pip5k1c|O70161; Pgam2|O70250; Klc1|O88447; Ddc|O88533; Pak1|O88643; Arl6|O88848; Apba3|O88888; Lin7b|O88951; Gnpda1|O88958; Tpp1|O89023; Coro1a|O89053; Aldoc|P05063; Prkaca|P05132; Gstm1|P10649; Prkar2a|P12367; Nme1|P15532; Hspa2|P17156; Th|P24529; Aldh1a1|P24549; Gabra2|P26048; Plaa|P27612; Braf|P28028; Aco1|P28271; Map2k1|P31938; Kif1a|P33173; Ptpn11|P35235; Cap1|P40124; Akr1b8|P45377; Map2k4|P47809; Ppp3cb|P48453; Tmod1|P49813; Uros|P51163; Pkm|P52480; Pitpnb|P53811; Golga3|P55937; Nudt2|P56380; Ctbp2|P56546; Tbc1d10a|P58802; Nup43|P59235; Pdxp|P60487; Ube2m|P61082; Ube2d2a|P62838; Sult4a1|P63046; Dynll1|P63168; Ppp2ca|P63330; Csnk2b|P67871; Pfkfb2|P70265; Ctps2|P70303; Ctps|P70698; Crmp1|P97427; Lypla1|P97823; Enah|Q03173; Relch|Q148V7; Gspt2|Q149F3; Tnfaip8l3|Q3TBL6; Abraxas2|Q3TCJ1; Pde12|Q3TIU4; Fbxo31|Q3TQF0; Hace1|Q3U0D9; Ctu2|Q3U308; Yrdc|Q3U5F4; Trafd1|Q3UDK1; Wdr41|Q3UDP0; Zyg11b|Q3UFS0; Garem1|Q3UFT3; Arfgef3|Q3UGY8; Smcr8|Q3UMB5; Lingo2|Q3URE9; Tbc1d24|Q3UUG6; Strada|Q3UUJ4; Nt5c2|Q3V1L4; Pacs2|Q3V3Q7; Oxr1|Q4KMM3; Ipcef1|Q5DU31; Vps13a|Q5H8C4; Diras2|Q5PR73; Osbp2|Q5QNQ6; Abr|Q5SSL4; Tns3|Q5SSZ5; Tbc1d9b|Q5SVR0; Ubr3|Q5U430; Rnf123|Q5XPI3; Cttn|Q60598; Pak3|Q61036; Bcar1|Q61140; Erbb4|Q61527; Pacsin1|Q61644; Myh10|Q61879; Plcg1|Q62077; Ralbp1|Q62172; Dpysl3|Q62188; Irak1|Q62406; Ifit3|Q64345; Fnip1|Q68FD7; Prex1|Q69ZK0; Swap70|Q6A028; C9orf72|Q6DFW0; Ppp2r2a|Q6P1F6; Tnpo3|Q6P2B1; Sik3|Q6P4S6; Ubxn7|Q6P5G6; Mtss2|Q6P9S0; Prmt8|Q6PAK3; Herc4|Q6PAV2; Ado|Q6PDY2; Myh14|Q6URW6; Ubr2|Q6WKZ8; Ppp2r1a|Q76MZ3; Doc2a|Q7TNF0; Ppp6r1|Q7TSI3; Vat1l|Q80TB8; Cadps|Q80TJ1; Scrib|Q80U72; Wipi2|Q80W47; Ric8b|Q80XE1; Atg2b|Q80XK6; Llgl1|Q80Y17; Ddhd2|Q80Y98; Tnpo1|Q8BFY9; Pld4|Q8BG07; Ubash3b|Q8BGG7; Fbxo30|Q8BJL1; Iqcb1|Q8BP00; Nars|Q8BP47; Ppp1r18|Q8BQ30; Cep295|Q8BQ48; Eml5|Q8BQM8; Dusp28|Q8BTR5; Gmppb|Q8BTZ7; Mrpl22|Q8BU88; Gphn|Q8BUV3; Nudt9|Q8BVU5; Kank2|Q8BX02; Cadps2|Q8BYR5; Tigar|Q8BZA9; Glmn|Q8BZM1; Fem1al|Q8C0T1; Zfp428|Q8C1M2; Unc119b|Q8C4B4; Crbn|Q8C7D2; Naprt|Q8CC86; Nedd4l|Q8CFI0; Akr7a5|Q8CG76; Rgs12|Q8CGE9; Tph2|Q8CGV2; Vps37a|Q8CHS8; Pygb|Q8CI94; Fermt2|Q8CIB5; Amdhd2|Q8JZV7; Oplah|Q8K010; Trnt1|Q8K1J6; Dnm1l|Q8K1M6; Spire2|Q8K1S6; Fn3krp|Q8K274; Inpp5b|Q8K337; Babam2|Q8K3W0; Pitpnc1|Q8K4R4; Naxe|Q8K4Z3; 6430548M08Rik|Q8R0A7; Cplx3|Q8R1B5; Aagab|Q8R2R3; Ppp6r2|Q8R3Q2; Eps8l1|Q8R5F8; Gpn1|Q8VCE2; Cth|Q8VCN5; Fbxo21|Q8VDH1; Nit1|Q8VDK1; Mical1|Q8VDP3; Rab3il1|Q8VDV3; Nrbp2|Q91V36; Snx9|Q91VH2; Memo1|Q91VH6; Smap1|Q91VZ6; Fbxl15|Q91W61; Lrrfip2|Q91WK0; Cbs|Q91WT9; Ipo9|Q91YE6; Asl|Q91YI0; Necab2|Q91ZP9; Fgd4|Q91ZT5; Als2|Q920R0; Rnf31|Q924T7; Hagh|Q99KB8; Vwa5a|Q99KC8; Gstt3|Q99L20; Ubqln4|Q99NB8; Ppp1r3g|Q9CW07; Dph7|Q9CYU6; Mms19|Q9D071; Dynll2|Q9D0M5; Trmt44|Q9D2Q2; Msra|Q9D6Y7; Dusp3|Q9D7X3; Bola1|Q9D8S9; Atg101|Q9D8Z6; Atg7|Q9D906; Rwdd2a|Q9D9S3; Echdc1|Q9D9V3; Zfyve19|Q9DAZ9; Iah1|Q9DB29; Selenoo|Q9DBC0; Aldh7a1|Q9DBF1; Pycrl|Q9DCC4; Pgd|Q9DCD0; Xpo7|Q9EPK7; Ipo7|Q9EPL8; Nif3l1|Q9EQ80; Dpysl5|Q9EQF6; Xpo4|Q9ESJ0; Pygl|Q9ET01; Nit2|Q9JHW2; Psmg1|Q9JK23; Aldh9a1|Q9JLJ2; Kif21a|Q9QXL2; Fbxo6|Q9QZN4; Vav3|Q9R0C8; Stk11|Q9WTK7; Ptpn4|Q9WU22; Pfdn5|Q9WU28; Pygm|Q9WUB3; Coro1b|Q9WUM3; Rps6ka2|Q9WUT3; Nme3|Q9WV85; Epb41l3|Q9WV92; Magi2|Q9WVQ1; Bpnt1|Q9Z0S1; Gab2|Q9Z1S8; Rasal1|Q9Z268; Epb41l1|Q9Z2H5; Hdac6|Q9Z2V5; Psmd10|Q9Z2X2; Plpbp|Q9Z2Y8; Unc5c|O08747; Gad1|P48318; Gad2|P48320; Ablim2|Q8BL65; Dcxr|Q91X52; Cpne8|Q9DC53; Ube2v2|Q9D2M8; Gng4|P50153</t>
+  </si>
+  <si>
     <t xml:space="preserve">M42</t>
   </si>
   <si>
+    <t xml:space="preserve">Ttc17|E9PVB5; Rab11fip2|G3XA57; Fcgr2b|P08101; Cst3|P21460; Inf2|Q0GNC1; Enpp6|Q8BGN3; Ostm1|Q8BGT0; Wdr48|Q8BH57; Tmem161b|Q8C2L6; Cerk|Q8K4Q7; Ccdc115|Q8VE99; Rnf167|Q91XF4; Dnajc14|Q921R4; Ctnnbl1|Q9CWL8; Qpct|Q9CYK2; Cthrc1|Q9D1D6; Rab11fip1|Q9D620; Gtf2i|Q9ESZ8; Ehd2|Q8BH64; Mfsd6|Q8CBH5; Crocc|Q8CJ40; Hs6st3|Q9QYK4; Sh3bp5|Q9Z131</t>
+  </si>
+  <si>
     <t xml:space="preserve">M50</t>
   </si>
   <si>
+    <t xml:space="preserve">Celsr1|O35161; Abca4|O35600; Prkar1b|P12849; Rgl1|Q60695; Lama5|Q61001; Traf7|Q922B6</t>
+  </si>
+  <si>
     <t xml:space="preserve">M19</t>
   </si>
   <si>
+    <t xml:space="preserve">Ascc3|E9PZJ8; Chd2|E9PZM4; Stag2|O35638; Dapk3|O54784; Hdac3|O88895; Gas2|P11862; Dip2b|Q3UH60; Spata5|Q3UMC0; Nxt2|Q3UNA4; Stox2|Q499E5; Ddx49|Q4FZF3; Cobl|Q5NBX1; Nuak1|Q641K5; Dclk2|Q6PGN3; Ints7|Q7TQK1; R3hdm2|Q80TM6; Dgkz|Q80UP3; Zfp598|Q80YR4; Coro2b|Q8BH44; Ankrd34c|Q8BLB8; Gprasp2|Q8BUY8; Gtdc1|Q8BW56; Larp4|Q8BWW4; Trim35|Q8C006; Wdr24|Q8CFJ9; Znfx1|Q8R151; Mthfd1|Q922D8; Cxxc1|Q9CWW7; Ccdc124|Q9D8X2; Rasgrp1|Q9Z1S3; Szt2|A2A9C3; Med12|A2AGH6; Lzts3|A2AHG0; Trmt1l|A2RSY6; Otud3|B1AZ99; Soga1|E1U8D0; Arhgef5|E9Q7D5; Tubgcp6|G5E8P0; Kif1c|O35071; Tpd52l1|O54818; Tnk2|O54967; Dcx|O88809; Tspyl1|O88852; Ccnk|O88874; Irs1|P35569; Tubgcp3|P58854; Tubg1|P83887; Mprip|P97434; Tarbp2|P97473; Xrn1|P97789; Mark2|Q05512; Lyar|Q08288; Exph5|Q0VAV2; Tanc1|Q0VGY8; Wdr19|Q3UGF1; Gfod1|Q3UHD2; Cdkl5|Q3UTQ8; Ttbk2|Q3UVR3; Dync2h1|Q45VK7; Herc2|Q4U2R1; Rtl6|Q505G4; Nufip2|Q5F2E7; Neurl4|Q5NCX5; Lrrk2|Q5S006; Sin3a|Q60520; Arhgef2|Q60875; Dyrk1a|Q61214; Tpd52|Q62393; Top2b|Q64511; Tpp2|Q64514; Togaram1|Q6A070; Smarca2|Q6DIC0; Ralgapa1|Q6GYP7; BC048403|Q6P1I3; Nudt16|Q6P3D0; Rrp12|Q6P5B0; Dhx29|Q6PGC1; Rictor|Q6QI06; Eid2|Q6X7S9; Smg5|Q6ZPY2; Fhod3|Q76LL6; Ints3|Q7TPD0; Mycbp2|Q7TPH6; Exosc3|Q7TQK4; Trim56|Q80VI1; Ppp1r10|Q80W00; Btbd10|Q80X66; Kctd13|Q8BGV7; Klhl26|Q8BGY4; Ap5m1|Q8BJ63; Nop53|Q8BK35; Csnk1a1|Q8BK63; Mapkap1|Q8BKH7; Tubgcp5|Q8BKN5; Ralgapb|Q8BQZ4; Lsm11|Q8BUV6; Zfp574|Q8BY46; Wdr59|Q8C0M0; Myo9a|Q8C170; Bbs4|Q8C1Z7; Rae1|Q8C570; Grsf1|Q8C5Q4; Trim9|Q8C7M3; Spice1|Q8C804; Rpgrip1l|Q8CG73; Rbm28|Q8CGC6; Ep400|Q8CHI8; Ints5|Q8CHT3; Tdrd7|Q8K1H1; Spats2|Q8K1N4; Arfip2|Q8K221; Nat10|Q8K224; Ints10|Q8K2A7; Bbs7|Q8K2G4; Zfp668|Q8K2R5; Fbxo45|Q8K3B1; Rbmx2|Q8R0F5; Dock7|Q8R1A4; Sh3glb2|Q8R3V5; Luzp1|Q8R4U7; Mib2|Q8R516; Tubg2|Q8VCK3; Mios|Q8VE19; Acot11|Q8VHQ9; Noc3l|Q8VI84; Rbm42|Q91V81; Nifk|Q91VE6; Tubgcp2|Q921G8; Map4k3|Q99JP0; Med4|Q9CQA5; Smc3|Q9CW03; Gfod2|Q9CYH5; Tpd52l2|Q9CYZ2; Dimt1|Q9D0D4; Tubgcp4|Q9D4F8; Nvl|Q9DBY8; Ranbp2|Q9ERU9; Sh3glb1|Q9JK48; Ybx3|Q9JKB3; Trip4|Q9QXN3; Usp21|Q9QZL6; Atp6v1g2|Q9WTT4; Smarcb1|Q9Z0H3; Recql|Q9Z129; Apc2|Q9Z1K7; Mtmr9|Q9Z2D0; Gm12695|A2AGB2; Ptpn9|O35239; Synpr|Q8BGN8; Slc32a1|O35633</t>
+  </si>
+  <si>
     <t xml:space="preserve">M13</t>
   </si>
   <si>
+    <t xml:space="preserve">Cdr2l|A2A6T1; Fmnl2|A2APV2; Kcnb2|A6H8H5; Pex10|B1AUE5; Dock5|B2RY04; Akap5|D3YVF0; Matn2|O08746; Ptgds|O09114; Sod3|O09164; Amacr|O09174; Phyh|O35386; Anxa3|O35639; Stk10|O55098; Cfdp1|O88271; Stam2|O88811; Afm|O89020; Adh1|P00329; Car2|P00920; Lamb1|P02469; Araf|P04627; Ttr|P07309; Anxa2|P07356; Alb|P07724; Serpina1a|P07758; Prkg1|P0C605; Anxa1|P10107; Agt|P11859; App|P12023; Gsn|P13020; Car1|P13634; Anxa6|P14824; Gc|P21614; Ces1c|P23953; Cat|P24270; Msn|P26041; Ptma|P26350; Ahsg|P29699; Gna15|P30678; Scp2|P32020; Serpinc1|P32261; Fah|P35505; Folr1|P35846; Fbln2|P37889; Dnm2|P39054; Cdkn1b|P46414; Anxa5|P48036; S100a11|P50543; Hsd17b4|P51660; Apod|P51910; Abcd3|P55096; Usp25|P57080; Acot8|P58137; Arl1|P61211; Ufm1|P61961; Vsnl1|P62761; Tuba1a|P68369; Stam|P70297; Sparcl1|P70663; Kcnj13|P86046; Anxa11|P97384; Anxa4|P97429; Mllt11|P97783; Dab2|P98078; Gnpat|P98192; Rbp4|Q00724; Serpina1d|Q00897; Aqp1|Q02013; Col6a2|Q02788; Aplp1|Q03157; Clu|Q06890; Padi2|Q08642; Nell1|Q2VWQ2; Ankmy2|Q3TPE9; Fcho2|Q3UQN2; Plcl1|Q3USB7; Niban1|Q3UW53; Pls1|Q3V0K9; Spag9|Q58A65; Pex1|Q5BL07; Ermn|Q5EBJ4; Synrg|Q5SV85; Shroom1|Q5SX79; Acbd5|Q5XG73; Crhbp|Q60571; Icam5|Q60625; P4ha1|Q60715; Trpc1|Q61056; Nell2|Q61220; Serpinf2|Q61247; Abcd2|Q61285; Stard3|Q61542; Mrc1|Q61830; Dag1|Q62165; Slc26a2|Q62273; Spock1|Q62288; Megf10|Q6DIB5; Rragb|Q6NTA4; Golm2|Q6P2L7; Armh3|Q6PD19; Slc6a5|Q761V0; Snd1|Q78PY7; Smap2|Q7TN29; Pcdh8|Q7TSK3; Ankrd13a|Q80UP5; Gstm7|Q80W21; Agfg2|Q80WC7; Trim36|Q80WG7; Nucks1|Q80XU3; Crb2|Q80YA8; Tnc|Q80YX1; Ttc9c|Q810A3; Fstl5|Q8BFR2; Clic6|Q8BHB9; Itih5|Q8BJD1; Chmp2b|Q8BJF9; Tmem214|Q8BM55; Ckap4|Q8BMK4; Adamts4|Q8BNJ2; Sfr1|Q8BP27; Ndrg4|Q8BTG7; Nup54|Q8BTS4; Qdpr|Q8BVI4; Golim4|Q8BXA1; Dhx32|Q8BZS9; Snx16|Q8C080; Agps|Q8C0I1; Lrrn3|Q8CBC6; Fermt3|Q8K1B8; Colgalt1|Q8K297; Agfg1|Q8K2K6; Nmral1|Q8K2T1; Niban2|Q8R1F1; Hid1|Q8R1F6; Aspa|Q8R3P0; Stab1|Q8R4Y4; Rmc1|Q8VC42; Slc22a6|Q8VC69; Zfyve21|Q8VCM3; Slc15a4|Q91W98; Scgn|Q91WD9; Hpx|Q91X72; Acaa1a|Q921H8; Trf|Q921I1; Chmp1a|Q921W0; Far1|Q922J9; Taldo1|Q93092; Gorasp2|Q99JX3; Arfgap2|Q99K28; Eps8l2|Q99K30; Sntb1|Q99L88; Pex6|Q99LC9; Ptdss1|Q99LH2; Hgs|Q99LI8; Pecr|Q99MZ7; Sar1b|Q9CQC9; Rgs10|Q9CQE5; Desi1|Q9CQT7; Carhsp1|Q9CR86; Ranbp3|Q9CT10; 2410004B18Rik|Q9CWU4; Ssu72|Q9CY97; Tmem135|Q9CYV5; Ptms|Q9D0J8; Serpinb1a|Q9D154; Lamtor5|Q9D1L9; Cmip|Q9D486; Dcps|Q9DAR7; Tysnd1|Q9DBA6; Plin3|Q9DBG5; Baiap2l1|Q9DBJ3; Lonp2|Q9DBN5; Nudt12|Q9DCN1; Sil1|Q9EPK6; Trpv4|Q9EPK8; Clstn1|Q9EPL2; Acox3|Q9EPL9; Palmd|Q9JHU2; Ldb3|Q9JKS4; Gltp|Q9JL62; Scly|Q9JLI6; Rabgef1|Q9JM13; Sema7a|Q9QUR8; Pex3|Q9QXY9; Clic4|Q9QYB1; Ndrg3|Q9QYF9; Gab1|Q9QYY0; Acox1|Q9R0H0; Enpp2|Q9R1E6; Sae1|Q9R1T2; Decr2|Q9WV68; Tagln2|Q9WVA4; Ehd1|Q9WVK4; Sncg|Q9Z0F7; Uba2|Q9Z1F9; Pex11b|Q9Z210; Slc38a7|Q8BWH0; Apbb1ip|Q8R5A3; Serpina3n|Q91WP6; Ctnnal1|O88327; Prnp|P04925; Arf6|P62331; Cdk16|Q04735; Stxbp3|Q60770; Gas7|Q60780; Rasa3|Q60790; Stxbp2|Q64324; Pcdhb14|Q6PB90; Erbin|Q80TH2; Slitrk1|Q810C1; Tmem266|Q8BZB3; Slc13a3|Q91Y63; Mmp17|Q9R0S3</t>
+  </si>
+  <si>
     <t xml:space="preserve">M4</t>
   </si>
   <si>
+    <t xml:space="preserve">Shroom2|A2ALU4; Ptprz1|B9EKR1; Aip|O08915; Atox1|O08997; Gclm|O09172; Nudc|O35685; Gamt|O35969; Gucy1b1|O54865; Impa1|O55023; Snca|O55042; Acot1|O55137; Pdlim1|O70400; Scrg1|O88745; Tom1|O88746; Rbbp9|O88851; Mt2|P02798; Hsp90aa1|P07901; Sod1|P08228; Camk4|P08414; Calm2|P0DP27; Txn1|P10639; Hsp90ab1|P11499; Nudt19|P11930; Calb1|P12658; Bpgm|P15327; Lgals1|P16045; Gstp1|P19157; Prkca|P20444; Tpm3|P21107; Tgm2|P21981; Hmbs|P22907; Crabp2|P22935; Glb1|P23780; Nfkb1|P25799; Tln1|P26039; Car8|P28651; Nap1l1|P28656; Fkbp4|P30416; Prkar2b|P31324; Dbi|P31786; Pvalb|P32848; Oxt|P35454; Ppm1b|P36993; Akr1b3|P45376; Vps4b|P46467; Nedd4|P46935; Mapk14|P47811; Tbca|P48428; Cdk5|P49615; Nat2|P50295; Arsa|P50428; Gpc4|P51655; Gss|P51855; Stat6|P52633; Stmn1|P54227; Rad23a|P54726; Nub1|P54729; Faf1|P54731; Tango2|P54797; Adprh|P54923; Adk|P55264; Pdcd5|P56812; Tpm1|P58771; Nrgn|P60761; Ensa|P60840; Ube2d3|P61079; Fgf1|P61148; Arf4|P61750; Vbp1|P61759; Nutf2|P61971; Tsc22d1|P62500; Hpcal1|P62748; Mtpn|P62774; Gnb5|P62881; Pfn1|P62962; Cplx1|P63040; Pcp4|P63054; Prkcg|P63318; Ube2l3|P68037; Ywhaq|P68254; Prkcb|P68404; Ywhah|P68510; Pebp1|P70296; Rock1|P70335; Hint1|P70349; Irf3|P70671; Hpca|P84075; Cplx2|P84086; S100a13|P97352; Sms|P97355; Wbp2|P97765; Jpt1|P97825; G6pdx|Q00612; Rbp1|Q00915; Pde1b|Q01065; Pfdn6|Q03958; Rela|Q04207; Anxa7|Q07076; Cbfb|Q08024; Calb2|Q08331; Cpne7|Q0VE82; Osbp|Q3B7Z2; Ric8a|Q3TIR3; Scrn3|Q3TMH2; Dhps|Q3TXU5; Fchsd2|Q3USJ8; Crppa|Q5RJG7; Ankrd40|Q5SUE8; Kif1b|Q60575; Ppp1r1b|Q60829; Serpinb6a|Q60854; Asns|Q61024; Cdc37|Q61081; Gbp3|Q61107; Lcp1|Q61233; Fnta|Q61239; Igbp1|Q61249; Arhgdib|Q61599; Phgdh|Q61753; Ovgp1|Q62010; Pea15a|Q62048; Zpr1|Q62384; Ostf1|Q62422; Cstb|Q62426; Zyx|Q62523; Omp|Q64288; Myo6|Q64331; Nqo1|Q64669; Srm|Q64674; Rapgefl1|Q68EF8; Galk2|Q68FH4; Ehbp1|Q69ZW3; N4bp1|Q6A037; Churc1|Q6DG52; Tpm4|Q6IRU2; Sri|Q6P069; Sat2|Q6P8J2; Ip6k1|Q6PD10; N6amt1|Q6SKR2; Kctd12|Q6WVG3; Carns1|Q6ZPS2; Kifbp|Q6ZPU9; Arhgap26|Q6ZQ82; Ube2r2|Q6ZWZ2; Nap1l4|Q78ZA7; Actn1|Q7TPR4; Ube2q1|Q7TSS2; Adal|Q80SY6; Fnbp1|Q80TY0; Sra1|Q80VJ2; Flnb|Q80X90; Necab1|Q8BG18; Enoph1|Q8BGB7; Atg4b|Q8BGE6; D3Ertd751e|Q8BGN2; Bola2|Q8BGS2; Hpcal4|Q8BGZ1; Ubap1|Q8BH48; Czib|Q8BHG2; Psmf1|Q8BHL8; Ncs1|Q8BNY6; Cc2d1b|Q8BRN9; Pggt1b|Q8BUY9; Rhpn2|Q8BWR8; Osgep|Q8BWU5; Tbc1d17|Q8BYH7; Tnr|Q8BYI9; Itpk1|Q8BYN3; Arhgef10|Q8C033; Thop1|Q8C1A5; Tbcel|Q8C5W3; Rtkn|Q8C6B2; Cfap36|Q8C6E0; Tsr2|Q8C8T8; Ttc27|Q8CD92; Cdc34|Q8CFI2; Trim32|Q8CH72; Ngef|Q8CHT1; Epn2|Q8CHU3; Dym|Q8CHY3; Hmgcs1|Q8JZK9; Cpne5|Q8JZW4; Ppp1r11|Q8K1L5; Fntb|Q8K2I1; Brox|Q8K2Q7; Shtn1|Q8K2Q9; Champ1|Q8K327; Lzic|Q8K3C3; Appl1|Q8K3H0; Gpt|Q8QZR5; Aamdc|Q8R0P4; Nudcd3|Q8R1N4; Phospho1|Q8R2H9; Pex19|Q8VCI5; Tbcc|Q8VCN9; Abhd14b|Q8VCR7; Sgtb|Q8VD33; Myh9|Q8VDD5; Vps4a|Q8VEJ9; Hdac8|Q8VH37; Irgq|Q8VIM9; Ciapin1|Q8WTY4; Rnh1|Q91VI7; Wdr45|Q91VM3; Snx15|Q91WE1; Rabif|Q91X96; Ncald|Q91X97; Dap|Q91XC8; Pnpo|Q91XF0; Csdc2|Q91YQ3; Ttc1|Q91Z38; Sncb|Q91ZZ3; Tmem132a|Q922P8; Ddo|Q922Z0; Nans|Q99J77; Adi1|Q99JT9; Acy1|Q99JW2; Pdxdc1|Q99K01; Rragc|Q99K70; Psat1|Q99K85; Cryl1|Q99KP3; Lactb2|Q99KR3; St13|Q99L47; Ddah2|Q99LD8; Arhgdia|Q99PT1; Glo1|Q9CPU0; Chmp3|Q9CQ10; Stambp|Q9CQ26; Nudcd2|Q9CQ48; Mien1|Q9CQ86; Gmfb|Q9CQI3; Txndc17|Q9CQM5; Ufc1|Q9CR09; Ccdc43|Q9CR29; Atxn3|Q9CVD2; Sugt1|Q9CX34; Cygb|Q9CX80; Ube2f|Q9CY34; Eef1akmt1|Q9CY45; Rnf181|Q9CY62; Scrn1|Q9CZC8; Cdc37l1|Q9CZP7; Pbdc1|Q9D0B6; Arl2|Q9D0J4; Nudt14|Q9D142; Vps28|Q9D1C8; Tbcb|Q9D1E6; Pmvk|Q9D1G2; Chordc1|Q9D1P4; Saal1|Q9D2C2; Synj2|Q9D2G5; Coro7|Q9D2V7; Rufy3|Q9D394; Tubb4a|Q9D6F9; Pir|Q9D711; Chmp5|Q9D7S9; Kctd4|Q9D7X1; Ggct|Q9D7X8; Ppa1|Q9D819; Chmp4b|Q9D8B3; Mdp1|Q9D967; Ddi1|Q9DAF3; Cab39l|Q9DB16; Chmp2a|Q9DB34; Prkar1a|Q9DBC7; Rgs3|Q9DC04; Nebl|Q9DC07; Crot|Q9DC50; Ppp1r2|Q9DCL8; Hikeshi|Q9DD02; Cert1|Q9EQG9; Rcan2|Q9JHG2; Tmod3|Q9JHJ0; Nrip2|Q9JHR9; Stk3|Q9JI10; Nqo2|Q9JI75; Rnf14|Q9JI90; Actn2|Q9JI91; Kcnip1|Q9JJ57; Rilpl1|Q9JJC6; Sh3bgrl|Q9JJU8; Pxmp4|Q9JJW0; Tuba8|Q9JJZ2; Myg1|Q9JK81; Uchl3|Q9JKB1; Trim44|Q9QXA7; Hacl1|Q9QXE0; Chm|Q9QXG2; Galk1|Q9R0N0; Uchl1|Q9R0P9; Ptges3|Q9R0Q7; Akap12|Q9WTQ5; Mapk9|Q9WTU6; Skp1|Q9WTX5; Hebp2|Q9WU63; Faim|Q9WUD8; Arl3|Q9WUL7; Stxbp4|Q9WV89; Cpne6|Q9Z140; Clic1|Q9Z1Q5; Stk39|Q9Z1W9; Uso1|Q9Z1Z0; Pmm2|Q9Z2M7</t>
+  </si>
+  <si>
     <t xml:space="preserve">M41</t>
   </si>
   <si>
+    <t xml:space="preserve">Ralgapa2|A3KGS3; Otud4|B2RRE7; Fry|E9Q8I9; Clk3|O35492; Dnajb5|O89114; Rps15a|P62245; Rps18|P62270; Rps13|P62301; Rps26|P62855; Rps27a|P62983; G3bp1|P97855; Zswim8|Q3UHH1; Gtpbp2|Q3UJK4; Mthfsd|Q3URQ7; Ddx19a|Q61655; Jmjd1c|Q69ZK6; Tasor|Q69ZR9; Ift172|Q6VH22; Larp1|Q6ZQ58; Etf1|Q8BWY3; Camsap2|Q8C1B1; Ahi1|Q8K3E5; Kdm4b|Q91VY5; Med30|Q9CQI9; Hspa12b|Q9CZJ2; Pak1ip1|Q9DCE5; Nipbl|Q6KCD5; Nol6|Q8R5K4; Neurl1a|Q923S6</t>
+  </si>
+  <si>
     <t xml:space="preserve">M16</t>
   </si>
   <si>
+    <t xml:space="preserve">Pnpla7|A2AJ88; Frrs1l|B1AXV0; Faah|O08914; Degs1|O09005; Pkd2|O35245; Pdyn|O35417; Fkbp8|O35465; Sptlc1|O35704; Cyp2j6|O54750; Slc27a3|O88561; Abcd4|O89016; Vti1a|O89116; Bcl2|P10417; Agtr2|P35374; Ptpn1|P35821; Aldh3a2|P47740; Aaas|P58742; Rab2b|P59279; Snn|P61807; Vamp7|P70280; Pam|P97467; Adra1b|P97717; Faf2|Q3TDN2; Srebf2|Q3U1N2; Lbr|Q3U9G9; Pid1|Q3UBG2; Tmed8|Q3UHI4; Slc2a13|Q3UHK1; Ankrd13c|Q3UX43; Chsy3|Q5DTK1; Dhrs13|Q5SS80; Slc27a1|Q60714; Npdc1|Q64322; Ube2j2|Q6P073; Frmd5|Q6P5H6; Rundc3b|Q6PDC0; Tmed3|Q78IS1; Atp2c1|Q80XR2; Qpctl|Q8BH73; Armcx3|Q8BHS6; Tm2d3|Q8BJ83; Cyp20a1|Q8BKE6; Lss|Q8BLN5; Slc7a4|Q8BLQ7; Man2a2|Q8BRK9; Nat14|Q8BVG8; Itch|Q8C863; Kctd2|Q8CEZ0; Stx5a|Q8K1E0; Mboat2|Q8R3I2; Usp33|Q8R5K2; Dhrsx|Q8VBZ0; Tmem30a|Q8VEK0; Lpcat3|Q91V01; Tmem168|Q91VX9; Acsl6|Q91WC3; Abhd3|Q91ZH7; Slc35b2|Q91ZN5; Rab4b|Q91ZR1; Slc41a3|Q921R8; Nptxr|Q99J85; Kdelr1|Q99JH8; Ggt7|Q99JP7; Tlcd1|Q99JT6; Arl8b|Q9CQW2; Ier3ip1|Q9CR20; Armcx1|Q9CX83; Dhrs7|Q9CXR1; Etnk1|Q9D4V0; Tmem68|Q9D850; Snx5|Q9D8U8; Napa|Q9DB05; Gdap2|Q9DBL2; Cyp4f14|Q9EP75; Mettl9|Q9EPL4; Vps35|Q9EQH3; Icmt|Q9EQK7; Syt13|Q9EQT6; Stx12|Q9ER00; Tor1a|Q9ER39; Erg28|Q9ERY9; Galnt16|Q9JJ61; Stx6|Q9JKK1; Cln8|Q9QUK3; Abhd16a|Q9Z1Q2; Cpt1a|P97742; Rab39b|Q8BHC1; Rab5c|P35278; Rab1a|P62821; Yipf3|Q3UDR8; Rnft2|Q3UF64; Stx3|Q64704; Abhd13|Q80UX8; Elmod2|Q8BGF6; B4gat1|Q8BWP8; Osbpl2|Q8BX94; Slc35e1|Q8CD26; Scyl2|Q8CFE4; Sccpdh|Q8R127; Ptrh2|Q8R2Y8; Arl8a|Q8VEH3; Dhrs1|Q99L04; Fbxl20|Q9CZV8; Rab1b|Q9D1G1; Cyb5r3|Q9DCN2; B3galt5|Q9JI67; Atp6ap1|Q9R1Q9; Slc25a14|Q9Z2B2; Kcnk1|O08581; Banf1|O54962; Chrna4|O70174; Nptx2|O70340; Stx7|O70439; Smpd2|O70572; Cacna1h|O88427; Adam15|O88839; Leprot|O89013; Napb|P28663; Ptprk|P35822; Tbxas1|P36423; Vps26a|P40336; Nsf|P46460; Glrb|P48168; Psen1|P49769; Rab7|P51150; Rab2a|P53994; Tyro3|P55144; Bace1|P56818; B3gat3|P58158; Rab5b|P61021; Rab8b|P61028; Ptprn2|P80560; Nrsn1|P97799; Atp8b2|P98199; Elmod1|Q3V1U8; Bloc1s3|Q5U5M8; Ptprn|Q60673; Sdf4|Q61112; Nptx1|Q62443; Tmem151b|Q68FE7; Gpr17|Q6NS65; Tacc1|Q6Y685; Slc20a2|Q80UP8; Chst2|Q80WV3; Tmem167b|Q80X45; Svop|Q8BFT9; Dcakd|Q8BHC4; Rab9b|Q8BHH2; Csgalnact1|Q8BJQ9; Miga2|Q8BK03; Neto2|Q8BNJ6; Lpcat2|Q8BYI6; Slc38a1|Q8K2P7; Stxbp5|Q8K400; Slc30a5|Q8R4H9; Fam20b|Q8VCS3; Slc35f6|Q8VE96; Pcnx3|Q8VI59; Rab14|Q91V41; Frs3|Q91WJ0; Wwox|Q91WL8; Pgap4|Q91YV9; B3galt6|Q91Z92; Slc12a6|Q924N4; Dipk1b|Q99ML4; Slc12a9|Q99MR3; Slc24a3|Q99PD7; Napg|Q9CWZ7; Apbb2|Q9DBR4; Tm9sf1|Q9DBU0; Tpcn1|Q9EQJ0; Extl2|Q9ES89; Tm9sf3|Q9ET30; Slc12a4|Q9JIS8; Scamp4|Q9JKV5; Jag2|Q9QYE5; Syt5|Q9R0N5; Extl3|Q9WVL6; Sema4f|Q9Z123</t>
+  </si>
+  <si>
     <t xml:space="preserve">M3</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntn1|O09118; Krt18|P05784; Krt8|P11679; H1f5|P43276; Igfbp6|P47880; Sf3b6|P59708; Rbm15|Q0VBL3; Map9|Q3TRR0; Ccdc106|Q3ULM0; Fbxw11|Q5SRY7; Hnrnpd|Q60668; Tbc1d30|Q69ZT9; Nexn|Q7TPW1; U2af1l4|Q8BGJ9; Macroh2a2|Q8CCK0; Zfp385a|Q8VD12; Pqbp1|Q91VJ5; Itfg2|Q91WI7; Vkorc1|Q9CRC0; Nol7|Q9D7Z3; Papln|Q9EPX2; Dnajb1|Q9QYJ3; Ppie|Q9QZH3; Ylpm1|Q9R0I7; Hnrnpdl|Q9Z130; Med14|A2ABV5; Thoc2|B1AZI6; Mfap1b|C0HKD9; Safb|D3YXK2; Cep350|E9Q309; Alyref|O08583; Mknk1|O08605; Eftud2|O08810; Hps1|O08983; Purb|O35295; Pnn|O35691; Hnrnph1|O35737; Api5|O35841; Cavin1|O54724; Trappc3|O55013; Sap18|O55128; Dhx9|O70133; Atxn2|O70305; Zfp326|O88291; Ap1g2|O88512; Zfr|O88532; Hnrnpa2b1|O88569; H1f0|P10922; Parp1|P11103; C1qb|P14106; Srp54a|P14576; H1f2|P15864; Ptbp1|P17225; Ap1g1|P22892; U2af2|P26369; Celf1|P28659; Pabpc1|P29341; Apoc3|P33622; Apoc1|P34928; Ap1m1|P35585; Fmr1|P35922; Pura|P42669; H1f4|P43274; H1f1|P43275; Hnrnpa1|P49312; Pcyt1a|P49586; Tia1|P52912; Ddx6|P54823; Pcbp3|P57722; Pcbp1|P60335; Smg6|P61406; Hnrnpk|P61979; Lrch1|P62046; Ybx1|P62960; Crnkl1|P63154; Tial1|P70318; Elavl1|P70372; Rbbp6|P97868; Fmo5|P97872; C1qa|P98086; Hnrnpul2|Q00PI9; Sec23a|Q01405; Zc3h18|Q0P678; St3gal2|Q11204; Cdk12|Q14AX6; Patl1|Q3TC46; Khdc4|Q3TCX3; Prrc2c|Q3TLH4; Trappc10|Q3TLI0; Ctdnep1|Q3TP92; Ccdc136|Q3TVA9; Trappc9|Q3U0M1; Khsrp|Q3U0V1; Sec24a|Q3U2P1; Mcrip1|Q3UGS4; Tnrc6a|Q3UHK8; Edc4|Q3UJB9; Smu1|Q3UKJ7; Sec31a|Q3UPL0; Map11|Q3UTZ3; Prpf38a|Q4FK66; Wdr18|Q4VBE8; Ddx17|Q501J6; Trappc1|Q5NCF2; Coil|Q5SU73; Ggnbp2|Q5SV77; Gprasp1|Q5U4C1; Thoc6|Q5U4D9; Khdrbs1|Q60749; Col12a1|Q60847; Elavl2|Q60899; Elavl3|Q60900; Prpf4b|Q61136; Fxr1|Q61584; Pcbp2|Q61990; Cep131|Q62036; Atm|Q62388; Eif4g2|Q62448; Raly|Q64012; Sf1|Q64213; Aktip|Q64362; H2bc18|Q64525; Tpgs2|Q66JT5; 0610010F05Rik|Q68FF0; Cdk13|Q69ZA1; Cdc5l|Q6A068; Helz|Q6DFV5; U2surp|Q6NV83; Sec23ip|Q6NZC7; Zc3h11a|Q6NZF1; Eif4g1|Q6NZJ6; Rbm26|Q6NZN0; Snrnp200|Q6P4T2; Smchd1|Q6P5D8; Snrnp40|Q6PE01; Ctif|Q6PEE2; Bud31|Q6PGH1; Rbm15b|Q6PHZ5; Tex2|Q6ZPJ0; Syncrip|Q7TMK9; Thoc7|Q7TMY4; Celf6|Q7TN33; Cpeb3|Q7TN99; Prrc2b|Q7TPM1; Atxn2l|Q7TQH0; Prrc2a|Q7TSC1; Celf4|Q7TSY6; Mib1|Q80SY4; Pum2|Q80U58; Pum1|Q80U78; Ints2|Q80UK8; Vrk1|Q80X41; Sympk|Q80X82; Eif4g3|Q80XI3; Fam160b2|Q80YR2; Cpeb2|Q812E0; Rnf214|Q8BFU3; Hnrnpa3|Q8BG05; Poldip3|Q8BG81; Smndc1|Q8BGT7; Rnf41|Q8BH75; Rbm45|Q8BHN5; Rbm22|Q8BHS3; Noc4l|Q8BHY2; Rbfox3|Q8BIF2; Cstf2|Q8BIQ5; Zc3h14|Q8BJ05; Marf1|Q8BJ34; Pum3|Q8BKS9; Thoc5|Q8BKT7; Cpsf7|Q8BTV2; Hook3|Q8BUK6; Rsl1d1|Q8BVY0; Rbms3|Q8BWL5; Nkrf|Q8BY02; Zmat4|Q8BZ94; Ncbp3|Q8BZR9; Dzank1|Q8C008; Mbnl2|Q8C181; Rbm14|Q8C2Q3; Cnot2|Q8C5L3; Rbm34|Q8C5L7; Cstf2t|Q8C7E9; Myef2|Q8C854; Shfl|Q8CAK3; Bivm|Q8CBX9; Pabpn1|Q8CCS6; Ppwd1|Q8CEC6; Aqr|Q8CFQ3; Lsm14b|Q8CGC4; Tcerg1|Q8CGF7; Cherp|Q8CGZ0; Sugp2|Q8CH09; Ccar1|Q8CH18; Sltm|Q8CH25; Zc3h3|Q8CHP0; Clip4|Q8CI96; Stau2|Q8CJ67; Ago2|Q8CJG0; Rbm17|Q8JZX4; Edc3|Q8K2D3; Lsm14a|Q8K2F8; Matr3|Q8K310; Wdr33|Q8K4P0; Ints13|Q8QZV7; Sf3b4|Q8QZY9; Hnrnpl|Q8R081; Pspc1|Q8R326; Ppp1r8|Q8R3G1; Nop14|Q8R3N1; Thoc1|Q8R3N6; Purg|Q8R4E6; Wrap53|Q8VC51; Ssx2ip|Q8VC66; Wdr74|Q8VCG3; Ddx39a|Q8VDW0; Nudt16l1|Q8VHN8; Sfpq|Q8VIJ6; Eif4a3|Q91VC3; Rbmxl1|Q91VM5; Tdrd3|Q91W18; Ncoa5|Q91W39; Fubp1|Q91WJ8; Strbp|Q91WM1; Dcp1a|Q91YD3; Rbm5|Q91YE7; Ppan|Q91YU8; Ptbp2|Q91Z31; Adarb1|Q91ZS8; Dst|Q91ZU6; Msi2|Q920Q6; Tardbp|Q921F2; Ddx27|Q921N6; AI597479|Q922M7; Plrg1|Q922V4; Wbp11|Q923D5; Rnf112|Q96DY5; Myo5a|Q99104; Nono|Q99K48; Rtf2|Q99K95; Cmas|Q99KK2; Prpf19|Q99KP6; Cstf1|Q99LC2; Cstf3|Q99LI7; 2310033P09Rik|Q99LX5; Rnps1|Q99M28; Gtpbp4|Q99ME9; Ddx50|Q99MJ9; Tpgs1|Q99MS8; Adar|Q99MU3; Prpf8|Q99PV0; Trappc5|Q9CQA1; Snrpb2|Q9CQI7; Magohb|Q9CQL1; Snw1|Q9CSN1; Raver1|Q9CW46; Rbm8a|Q9CWZ3; Gemin6|Q9CX53; Hnrnpa0|Q9CX86; Ilf2|Q9CXY6; Chtop|Q9CY57; Dcp2|Q9CYC6; Rrs1|Q9CYH6; Srsf9|Q9D0B0; Hnrnpm|Q9D0E1; Ddx56|Q9D0R4; Lsm12|Q9D0R8; Ppil1|Q9D0W5; Ints12|Q9D168; Sarnp|Q9D1J3; Sec13|Q9D1M0; Dpm3|Q9D1Q4; Bcas2|Q9D287; Trappc6b|Q9D289; Sec23b|Q9D662; Ppil2|Q9D787; Fip1l1|Q9D824; U2af1|Q9D883; Ebna1bp2|Q9D903; Osbpl3|Q9DBS9; Rsrc1|Q9DBU6; Cdc40|Q9DC48; Xab2|Q9DCD2; Cpsf1|Q9EPU4; Ubl5|Q9EPV8; Dgcr8|Q9EQM6; Tfip11|Q9ERA6; Trappc4|Q9ES56; Eif4enif1|Q9EST3; Ddx24|Q9ESV0; Cwc15|Q9JHS9; Dazap1|Q9JII5; Ddx21|Q9JIK5; Acin1|Q9JIX8; Rbfox1|Q9JJ43; Alyref2|Q9JJW6; Nova1|Q9JKN6; Mbnl1|Q9JKP5; Aatf|Q9JKX4; Sacs|Q9JLC8; Son|Q9QX47; Qk|Q9QYS9; Zfp346|Q9R0B7; Pcm1|Q9R0L6; Khdrbs3|Q9R226; Hao1|Q9WU19; Rbmx|Q9WV02; Fxr2|Q9WVR4; Celf2|Q9Z0H4; Ik|Q9Z1M8; Ddx39b|Q9Z1N5; Ilf3|Q9Z1X4; Hnrnpc|Q9Z204; Keap1|Q9Z2X8; Top3b|Q9Z321</t>
+  </si>
+  <si>
     <t xml:space="preserve">M15</t>
   </si>
   <si>
+    <t xml:space="preserve">Camsap1|A2AHC3; Focad|A2AKG8; Cttnbp2|B9EJA2; Ift140|E9PY46; Rnf213|E9Q555; Ampd3|O08739; Cyth3|O08967; Ppfibp2|O35711; Grk6|O70293; Dync1i1|O88485; Msh3|P13705; Cryz|P47199; Strn4|P58404; Dock4|P59764; Depdc5|P61460; Ldb1|P70662; Tnik|P83510; Fmn1|Q05860; Ttc21b|Q0HA38; Dact3|Q0PHV7; Fam117b|Q3U3E2; Mtus2|Q3UHD3; Lrch2|Q3UMG5; Arhgef40|Q3UPH7; Ksr2|Q3UVC0; Fam91a1|Q3UVG3; Rassf5|Q5EBH1; Tiam1|Q60610; Ksr1|Q61097; Pik3c2a|Q61194; Eif2d|Q61211; Trim25|Q61510; Agtpbp1|Q641K1; Brsk2|Q69Z98; Sh3rf1|Q69ZI1; Cep170|Q6A065; Hecw2|Q6I6G8; Ttbk1|Q6PCN3; Shb|Q6PD21; Wipf2|Q6PEV3; Pik3c3|Q6PF93; Dmxl1|Q6PNC0; Fam120b|Q6RI63; Syne2|Q6ZWQ0; Fbxo10|Q7TQF2; Btbd8|Q80TK0; Clec16a|Q80U30; Cep170b|Q80U49; Ankzf1|Q80UU1; Cdc42bpg|Q80UW5; Dtx3|Q80V91; Bbs9|Q811G0; Mast4|Q811L6; Arhgap32|Q811P8; Frmd4a|Q8BIE6; Nyap2|Q8BM65; Larp6|Q8BN59; Dclk3|Q8BWQ5; Agap1|Q8BXK8; Arap2|Q8BZ05; Map1s|Q8C052; Cfap410|Q8C6G1; Amer2|Q8CCJ4; Synj1|Q8CHC4; Dock3|Q8CIQ7; Wdr11|Q8K1X1; Uvrag|Q8K245; Arhgef6|Q8K4I3; Dync1li1|Q8R1Q8; Actr1b|Q8R5C5; Pik3r4|Q8VD65; Tti1|Q91V83; Eef1aknmt|Q91YR5; Srgap1|Q91Z69; Rin1|Q921Q7; Glyr1|Q922P9; Ntpcr|Q9CQA9; Necap1|Q9CR95; Gar1|Q9CY66; Rfc5|Q9D0F6; Nos1ap|Q9D3A8; Aven|Q9D9K3; Inpp4a|Q9EPW0; Magi3|Q9EQJ9; Arhgef7|Q9ES28; Nek7|Q9ES74; Dync1h1|Q9JHU4; Eefsec|Q9JHW4; Tulp4|Q9JIL5; Zmym3|Q9JLM4; Dclk1|Q9JLM8; Pnkp|Q9JLV6; Cyth1|Q9QX11; Numb|Q9QZS3; Dlc1|Q9R0Z9; Mast1|Q9R1L5; Trim3|Q9R1R2; Tbk1|Q9WUN2; Gsk3b|Q9WV60; Anapc7|Q9WVM3; Clip2|Q9Z0H8; Itsn1|Q9Z0R4; Nek4|Q9Z1J2; Unc13b|Q9Z1N9; Dock11|A2AF47; Chadl|E9Q7T7; Sipa1l3|G3X9J0; Kif2a|P28740; Mark3|Q03141; Nf1|Q04690; Specc1l|Q2KN98; Mast3|Q3U214; Agap2|Q3UHD9; Aak1|Q3UHJ0; Brsk1|Q5RJI5; Grb10|Q60760; Dhx57|Q6P5D3; Map6|Q7TSJ2; Sipa1l2|Q80TE4; Tecpr1|Q80VP0; Cnksr2|Q80YA9; Zc2hc1a|Q8BJH1; Clasp2|Q8BRT1; Ift57|Q8BXG3; Nav1|Q8CH77; Gas2l1|Q8JZP9; Cc2d1a|Q8K1A6; Sh3kbp1|Q8R550; Ttc8|Q8VD72; Mark1|Q8VHJ5; Nprl3|Q8VIJ8; Trub2|Q91WG3; Ascc2|Q91WR3; Pard3b|Q9CSB4; Bbs5|Q9CZQ9; Exosc7|Q9D0M0; Csnk1d|Q9DC28; Inpp5e|Q9JII1; Mink1|Q9JM52; Csnk1e|Q9JMK2; Asap1|Q9QWY8; Nme7|Q9QXL8; Arntl|Q9WTL8; Mtmr7|Q9Z2C9; Tanc2|A2A690; Chd6|A3KFM7; Numbl|O08919; Kifc3|O35231; Nck2|O55033; Syn1|O88935; Ap2a1|P17426; Ap2a2|P17427; Cit|P49025; Arhgap39|P59281; Ap2s1|P62743; Ap2m1|P84091; Nfia|Q02780; Trio|Q0KL02; Dennd4b|Q3U1Y4; Carmil3|Q3UFQ8; Dab2ip|Q3UHC7; Bbs1|Q3V3N7; Ccdc85a|Q5SP85; Apc|Q61315; Actr3b|Q641P0; Peak1|Q69Z38; Carmil1|Q6EDY6; Caskin1|Q6P9K8; Nyap1|Q6PFX7; Morn4|Q6PGF2; Wdfy3|Q6VNB8; Plekha6|Q7TQG1; Camsap3|Q80VC9; Dmxl2|Q8BPN8; Ppfia2|Q8BSS9; Pak4|Q8BTW9; Sipa1l1|Q8C0T5; Taf2|Q8C176; Mark4|Q8CIP4; Atat1|Q8K341; Wdr7|Q920I9; Ap2b1|Q9DBG3; Rims2|Q9EQZ7; Fn3k|Q9ER35; Grasp|Q9JJA9; Ulk2|Q9QY01; Mapk8ip1|Q9WVI9</t>
+  </si>
+  <si>
     <t xml:space="preserve">M2</t>
   </si>
   <si>
+    <t xml:space="preserve">Ddi2|A2ADY9; Frmpd4|A2AFR3; Rap1gap|A2ALS5; Ppip5k1|A2ARP1; Fbxl16|A2RT62; Ttc38|A3KMP2; Mtr|A6H5Y3; Armt1|A6H630; Rabgap1l|A6H6A9; Apba1|B2RUJ5; Otud7b|B2RUR8; Capn2|O08529; Dpysl2|O08553; Clta|O08585; Pten|O08586; Prdx6|O08709; Casp6|O08738; Pex5|O09012; Gsto1|O09131; Ddt|O35215; Capn1|O35350; Rabep1|O35551; Crym|O54983; Slk|O54988; Tpmt|O55060; Chkb|O55229; Ubr1|O70481; Pfdn2|O70591; Wdr1|O88342; Capns1|O88456; Shd|O88834; Idh1|O88844; Hprt|P00493; Got1|P05201; Ldha|P06151; Gpi1|P06745; Ckm|P07310; Aprt|P08030; Pgk1|P09411; Nudt11|P0C028; Fabp3|P11404; Gusb|P12265; Pdcd6|P12815; Umps|P13439; Gpd1|P13707; Mdh1|P14152; Ldhb|P16125; Gapdh|P16858; Eno1|P17182; Eno2|P17183; Selenbp1|P17563; Ppia|P17742; Tpi1|P17751; Rps6ka3|P18654; Cfl1|P18760; Eno3|P21550; Pnp|P23492; Pcmt1|P23506; Gfus|P23591; Bcat1|P24288; Gsta4|P24472; Lta4h|P24527; Fkbp1a|P26883; Adh5|P28474; Nedd8|P29595; Akt1|P31750; Ranbp1|P34022; Mif|P34884; Ephx2|P34914; Usp4|P35123; Prdx1|P35700; Ptpn12|P35831; Gnl1|P36916; Ttl|P38585; Tkt|P40142; Stat3|P42227; Stat5b|P42232; Cfl2|P45591; Adss|P46664; Brcc3|P46737; Gsr|P47791; Crkl|P47941; Hspa4l|P48722; Cbr1|P48758; Gstm5|P48774; Inpp1|P49442; Ppm1a|P49443; Ahcy|P50247; Gdi1|P50396; Fabp7|P51880; Rida|P52760; Rabggtb|P53612; Limk1|P53668; Pitpna|P53810; Rad23b|P54728; Acyp2|P56375; Acyp1|P56376; Cda|P56389; Usp5|P56399; Znrd2|P56873; Actn4|P57780; Idi1|P58044; Ptpa|P58389; Actb|P60710; Ube2d1|P61080; Ube2k|P61087; Ube2n|P61089; Pcbd1|P61458; Ywhag|P61982; Ywhae|P62259; Ppp2cb|P62715; Ran|P62827; Elob|P62869; Hspa8|P63017; Ywhaz|P63101; Pkia|P63248; Ppp3ca|P63328; Actc1|P68033; Tuba4a|P68368; Tubb4b|P68372; Tuba1c|P68373; Kpnb1|P70168; Lxn|P70202; Pdlim4|P70271; Mpp1|P70290; Casp3|P70677; Urod|P70697; Eloc|P83940; Arf1|P84078; Rgs14|P97492; Gclc|P97494; Thumpd3|P97770; Apba2|P98084; Tubb5|P99024; Nme2|Q01768; Uba1|Q02053; Galt|Q03249; Ckb|Q04447; Fabp5|Q05816; Dnal1|Q05A62; Cab39|Q06138; Dmwd|Q08274; Ubxn2b|Q0KL01; Npepps|Q11011; Pepd|Q11136; Msto1|Q2YDW2; Cyb5r4|Q3TDX8; Myl12b|Q3THE2; Aarsd1|Q3THG9; Gmps|Q3THK7; Mat2a|Q3THS6; Gdpgp1|Q3TLS3; Uap1l1|Q3TW96; Smyd5|Q3TYX3; Fbxo7|Q3U7U3; Otulin|Q3UCV8; Ttll12|Q3UDE2; Ube2z|Q3UE37; Nt5c3b|Q3UFY7; Hdhd2|Q3UGR5; Babam1|Q3UI43; 2610301B20Rik|Q3UJP5; Tax1bp1|Q3UKC1; Ppp1r7|Q3UM45; Arhgef9|Q3UTH8; Macrod2|Q3UYG8; Rap1gap2|Q5SVL6; Myl6|Q60605; Grb2|Q60631; Ppp5c|Q60676; Akt2|Q60823; Stip1|Q60864; Gstt2|Q61133; Prdx2|Q61171; Tsg101|Q61187; Clns1a|Q61189; Pafah1b3|Q61205; Pafah1b2|Q61206; Hspa4|Q61316; Pde1a|Q61481; Fscn1|Q61553; Gdi2|Q61598; Hsph1|Q61699; Prkd1|Q62101; Dbnl|Q62418; Ppp3r1|Q63810; Mapk3|Q63844; Map2k2|Q63932; Crk|Q64010; Spr|Q64105; Sord|Q64442; Gstt1|Q64471; Guk1|Q64520; Vcl|Q64727; Gart|Q64737; Ripor1|Q68FE6; Gpsm1|Q6IR34; Cltb|Q6IRU5; Wdr44|Q6NVE8; Ptpdc1|Q6NZK8; Xpnpep1|Q6P1B1; Xpo1|Q6P5F9; Oxsr1|Q6P9R2; Gapvd1|Q6PAR5; Ptpn23|Q6PB44; Rrm2b|Q6PEE3; Ube2o|Q6ZPJ3; Acap2|Q6ZQK5; Tubb2a|Q7TMM9; Ciao3|Q7TMW6; Otub1|Q7TQI3; Stk38l|Q7TSE6; Pgm2|Q7TSV4; Ppm1e|Q80TL0; Nisch|Q80TM9; Plekhm2|Q80TQ5; Dnajc6|Q80TZ3; Epn1|Q80VP1; Thnsl2|Q80W22; Dpp8|Q80YA7; Sergef|Q80YD6; Pank4|Q80YV4; Ankfy1|Q810B6; Cpped1|Q8BFS6; Pef1|Q8BFY6; Sh3bgrl2|Q8BG73; Aars|Q8BGQ7; Phyhipl|Q8BGT8; 8030462N17Rik|Q8BH50; Tiprl|Q8BH58; Gopc|Q8BH60; Nrd1|Q8BHG1; Oscp1|Q8BHW2; Cyria|Q8BHZ0; Prune1|Q8BIW1; Nup93|Q8BJ71; Sgta|Q8BJU0; Fbxo44|Q8BK26; Ahsa1|Q8BK64; Ipo5|Q8BKC5; Gga3|Q8BMI3; Armc6|Q8BNU0; AW549877|Q8BR90; Rps6kb1|Q8BSK8; Cpne3|Q8BT60; Tcp11l1|Q8BTG3; Kyat1|Q8BTY1; Ppme1|Q8BVQ5; Camk1d|Q8BW96; Pithd1|Q8BWR2; Usp47|Q8BY87; Tbcd|Q8BYA0; Pgm5|Q8BZF8; Nhlrc2|Q8BZW8; Camkk2|Q8C078; Atg16l1|Q8C0J2; Paox|Q8C0L6; Gpcpd1|Q8C0L9; Asrgl1|Q8C0M9; Zfp451|Q8C0P7; Cpne1|Q8C166; 2310022B05Rik|Q8C3W1; Uba6|Q8C7R4; Uba3|Q8C878; Pgm2l1|Q8CAA7; Castor2|Q8CAB8; Acat2|Q8CAY6; Yod1|Q8CB27; Fam160b1|Q8CDM8; Adprhl2|Q8CG72; Ppm1f|Q8CGA0; Phlpp1|Q8CHE4; Pgp|Q8CHP8; Myl6b|Q8CI43; Pak2|Q8CIN4; Tbce|Q8CIV8; Thtpa|Q8JZL3; Gmds|Q8K0C9; Phyhip|Q8K0S0; Pdxk|Q8K183; Ipo11|Q8K2V6; Cbr3|Q8K354; Gspt1|Q8R050; Gale|Q8R059; Gga1|Q8R0H9; Cmbl|Q8R1G2; Pdlim2|Q8R1G6; Chmp7|Q8R1T1; Sdsl|Q8R238; Ubqln1|Q8R317; Tbc1d13|Q8R3D1; Wipi1|Q8R3E3; Usp15|Q8R5H1; Nae1|Q8VBW6; Mpdz|Q8VBX6; Camkk1|Q8VBY2; Tkfc|Q8VC30; Gca|Q8VC88; Scrn2|Q8VCA8; Rnpep|Q8VCT3; Gripap1|Q8VD04; Hip1|Q8VD75; Ptgr2|Q8VDQ1; Uba5|Q8VE47; Fam114a2|Q8VE88; Lgalsl|Q8VED9; Rpe|Q8VEE0; Epm2aip1|Q8VEH5; Setd7|Q8VHL1; Ipo4|Q8VI75; Impa2|Q91UZ5; Acot7|Q91V12; Isoc1|Q91V64; 4931406C07Rik|Q91V76; Hnmt|Q91VF2; Stk38|Q91VJ4; Sh3bgrl3|Q91VW3; Ubl7|Q91W67; Rabep2|Q91WG2; Eva1a|Q91WM6; As3mt|Q91WU5; Osbpl1a|Q91XL9; Uap1|Q91YN5; Camk1|Q91YS8; Grhpr|Q91Z53; Diras1|Q91Z61; Fdps|Q920E5; Hlcs|Q920N2; Ak5|Q920P5; Cyrib|Q921M7; Ppp6r3|Q922D4; Pcyt2|Q922E4; Tubb6|Q922F4; Prmt7|Q922X9; Ubxn1|Q922Y1; Blvrb|Q923D2; Mpi|Q924M7; Sec14l2|Q99J08; Nrbp1|Q99J45; Usp11|Q99K46; Pls3|Q99K51; Dpp3|Q99KK7; Rab28|Q99KL7; Ciao1|Q99KN2; Nampt|Q99KQ4; Mat2b|Q99LB6; Tnpo2|Q99LG2; Psph|Q99LS3; Park7|Q99LX0; Hspbp1|Q99P31; Ogfr|Q99PG2; Nanp|Q9CPT3; Glod4|Q9CPV4; Atg3|Q9CPX6; Lap3|Q9CPY7; Mid1ip1|Q9CQ20; Pgls|Q9CQ60; Mtap|Q9CQ65; Cotl1|Q9CQI6; Rwdd1|Q9CQK7; Glrx3|Q9CQM9; Ppp6c|Q9CQR6; Mri1|Q9CQT1; Ywhab|Q9CQV8; Psmd9|Q9CR00; Ppid|Q9CR16; Dph2|Q9CR25; Vta1|Q9CR26; Gnpda2|Q9CRC9; Xpot|Q9CRT8; Tubb2b|Q9CWF2; Atic|Q9CWJ9; Ddah1|Q9CWS0; Tbc1d15|Q9CXF4; Blvra|Q9CY64; Pgm3|Q9CYR6; Ola1|Q9CZ30; Nsfl1c|Q9CZ44; Gars|Q9CZD3; Ube2v1|Q9CZY3; Acbd6|Q9D061; Arpin|Q9D0A3; Lysmd1|Q9D0E3; Pgm1|Q9D0F9; Cndp2|Q9D1A2; 1700037H04Rik|Q9D1K7; Acp1|Q9D358; Shpk|Q9D5J6; Cul5|Q9D5V5; Gbe1|Q9D6Y9; Lhpp|Q9D7I5; Lysmd2|Q9D7V2; Eef1akmt2|Q9D853; Itpa|Q9D892; Ccdc91|Q9D8L5; Efhd2|Q9D8Y0; 1700066M21Rik|Q9D9H8; Ift22|Q9DAI2; Phpt1|Q9DAK9; Cnn3|Q9DAW9; Phyhd1|Q9DB26; Haghl|Q9DB32; Dhdh|Q9DBB8; Csad|Q9DBE0; Pgam1|Q9DBJ1; Cmpk1|Q9DBP5; Arpp21|Q9DCB4; Npl|Q9DCJ9; Paics|Q9DCL9; Gstk1|Q9DCM2; Mettl26|Q9DCS2; Akr1e1|Q9DCT1; Oga|Q9EQQ9; Tubb3|Q9ERD7; Cse1l|Q9ERK4; Gucy1a1|Q9ERL9; Ube4b|Q9ES00; Rcan1|Q9JHG6; Rabggta|Q9JHK4; Ide|Q9JHR7; Isyna1|Q9JHU9; Nudt3|Q9JI46; Akr1a1|Q9JII6; Fzd2|Q9JIP6; Pfn2|Q9JJV2; Rcan3|Q9JKK0; Tmod2|Q9JKK7; Nudt5|Q9JKX6; Nt5c|Q9JM14; Dnaja4|Q9JMC3; Stard10|Q9JMD3; Txnrd1|Q9JMH6; Glrx|Q9QUH0; Prep|Q9QUR6; Drg2|Q9QXB9; Acss2|Q9QXG4; Ndrg2|Q9QYG0; Dnaja2|Q9QYJ0; Nagk|Q9QZ08; Ubqln2|Q9QZM0; Srr|Q9QZX7; Mvk|Q9R008; Nubp1|Q9R060; Wdr54|Q9R0D8; Esd|Q9R0P3; Dstn|Q9R0P5; Rpgr|Q9R0X5; Ak1|Q9R0Y5; Gda|Q9R111; Cetn2|Q9R1K9; Pts|Q9R1Z7; Lypla2|Q9WTL7; Ggps1|Q9WTN0; Rnf7|Q9WTZ1; Pdcd6ip|Q9WU78; Akt3|Q9WUA6; Rbck1|Q9WUB0; Dmtn|Q9WV69; Apip|Q9WVQ5; Ncdn|Q9Z0E0; Arih1|Q9Z1K5; Arih2|Q9Z1K6; Ate1|Q9Z2A5; Gsdme|Q9Z2D3; Crlf3|Q9Z2L7</t>
+  </si>
+  <si>
     <t xml:space="preserve">M14</t>
   </si>
   <si>
+    <t xml:space="preserve">Map7d2|A2AG50; Ralgps1|A2AR50; Ankrd63|A2ARS0; Ttll7|A4Q9F0; Plekhd1|B2RPU2; Plcxd2|B2RXA1; Setd1a|E9PYH6; Bod1l|E9Q6J5; Tpr|F6ZDS4; Metap2|O08663; Hdac1|O09106; Dhx15|O35286; Srsf5|O35326; Ring1|O35730; Per1|O35973; Nmt1|O70310; Dxo|O70348; Sp3|O70494; Parg|O88622; Rpp30|O88796; Cfh|P06909; Ncl|P09405; Eef1a1|P10126; Srp14|P16254; Vim|P20152; Map2|P20357; Plg|P20918; Map4|P27546; Apex1|P28352; Rxrb|P28704; Drg1|P32233; Foxk1|P42128; Cnbp|P53996; Dnajc2|P54103; Rrp1|P56183; Tdg|P56581; Fus|P56959; Btbd1|P58544; Pcif1|P59114; Eif4a1|P60843; Naa20|P61600; Wdr5|P61965; Eef1a2|P62631; Rps25|P62852; Gtf2b|P62915; Eif5a|P63242; Crip1|P63254; Rack1|P68040; Hdac2|P70288; Ncoa1|P70365; Irs2|P81122; Txnl4a|P83877; Etv6|P97360; Sap30bp|Q02614; Cdk7|Q03147; Smarcad1|Q04692; Spindoc|Q05AH6; Kndc1|Q0KK55; Samd12|Q0VE29; Hp1bp3|Q3TEA8; Zc3h15|Q3TIV5; Hexim2|Q3TVI4; Srsf6|Q3TWW8; Ap5z1|Q3U829; Gpatch11|Q3UFS4; Rnf10|Q3UIW5; Zc3hav1|Q3UPF5; Klhdc2|Q4G5Y1; Phactr4|Q501J7; Rnf20|Q5DTM8; Zdbf2|Q5SS00; Scaf1|Q5U4C3; Rbbp7|Q60973; Ncor1|Q60974; Usf1|Q61069; Hcfc1|Q61191; Arnt2|Q61324; Ccnh|Q61458; Ewsr1|Q61545; Rad21|Q61550; Srsf2|Q62093; Snrpa|Q62189; Snrpc|Q62241; Trim28|Q62318; Snrnp70|Q62376; Zfp91|Q62511; Trim24|Q64127; Wapl|Q65Z40; Morc2a|Q69ZX6; Scaf8|Q6DID3; Zmiz1|Q6P1E1; Magee1|Q6PCZ4; Smarcc2|Q6PDG5; Rnf220|Q6PDX6; Gnl3l|Q6PGG6; Dnmbp|Q6TXD4; Ddx55|Q6ZPL9; Zc3h4|Q6ZPZ3; Spag7|Q7TNE3; Trim46|Q7TNM2; Dek|Q7TNV0; Ints8|Q80V86; Tox3|Q80W03; Prpf40b|Q80W14; Fbll1|Q80WS3; Camta2|Q80Y50; F12|Q80YC5; Ccdc50|Q810U5; Zfp771|Q8BJ90; Eif4e2|Q8BMB3; Gtf3c4|Q8BMQ2; Trmt2a|Q8BNV1; Metap1|Q8BP48; Lig4|Q8BTF7; Srrm2|Q8BTI8; Cfap20|Q8BTU1; Nob1|Q8BW10; Naa25|Q8BWZ3; Ttc39b|Q8BYY4; Rps6ka5|Q8C050; Mettl3|Q8C3P7; Prpf31|Q8CCF0; Nemf|Q8CCP0; Hpf1|Q8CFE2; Tns2|Q8CGB6; Cog3|Q8CI04; Rassf8|Q8CJ96; Taf10|Q8K0H5; Wipf1|Q8K1I7; Gtf3c1|Q8K284; Otud6b|Q8K2H2; Mta1|Q8K4B0; Sbk1|Q8QZX0; Gtf2f2|Q8R0A0; Hmces|Q8R1M0; Actr8|Q8R2S9; Nabp2|Q8R2Y9; Irf2bp1|Q8R3Y8; Hexim1|Q8R409; Oard1|Q8R5F3; Spon1|Q8VCC9; Tspyl4|Q8VD63; Parn|Q8VDG3; Ccdc92|Q8VDN4; Ccar2|Q8VDP4; Rprd1a|Q8VDS4; Srsf4|Q8VE97; Setd3|Q91WC0; Klhdc8a|Q91XA8; Arrb2|Q91YI4; Klhdc4|Q921I2; Exosc4|Q921I9; Nelfcd|Q922L6; Dbr1|Q923B1; Stard13|Q923Q2; Rfc4|Q99J62; Cdk9|Q99J95; Rpp25l|Q99JH1; Gigyf1|Q99MR1; Hdac9|Q99N13; Npm3|Q9CPP0; 1110059E24Rik|Q9CQ90; Exosc5|Q9CRA8; Cd2bp2|Q9CWK3; Pin4|Q9CWW6; Serbp1|Q9CY58; Tomm34|Q9CYG7; Thumpd2|Q9CZB3; Cmss1|Q9CZT6; Gtf2e1|Q9D0D5; Rnmt|Q9D0L8; Naa38|Q9D2U5; Ppil3|Q9D6L8; Zfp593|Q9DB42; Exosc9|Q9JHI7; Wdr12|Q9JJA4; Rpl38|Q9JJI8; Nrip3|Q9JJR9; Prelp|Q9JK53; Atr|Q9JKK8; Habp4|Q9JKS5; Hdgfl3|Q9JMG7; Ccnt1|Q9QWV9; Tbl1x|Q9QXE7; Akap8l|Q9R0L7; Mta2|Q9R190; Bex2|Q9WTZ8; Eif4h|Q9WUK2; Nup160|Q9Z0W3; Adnp|Q9Z103; Rps6ka4|Q9Z2B9</t>
+  </si>
+  <si>
     <t xml:space="preserve">M10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cul4b|A2A432; Ubr4|A2AN08; Uprt|B1AVZ0; Cad|B2RQC6; Ccdc6|D3YZP9; Ccdc85c|E9Q6B2; Map3k4|O08648; Ube3a|O08759; Dctn1|O08788; Psmb1|O09061; Kif3c|O35066; Map3k5|O35099; Psmd4|O35226; Psmb9|O35522; Psmd14|O35593; Ift81|O35594; Cops5|O35864; Psmb10|O35955; Psmb5|O55234; Nmt2|O70311; Psma3|O70435; Dync1i2|O88487; Ikbkg|O88522; Cops3|O88543; Cops4|O88544; Cops6|O88545; Becn1|O88597; Psmc3|O88685; Birc6|O88738; Mkln1|O89050; Lancl1|O89112; Alad|P10518; Tcp1|P11983; Pfkl|P12382; Psmd3|P14685; Rps6ka1|P18653; Cbl|P22682; Impdh2|P24547; Psmd7|P26516; Psmb8|P28063; Kif3a|P28741; Wars|P32921; Csk|P41241; Stat1|P42225; Cct8|P42932; Psmc2|P46471; Gfpt1|P47856; Mapkapk2|P49138; Psma2|P49722; Impdh1|P50096; Uck1|P52623; Anapc1|P53995; Psmc4|P54775; Adsl|P54822; Mrtfb|P59759; Ruvbl1|P60122; Nploc4|P60670; Actr1a|P61164; Cops2|P61202; Ppp1ca|P62137; Psmc1|P62192; Psmc5|P62196; Psmc6|P62334; Ypel5|P62700; Rbx1|P62878; Ranbp9|P69566; Kifap3|P70188; Psmb7|P70195; Cct7|P80313; Cct2|P80314; Cct4|P80315; Cct5|P80316; Cct6a|P80317; Cct3|P80318; Psme1|P97371; Psme2|P97372; Fhl1|P97447; Psmb4|P99026; Vcp|Q01853; Psd3|Q2PFD7; Cul4a|Q3TCH7; Psmd1|Q3TXS7; Ddb1|Q3U1J4; Hectd3|Q3U487; Eml4|Q3UMY5; Maea|Q4VC33; Urgcp|Q5NCI0; Wdr81|Q5ND34; Zzef1|Q5SSH7; Psme4|Q5SSW2; Acaca|Q5SWU9; Psmb6|Q60692; Kpna1|Q60960; Mapre1|Q61166; Eif2b4|Q61749; Kif3b|Q61771; Prkci|Q62074; Ric1|Q69ZJ7; Hectd1|Q69ZR2; Usp7|Q6A4J8; Npepl1|Q6NSR8; Arhgef18|Q6P9R4; Ppp2r5b|Q6PD28; Ecpas|Q6PDI5; Ccdc85b|Q6PDY0; Mapre3|Q6PER3; Nudcd1|Q6PIP5; Dalrd3|Q6PJN8; Ranbp10|Q6VN19; Nadsyn1|Q711T7; Ubfd1|Q78JW9; Fcsk|Q7TMC8; Wdr91|Q7TMQ7; Huwe1|Q7TMY8; Eml2|Q7TNG5; Phkb|Q7TSH2; Elp1|Q7TT37; Cul9|Q80TT8; Ube3c|Q80U95; Kcmf1|Q80UY2; Pelo|Q80X73; Elac2|Q80Y81; Rmnd5a|Q80YQ8; Zer1|Q80ZJ6; Psmd11|Q8BG32; Cdc23|Q8BGZ4; Eif2a|Q8BJW6; Psmd5|Q8BJY1; Elp6|Q8BK75; Dpcd|Q8BPA8; R3hcc1|Q8BSI6; Peli2|Q8BST6; Cops7b|Q8BV13; Pdcl3|Q8BVF2; Arrb1|Q8BWG8; Phka2|Q8BWJ3; Anapc2|Q8BZQ7; Trub1|Q8C0D0; Arhgap12|Q8C0D4; Dis3l|Q8C0S1; Wdr26|Q8C6G8; Dctn4|Q8CBY8; Inpp5f|Q8CDA1; Vcpip1|Q8CDG3; Txnl1|Q8CDN6; Trmt6|Q8CE96; Tab1|Q8CF89; Polr2b|Q8CFI7; Eif2b5|Q8CHW4; Dis3l2|Q8CI75; Prmt5|Q8CIG8; Cdc73|Q8JZM7; Nek9|Q8K1R7; Abcf3|Q8K268; Rptor|Q8K4Q0; Apeh|Q8R146; Cdc16|Q8R349; Cog6|Q8R3I3; Prpsap2|Q8R574; Aspscr1|Q8VBT9; Cops8|Q8VBV7; Eml3|Q8VC03; Lrrc14|Q8VC16; Nrbf2|Q8VCQ3; AI837181|Q8VD62; Psmd2|Q8VDM4; Fbxo33|Q8VE08; Klhdc3|Q8VEM9; Acly|Q91V92; Dcaf11|Q91VU6; Man2c1|Q91W89; Anapc4|Q91W96; Elp2|Q91WG4; Dgkg|Q91WG7; Zfand2b|Q91X58; Crtc3|Q91X84; Uckl1|Q91YL3; Twf1|Q91YR1; Sh2b1|Q91ZM2; Ivns1abp|Q920Q8; Polr3f|Q921X6; Prmt3|Q922H1; Clip1|Q922J3; Wdr77|Q99J09; Psmd6|Q99JI4; Klhl22|Q99JN2; Stk24|Q99KH8; Dctn2|Q99KJ8; Gmpr2|Q99L27; Elp5|Q99L85; Eif2b1|Q99LC8; Gps1|Q99LD4; Eif2b2|Q99LD9; Nck1|Q99M51; Txnrd3|Q99MD6; Trim33|Q99PP7; Txndc9|Q9CQ79; Prps2|Q9CS42; Psmd8|Q9CX56; Ttc30b|Q9CY00; 5730455P16Rik|Q9CYI0; Cops7a|Q9CZ04; Cep97|Q9CZ62; Polr3e|Q9CZT4; Elp3|Q9CZX0; Prpsap1|Q9D0M1; Tars|Q9D0R2; Akt1s1|Q9D1F4; Get4|Q9D1H7; Kti12|Q9D1R2; 2310011J03Rik|Q9D7E4; Prps1|Q9D7G0; Psmd12|Q9D8W5; Appbp2|Q9DAX9; Phkg2|Q9DB30; Armc8|Q9DBR3; Pdcl|Q9DBX2; Dcaf6|Q9DC22; Trmt112|Q9DCG9; Crip2|Q9DCT8; Gmpr|Q9DCZ1; Nbea|Q9EPN1; Elp4|Q9ER73; Lrba|Q9ESE1; Capn10|Q9ESK3; Psmg2|Q9EST4; Flii|Q9JJ28; Adrm1|Q9JKV1; Arpc3|Q9JM76; Usp14|Q9JMA1; Rasgrp2|Q9QUG9; Psma6|Q9QUM9; Pin1|Q9QUR7; Ptk2b|Q9QVP9; Actr10|Q9QZB7; Dctn5|Q9QZB9; Psma4|Q9R1P0; Psmb3|Q9R1P1; Psmb2|Q9R1P3; Psma1|Q9R1P4; Ruvbl2|Q9WTM5; Cul1|Q9WTX6; Dctn6|Q9WUB4; Coro1c|Q9WUM4; Uchl5|Q9WUP7; Psmd13|Q9WVJ2; Mettl1|Q9Z120; Kank3|Q9Z1P7; Ap3b1|Q9Z1T1; Psma7|Q9Z2U0; Psma5|Q9Z2U1; Dnpep|Q9Z2W0</t>
   </si>
 </sst>
 </file>
@@ -572,13 +731,19 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
         <v>-0.0489006497008322</v>
@@ -604,19 +769,25 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.0000000000000000000000000000000000000000000000000000576898438391364</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>0.0000000000000000000000000000000000000000000000000000576898438391364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
         <v>-0.0194565168509321</v>
@@ -642,19 +813,25 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="n">
+        <v>221</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.00000000000000000000000000000000000000000936732327232254</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.0000000000000000000000000000000000000000187346465446451</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>0.0378694273517671</v>
@@ -680,19 +857,25 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="n">
+        <v>45</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.0000000000000000000000000000373260317080704</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.000000000000000000000000000111978095124211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
         <v>0.0222627458649934</v>
@@ -718,19 +901,25 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="n">
+        <v>98</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.00000000000000000000000512605552961695</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.0000000000000000000000205042221184678</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
         <v>-0.0114874420797885</v>
@@ -756,19 +945,25 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="n">
+        <v>141</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.0000000000000000574838204735267</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.000000000000000287419102367634</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
         <v>0.00900859808170851</v>
@@ -794,19 +989,25 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="n">
+        <v>266</v>
+      </c>
+      <c r="M7" t="n">
         <v>0.000000000000000124728344922818</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.00000000000000074837006953691</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
         <v>0.0225039405813241</v>
@@ -832,19 +1033,25 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="n">
+        <v>67</v>
+      </c>
+      <c r="M8" t="n">
         <v>0.000000000000000135209050597816</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.000000000000000946463354184713</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
         <v>-0.0113825567799785</v>
@@ -870,19 +1077,25 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="n">
+        <v>130</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.000000000000232332532806049</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.0000000000018586602624484</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
         <v>0.00591227529063243</v>
@@ -908,19 +1121,25 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="n">
+        <v>274</v>
+      </c>
+      <c r="M10" t="n">
         <v>0.00000000433761408317431</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.0000000390385267485688</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
         <v>0.00637221077539007</v>
@@ -946,19 +1165,25 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" t="n">
+        <v>149</v>
+      </c>
+      <c r="M11" t="n">
         <v>0.0000024010760621097</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.0000240107606210971</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
         <v>0.00416815470511994</v>
@@ -984,19 +1209,25 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" t="n">
+        <v>246</v>
+      </c>
+      <c r="M12" t="n">
         <v>0.0000818989077393963</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.000900887985133359</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
         <v>-0.00877902801909122</v>
@@ -1022,19 +1253,25 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" t="n">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
         <v>0.000101425857493039</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.00121711028991647</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
         <v>-0.0080277814902133</v>
@@ -1060,19 +1297,25 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" t="n">
+        <v>62</v>
+      </c>
+      <c r="M14" t="n">
         <v>0.000210759346177882</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.00273987150031247</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
         <v>0.00647518670311581</v>
@@ -1098,19 +1341,25 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" t="n">
+        <v>95</v>
+      </c>
+      <c r="M15" t="n">
         <v>0.000214625994150914</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.0030047639181128</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
         <v>-0.0039944842078569</v>
@@ -1136,19 +1385,25 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" t="n">
+        <v>547</v>
+      </c>
+      <c r="M16" t="n">
         <v>0.000319336372634559</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.00479004558951839</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
         <v>-0.00647049522752442</v>
@@ -1174,19 +1429,25 @@
       <c r="J17" t="b">
         <v>0</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" t="n">
+        <v>96</v>
+      </c>
+      <c r="M17" t="n">
         <v>0.000452112088895656</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.0072337934223305</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
         <v>-0.0145255593364208</v>
@@ -1212,19 +1473,25 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" t="n">
+        <v>44</v>
+      </c>
+      <c r="M18" t="n">
         <v>0.000810022467264984</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.0137703819435047</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
         <v>-0.0100060289760933</v>
@@ -1250,19 +1517,25 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" t="n">
+        <v>49</v>
+      </c>
+      <c r="M19" t="n">
         <v>0.000999792196569544</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.0179962595382518</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
         <v>-0.00679948316833492</v>
@@ -1288,19 +1561,25 @@
       <c r="J20" t="b">
         <v>0</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" t="n">
+        <v>61</v>
+      </c>
+      <c r="M20" t="n">
         <v>0.0017030174207859</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.0323573309949322</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
         <v>-0.00702658997214414</v>
@@ -1326,19 +1605,25 @@
       <c r="J21" t="b">
         <v>0</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" t="n">
+        <v>51</v>
+      </c>
+      <c r="M21" t="n">
         <v>0.0149740414668706</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.299480829337412</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
         <v>-0.00534727155617812</v>
@@ -1364,19 +1649,25 @@
       <c r="J22" t="b">
         <v>0</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" t="n">
+        <v>67</v>
+      </c>
+      <c r="M22" t="n">
         <v>0.0201229840887057</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.42258266586282</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
         <v>0.0048285095952301</v>
@@ -1402,19 +1693,25 @@
       <c r="J23" t="b">
         <v>0</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" t="n">
+        <v>72</v>
+      </c>
+      <c r="M23" t="n">
         <v>0.0209077736719777</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.45997102078351</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
         <v>0.011027010105809</v>
@@ -1440,19 +1737,25 @@
       <c r="J24" t="b">
         <v>0</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" t="n">
+        <v>13</v>
+      </c>
+      <c r="M24" t="n">
         <v>0.0345104879086289</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.793741221898465</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
         <v>0.00338193606991452</v>
@@ -1478,19 +1781,25 @@
       <c r="J25" t="b">
         <v>0</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25" t="s">
+        <v>62</v>
+      </c>
+      <c r="L25" t="n">
+        <v>257</v>
+      </c>
+      <c r="M25" t="n">
         <v>0.0363172483593557</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.871613960624538</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" t="n">
         <v>0.00329365142106153</v>
@@ -1516,19 +1825,25 @@
       <c r="J26" t="b">
         <v>0</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" t="n">
+        <v>78</v>
+      </c>
+      <c r="M26" t="n">
         <v>0.0479200110449161</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27" t="n">
         <v>-0.00307991560806911</v>
@@ -1554,19 +1869,25 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" t="n">
+        <v>178</v>
+      </c>
+      <c r="M27" t="n">
         <v>0.09179793878854</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
         <v>0.0129731517677014</v>
@@ -1592,19 +1913,25 @@
       <c r="J28" t="b">
         <v>0</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L28" t="n">
+        <v>5</v>
+      </c>
+      <c r="M28" t="n">
         <v>0.0926238674215156</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" t="n">
         <v>0.00198811831277951</v>
@@ -1630,19 +1957,25 @@
       <c r="J29" t="b">
         <v>0</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" t="n">
+        <v>288</v>
+      </c>
+      <c r="M29" t="n">
         <v>0.0926238674215156</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" t="n">
         <v>0.0115114083842638</v>
@@ -1668,19 +2001,25 @@
       <c r="J30" t="b">
         <v>0</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" t="n">
+        <v>15</v>
+      </c>
+      <c r="M30" t="n">
         <v>0.119479976594507</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" t="n">
         <v>-0.0186260347429247</v>
@@ -1706,19 +2045,25 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31" t="s">
+        <v>74</v>
+      </c>
+      <c r="L31" t="n">
+        <v>8</v>
+      </c>
+      <c r="M31" t="n">
         <v>0.12956099195466</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32" t="n">
         <v>-0.00187130019050957</v>
@@ -1744,19 +2089,25 @@
       <c r="J32" t="b">
         <v>0</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32" t="s">
+        <v>76</v>
+      </c>
+      <c r="L32" t="n">
+        <v>112</v>
+      </c>
+      <c r="M32" t="n">
         <v>0.12956099195466</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33" t="n">
         <v>-0.00675697014023088</v>
@@ -1782,19 +2133,25 @@
       <c r="J33" t="b">
         <v>0</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33" t="n">
+        <v>13</v>
+      </c>
+      <c r="M33" t="n">
         <v>0.12956099195466</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C34" t="n">
         <v>0.00885269999790447</v>
@@ -1820,19 +2177,25 @@
       <c r="J34" t="b">
         <v>0</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34" t="s">
+        <v>80</v>
+      </c>
+      <c r="L34" t="n">
+        <v>9</v>
+      </c>
+      <c r="M34" t="n">
         <v>0.189195331266588</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C35" t="n">
         <v>0.00136405602182335</v>
@@ -1858,19 +2221,25 @@
       <c r="J35" t="b">
         <v>0</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35" t="s">
+        <v>82</v>
+      </c>
+      <c r="L35" t="n">
+        <v>161</v>
+      </c>
+      <c r="M35" t="n">
         <v>0.197595211093667</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C36" t="n">
         <v>0.00203588656377499</v>
@@ -1896,19 +2265,25 @@
       <c r="J36" t="b">
         <v>0</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36" t="s">
+        <v>84</v>
+      </c>
+      <c r="L36" t="n">
+        <v>130</v>
+      </c>
+      <c r="M36" t="n">
         <v>0.246003061354178</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C37" t="n">
         <v>0.00539023238520961</v>
@@ -1934,19 +2309,25 @@
       <c r="J37" t="b">
         <v>0</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L37" t="n">
+        <v>6</v>
+      </c>
+      <c r="M37" t="n">
         <v>0.258714892639352</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C38" t="n">
         <v>0.004589663365029</v>
@@ -1972,19 +2353,25 @@
       <c r="J38" t="b">
         <v>0</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38" t="s">
+        <v>88</v>
+      </c>
+      <c r="L38" t="n">
+        <v>46</v>
+      </c>
+      <c r="M38" t="n">
         <v>0.278063802366546</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C39" t="n">
         <v>-0.00541598311490503</v>
@@ -2010,19 +2397,25 @@
       <c r="J39" t="b">
         <v>0</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39" t="s">
+        <v>90</v>
+      </c>
+      <c r="L39" t="n">
+        <v>14</v>
+      </c>
+      <c r="M39" t="n">
         <v>0.278063802366546</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C40" t="n">
         <v>0.000995930436299808</v>
@@ -2048,19 +2441,25 @@
       <c r="J40" t="b">
         <v>0</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40" t="s">
+        <v>92</v>
+      </c>
+      <c r="L40" t="n">
+        <v>263</v>
+      </c>
+      <c r="M40" t="n">
         <v>0.327348830502028</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C41" t="n">
         <v>-0.00285179547919995</v>
@@ -2086,19 +2485,25 @@
       <c r="J41" t="b">
         <v>0</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41" t="s">
+        <v>94</v>
+      </c>
+      <c r="L41" t="n">
+        <v>23</v>
+      </c>
+      <c r="M41" t="n">
         <v>0.401751783020657</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C42" t="n">
         <v>0.0123230632542153</v>
@@ -2124,19 +2529,25 @@
       <c r="J42" t="b">
         <v>0</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42" t="s">
+        <v>96</v>
+      </c>
+      <c r="L42" t="n">
+        <v>6</v>
+      </c>
+      <c r="M42" t="n">
         <v>0.401751783020657</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C43" t="n">
         <v>-0.001324178161935</v>
@@ -2162,19 +2573,25 @@
       <c r="J43" t="b">
         <v>0</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43" t="s">
+        <v>98</v>
+      </c>
+      <c r="L43" t="n">
+        <v>150</v>
+      </c>
+      <c r="M43" t="n">
         <v>0.441344766144232</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C44" t="n">
         <v>0.0012172089992487</v>
@@ -2200,19 +2617,25 @@
       <c r="J44" t="b">
         <v>0</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44" t="s">
+        <v>100</v>
+      </c>
+      <c r="L44" t="n">
+        <v>212</v>
+      </c>
+      <c r="M44" t="n">
         <v>0.441344766144232</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C45" t="n">
         <v>-0.000644013464208573</v>
@@ -2238,19 +2661,25 @@
       <c r="J45" t="b">
         <v>0</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45" t="s">
+        <v>102</v>
+      </c>
+      <c r="L45" t="n">
+        <v>303</v>
+      </c>
+      <c r="M45" t="n">
         <v>0.441344766144232</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C46" t="n">
         <v>0.00221426267027094</v>
@@ -2276,19 +2705,25 @@
       <c r="J46" t="b">
         <v>0</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46" t="s">
+        <v>104</v>
+      </c>
+      <c r="L46" t="n">
+        <v>29</v>
+      </c>
+      <c r="M46" t="n">
         <v>0.580403990424341</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C47" t="n">
         <v>-0.000764538137142418</v>
@@ -2314,19 +2749,25 @@
       <c r="J47" t="b">
         <v>0</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47" t="s">
+        <v>106</v>
+      </c>
+      <c r="L47" t="n">
+        <v>179</v>
+      </c>
+      <c r="M47" t="n">
         <v>0.615015898064113</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C48" t="n">
         <v>0.000795948585568418</v>
@@ -2352,19 +2793,25 @@
       <c r="J48" t="b">
         <v>0</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48" t="s">
+        <v>108</v>
+      </c>
+      <c r="L48" t="n">
+        <v>315</v>
+      </c>
+      <c r="M48" t="n">
         <v>0.628361433206121</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C49" t="n">
         <v>0.000493257388389484</v>
@@ -2390,19 +2837,25 @@
       <c r="J49" t="b">
         <v>0</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49" t="s">
+        <v>110</v>
+      </c>
+      <c r="L49" t="n">
+        <v>187</v>
+      </c>
+      <c r="M49" t="n">
         <v>0.660068736675714</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C50" t="n">
         <v>-0.00024632053964066</v>
@@ -2428,19 +2881,25 @@
       <c r="J50" t="b">
         <v>0</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50" t="s">
+        <v>112</v>
+      </c>
+      <c r="L50" t="n">
+        <v>465</v>
+      </c>
+      <c r="M50" t="n">
         <v>0.661827418076091</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C51" t="n">
         <v>-0.000638170098748919</v>
@@ -2466,19 +2925,25 @@
       <c r="J51" t="b">
         <v>0</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51" t="s">
+        <v>114</v>
+      </c>
+      <c r="L51" t="n">
+        <v>191</v>
+      </c>
+      <c r="M51" t="n">
         <v>0.661827418076091</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C52" t="n">
         <v>0.000199959058587662</v>
@@ -2504,10 +2969,16 @@
       <c r="J52" t="b">
         <v>0</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52" t="s">
+        <v>116</v>
+      </c>
+      <c r="L52" t="n">
+        <v>252</v>
+      </c>
+      <c r="M52" t="n">
         <v>0.86055093547186</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>

--- a/tables/SWIP_Module_Results.xlsx
+++ b/tables/SWIP_Module_Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t xml:space="preserve">Module</t>
   </si>
@@ -56,310 +56,244 @@
     <t xml:space="preserve">Padjust</t>
   </si>
   <si>
+    <t xml:space="preserve">M13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutant-Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nlgn4l|B0F2B4; Ece2|B2RQR8; Tmf1|B9EKI3; Vsig10|D3YX43; Tspan15|F7BWT7; Sypl|O09117; Scarb2|O35114; Kcnh2|O35219; Folh1|O35409; Slc1a6|O35544; Adam10|O35598; Npc1|O35604; Bmpr2|O35607; Cd200|O54901; Pakap|O54931; Rnf13|O54965; Cntnap1|O54991; Stmn3|O70166; Itgb5|O70309; Snx3|O70492; Snx12|O70493; Pde8a|O88502; Lrp6|O88572; Emp2|O88662; Hcn2|O88703; Cpd|O89001; Sparc|P07214; Hsp90b1|P08113; Ace|P09470; Clec2l|P0C7M9; Itpr1|P11881; Chrm1|P12657; Lmnb1|P14733; Atp6v0a2|P15920; Prkce|P16054; Kcna1|P16388; Npr1|P18293; Lmnb2|P21619; Penk|P22005; Acp2|P24638; Gna12|P27600; Marcksl1|P28667; Sstr2|P30875; Dpep1|P31428; Nectin2|P32507; Kras|P32883; Rab6a|P35279; Rab22a|P35285; Cd81|P35762; Grik2|P39087; Cd9|P40240; Abca2|P41234; Itgav|P43406; Rab11b|P46638; Myo1b|P46735; Kcnj9|P48543; Arsb|P50429; Clcn3|P51791; Slc1a1|P51906; Slc12a2|P55012; Cckbr|P56481; Ncstn|P57716; Rab6b|P61294; Gal3st3|P61315; Lpar1|P61793; Selenot|P62342; Kcnab2|P62482; Rap1a|P62835; Pcsk1|P63239; Kcnj3|P63250; Plxna3|P70208; Sgcd|P82347; Dab1|P97318; Grm1|P97772; Cxadr|P97792; Vldlr|P98156; Atp11a|P98197; Cpe|Q00493; Bche|Q03311; Drp2|Q05AA6; Mest|Q07646; Slc7a1|Q09143; Dennd11|Q3UHG7; Ndst1|Q3UHN9; Dipk2a|Q3USZ8; Ece1|Q4PZA2; Sez6l2|Q4V9Z5; Slc22a15|Q504N2; Cep164|Q5DU05; Pcnx2|Q5DU28; Fat2|Q5F226; Myo1d|Q5SYD0; Igf1r|Q60751; Fzd7|Q61090; Trpc6|Q61143; Clcn4|Q61418; Fcgrt|Q61559; Fkbp10|Q61576; Kcnj11|Q61743; Mog|Q61885; Shh|Q62226; Fstl1|Q62356; Ndrg1|Q62433; Itga3|Q62470; Kcnc3|Q63959; Cd34|Q64314; Mrc2|Q64449; Atp2a3|Q64518; D630045J12Rik|Q68FD9; Myorg|Q69ZQ1; Thsd7a|Q69ZU6; Tmem151a|Q6GQT5; Chpf|Q6IQX7; Manea|Q6NXH2; Asic1|Q6NXK8; Pianp|Q6P1B3; Sez6l|Q6P1D5; Txndc15|Q6P6J9; Ano6|Q6P9J9; Cachd1|Q6PDJ1; Kcnip4|Q6PHZ8; Krit1|Q6S5J6; Slc44a1|Q6X893; Mindy1|Q76LS9; Opalin|Q7M750; Gpr135|Q7TQP2; Sez6|Q7TSK2; Gabbr2|Q80T41; Hs6st2|Q80UW0; Aldh3b1|Q80VQ0; Kirrel|Q80W68; Dixdc1|Q80Y83; Aatk|Q80YE4; Bcas1|Q80YN3; Astn2|Q80Z10; Amigo2|Q80ZD9; Tmem127|Q8BGP5; Micall1|Q8BGT6; Lrrc24|Q8BHA1; Slc45a1|Q8BIV7; Ptk7|Q8BKG3; Lypd1|Q8BLC3; Plekhm3|Q8BM47; Fam177a|Q8BR63; Tmem67|Q8BR76; Arf2|Q8BSL7; Enpp4|Q8BTJ4; Steap2|Q8BWB6; Arfrp1|Q8BXL7; Lnpep|Q8C129; Suco|Q8C341; Pex5l|Q8C437; Tmem145|Q8C4U2; Clmn|Q8C5W0; Slfn5|Q8CBA2; Snx30|Q8CE50; H6pd|Q8CFX1; Fkrp|Q8CG64; Steap3|Q8CI59; AU040320|Q8K135; Gulp1|Q8K2A1; Abca8b|Q8K440; Colec12|Q8K4Q8; Tspan14|Q8QZY6; Pttg1ip|Q8R143; Stxbp6|Q8R3T5; Plaat3|Q8R3U1; Atp2a1|Q8R429; Slc9a8|Q8R4D1; Abcc10|Q8R4P9; Dusp15|Q8R4V2; Plppr2|Q8VCY8; Fyco1|Q8VDC1; Sirt2|Q8VDQ8; Golga7|Q91W53; Pcdhb18|Q91Y02; Lrp1|Q91ZX7; Gjc3|Q921C1; Tspan2|Q922J6; Csmd1|Q923L3; Pacsin3|Q99JB8; Atp13a2|Q9CTG6; Smurf1|Q9CUN6; B3gat1|Q9CW73; Tmem192|Q9CXT7; Pex13|Q9D0K1; Zdhhc21|Q9D270; Vsir|Q9D659; Jam3|Q9D8B7; Slc48a1|Q9D8M3; Fam3a|Q9D8T0; Susd2|Q9DBX3; Abcb6|Q9DC29; Sorcs2|Q9EPR5; Ehd4|Q9EQP2; Chrm3|Q9ERZ3; Lamtor2|Q9JHS3; Lrp1b|Q9JI18; Abcb9|Q9JJ59; Kcnip2|Q9JJ69; Tspan3|Q9QY33; Nup210|Q9QY81; Plekhb1|Q9QYE9; Tollip|Q9QZ06; Vps29|Q9QZ88; Trpc3|Q9QZC1; Clcn2|Q9R0A1; Celsr2|Q9R0M0; Podxl|Q9R0M4; Slc35a2|Q9R0M8; Tyk2|Q9R117; Myo1c|Q9WTI7; Scn8a|Q9WTU3; Sema4g|Q9WUH7; Slc2a5|Q9WV38; Ptgfrn|Q9WV91; Clcn5|Q9WVD4; Kcnh3|Q9WVJ0; Tpbg|Q9Z0L0; P2rx7|Q9Z1M0; Cd320|Q9Z1P5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bin2|D3Z6Q9; Dchs1|E9PVD3; Pde8b|E9Q4S1; Ngp|O08692; Sdcbp|O08992; Man2b1|O09159; Sdc4|O35988; Man2b2|O54782; Ncf2|O70145; Aif1|O70200; Gpld1|O70362; Ctss|O70370; Lgmn|O89017; Matn4|O89029; Pomc|P01193; Ctsl|P06797; Serpina3k|P07759; Dmd|P11531; Cd44|P15379; Lgals3|P16110; Ctsa|P16675; Ctsd|P18242; Ezr|P26040; Rdx|P26043; Vav1|P27870; Grn|P28798; Ptpn6|P29351; Hexa|P29416; Vcam1|P29533; Avp|P35455; Nf2|P46662; Pdcd2|P46718; Hcls1|P49710; Gla|P51569; Jak1|P52332; Efnb2|P52800; Aqp4|P55088; Smpdl3b|P58242; Chl1|P70232; Myo1f|P70248; Slc9a3r1|P70441; Csrp1|P97315; Gfra1|P97785; Egfr|Q01279; Lgals3bp|Q07797; Ncf1|Q09014; Plbd2|Q3TCN2; Pag1|Q3U1F9; Frmd8|Q3UFK8; Camkv|Q3UHL1; Islr2|Q5RKR3; Gm2a|Q60648; Snta1|Q61234; Omg|Q63912; Cbarp|Q66L44; Spred3|Q6P6N5; Fam126a|Q6P9N1; Kirrel2|Q7TSU7; Nav3|Q80TN7; Acad11|Q80XL6; Nrcam|Q810U4; Cd99l2|Q8BIF0; Fat3|Q8BNA6; Rgs7bp|Q8BQP9; Slc4a7|Q8BTY2; Mpp7|Q8BVD5; Frs2|Q8C180; Dock2|Q8C3J5; Gpc5|Q8CAL5; Plcg2|Q8CIH5; Plxnb1|Q8CJH3; Adgrg1|Q8K209; Ppcs|Q8VDG5; Pla2g15|Q8VEB4; Basp1|Q91XV3; Epdr1|Q99M71; Rtn4r|Q99PI8; Pfdn1|Q9CWM4; Ist1|Q9CX00; Nol3|Q9D1X0; Dtna|Q9D2N4; Ptp4a3|Q9D658; S100a16|Q9D708; Arfgap3|Q9D8S3; Gsdmd|Q9D8T2; Chic2|Q9D9G3; Ehhadh|Q9DBM2; Dpp7|Q9ET22; Tesc|Q9JKL5; Lgals8|Q9JL15; Tmeff2|Q9QYM9; Plekhb2|Q9QZC7; Gpc6|Q9R087; Cdh13|Q9WTR5; Ccs|Q9WU84; Ctsz|Q9WUU7; Crybb1|Q9WVJ5; Npc2|Q9Z0J0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palm3|A2TJV2; Phrf1|A6H619; Prrt2|E9PUL5; Ephb6|O08644; Flot1|O08917; Mras|O08989; Stx1a|O35526; Syt3|O35681; Septin7|O55131; Slc6a2|O55192; Robo1|O89026; Thy1|P01831; Src|P05480; Gap43|P06837; Nras|P08556; Igsf11|P0C673; Kcnc1|P15388; Gabra6|P16305; Kcna3|P16390; Slc7a2|P18581; Gria1|P23818; Marcks|P26645; Slc6a9|P28571; Septin4|P28661; Gnb4|P29387; Rab23|P35288; Grin1|P35438; Gpm6a|P35802; Fyn|P39688; Efnb1|P52795; Fxyd7|P59648; Il1rapl1|P59823; Stx1b|P61264; Kcna2|P63141; Plxna1|P70206; Arf5|P84084; Cdh8|P97291; Cacna1a|P97445; Yes1|Q04736; Grm2|Q14BI2; Cnnm3|Q32NY4; Stk11ip|Q3TAA7; Aifm3|Q3TY86; Arsg|Q3TYD4; 5031439G07Rik|Q3UE31; Plxnd1|Q3UH93; Shisa6|Q3UH99; Adgrb1|Q3UHD1; Slc22a23|Q3UHH2; Tenm4|Q3UHK6; Tom1l2|Q5SRX1; Zdhhc8|Q5Y5T5; Cacna1e|Q61290; Prkg2|Q61410; Cd47|Q61735; Fgfr3|Q61851; Kcna6|Q61923; Sema4b|Q62179; Tspan7|Q62283; Hepacam|Q640R3; Ctnna3|Q65CL1; Elfn2|Q68FM6; Cnnm4|Q69ZF7; Brinp2|Q6DFY8; Tmem132e|Q6IEE6; Panx2|Q6IMP4; Fbxo41|Q6NS60; Dpp10|Q6NXK7; Inpp4b|Q6P1Y8; Ubtd2|Q6PGH0; Ntrk3|Q6VNS1; Prcp|Q7TMR0; Igsf21|Q7TNR6; Igsf1|Q7TQA1; Csmd3|Q80T79; Phf24|Q80TL4; Adgrl1|Q80TR1; Adgrl3|Q80TS3; Tspan18|Q80WR1; Slitrk4|Q810B8; Tmem169|Q8BG50; Scn3b|Q8BHK2; Lsamp|Q8BLK3; Cadm2|Q8BLQ9; Lrfn3|Q8BLY3; Daam1|Q8BPM0; Rell2|Q8BRJ3; Nlgn3|Q8BYM5; Gpr158|Q8C419; Slc43a2|Q8CGA3; Septin8|Q8CHH9; Iglon5|Q8HW98; Adgrl2|Q8JZZ7; Trhde|Q8K093; Lgi4|Q8K1S1; Anln|Q8K298; Rell1|Q8K2J7; Lgi2|Q8K4Z0; Igsf8|Q8R366; Ntng2|Q8R4F1; Ntng1|Q8R4G0; Crtac1|Q8R555; Ppp1r16b|Q8VHQ3; Cacng8|Q8VHW2; Abca7|Q91V24; S1pr5|Q91X56; Ppp1r16a|Q923M0; Gprc5b|Q923Z0; Spred1|Q924S8; Tmem121b|Q99MX7; Cadm3|Q99N28; Cntnap4|Q99P47; Ntm|Q99PJ0; Cntnap2|Q9CPW0; Cldnd1|Q9CQX5; Arhgef25|Q9CWR0; Antxr1|Q9CZ52; Lrrc57|Q9D1G5; Golga7b|Q9D428; Lgi1|Q9JIA1; Kcnj10|Q9JM63; Rhoa|Q9QUI0; Spry2|Q9QXV8; Ehd3|Q9QXY6; Grm3|Q9QYS2; Rgs20|Q9QZB1; Plxnc1|Q9QZC2; Syt7|Q9R0N7; Adam11|Q9R1V4; Adam22|Q9R1V6; Adam23|Q9R1V7; Cdh22|Q9WTP5; Tenm1|Q9WTS4; Tenm2|Q9WTS5; Mpp2|Q9WV34; Gipc1|Q9Z0G0; Palm|Q9Z0P4; Heph|Q9Z0Z4; Septin3|Q9Z1S5; Septin5|Q9Z2Q6; Slc8a3|S4R2P9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elapor1|A2AFS3; Dpy19l4|A2AJQ3; Ube4a|E9Q735; Mttp|O08601; Prkcsh|O08795; Prdx4|O08807; Cx3cl1|O35188; Serpini1|O35684; Calu|O35887; Ddost|O54734; Fkbp7|O54998; Sigmar1|O55242; Sgce|O70258; Emc8|O70378; Tmem131|O70472; Vamp4|O70480; Clcn7|O70496; Dhcr7|O88455; Ugcg|O88693; F11r|O88792; Fut9|O88819; Slc22a8|O88909; Itm2b|O89051; B2m|P01887; H2-D1|P01899; Itgam|P05555; Ptprc|P06800; Enpp1|P06802; Pdia4|P08003; Hck|P08103; P4hb|P09103; Alpl|P09242; Itgb2|P11835; Icam1|P13597; Slc4a2|P13808; Calr|P14211; Chgb|P16014; Enpep|P16406; Serpinh1|P19324; Hspa5|P20029; Abcb1a|P21447; Ppib|P24369; Timp2|P25785; Chga|P26339; Tgfb2|P27090; Pdia3|P27773; Lifr|P42703; Man1a|P45700; Fkbp2|P45878; Stt3a|P46978; Nsg2|P47759; Hsd11b1|P50172; Sts|P50427; Efna1|P52793; Lrpap1|P55302; Entpd1|P55772; Erp29|P57759; Tm9sf2|P58021; Megf8|P60882; Dad1|P61804; St8sia5|P70126; Fv1|P70213; Nucb2|P81117; Anpep|P97449; Dgcr2|P98154; Apoh|Q01339; Rac2|Q05144; Rcn1|Q05186; Aplp2|Q06335; Igfbp5|Q07079; B4galnt1|Q09200; Itgb8|Q0VBD0; Rundc1|Q0VDN7; Vgf|Q0VGU4; Edem3|Q2HXL6; Cd163|Q2VLH6; Stt3b|Q3TDQ1; Rnf157|Q3TEL6; Tmem38a|Q3TMP8; Lmtk2|Q3TYD6; Tmem109|Q3UBX0; Sdk1|Q3UH53; Tmtc1|Q3UV71; Elapor2|Q3UZV7; Endou|Q3V188; Rasef|Q5RI75; Lmtk3|Q5XJV6; Sema5b|Q60519; Ggt1|Q60928; Cp|Q61147; Psap|Q61207; Soat1|Q61263; Cd55|Q61475; Nt5e|Q61503; Glg1|Q61543; Ktn1|Q61595; Il1rap|Q61730; Ltbp3|Q61810; Pon3|Q62087; Nsg1|Q62092; Ssr4|Q62186; Sema5a|Q62217; Tgoln1|Q62313; Ccn3|Q64299; Piga|Q64323; Ugt8a|Q64676; Myof|Q69ZN7; Atrnl1|Q6A051; Rftn1|Q6A0D4; Nomo1|Q6GQT9; Tmem130|Q6NXM3; Uggt1|Q6P5E4; Pigs|Q6PD26; Mon1a|Q6PDG8; Vstm2l|Q6PDS0; Atraid|Q6PGD0; Paqr9|Q6TCG2; Mlec|Q6ZQI3; Spcs3|Q6ZWQ7; Txndc16|Q7TN22; Maco1|Q7TQE6; Dnajc16|Q80TN4; Sel1l3|Q80TS8; Mogs|Q80UM7; Bpnt2|Q80V26; Mtdh|Q80WJ7; Ddrgk1|Q80WW9; Tmem106b|Q80X71; Kxd1|Q80XH1; Erlin2|Q8BFZ9; Tmtc4|Q8BG19; P4htm|Q8BG58; Pex26|Q8BGI5; Efcab14|Q8BGQ6; Tm9sf4|Q8BH24; Wasf2|Q8BH43; Fut11|Q8BHC9; B3glct|Q8BHT6; Mia3|Q8BI84; Spock3|Q8BKV0; Hspa13|Q8BM72; Ctso|Q8BM88; Acbd3|Q8BMP6; Mon1b|Q8BMQ8; Rcn2|Q8BP92; Sumf2|Q8BPG6; Cnpy4|Q8BQ47; Tmtc3|Q8BRH0; Tusc3|Q8BTV1; Ankrd46|Q8BTZ5; Gpr107|Q8BUV8; Gprin3|Q8BWS5; Fndc3a|Q8BX90; Tmem87a|Q8BXN9; Bri3bp|Q8BXV2; Poglut1|Q8BYB9; Eogt|Q8BYW9; Abi3|Q8BYZ1; Vps9d1|Q8C190; Ccz1|Q8C1Y8; Lmf2|Q8C3X8; Ccdc134|Q8C7V8; Ufl1|Q8CCJ3; Sulf2|Q8CFG0; Nckap1l|Q8K1X4; Os9|Q8K2C7; Txndc11|Q8K2W3; Slc36a1|Q8K4D3; Tram1l1|Q8QZR0; C1qtnf4|Q8R066; Sumf1|Q8R0F3; Ero1a|Q8R180; Mcam|Q8R2Y2; Rab11fip5|Q8R361; Hs2st1|Q8R3H7; Abca3|Q8R420; Ncln|Q8VCM8; Alg9|Q8VDI9; Erlec1|Q8VEH8; Selenom|Q8VHC3; Sec63|Q8VHE0; Itm2c|Q91VK4; Fam3c|Q91VU0; Txndc5|Q91W90; Pex16|Q91XC9; Rpn1|Q91YQ5; Tmem63a|Q91YT8; Dnajc3|Q91YW3; Mia2|Q91ZV0; Pofut1|Q91ZW2; Tmco1|Q921L3; Lrrc59|Q922Q8; Chid1|Q922Q9; Pdia6|Q922R8; Emc3|Q99KI3; Dnajb11|Q99KV1; Cdk5rap3|Q99LM2; St7|Q99M96; Col25a1|Q99MQ5; Rrbp1|Q99PL5; Zdhhc6|Q9CPV7; Nenf|Q9CQ45; Spg21|Q9CQC8; Tmem147|Q9CQG6; Sec61b|Q9CQS8; Txndc12|Q9CQU0; Golph3|Q9CRA5; Emc2|Q9CRD2; Manf|Q9CXI5; Pigk|Q9CXY9; Ssr1|Q9CY50; Creld2|Q9CYA0; Spcs2|Q9CYN2; Dnajc18|Q9CZJ9; Emc4|Q9CZX9; Ccdc47|Q9D024; Ccdc167|Q9D162; Fkbp11|Q9D1M7; Erp44|Q9D1Q6; Tmem35a|Q9D328; Fam174a|Q9D3L0; Borcs6|Q9D6W8; Borcs8|Q9D6Y4; Tspan13|Q9D8C2; Cnpy3|Q9DAU1; Rpn2|Q9DBG6; Srpr|Q9DBG7; Syvn1|Q9DBY1; Dnajc10|Q9DC23; Caly|Q9DCA7; Ssr3|Q9DCF9; Sdf2|Q9DCT5; Emc7|Q9EP72; Slco1a4|Q9EP96; Chst1|Q9EQC0; Erap1|Q9EQH2; Spock2|Q9ER58; Clstn2|Q9ER65; Parvg|Q9ERD8; Mesd|Q9ERE7; Selenof|Q9ERR7; Sdf2l1|Q9ESP1; Plek|Q9JHK5; Pigo|Q9JJI6; Hyou1|Q9JKR6; Selenok|Q9JLJ1; Crim1|Q9JLL0; Sec61a2|Q9JLR1; Abhd2|Q9QXM0; Cnpy2|Q9QXT0; Plxnb3|Q9QY40; Dnajb12|Q9QYI4; Hs6st1|Q9QYK5; Atp11c|Q9QZW0; Bcam|Q9R069; Tbl2|Q9R099; Pex14|Q9R0A0; Plod3|Q9R0E1; Syt11|Q9R0N3; Entpd5|Q9WUZ9; Cx3cr1|Q9Z0D9; Itsn2|Q9Z0R6; Dgat1|Q9Z2A7; Ggt5|Q9Z2A9; Sel1l|Q9Z2G6; Minpp1|Q9Z2L6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fndc10|A2A9Q0; Rundc3a|O08576; Rdh5|O55240; H2-K1|P01901; Plat|P11214; Lcat|P16301; Cyp2a5|P20852; Tap1|P21958; Ptgs1|P22437; Ccn2|P29268; Slc6a13|P31649; Cyp2f2|P33267; Sar1a|P36536; Sqle|P52019; H4c1|P62806; Pald1|P70261; Alk|P97793; Notch1|Q01705; Scg2|Q03517; Fbln1|Q08879; Uevld|Q3U1V6; Gxylt1|Q3UHH8; Vps41|Q5KU39; Pnoc|Q64387; Galnt2|Q6PB93; Kcnf1|Q7TSH7; Adgra3|Q7TT36; Slit1|Q80TR4; Ugt2a1|Q80X89; Arl5a|Q80ZU0; Xylt1|Q811B1; Pomt2|Q8BGQ4; Luzp2|Q8BGY3; Bmp3|Q8BHE5; Bicd1|Q8BR07; Slco2b1|Q8BXB6; Mb21d2|Q8C525; Adamts2|Q8C9W3; Lrp11|Q8CB67; Tbc1d23|Q8K0F1; Ccm2|Q8K2Y9; Pigu|Q8K358; Adap2|Q8R2V5; Mgat5|Q8R4G6; Snap47|Q8R570; Flnc|Q8VHX6; Sorcs3|Q8VI51; Mgst1|Q91VS7; BC031181|Q91WE4; Gorasp1|Q91X51; Trpm2|Q91YD4; Golga2|Q921M4; Mcoln1|Q99J21; Abhd17a|Q99JW1; Mgrn1|Q9D074; Wdr20rt|Q9D5R2; Usp12|Q9D9M2; Ap1s2|Q9DB50; Enpp5|Q9EQG7; Sorcs1|Q9JLC4; Ecel1|Q9JMI0; Pcsk1n|Q9QXV0; Casr|Q9QY96; Htra1|Q9R118; Rabac1|Q9Z0S9; Tbc1d8|Q9Z1A9; Itpr2|Q9Z329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ckap5|A2AGT5; Ptpn3|A2ALK8; Nt5c1a|A3KFX0; Sbf2|E9PXF8; Dlg5|E9Q9R9; Trip12|G5E870; Gtpbp1|O08582; Ercc2|O08811; Pik3r2|O08908; Il16|O54824; Cbfa2t2|O70374; Ulk1|O70405; Camk2a|P11798; Rasgrf1|P27671; Camk2b|P28652; Kif5a|P33175; Pik3ca|P42337; Ppp3cc|P48455; Fgd1|P52734; Tnks1bp1|P58871; Nphp4|P59240; Cgn|P59242; Arpc4|P59999; Rims4|P60191; Actr2|P61161; Cyth2|P63034; Sbds|P70122; Rit2|P70425; Wnk1|P83741; Map4k4|P97820; Sos2|Q02384; Agbl4|Q09LZ8; Vps8|Q0P5W1; Phactr1|Q2M3X8; Gsk3a|Q2NL51; Ppp1r21|Q3TDD9; Uri1|Q3TLD5; Tgfbrap1|Q3UR70; Sorbs2|Q3UTJ2; Grk3|Q3UYH7; Carmil2|Q3V3V9; Lrrc47|Q505F5; Prag1|Q571I4; Jcad|Q5DTX6; Cracd|Q5PR69; Zscan26|Q5RJ54; Wdr34|Q5U4F6; Chuk|Q60680; Ski|Q60698; Dvl3|Q61062; Shc3|Q61120; Map4k2|Q61161; Sos1|Q62245; Ppp1r13b|Q62415; Sorbs1|Q62417; Arhgap20|Q6IFT4; Phldb1|Q6PDH0; Naa35|Q6PHQ8; Camk2d|Q6PHZ2; Ppip5k2|Q6ZQB6; Asap2|Q7SIG6; Rexo1|Q7TT28; Khnyn|Q80U38; Rims3|Q80U57; Usp8|Q80U87; Chn2|Q80XD1; Clspn|Q80YR7; Afap1|Q80YS6; Gatd1|Q8BFQ8; Ppp1r12b|Q8BG95; Wdr92|Q8BGF3; Pan2|Q8BGF7; Arhgap22|Q8BL80; Sowaha|Q8BLS7; Tbck|Q8BM85; Wdr35|Q8BND3; Usp43|Q8BUM9; Dpp9|Q8BVG4; Osbpl6|Q8BXR9; Phactr3|Q8BYK5; Wwp1|Q8BZZ3; Peli1|Q8C669; Naa30|Q8CES0; Calcoco1|Q8CGU1; Rapgef2|Q8CHG7; Slain2|Q8CI08; Spata2|Q8K004; Ift80|Q8K057; Unc13c|Q8K0T7; Pank1|Q8K4K6; Hecw1|Q8K4P8; Itpka|Q8R071; Nup133|Q8R0G9; Iqsec1|Q8R0S2; Taf6l|Q8R2K4; Dicer1|Q8R418; Kptn|Q8VCX6; Zcchc18|Q8VD24; Snrk|Q8VDU5; Nle1|Q8VEJ4; Agap3|Q8VHH5; D6Wsu163e|Q91YN0; Srgap2|Q91Z67; Dok5|Q91ZM9; Lpin1|Q91ZP3; Cryzl1|Q921W4; Camk2g|Q923T9; Tgs1|Q923W1; Trim66|Q924W6; Actr3|Q99JY9; Nmd3|Q99L48; Wdr6|Q99ME2; Pih1d1|Q9CQJ2; Arpc2|Q9CVB6; Ttc9b|Q9D6E4; Rtca|Q9D7H3; Arpc5l|Q9D898; Mlst8|Q9DCJ1; Strn3|Q9ERG2; Parvb|Q9ES46; Mtor|Q9JLN9; Git2|Q9JLQ2; Gkap1|Q9JMB0; Mid2|Q9QUS6; Myo9b|Q9QY06; Azi2|Q9QYP6; Spast|Q9QYY8; Arpc1a|Q9R0Q6; Slit2|Q9R1B9; Gys1|Q9Z1E4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slc35d1|A2AKQ0; Syndig1|A2ANU3; Fsip2|A2ARZ3; Dpy19l1|A6X919; Triqk|B2B9E1; Clip3|B9EHT4; Tmem229a|B9EJI9; Arxes1|C0HK79; Poglut3|G5E897; Bet1l|O35153; Gosr2|O35166; Bok|O35425; Clcn6|O35454; Bet1|O35623; Get3|O54984; Atp2a2|O55143; Dpm1|O70152; Atp9a|O70228; Hsd17b12|O70503; Sorl1|O88307; Vti1b|O88384; Gosr1|O88630; St3gal5|O88829; Stx8|O88983; Itgb1|P09055; Csf1r|P09581; Tmem254c|P0DN91; Cnp|P16330; Lamp2|P17047; Evi2a|P20934; Pcsk2|P21661; Mfge8|P21956; Fcgr1|P26151; Cers1|P27545; Dpp4|P28843; Canx|P35564; Ldlr|P35951; Tap2|P36371; Cd82|P40237; Srprb|P47758; Scg3|P47867; Fmo1|P50285; Fdft1|P53798; Stmn2|P55821; Cyb5a|P56395; Wfs1|P56695; Chp1|P61022; Sec61a1|P61620; Stmn4|P63042; Stim1|P70302; Rhog|P84096; H3f3a|P84244; Cds1|P98191; Atp8a2|P98200; Hmgcr|Q01237; Nucb1|Q02819; Dnajb14|Q149L6; Pi4k2a|Q2TBE6; Slc39a7|Q31125; Emc10|Q3TAS6; Spryd7|Q3TFQ1; Pbxip1|Q3TVI8; Tmem63b|Q3TWI9; Pip4p1|Q3TWL2; Tmem88b|Q3TYP4; Lmf1|Q3U3R4; Xxylt1|Q3U4G3; Alg10b|Q3UGP8; Pgap1|Q3UUQ7; Ermp1|Q3UVK0; Tmub2|Q3V209; Odr4|Q4PJX1; Trp53i11|Q4QQM4; Tapt1|Q4VBD2; Pigh|Q5M9N4; Cyb5d2|Q5SSH8; D130043K22Rik|Q5SZV5; Mfsd3|Q5U419; Jagn1|Q5XKN4; Adam9|Q61072; Itga7|Q61738; Itga6|Q61739; Epha7|Q61772; Lrrn1|Q61809; Pon2|Q62086; Tfrc|Q62351; Itga2|Q62469; Ccpg1|Q640L3; Atp7a|Q64430; St8sia3|Q64689; Wls|Q6DID7; Lemd2|Q6DVA0; Enpp3|Q6DYE8; Scap|Q6GQT6; Lingo3|Q6GQU6; Islr|Q6GU68; Sort1|Q6PHU5; Vkorc1l1|Q6TEK5; Marchf6|Q6ZQ89; Dpy19l3|Q71B07; Picalm|Q7M6Y3; Casd1|Q7TN73; Galnt17|Q7TT15; Gramd1b|Q80TI0; Zdhhc17|Q80TN5; Fads6|Q80UG1; Pgrmc2|Q80UU9; Zmpste24|Q80W54; Creg2|Q8BGC9; Slc35f1|Q8BGK5; Cept1|Q8BGS7; Megf9|Q8BH27; Nipa1|Q8BHK1; Ganab|Q8BHN3; Ranbp6|Q8BIV3; Nceh1|Q8BLF1; Slc9a7|Q8BLV3; Tmem260|Q8BMD6; Derl2|Q8BNI4; Nmnat2|Q8BNJ3; Ric3|Q8BPM6; Yipf6|Q8BR70; Scfd1|Q8BRF7; Gpr89|Q8BS95; Asph|Q8BSY0; Pigz|Q8BTP0; Sec62|Q8BU14; Stx16|Q8BVI5; Pomgnt2|Q8BW41; Clptm1l|Q8BXA5; Tmem62|Q8BXJ9; Pigt|Q8BXQ2; Nalcn|Q8BXR5; Tmx3|Q8BXZ1; Fam234b|Q8BYI8; Rdh12|Q8BYK4; Rint1|Q8BZ36; Chpt1|Q8C025; Pm20d1|Q8C165; Cers6|Q8C172; Pcyox1l|Q8C7K6; Emc1|Q8C7X2; Podxl2|Q8CAE9; Slc38a2|Q8CFE6; Stoml1|Q8CI66; Tmem230|Q8CIB6; Sidt2|Q8CIF6; Disp2|Q8CIP5; Tmem259|Q8CIV2; Cmtm4|Q8CJ61; Dner|Q8JZM4; Cyp51|Q8K0C4; Tmem41b|Q8K1A5; 9530068E07Rik|Q8K201; Mmgt1|Q8K273; Alg3|Q8K2A8; Hacd3|Q8K2C9; Abca5|Q8K448; Abca9|Q8K449; Sgpl1|Q8R0X7; Slc29a4|Q8R139; Tmed4|Q8R1V4; Rnf121|Q8R1Z9; Abhd6|Q8R2Y0; Dolk|Q8R2Y3; Saraf|Q8R3Q0; Vps39|Q8R5L3; Tmx1|Q8VBT0; Clptm1|Q8VBZ3; Dhcr24|Q8VCH6; Rdh10|Q8VCH7; Tmem97|Q8VD00; Adpgk|Q8VDL4; Rhbdd2|Q8VEK2; Mospd1|Q8VEL0; Pofut2|Q8VHI3; Plpp7|Q91WB2; Cdkal1|Q91WE6; Erlin1|Q91X78; Creld1|Q91XD7; Tmem205|Q91XE8; Rnf185|Q91YT2; Plxdc1|Q91ZV7; Fads1|Q920L1; Tor1aip1|Q921T2; Lrp8|Q924X6; Cers2|Q924Z4; Ghdc|Q99J23; Derl1|Q99J56; Clstn3|Q99JH7; Ufsp2|Q99K23; Tmed9|Q99KF1; Clint1|Q99KN9; Vmp1|Q99KU0; Itfg1|Q99KW9; Cds2|Q99L43; Gpx7|Q99LJ6; Abhd12|Q99LR1; Scd3|Q99PL7; Mydgf|Q9CPT4; P2ry12|Q9CPV9; Use1|Q9CQ56; Cisd2|Q9CQB5; Ergic3|Q9CQE7; Pcyox1|Q9CQF9; Emc6|Q9CQW0; Magt1|Q9CQY5; Tmem9|Q9CR23; Ergic2|Q9CR89; Gdpd1|Q9CRY7; Mospd2|Q9CWP6; Tmed5|Q9CXE7; Tecr|Q9CY27; Prxl2a|Q9CYH2; Atp6ap2|Q9CYN9; Acsl3|Q9CZW4; Pip4p2|Q9CZX7; Ogfod3|Q9D136; Tmed10|Q9D1D4; Hhatl|Q9D1G3; Tmem50b|Q9D1X9; Tmbim6|Q9D2C7; Rnf128|Q9D304; Hacd2|Q9D3B1; Agpat3|Q9D517; Cers4|Q9D6J1; Apmap|Q9D7N9; Tvp23b|Q9D8T4; H13|Q9D8V0; Sec11c|Q9D8V7; Slc22a17|Q9D9E0; Samd8|Q9DA37; Alg5|Q9DB25; Alg2|Q9DBE8; Tmem43|Q9DBS1; Plxdc2|Q9DC11; Ergic1|Q9DC16; Atp13a1|Q9EPE9; Glce|Q9EPS3; Hsd17b11|Q9EQ06; Tor1b|Q9ER41; Scamp2|Q9ERN0; Jph3|Q9ET77; Glmp|Q9JHJ3; Ank|Q9JHZ2; Herpud2|Q9JJC9; Paqr4|Q9JJE4; Porcn|Q9JJJ7; P2rx4|Q9JJX6; Ube2j1|Q9JJZ4; Gde1|Q9JL56; Elovl1|Q9JLJ5; Dolpp1|Q9JMF7; Tmub1|Q9JMG3; Dkk3|Q9QUN9; St6galnac5|Q9QYJ1; Sec11a|Q9R0P6; Tmed2|Q9R0Q3; Dgke|Q9R1C6; Nsdhl|Q9R1J0; Pign|Q9R1S3; Abcc5|Q9R1X5; Tapbp|Q9R233; Gpaa1|Q9WTK3; Lemd3|Q9WU40; Atrn|Q9WU60; Srd5a3|Q9WUP4; Preb|Q9WUQ2; Cyp46a1|Q9WVK8; Slc12a7|Q9WVL3; Fads2|Q9Z0R9; Large1|Q9Z1M7; Pld1|Q9Z280; Eif2ak3|Q9Z2B5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fam171a2|A2A699; Ptprf|A2A8L5; Scn1a|A2APX8; Scn2a|B1AWN6; Gnai1|B2RSH2; Ttc7b|E9Q6P5; Nrxn2|E9Q7X7; Stxbp1|O08599; Gfra2|O08842; Sema4d|O09126; Slc6a6|O35316; Slc1a4|O35874; Ctnnd2|O35927; Cacna1b|O55017; Entpd2|O55026; Adcy1|O88444; Ppt1|O88531; Hcn3|O88705; Gnai2|P08752; Lrrc4b|P0C192; Slc3a2|P10852; L1cam|P11627; Cdh2|P15116; Slc4a3|P16283; F3|P20352; Ctnna1|P26231; Gna13|P27601; Ctnnd1|P30999; Slc6a1|P31648; Slc2a3|P32037; Chrm4|P32211; Bmpr1a|P36895; Acvr1|P37172; Septin2|P42208; Cnr1|P47746; Ednrb|P48302; Adcy9|P51830; Kcnj4|P52189; Cdh11|P55288; Rac3|P60764; Snap25|P60879; Rras2|P62071; Rhob|P62746; Gnb1|P62874; Gabrb3|P63080; Slc7a10|P63115; Cdh10|P70408; Slc7a3|P70423; Cdh6|P97326; Scn1b|P97952; Arvcf|P98203; Ctnnb1|Q02248; Epha4|Q03137; Smpd1|Q04519; Kcnma1|Q08460; Mdga1|Q0PMG2; Cntnap5a|Q0V8T9; Stum|Q0VBF8; Fam171b|Q14CH0; Lrfn1|Q2WF71; Ica1l|Q3TY65; Gpr162|Q3UN16; Rnf150|Q5DTZ6; Taok1|Q5F2E8; Slc39a12|Q5FWH7; Cemip2|Q5FWI3; Xkr4|Q5GH67; Cdh12|Q5RJH3; Kcnh1|Q60603; Adora1|Q60612; Slc30a1|Q60738; Ctnna2|Q61301; Kcna4|Q61423; Grik5|Q61626; Sema4a|Q62178; Aga|Q64191; Slc13a5|Q67BT3; Pkp4|Q68FH0; Cntn4|Q69Z26; Nlgn2|Q69ZK9; Mvb12b|Q6KAU4; Nrxn3|Q6P9K9; Prrt3|Q6PE13; Rhbdf1|Q6PIX5; Ankib1|Q6ZPS6; Efr3b|Q6ZQ18; Rtn4rl2|Q7M6Z0; Robo2|Q7TPD3; C2cd5|Q7TPS5; Lrfn2|Q80TG9; Plxna4|Q80UG2; Septin9|Q80UG5; Rap2a|Q80ZJ1; Slitrk2|Q810C0; Efr3a|Q8BG67; Tmem198|Q8BG75; Arl15|Q8BGR6; Tspan9|Q8BJU2; Olfm2|Q8BM13; Kirrel3|Q8BR86; Pakap|Q8BR92; Csnk1g1|Q8BTH8; Septin11|Q8C1B7; Fam126b|Q8C729; Shisa4|Q8CA71; Nrn1|Q8CFV4; Slc24a4|Q8CGQ8; Rftn2|Q8CHX7; Rtn4rl1|Q8K0S5; Unc5a|Q8K1S4; Plcd3|Q8K2J0; Kcnq3|Q8K3F6; Appl2|Q8K3G9; Slc8a2|Q8K596; 4933434E20Rik|Q8R092; Cacnb1|Q8R3Z5; Cadm1|Q8R5M8; Pafah2|Q8VDG7; Zdhhc5|Q8VDZ4; Glra3|Q91XP5; Pde2a|Q922S4; Spred2|Q924S7; Gpr37l1|Q99JG2; Tmem51|Q99LG1; Fuca1|Q99LJ1; Ptprt|Q99M80; Ykt6|Q9CQW1; Nrxn1|Q9CS84; Glipr2|Q9CYL5; 2810459M11Rik|Q9CYS6; Tmem178|Q9CZ16; Rab3b|Q9CZT8; Lingo1|Q9D1T0; Ttyh1|Q9D3A9; Fam13c|Q9DBR2; Fibp|Q9JI19; Jam2|Q9JI59; Fmn2|Q9JL04; Naga|Q9QWR8; Slc7a8|Q9QXW9; Rgs17|Q9QZB0; Gpc1|Q9QZF2; Ctsf|Q9R013; Syt10|Q9R0N4; Septin6|Q9R1T4; Trpv2|Q9WTR1; Adam17|Q9Z0F8; Lipa|Q9Z0M5; Slc7a5|Q9Z127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4932438A13Rik|A2AAE1; Ano3|A2AHL1; Grik3|B1AS29; Plxnb2|B2RXS4; Rnaset2b|C0HKG6; Atp2b1|G5E829; Cacna2d1|O08532; Capn5|O08688; Snap23|O09044; Ncam2|O35136; Nrp2|O35375; Abcc1|O35379; Efnb3|O35393; Pld3|O35405; Ppt2|O35448; Prrt1|O35449; Edil3|O35474; Notch2|O35516; Cd151|O35566; Neu1|O35657; Gnaz|O70443; Slc16a7|O70451; Pde9a|O70628; Cntfr|O88507; Hcn1|O88704; Kit|P05532; Pdgfrb|P05622; 1500009L16Rik|P0C913; Lynx1|P0DP60; Ctsb|P10605; Rras|P10833; Lamp1|P11438; Itga5|P11688; Ncam1|P13595; Atp1b1|P14094; Insr|P15208; Ntrk2|P15209; Fgfr1|P16092; Gba|P17439; Slc2a1|P17809; Ptpra|P18052; Bsg|P18572; Gnao1|P18872; Gna11|P21278; Gnaq|P21279; Ache|P21836; Emb|P21995; Gabrg2|P22723; Gabrd|P22933; Lyn|P25911; Gabra3|P26049; Ret|P35546; Gpm6b|P35803; Abca1|P41233; Oprm1|P42866; Kcnj6|P48542; Ptpre|P49446; Gabrb1|P50571; Slc16a1|P53986; Stom|P54116; Ephb3|P54754; Ephb2|P54763; Plscr4|P58196; Kcnn2|P58390; Rap2b|P61226; Gabra1|P62812; Gnb2|P62880; Rac1|P63001; Gnas|P63094; Gabrb2|P63137; Rala|P63321; Adcyap1r1|P70205; Plxna2|P70207; Dcc|P70211; Slc8a1|P70414; Stx4a|P70452; Gaa|P70699; Adcy5|P84309; Nptn|P97300; Nrp1|P97333; Atp1b3|P97370; Adcy8|P97490; Neo1|P97798; Flt3|Q00342; Il6st|Q00560; Axl|Q00993; Adra2a|Q01338; Cacna1c|Q01815; Ptprg|Q05909; Ids|Q08890; Cnnm1|Q0GA42; Unc79|Q0KK59; Kcnc2|Q14B80; Slc35f3|Q1LZI2; Trpm1|Q2TV84; Eepd1|Q3TGW2; Ttyh2|Q3TH73; Cnnm2|Q3TWN3; Fam131b|Q3TY60; Gprin1|Q3UNH4; Nkain3|Q3URJ8; Grm5|Q3UVX5; Lrig2|Q52KR2; Scn2b|Q56A07; Slc4a10|Q5DTL9; Lrrc8b|Q5DU41; Slc5a6|Q5U4D8; Zdhhc20|Q5Y5T1; Adora2a|Q60613; Epha5|Q60629; Irgm1|Q60766; Mertk|Q60805; Astn1|Q61137; Slc9a1|Q61165; Acvr1b|Q61271; Hras|Q61411; Alcam|Q61490; Slc20a1|Q61609; Grid1|Q61627; Epha6|Q62413; Ptp4a1|Q63739; Abcg1|Q64343; Atp4a|Q64436; Car4|Q64444; Ptprj|Q64455; Cr1l|Q64735; Slc39a10|Q6P5F6; Ttyh3|Q6P5F7; Rgma|Q6PCX7; Mindy2|Q6PDI6; Tmeff1|Q6PFE7; Cacna2d2|Q6PHS9; Atp1a3|Q6PIC6; Atp2b4|Q6Q477; Flrt1|Q6RKD8; Npr2|Q6VVW5; Dagla|Q6WQJ1; Kcnt1|Q6ZPR4; Igsf3|Q6ZQA6; Cspg5|Q71M36; Sema6d|Q76KF0; Scn4b|Q7M729; Plppr4|Q7TME0; Abcg2|Q7TMS5; Tmem59l|Q7TNI2; Plppr3|Q7TPB0; Lrrc75a|Q7TSF4; Tmem94|Q7TSH8; Adcy2|Q80TL1; Daam2|Q80U19; Amigo1|Q80ZD8; Slitrk3|Q810B9; Gns|Q8BFR4; Plppr1|Q8BFZ2; Lhfpl2|Q8BGA2; Lrrc8d|Q8BGR2; Flrt3|Q8BGT1; Ccny|Q8BGU5; Lrtm2|Q8BGX3; Serinc5|Q8BHJ6; Gabra5|Q8BHJ7; Sun2|Q8BJS4; Slc17a5|Q8BN82; Zdhhc14|Q8BQQ1; Rap2c|Q8BU31; Slc44a2|Q8BY89; Taok3|Q8BYC6; Rhof|Q8BYP3; Dock10|Q8BZN6; Fam234a|Q8C0Z1; Slc39a6|Q8C145; Csnk1g3|Q8C4X2; Pde10a|Q8CA95; Gnal|Q8CGK7; Nradd|Q8CJ26; Slc4a8|Q8JZR6; Faim2|Q8K097; Lmbrd1|Q8K0B2; Dcun1d3|Q8K0V2; Unc5d|Q8K1S2; Acvr1c|Q8K348; Cystm1|Q8K353; Cables2|Q8K3M5; Clmp|Q8R373; Slco3a1|Q8R3L5; Lrrc8c|Q8R502; Atp1a1|Q8VDN2; Rnf130|Q8VEM1; Adcy3|Q8VHH7; Lrp4|Q8VI56; Slc12a5|Q91V14; Pcdhga4|Q91XY4; Scpep1|Q920A5; B3galnt1|Q920V1; Rab31|Q921E2; Rheb|Q921J2; Rap1b|Q99JI6; Lamtor1|Q9CQ22; Tmem100|Q9CQG9; Rgs19|Q9CX84; Moxd1|Q9CXI3; Cmtm6|Q9CZ69; Gabra4|Q9D6F4; Gng12|Q9DAS9; Cdip1|Q9DB75; Tril|Q9DBY4; Gnai3|Q9DC51; Rp2|Q9EPK2; Slc23a2|Q9EPR4; Tnfrsf21|Q9EPU5; Igdcc4|Q9EQS9; Kcnh7|Q9ER47; Slco1c1|Q9ERB5; C1ql3|Q9ESN4; Asah2|Q9JHE3; Slc29a1|Q9JIM1; Ralb|Q9JIW9; Plscr3|Q9JIZ9; Plscr1|Q9JJ00; Sppl2a|Q9JJF9; Smpd3|Q9JJY3; Kcnq5|Q9JK45; Slc5a3|Q9JKZ2; Cntn6|Q9JMB8; Neu3|Q9JMH7; Kcnip3|Q9QXT8; Gpr37|Q9QY42; Pcnx|Q9QYC1; Rnf11|Q9QYK7; Serinc1|Q9QZI8; Serinc3|Q9QZI9; Atp2b2|Q9R0K7; Rab9|Q9R0M6; Tenm3|Q9WTS6; Ly6h|Q9WUC3; Gabbr1|Q9WV18; Atp1a4|Q9WV27; Car14|Q9WVT6; Ggh|Q9Z0L8; Xpr1|Q9Z0U0; Kcnd3|Q9Z0V1; Kcnd2|Q9Z0V2; Cacna2d3|Q9Z1L5; Dpp6|Q9Z218; Ubl3|Q9Z2M6; Kcnq2|Q9Z351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C77080|A2A7S8; Hk2|O08528; Casq2|O09161; Slc18a3|O35304; Mgll|O35678; Prom1|O54990; Bnip3|O55003; Cacng2|O88602; Usp2|O88623; Gdap1|O88741; Sh3pxd2a|O89032; Slc4a1|P04919; Mag|P20917; Grin2a|P35436; Cpox|P36552; Syt1|P46096; Rph3a|P47708; Grm8|P47743; Hccs|P53702; Opa1|P58281; Bcl2l13|P59017; Dnajc5|P60904; Timm8b|P62077; Rab3c|P62823; Rab3a|P63011; Vamp2|P63044; Gng2|P63213; Ica1|P97411; Rab33a|P97950; Grin2d|Q03391; Grid2ip|Q0QWG9; Ankrd27|Q3UMR0; Usp30|Q3UN04; Fam81a|Q3UXZ6; Prr7|Q3V0I2; Rab26|Q504M8; Prune2|Q52KR3; Ndufaf2|Q59J78; Arhgap1|Q5FWK3; Vdac2|Q60930; Vdac3|Q60931; Vdac1|Q60932; Grid2|Q61625; Pick1|Q62083; Ptprr|Q62132; Sh3gl3|Q62421; Vat1|Q62465; Gk|Q64516; Grm4|Q68EF4; Mff|Q6PCP5; Mfsd4a|Q6PDC8; Mtch1|Q791T5; Mtch2|Q791V5; Mfn2|Q80U63; Lrrtm4|Q80XG9; Adgrb3|Q80ZF8; Rhot1|Q8BG51; Lrrtm2|Q8BGA3; Mief1|Q8BGV8; Slc5a7|Q8BGY9; Fbxl4|Q8BH70; Pgs1|Q8BHF7; Tmem11|Q8BK08; Slc25a24|Q8BMD8; E130311K13Rik|Q8BN57; Acp6|Q8BP40; Hsdl1|Q8BTX9; Dnm3|Q8BZ98; Shisa7|Q8C3Q5; Adgra1|Q8C4G9; Elfn1|Q8C8T7; Rdh13|Q8CEE7; Adgrb2|Q8CGM1; Rmnd1|Q8CI78; Rhot2|Q8JZN7; Pnpla8|Q8K1N1; Myrip|Q8K3I4; Minar1|Q8K3V7; Suox|Q8R086; Mul1|Q8VCM5; Tmem143|Q8VD26; Mtmr14|Q8VEL2; Cdc42ep1|Q91W92; Cisd1|Q91WS0; Coa7|Q921H9; Sfxn5|Q925N0; Trabd|Q99JY4; Gak|Q99KY4; Cyp4f18|Q99N16; Lrrc4|Q99PH1; Acsbg1|Q99PU5; Mgst3|Q9CPU4; Slc25a46|Q9CQS4; Dnajc19|Q9CQV7; Ociad1|Q9CRD0; Micu3|Q9CTY5; Mtfr1l|Q9CWE0; Ears2|Q9CXJ1; Abcb8|Q9CXJ4; Naxd|Q9CZ42; Shisa9|Q9CZN4; Tomm70a|Q9CZW5; Nt5c3|Q9D020; Armc10|Q9D0L7; Mobp|Q9D2P8; Cmtm5|Q9D6G9; Synj2bp|Q9D6K5; Armc1|Q9D7A8; Tmem126a|Q9D8Y1; Slc25a18|Q9DB41; Cyb5r1|Q9DB73; Abhd5|Q9DBL9; 4833439L19Rik|Q9DBN4; Tomm20|Q9DCC8; Ube3b|Q9ES34; Abcb10|Q9JI39; Cend1|Q9JKC6; Tomm40|Q9QYA2; Sh2d3c|Q9QZS8; Cbln1|Q9R171; Ak2|Q9WTP6; Prodh|Q9WU79; Arc|Q9WV31; Asah1|Q9WV54; Osbpl10|S4R1M9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arfgef2|A2A5R2; Uhrf1bp1l|A2RSJ4; Klhl3|E0CZ16; Cdk14|O35495; Limk2|O54785; Ugdh|O70475; Diaph2|O70566; Dtnb|O70585; Akap10|O88845; Ifrd1|P19182; Pik3r1|P26450; Nckap1|P28660; Ptk2|P34152; Sipa1|P46062; Cast|P51125; Sh3bp1|P55194; Rasa2|P58069; Sash1|P59808; Gabarapl2|P60521; Fgf12|P61329; Abi2|P62484; Dynlrb1|P62627; Fgf13|P70377; Rasgrf2|P70392; Lig3|P97386; Arhgap5|P97393; Rnasel|Q05921; Eps8|Q08509; Iqsec3|Q3TES0; Tbc1d2b|Q3U0J8; Abl2|Q4JIM5; Cyfip2|Q5SQX6; Xrcc1|Q60596; Ppp2r5c|Q60996; Tsc2|Q61037; Mapk6|Q61532; Jak2|Q62120; Rab3ip|Q68EF0; Git1|Q68FF6; Arhgap23|Q69ZH9; Kazn|Q69ZS8; Wdcp|Q6NV72; Ift122|Q6NWV3; Hdac4|Q6NZM9; Inppl1|Q6P549; Magi1|Q6RHR9; Sbf1|Q6ZPE2; Ppp2r2b|Q6ZWR4; Mtmr12|Q80TA6; Snupn|Q80W37; Wnk3|Q80XP9; Ireb2|Q811J3; Srgap3|Q812A2; Ppp2r2c|Q8BG02; Limd2|Q8BGB5; Elmo2|Q8BHL5; Kbtbd11|Q8BNW9; Efl1|Q8C0D5; Dock8|Q8C147; Fam110b|Q8C739; Wdr37|Q8CBE3; Abi1|Q8CBW3; Lancl3|Q8CD19; Map2k7|Q8CE90; Dnajc27|Q8CFP6; Pacs1|Q8K212; Stk32c|Q8QZV4; Wasf1|Q8R5H6; Rapgef3|Q8VCC8; Wasf3|Q8VHI6; Brk1|Q91VR8; Farp2|Q91VS8; Bmp2k|Q91Z96; Zfp330|Q922H9; Lims1|Q99JW4; Rad54l2|Q99NG0; Tbc1d7|Q9D0K0; Tax1bp3|Q9DBG9; Ampd2|Q9DBT5; Rai14|Q9EP71; Parva|Q9EPC1; Scyl1|Q9EQC5; Stk4|Q9JI11; Tmem47|Q9JJG6; Hip1r|Q9JKY5; Capn15|Q9JLG8; Ap3b2|Q9JME5; Add2|Q9QYB8; Add1|Q9QYC0; Afdn|Q9QZQ1; Capn7|Q9R1S8; Stat2|Q9WVL2; Nos1|Q9Z0J4; Mtmr1|Q9Z2C4; Mtm1|Q9Z2C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajm1|A2AJA9; Ndufaf5|A2APY7; Etl4|A2AQ25; Slc25a25|A2ASZ8; Kalrn|A2CG49; Mipep|A6H611; Cisd3|B1AR13; Ildr2|B5TVM2; Xpnpep3|B7ZMP1; Gls|D3Z7P3; Igsf9b|E9PZ19; Xkr6|E9Q6C8; Ank3|G5E8K5; Endog|O08600; Dld|O08749; Hsd17b10|O08756; Ndufb11|O09111; Phb2|O35129; Atpif1|O35143; Hax1|O35387; Dhodh|O35435; Ech1|O35459; C1qbp|O35658; Mrps12|O35680; Ndufa1|O35683; Noct|O35710; Bcat2|O35855; Timm44|O35857; Bckdk|O55028; Nipsnap1|O55125; Nipsnap2|O55126; Gpx4|O70325; Mtx2|O88441; Clpp|O88696; Ctbp1|O88712; Bsn|O88737; Yme1l1|O88967; Gcat|O88986; Fhit|O89106; CYTB|P00158; Dhfr|P00375; COX1|P00397; COX2|P00405; ATP6|P00848; ND1|P03888; ND2|P03893; ND4|P03911; ND5|P03921; Got2|P05202; Spta1|P08032; Mdh2|P08249; Sod2|P09671; Surf1|P09925; Cox5a|P12787; Sptb|P15508; Mmut|P16332; Cox7c|P17665; Hk1|P17710; Mpv17|P19258; Cox5b|P19536; Cox4i1|P19783; Prdx3|P20108; Fech|P22315; Glud1|P26443; Oat|P29758; Ckmt1|P30275; Pdha1|P35486; Hmgcl|P38060; Hspa9|P38647; Tfam|P40630; Eci1|P42125; Cox6a1|P43024; Acadm|P45952; Aldh2|P47738; Mtx1|P47802; Crat|P47934; Slc25a4|P48962; Bckdha|P50136; H2-Ke6|P50171; Acadvl|P50544; Acadl|P51174; Slc25a5|P51881; Tst|P52196; Ndufs6|P52503; Cpt2|P52825; Dbt|P53395; Idh2|P54071; Cacnb3|P54285; Galc|P54818; Atp5j2|P56135; Gfer|P56213; Atp5mpl|P56379; Atp5e|P56382; Cox6b1|P56391; Cox7b|P56393; Atp5b|P56480; Mrps21|P58059; Car10|P61215; Abat|P61922; Timm10|P62073; Timm13|P62075; Cycs|P62897; Mpc1|P63030; Hspd1|P63038; Selenow|P63300; Phb|P67778; Idh3g|P70404; Renbp|P82343; Isoc2a|P85094; Coq7|P97478; Txn2|P97493; Fh1|P97807; Dtymk|P97930; Uqcrh|P99028; Prdx5|P99029; Grin2b|Q01097; Atp5a1|Q03265; Pcx|Q05920; Atp5k|Q06185; Acads|Q07417; Ydjc|Q14BV6; Ptcd3|Q14C51; Aars2|Q14CH7; Map3k13|Q1HKZ5; Hsdl2|Q2TPA8; Fahd2a|Q3TC72; Nlrx1|Q3TL44; Tamm41|Q3TUH1; Rars2|Q3U186; Cmpk2|Q3U5Q7; Lyplal1|Q3UFF7; Nt5dc3|Q3UHB1; Ndufb6|Q3UIU2; Mccc2|Q3ULD5; Spg7|Q3ULF4; Mcu|Q3UMR5; Cryzl2|Q3UNZ8; Tars2|Q3UQ84; Acsf3|Q3URE1; Ccdc51|Q3URS9; Them4|Q3UUI3; Itpripl2|Q3UV16; Pdp1|Q3UV70; Ppm1h|Q3UYC0; Slc25a31|Q3V132; Afg1l|Q3V384; Mthfd1l|Q3V3R1; Mars2|Q499X9; Shank3|Q4ACU6; Ndufa4l2|Q4FZG9; Unc13a|Q4KUS2; Tmem65|Q4VAE3; Opa3|Q505D7; Coq8b|Q566J8; Gls2|Q571F8; Slc25a51|Q5HZI9; Slc30a9|Q5IRJ6; Sdr39u1|Q5M8N4; Mrs2|Q5NCE8; Tefm|Q5SSK3; Dnajc11|Q5U458; Parl|Q5XJY4; Ogdh|Q60597; Clpb|Q60649; Gcdh|Q60759; Coq8a|Q60936; Abcb7|Q61102; Arg1|Q61176; Cox7a2l|Q61387; Hadh|Q61425; Snap91|Q61548; Fdxr|Q61578; Mrps31|Q61733; Dlg4|Q62108; Sh3gl2|Q62420; Ndufa4|Q62425; Syn2|Q64332; Hspe1|Q64433; Gpd2|Q64521; Ptpmt1|Q66GT5; Begain|Q68EF6; Cltc|Q68FD5; Ablim3|Q69ZX8; Slc25a23|Q6GQS1; Btbd11|Q6GQW0; Pptc7|Q6NVE9; Ocrl|Q6NVF0; Ckmt2|Q6P8J7; Lrpprc|Q6PB66; Ppp2r5a|Q6PD03; Abhd10|Q6PE15; Erc2|Q6PH08; Tlr13|Q6R5N8; Kyat3|Q71RI9; Atp5md|Q78IK2; Apool|Q78IK4; Msrb2|Q78J03; Ndufa12|Q7TMF3; Sugct|Q7TNE1; Micos10|Q7TNS2; Pdpr|Q7TSQ8; Lrrc7|Q80TE7; Rimbp2|Q80U40; Mrps7|Q80X85; Bdh1|Q80XN0; Glrx5|Q80Y14; Bsdc1|Q80Y55; Supv3l1|Q80YD1; Shank2|Q80Z38; Mrps26|Q80ZS3; Atpaf1|Q811I0; Pdk1|Q8BFP9; Tufm|Q8BFR5; Zadh2|Q8BGC4; Coa6|Q8BGD8; Slc25a44|Q8BGF9; Samm50|Q8BGH2; Gpt2|Q8BGT5; Nars2|Q8BGV0; Timm29|Q8BGX2; Pck2|Q8BH04; Thnsl1|Q8BH55; Slc25a12|Q8BH59; Dglucy|Q8BH86; Echs1|Q8BH95; Atcay|Q8BHE3; Maip1|Q8BHE8; Iars2|Q8BIJ6; Dars2|Q8BIP0; Cox15|Q8BJ03; Dlgap2|Q8BJ42; Mrps35|Q8BJZ4; Ndufv3|Q8BK30; Mrps27|Q8BK72; Pdhx|Q8BKZ9; Slc25a29|Q8BL03; Plcxd3|Q8BLJ3; Shc2|Q8BMC3; Me3|Q8BMF3; Dlat|Q8BMF4; Hadha|Q8BMS1; Tmem177|Q8BPE4; Sgsm1|Q8BPQ7; Prkaa2|Q8BRK8; Pisd|Q8BSF4; Aldh5a1|Q8BWF0; Ptges2|Q8BWM0; Acaa2|Q8BWT1; Pgam5|Q8BX10; Yars2|Q8BYL4; Cars2|Q8BYM8; Pak5|Q8C015; Lrrc4c|Q8C031; Slc25a16|Q8C0K5; Exog|Q8C163; Guf1|Q8C3X4; Nadk2|Q8C5H8; Mmaa|Q8C7H1; Scai|Q8C8N2; Iba57|Q8CAK1; Immt|Q8CAQ8; Vwa8|Q8CC88; Nhlrc3|Q8CCH2; Amt|Q8CFA2; Pars2|Q8CFI5; Lonp1|Q8CGK3; Aldh4a1|Q8CHT0; Mical3|Q8CJ19; Acad9|Q8JZN5; Afg3l2|Q8JZQ2; Slc25a1|Q8JZU2; Fnbp1l|Q8K012; Gfm1|Q8K0D5; Taco1|Q8K0Z7; Angel2|Q8K1C0; Pnpt1|Q8K1R3; Coq9|Q8K1Z0; Sdha|Q8K2B3; Sirt5|Q8K2C6; Mrpl38|Q8K2M0; Chchd7|Q8K2Q5; Acad10|Q8K370; Lrrtm1|Q8K377; Hscb|Q8K3A0; Ndufs8|Q8K3J1; Pitrm1|Q8K411; Abhd11|Q8K4F5; Hibch|Q8QZS1; Acat1|Q8QZT1; Fahd1|Q8R0F8; Slc25a42|Q8R0Y8; Sirt3|Q8R104; Flad1|Q8R123; Bphl|Q8R164; Uqcr10|Q8R1I1; Stard7|Q8R1R3; Coq6|Q8R1S0; Mcat|Q8R3F5; Micos13|Q8R404; Clybl|Q8R4N0; Nt5m|Q8VCE6; Lipt1|Q8VCM4; Acsf2|Q8VCW8; Micu1|Q8VCX5; Lars2|Q8VDC0; Ttc39c|Q8VE09; Mrps23|Q8VE22; Gdap1l1|Q8VE33; Oxnad1|Q8VE38; Ogfrl1|Q8VE52; Prelid3a|Q8VE85; C030006K11Rik|Q8VE95; Slc25a3|Q8VEM8; Sfxn3|Q91V61; Poldip2|Q91VA6; Ghitm|Q91VC9; Ndufs1|Q91VD9; Ppa2|Q91VM9; Chchd6|Q91VN4; Atp5c1|Q91VR2; Cbr4|Q91VT4; Gldc|Q91W43; Ndufs2|Q91WD5; Prkag2|Q91WG5; Spryd4|Q91WK1; Gcsh|Q91WK5; Hdhd5|Q91WM2; Mtif2|Q91YJ5; Tbrg4|Q91YM4; L2hgdh|Q91YP0; Ndufv1|Q91YT0; Pcca|Q91ZA3; Etfdh|Q921G7; Macrod1|Q922B1; Fastkd2|Q922E6; Pdk3|Q922H2; Pycr2|Q922Q4; Glrx2|Q923X4; Mto1|Q923Z3; Rtn4ip1|Q924D0; Letmd1|Q924L1; Atad3a|Q925I1; Mlycd|Q99J39; Mpst|Q99J99; Stoml2|Q99JB2; Sfxn1|Q99JR1; Gatb|Q99JT1; Hadhb|Q99JY0; Nlgn1|Q99K10; Me2|Q99KE1; Aco2|Q99KI0; Hars2|Q99KK9; Ppif|Q99KR7; Hibadh|Q99L13; Dhrs4|Q99LB2; Sardh|Q99LB7; Ndufa10|Q99LC3; Etfa|Q99LC5; Grpel1|Q99LP6; Ndufs5|Q99LY9; Fars2|Q99M01; Lias|Q99M04; Dnaja3|Q99M87; Rnf141|Q99MB7; Pccb|Q99MN9; Mccc1|Q99MR8; Mrps5|Q99N87; Mrpl16|Q99N93; Mrpl9|Q99N94; Mrpl3|Q99N95; Mrpl1|Q99N96; Acss1|Q99NB1; Ndufa5|Q9CPP6; Cox6c|Q9CPQ1; Tomm22|Q9CPQ3; Atp5l|Q9CPQ8; Ndufb2|Q9CPU2; Mrps16|Q9CPX7; Uqcr11|Q9CPX8; Dmac1|Q9CQ00; Mrpl24|Q9CQ06; Ndufc2|Q9CQ54; Decr1|Q9CQ62; Uqcrq|Q9CQ69; Ndufa2|Q9CQ75; Timm22|Q9CQ85; Ndufa3|Q9CQ91; Sdhb|Q9CQA3; Ndufb4|Q9CQC7; Nipsnap3b|Q9CQE1; Mrpl11|Q9CQF0; Mtres1|Q9CQF4; Ndufb5|Q9CQH3; Ndufb9|Q9CQJ8; Mrpl18|Q9CQL5; Trap1|Q9CQN1; Atp5pb|Q9CQQ7; Acot13|Q9CQR4; Mrps36|Q9CQX8; Ndufa6|Q9CQZ5; Ndufb3|Q9CQZ6; Gadd45gip1|Q9CR59; Ndufb7|Q9CR61; Slc25a11|Q9CR62; Uqcrfs1|Q9CR68; Atp5g1|Q9CR84; Fam136a|Q9CR98; Dmac2l|Q9CRA7; Mtfp1|Q9CRB8; Chchd3|Q9CRB9; Nubpl|Q9CWD8; Ndufaf7|Q9CWG8; Uqcc1|Q9CWU6; Ndufaf1|Q9CWX2; Coq5|Q9CXI0; Pmpcb|Q9CXT8; Sdhd|Q9CXV1; Mrps22|Q9CXW2; Ndufs4|Q9CXZ1; Mrps28|Q9CY16; Wars2|Q9CYK1; Ssbp1|Q9CYR0; Hdhd3|Q9CYW4; Uqcrc1|Q9CZ13; Mrpl55|Q9CZ83; Sdhc|Q9CZB0; Mtif3|Q9CZD5; Shmt2|Q9CZN7; Bcs1l|Q9CZP5; Tomm40l|Q9CZR3; Tsfm|Q9CZR8; Aldh1b1|Q9CZS1; Cs|Q9CZU6; Mpc2|Q9D023; Pdhb|Q9D051; Mtpap|Q9D0D3; Mrps30|Q9D0G0; Oxct1|Q9D0K2; Adck1|Q9D0L4; Cyc1|Q9D0M3; Mrpl45|Q9D0Q7; Hint2|Q9D0S9; Gatd3a|Q9D172; Mrpl28|Q9D1B9; Ndufaf4|Q9D1H6; Mcee|Q9D1I5; Mrpl14|Q9D1I6; Chchd2|Q9D1L0; Mrpl13|Q9D1P0; Dlst|Q9D2G2; Mrps33|Q9D2R8; Mrpl19|Q9D338; Atp5d|Q9D3D9; Plgrkt|Q9D3P8; Oxsm|Q9D404; Dlgap1|Q9D415; Ndufb8|Q9D6J5; Ndufv2|Q9D6J6; Slc25a22|Q9D6M3; Idh3a|Q9D6R2; Mrrf|Q9D6S7; Fam162a|Q9D6U8; Mrpl2|Q9D773; Mtfmt|Q9D799; Acad8|Q9D7B6; Mrps9|Q9D7N3; Iscu|Q9D7P6; Naaa|Q9D7V9; Uqcrb|Q9D855; Timm50|Q9D880; Rexo2|Q9D8S4; Slirp|Q9D8T7; Ociad2|Q9D8W7; Isca1|Q9D924; Tmem160|Q9D938; Gatm|Q9D964; Trmu|Q9DAT5; Smdt1|Q9DB10; Atp5o|Q9DB20; Prxl2b|Q9DB60; Uqcrc2|Q9DB77; Acadsb|Q9DBL1; Coasy|Q9DBL7; Pmpca|Q9DC61; Ndufa9|Q9DC69; Ndufs7|Q9DC70; Mrps15|Q9DC71; Mrps11|Q9DCA2; Isca2|Q9DCB8; Ndufa8|Q9DCJ5; Ethe1|Q9DCM0; Mecr|Q9DCS3; Ndufb10|Q9DCS9; Ndufs3|Q9DCT2; Mrpl4|Q9DCU6; Rmdn1|Q9DCV4; Etfb|Q9DCW4; Atp5h|Q9DCX2; Apoo|Q9DCZ4; Lactb|Q9EP89; Aldh6a1|Q9EQ20; Rapgef4|Q9EQZ6; Dap3|Q9ER88; Ndufa13|Q9ERS2; Agk|Q9ESW4; Ivd|Q9JHI5; Clpx|Q9JHS4; Mrps34|Q9JIK9; Htra2|Q9JIY5; Lancl2|Q9JJK2; Sars2|Q9JJL8; Cacng3|Q9JJV5; Pdk2|Q9JK42; Mrpl39|Q9JKF7; Ndufaf3|Q9JKL4; Txnrd2|Q9JLT4; Auh|Q9JLZ3; Srcin1|Q9QWI6; Homer2|Q9QWW1; Dguok|Q9QX60; Acot2|Q9QYR9; Pclo|Q9QYX7; Nfu1|Q9QZ23; Slc25a10|Q9QZD8; Ecsit|Q9QZH6; Tk2|Q9R088; Acot9|Q9R0X4; Sqor|Q9R112; Ak3|Q9WTP7; Timm23|Q9WTQ8; Suclg1|Q9WUM5; Eci2|Q9WUR2; Ak4|Q9WUR9; Timm10b|Q9WV96; Timm9|Q9WV98; Timm8a1|Q9WVA2; Slc25a15|Q9WVD5; Gstz1|Q9WVL0; Aifm1|Q9Z0X1; Aldh18a1|Q9Z110; Nfs1|Q9Z1J3; Ndufa7|Q9Z1P6; Letm1|Q9Z2I0; Suclg2|Q9Z2I8; Sucla2|Q9Z2I9; Mrpl40|Q9Z2Q5; Slc25a20|Q9Z2Z6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Man1b1|A2AJ15; Klhdc7a|A2APT9; Akap1|O08715; Cnih2|O35089; Myadm|O35682; Rab33b|O35963; Car11|O70354; Chmp6|P0C0A3; Gria2|P23819; Mgat1|P27808; Casp1|P29452; Ppic|P30412; Rab12|P35283; Rab24|P35290; Man1a2|P39098; Acsl1|P41216; Rpia|P47968; Atp6v0d1|P51863; Anks1|P59672; Plp1|P60202; Rab10|P61027; Olfm3|P63056; Kcnab1|P63143; Abcc9|P70170; Kcnab3|P97382; Ddr1|Q03146; Pros1|Q08761; Marchf5|Q3KNM2; Rmdn3|Q3UJU9; Miga1|Q4QQM5; Antkmt|Q501J2; Stxbp5l|Q5DQR4; Mief2|Q5NCS9; Cldn11|Q60771; Bad|Q61337; Gpam|Q61586; Slc29a2|Q61672; Rab34|Q64008; Maoa|Q64133; Dbh|Q64237; Bcl2l1|Q64373; Rab35|Q6PHN9; Abhd17b|Q7M759; Snph|Q80U23; Tdrkh|Q80VL1; Lrrc1|Q80VQ1; Mfn1|Q811U4; Zfp365|Q8BG89; Slc35d3|Q8BGF8; Fbxl2|Q8BH16; Sybu|Q8BHS8; Mal2|Q8BI08; Comtd1|Q8BIG7; Mblac2|Q8BL86; Flrt2|Q8BLU0; Aifm2|Q8BUE4; Maob|Q8BW75; Lrrtm3|Q8BZ81; Gbp5|Q8CFB4; Rab15|Q8K386; Rnasek|Q8K3C0; Bmerb1|Q8R1Y2; Mavs|Q8VCF0; Angel1|Q8VCU0; Abhd17c|Q8VCV1; Sft2d2|Q8VD57; Tmem267|Q8VDR5; Exd2|Q8VEG4; Cspg4|Q8VHY0; Znrf1|Q91V17; Snx4|Q91YJ2; Syt17|Q920M7; Mtarc2|Q922Q1; Rab30|Q923S9; Dhrs7b|Q99J47; Rab27b|Q99P58; Fis1|Q9CQ92; Rab5a|Q9CQD1; Cyb5b|Q9CQX2; Msmo1|Q9CRA4; Agpat5|Q9D1E8; Lamp5|Q9D387; Atad1|Q9D5T0; Fundc2|Q9D6K8; Zfpl1|Q9DB43; Pllp|Q9DCU2; Arfgap1|Q9EPJ9; Rab27a|Q9ERI2; Rdh14|Q9ERI6; Golga5|Q9QYE6; Dnajb2|Q9QYI5; Tagln3|Q9R1Q8; Bnip3l|Q9Z2F7; Htatip2|Q9Z2G9; Gria4|Q9Z2W8; Gria3|Q9Z2W9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sec14l1|A8Y5H7; Wdfy1|E9Q4P1; Sh3yl1|O08641; Mab21l1|O70299; Myo5b|P21271; Syt2|P46097; Vps33b|P59016; Lzts1|P60853; Atp8a1|P70704; Ext1|P97464; Tep1|P97499; Btrc|Q3ULA2; Jakmip3|Q5DTN8; Ankrd13b|Q5F259; Abca13|Q5SSE9; Fstl4|Q5STE3; Vamp1|Q62442; Gdpd5|Q640M6; Sv2c|Q69ZS6; Armcx2|Q6A058; Tspoap1|Q7TNF8; Rusc2|Q80U22; Ap4e1|Q80V94; Rusc1|Q8BG26; Clvs2|Q8BG92; Vipas39|Q8BGQ1; Napepld|Q8BH82; Slc6a17|Q8BJI1; Slc17a6|Q8BLE7; Zfp385b|Q8BXJ8; Tmem163|Q8C996; Ccdc186|Q8C9S4; Klhl20|Q8VCK5; Mtmr6|Q8VE11; Thoc3|Q8VE80; Bloc1s4|Q8VED2; Hdac11|Q91WA3; Hint3|Q9CPS6; Trappc2|Q9CQP2; Llph|Q9D945; Senp3|Q9EP97; Snap29|Q9ERB0; Scamp5|Q9JKD3; Rab37|Q9JKM7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ttc39a|A2ACP1; Syngr1|O55100; Klc2|O88448; Atp6v1a|P50516; Atp6v1e1|P50518; Atp6v1b2|P62814; Atp6v0c|P63082; Nfix|P70257; Slc30a3|P97441; Rogdi|Q3TDK6; Slc17a7|Q3TXX4; Ccdc177|Q3UHB8; Trim41|Q5NCC3; Ppp2r5e|Q61151; Syp|Q62277; Sh3gl1|Q62419; Map3k10|Q66L42; Hs3st2|Q673U1; Dgkq|Q6P5E8; Tnks|Q6PFX9; Slc6a7|Q6PGE7; Ddn|Q80TS7; Avl9|Q80U56; Sdad1|Q80UZ2; Sv2b|Q8BG39; Med12l|Q8BQM9; 2900026A02Rik|Q8BRV5; Atp6v1h|Q8BVE3; Slc7a14|Q8BXR1; N4bp3|Q8C7U1; Phf20l1|Q8CCJ9; Smc4|Q8CG47; Syn3|Q8JZP2; Syngr3|Q8R191; Med17|Q8VCD5; Abhd4|Q8VD66; Syt12|Q920N7; Mzt2|Q9CQ25; Snx7|Q9CY18; Ttpal|Q9D3D0; Tprgl|Q9DBS2; Sphk2|Q9JIA7; Sv2a|Q9JIS5; Epb41l4b|Q9JMC8; Neu2|Q9JMH3; Ap4b1|Q9WV76; Ap4s1|Q9WVL1; Atp6v1c1|Q9Z1G3; Atp6v0a1|Q9Z1G4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exoc6b|A6H5Z3; Ptprs|B0V2N1; Pi4ka|E9Q3L2; S1pr1|O08530; Exoc7|O35250; Rgs7|O54829; Cask|O70589; Slc4a4|O88343; Mpp3|O88910; Lin7c|O88952; Atp1b2|P14231; Dao|P18894; Gja1|P23242; Slc6a11|P31650; Slc1a2|P43006; Plcb3|P51432; Cd38|P56528; Slc1a3|P56564; Mdga2|P60755; Ntsr2|P70310; Gjb6|P70689; Sirpa|P97797; Kcnb1|Q03717; Prex2|Q3LAC4; Exoc5|Q3TPX4; Kctd8|Q50H33; Kctd16|Q5DTY9; Cnrip1|Q5M8N0; Flot2|Q60634; Slc6a3|Q61327; Cntn2|Q61330; Exoc8|Q6PGF7; Atp1a2|Q6PIE5; Sdk2|Q6V4S5; Ahcyl1|Q80SW1; Baiap3|Q80TT2; Fbxo2|Q80UW2; Negr1|Q80Z24; Slitrk5|Q810B7; Nfasc|Q810U3; Dlg1|Q811D0; Cpne4|Q8BLR2; Aida|Q8C4Q6; Septin10|Q8C650; Nhsl1|Q8CAF4; Lin7a|Q8JZS0; Manba|Q8K2I4; Plcd1|Q8R3B1; Cadm4|Q8R464; Mlc1|Q8VHK5; Slc14a1|Q8VHL0; Snx18|Q91ZR2; Brinp1|Q920P3; Plpp3|Q99JY8; Nectin1|Q9JKF6; Fmnl1|Q9JL26; Mpp6|Q9JLB0; Cdc42ep4|Q9JM96; Plcb1|Q9Z1B3; Fxyd1|Q9Z239; Slc22a4|Q9Z306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smurf2|A2A5Z6; Sh3pxd2b|A2AAY5; Dennd4c|A6H8H2; Vwa5b1|A9Z1V5; Dlgap4|B1AZP2; Shank1|D3YZU1; Ccdc8|D3YZV8; Abl1|P00520; Cbr2|P08074; H2ax|P27661; Kif5c|P28738; Ppfia3|P60469; Cep76|Q0VEJ0; Mettl17|Q3U2U7; Wnk2|Q3UH66; Insyn2a|Q3USH1; Iqsec2|Q5DU25; C2cd4c|Q5HZI2; Arhgap44|Q5SSM3; Radil|Q69Z89; Fgd6|Q69ZL1; Trak1|Q6PD31; Dlgap3|Q6PFD5; Taok2|Q6ZQ29; Fsd1|Q7TPM6; Epg5|Q80TA9; Whrn|Q80VW5; Pip4k2b|Q80XI4; Prickle2|Q80Y24; Actbl2|Q8BFZ3; Polrmt|Q8BKF1; Baiap2|Q8BKX1; Timmdc1|Q8BUY5; Lrch3|Q8BVU0; Arhgef33|Q8BW86; Vps13c|Q8BX70; Bcas3|Q8CCN5; Gtpbp10|Q8K013; Samd14|Q8K070; Otud7a|Q8R554; Mapk8|Q91Y86; Atg13|Q91YI1; Nln|Q91YP2; D230025D16Rik|Q922R1; Ophn1|Q99J31; Nmnat3|Q99JR6; Erc1|Q99MI1; Rims1|Q99NE5; Nsmf|Q99NF2; Rb1cc1|Q9ESK9; Macf1|Q9QXZ0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mthfd2l|D3YZG8; Syngap1|F6SEU4; Exoc4|O35382; Pde4a|O89084; Pde11a|P0C1Q2; Sptan1|P16546; Dnm1|P39053; Tjp1|P39447; Epb41|P48193; Hmgcs2|P54869; Mrps6|P58064; Dlg3|P70175; Smad4|P97471; Pla2g6|P97819; Pde4d|Q01063; Ank1|Q02357; Chat|Q03059; Cblb|Q3TTA7; Dhrs11|Q3U0B3; Prickle1|Q3U5C7; Arhgap17|Q3UIA2; Plekha7|Q3UIL6; Gpd1l|Q3ULJ0; Eml6|Q5SQM0; Wwc1|Q5SXA9; Traf3|Q60803; Sptbn1|Q62261; Arhgap21|Q6DFV3; Exoc3|Q6KAR6; Nwd2|Q6P5U7; Syne1|Q6ZWR6; Tln2|Q71LX4; Tppp|Q7TQD2; Amph|Q7TQF7; Cyld|Q80TQ2; Madd|Q80U28; Ddhd1|Q80YA3; Arhgap33|Q80YF9; Lrsam1|Q80ZI6; Zfyve1|Q810J8; Dtd2|Q8BHA3; Anks1b|Q8BIZ1; Spata2l|Q8BNN1; Fam163b|Q8BUM6; Iffo1|Q8BXL9; Arhgap25|Q8BYW1; Ston2|Q8BZ60; Ank2|Q8C8R3; Wdr47|Q8CGF6; Ogt|Q8CGY8; Plcl2|Q8K394; Ablim1|Q8K4G5; Cacnb4|Q8R0S4; Exoc1|Q8R3S6; Arhgef12|Q8R4H2; Sgip1|Q8VD37; Amot|Q8VHG2; Dlg2|Q91XM9; Grip1|Q925T6; Mrpl44|Q9CY73; Exoc2|Q9D4H1; Klc4|Q9DBS5; Fbxo3|Q9DC63; Ndel1|Q9ERR1; Mapk8ip3|Q9ESN9; Add3|Q9QYB5; Homer1|Q9Z2Y3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setx|A2AKX3; Nhsl2|B1AXH1; Akap13|E9Q394; Numa1|E9Q7G0; Srpk2|O54781; Shoc2|O88520; Ercc1|P07903; Map1b|P14873; Sars|P26638; Ftl1|P29391; Matk|P41242; Eef2|P58252; Inpp5j|P59644; Tpt1|P63028; Pip5k1a|P70182; Pdap1|Q3UHX2; Parp3|Q3ULW8; Peg3|Q3URU2; Cdv3|Q4VAA2; Deptor|Q570Y9; Tsr1|Q5SWD9; Specc1|Q5SXY1; Plekhg5|Q66T02; Ltn1|Q6A009; Dgkb|Q6NS52; Mapkbp1|Q6NS57; Abcf1|Q6P542; Dync1li2|Q6PDL0; Mob4|Q6PEB6; Ccdc25|Q78PG9; Ccnt2|Q7TQK0; Ckap2l|Q7TS74; Wdr82|Q8BFQ4; Nelfa|Q8BG30; Eif4b|Q8BGD9; Map4k5|Q8BPM2; Tyw3|Q8BSA9; Dip2a|Q8BWT5; Tbc1d4|Q8BYJ6; Nelfb|Q8C4Y3; Strip2|Q8C9H6; Dcun1d4|Q8CCA0; Riox2|Q8CD15; Rcor1|Q8CFE3; Cwf19l1|Q8CI33; Cdk17|Q8K0D0; Usp45|Q8K387; Gtf3c5|Q8R2T8; Macir|Q8VEB3; Map1lc3a|Q91VR7; Yars|Q91WQ3; Wasl|Q91YD9; Abcf2|Q99LE6; Hspa14|Q99M31; Brap|Q99MP8; Cep41|Q99NF3; Trp53rkb|Q99PW4; Pno1|Q9CPS7; Zmym2|Q9CU65; Mdm1|Q9D067; Zfp706|Q9D115; Necap2|Q9D1J1; Rpap3|Q9D706; Pold3|Q9EQ28; Wdr61|Q9ERF3; Trim2|Q9ESN6; Trpc4ap|Q9JLV2; Map1a|Q9QYR6; Eif2ak4|Q9QZ05; Ercc4|Q9QZD4; Rnf25|Q9QZR0; Syt6|Q9R0N8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tprn|A2AI08; Agrn|A2ASQ1; Dennd5b|A2RSQ0; Rrn3|B2RS91; Sec16a|E9QAT4; Aox3|G3X982; Hap1|O35668; Dffa|O54786; Bysl|O54825; Pde6d|O55057; Impact|O55091; Supt5|O55201; Fhl2|O70433; C3|P01027; Ighg2b|P01867; Nefl|P08551; Nefm|P08553; Fth1|P09528; Tcea1|P10711; Rps16|P14131; Rpsa|P14206; Gstm2|P15626; Nefh|P19246; Ubl4a|P21126; Xrcc6|P23475; Cdk11b|P24788; Rps2|P25444; Atxn10|P28658; Mug1|P28665; Aimp1|P31230; Msh2|P43247; Rangap1|P46061; Srp9|P49962; Pon1|P52430; Pold1|P52431; Polr1c|P52432; Msh6|P54276; Ncan|P55066; Arpp19|P56212; Gmeb2|P58929; Eif5|P59325; Rps20|P60867; Psme3|P61290; Dcaf7|P61963; Rps8|P62242; Ube2h|P62257; Rps14|P62264; Rps23|P62267; Rps29|P62274; Rps11|P62281; Rps4x|P62702; Rps6|P62754; Rps15|P62843; Rps24|P62849; Rps28|P62858; Rps3|P62908; Dnaja1|P63037; Ppp1cc|P63087; Rps17|P63276; Rps10|P63325; Prkacb|P68181; Ufd1|P70362; Vasp|P70460; Serping1|P97290; Polr1d|P97304; Mcm2|P97310; Rps3a1|P97351; Rps5|P97461; Ppp4c|P97470; Polr2c|P97760; Anp32e|P97822; Xdh|Q00519; Rsu1|Q01730; Eml1|Q05BC3; Larp7|Q05CL8; Ssrp1|Q08943; Gtf2f1|Q3THK3; Trmt1|Q3TX08; Ogfod1|Q3U0K8; Map3k9|Q3U1V8; Fam160a2|Q3U2I3; Spg11|Q3UHA3; Dop1b|Q3UHQ6; Cog7|Q3UM29; Iqgap2|Q3UQ44; Ddx46|Q569Z5; Kctd1|Q5M956; Ctc1|Q5SUQ9; Pfas|Q5SUR0; Samhd1|Q60710; Reln|Q60841; Caprin1|Q60865; Papss1|Q60967; Hars|Q61035; Cbx5|Q61686; Itih1|Q61702; Itih3|Q61704; Pdcd4|Q61823; Pzp|Q61838; Ctr9|Q62018; Map3k7|Q62073; Sin3b|Q62141; Aldh1a2|Q62148; Supt6|Q62383; Tfe3|Q64092; Isg15|Q64339; Fkbp5|Q64378; Eif3j2|Q66JS6; Sbno1|Q689Z5; Crtc1|Q68ED7; Mars1|Q68FL6; A2m|Q6GQT1; Helb|Q6NVF4; Ppp4r3a|Q6P2K6; Naa50|Q6PGB6; Ddx58|Q6Q899; Klhl9|Q6ZPT1; Kdm1a|Q6ZQ88; Usp34|Q6ZQ93; Rps9|Q6ZWN5; Akap9|Q70FJ1; Fbxo22|Q78JE5; Arhgef4|Q7TNR9; Nsun6|Q7TS68; Ctdp1|Q7TSG2; Plekhm1|Q7TSI1; Atf7ip|Q7TT18; Dcaf5|Q80T85; Mon2|Q80TL7; Ubr5|Q80TP3; Dcaf1|Q80TR8; Pja2|Q80U04; Arhgef17|Q80U35; Nup214|Q80U93; Naa15|Q80UM3; Polr2e|Q80UW8; Pde4dip|Q80YT7; Rbm11|Q80YT9; Wdtc1|Q80ZK9; Rnaseh2b|Q80ZV0; Htatsf1|Q8BGC0; Ublcp1|Q8BGR9; F13a1|Q8BH61; Sephs1|Q8BH69; Tbl1xr1|Q8BHJ5; Gcfc2|Q8BKT3; Dop1a|Q8BL99; Tarsl2|Q8BLY2; Srp68|Q8BMA6; Cdadc1|Q8BMD5; Fbxo38|Q8BMI0; Lars|Q8BMJ2; Qars|Q8BML9; Tcaf1|Q8BNE1; Mob1b|Q8BPB0; Heatr3|Q8BQM4; Ubr7|Q8BU04; Iars|Q8BU30; Plekha1|Q8BUL6; Bmt2|Q8BXK4; Cog5|Q8C0L8; Rapgef5|Q8C0Q9; Prepl|Q8C167; Klhl11|Q8CE33; Eprs|Q8CGC7; Pym1|Q8CHP5; Pdlim5|Q8CI51; Commd10|Q8JZY2; Ipo13|Q8K0C1; Lrrc41|Q8K1C9; Mtmr3|Q8K296; Stn1|Q8K2X3; Mepce|Q8K3A9; Ahsa2|Q8N9S3; Flcn|Q8QZS3; Tprkb|Q8QZZ7; Aimp2|Q8R010; Cog4|Q8R1U1; Nupl1|Q8R332; Tut1|Q8R3F9; Cluap1|Q8R3P7; Nup85|Q8R480; Ifih1|Q8R5F7; Pdcd10|Q8VE70; Rpa1|Q8VEE4; Rem2|Q8VEL9; Csde1|Q91W50; Gne|Q91WG8; Mtmr4|Q91XS1; Wrnip1|Q91XU0; Egln1|Q91YE3; Supt16|Q920B9; Cog2|Q921L5; Dars|Q922B2; Xpo5|Q924C1; Xpo6|Q924Z6; Mvd|Q99JF5; Unc45a|Q99KD5; Ttc5|Q99LG4; Cttnbp2nl|Q99LJ0; Kars|Q99MN1; Actl6b|Q99MR0; Pard3|Q99NH2; Rwdd4a|Q9CPR1; 2610002M06Rik|Q9CQD4; Rps21|Q9CQR2; Atg12|Q9CQY1; Rchy1|Q9CR50; Bccip|Q9CWI3; Smyd3|Q9CWR2; Ppil4|Q9CXG3; Cacybp|Q9CXW3; Mmachc|Q9CZD0; Rps19|Q9CZX8; Rars|Q9D0I9; Ift27|Q9D0P8; Maf1|Q9D0U6; Eef1e1|Q9D1M4; Armc9|Q9D2I5; Aacs|Q9D2R0; Aar2|Q9D2V5; Polr3c|Q9D483; Ttc33|Q9D6K7; Srp19|Q9D7A6; Cutc|Q9D8X1; Dda1|Q9D9Z5; Cmtr1|Q9DBC3; Ppp1r12a|Q9DBR7; Ccdc97|Q9DBT3; Telo2|Q9DC40; Plekha2|Q9ERS5; Anp32b|Q9EST5; Tssc4|Q9JHE7; Slc9a3r2|Q9JHL1; Lztfl1|Q9JHQ5; Prmt1|Q9JIF0; Copb1|Q9JIF7; Cog8|Q9JJA2; Iqgap1|Q9JKF1; Sart3|Q9JLI8; Bag3|Q9JLV1; Hapln1|Q9QUP5; Cyhr1|Q9QXA1; Naa10|Q9QY36; Dnajc7|Q9QYI3; Copg1|Q9QZE5; Tsnax|Q9QZE7; Sorbs3|Q9R1Z8; Stub1|Q9WUD1; Dctn3|Q9Z0Y1; Cog1|Q9Z160; Bag6|Q9Z1R2; Thbs4|Q9Z1T2; Strap|Q9Z1Z2; Ube2a|Q9Z255; Hdac5|Q9Z2V6; Stk25|Q9Z2W1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pdzd8|B9EJ80; Slc35g2|D3YVE8; Mctp1|E9PV86; Ryr1|E9PZQ0; C2cd2|E9Q3C1; Ryr2|E9Q401; Bdnf|P21237; Rab18|P35293; Atp9b|P98195; Asphd1|Q2TA57; Zfyve27|Q3TXX3; Esyt2|Q3TZZ7; Dcp1b|Q3U564; Esyt1|Q3U7R1; Prrc1|Q3UPH1; Snx25|Q3ZT31; Map3k12|Q60700; Reep5|Q60870; Mcf2l|Q64096; H2ac20|Q64523; Atg9a|Q68FE2; Gba2|Q69ZF3; Tmcc1|Q69ZZ6; Cyp4x1|Q6A152; Retreg2|Q6NS82; G6pc3|Q6NSQ9; Snx19|Q6P4T1; Snx6|Q6P8X1; Sgsm2|Q80U12; Asphd2|Q80VP9; Tmcc2|Q80W04; Tbc1d5|Q80XQ2; Snx32|Q80ZJ7; Pcyt1b|Q811Q9; Reep1|Q8BGH4; Nipal3|Q8BGN5; Atl1|Q8BH66; Snx14|Q8BHY8; Ldah|Q8BVA5; Gpat3|Q8C0N2; Endod1|Q8C522; Inpp5k|Q8C5L6; Usp20|Q8C6M1; Gramd4|Q8CB44; Cyp2d26|Q8CIM7; Acsl5|Q8JZR0; Meak7|Q8K0P3; Rtn1|Q8K0T0; Sde2|Q8K1J5; Gpat4|Q8K2C8; Casc3|Q8K3W3; Arl6ip5|Q8R5J9; Ccdc9|Q8VC31; Ndc1|Q8VCB1; Reep2|Q8VCD6; Rcc1|Q8VE37; Daglb|Q91WC9; Bag2|Q91YN9; Fyttd1|Q91Z49; Tmem189|Q99LQ7; Rtn4|Q99P72; Retreg3|Q9CQV4; Tmem167|Q9CR64; Fgfr1op2|Q9CRA9; Snx2|Q9CWK8; Yif1b|Q9CX30; Stx17|Q9D0I4; H2bu2|Q9D2U9; Fam241b|Q9D882; Tbc1d20|Q9D9I4; Rtn3|Q9ES97; Ppp1r3f|Q9JIG4; Praf2|Q9JIG8; Arl6ip1|Q9JKW0; Reep6|Q9JM62; Snx1|Q9WV80; D17H6S53E|Q9Z1R4; Fkbp1b|Q9Z2I2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las1l|A2BE28; Arhgap31|A6X8Z5; Nfx1|B1AY10; Ythdc2|B2RR83; Zcchc24|B2RVL6; Tut4|B2RX14; Trappc11|B2RXC1; Gcn1|E9PVA8; Zbtb11|G5E8B9; Cpsf2|O35218; Lsm2|O35900; Dnajb6|O54946; Strn|O55106; Cbx4|O55187; Ttc3|O88196; Hc|P06684; Rc3h2|P0C090; Mov10|P23249; Ighmbp2|P40694; Crebbp|P45481; Ercc3|P49135; Nek1|P51954; Cebpz|P53569; Lipe|P54310; Exosc10|P56960; Pcbp4|P57724; Abce1|P61222; Lmo4|P61969; Snrpe|P62305; Snrpd1|P62315; Eif4e|P63073; Sumo1|P63166; Rpl22|P67984; Nfic|P70255; Surf6|P70279; Prkdc|P97313; Frg1|P97376; Smarcc1|P97496; Rp9|P97762; Smn1|P97801; Mex3c|Q05A36; Bzw2|Q2L4X1; Trappc13|Q3TIR1; Alkbh5|Q3TSG4; Nol9|Q3TZX8; Rnf40|Q3U319; Tnrc6c|Q3UHC0; Mtcl1|Q3UHU5; Dtx3l|Q3UIR3; Tex10|Q3URQ0; Sfswap|Q3USH5; Rnpc3|Q3UZ01; Pds5b|Q4VA53; Rc3h1|Q4VGL6; Tut7|Q5BLK4; Usp22|Q5DU02; Unkl|Q5FWH2; Rbm27|Q5SFM8; Cluh|Q5SW19; Cnot7|Q60809; Eif1a|Q60872; Zfp638|Q61464; Smarcd1|Q61466; Msi1|Q61474; Utp14a|Q640M1; Tent4b|Q68ED3; Pnkd|Q69ZP3; Pds5a|Q6A026; Fam120a|Q6A0A9; Nop58|Q6DFW4; Soga3|Q6NZL0; Ints1|Q6P4S8; Rexo4|Q6PAQ4; Bhlhb9|Q6PB60; Cnot1|Q6ZQ08; Wdr43|Q6ZQL4; Cpeb4|Q7TN98; Fbxo11|Q7TPD1; Dzip3|Q7TPV2; Mybbp1a|Q7TPV4; Tspyl2|Q7TQI8; Clasp1|Q80TV8; Rab3gap1|Q80UJ7; Vac14|Q80WQ2; Dapk1|Q80YE7; Med23|Q80YQ2; Trrap|Q80YV3; Pcid2|Q8BFV2; Vxn|Q8BG31; Krr1|Q8BGA5; Cnot10|Q8BH15; Gemin8|Q8BHE1; Txlng|Q8BHN1; 1110051M20Rik|Q8BHR8; Tnrc6b|Q8BKI2; Smg1|Q8BKX6; Unk|Q8BL48; Nop9|Q8BMC4; Rab3gap2|Q8BMG7; Mical2|Q8BML1; Exosc6|Q8BTW3; Anapc5|Q8BTZ4; Jakmip1|Q8BVL9; Gemin5|Q8BX17; Zc3h6|Q8BYK8; Parp12|Q8BZ20; Fam120c|Q8C3F2; Utp15|Q8C7V3; Eloa|Q8CB77; Samd4|Q8CBY1; Smc5|Q8CG46; Fam193a|Q8CGI1; Flywch1|Q8CI03; Ago3|Q8CJF9; Ago1|Q8CJG1; Pnma3|Q8JZW8; Snapc1|Q8K0S9; Cnot3|Q8K0V4; Trappc12|Q8K2L8; Ddx18|Q8K363; Irf2bpl|Q8K3X4; Exosc2|Q8VBV3; Smg8|Q8VE18; Cnot6l|Q8VEG6; Dhx36|Q8VHK9; Ttll1|Q91V51; Ddx41|Q91VN6; Fig4|Q91WF7; Spats2l|Q91WJ7; Sh3d19|Q91X43; Lrrc49|Q91YK0; Sh3bp4|Q921I6; Fam76a|Q922G2; Nop2|Q922K7; Kctd10|Q922M3; Med15|Q924H2; Mlf2|Q99KX1; Zfp318|Q99PP2; Bap1|Q99PU7; Dhx30|Q99PU8; Nkiras2|Q9CR56; Nhp2|Q9CRB2; Dis3|Q9CSH3; Smc1a|Q9CU62; Cnot11|Q9CWN7; Ints11|Q9CWS4; Rbm33|Q9CXK9; Bud23|Q9CY21; Sesn3|Q9CYP7; Toe1|Q9D2E2; Clvs1|Q9D4C9; Exosc8|Q9D753; Dnajb4|Q9D832; Ppih|Q9D868; Rpl7l1|Q9D8M4; Hcfc2|Q9D968; Exosc1|Q9DAA6; Smg9|Q9DB90; Pelp1|Q9DBD5; Ftsj3|Q9DBE9; Akap8|Q9DBR0; Brix1|Q9DCA5; Nmnat1|Q9EPA7; Upf1|Q9EPU0; Wtap|Q9ER69; Mkrn2|Q9ERV1; Dkc1|Q9ESX5; Gtf2h2|Q9JIB4; Rpf2|Q9JJ80; Riox1|Q9JJF3; Rcl1|Q9JJT0; Ddx20|Q9JJY4; Cnot9|Q9JKY0; Trappc2l|Q9JME7; Cpsf3|Q9QXK7; Prkra|Q9WTX2; Ncor2|Q9WU42; Stau1|Q9Z108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhx8|A2A4P0; Camta1|A2A891; Virma|A2AIV2; Map7d1|A2AJI0; Ppig|A2AR02; Rsrc2|A2RTL5; Rbm25|B2RY56; Nolc1|E9Q5C9; Ythdc1|E9Q5K9; Zc3h13|E9Q784; Rnf169|E9Q7F2; Tcof1|O08784; Rpl21|O09167; Terf2|O35144; Hmgb3|O54879; Rpl35a|O55142; Rngtt|O55236; Eif3d|O70194; Eef1b2|O70251; Cript|O70333; Srpk1|O70551; Map7|O88735; Rbm3|O89086; Ighm|P01872; Eif4a2|P10630; Cfp|P11680; Rpl7a|P12970; Dnmt1|P13864; Rpl27a|P14115; Rpl7|P14148; Rplp0|P14869; Rpl13a|P19253; Eif3a|P23116; Snrpb|P27048; Rpl3|P27659; Vtn|P29788; Hmgb2|P30681; Ssb|P32067; Fbl|P35550; Rpl12|P35979; Rpl18|P35980; Col18a1|P39061; Rpl28|P41105; Rpl6|P47911; Rpl29|P47915; Rplp1|P47955; Rpl5|P47962; Rpl13|P47963; Rpl36|P47964; Sox2|P48432; Pa2g4|P50580; Rpl9|P51410; Usp10|P52479; Rpl10a|P53026; Eef1d|P57776; Snrpa1|P57784; Paxbp1|P58501; Ythdf1|P59326; Eif3e|P60229; Cirbp|P60824; Rpl26|P61255; Rpl27|P61358; Rpl37a|P61514; Rps7|P62082; Snrpf|P62307; Snrpg|P62309; Lsm6|P62313; Snrpd2|P62317; Snrpd3|P62320; Rpl18a|P62717; Rpl23a|P62751; Rpl23|P62830; Fau|P62862; Rpl30|P62889; Rpl31|P62900; Rpl32|P62911; Rpl8|P62918; Uba52|P62984; Tra2b|P62996; Rps12|P63323; Hnrnph2|P70333; Rad50|P70388; Phf5a|P83870; Rpl36a|P83882; Erh|P84089; Rpl19|P84099; Srsf3|P84104; G3bp2|P97379; Myo7a|P97479; Nfib|P97863; Rplp2|P99027; C1qc|Q02105; Eif2ak2|Q03963; Eif5b|Q05D44; Usp39|Q3TIX9; Fam98a|Q3TJZ6; Puf60|Q3UEB3; Nom1|Q3UFM5; Usp19|Q3UJD6; Arglu1|Q3UL36; Selenoh|Q3UQA7; Ncbp1|Q3UYV9; Srrm1|Q52KI8; Thrap3|Q569Z6; Gpkow|Q56A08; Zfyve26|Q5DU37; Nsrp1|Q5NCR9; Luc7l3|Q5SUF2; Wbp4|Q61048; Spin1|Q61142; Papola|Q61183; Ddx5|Q61656; Npm1|Q61937; Ddx3x|Q62167; Sf3a2|Q62203; Fkbp3|Q62446; Cavin2|Q63918; Btf3|Q64152; Zrsr1|Q64707; Rbm12b2|Q66JV4; Tspyl5|Q69ZB3; Isy1|Q69ZQ2; Secisbp2l|Q6A098; Larp4b|Q6A0A2; Cpsf6|Q6NVF9; Rprd2|Q6NXI6; Dnajc8|Q6NZB0; Scube1|Q6NZL8; Txlna|Q6PAM1; Klhdc10|Q6PAR0; Srsf1|Q6PDM2; Tra2a|Q6PFR5; Gigyf2|Q6Y7W8; Lsm8|Q6ZWM4; Rps27|Q6ZWU9; Rpl10|Q6ZWV3; Gm2000|Q6ZWV7; Eif2s1|Q6ZWX6; Synm|Q70IV5; Luc7l2|Q7TNC4; Ccp110|Q7TSH4; Scaf4|Q7TSH6; Prpf38b|Q80SY5; Rsbn1|Q80T69; Fam98b|Q80VD1; Hapln4|Q80WM4; Srrm3|Q80WV7; Ubap2l|Q80X50; Nrde2|Q80XC6; Samd4b|Q80XS6; Ddx42|Q810A7; Cwf19l2|Q8BG79; Cdkn2aip|Q8BI72; Hook1|Q8BIL5; Snip1|Q8BIZ6; Smarcal1|Q8BJL0; Rcc2|Q8BK67; Srsf7|Q8BL97; Eif1ax|Q8BMJ3; Rpl24|Q8BP67; Utp25|Q8BTT6; Cdk19|Q8BWD8; Ythdf3|Q8BYK6; Lmo3|Q8BZL8; Srek1|Q8BZX4; Farsa|Q8C0C7; Tlk1|Q8C0V0; Dido1|Q8C9B9; Gatad2a|Q8CHY6; Ints4|Q8CIM8; Eif3b|Q8JZQ9; Bclaf1|Q8K019; Kin|Q8K339; Polb|Q8K409; Sf3a1|Q8K4Z5; Ccsap|Q8QZT2; Eif3l|Q8QZY1; Ilkap|Q8R0F6; Eif3c|Q8R1B4; D8Ertd738e|Q8R1F0; Ccdc59|Q8R2N0; Seh1l|Q8R2U0; Nepro|Q8R2U2; Tcf25|Q8R3L2; Rbm12|Q8R4X3; Fbxw7|Q8VBV4; Hdlbp|Q8VDJ3; Zgpat|Q8VDM1; Hnrnpul1|Q8VDM6; C330007P06Rik|Q8VDP2; Rbm4b|Q8VE92; Hnrnpu|Q8VEK3; Rbm39|Q8VH51; Recql5|Q8VID5; Ddx1|Q91VR5; Ubap2|Q91VX2; Rpp25|Q91WE3; Eif3h|Q91WK2; Rrp9|Q91WM3; Thyn1|Q91YJ3; Prpf6|Q91YR7; Ythdf2|Q91YT7; Vps16|Q920Q4; Hnrnpll|Q921F4; Sf3b3|Q921M3; Prpf3|Q922U1; Wac|Q924H7; Hnrnpab|Q99020; Psip1|Q99JF8; Eif3m|Q99JX4; Nxf1|Q99JX7; Rbm10|Q99KG3; Eif2s2|Q99L45; Rtcb|Q99LF4; Gnl2|Q99LH1; Srrt|Q99MR6; Sf3b1|Q99NB9; Ankrd17|Q99NH0; Rpl17|Q9CPR4; Nop16|Q9CPT5; Zmat2|Q9CPW7; Ncbp2|Q9CQ49; Bzw1|Q9CQC6; Rtraf|Q9CQE8; Nudt21|Q9CQF3; Mettl16|Q9CQG2; Ramac|Q9CQY2; Tma16|Q9CR02; Rpl14|Q9CR57; Cactin|Q9CS00; Prkrip1|Q9CWV6; Ddx47|Q9CWX9; Cenpv|Q9CXS4; Dcun1d5|Q9CXV9; Rpl11|Q9CXW4; Zcchc8|Q9CYA6; Luc7l|Q9CYI4; Zcrb1|Q9CZ96; Rpl15|Q9CZM2; Mtrex|Q9CZU3; Ssbp3|Q9D032; Mrto4|Q9D0I8; Snu13|Q9D0T1; Rita1|Q9D1H0; Rpl34|Q9D1R9; Phf6|Q9D4J7; Sf3a3|Q9D554; Nosip|Q9D6T0; Nop56|Q9D6Z1; Trir|Q9D735; Rpl22l1|Q9D7S7; Rpl37|Q9D823; Rpl4|Q9D8E6; Eef1g|Q9D8N0; Gtf2e2|Q9D902; 1810009A15Rik|Q9D937; Prpf4|Q9DAW6; Leng1|Q9DB98; Gpatch1|Q9DBM1; Xrn2|Q9DBR1; Eif3k|Q9DBZ5; Eif3f|Q9DCH4; Pes1|Q9EQ61; Zfp287|Q9EQB9; Cars|Q9ER72; Hrg|Q9ESB3; Aff4|Q9ESC8; Hapln2|Q9ESM3; Thap11|Q9JJD0; Grb14|Q9JLM9; Arl6ip4|Q9JM93; Zfp207|Q9JMD0; Edf1|Q9JMG1; Mageh1|Q9NWG9; Lsm4|Q9QXA5; Maged1|Q9QYH6; Eif3i|Q9QZD9; Morf4l2|Q9R0Q4; Srsf10|Q9R0U0; Prpf40a|Q9R1C7; Farsb|Q9WUA2; Fam50a|Q9WV03; Bub3|Q9WVA3; Eif2s3x|Q9Z0N1; Eif3g|Q9Z1D1; Vars|Q9Z1Q9; Hnrnpf|Q9Z2X1; Sart1|Q9Z315</t>
+  </si>
+  <si>
     <t xml:space="preserve">M26</t>
   </si>
   <si>
-    <t xml:space="preserve">Mutant-Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osbpl9|A2A8Z1; Ice1|E9Q286; Dsp|E9Q557; Myo1e|E9Q634; Myh11|O08638; Kifc2|O08672; Lhb|O09108; Col15a1|O35206; Cdk5r2|O35926; Prx|O55103; Pip4k2a|O70172; Hcn4|O70507; Avil|O88398; Cga|P01216; Cfb|P04186; Nr3c1|P06537; Gh|P06880; Prph|P15331; Mpz|P27573; Mt3|P28184; Dcn|P28654; Usp46|P62069; Cbx1|P83917; St3gal3|P97325; Cnn1|Q08091; Fam219b|Q14DQ1; A1bg|Q19LI2; Cpne9|Q1RLL3; Snx27|Q3UHD6; Washc4|Q3UMB9; Cdc42bpa|Q3UU96; Ankrd34b|Q3UUF8; Psd|Q5DTT2; Slc38a10|Q5I012; Ccdc88a|Q5SNZ0; Ogn|Q62000; Tsn|Q62348; Spen|Q62504; Patj|Q63ZW7; Pde1c|Q64338; Col11a2|Q64739; Fkbp15|Q6P9Q6; Ankrd13d|Q6PD24; Mylk|Q6PDN3; Washc2|Q6PGL7; Camk2n1|Q6QWF9; Fam102a|Q78T81; Cdc42bpb|Q7TT50; Ripor2|Q80U16; Col14a1|Q80X19; Usp6nl|Q80XC3; Stk17b|Q8BG48; Rufy1|Q8BIJ7; Tsen34|Q8BMZ5; Snx17|Q8BVL3; Etnppl|Q8BWU8; Pxk|Q8BX57; Rgs8|Q8BXT1; Neu4|Q8BZL1; Washc5|Q8C2E7; Rln3|Q8CHK2; Bag5|Q8CI32; Alkbh3|Q8K1E6; Mtss1|Q8R1S4; Spg20|Q8R1X6; Washc1|Q8VDD8; Acy3|Q91XE4; Rnf126|Q91YL2; Bicd2|Q921C5; Tinagl1|Q99JR5; Grk2|Q99MK8; Sytl2|Q99N50; Nup155|Q99P88; Rbm7|Q9CQT2; Washc3|Q9CR27; Wdr45b|Q9CR39; Tppp3|Q9CRB6; Wwp2|Q9DBH0; Chrnb2|Q9ERK7; Car7|Q9ERQ8; Palld|Q9ET54; Cbln3|Q9JHG0; Cd2ap|Q9JLQ0; Dbn1|Q9QXS6; Gyg|Q9R062; Tfeb|Q9R210; Phlda3|Q9WV95; Atg4c|Q811C2; Stbd1|Q8C7E7; Fcho1|Q8K285; Lgi3|Q8K406; Galnt11|Q921L8; Mfsd5|Q921Y4; Krt1|P04104; Mbp|P04370; Rab21|P35282; Vav2|Q60992; Zranb3|Q6NZP1; Slc18a2|Q8BRU6; Rcbtb2|Q99LJ7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakap|O54931; Snx12|O70493; Hsp90b1|P08113; Ace|P09470; Myo1b|P46735; Ndst1|Q3UHN9; Shh|Q62226; Sez6|Q7TSK2; Slc9a8|Q8R4D1; Pex13|Q9D0K1; Slc48a1|Q9D8M3; Tspan3|Q9QY33; Trpc3|Q9QZC1; Ece2|B2RQR8; Vsig10|D3YX43; Sypl|O09117; Kcnh2|O35219; Rnf13|O54965; Stmn3|O70166; Itgb5|O70309; Snx3|O70492; Lrp6|O88572; Cpd|O89001; Lmnb1|P14733; Atp6v0a2|P15920; Lmnb2|P21619; Acp2|P24638; Dpep1|P31428; Rab6a|P35279; Rab22a|P35285; Abca2|P41234; Rab11b|P46638; Kcnj9|P48543; Clcn3|P51791; Slc1a1|P51906; Cckbr|P56481; Gal3st3|P61315; Selenot|P62342; Pcsk1|P63239; Sgcd|P82347; Vldlr|P98156; Atp11a|P98197; Cpe|Q00493; Bche|Q03311; Drp2|Q05AA6; Mest|Q07646; Slc7a1|Q09143; Dennd11|Q3UHG7; Ece1|Q4PZA2; Sez6l2|Q4V9Z5; Slc22a15|Q504N2; Pcnx2|Q5DU28; Trpc6|Q61143; Clcn4|Q61418; Fcgrt|Q61559; Ndrg1|Q62433; Itga3|Q62470; Mrc2|Q64449; Chpf|Q6IQX7; Manea|Q6NXH2; Sez6l|Q6P1D5; Txndc15|Q6P6J9; Gpr135|Q7TQP2; Hs6st2|Q80UW0; Aatk|Q80YE4; Tmem127|Q8BGP5; Slc45a1|Q8BIV7; Plekhm3|Q8BM47; Enpp4|Q8BTJ4; Steap2|Q8BWB6; Lnpep|Q8C129; Tmem145|Q8C4U2; Slfn5|Q8CBA2; H6pd|Q8CFX1; AU040320|Q8K135; Gulp1|Q8K2A1; Colec12|Q8K4Q8; Plaat3|Q8R3U1; Fyco1|Q8VDC1; Lrp1|Q91ZX7; Tspan2|Q922J6; Smurf1|Q9CUN6; B3gat1|Q9CW73; Zdhhc21|Q9D270; Vsir|Q9D659; Jam3|Q9D8B7; Fam3a|Q9D8T0; Abcb6|Q9DC29; Sorcs2|Q9EPR5; Nup210|Q9QY81; Vps29|Q9QZ88; Podxl|Q9R0M4; Slc35a2|Q9R0M8; Myo1c|Q9WTI7; Sema4g|Q9WUH7; Clcn5|Q9WVD4; P2rx7|Q9Z1M0; Cd320|Q9Z1P5; Nlgn4l|B0F2B4; Folh1|O35409; Emp2|O88662; Grik2|P39087; Kcnj11|Q61743; Lypd1|Q8BLC3; Clmn|Q8C5W0; Tspan14|Q8QZY6; Tmf1|B9EKI3; Tspan15|F7BWT7; Scarb2|O35114; Slc1a6|O35544; Adam10|O35598; Npc1|O35604; Bmpr2|O35607; Cd200|O54901; Cntnap1|O54991; Pde8a|O88502; Hcn2|O88703; Sparc|P07214; Clec2l|P0C7M9; Itpr1|P11881; Chrm1|P12657; Prkce|P16054; Kcna1|P16388; Npr1|P18293; Penk|P22005; Gna12|P27600; Marcksl1|P28667; Sstr2|P30875; Nectin2|P32507; Kras|P32883; Cd81|P35762; Cd9|P40240; Itgav|P43406; Arsb|P50429; Slc12a2|P55012; Ncstn|P57716; Rab6b|P61294; Lpar1|P61793; Kcnab2|P62482; Rap1a|P62835; Kcnj3|P63250; Plxna3|P70208; Dab1|P97318; Grm1|P97772; Cxadr|P97792; Dipk2a|Q3USZ8; Cep164|Q5DU05; Fat2|Q5F226; Myo1d|Q5SYD0; Igf1r|Q60751; Fzd7|Q61090; Fkbp10|Q61576; Mog|Q61885; Fstl1|Q62356; Kcnc3|Q63959; Cd34|Q64314; Atp2a3|Q64518; D630045J12Rik|Q68FD9; Myorg|Q69ZQ1; Thsd7a|Q69ZU6; Tmem151a|Q6GQT5; Asic1|Q6NXK8; Pianp|Q6P1B3; Ano6|Q6P9J9; Cachd1|Q6PDJ1; Kcnip4|Q6PHZ8; Krit1|Q6S5J6; Slc44a1|Q6X893; Mindy1|Q76LS9; Opalin|Q7M750; Gabbr2|Q80T41; Aldh3b1|Q80VQ0; Kirrel|Q80W68; Dixdc1|Q80Y83; Bcas1|Q80YN3; Astn2|Q80Z10; Amigo2|Q80ZD9; Micall1|Q8BGT6; Lrrc24|Q8BHA1; Ptk7|Q8BKG3; Fam177a|Q8BR63; Tmem67|Q8BR76; Arf2|Q8BSL7; Arfrp1|Q8BXL7; Suco|Q8C341; Pex5l|Q8C437; Snx30|Q8CE50; Steap3|Q8CI59; Abca8b|Q8K440; Pttg1ip|Q8R143; Stxbp6|Q8R3T5; Atp2a1|Q8R429; Abcc10|Q8R4P9; Dusp15|Q8R4V2; Plppr2|Q8VCY8; Sirt2|Q8VDQ8; Golga7|Q91W53; Pcdhb18|Q91Y02; Gjc3|Q921C1; Csmd1|Q923L3; Pacsin3|Q99JB8; Atp13a2|Q9CTG6; Tmem192|Q9CXT7; Susd2|Q9DBX3; Ehd4|Q9EQP2; Chrm3|Q9ERZ3; Lamtor2|Q9JHS3; Lrp1b|Q9JI18; Abcb9|Q9JJ59; Kcnip2|Q9JJ69; Plekhb1|Q9QYE9; Tollip|Q9QZ06; Clcn2|Q9R0A1; Celsr2|Q9R0M0; Tyk2|Q9R117; Scn8a|Q9WTU3; Slc2a5|Q9WV38; Ptgfrn|Q9WV91; Kcnh3|Q9WVJ0; Tpbg|Q9Z0L0; Fkrp|Q8CG64</t>
+    <t xml:space="preserve">Cdc27|A2A6Q5; Mocs3|A2BDX3; Kif16b|B1AVY7; Arfgef1|G3X9K3; Diaph1|O08808; Me1|P06801; Phkg1|P07934; Mapt|P10637; Glul|P15105; Ass1|P16460; Phka1|P18826; Fasn|P19096; Sag|P20443; Foxa2|P35583; Htt|P42859; Capza1|P47753; Capza2|P47754; Capzb|P47757; Pfkm|P47857; Ppp1cb|P62141; Mapk1|P63085; Map2k6|P70236; Rock2|P70336; Usp9x|P70398; Lyst|P97412; F8a|Q00558; Prkcz|Q02956; Cdk18|Q04899; Nudt18|Q3U2V3; Mylk3|Q3UIZ8; Ppp1r12c|Q3UMT1; Vps51|Q3UVL4; Ttc9|Q3V038; Garnl3|Q3V0G7; Ankrd28|Q505D1; Rabl6|Q5U3K5; Csnk2a1|Q60737; Tbc1d1|Q60949; Arhgef1|Q61210; Kif5b|Q61768; Lasp1|Q61792; Hbs1l|Q69ZS7; Ncoa7|Q6DFV7; Wwc2|Q6NXJ0; Kank4|Q6P9J5; Bcr|Q6PAJ1; Sarm1|Q6PDS3; Ppp1r9b|Q6R891; Cand1|Q6ZQ38; Dsg1b|Q7TSF1; Rpap1|Q80TE0; Rpp38|Q80UU2; Reps2|Q80XA6; Rbsn|Q80Y56; Zfand1|Q8BFR6; Katnb1|Q8BG40; Ttc26|Q8BS45; Ap3s2|Q8BSZ2; Pik3cb|Q8BTI9; Flna|Q8BTM8; Engase|Q8BX80; Dcun1d2|Q8BZJ7; Strip1|Q8C079; Ppp4r4|Q8C0Y0; Vps52|Q8C754; Gan|Q8CA72; Vps53|Q8CCB4; Trp53bp2|Q8CG79; Vps50|Q8CI71; Sh2d5|Q8JZW5; Eipr1|Q8K0G5; Katnal1|Q8K0T4; Hspa12a|Q8K0U4; Dennd1a|Q8K382; Glcci1|Q8K3I9; Mapre2|Q8R001; Blmh|Q8R016; Stac2|Q8R1B0; Tbc1d22a|Q8R5A6; Paip1|Q8VE62; Elac1|Q8VEB6; Chn1|Q91V57; Vps36|Q91XD6; Pip4k2c|Q91XU3; Ugp2|Q91ZJ5; Gmppa|Q922H4; Ppp2r2d|Q925E7; Atg5|Q99J83; Raf1|Q99N57; Lpin2|Q99PI5; Ubxn6|Q99PL6; Arpc5|Q9CPW4; Vps25|Q9CQ80; Denr|Q9CQJ6; Lrrc40|Q9CRC8; Cap2|Q9CYT6; Snf8|Q9CZ28; Pdzd11|Q9CZG9; Cul2|Q9D4H8; Tsc1|Q9EP53; Nckipsd|Q9ESJ4; Ngly1|Q9JI78; Ap3m1|Q9JKC8; Cul3|Q9JLV5; Kif21b|Q9QXL1; Jmy|Q9QXM1; Pde7b|Q9QXQ1; Dcun1d1|Q9QZ73; Pfkp|Q9WUA3; Carm1|Q9WVG6; Twf2|Q9Z0P5; Mtmr2|Q9Z2D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tmem201|A2A8U2; Ryr3|A2AGL3; Tmem245|B1AZA5; Osbpl8|B9EJ86; Smim13|E9Q942; Sec22b|O08547; Emd|O08579; Ptgis|O35074; Agpat1|O35083; Slc27a2|O35488; Pitpnm1|O35954; Zw10|O54692; Pgrmc1|O55022; Tesk1|O70146; Hmox2|O70252; Comt|O88587; Hsd17b7|O88736; Ly6c2|P0CW03; Prkch|P23298; M6pr|P24668; Prkcd|P28867; Por|P37040; Dpagt1|P42867; Igfbp4|P47879; Lmna|P48678; Caml|P49070; Cav1|P49817; Clgn|P52194; Ptpn5|P54830; Rab4a|P56371; Lman2l|P59481; Ube2g2|P60605; Ap1s1|P61967; Aup1|P70295; Ext2|P70428; Stim2|P83093; Sptlc2|P97363; Vps45|P97390; Ptpn2|Q06180; Igf2r|Q07113; Lpcat1|Q3TFD2; Pnpla6|Q3TRM4; Pomk|Q3TUA9; Otulinl|Q3TVP5; Cybc1|Q3TYS2; Alg11|Q3TZM9; Hgsnat|Q3UDW8; Nat8l|Q3UGX3; Pitpnm3|Q3UHE1; Lsg1|Q3UM18; Lclat1|Q3UN02; Slmap|Q3URD3; Vezt|Q3ZK22; Fa2h|Q5MPP0; Tmem199|Q5SYH2; 2610507B11Rik|Q5SYL3; Cyp7b1|Q60991; Tmpo|Q61029; Ei24|Q61070; Bcap29|Q61334; Bcap31|Q61335; Surf4|Q64310; Sidt1|Q6AXF6; Kdsr|Q6GV12; Ephx4|Q6IE26; Zdhhc24|Q6IR37; Lpcat4|Q6NVG1; Ankle2|Q6P1H6; Atl2|Q6PA06; Ano8|Q6PB70; Snx13|Q6PHS6; Bnip1|Q6QD59; Fmnl3|Q6ZPF4; Pitpnm2|Q6ZPQ6; Smpd4|Q6ZPR5; Tm7sf2|Q71KT5; Vma21|Q78T54; Tlcd3b|Q7TNV1; Lnpk|Q7TQ95; Cpm|Q80V42; Jph4|Q80WT0; C2cd2l|Q80X80; Them6|Q80ZW2; Slc6a15|Q8BG16; Cpt1c|Q8BGD5; 6430571L13Rik|Q8BGK9; Sec22a|Q8BH47; Ano10|Q8BH79; Ppm1l|Q8BHN0; Nagpa|Q8BJ48; Kctd7|Q8BJK1; Ralyl|Q8BTF8; Scfd2|Q8BTY8; Ilvbl|Q8BU33; Slc39a11|Q8BWY7; Vps26b|Q8C0E2; Tmx4|Q8C0L0; Tmem120a|Q8C1E7; Rft1|Q8C3B8; Lmbrd2|Q8C561; Cnst|Q8CBC4; Rnf170|Q8CBG9; Tmem63c|Q8CBX0; Tlcd4|Q8CGF5; Arel1|Q8CHG5; Mboat7|Q8CHK3; Scamp1|Q8K021; Get1|Q8K0D7; Saysd1|Q8K190; Agpat4|Q8K4X7; Bfar|Q8R079; Ubac2|Q8R1K1; Tmcc3|Q8R310; Ubxn4|Q8VCH8; Tapbpl|Q8VD31; Cdipt|Q8VDP6; Stx18|Q8VDS8; Gramd1a|Q8VEF1; Slc27a4|Q91VE0; Rusf1|Q91W34; Gpr108|Q91WD0; Lpgat1|Q91YX5; Alg1|Q921Q3; Slc33a1|Q99J27; Reep3|Q99KK1; Clcc1|Q99LI2; Tspan31|Q9CQ88; Rer1|Q9CQU3; Golt1b|Q9CR60; Tmem33|Q9CR67; Cyp2u1|Q9CX98; Lman1|Q9D0F3; Tmem53|Q9D0Z3; Ephx1|Q9D379; Plpp6|Q9D4F2; Rabl3|Q9D4V7; Tmx2|Q9D710; Aig1|Q9D8B1; Tmem41a|Q9D8U2; Tmem38b|Q9DAV9; Lman2|Q9DBH5; Cyp2s1|Q9DBX6; Sacm1l|Q9EP69; Elovl4|Q9EQC4; Yipf5|Q9EQQ2; Osbpl5|Q9ER64; Jph1|Q9ET80; Sgpp1|Q9JI99; Fads3|Q9JJE7; Tacc2|Q9JJG0; Tmem9b|Q9JJR8; Slc30a7|Q9JKN1; Acsl4|Q9QUJ7; Vapb|Q9QY76; Rdh11|Q9QYF1; Ubxn8|Q9QZ49; Amfr|Q9R049; Mpdu1|Q9R0Q9; Vapa|Q9WV55; Ptdss2|Q9Z1X2; Bscl2|Q9Z2E9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gpatch8|A2A6A1; Pnisr|A2AJT4; Rtf1|A2AQ19; Itih4|A6X935; Irf2bp2|E9Q1P8; Kng1|O08677; Vps26c|O35075; Anp32a|O35381; Copb2|O55029; Eif6|O55135; Ess2|O70279; Cope|O89079; Igkc|P01837; H2-Q10|P01898; Hba-a1|P01942; Hbb-b1|P02088; Apoa4|P06728; Ltf|P08071; Hmgn2|P09602; Nid1|P10493; Cd14|P10810; Sub1|P11031; Hspb1|P14602; Lyz1|P17897; F2|P19221; Serpina1b|P22599; Cbx3|P23198; Cryab|P23927; Ndn|P25233; Ubtf|P25976; Xrcc5|P27641; Adssl1|P28650; Tagln|P37804; Pbx1|P41778; Eif1|P48024; Hdgf|P51859; Atxn1|P54254; Cdk5r1|P61809; Copz1|P61924; Lsm3|P62311; Hmgb1|P63158; Ube2i|P63280; Naca|P70670; Gabpa|Q00422; Apoa1|Q00623; Hspg2|Q05793; Nsun2|Q1HFZ0; Fam107b|Q3TGF2; Fam172a|Q3TNH5; BC005624|Q3TQI7; Ccdc174|Q3U155; Qrich1|Q3UA37; Foxk2|Q3UCQ1; Rrp36|Q3UFY0; Cobll1|Q3UMF0; Hdgfl2|Q3UMU9; 2210016L21Rik|Q3UY34; Commd6|Q3V4B5; Fam169a|Q5XG69; Arcn1|Q5XJY5; Eps15l1|Q60902; Ppm1g|Q61074; Nab2|Q61127; Acan|Q61282; Lamb2|Q61292; Bcan|Q61361; Atrx|Q61687; Itih2|Q61703; Mapk10|Q61831; Vcan|Q62059; Coch|Q62507; Commd3|Q63829; Nup62|Q63850; Sphkap|Q6NSW3; Pcnp|Q6P8I4; Ccdc93|Q7TQK5; Gvin1|Q80SU7; Rere|Q80TZ9; Cep104|Q80V31; Hapln3|Q80WM5; Aftph|Q80WT5; Commd7|Q8BG94; Fto|Q8BGW1; Ppp1r37|Q8BKR5; Qsox1|Q8BND5; Elmo1|Q8BPU7; Cnot4|Q8BT14; Vps35l|Q8BWQ6; Commd2|Q8BXC6; Heatr5b|Q8C547; Tceal5|Q8CCT4; Nup88|Q8CEC0; Gcc2|Q8CHG3; Copa|Q8CIE6; Tma7|Q8K003; Commd9|Q8K2Q0; Prpf39|Q8K2Z2; Commd1|Q8K4M5; Dcaf8|Q8N7N5; Tmem119|Q8R138; Vps18|Q8R307; Commd5|Q8R395; Ppp1r14a|Q91VC7; Golga4|Q91VW5; Vps11|Q91W86; Psme3ip1|Q91WE2; Dus3l|Q91XI1; Smarca5|Q91ZW3; Pdia5|Q921X9; Cic|Q924A2; Thumpd1|Q99J36; Commd4|Q9CQ02; Btf3l4|Q9CQH7; Lsm7|Q9CQQ8; Rprd1b|Q9CSU0; Snx10|Q9CWT3; Vps33a|Q9D2N9; 2310057M21Rik|Q9D2Q3; Arl2bp|Q9D385; Drap1|Q9D6N5; Dennd10|Q9D8N2; Set|Q9EQU5; Slc15a2|Q9ES07; Ccdc22|Q9JIG7; Plekho1|Q9JIY0; Dusp14|Q9JLY7; Copg2|Q9QXK3; Zranb2|Q9R020; Mad1l1|Q9WTX8; Slit3|Q9WVB4</t>
   </si>
   <si>
     <t xml:space="preserve">M39</t>
   </si>
   <si>
-    <t xml:space="preserve">Fga|E9PV24; Rgs9|O54828; Pja1|O55176; Fcna|O70165; C4b|P01029; Igkv6-17|P01633; Gfap|P03995; Apoe|P08226; Wipf3|P0C7L0; Fn1|P11276; Mdk|P12025; Hmga1|P17095; Hspa1b|P17879; Hexb|P20060; Pltp|P55065; Sst|P60041; Ptn|P63089; Masp1|P98064; Hivep2|Q3UHF7; Pxdn|Q3UQ28; Bag1|Q60739; Cfi|Q61129; Ecm1|Q61508; Nup98|Q6PFD9; Olfml3|Q8BK62; Smoc1|Q8BLY1; Synpo|Q8CC35; Fgb|Q8K0E8; Fgg|Q8VCM7; Dnajc9|Q91WN1; Zwint|Q9CQU5; Atp6v1g1|Q9CR51; Ntn3|Q9R1A3; Cxcl14|Q9WUQ5; Igkv12-41|P01635; Gpx3|P46412; Evl|P70429; Serpine2|Q07235; Dscaml1|Q4VA61; Pla2g7|Q60963; Unc80|Q8BLN6; Fam131a|Q8BWU3; Ltbp4|Q8K4G1; Atl3|Q91YH5; Macroh2a1|Q9QZQ8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bin2|D3Z6Q9; Dchs1|E9PVD3; Pde8b|E9Q4S1; Ngp|O08692; Sdcbp|O08992; Man2b1|O09159; Sdc4|O35988; Ncf2|O70145; Aif1|O70200; Gpld1|O70362; Ctss|O70370; Lgmn|O89017; Matn4|O89029; Pomc|P01193; Ctsl|P06797; Serpina3k|P07759; Dmd|P11531; Lgals3|P16110; Ctsa|P16675; Ctsd|P18242; Ezr|P26040; Rdx|P26043; Vav1|P27870; Grn|P28798; Ptpn6|P29351; Vcam1|P29533; Avp|P35455; Nf2|P46662; Pdcd2|P46718; Hcls1|P49710; Jak1|P52332; Aqp4|P55088; Smpdl3b|P58242; Chl1|P70232; Myo1f|P70248; Slc9a3r1|P70441; Csrp1|P97315; Egfr|Q01279; Camkv|Q3UHL1; Snta1|Q61234; Omg|Q63912; Fam126a|Q6P9N1; Acad11|Q80XL6; Nrcam|Q810U4; Fat3|Q8BNA6; Mpp7|Q8BVD5; Gpc5|Q8CAL5; Plcg2|Q8CIH5; Pla2g15|Q8VEB4; Basp1|Q91XV3; Epdr1|Q99M71; Pfdn1|Q9CWM4; Ist1|Q9CX00; Nol3|Q9D1X0; Dtna|Q9D2N4; S100a16|Q9D708; Arfgap3|Q9D8S3; Gsdmd|Q9D8T2; Ehhadh|Q9DBM2; Dpp7|Q9ET22; Gpc6|Q9R087; Ccs|Q9WU84; Ctsz|Q9WUU7; Ncf1|Q09014; Dock2|Q8C3J5; Ppcs|Q8VDG5; Tmeff2|Q9QYM9; Plekhb2|Q9QZC7; Hexa|P29416; Rtn4r|Q99PI8; Man2b2|O54782; Cd44|P15379; Gla|P51569; Efnb2|P52800; Gfra1|P97785; Lgals3bp|Q07797; Plbd2|Q3TCN2; Pag1|Q3U1F9; Frmd8|Q3UFK8; Islr2|Q5RKR3; Gm2a|Q60648; Cbarp|Q66L44; Spred3|Q6P6N5; Kirrel2|Q7TSU7; Nav3|Q80TN7; Cd99l2|Q8BIF0; Rgs7bp|Q8BQP9; Slc4a7|Q8BTY2; Frs2|Q8C180; Plxnb1|Q8CJH3; Adgrg1|Q8K209; Ptp4a3|Q9D658; Chic2|Q9D9G3; Tesc|Q9JKL5; Lgals8|Q9JL15; Cdh13|Q9WTR5; Crybb1|Q9WVJ5; Npc2|Q9Z0J0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcks|P26645; Csmd3|Q80T79; Lsamp|Q8BLK3; S1pr5|Q91X56; Gipc1|Q9Z0G0; Flot1|O08917; Stx1a|O35526; Septin8|Q8CHH9; Ppp1r16a|Q923M0; Lrrc57|Q9D1G5; Phrf1|A6H619; Prrt2|E9PUL5; Ephb6|O08644; Mras|O08989; Syt3|O35681; Septin7|O55131; Slc6a2|O55192; Robo1|O89026; Thy1|P01831; Src|P05480; Nras|P08556; Igsf11|P0C673; Kcnc1|P15388; Gabra6|P16305; Kcna3|P16390; Slc7a2|P18581; Gria1|P23818; Slc6a9|P28571; Septin4|P28661; Gnb4|P29387; Rab23|P35288; Grin1|P35438; Fyn|P39688; Efnb1|P52795; Fxyd7|P59648; Il1rapl1|P59823; Stx1b|P61264; Kcna2|P63141; Cdh8|P97291; Cacna1a|P97445; Grm2|Q14BI2; Stk11ip|Q3TAA7; Aifm3|Q3TY86; Arsg|Q3TYD4; 5031439G07Rik|Q3UE31; Plxnd1|Q3UH93; Shisa6|Q3UH99; Adgrb1|Q3UHD1; Slc22a23|Q3UHH2; Tenm4|Q3UHK6; Zdhhc8|Q5Y5T5; Cacna1e|Q61290; Prkg2|Q61410; Cd47|Q61735; Kcna6|Q61923; Sema4b|Q62179; Tspan7|Q62283; Ctnna3|Q65CL1; Elfn2|Q68FM6; Cnnm4|Q69ZF7; Brinp2|Q6DFY8; Tmem132e|Q6IEE6; Panx2|Q6IMP4; Fbxo41|Q6NS60; Dpp10|Q6NXK7; Inpp4b|Q6P1Y8; Ubtd2|Q6PGH0; Ntrk3|Q6VNS1; Igsf21|Q7TNR6; Igsf1|Q7TQA1; Phf24|Q80TL4; Adgrl1|Q80TR1; Adgrl3|Q80TS3; Tspan18|Q80WR1; Slitrk4|Q810B8; Tmem169|Q8BG50; Scn3b|Q8BHK2; Lrfn3|Q8BLY3; Daam1|Q8BPM0; Rell2|Q8BRJ3; Nlgn3|Q8BYM5; Gpr158|Q8C419; Slc43a2|Q8CGA3; Adgrl2|Q8JZZ7; Trhde|Q8K093; Lgi4|Q8K1S1; Anln|Q8K298; Rell1|Q8K2J7; Lgi2|Q8K4Z0; Igsf8|Q8R366; Ntng2|Q8R4F1; Ntng1|Q8R4G0; Crtac1|Q8R555; Ppp1r16b|Q8VHQ3; Cacng8|Q8VHW2; Abca7|Q91V24; Gprc5b|Q923Z0; Tmem121b|Q99MX7; Cadm3|Q99N28; Cntnap4|Q99P47; Ntm|Q99PJ0; Cntnap2|Q9CPW0; Cldnd1|Q9CQX5; Arhgef25|Q9CWR0; Antxr1|Q9CZ52; Golga7b|Q9D428; Lgi1|Q9JIA1; Kcnj10|Q9JM63; Spry2|Q9QXV8; Ehd3|Q9QXY6; Grm3|Q9QYS2; Plxnc1|Q9QZC2; Syt7|Q9R0N7; Adam11|Q9R1V4; Adam22|Q9R1V6; Adam23|Q9R1V7; Tenm1|Q9WTS4; Tenm2|Q9WTS5; Heph|Q9Z0Z4; Septin3|Q9Z1S5; Septin5|Q9Z2Q6; Palm3|A2TJV2; Gap43|P06837; Gpm6a|P35802; Plxna1|P70206; Arf5|P84084; Yes1|Q04736; Cnnm3|Q32NY4; Tom1l2|Q5SRX1; Fgfr3|Q61851; Hepacam|Q640R3; Prcp|Q7TMR0; Cadm2|Q8BLQ9; Iglon5|Q8HW98; Spred1|Q924S8; Rhoa|Q9QUI0; Rgs20|Q9QZB1; Cdh22|Q9WTP5; Mpp2|Q9WV34; Palm|Q9Z0P4; Slc8a3|S4R2P9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fut9|O88819; B2m|P01887; Itgam|P05555; Serpinh1|P19324; Tgfb2|P27090; Lrpap1|P55302; Edem3|Q2HXL6; Cd163|Q2VLH6; Tmtc1|Q3UV71; Endou|Q3V188; Rasef|Q5RI75; Sema5b|Q60519; Ggt1|Q60928; Cp|Q61147; Glg1|Q61543; Ktn1|Q61595; Atrnl1|Q6A051; Nomo1|Q6GQT9; Vstm2l|Q6PDS0; Txndc16|Q7TN22; Mogs|Q80UM7; Mtdh|Q80WJ7; Tmem106b|Q80X71; Wasf2|Q8BH43; Fut11|Q8BHC9; Mia3|Q8BI84; Cnpy4|Q8BQ47; Gpr107|Q8BUV8; Tmem87a|Q8BXN9; Poglut1|Q8BYB9; Sulf2|Q8CFG0; Txndc11|Q8K2W3; Tram1l1|Q8QZR0; Sumf1|Q8R0F3; Ero1a|Q8R180; Rab11fip5|Q8R361; Lrrc59|Q922Q8; Chid1|Q922Q9; Col25a1|Q99MQ5; Rrbp1|Q99PL5; Tmem147|Q9CQG6; Ssr1|Q9CY50; Creld2|Q9CYA0; Emc4|Q9CZX9; Ccdc47|Q9D024; Fam174a|Q9D3L0; Borcs6|Q9D6W8; Cnpy3|Q9DAU1; Dnajc10|Q9DC23; Ssr3|Q9DCF9; Clstn2|Q9ER65; Abhd2|Q9QXM0; Cnpy2|Q9QXT0; Tbl2|Q9R099; Pex14|Q9R0A0; Plod3|Q9R0E1; Entpd5|Q9WUZ9; Itsn2|Q9Z0R6; Minpp1|Q9Z2L6; Elapor1|A2AFS3; Dpy19l4|A2AJQ3; Ube4a|E9Q735; Mttp|O08601; Prdx4|O08807; Cx3cl1|O35188; Serpini1|O35684; Calu|O35887; Fkbp7|O54998; Sigmar1|O55242; Emc8|O70378; Tmem131|O70472; Vamp4|O70480; Dhcr7|O88455; Ugcg|O88693; F11r|O88792; Slc22a8|O88909; H2-D1|P01899; Ptprc|P06800; Enpp1|P06802; Pdia4|P08003; Hck|P08103; P4hb|P09103; Alpl|P09242; Itgb2|P11835; Icam1|P13597; Slc4a2|P13808; Calr|P14211; Chgb|P16014; Enpep|P16406; Hspa5|P20029; Abcb1a|P21447; Ppib|P24369; Timp2|P25785; Chga|P26339; Pdia3|P27773; Man1a|P45700; Fkbp2|P45878; Stt3a|P46978; Hsd11b1|P50172; Efna1|P52793; Entpd1|P55772; Erp29|P57759; Tm9sf2|P58021; Megf8|P60882; St8sia5|P70126; Fv1|P70213; Nucb2|P81117; Anpep|P97449; Dgcr2|P98154; Apoh|Q01339; Rac2|Q05144; Rcn1|Q05186; Igfbp5|Q07079; B4galnt1|Q09200; Itgb8|Q0VBD0; Rundc1|Q0VDN7; Vgf|Q0VGU4; Stt3b|Q3TDQ1; Rnf157|Q3TEL6; Tmem38a|Q3TMP8; Lmtk2|Q3TYD6; Tmem109|Q3UBX0; Sdk1|Q3UH53; Elapor2|Q3UZV7; Lmtk3|Q5XJV6; Psap|Q61207; Soat1|Q61263; Nt5e|Q61503; Il1rap|Q61730; Ltbp3|Q61810; Pon3|Q62087; Ssr4|Q62186; Sema5a|Q62217; Tgoln1|Q62313; Ccn3|Q64299; Piga|Q64323; Ugt8a|Q64676; Myof|Q69ZN7; Rftn1|Q6A0D4; Tmem130|Q6NXM3; Uggt1|Q6P5E4; Pigs|Q6PD26; Atraid|Q6PGD0; Paqr9|Q6TCG2; Mlec|Q6ZQI3; Spcs3|Q6ZWQ7; Maco1|Q7TQE6; Dnajc16|Q80TN4; Sel1l3|Q80TS8; Bpnt2|Q80V26; Ddrgk1|Q80WW9; Kxd1|Q80XH1; Erlin2|Q8BFZ9; Tmtc4|Q8BG19; P4htm|Q8BG58; Efcab14|Q8BGQ6; Tm9sf4|Q8BH24; B3glct|Q8BHT6; Spock3|Q8BKV0; Hspa13|Q8BM72; Acbd3|Q8BMP6; Mon1b|Q8BMQ8; Rcn2|Q8BP92; Sumf2|Q8BPG6; Tmtc3|Q8BRH0; Tusc3|Q8BTV1; Ankrd46|Q8BTZ5; Gprin3|Q8BWS5; Fndc3a|Q8BX90; Eogt|Q8BYW9; Abi3|Q8BYZ1; Ccz1|Q8C1Y8; Lmf2|Q8C3X8; Ccdc134|Q8C7V8; Ufl1|Q8CCJ3; Nckap1l|Q8K1X4; Os9|Q8K2C7; Mcam|Q8R2Y2; Hs2st1|Q8R3H7; Abca3|Q8R420; Ncln|Q8VCM8; Alg9|Q8VDI9; Selenom|Q8VHC3; Sec63|Q8VHE0; Itm2c|Q91VK4; Fam3c|Q91VU0; Pex16|Q91XC9; Rpn1|Q91YQ5; Dnajc3|Q91YW3; Mia2|Q91ZV0; Pofut1|Q91ZW2; Tmco1|Q921L3; Pdia6|Q922R8; Emc3|Q99KI3; Dnajb11|Q99KV1; Cdk5rap3|Q99LM2; St7|Q99M96; Zdhhc6|Q9CPV7; Nenf|Q9CQ45; Spg21|Q9CQC8; Sec61b|Q9CQS8; Txndc12|Q9CQU0; Emc2|Q9CRD2; Manf|Q9CXI5; Pigk|Q9CXY9; Spcs2|Q9CYN2; Dnajc18|Q9CZJ9; Ccdc167|Q9D162; Fkbp11|Q9D1M7; Erp44|Q9D1Q6; Tmem35a|Q9D328; Tspan13|Q9D8C2; Rpn2|Q9DBG6; Srpr|Q9DBG7; Syvn1|Q9DBY1; Sdf2|Q9DCT5; Emc7|Q9EP72; Slco1a4|Q9EP96; Chst1|Q9EQC0; Erap1|Q9EQH2; Spock2|Q9ER58; Parvg|Q9ERD8; Mesd|Q9ERE7; Selenof|Q9ERR7; Sdf2l1|Q9ESP1; Plek|Q9JHK5; Pigo|Q9JJI6; Hyou1|Q9JKR6; Selenok|Q9JLJ1; Crim1|Q9JLL0; Sec61a2|Q9JLR1; Plxnb3|Q9QY40; Dnajb12|Q9QYI4; Hs6st1|Q9QYK5; Atp11c|Q9QZW0; Bcam|Q9R069; Syt11|Q9R0N3; Cx3cr1|Q9Z0D9; Dgat1|Q9Z2A7; Ggt5|Q9Z2A9; Sel1l|Q9Z2G6; Prkcsh|O08795; Ddost|O54734; Sgce|O70258; Clcn7|O70496; Itm2b|O89051; Lifr|P42703; Nsg2|P47759; Dad1|P61804; Aplp2|Q06335; Cd55|Q61475; Nsg1|Q62092; Mon1a|Q6PDG8; Pex26|Q8BGI5; Ctso|Q8BM88; Bri3bp|Q8BXV2; Vps9d1|Q8C190; Slc36a1|Q8K4D3; C1qtnf4|Q8R066; Erlec1|Q8VEH8; Txndc5|Q91W90; Tmem63a|Q91YT8; Golph3|Q9CRA5; Borcs8|Q9D6Y4; Caly|Q9DCA7; Sts|P50427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lcat|P16301; Uevld|Q3U1V6; Adamts2|Q8C9W3; Adap2|Q8R2V5; Wdr20rt|Q9D5R2; Tbc1d8|Q9Z1A9; Fndc10|A2A9Q0; Rundc3a|O08576; Rdh5|O55240; H2-K1|P01901; Plat|P11214; Cyp2a5|P20852; Tap1|P21958; Ptgs1|P22437; Ccn2|P29268; Slc6a13|P31649; Cyp2f2|P33267; Sqle|P52019; Alk|P97793; Scg2|Q03517; Fbln1|Q08879; Gxylt1|Q3UHH8; Vps41|Q5KU39; Pnoc|Q64387; Galnt2|Q6PB93; Kcnf1|Q7TSH7; Adgra3|Q7TT36; Slit1|Q80TR4; Ugt2a1|Q80X89; Arl5a|Q80ZU0; Pomt2|Q8BGQ4; Luzp2|Q8BGY3; Bmp3|Q8BHE5; Bicd1|Q8BR07; Slco2b1|Q8BXB6; Mb21d2|Q8C525; Lrp11|Q8CB67; Tbc1d23|Q8K0F1; Ccm2|Q8K2Y9; Pigu|Q8K358; Mgat5|Q8R4G6; Snap47|Q8R570; Flnc|Q8VHX6; Sorcs3|Q8VI51; Mgst1|Q91VS7; BC031181|Q91WE4; Gorasp1|Q91X51; Trpm2|Q91YD4; Golga2|Q921M4; Abhd17a|Q99JW1; Mgrn1|Q9D074; Usp12|Q9D9M2; Ap1s2|Q9DB50; Enpp5|Q9EQG7; Sorcs1|Q9JLC4; Ecel1|Q9JMI0; Pcsk1n|Q9QXV0; Casr|Q9QY96; Htra1|Q9R118; Rabac1|Q9Z0S9; Itpr2|Q9Z329; H4c1|P62806; Sar1a|P36536; Pald1|P70261; Notch1|Q01705; Xylt1|Q811B1; Mcoln1|Q99J21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ckap5|A2AGT5; Ptpn3|A2ALK8; Nt5c1a|A3KFX0; Sbf2|E9PXF8; Dlg5|E9Q9R9; Trip12|G5E870; Gtpbp1|O08582; Ercc2|O08811; Pik3r2|O08908; Il16|O54824; Cbfa2t2|O70374; Ulk1|O70405; Camk2a|P11798; Rasgrf1|P27671; Kif5a|P33175; Pik3ca|P42337; Ppp3cc|P48455; Fgd1|P52734; Tnks1bp1|P58871; Nphp4|P59240; Cgn|P59242; Arpc4|P59999; Rims4|P60191; Actr2|P61161; Cyth2|P63034; Sbds|P70122; Rit2|P70425; Wnk1|P83741; Map4k4|P97820; Sos2|Q02384; Vps8|Q0P5W1; Phactr1|Q2M3X8; Gsk3a|Q2NL51; Ppp1r21|Q3TDD9; Uri1|Q3TLD5; Tgfbrap1|Q3UR70; Grk3|Q3UYH7; Carmil2|Q3V3V9; Lrrc47|Q505F5; Prag1|Q571I4; Cracd|Q5PR69; Zscan26|Q5RJ54; Wdr34|Q5U4F6; Chuk|Q60680; Ski|Q60698; Dvl3|Q61062; Shc3|Q61120; Map4k2|Q61161; Sos1|Q62245; Ppp1r13b|Q62415; Sorbs1|Q62417; Arhgap20|Q6IFT4; Phldb1|Q6PDH0; Naa35|Q6PHQ8; Camk2d|Q6PHZ2; Asap2|Q7SIG6; Khnyn|Q80U38; Rims3|Q80U57; Usp8|Q80U87; Chn2|Q80XD1; Clspn|Q80YR7; Afap1|Q80YS6; Gatd1|Q8BFQ8; Ppp1r12b|Q8BG95; Wdr92|Q8BGF3; Pan2|Q8BGF7; Arhgap22|Q8BL80; Sowaha|Q8BLS7; Tbck|Q8BM85; Wdr35|Q8BND3; Dpp9|Q8BVG4; Osbpl6|Q8BXR9; Phactr3|Q8BYK5; Wwp1|Q8BZZ3; Peli1|Q8C669; Naa30|Q8CES0; Calcoco1|Q8CGU1; Rapgef2|Q8CHG7; Slain2|Q8CI08; Spata2|Q8K004; Ift80|Q8K057; Pank1|Q8K4K6; Hecw1|Q8K4P8; Itpka|Q8R071; Taf6l|Q8R2K4; Dicer1|Q8R418; Kptn|Q8VCX6; Zcchc18|Q8VD24; Snrk|Q8VDU5; Nle1|Q8VEJ4; Agap3|Q8VHH5; D6Wsu163e|Q91YN0; Srgap2|Q91Z67; Dok5|Q91ZM9; Lpin1|Q91ZP3; Cryzl1|Q921W4; Tgs1|Q923W1; Trim66|Q924W6; Actr3|Q99JY9; Nmd3|Q99L48; Wdr6|Q99ME2; Pih1d1|Q9CQJ2; Arpc2|Q9CVB6; Rtca|Q9D7H3; Arpc5l|Q9D898; Mlst8|Q9DCJ1; Strn3|Q9ERG2; Parvb|Q9ES46; Mtor|Q9JLN9; Git2|Q9JLQ2; Gkap1|Q9JMB0; Myo9b|Q9QY06; Azi2|Q9QYP6; Spast|Q9QYY8; Arpc1a|Q9R0Q6; Slit2|Q9R1B9; Gys1|Q9Z1E4; Rexo1|Q7TT28; Usp43|Q8BUM9; Nup133|Q8R0G9; Camk2b|P28652; Agbl4|Q09LZ8; Sorbs2|Q3UTJ2; Jcad|Q5DTX6; Ppip5k2|Q6ZQB6; Unc13c|Q8K0T7; Iqsec1|Q8R0S2; Camk2g|Q923T9; Ttc9b|Q9D6E4; Mid2|Q9QUS6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slc35d1|A2AKQ0; Syndig1|A2ANU3; Fsip2|A2ARZ3; Dpy19l1|A6X919; Triqk|B2B9E1; Clip3|B9EHT4; Tmem229a|B9EJI9; Arxes1|C0HK79; Poglut3|G5E897; Bet1l|O35153; Gosr2|O35166; Bok|O35425; Bet1|O35623; Get3|O54984; Atp2a2|O55143; Dpm1|O70152; Atp9a|O70228; Hsd17b12|O70503; Gosr1|O88630; Csf1r|P09581; Tmem254c|P0DN91; Cnp|P16330; Lamp2|P17047; Evi2a|P20934; Mfge8|P21956; Cers1|P27545; Dpp4|P28843; Canx|P35564; Tap2|P36371; Scg3|P47867; Fmo1|P50285; Fdft1|P53798; Cyb5a|P56395; Wfs1|P56695; Chp1|P61022; Sec61a1|P61620; Stim1|P70302; H3f3a|P84244; Cds1|P98191; Atp8a2|P98200; Hmgcr|Q01237; Nucb1|Q02819; Dnajb14|Q149L6; Pi4k2a|Q2TBE6; Slc39a7|Q31125; Spryd7|Q3TFQ1; Pbxip1|Q3TVI8; Pip4p1|Q3TWL2; Tmem88b|Q3TYP4; Lmf1|Q3U3R4; Xxylt1|Q3U4G3; Alg10b|Q3UGP8; Pgap1|Q3UUQ7; Ermp1|Q3UVK0; Tmub2|Q3V209; Odr4|Q4PJX1; Trp53i11|Q4QQM4; Pigh|Q5M9N4; Cyb5d2|Q5SSH8; D130043K22Rik|Q5SZV5; Mfsd3|Q5U419; Jagn1|Q5XKN4; Adam9|Q61072; Itga7|Q61738; Epha7|Q61772; Tfrc|Q62351; Atp7a|Q64430; St8sia3|Q64689; Wls|Q6DID7; Lemd2|Q6DVA0; Enpp3|Q6DYE8; Scap|Q6GQT6; Islr|Q6GU68; Sort1|Q6PHU5; Vkorc1l1|Q6TEK5; Marchf6|Q6ZQ89; Dpy19l3|Q71B07; Picalm|Q7M6Y3; Gramd1b|Q80TI0; Zdhhc17|Q80TN5; Fads6|Q80UG1; Pgrmc2|Q80UU9; Zmpste24|Q80W54; Creg2|Q8BGC9; Slc35f1|Q8BGK5; Nipa1|Q8BHK1; Ranbp6|Q8BIV3; Nceh1|Q8BLF1; Slc9a7|Q8BLV3; Tmem260|Q8BMD6; Derl2|Q8BNI4; Nmnat2|Q8BNJ3; Ric3|Q8BPM6; Yipf6|Q8BR70; Scfd1|Q8BRF7; Gpr89|Q8BS95; Asph|Q8BSY0; Pigz|Q8BTP0; Sec62|Q8BU14; Stx16|Q8BVI5; Pomgnt2|Q8BW41; Clptm1l|Q8BXA5; Tmem62|Q8BXJ9; Tmx3|Q8BXZ1; Fam234b|Q8BYI8; Rdh12|Q8BYK4; Rint1|Q8BZ36; Chpt1|Q8C025; Pm20d1|Q8C165; Cers6|Q8C172; Pcyox1l|Q8C7K6; Emc1|Q8C7X2; Podxl2|Q8CAE9; Slc38a2|Q8CFE6; Stoml1|Q8CI66; Tmem230|Q8CIB6; Tmem259|Q8CIV2; Cmtm4|Q8CJ61; Cyp51|Q8K0C4; Tmem41b|Q8K1A5; 9530068E07Rik|Q8K201; Mmgt1|Q8K273; Alg3|Q8K2A8; Hacd3|Q8K2C9; Abca5|Q8K448; Abca9|Q8K449; Sgpl1|Q8R0X7; Slc29a4|Q8R139; Tmed4|Q8R1V4; Rnf121|Q8R1Z9; Abhd6|Q8R2Y0; Dolk|Q8R2Y3; Saraf|Q8R3Q0; Vps39|Q8R5L3; Tmx1|Q8VBT0; Clptm1|Q8VBZ3; Dhcr24|Q8VCH6; Rdh10|Q8VCH7; Tmem97|Q8VD00; Adpgk|Q8VDL4; Rhbdd2|Q8VEK2; Mospd1|Q8VEL0; Pofut2|Q8VHI3; Plpp7|Q91WB2; Cdkal1|Q91WE6; Creld1|Q91XD7; Tmem205|Q91XE8; Rnf185|Q91YT2; Plxdc1|Q91ZV7; Fads1|Q920L1; Tor1aip1|Q921T2; Lrp8|Q924X6; Cers2|Q924Z4; Ghdc|Q99J23; Derl1|Q99J56; Ufsp2|Q99K23; Tmed9|Q99KF1; Clint1|Q99KN9; Vmp1|Q99KU0; Itfg1|Q99KW9; Cds2|Q99L43; Gpx7|Q99LJ6; Abhd12|Q99LR1; Scd3|Q99PL7; Mydgf|Q9CPT4; Use1|Q9CQ56; Cisd2|Q9CQB5; Ergic3|Q9CQE7; Pcyox1|Q9CQF9; Emc6|Q9CQW0; Magt1|Q9CQY5; Tmem9|Q9CR23; Ergic2|Q9CR89; Gdpd1|Q9CRY7; Mospd2|Q9CWP6; Tmed5|Q9CXE7; Tecr|Q9CY27; Prxl2a|Q9CYH2; Atp6ap2|Q9CYN9; Acsl3|Q9CZW4; Ogfod3|Q9D136; Tmed10|Q9D1D4; Hhatl|Q9D1G3; Tmem50b|Q9D1X9; Tmbim6|Q9D2C7; Rnf128|Q9D304; Hacd2|Q9D3B1; Agpat3|Q9D517; Cers4|Q9D6J1; Apmap|Q9D7N9; Tvp23b|Q9D8T4; H13|Q9D8V0; Sec11c|Q9D8V7; Slc22a17|Q9D9E0; Samd8|Q9DA37; Alg5|Q9DB25; Alg2|Q9DBE8; Tmem43|Q9DBS1; Plxdc2|Q9DC11; Ergic1|Q9DC16; Atp13a1|Q9EPE9; Glce|Q9EPS3; Hsd17b11|Q9EQ06; Tor1b|Q9ER41; Scamp2|Q9ERN0; Jph3|Q9ET77; Ank|Q9JHZ2; Herpud2|Q9JJC9; Paqr4|Q9JJE4; Porcn|Q9JJJ7; Ube2j1|Q9JJZ4; Gde1|Q9JL56; Dolpp1|Q9JMF7; Dkk3|Q9QUN9; St6galnac5|Q9QYJ1; Sec11a|Q9R0P6; Tmed2|Q9R0Q3; Dgke|Q9R1C6; Nsdhl|Q9R1J0; Pign|Q9R1S3; Tapbp|Q9R233; Gpaa1|Q9WTK3; Lemd3|Q9WU40; Srd5a3|Q9WUP4; Preb|Q9WUQ2; Cyp46a1|Q9WVK8; Slc12a7|Q9WVL3; Fads2|Q9Z0R9; Large1|Q9Z1M7; Eif2ak3|Q9Z2B5; Clcn6|O35454; Sorl1|O88307; Vti1b|O88384; St3gal5|O88829; Stx8|O88983; Itgb1|P09055; Pcsk2|P21661; Fcgr1|P26151; Ldlr|P35951; Cd82|P40237; Srprb|P47758; Stmn2|P55821; Stmn4|P63042; Rhog|P84096; Emc10|Q3TAS6; Tmem63b|Q3TWI9; Tapt1|Q4VBD2; Itga6|Q61739; Lrrn1|Q61809; Pon2|Q62086; Itga2|Q62469; Ccpg1|Q640L3; Lingo3|Q6GQU6; Casd1|Q7TN73; Galnt17|Q7TT15; Cept1|Q8BGS7; Megf9|Q8BH27; Ganab|Q8BHN3; Pigt|Q8BXQ2; Nalcn|Q8BXR5; Sidt2|Q8CIF6; Disp2|Q8CIP5; Dner|Q8JZM4; Erlin1|Q91X78; Clstn3|Q99JH7; P2ry12|Q9CPV9; Pip4p2|Q9CZX7; Glmp|Q9JHJ3; P2rx4|Q9JJX6; Elovl1|Q9JLJ5; Tmub1|Q9JMG3; Abcc5|Q9R1X5; Atrn|Q9WU60; Pld1|Q9Z280</t>
+    <t xml:space="preserve">Emg1|O35130; Ap1b1|O35643; Polr2a|P08775; Dnah2|P0C6F1; Gpx1|P11352; Kpna2|P52293; Evi5|P97366; Mex3d|Q3UE17; Spire1|Q52KF3; Pml|Q60953; Edrf1|Q6GQV7; Hltf|Q6PCN7; Rasa4|Q6PFQ7; Arhgap10|Q6Y5D8; Topbp1|Q6ZQF0; Klhl29|Q80T74; Gorab|Q8BRM2; Coro2a|Q8C0P5; Eri3|Q8C460; Rps19bp1|Q8C6B9; Bdh2|Q8JZV9; Snrnp27|Q8K194; Svil|Q8K4L3; Zfp830|Q8R1N0; Ap3m2|Q8R2R9; Cul7|Q8VE73; Ptov1|Q91VU8; Synpo2|Q91YE8; Coro6|Q920M5; Map1lc3b|Q9CQV6; Pop4|Q9CR08; Bbs2|Q9CWF6; Cnih4|Q9CX13; Atp6v1f|Q9D1K2; Ascc1|Q9D8Z1; Mapk8ip2|Q9ERE9; Lima1|Q9ERG0; Ap4m1|Q9JKC7; Cd5l|Q9QWK4; Nphp1|Q9QY53; Cry2|Q9R194; Fzr1|Q9R1K5; Fut8|Q9WTS2; Rps6kb2|Q9Z1M4; Pikfyve|Q9Z1T6; Fem1b|Q9Z2G0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ptpru|B1AUH1; Tmem240|B2RWJ3; Epb41l2|O70318; Cntn1|P12960; Cdc42|P60766; Jup|Q02257; Cntn3|Q07409; Bax|Q07813; Rhoc|Q62159; Vangl2|Q91ZD4; Vstm2b|Q9JME9; Slc7a11|Q9WTR6; Cpq|Q9WVJ3; Cdh20|Q9Z0M3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fggy|A2AJL3; Plch2|A2AP18; Rabgap1|A2AWA9; Arhgef10l|A2AWP8; Tyw5|A2RSX7; Tbc1d8b|A3KGB4; Usp24|B1AY13; Ankrd44|B2RXR6; Ptrhd1|D3Z4S3; Wdfy4|E9Q2M9; Yjefn3|F6W8I0; Bin1|O08539; Unc5c|O08747; Serpinb8|O08800; Ro60|O08848; Dpysl4|O35098; Kpna4|O35343; Kpna3|O35344; Kpna6|O35345; Pmm1|O35621; Aox1|O54754; Chka|O54804; Csnk2a2|O54833; Reps1|O54916; Pip5k1c|O70161; Pgam2|O70250; Klc1|O88447; Ddc|O88533; Pak1|O88643; Arl6|O88848; Apba3|O88888; Lin7b|O88951; Gnpda1|O88958; Tpp1|O89023; Coro1a|O89053; Aldoc|P05063; Prkaca|P05132; Gstm1|P10649; Prkar2a|P12367; Nme1|P15532; Hspa2|P17156; Th|P24529; Aldh1a1|P24549; Gabra2|P26048; Plaa|P27612; Braf|P28028; Aco1|P28271; Map2k1|P31938; Kif1a|P33173; Ptpn11|P35235; Cap1|P40124; Akr1b8|P45377; Map2k4|P47809; Gad1|P48318; Gad2|P48320; Ppp3cb|P48453; Tmod1|P49813; Gng4|P50153; Uros|P51163; Pkm|P52480; Pitpnb|P53811; Golga3|P55937; Nudt2|P56380; Ctbp2|P56546; Tbc1d10a|P58802; Nup43|P59235; Pdxp|P60487; Ube2m|P61082; Ube2d2a|P62838; Sult4a1|P63046; Dynll1|P63168; Ppp2ca|P63330; Csnk2b|P67871; Pfkfb2|P70265; Ctps2|P70303; Ctps|P70698; Crmp1|P97427; Lypla1|P97823; Enah|Q03173; Relch|Q148V7; Gspt2|Q149F3; Tnfaip8l3|Q3TBL6; Abraxas2|Q3TCJ1; Pde12|Q3TIU4; Fbxo31|Q3TQF0; Hace1|Q3U0D9; Ctu2|Q3U308; Yrdc|Q3U5F4; Trafd1|Q3UDK1; Wdr41|Q3UDP0; Zyg11b|Q3UFS0; Garem1|Q3UFT3; Arfgef3|Q3UGY8; Smcr8|Q3UMB5; Lingo2|Q3URE9; Tbc1d24|Q3UUG6; Strada|Q3UUJ4; Nt5c2|Q3V1L4; Pacs2|Q3V3Q7; Oxr1|Q4KMM3; Ipcef1|Q5DU31; Vps13a|Q5H8C4; Diras2|Q5PR73; Osbp2|Q5QNQ6; Abr|Q5SSL4; Tns3|Q5SSZ5; Tbc1d9b|Q5SVR0; Ubr3|Q5U430; Rnf123|Q5XPI3; Cttn|Q60598; Pak3|Q61036; Bcar1|Q61140; Erbb4|Q61527; Pacsin1|Q61644; Myh10|Q61879; Plcg1|Q62077; Ralbp1|Q62172; Dpysl3|Q62188; Irak1|Q62406; Ifit3|Q64345; Fnip1|Q68FD7; Prex1|Q69ZK0; Swap70|Q6A028; C9orf72|Q6DFW0; Ppp2r2a|Q6P1F6; Tnpo3|Q6P2B1; Sik3|Q6P4S6; Ubxn7|Q6P5G6; Mtss2|Q6P9S0; Prmt8|Q6PAK3; Herc4|Q6PAV2; Ado|Q6PDY2; Myh14|Q6URW6; Ubr2|Q6WKZ8; Ppp2r1a|Q76MZ3; Doc2a|Q7TNF0; Ppp6r1|Q7TSI3; Vat1l|Q80TB8; Cadps|Q80TJ1; Scrib|Q80U72; Wipi2|Q80W47; Ric8b|Q80XE1; Atg2b|Q80XK6; Llgl1|Q80Y17; Ddhd2|Q80Y98; Tnpo1|Q8BFY9; Pld4|Q8BG07; Ubash3b|Q8BGG7; Fbxo30|Q8BJL1; Ablim2|Q8BL65; Iqcb1|Q8BP00; Nars|Q8BP47; Ppp1r18|Q8BQ30; Cep295|Q8BQ48; Eml5|Q8BQM8; Dusp28|Q8BTR5; Gmppb|Q8BTZ7; Mrpl22|Q8BU88; Gphn|Q8BUV3; Nudt9|Q8BVU5; Kank2|Q8BX02; Cadps2|Q8BYR5; Tigar|Q8BZA9; Glmn|Q8BZM1; Fem1al|Q8C0T1; Zfp428|Q8C1M2; Unc119b|Q8C4B4; Crbn|Q8C7D2; Naprt|Q8CC86; Nedd4l|Q8CFI0; Akr7a5|Q8CG76; Rgs12|Q8CGE9; Tph2|Q8CGV2; Vps37a|Q8CHS8; Pygb|Q8CI94; Fermt2|Q8CIB5; Amdhd2|Q8JZV7; Oplah|Q8K010; Trnt1|Q8K1J6; Dnm1l|Q8K1M6; Spire2|Q8K1S6; Fn3krp|Q8K274; Inpp5b|Q8K337; Babam2|Q8K3W0; Pitpnc1|Q8K4R4; Naxe|Q8K4Z3; 6430548M08Rik|Q8R0A7; Cplx3|Q8R1B5; Aagab|Q8R2R3; Ppp6r2|Q8R3Q2; Eps8l1|Q8R5F8; Gpn1|Q8VCE2; Cth|Q8VCN5; Fbxo21|Q8VDH1; Nit1|Q8VDK1; Mical1|Q8VDP3; Rab3il1|Q8VDV3; Nrbp2|Q91V36; Snx9|Q91VH2; Memo1|Q91VH6; Smap1|Q91VZ6; Fbxl15|Q91W61; Lrrfip2|Q91WK0; Cbs|Q91WT9; Dcxr|Q91X52; Ipo9|Q91YE6; Asl|Q91YI0; Necab2|Q91ZP9; Fgd4|Q91ZT5; Als2|Q920R0; Rnf31|Q924T7; Hagh|Q99KB8; Vwa5a|Q99KC8; Gstt3|Q99L20; Ubqln4|Q99NB8; Ppp1r3g|Q9CW07; Dph7|Q9CYU6; Mms19|Q9D071; Dynll2|Q9D0M5; Ube2v2|Q9D2M8; Trmt44|Q9D2Q2; Msra|Q9D6Y7; Dusp3|Q9D7X3; Bola1|Q9D8S9; Atg101|Q9D8Z6; Atg7|Q9D906; Rwdd2a|Q9D9S3; Echdc1|Q9D9V3; Zfyve19|Q9DAZ9; Iah1|Q9DB29; Selenoo|Q9DBC0; Aldh7a1|Q9DBF1; Cpne8|Q9DC53; Pycrl|Q9DCC4; Pgd|Q9DCD0; Xpo7|Q9EPK7; Ipo7|Q9EPL8; Nif3l1|Q9EQ80; Dpysl5|Q9EQF6; Xpo4|Q9ESJ0; Pygl|Q9ET01; Nit2|Q9JHW2; Psmg1|Q9JK23; Aldh9a1|Q9JLJ2; Kif21a|Q9QXL2; Fbxo6|Q9QZN4; Vav3|Q9R0C8; Stk11|Q9WTK7; Ptpn4|Q9WU22; Pfdn5|Q9WU28; Pygm|Q9WUB3; Coro1b|Q9WUM3; Rps6ka2|Q9WUT3; Nme3|Q9WV85; Epb41l3|Q9WV92; Magi2|Q9WVQ1; Bpnt1|Q9Z0S1; Gab2|Q9Z1S8; Rasal1|Q9Z268; Epb41l1|Q9Z2H5; Hdac6|Q9Z2V5; Psmd10|Q9Z2X2; Plpbp|Q9Z2Y8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ttc17|E9PVB5; Rab11fip2|G3XA57; Fcgr2b|P08101; Cst3|P21460; Inf2|Q0GNC1; Enpp6|Q8BGN3; Ostm1|Q8BGT0; Wdr48|Q8BH57; Ehd2|Q8BH64; Tmem161b|Q8C2L6; Mfsd6|Q8CBH5; Crocc|Q8CJ40; Cerk|Q8K4Q7; Ccdc115|Q8VE99; Rnf167|Q91XF4; Dnajc14|Q921R4; Ctnnbl1|Q9CWL8; Qpct|Q9CYK2; Cthrc1|Q9D1D6; Rab11fip1|Q9D620; Gtf2i|Q9ESZ8; Hs6st3|Q9QYK4; Sh3bp5|Q9Z131</t>
   </si>
   <si>
     <t xml:space="preserve">M20</t>
   </si>
   <si>
-    <t xml:space="preserve">Ctnna1|P26231; C2cd5|Q7TPS5; Slitrk2|Q810C0; Rftn2|Q8CHX7; Cacnb1|Q8R3Z5; Glipr2|Q9CYL5; Ttc7b|E9Q6P5; Slc6a1|P31648; Septin9|Q80UG5; Ctsf|Q9R013; Fam171a2|A2A699; Scn1a|A2APX8; Scn2a|B1AWN6; Stxbp1|O08599; Sema4d|O09126; Ctnnd2|O35927; Cacna1b|O55017; Adcy1|O88444; Hcn3|O88705; Lrrc4b|P0C192; Cdh2|P15116; Slc4a3|P16283; Ctnnd1|P30999; Slc2a3|P32037; Septin2|P42208; Cnr1|P47746; Kcnj4|P52189; Cdh11|P55288; Rac3|P60764; Snap25|P60879; Slc7a10|P63115; Cdh10|P70408; Slc7a3|P70423; Cdh6|P97326; Scn1b|P97952; Arvcf|P98203; Ctnnb1|Q02248; Kcnma1|Q08460; Lrfn1|Q2WF71; Ica1l|Q3TY65; Rnf150|Q5DTZ6; Cemip2|Q5FWI3; Xkr4|Q5GH67; Cdh12|Q5RJH3; Ctnna2|Q61301; Kcna4|Q61423; Grik5|Q61626; Aga|Q64191; Slc13a5|Q67BT3; Pkp4|Q68FH0; Nlgn2|Q69ZK9; Prrt3|Q6PE13; Efr3b|Q6ZQ18; Robo2|Q7TPD3; Lrfn2|Q80TG9; Rap2a|Q80ZJ1; Efr3a|Q8BG67; Olfm2|Q8BM13; Pakap|Q8BR92; Csnk1g1|Q8BTH8; Septin11|Q8C1B7; Fam126b|Q8C729; Nrn1|Q8CFV4; Unc5a|Q8K1S4; Plcd3|Q8K2J0; Kcnq3|Q8K3F6; Appl2|Q8K3G9; Slc8a2|Q8K596; 4933434E20Rik|Q8R092; Zdhhc5|Q8VDZ4; Glra3|Q91XP5; Pde2a|Q922S4; Ptprt|Q99M80; Ykt6|Q9CQW1; Nrxn1|Q9CS84; Rab3b|Q9CZT8; Lingo1|Q9D1T0; Fmn2|Q9JL04; Slc7a8|Q9QXW9; Septin6|Q9R1T4; Trpv2|Q9WTR1; Acvr1|P37172; Ednrb|P48302; Stum|Q0VBF8; Nrxn3|Q6P9K9; Rtn4rl2|Q7M6Z0; Tmem198|Q8BG75; Kirrel3|Q8BR86; Rtn4rl1|Q8K0S5; Tmem51|Q99LG1; Tmem178|Q9CZ16; Slc7a5|Q9Z127; Ptprf|A2A8L5; Gnai1|B2RSH2; Nrxn2|E9Q7X7; Gfra2|O08842; Slc6a6|O35316; Slc1a4|O35874; Entpd2|O55026; Ppt1|O88531; Gnai2|P08752; Slc3a2|P10852; L1cam|P11627; F3|P20352; Gna13|P27601; Chrm4|P32211; Bmpr1a|P36895; Adcy9|P51830; Rras2|P62071; Rhob|P62746; Gnb1|P62874; Gabrb3|P63080; Epha4|Q03137; Smpd1|Q04519; Mdga1|Q0PMG2; Cntnap5a|Q0V8T9; Fam171b|Q14CH0; Gpr162|Q3UN16; Taok1|Q5F2E8; Slc39a12|Q5FWH7; Kcnh1|Q60603; Adora1|Q60612; Slc30a1|Q60738; Sema4a|Q62178; Cntn4|Q69Z26; Mvb12b|Q6KAU4; Rhbdf1|Q6PIX5; Ankib1|Q6ZPS6; Plxna4|Q80UG2; Arl15|Q8BGR6; Tspan9|Q8BJU2; Shisa4|Q8CA71; Slc24a4|Q8CGQ8; Cadm1|Q8R5M8; Pafah2|Q8VDG7; Spred2|Q924S7; Gpr37l1|Q99JG2; Fuca1|Q99LJ1; 2810459M11Rik|Q9CYS6; Ttyh1|Q9D3A9; Fam13c|Q9DBR2; Fibp|Q9JI19; Jam2|Q9JI59; Naga|Q9QWR8; Rgs17|Q9QZB0; Gpc1|Q9QZF2; Syt10|Q9R0N4; Adam17|Q9Z0F8; Lipa|Q9Z0M5</t>
+    <t xml:space="preserve">Szt2|A2A9C3; Gm12695|A2AGB2; Med12|A2AGH6; Lzts3|A2AHG0; Trmt1l|A2RSY6; Otud3|B1AZ99; Soga1|E1U8D0; Ascc3|E9PZJ8; Chd2|E9PZM4; Arhgef5|E9Q7D5; Tubgcp6|G5E8P0; Kif1c|O35071; Ptpn9|O35239; Slc32a1|O35633; Stag2|O35638; Dapk3|O54784; Tpd52l1|O54818; Tnk2|O54967; Dcx|O88809; Tspyl1|O88852; Ccnk|O88874; Hdac3|O88895; Gas2|P11862; Irs1|P35569; Tubgcp3|P58854; Tubg1|P83887; Mprip|P97434; Tarbp2|P97473; Xrn1|P97789; Mark2|Q05512; Lyar|Q08288; Exph5|Q0VAV2; Tanc1|Q0VGY8; Wdr19|Q3UGF1; Dip2b|Q3UH60; Gfod1|Q3UHD2; Spata5|Q3UMC0; Nxt2|Q3UNA4; Cdkl5|Q3UTQ8; Ttbk2|Q3UVR3; Dync2h1|Q45VK7; Stox2|Q499E5; Ddx49|Q4FZF3; Herc2|Q4U2R1; Rtl6|Q505G4; Nufip2|Q5F2E7; Cobl|Q5NBX1; Neurl4|Q5NCX5; Lrrk2|Q5S006; Sin3a|Q60520; Arhgef2|Q60875; Dyrk1a|Q61214; Tpd52|Q62393; Nuak1|Q641K5; Top2b|Q64511; Tpp2|Q64514; Togaram1|Q6A070; Smarca2|Q6DIC0; Ralgapa1|Q6GYP7; BC048403|Q6P1I3; Nudt16|Q6P3D0; Rrp12|Q6P5B0; Dhx29|Q6PGC1; Dclk2|Q6PGN3; Rictor|Q6QI06; Eid2|Q6X7S9; Smg5|Q6ZPY2; Fhod3|Q76LL6; Ints3|Q7TPD0; Mycbp2|Q7TPH6; Ints7|Q7TQK1; Exosc3|Q7TQK4; R3hdm2|Q80TM6; Dgkz|Q80UP3; Trim56|Q80VI1; Ppp1r10|Q80W00; Btbd10|Q80X66; Zfp598|Q80YR4; Synpr|Q8BGN8; Kctd13|Q8BGV7; Klhl26|Q8BGY4; Coro2b|Q8BH44; Ap5m1|Q8BJ63; Nop53|Q8BK35; Csnk1a1|Q8BK63; Mapkap1|Q8BKH7; Tubgcp5|Q8BKN5; Ankrd34c|Q8BLB8; Ralgapb|Q8BQZ4; Lsm11|Q8BUV6; Gprasp2|Q8BUY8; Gtdc1|Q8BW56; Larp4|Q8BWW4; Zfp574|Q8BY46; Trim35|Q8C006; Wdr59|Q8C0M0; Myo9a|Q8C170; Bbs4|Q8C1Z7; Rae1|Q8C570; Grsf1|Q8C5Q4; Trim9|Q8C7M3; Spice1|Q8C804; Wdr24|Q8CFJ9; Rpgrip1l|Q8CG73; Rbm28|Q8CGC6; Ep400|Q8CHI8; Ints5|Q8CHT3; Tdrd7|Q8K1H1; Spats2|Q8K1N4; Arfip2|Q8K221; Nat10|Q8K224; Ints10|Q8K2A7; Bbs7|Q8K2G4; Zfp668|Q8K2R5; Fbxo45|Q8K3B1; Rbmx2|Q8R0F5; Znfx1|Q8R151; Dock7|Q8R1A4; Sh3glb2|Q8R3V5; Luzp1|Q8R4U7; Mib2|Q8R516; Tubg2|Q8VCK3; Mios|Q8VE19; Acot11|Q8VHQ9; Noc3l|Q8VI84; Rbm42|Q91V81; Nifk|Q91VE6; Tubgcp2|Q921G8; Mthfd1|Q922D8; Map4k3|Q99JP0; Med4|Q9CQA5; Smc3|Q9CW03; Cxxc1|Q9CWW7; Gfod2|Q9CYH5; Tpd52l2|Q9CYZ2; Dimt1|Q9D0D4; Tubgcp4|Q9D4F8; Ccdc124|Q9D8X2; Nvl|Q9DBY8; Ranbp2|Q9ERU9; Sh3glb1|Q9JK48; Ybx3|Q9JKB3; Trip4|Q9QXN3; Usp21|Q9QZL6; Atp6v1g2|Q9WTT4; Smarcb1|Q9Z0H3; Recql|Q9Z129; Apc2|Q9Z1K7; Rasgrp1|Q9Z1S3; Mtmr9|Q9Z2D0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cdr2l|A2A6T1; Fmnl2|A2APV2; Kcnb2|A6H8H5; Pex10|B1AUE5; Dock5|B2RY04; Akap5|D3YVF0; Matn2|O08746; Ptgds|O09114; Sod3|O09164; Amacr|O09174; Phyh|O35386; Anxa3|O35639; Stk10|O55098; Cfdp1|O88271; Ctnnal1|O88327; Stam2|O88811; Afm|O89020; Adh1|P00329; Car2|P00920; Lamb1|P02469; Araf|P04627; Prnp|P04925; Ttr|P07309; Anxa2|P07356; Alb|P07724; Serpina1a|P07758; Prkg1|P0C605; Anxa1|P10107; Agt|P11859; App|P12023; Gsn|P13020; Car1|P13634; Anxa6|P14824; Gc|P21614; Ces1c|P23953; Cat|P24270; Msn|P26041; Ptma|P26350; Ahsg|P29699; Gna15|P30678; Scp2|P32020; Serpinc1|P32261; Fah|P35505; Folr1|P35846; Fbln2|P37889; Dnm2|P39054; Cdkn1b|P46414; Anxa5|P48036; S100a11|P50543; Hsd17b4|P51660; Apod|P51910; Abcd3|P55096; Usp25|P57080; Acot8|P58137; Arl1|P61211; Ufm1|P61961; Arf6|P62331; Vsnl1|P62761; Tuba1a|P68369; Stam|P70297; Sparcl1|P70663; Kcnj13|P86046; Anxa11|P97384; Anxa4|P97429; Mllt11|P97783; Dab2|P98078; Gnpat|P98192; Rbp4|Q00724; Serpina1d|Q00897; Aqp1|Q02013; Col6a2|Q02788; Aplp1|Q03157; Cdk16|Q04735; Clu|Q06890; Padi2|Q08642; Nell1|Q2VWQ2; Ankmy2|Q3TPE9; Fcho2|Q3UQN2; Plcl1|Q3USB7; Niban1|Q3UW53; Pls1|Q3V0K9; Spag9|Q58A65; Pex1|Q5BL07; Ermn|Q5EBJ4; Synrg|Q5SV85; Shroom1|Q5SX79; Acbd5|Q5XG73; Crhbp|Q60571; Icam5|Q60625; P4ha1|Q60715; Stxbp3|Q60770; Gas7|Q60780; Rasa3|Q60790; Trpc1|Q61056; Nell2|Q61220; Serpinf2|Q61247; Abcd2|Q61285; Stard3|Q61542; Mrc1|Q61830; Dag1|Q62165; Slc26a2|Q62273; Spock1|Q62288; Stxbp2|Q64324; Megf10|Q6DIB5; Rragb|Q6NTA4; Golm2|Q6P2L7; Pcdhb14|Q6PB90; Armh3|Q6PD19; Slc6a5|Q761V0; Snd1|Q78PY7; Smap2|Q7TN29; Pcdh8|Q7TSK3; Erbin|Q80TH2; Ankrd13a|Q80UP5; Gstm7|Q80W21; Agfg2|Q80WC7; Trim36|Q80WG7; Nucks1|Q80XU3; Crb2|Q80YA8; Tnc|Q80YX1; Ttc9c|Q810A3; Slitrk1|Q810C1; Fstl5|Q8BFR2; Clic6|Q8BHB9; Itih5|Q8BJD1; Chmp2b|Q8BJF9; Tmem214|Q8BM55; Ckap4|Q8BMK4; Adamts4|Q8BNJ2; Sfr1|Q8BP27; Ndrg4|Q8BTG7; Nup54|Q8BTS4; Qdpr|Q8BVI4; Slc38a7|Q8BWH0; Golim4|Q8BXA1; Tmem266|Q8BZB3; Dhx32|Q8BZS9; Snx16|Q8C080; Agps|Q8C0I1; Lrrn3|Q8CBC6; Fermt3|Q8K1B8; Colgalt1|Q8K297; Agfg1|Q8K2K6; Nmral1|Q8K2T1; Niban2|Q8R1F1; Hid1|Q8R1F6; Aspa|Q8R3P0; Stab1|Q8R4Y4; Apbb1ip|Q8R5A3; Rmc1|Q8VC42; Slc22a6|Q8VC69; Zfyve21|Q8VCM3; Slc15a4|Q91W98; Scgn|Q91WD9; Serpina3n|Q91WP6; Hpx|Q91X72; Slc13a3|Q91Y63; Acaa1a|Q921H8; Trf|Q921I1; Chmp1a|Q921W0; Far1|Q922J9; Taldo1|Q93092; Gorasp2|Q99JX3; Arfgap2|Q99K28; Eps8l2|Q99K30; Sntb1|Q99L88; Pex6|Q99LC9; Ptdss1|Q99LH2; Hgs|Q99LI8; Pecr|Q99MZ7; Sar1b|Q9CQC9; Rgs10|Q9CQE5; Desi1|Q9CQT7; Carhsp1|Q9CR86; Ranbp3|Q9CT10; 2410004B18Rik|Q9CWU4; Ssu72|Q9CY97; Tmem135|Q9CYV5; Ptms|Q9D0J8; Serpinb1a|Q9D154; Lamtor5|Q9D1L9; Cmip|Q9D486; Dcps|Q9DAR7; Tysnd1|Q9DBA6; Plin3|Q9DBG5; Baiap2l1|Q9DBJ3; Lonp2|Q9DBN5; Nudt12|Q9DCN1; Sil1|Q9EPK6; Trpv4|Q9EPK8; Clstn1|Q9EPL2; Acox3|Q9EPL9; Palmd|Q9JHU2; Ldb3|Q9JKS4; Gltp|Q9JL62; Scly|Q9JLI6; Rabgef1|Q9JM13; Sema7a|Q9QUR8; Pex3|Q9QXY9; Clic4|Q9QYB1; Ndrg3|Q9QYF9; Gab1|Q9QYY0; Acox1|Q9R0H0; Mmp17|Q9R0S3; Enpp2|Q9R1E6; Sae1|Q9R1T2; Decr2|Q9WV68; Tagln2|Q9WVA4; Ehd1|Q9WVK4; Sncg|Q9Z0F7; Uba2|Q9Z1F9; Pex11b|Q9Z210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shroom2|A2ALU4; Ptprz1|B9EKR1; Aip|O08915; Atox1|O08997; Gclm|O09172; Nudc|O35685; Gamt|O35969; Gucy1b1|O54865; Impa1|O55023; Snca|O55042; Acot1|O55137; Pdlim1|O70400; Scrg1|O88745; Tom1|O88746; Rbbp9|O88851; Mt2|P02798; Hsp90aa1|P07901; Sod1|P08228; Camk4|P08414; Calm2|P0DP27; Txn1|P10639; Hsp90ab1|P11499; Nudt19|P11930; Calb1|P12658; Bpgm|P15327; Lgals1|P16045; Gstp1|P19157; Prkca|P20444; Tpm3|P21107; Tgm2|P21981; Hmbs|P22907; Crabp2|P22935; Glb1|P23780; Nfkb1|P25799; Tln1|P26039; Car8|P28651; Nap1l1|P28656; Fkbp4|P30416; Prkar2b|P31324; Dbi|P31786; Pvalb|P32848; Oxt|P35454; Ppm1b|P36993; Akr1b3|P45376; Vps4b|P46467; Nedd4|P46935; Mapk14|P47811; Tbca|P48428; Cdk5|P49615; Nat2|P50295; Arsa|P50428; Gpc4|P51655; Gss|P51855; Stat6|P52633; Stmn1|P54227; Rad23a|P54726; Nub1|P54729; Faf1|P54731; Tango2|P54797; Adprh|P54923; Adk|P55264; Pdcd5|P56812; Tpm1|P58771; Nrgn|P60761; Ensa|P60840; Ube2d3|P61079; Fgf1|P61148; Arf4|P61750; Vbp1|P61759; Nutf2|P61971; Tsc22d1|P62500; Hpcal1|P62748; Mtpn|P62774; Gnb5|P62881; Pfn1|P62962; Cplx1|P63040; Pcp4|P63054; Prkcg|P63318; Ube2l3|P68037; Ywhaq|P68254; Prkcb|P68404; Ywhah|P68510; Pebp1|P70296; Rock1|P70335; Hint1|P70349; Irf3|P70671; Hpca|P84075; Cplx2|P84086; S100a13|P97352; Sms|P97355; Wbp2|P97765; Jpt1|P97825; G6pdx|Q00612; Rbp1|Q00915; Pde1b|Q01065; Pfdn6|Q03958; Rela|Q04207; Anxa7|Q07076; Cbfb|Q08024; Calb2|Q08331; Cpne7|Q0VE82; Osbp|Q3B7Z2; Ric8a|Q3TIR3; Scrn3|Q3TMH2; Dhps|Q3TXU5; Fchsd2|Q3USJ8; Crppa|Q5RJG7; Ankrd40|Q5SUE8; Kif1b|Q60575; Ppp1r1b|Q60829; Serpinb6a|Q60854; Asns|Q61024; Cdc37|Q61081; Gbp3|Q61107; Lcp1|Q61233; Fnta|Q61239; Igbp1|Q61249; Arhgdib|Q61599; Phgdh|Q61753; Ovgp1|Q62010; Pea15a|Q62048; Zpr1|Q62384; Ostf1|Q62422; Cstb|Q62426; Zyx|Q62523; Omp|Q64288; Myo6|Q64331; Nqo1|Q64669; Srm|Q64674; Rapgefl1|Q68EF8; Galk2|Q68FH4; Ehbp1|Q69ZW3; N4bp1|Q6A037; Churc1|Q6DG52; Tpm4|Q6IRU2; Sri|Q6P069; Sat2|Q6P8J2; Ip6k1|Q6PD10; N6amt1|Q6SKR2; Kctd12|Q6WVG3; Carns1|Q6ZPS2; Kifbp|Q6ZPU9; Arhgap26|Q6ZQ82; Ube2r2|Q6ZWZ2; Nap1l4|Q78ZA7; Actn1|Q7TPR4; Ube2q1|Q7TSS2; Adal|Q80SY6; Fnbp1|Q80TY0; Sra1|Q80VJ2; Flnb|Q80X90; Necab1|Q8BG18; Enoph1|Q8BGB7; Atg4b|Q8BGE6; D3Ertd751e|Q8BGN2; Bola2|Q8BGS2; Hpcal4|Q8BGZ1; Ubap1|Q8BH48; Czib|Q8BHG2; Psmf1|Q8BHL8; Ncs1|Q8BNY6; Cc2d1b|Q8BRN9; Pggt1b|Q8BUY9; Rhpn2|Q8BWR8; Osgep|Q8BWU5; Tbc1d17|Q8BYH7; Tnr|Q8BYI9; Itpk1|Q8BYN3; Arhgef10|Q8C033; Thop1|Q8C1A5; Tbcel|Q8C5W3; Rtkn|Q8C6B2; Cfap36|Q8C6E0; Tsr2|Q8C8T8; Ttc27|Q8CD92; Cdc34|Q8CFI2; Trim32|Q8CH72; Ngef|Q8CHT1; Epn2|Q8CHU3; Dym|Q8CHY3; Hmgcs1|Q8JZK9; Cpne5|Q8JZW4; Ppp1r11|Q8K1L5; Fntb|Q8K2I1; Brox|Q8K2Q7; Shtn1|Q8K2Q9; Champ1|Q8K327; Lzic|Q8K3C3; Appl1|Q8K3H0; Gpt|Q8QZR5; Aamdc|Q8R0P4; Nudcd3|Q8R1N4; Phospho1|Q8R2H9; Pex19|Q8VCI5; Tbcc|Q8VCN9; Abhd14b|Q8VCR7; Sgtb|Q8VD33; Myh9|Q8VDD5; Vps4a|Q8VEJ9; Hdac8|Q8VH37; Irgq|Q8VIM9; Ciapin1|Q8WTY4; Rnh1|Q91VI7; Wdr45|Q91VM3; Snx15|Q91WE1; Rabif|Q91X96; Ncald|Q91X97; Dap|Q91XC8; Pnpo|Q91XF0; Csdc2|Q91YQ3; Ttc1|Q91Z38; Sncb|Q91ZZ3; Tmem132a|Q922P8; Ddo|Q922Z0; Nans|Q99J77; Adi1|Q99JT9; Acy1|Q99JW2; Pdxdc1|Q99K01; Rragc|Q99K70; Psat1|Q99K85; Cryl1|Q99KP3; Lactb2|Q99KR3; St13|Q99L47; Ddah2|Q99LD8; Arhgdia|Q99PT1; Glo1|Q9CPU0; Chmp3|Q9CQ10; Stambp|Q9CQ26; Nudcd2|Q9CQ48; Mien1|Q9CQ86; Gmfb|Q9CQI3; Txndc17|Q9CQM5; Ufc1|Q9CR09; Ccdc43|Q9CR29; Atxn3|Q9CVD2; Sugt1|Q9CX34; Cygb|Q9CX80; Ube2f|Q9CY34; Eef1akmt1|Q9CY45; Rnf181|Q9CY62; Scrn1|Q9CZC8; Cdc37l1|Q9CZP7; Pbdc1|Q9D0B6; Arl2|Q9D0J4; Nudt14|Q9D142; Vps28|Q9D1C8; Tbcb|Q9D1E6; Pmvk|Q9D1G2; Chordc1|Q9D1P4; Saal1|Q9D2C2; Synj2|Q9D2G5; Coro7|Q9D2V7; Rufy3|Q9D394; Tubb4a|Q9D6F9; Pir|Q9D711; Chmp5|Q9D7S9; Kctd4|Q9D7X1; Ggct|Q9D7X8; Ppa1|Q9D819; Chmp4b|Q9D8B3; Mdp1|Q9D967; Ddi1|Q9DAF3; Cab39l|Q9DB16; Chmp2a|Q9DB34; Prkar1a|Q9DBC7; Rgs3|Q9DC04; Nebl|Q9DC07; Crot|Q9DC50; Ppp1r2|Q9DCL8; Hikeshi|Q9DD02; Cert1|Q9EQG9; Rcan2|Q9JHG2; Tmod3|Q9JHJ0; Nrip2|Q9JHR9; Stk3|Q9JI10; Nqo2|Q9JI75; Rnf14|Q9JI90; Actn2|Q9JI91; Kcnip1|Q9JJ57; Rilpl1|Q9JJC6; Sh3bgrl|Q9JJU8; Pxmp4|Q9JJW0; Tuba8|Q9JJZ2; Myg1|Q9JK81; Uchl3|Q9JKB1; Trim44|Q9QXA7; Hacl1|Q9QXE0; Chm|Q9QXG2; Galk1|Q9R0N0; Uchl1|Q9R0P9; Ptges3|Q9R0Q7; Akap12|Q9WTQ5; Mapk9|Q9WTU6; Skp1|Q9WTX5; Hebp2|Q9WU63; Faim|Q9WUD8; Arl3|Q9WUL7; Stxbp4|Q9WV89; Cpne6|Q9Z140; Clic1|Q9Z1Q5; Stk39|Q9Z1W9; Uso1|Q9Z1Z0; Pmm2|Q9Z2M7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ralgapa2|A3KGS3; Otud4|B2RRE7; Fry|E9Q8I9; Clk3|O35492; Dnajb5|O89114; Rps15a|P62245; Rps18|P62270; Rps13|P62301; Rps26|P62855; Rps27a|P62983; G3bp1|P97855; Zswim8|Q3UHH1; Gtpbp2|Q3UJK4; Mthfsd|Q3URQ7; Ddx19a|Q61655; Jmjd1c|Q69ZK6; Tasor|Q69ZR9; Nipbl|Q6KCD5; Ift172|Q6VH22; Larp1|Q6ZQ58; Etf1|Q8BWY3; Camsap2|Q8C1B1; Ahi1|Q8K3E5; Nol6|Q8R5K4; Kdm4b|Q91VY5; Neurl1a|Q923S6; Med30|Q9CQI9; Hspa12b|Q9CZJ2; Pak1ip1|Q9DCE5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pnpla7|A2AJ88; Frrs1l|B1AXV0; Kcnk1|O08581; Faah|O08914; Degs1|O09005; Pkd2|O35245; Pdyn|O35417; Fkbp8|O35465; Sptlc1|O35704; Cyp2j6|O54750; Banf1|O54962; Chrna4|O70174; Nptx2|O70340; Stx7|O70439; Smpd2|O70572; Cacna1h|O88427; Slc27a3|O88561; Adam15|O88839; Leprot|O89013; Abcd4|O89016; Vti1a|O89116; Bcl2|P10417; Napb|P28663; Rab5c|P35278; Agtr2|P35374; Ptpn1|P35821; Ptprk|P35822; Tbxas1|P36423; Vps26a|P40336; Nsf|P46460; Aldh3a2|P47740; Glrb|P48168; Psen1|P49769; Rab7|P51150; Rab2a|P53994; Tyro3|P55144; Bace1|P56818; B3gat3|P58158; Aaas|P58742; Rab2b|P59279; Rab5b|P61021; Rab8b|P61028; Snn|P61807; Rab1a|P62821; Vamp7|P70280; Ptprn2|P80560; Pam|P97467; Adra1b|P97717; Cpt1a|P97742; Nrsn1|P97799; Atp8b2|P98199; Faf2|Q3TDN2; Srebf2|Q3U1N2; Lbr|Q3U9G9; Pid1|Q3UBG2; Yipf3|Q3UDR8; Rnft2|Q3UF64; Tmed8|Q3UHI4; Slc2a13|Q3UHK1; Ankrd13c|Q3UX43; Elmod1|Q3V1U8; Chsy3|Q5DTK1; Dhrs13|Q5SS80; Bloc1s3|Q5U5M8; Ptprn|Q60673; Slc27a1|Q60714; Sdf4|Q61112; Nptx1|Q62443; Npdc1|Q64322; Stx3|Q64704; Tmem151b|Q68FE7; Gpr17|Q6NS65; Ube2j2|Q6P073; Frmd5|Q6P5H6; Rundc3b|Q6PDC0; Tacc1|Q6Y685; Tmed3|Q78IS1; Slc20a2|Q80UP8; Abhd13|Q80UX8; Chst2|Q80WV3; Tmem167b|Q80X45; Atp2c1|Q80XR2; Svop|Q8BFT9; Elmod2|Q8BGF6; Qpctl|Q8BH73; Rab39b|Q8BHC1; Dcakd|Q8BHC4; Rab9b|Q8BHH2; Armcx3|Q8BHS6; Tm2d3|Q8BJ83; Csgalnact1|Q8BJQ9; Miga2|Q8BK03; Cyp20a1|Q8BKE6; Lss|Q8BLN5; Slc7a4|Q8BLQ7; Neto2|Q8BNJ6; Man2a2|Q8BRK9; Nat14|Q8BVG8; B4gat1|Q8BWP8; Osbpl2|Q8BX94; Lpcat2|Q8BYI6; Itch|Q8C863; Slc35e1|Q8CD26; Kctd2|Q8CEZ0; Scyl2|Q8CFE4; Stx5a|Q8K1E0; Slc38a1|Q8K2P7; Stxbp5|Q8K400; Sccpdh|Q8R127; Ptrh2|Q8R2Y8; Mboat2|Q8R3I2; Slc30a5|Q8R4H9; Usp33|Q8R5K2; Dhrsx|Q8VBZ0; Fam20b|Q8VCS3; Slc35f6|Q8VE96; Arl8a|Q8VEH3; Tmem30a|Q8VEK0; Pcnx3|Q8VI59; Lpcat3|Q91V01; Rab14|Q91V41; Tmem168|Q91VX9; Acsl6|Q91WC3; Frs3|Q91WJ0; Wwox|Q91WL8; Pgap4|Q91YV9; B3galt6|Q91Z92; Abhd3|Q91ZH7; Slc35b2|Q91ZN5; Rab4b|Q91ZR1; Slc41a3|Q921R8; Slc12a6|Q924N4; Nptxr|Q99J85; Kdelr1|Q99JH8; Ggt7|Q99JP7; Tlcd1|Q99JT6; Dhrs1|Q99L04; Dipk1b|Q99ML4; Slc12a9|Q99MR3; Slc24a3|Q99PD7; Arl8b|Q9CQW2; Ier3ip1|Q9CR20; Napg|Q9CWZ7; Armcx1|Q9CX83; Dhrs7|Q9CXR1; Fbxl20|Q9CZV8; Rab1b|Q9D1G1; Etnk1|Q9D4V0; Tmem68|Q9D850; Snx5|Q9D8U8; Napa|Q9DB05; Gdap2|Q9DBL2; Apbb2|Q9DBR4; Tm9sf1|Q9DBU0; Cyb5r3|Q9DCN2; Cyp4f14|Q9EP75; Mettl9|Q9EPL4; Vps35|Q9EQH3; Tpcn1|Q9EQJ0; Icmt|Q9EQK7; Syt13|Q9EQT6; Stx12|Q9ER00; Tor1a|Q9ER39; Erg28|Q9ERY9; Extl2|Q9ES89; Tm9sf3|Q9ET30; B3galt5|Q9JI67; Slc12a4|Q9JIS8; Galnt16|Q9JJ61; Stx6|Q9JKK1; Scamp4|Q9JKV5; Cln8|Q9QUK3; Jag2|Q9QYE5; Syt5|Q9R0N5; Atp6ap1|Q9R1Q9; Extl3|Q9WVL6; Sema4f|Q9Z123; Abhd16a|Q9Z1Q2; Slc25a14|Q9Z2B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Med14|A2ABV5; Thoc2|B1AZI6; Mfap1b|C0HKD9; Safb|D3YXK2; Cep350|E9Q309; Alyref|O08583; Mknk1|O08605; Eftud2|O08810; Hps1|O08983; Ntn1|O09118; Purb|O35295; Pnn|O35691; Hnrnph1|O35737; Api5|O35841; Cavin1|O54724; Trappc3|O55013; Sap18|O55128; Dhx9|O70133; Atxn2|O70305; Zfp326|O88291; Ap1g2|O88512; Zfr|O88532; Hnrnpa2b1|O88569; Krt18|P05784; H1f0|P10922; Parp1|P11103; Krt8|P11679; C1qb|P14106; Srp54a|P14576; H1f2|P15864; Ptbp1|P17225; Ap1g1|P22892; U2af2|P26369; Celf1|P28659; Pabpc1|P29341; Apoc3|P33622; Apoc1|P34928; Ap1m1|P35585; Fmr1|P35922; Pura|P42669; H1f4|P43274; H1f1|P43275; H1f5|P43276; Igfbp6|P47880; Hnrnpa1|P49312; Pcyt1a|P49586; Tia1|P52912; Ddx6|P54823; Pcbp3|P57722; Sf3b6|P59708; Pcbp1|P60335; Smg6|P61406; Hnrnpk|P61979; Lrch1|P62046; Ybx1|P62960; Crnkl1|P63154; Tial1|P70318; Elavl1|P70372; Rbbp6|P97868; Fmo5|P97872; C1qa|P98086; Hnrnpul2|Q00PI9; Sec23a|Q01405; Zc3h18|Q0P678; Rbm15|Q0VBL3; St3gal2|Q11204; Cdk12|Q14AX6; Patl1|Q3TC46; Khdc4|Q3TCX3; Prrc2c|Q3TLH4; Trappc10|Q3TLI0; Ctdnep1|Q3TP92; Map9|Q3TRR0; Ccdc136|Q3TVA9; Trappc9|Q3U0M1; Khsrp|Q3U0V1; Sec24a|Q3U2P1; Mcrip1|Q3UGS4; Tnrc6a|Q3UHK8; Edc4|Q3UJB9; Smu1|Q3UKJ7; Ccdc106|Q3ULM0; Sec31a|Q3UPL0; Map11|Q3UTZ3; Prpf38a|Q4FK66; Wdr18|Q4VBE8; Ddx17|Q501J6; Trappc1|Q5NCF2; Fbxw11|Q5SRY7; Coil|Q5SU73; Ggnbp2|Q5SV77; Gprasp1|Q5U4C1; Thoc6|Q5U4D9; Hnrnpd|Q60668; Khdrbs1|Q60749; Col12a1|Q60847; Elavl2|Q60899; Elavl3|Q60900; Prpf4b|Q61136; Fxr1|Q61584; Pcbp2|Q61990; Cep131|Q62036; Atm|Q62388; Eif4g2|Q62448; Raly|Q64012; Sf1|Q64213; Aktip|Q64362; H2bc18|Q64525; Tpgs2|Q66JT5; 0610010F05Rik|Q68FF0; Cdk13|Q69ZA1; Tbc1d30|Q69ZT9; Cdc5l|Q6A068; Helz|Q6DFV5; U2surp|Q6NV83; Sec23ip|Q6NZC7; Zc3h11a|Q6NZF1; Eif4g1|Q6NZJ6; Rbm26|Q6NZN0; Snrnp200|Q6P4T2; Smchd1|Q6P5D8; Snrnp40|Q6PE01; Ctif|Q6PEE2; Bud31|Q6PGH1; Rbm15b|Q6PHZ5; Tex2|Q6ZPJ0; Syncrip|Q7TMK9; Thoc7|Q7TMY4; Celf6|Q7TN33; Cpeb3|Q7TN99; Prrc2b|Q7TPM1; Nexn|Q7TPW1; Atxn2l|Q7TQH0; Prrc2a|Q7TSC1; Celf4|Q7TSY6; Mib1|Q80SY4; Pum2|Q80U58; Pum1|Q80U78; Ints2|Q80UK8; Vrk1|Q80X41; Sympk|Q80X82; Eif4g3|Q80XI3; Fam160b2|Q80YR2; Cpeb2|Q812E0; Rnf214|Q8BFU3; Hnrnpa3|Q8BG05; Poldip3|Q8BG81; U2af1l4|Q8BGJ9; Smndc1|Q8BGT7; Rnf41|Q8BH75; Rbm45|Q8BHN5; Rbm22|Q8BHS3; Noc4l|Q8BHY2; Rbfox3|Q8BIF2; Cstf2|Q8BIQ5; Zc3h14|Q8BJ05; Marf1|Q8BJ34; Pum3|Q8BKS9; Thoc5|Q8BKT7; Cpsf7|Q8BTV2; Hook3|Q8BUK6; Rsl1d1|Q8BVY0; Rbms3|Q8BWL5; Nkrf|Q8BY02; Zmat4|Q8BZ94; Ncbp3|Q8BZR9; Dzank1|Q8C008; Mbnl2|Q8C181; Rbm14|Q8C2Q3; Cnot2|Q8C5L3; Rbm34|Q8C5L7; Cstf2t|Q8C7E9; Myef2|Q8C854; Shfl|Q8CAK3; Bivm|Q8CBX9; Macroh2a2|Q8CCK0; Pabpn1|Q8CCS6; Ppwd1|Q8CEC6; Aqr|Q8CFQ3; Lsm14b|Q8CGC4; Tcerg1|Q8CGF7; Cherp|Q8CGZ0; Sugp2|Q8CH09; Ccar1|Q8CH18; Sltm|Q8CH25; Zc3h3|Q8CHP0; Clip4|Q8CI96; Stau2|Q8CJ67; Ago2|Q8CJG0; Rbm17|Q8JZX4; Edc3|Q8K2D3; Lsm14a|Q8K2F8; Matr3|Q8K310; Wdr33|Q8K4P0; Ints13|Q8QZV7; Sf3b4|Q8QZY9; Hnrnpl|Q8R081; Pspc1|Q8R326; Ppp1r8|Q8R3G1; Nop14|Q8R3N1; Thoc1|Q8R3N6; Purg|Q8R4E6; Wrap53|Q8VC51; Ssx2ip|Q8VC66; Wdr74|Q8VCG3; Zfp385a|Q8VD12; Ddx39a|Q8VDW0; Nudt16l1|Q8VHN8; Sfpq|Q8VIJ6; Eif4a3|Q91VC3; Pqbp1|Q91VJ5; Rbmxl1|Q91VM5; Tdrd3|Q91W18; Ncoa5|Q91W39; Itfg2|Q91WI7; Fubp1|Q91WJ8; Strbp|Q91WM1; Dcp1a|Q91YD3; Rbm5|Q91YE7; Ppan|Q91YU8; Ptbp2|Q91Z31; Adarb1|Q91ZS8; Dst|Q91ZU6; Msi2|Q920Q6; Tardbp|Q921F2; Ddx27|Q921N6; AI597479|Q922M7; Plrg1|Q922V4; Wbp11|Q923D5; Rnf112|Q96DY5; Myo5a|Q99104; Nono|Q99K48; Rtf2|Q99K95; Cmas|Q99KK2; Prpf19|Q99KP6; Cstf1|Q99LC2; Cstf3|Q99LI7; 2310033P09Rik|Q99LX5; Rnps1|Q99M28; Gtpbp4|Q99ME9; Ddx50|Q99MJ9; Tpgs1|Q99MS8; Adar|Q99MU3; Prpf8|Q99PV0; Trappc5|Q9CQA1; Snrpb2|Q9CQI7; Magohb|Q9CQL1; Vkorc1|Q9CRC0; Snw1|Q9CSN1; Raver1|Q9CW46; Rbm8a|Q9CWZ3; Gemin6|Q9CX53; Hnrnpa0|Q9CX86; Ilf2|Q9CXY6; Chtop|Q9CY57; Dcp2|Q9CYC6; Rrs1|Q9CYH6; Srsf9|Q9D0B0; Hnrnpm|Q9D0E1; Ddx56|Q9D0R4; Lsm12|Q9D0R8; Ppil1|Q9D0W5; Ints12|Q9D168; Sarnp|Q9D1J3; Sec13|Q9D1M0; Dpm3|Q9D1Q4; Bcas2|Q9D287; Trappc6b|Q9D289; Sec23b|Q9D662; Ppil2|Q9D787; Nol7|Q9D7Z3; Fip1l1|Q9D824; U2af1|Q9D883; Ebna1bp2|Q9D903; Osbpl3|Q9DBS9; Rsrc1|Q9DBU6; Cdc40|Q9DC48; Xab2|Q9DCD2; Cpsf1|Q9EPU4; Ubl5|Q9EPV8; Papln|Q9EPX2; Dgcr8|Q9EQM6; Tfip11|Q9ERA6; Trappc4|Q9ES56; Eif4enif1|Q9EST3; Ddx24|Q9ESV0; Cwc15|Q9JHS9; Dazap1|Q9JII5; Ddx21|Q9JIK5; Acin1|Q9JIX8; Rbfox1|Q9JJ43; Alyref2|Q9JJW6; Nova1|Q9JKN6; Mbnl1|Q9JKP5; Aatf|Q9JKX4; Sacs|Q9JLC8; Son|Q9QX47; Dnajb1|Q9QYJ3; Qk|Q9QYS9; Ppie|Q9QZH3; Zfp346|Q9R0B7; Ylpm1|Q9R0I7; Pcm1|Q9R0L6; Khdrbs3|Q9R226; Hao1|Q9WU19; Rbmx|Q9WV02; Fxr2|Q9WVR4; Celf2|Q9Z0H4; Hnrnpdl|Q9Z130; Ik|Q9Z1M8; Ddx39b|Q9Z1N5; Ilf3|Q9Z1X4; Hnrnpc|Q9Z204; Keap1|Q9Z2X8; Top3b|Q9Z321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanc2|A2A690; Dock11|A2AF47; Camsap1|A2AHC3; Focad|A2AKG8; Chd6|A3KFM7; Cttnbp2|B9EJA2; Ift140|E9PY46; Rnf213|E9Q555; Chadl|E9Q7T7; Sipa1l3|G3X9J0; Ampd3|O08739; Numbl|O08919; Cyth3|O08967; Kifc3|O35231; Ppfibp2|O35711; Nck2|O55033; Grk6|O70293; Dync1i1|O88485; Syn1|O88935; Msh3|P13705; Ap2a1|P17426; Ap2a2|P17427; Kif2a|P28740; Cryz|P47199; Cit|P49025; Strn4|P58404; Arhgap39|P59281; Dock4|P59764; Depdc5|P61460; Ap2s1|P62743; Ldb1|P70662; Tnik|P83510; Ap2m1|P84091; Nfia|Q02780; Mark3|Q03141; Nf1|Q04690; Fmn1|Q05860; Ttc21b|Q0HA38; Trio|Q0KL02; Dact3|Q0PHV7; Specc1l|Q2KN98; Dennd4b|Q3U1Y4; Mast3|Q3U214; Fam117b|Q3U3E2; Carmil3|Q3UFQ8; Dab2ip|Q3UHC7; Mtus2|Q3UHD3; Agap2|Q3UHD9; Aak1|Q3UHJ0; Lrch2|Q3UMG5; Arhgef40|Q3UPH7; Ksr2|Q3UVC0; Fam91a1|Q3UVG3; Bbs1|Q3V3N7; Rassf5|Q5EBH1; Brsk1|Q5RJI5; Ccdc85a|Q5SP85; Tiam1|Q60610; Grb10|Q60760; Ksr1|Q61097; Pik3c2a|Q61194; Eif2d|Q61211; Apc|Q61315; Trim25|Q61510; Agtpbp1|Q641K1; Actr3b|Q641P0; Peak1|Q69Z38; Brsk2|Q69Z98; Sh3rf1|Q69ZI1; Cep170|Q6A065; Carmil1|Q6EDY6; Hecw2|Q6I6G8; Dhx57|Q6P5D3; Caskin1|Q6P9K8; Ttbk1|Q6PCN3; Shb|Q6PD21; Wipf2|Q6PEV3; Pik3c3|Q6PF93; Nyap1|Q6PFX7; Morn4|Q6PGF2; Dmxl1|Q6PNC0; Fam120b|Q6RI63; Wdfy3|Q6VNB8; Syne2|Q6ZWQ0; Fbxo10|Q7TQF2; Plekha6|Q7TQG1; Map6|Q7TSJ2; Sipa1l2|Q80TE4; Btbd8|Q80TK0; Clec16a|Q80U30; Cep170b|Q80U49; Ankzf1|Q80UU1; Cdc42bpg|Q80UW5; Dtx3|Q80V91; Camsap3|Q80VC9; Tecpr1|Q80VP0; Cnksr2|Q80YA9; Bbs9|Q811G0; Mast4|Q811L6; Arhgap32|Q811P8; Frmd4a|Q8BIE6; Zc2hc1a|Q8BJH1; Nyap2|Q8BM65; Larp6|Q8BN59; Dmxl2|Q8BPN8; Clasp2|Q8BRT1; Ppfia2|Q8BSS9; Pak4|Q8BTW9; Dclk3|Q8BWQ5; Ift57|Q8BXG3; Agap1|Q8BXK8; Arap2|Q8BZ05; Map1s|Q8C052; Sipa1l1|Q8C0T5; Taf2|Q8C176; Cfap410|Q8C6G1; Amer2|Q8CCJ4; Nav1|Q8CH77; Synj1|Q8CHC4; Mark4|Q8CIP4; Dock3|Q8CIQ7; Gas2l1|Q8JZP9; Cc2d1a|Q8K1A6; Wdr11|Q8K1X1; Uvrag|Q8K245; Atat1|Q8K341; Arhgef6|Q8K4I3; Dync1li1|Q8R1Q8; Sh3kbp1|Q8R550; Actr1b|Q8R5C5; Pik3r4|Q8VD65; Ttc8|Q8VD72; Mark1|Q8VHJ5; Nprl3|Q8VIJ8; Tti1|Q91V83; Trub2|Q91WG3; Ascc2|Q91WR3; Eef1aknmt|Q91YR5; Srgap1|Q91Z69; Wdr7|Q920I9; Rin1|Q921Q7; Glyr1|Q922P9; Ntpcr|Q9CQA9; Necap1|Q9CR95; Pard3b|Q9CSB4; Gar1|Q9CY66; Bbs5|Q9CZQ9; Rfc5|Q9D0F6; Exosc7|Q9D0M0; Nos1ap|Q9D3A8; Aven|Q9D9K3; Ap2b1|Q9DBG3; Csnk1d|Q9DC28; Inpp4a|Q9EPW0; Magi3|Q9EQJ9; Rims2|Q9EQZ7; Fn3k|Q9ER35; Arhgef7|Q9ES28; Nek7|Q9ES74; Dync1h1|Q9JHU4; Eefsec|Q9JHW4; Inpp5e|Q9JII1; Tulp4|Q9JIL5; Grasp|Q9JJA9; Zmym3|Q9JLM4; Dclk1|Q9JLM8; Pnkp|Q9JLV6; Mink1|Q9JM52; Csnk1e|Q9JMK2; Asap1|Q9QWY8; Cyth1|Q9QX11; Nme7|Q9QXL8; Ulk2|Q9QY01; Numb|Q9QZS3; Dlc1|Q9R0Z9; Mast1|Q9R1L5; Trim3|Q9R1R2; Arntl|Q9WTL8; Tbk1|Q9WUN2; Gsk3b|Q9WV60; Mapk8ip1|Q9WVI9; Anapc7|Q9WVM3; Clip2|Q9Z0H8; Itsn1|Q9Z0R4; Nek4|Q9Z1J2; Unc13b|Q9Z1N9; Mtmr7|Q9Z2C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ddi2|A2ADY9; Frmpd4|A2AFR3; Rap1gap|A2ALS5; Ppip5k1|A2ARP1; Fbxl16|A2RT62; Ttc38|A3KMP2; Mtr|A6H5Y3; Armt1|A6H630; Rabgap1l|A6H6A9; Apba1|B2RUJ5; Otud7b|B2RUR8; Capn2|O08529; Dpysl2|O08553; Clta|O08585; Pten|O08586; Prdx6|O08709; Casp6|O08738; Pex5|O09012; Gsto1|O09131; Ddt|O35215; Capn1|O35350; Rabep1|O35551; Crym|O54983; Slk|O54988; Tpmt|O55060; Chkb|O55229; Ubr1|O70481; Pfdn2|O70591; Wdr1|O88342; Capns1|O88456; Shd|O88834; Idh1|O88844; Hprt|P00493; Got1|P05201; Ldha|P06151; Gpi1|P06745; Ckm|P07310; Aprt|P08030; Pgk1|P09411; Nudt11|P0C028; Fabp3|P11404; Gusb|P12265; Pdcd6|P12815; Umps|P13439; Gpd1|P13707; Mdh1|P14152; Ldhb|P16125; Gapdh|P16858; Eno1|P17182; Eno2|P17183; Selenbp1|P17563; Ppia|P17742; Tpi1|P17751; Rps6ka3|P18654; Cfl1|P18760; Eno3|P21550; Pnp|P23492; Pcmt1|P23506; Gfus|P23591; Bcat1|P24288; Gsta4|P24472; Lta4h|P24527; Fkbp1a|P26883; Adh5|P28474; Nedd8|P29595; Akt1|P31750; Ranbp1|P34022; Mif|P34884; Ephx2|P34914; Usp4|P35123; Prdx1|P35700; Ptpn12|P35831; Gnl1|P36916; Ttl|P38585; Tkt|P40142; Stat3|P42227; Stat5b|P42232; Cfl2|P45591; Adss|P46664; Brcc3|P46737; Gsr|P47791; Crkl|P47941; Hspa4l|P48722; Cbr1|P48758; Gstm5|P48774; Inpp1|P49442; Ppm1a|P49443; Ahcy|P50247; Gdi1|P50396; Fabp7|P51880; Rida|P52760; Rabggtb|P53612; Limk1|P53668; Pitpna|P53810; Rad23b|P54728; Acyp2|P56375; Acyp1|P56376; Cda|P56389; Usp5|P56399; Znrd2|P56873; Actn4|P57780; Idi1|P58044; Ptpa|P58389; Actb|P60710; Ube2d1|P61080; Ube2k|P61087; Ube2n|P61089; Pcbd1|P61458; Ywhag|P61982; Ywhae|P62259; Ppp2cb|P62715; Ran|P62827; Elob|P62869; Hspa8|P63017; Ywhaz|P63101; Pkia|P63248; Ppp3ca|P63328; Actc1|P68033; Tuba4a|P68368; Tubb4b|P68372; Tuba1c|P68373; Kpnb1|P70168; Lxn|P70202; Pdlim4|P70271; Mpp1|P70290; Casp3|P70677; Urod|P70697; Eloc|P83940; Arf1|P84078; Rgs14|P97492; Gclc|P97494; Thumpd3|P97770; Apba2|P98084; Tubb5|P99024; Nme2|Q01768; Uba1|Q02053; Galt|Q03249; Ckb|Q04447; Fabp5|Q05816; Dnal1|Q05A62; Cab39|Q06138; Dmwd|Q08274; Ubxn2b|Q0KL01; Npepps|Q11011; Pepd|Q11136; Msto1|Q2YDW2; Cyb5r4|Q3TDX8; Myl12b|Q3THE2; Aarsd1|Q3THG9; Gmps|Q3THK7; Mat2a|Q3THS6; Gdpgp1|Q3TLS3; Uap1l1|Q3TW96; Smyd5|Q3TYX3; Fbxo7|Q3U7U3; Otulin|Q3UCV8; Ttll12|Q3UDE2; Ube2z|Q3UE37; Nt5c3b|Q3UFY7; Hdhd2|Q3UGR5; Babam1|Q3UI43; 2610301B20Rik|Q3UJP5; Tax1bp1|Q3UKC1; Ppp1r7|Q3UM45; Arhgef9|Q3UTH8; Macrod2|Q3UYG8; Rap1gap2|Q5SVL6; Myl6|Q60605; Grb2|Q60631; Ppp5c|Q60676; Akt2|Q60823; Stip1|Q60864; Gstt2|Q61133; Prdx2|Q61171; Tsg101|Q61187; Clns1a|Q61189; Pafah1b3|Q61205; Pafah1b2|Q61206; Hspa4|Q61316; Pde1a|Q61481; Fscn1|Q61553; Gdi2|Q61598; Hsph1|Q61699; Prkd1|Q62101; Dbnl|Q62418; Ppp3r1|Q63810; Mapk3|Q63844; Map2k2|Q63932; Crk|Q64010; Spr|Q64105; Sord|Q64442; Gstt1|Q64471; Guk1|Q64520; Vcl|Q64727; Gart|Q64737; Ripor1|Q68FE6; Gpsm1|Q6IR34; Cltb|Q6IRU5; Wdr44|Q6NVE8; Ptpdc1|Q6NZK8; Xpnpep1|Q6P1B1; Xpo1|Q6P5F9; Oxsr1|Q6P9R2; Gapvd1|Q6PAR5; Ptpn23|Q6PB44; Rrm2b|Q6PEE3; Ube2o|Q6ZPJ3; Acap2|Q6ZQK5; Tubb2a|Q7TMM9; Ciao3|Q7TMW6; Otub1|Q7TQI3; Stk38l|Q7TSE6; Pgm2|Q7TSV4; Ppm1e|Q80TL0; Nisch|Q80TM9; Plekhm2|Q80TQ5; Dnajc6|Q80TZ3; Epn1|Q80VP1; Thnsl2|Q80W22; Dpp8|Q80YA7; Sergef|Q80YD6; Pank4|Q80YV4; Ankfy1|Q810B6; Cpped1|Q8BFS6; Pef1|Q8BFY6; Sh3bgrl2|Q8BG73; Aars|Q8BGQ7; Phyhipl|Q8BGT8; 8030462N17Rik|Q8BH50; Tiprl|Q8BH58; Gopc|Q8BH60; Nrd1|Q8BHG1; Oscp1|Q8BHW2; Cyria|Q8BHZ0; Prune1|Q8BIW1; Nup93|Q8BJ71; Sgta|Q8BJU0; Fbxo44|Q8BK26; Ahsa1|Q8BK64; Ipo5|Q8BKC5; Gga3|Q8BMI3; Armc6|Q8BNU0; AW549877|Q8BR90; Rps6kb1|Q8BSK8; Cpne3|Q8BT60; Tcp11l1|Q8BTG3; Kyat1|Q8BTY1; Ppme1|Q8BVQ5; Camk1d|Q8BW96; Pithd1|Q8BWR2; Usp47|Q8BY87; Tbcd|Q8BYA0; Pgm5|Q8BZF8; Nhlrc2|Q8BZW8; Camkk2|Q8C078; Atg16l1|Q8C0J2; Paox|Q8C0L6; Gpcpd1|Q8C0L9; Asrgl1|Q8C0M9; Zfp451|Q8C0P7; Cpne1|Q8C166; 2310022B05Rik|Q8C3W1; Uba6|Q8C7R4; Uba3|Q8C878; Pgm2l1|Q8CAA7; Castor2|Q8CAB8; Acat2|Q8CAY6; Yod1|Q8CB27; Fam160b1|Q8CDM8; Adprhl2|Q8CG72; Ppm1f|Q8CGA0; Phlpp1|Q8CHE4; Pgp|Q8CHP8; Myl6b|Q8CI43; Pak2|Q8CIN4; Tbce|Q8CIV8; Thtpa|Q8JZL3; Gmds|Q8K0C9; Phyhip|Q8K0S0; Pdxk|Q8K183; Ipo11|Q8K2V6; Cbr3|Q8K354; Gspt1|Q8R050; Gale|Q8R059; Gga1|Q8R0H9; Cmbl|Q8R1G2; Pdlim2|Q8R1G6; Chmp7|Q8R1T1; Sdsl|Q8R238; Ubqln1|Q8R317; Tbc1d13|Q8R3D1; Wipi1|Q8R3E3; Usp15|Q8R5H1; Nae1|Q8VBW6; Mpdz|Q8VBX6; Camkk1|Q8VBY2; Tkfc|Q8VC30; Gca|Q8VC88; Scrn2|Q8VCA8; Rnpep|Q8VCT3; Gripap1|Q8VD04; Hip1|Q8VD75; Ptgr2|Q8VDQ1; Uba5|Q8VE47; Fam114a2|Q8VE88; Lgalsl|Q8VED9; Rpe|Q8VEE0; Epm2aip1|Q8VEH5; Setd7|Q8VHL1; Ipo4|Q8VI75; Impa2|Q91UZ5; Acot7|Q91V12; Isoc1|Q91V64; 4931406C07Rik|Q91V76; Hnmt|Q91VF2; Stk38|Q91VJ4; Sh3bgrl3|Q91VW3; Ubl7|Q91W67; Rabep2|Q91WG2; Eva1a|Q91WM6; As3mt|Q91WU5; Osbpl1a|Q91XL9; Uap1|Q91YN5; Camk1|Q91YS8; Grhpr|Q91Z53; Diras1|Q91Z61; Fdps|Q920E5; Hlcs|Q920N2; Ak5|Q920P5; Cyrib|Q921M7; Ppp6r3|Q922D4; Pcyt2|Q922E4; Tubb6|Q922F4; Prmt7|Q922X9; Ubxn1|Q922Y1; Blvrb|Q923D2; Mpi|Q924M7; Sec14l2|Q99J08; Nrbp1|Q99J45; Usp11|Q99K46; Pls3|Q99K51; Dpp3|Q99KK7; Rab28|Q99KL7; Ciao1|Q99KN2; Nampt|Q99KQ4; Mat2b|Q99LB6; Tnpo2|Q99LG2; Psph|Q99LS3; Park7|Q99LX0; Hspbp1|Q99P31; Ogfr|Q99PG2; Nanp|Q9CPT3; Glod4|Q9CPV4; Atg3|Q9CPX6; Lap3|Q9CPY7; Mid1ip1|Q9CQ20; Pgls|Q9CQ60; Mtap|Q9CQ65; Cotl1|Q9CQI6; Rwdd1|Q9CQK7; Glrx3|Q9CQM9; Ppp6c|Q9CQR6; Mri1|Q9CQT1; Ywhab|Q9CQV8; Psmd9|Q9CR00; Ppid|Q9CR16; Dph2|Q9CR25; Vta1|Q9CR26; Gnpda2|Q9CRC9; Xpot|Q9CRT8; Tubb2b|Q9CWF2; Atic|Q9CWJ9; Ddah1|Q9CWS0; Tbc1d15|Q9CXF4; Blvra|Q9CY64; Pgm3|Q9CYR6; Ola1|Q9CZ30; Nsfl1c|Q9CZ44; Gars|Q9CZD3; Ube2v1|Q9CZY3; Acbd6|Q9D061; Arpin|Q9D0A3; Lysmd1|Q9D0E3; Pgm1|Q9D0F9; Cndp2|Q9D1A2; 1700037H04Rik|Q9D1K7; Acp1|Q9D358; Shpk|Q9D5J6; Cul5|Q9D5V5; Gbe1|Q9D6Y9; Lhpp|Q9D7I5; Lysmd2|Q9D7V2; Eef1akmt2|Q9D853; Itpa|Q9D892; Ccdc91|Q9D8L5; Efhd2|Q9D8Y0; 1700066M21Rik|Q9D9H8; Ift22|Q9DAI2; Phpt1|Q9DAK9; Cnn3|Q9DAW9; Phyhd1|Q9DB26; Haghl|Q9DB32; Dhdh|Q9DBB8; Csad|Q9DBE0; Pgam1|Q9DBJ1; Cmpk1|Q9DBP5; Arpp21|Q9DCB4; Npl|Q9DCJ9; Paics|Q9DCL9; Gstk1|Q9DCM2; Mettl26|Q9DCS2; Akr1e1|Q9DCT1; Oga|Q9EQQ9; Tubb3|Q9ERD7; Cse1l|Q9ERK4; Gucy1a1|Q9ERL9; Ube4b|Q9ES00; Rcan1|Q9JHG6; Rabggta|Q9JHK4; Ide|Q9JHR7; Isyna1|Q9JHU9; Nudt3|Q9JI46; Akr1a1|Q9JII6; Fzd2|Q9JIP6; Pfn2|Q9JJV2; Rcan3|Q9JKK0; Tmod2|Q9JKK7; Nudt5|Q9JKX6; Nt5c|Q9JM14; Dnaja4|Q9JMC3; Stard10|Q9JMD3; Txnrd1|Q9JMH6; Glrx|Q9QUH0; Prep|Q9QUR6; Drg2|Q9QXB9; Acss2|Q9QXG4; Ndrg2|Q9QYG0; Dnaja2|Q9QYJ0; Nagk|Q9QZ08; Ubqln2|Q9QZM0; Srr|Q9QZX7; Mvk|Q9R008; Nubp1|Q9R060; Wdr54|Q9R0D8; Esd|Q9R0P3; Dstn|Q9R0P5; Rpgr|Q9R0X5; Ak1|Q9R0Y5; Gda|Q9R111; Cetn2|Q9R1K9; Pts|Q9R1Z7; Lypla2|Q9WTL7; Ggps1|Q9WTN0; Rnf7|Q9WTZ1; Pdcd6ip|Q9WU78; Akt3|Q9WUA6; Rbck1|Q9WUB0; Dmtn|Q9WV69; Apip|Q9WVQ5; Ncdn|Q9Z0E0; Arih1|Q9Z1K5; Arih2|Q9Z1K6; Ate1|Q9Z2A5; Gsdme|Q9Z2D3; Crlf3|Q9Z2L7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map7d2|A2AG50; Ralgps1|A2AR50; Ankrd63|A2ARS0; Ttll7|A4Q9F0; Plekhd1|B2RPU2; Plcxd2|B2RXA1; Setd1a|E9PYH6; Bod1l|E9Q6J5; Tpr|F6ZDS4; Metap2|O08663; Hdac1|O09106; Dhx15|O35286; Srsf5|O35326; Ring1|O35730; Per1|O35973; Nmt1|O70310; Dxo|O70348; Sp3|O70494; Parg|O88622; Rpp30|O88796; Cfh|P06909; Ncl|P09405; Eef1a1|P10126; Srp14|P16254; Vim|P20152; Map2|P20357; Plg|P20918; Map4|P27546; Apex1|P28352; Rxrb|P28704; Drg1|P32233; Foxk1|P42128; Cnbp|P53996; Dnajc2|P54103; Rrp1|P56183; Tdg|P56581; Fus|P56959; Btbd1|P58544; Pcif1|P59114; Eif4a1|P60843; Naa20|P61600; Wdr5|P61965; Eef1a2|P62631; Rps25|P62852; Gtf2b|P62915; Eif5a|P63242; Crip1|P63254; Rack1|P68040; Hdac2|P70288; Ncoa1|P70365; Irs2|P81122; Txnl4a|P83877; Etv6|P97360; Sap30bp|Q02614; Cdk7|Q03147; Smarcad1|Q04692; Spindoc|Q05AH6; Kndc1|Q0KK55; Samd12|Q0VE29; Hp1bp3|Q3TEA8; Zc3h15|Q3TIV5; Hexim2|Q3TVI4; Srsf6|Q3TWW8; Ap5z1|Q3U829; Gpatch11|Q3UFS4; Rnf10|Q3UIW5; Zc3hav1|Q3UPF5; Klhdc2|Q4G5Y1; Phactr4|Q501J7; Rnf20|Q5DTM8; Zdbf2|Q5SS00; Scaf1|Q5U4C3; Rbbp7|Q60973; Ncor1|Q60974; Usf1|Q61069; Hcfc1|Q61191; Arnt2|Q61324; Ccnh|Q61458; Ewsr1|Q61545; Rad21|Q61550; Srsf2|Q62093; Snrpa|Q62189; Snrpc|Q62241; Trim28|Q62318; Snrnp70|Q62376; Zfp91|Q62511; Trim24|Q64127; Wapl|Q65Z40; Morc2a|Q69ZX6; Scaf8|Q6DID3; Zmiz1|Q6P1E1; Magee1|Q6PCZ4; Smarcc2|Q6PDG5; Rnf220|Q6PDX6; Gnl3l|Q6PGG6; Dnmbp|Q6TXD4; Ddx55|Q6ZPL9; Zc3h4|Q6ZPZ3; Spag7|Q7TNE3; Trim46|Q7TNM2; Dek|Q7TNV0; Ints8|Q80V86; Tox3|Q80W03; Prpf40b|Q80W14; Fbll1|Q80WS3; Camta2|Q80Y50; F12|Q80YC5; Ccdc50|Q810U5; Zfp771|Q8BJ90; Eif4e2|Q8BMB3; Gtf3c4|Q8BMQ2; Trmt2a|Q8BNV1; Metap1|Q8BP48; Lig4|Q8BTF7; Srrm2|Q8BTI8; Cfap20|Q8BTU1; Nob1|Q8BW10; Naa25|Q8BWZ3; Ttc39b|Q8BYY4; Rps6ka5|Q8C050; Mettl3|Q8C3P7; Prpf31|Q8CCF0; Nemf|Q8CCP0; Hpf1|Q8CFE2; Tns2|Q8CGB6; Cog3|Q8CI04; Rassf8|Q8CJ96; Taf10|Q8K0H5; Wipf1|Q8K1I7; Gtf3c1|Q8K284; Otud6b|Q8K2H2; Mta1|Q8K4B0; Sbk1|Q8QZX0; Gtf2f2|Q8R0A0; Hmces|Q8R1M0; Actr8|Q8R2S9; Nabp2|Q8R2Y9; Irf2bp1|Q8R3Y8; Hexim1|Q8R409; Oard1|Q8R5F3; Spon1|Q8VCC9; Tspyl4|Q8VD63; Parn|Q8VDG3; Ccdc92|Q8VDN4; Ccar2|Q8VDP4; Rprd1a|Q8VDS4; Srsf4|Q8VE97; Setd3|Q91WC0; Klhdc8a|Q91XA8; Arrb2|Q91YI4; Klhdc4|Q921I2; Exosc4|Q921I9; Nelfcd|Q922L6; Dbr1|Q923B1; Stard13|Q923Q2; Rfc4|Q99J62; Cdk9|Q99J95; Rpp25l|Q99JH1; Gigyf1|Q99MR1; Hdac9|Q99N13; Npm3|Q9CPP0; 1110059E24Rik|Q9CQ90; Exosc5|Q9CRA8; Cd2bp2|Q9CWK3; Pin4|Q9CWW6; Serbp1|Q9CY58; Tomm34|Q9CYG7; Thumpd2|Q9CZB3; Cmss1|Q9CZT6; Gtf2e1|Q9D0D5; Rnmt|Q9D0L8; Naa38|Q9D2U5; Ppil3|Q9D6L8; Zfp593|Q9DB42; Exosc9|Q9JHI7; Wdr12|Q9JJA4; Rpl38|Q9JJI8; Nrip3|Q9JJR9; Prelp|Q9JK53; Atr|Q9JKK8; Habp4|Q9JKS5; Hdgfl3|Q9JMG7; Ccnt1|Q9QWV9; Tbl1x|Q9QXE7; Akap8l|Q9R0L7; Mta2|Q9R190; Bex2|Q9WTZ8; Eif4h|Q9WUK2; Nup160|Q9Z0W3; Adnp|Q9Z103; Rps6ka4|Q9Z2B9</t>
   </si>
   <si>
     <t xml:space="preserve">M11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rnf11|Q9QYK7; Atp2b1|G5E829; Cd151|O35566; Atp1b3|P97370; Ids|Q08890; Igsf3|Q6ZQA6; Sun2|Q8BJS4; Rhof|Q8BYP3; Slc39a6|Q8C145; Lmbrd1|Q8K0B2; Slco3a1|Q8R3L5; Slc12a5|Q91V14; Lamtor1|Q9CQ22; Slc23a2|Q9EPR4; Kcnq5|Q9JK45; Car14|Q9WVT6; Xpr1|Q9Z0U0; Lynx1|P0DP60; Irgm1|Q60766; Slc9a1|Q61165; Gnai3|Q9DC51; Cdip1|Q9DB75; Serinc1|Q9QZI8; 4932438A13Rik|A2AAE1; Ano3|A2AHL1; Grik3|B1AS29; Plxnb2|B2RXS4; Rnaset2b|C0HKG6; Cacna2d1|O08532; Capn5|O08688; Snap23|O09044; Ncam2|O35136; Nrp2|O35375; Abcc1|O35379; Efnb3|O35393; Pld3|O35405; Ppt2|O35448; Prrt1|O35449; Edil3|O35474; Notch2|O35516; Neu1|O35657; Gnaz|O70443; Slc16a7|O70451; Pde9a|O70628; Cntfr|O88507; Hcn1|O88704; Kit|P05532; Pdgfrb|P05622; 1500009L16Rik|P0C913; Ctsb|P10605; Rras|P10833; Lamp1|P11438; Itga5|P11688; Ncam1|P13595; Atp1b1|P14094; Insr|P15208; Ntrk2|P15209; Fgfr1|P16092; Gba|P17439; Slc2a1|P17809; Ptpra|P18052; Bsg|P18572; Gnao1|P18872; Gna11|P21278; Gnaq|P21279; Ache|P21836; Emb|P21995; Gabrg2|P22723; Gabrd|P22933; Lyn|P25911; Gabra3|P26049; Ret|P35546; Gpm6b|P35803; Abca1|P41233; Oprm1|P42866; Kcnj6|P48542; Ptpre|P49446; Gabrb1|P50571; Slc16a1|P53986; Stom|P54116; Ephb3|P54754; Ephb2|P54763; Plscr4|P58196; Kcnn2|P58390; Rap2b|P61226; Gabra1|P62812; Gnb2|P62880; Rac1|P63001; Gnas|P63094; Gabrb2|P63137; Rala|P63321; Adcyap1r1|P70205; Plxna2|P70207; Dcc|P70211; Slc8a1|P70414; Stx4a|P70452; Gaa|P70699; Adcy5|P84309; Nptn|P97300; Nrp1|P97333; Adcy8|P97490; Neo1|P97798; Flt3|Q00342; Il6st|Q00560; Axl|Q00993; Adra2a|Q01338; Cacna1c|Q01815; Ptprg|Q05909; Cnnm1|Q0GA42; Unc79|Q0KK59; Kcnc2|Q14B80; Slc35f3|Q1LZI2; Trpm1|Q2TV84; Eepd1|Q3TGW2; Ttyh2|Q3TH73; Cnnm2|Q3TWN3; Fam131b|Q3TY60; Gprin1|Q3UNH4; Nkain3|Q3URJ8; Grm5|Q3UVX5; Lrig2|Q52KR2; Scn2b|Q56A07; Slc4a10|Q5DTL9; Lrrc8b|Q5DU41; Slc5a6|Q5U4D8; Zdhhc20|Q5Y5T1; Adora2a|Q60613; Epha5|Q60629; Mertk|Q60805; Astn1|Q61137; Acvr1b|Q61271; Hras|Q61411; Alcam|Q61490; Slc20a1|Q61609; Grid1|Q61627; Epha6|Q62413; Ptp4a1|Q63739; Abcg1|Q64343; Atp4a|Q64436; Car4|Q64444; Ptprj|Q64455; Cr1l|Q64735; Slc39a10|Q6P5F6; Ttyh3|Q6P5F7; Rgma|Q6PCX7; Mindy2|Q6PDI6; Tmeff1|Q6PFE7; Cacna2d2|Q6PHS9; Atp1a3|Q6PIC6; Atp2b4|Q6Q477; Flrt1|Q6RKD8; Npr2|Q6VVW5; Dagla|Q6WQJ1; Kcnt1|Q6ZPR4; Cspg5|Q71M36; Sema6d|Q76KF0; Scn4b|Q7M729; Plppr4|Q7TME0; Abcg2|Q7TMS5; Tmem59l|Q7TNI2; Plppr3|Q7TPB0; Lrrc75a|Q7TSF4; Tmem94|Q7TSH8; Adcy2|Q80TL1; Daam2|Q80U19; Amigo1|Q80ZD8; Slitrk3|Q810B9; Gns|Q8BFR4; Plppr1|Q8BFZ2; Lhfpl2|Q8BGA2; Lrrc8d|Q8BGR2; Flrt3|Q8BGT1; Ccny|Q8BGU5; Lrtm2|Q8BGX3; Serinc5|Q8BHJ6; Gabra5|Q8BHJ7; Slc17a5|Q8BN82; Zdhhc14|Q8BQQ1; Rap2c|Q8BU31; Slc44a2|Q8BY89; Taok3|Q8BYC6; Dock10|Q8BZN6; Fam234a|Q8C0Z1; Csnk1g3|Q8C4X2; Pde10a|Q8CA95; Gnal|Q8CGK7; Nradd|Q8CJ26; Slc4a8|Q8JZR6; Faim2|Q8K097; Dcun1d3|Q8K0V2; Unc5d|Q8K1S2; Acvr1c|Q8K348; Cystm1|Q8K353; Cables2|Q8K3M5; Clmp|Q8R373; Lrrc8c|Q8R502; Atp1a1|Q8VDN2; Rnf130|Q8VEM1; Adcy3|Q8VHH7; Lrp4|Q8VI56; Pcdhga4|Q91XY4; Scpep1|Q920A5; B3galnt1|Q920V1; Rab31|Q921E2; Rheb|Q921J2; Rap1b|Q99JI6; Tmem100|Q9CQG9; Rgs19|Q9CX84; Moxd1|Q9CXI3; Cmtm6|Q9CZ69; Gabra4|Q9D6F4; Gng12|Q9DAS9; Tril|Q9DBY4; Rp2|Q9EPK2; Tnfrsf21|Q9EPU5; Igdcc4|Q9EQS9; Kcnh7|Q9ER47; Slco1c1|Q9ERB5; C1ql3|Q9ESN4; Asah2|Q9JHE3; Slc29a1|Q9JIM1; Ralb|Q9JIW9; Plscr3|Q9JIZ9; Plscr1|Q9JJ00; Sppl2a|Q9JJF9; Smpd3|Q9JJY3; Slc5a3|Q9JKZ2; Cntn6|Q9JMB8; Neu3|Q9JMH7; Kcnip3|Q9QXT8; Gpr37|Q9QY42; Pcnx|Q9QYC1; Serinc3|Q9QZI9; Atp2b2|Q9R0K7; Rab9|Q9R0M6; Tenm3|Q9WTS6; Ly6h|Q9WUC3; Gabbr1|Q9WV18; Atp1a4|Q9WV27; Ggh|Q9Z0L8; Kcnd3|Q9Z0V1; Kcnd2|Q9Z0V2; Cacna2d3|Q9Z1L5; Dpp6|Q9Z218; Ubl3|Q9Z2M6; Kcnq2|Q9Z351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C77080|A2A7S8; Casq2|O09161; Slc18a3|O35304; Mgll|O35678; Usp2|O88623; Gdap1|O88741; Slc4a1|P04919; Mag|P20917; Grin2a|P35436; Cpox|P36552; Rph3a|P47708; Grm8|P47743; Hccs|P53702; Opa1|P58281; Timm8b|P62077; Rab33a|P97950; Grin2d|Q03391; Grid2ip|Q0QWG9; Ankrd27|Q3UMR0; Fam81a|Q3UXZ6; Prune2|Q52KR3; Ndufaf2|Q59J78; Arhgap1|Q5FWK3; Vat1|Q62465; Mtch2|Q791V5; Adgrb3|Q80ZF8; Tmem11|Q8BK08; Slc25a24|Q8BMD8; E130311K13Rik|Q8BN57; Acp6|Q8BP40; Hsdl1|Q8BTX9; Shisa7|Q8C3Q5; Rdh13|Q8CEE7; Rmnd1|Q8CI78; Rhot2|Q8JZN7; Pnpla8|Q8K1N1; Myrip|Q8K3I4; Tmem143|Q8VD26; Cdc42ep1|Q91W92; Coa7|Q921H9; Sfxn5|Q925N0; Lrrc4|Q99PH1; Acsbg1|Q99PU5; Slc25a46|Q9CQS4; Dnajc19|Q9CQV7; Ociad1|Q9CRD0; Micu3|Q9CTY5; Mtfr1l|Q9CWE0; Ears2|Q9CXJ1; Abcb8|Q9CXJ4; Naxd|Q9CZ42; Shisa9|Q9CZN4; Synj2bp|Q9D6K5; Armc1|Q9D7A8; Tmem126a|Q9D8Y1; Slc25a18|Q9DB41; Tomm20|Q9DCC8; Ube3b|Q9ES34; Abcb10|Q9JI39; Tomm40|Q9QYA2; Sh2d3c|Q9QZS8; Cbln1|Q9R171; Ak2|Q9WTP6; Prodh|Q9WU79; Arc|Q9WV31; Asah1|Q9WV54; Osbpl10|S4R1M9; Hk2|O08528; Prom1|O54990; Bnip3|O55003; Cacng2|O88602; Sh3pxd2a|O89032; Syt1|P46096; Bcl2l13|P59017; Dnajc5|P60904; Rab3c|P62823; Rab3a|P63011; Vamp2|P63044; Gng2|P63213; Ica1|P97411; Usp30|Q3UN04; Prr7|Q3V0I2; Rab26|Q504M8; Vdac2|Q60930; Vdac3|Q60931; Vdac1|Q60932; Grid2|Q61625; Pick1|Q62083; Ptprr|Q62132; Sh3gl3|Q62421; Gk|Q64516; Grm4|Q68EF4; Mff|Q6PCP5; Mfsd4a|Q6PDC8; Mtch1|Q791T5; Mfn2|Q80U63; Lrrtm4|Q80XG9; Rhot1|Q8BG51; Lrrtm2|Q8BGA3; Mief1|Q8BGV8; Slc5a7|Q8BGY9; Fbxl4|Q8BH70; Pgs1|Q8BHF7; Dnm3|Q8BZ98; Adgra1|Q8C4G9; Elfn1|Q8C8T7; Adgrb2|Q8CGM1; Minar1|Q8K3V7; Suox|Q8R086; Mul1|Q8VCM5; Mtmr14|Q8VEL2; Cisd1|Q91WS0; Trabd|Q99JY4; Gak|Q99KY4; Cyp4f18|Q99N16; Mgst3|Q9CPU4; Tomm70a|Q9CZW5; Nt5c3|Q9D020; Armc10|Q9D0L7; Mobp|Q9D2P8; Cmtm5|Q9D6G9; Cyb5r1|Q9DB73; Abhd5|Q9DBL9; 4833439L19Rik|Q9DBN4; Cend1|Q9JKC6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arhgap27|A2AB59; Myo10|F8VQB6; Prkag1|O54950; Mt1|P02802; Prl|P06879; Ptprm|P28828; Eps15|P42567; Cpne2|P59108; Pkn1|P70268; Fer|P70451; Arap1|Q4LDD4; Prkaa1|Q5EG47; Rgl2|Q61193; Sntb2|Q61235; Birc2|Q62210; Ptpn13|Q64512; Ahcyl2|Q68FL4; Psd2|Q6P1I6; Prkab2|Q6PAM0; Tiam2|Q6ZPF3; Cyfip1|Q7TMB8; Spag1|Q80ZX8; Dennd6a|Q8BH65; Tbc1d10b|Q8BHL3; Usp54|Q8BL06; Eea1|Q8BL66; Rps6kc1|Q8BLK9; Gjc2|Q8BQU6; Pkn2|Q8BWW9; Phlpp2|Q8BXA7; Arhgap18|Q8K0Q5; Fez1|Q8K0X8; Plekho2|Q8K124; Ntmt1|Q8R2U4; Rufy2|Q8R4C2; Caskin2|Q8VHK1; Serpinb1b|Q8VHP7; Rab40c|Q8VHQ4; Sharpin|Q91WA6; Bbox1|Q924Y0; Homer3|Q99JP6; Lurap1|Q9D6I9; Necab3|Q9D6J4; Dennd6b|Q9D9V7; Mpp5|Q9JLB2; Pnck|Q9QYK9; Hebp1|Q9R257; Cldn10|Q9Z0S6; Tjp2|Q9Z0U1; Rlbp1|Q9Z275; Pdpk1|Q9Z2A0; Rgs6|Q9Z2H2; Olfm1|O88998; A830018L16Rik|Q8BZJ8; Sema6b|O54951; Pld2|P97813; Glra1|Q64018; Exoc3l4|Q6DIA2; Pcdh19|Q80TF3; Slc19a1|P41438; Adcy6|Q01341; Dock1|Q8BUR4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arfgef2|A2A5R2; Uhrf1bp1l|A2RSJ4; Klhl3|E0CZ16; Cdk14|O35495; Limk2|O54785; Ugdh|O70475; Diaph2|O70566; Dtnb|O70585; Akap10|O88845; Ifrd1|P19182; Pik3r1|P26450; Nckap1|P28660; Ptk2|P34152; Sipa1|P46062; Cast|P51125; Rasa2|P58069; Sash1|P59808; Gabarapl2|P60521; Fgf12|P61329; Abi2|P62484; Dynlrb1|P62627; Fgf13|P70377; Rasgrf2|P70392; Lig3|P97386; Arhgap5|P97393; Rnasel|Q05921; Eps8|Q08509; Iqsec3|Q3TES0; Tbc1d2b|Q3U0J8; Abl2|Q4JIM5; Cyfip2|Q5SQX6; Ppp2r5c|Q60996; Tsc2|Q61037; Mapk6|Q61532; Jak2|Q62120; Rab3ip|Q68EF0; Git1|Q68FF6; Arhgap23|Q69ZH9; Kazn|Q69ZS8; Wdcp|Q6NV72; Ift122|Q6NWV3; Hdac4|Q6NZM9; Inppl1|Q6P549; Magi1|Q6RHR9; Sbf1|Q6ZPE2; Ppp2r2b|Q6ZWR4; Mtmr12|Q80TA6; Snupn|Q80W37; Wnk3|Q80XP9; Ireb2|Q811J3; Srgap3|Q812A2; Elmo2|Q8BHL5; Kbtbd11|Q8BNW9; Efl1|Q8C0D5; Fam110b|Q8C739; Abi1|Q8CBW3; Lancl3|Q8CD19; Map2k7|Q8CE90; Dnajc27|Q8CFP6; Stk32c|Q8QZV4; Wasf1|Q8R5H6; Rapgef3|Q8VCC8; Wasf3|Q8VHI6; Brk1|Q91VR8; Bmp2k|Q91Z96; Zfp330|Q922H9; Lims1|Q99JW4; Rad54l2|Q99NG0; Tbc1d7|Q9D0K0; Tax1bp3|Q9DBG9; Ampd2|Q9DBT5; Rai14|Q9EP71; Parva|Q9EPC1; Scyl1|Q9EQC5; Stk4|Q9JI11; Tmem47|Q9JJG6; Hip1r|Q9JKY5; Capn15|Q9JLG8; Ap3b2|Q9JME5; Add2|Q9QYB8; Add1|Q9QYC0; Afdn|Q9QZQ1; Capn7|Q9R1S8; Stat2|Q9WVL2; Nos1|Q9Z0J4; Mtmr1|Q9Z2C4; Mtm1|Q9Z2C5; Dock8|Q8C147; Sh3bp1|P55194; Xrcc1|Q60596; Ppp2r2c|Q8BG02; Limd2|Q8BGB5; Wdr37|Q8CBE3; Pacs1|Q8K212; Farp2|Q91VS8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsdl2|Q2TPA8; Sh3gl2|Q62420; Ppp2r5a|Q6PD03; Atpaf1|Q811I0; Zadh2|Q8BGC4; Atcay|Q8BHE3; Sgsm1|Q8BPQ7; Eci2|Q9WUR2; Ajm1|A2AJA9; Ndufaf5|A2APY7; Etl4|A2AQ25; Slc25a25|A2ASZ8; Kalrn|A2CG49; Mipep|A6H611; Cisd3|B1AR13; Xpnpep3|B7ZMP1; Gls|D3Z7P3; Igsf9b|E9PZ19; Xkr6|E9Q6C8; Ank3|G5E8K5; Endog|O08600; Dld|O08749; Hsd17b10|O08756; Ndufb11|O09111; Phb2|O35129; Atpif1|O35143; Hax1|O35387; Dhodh|O35435; Ech1|O35459; C1qbp|O35658; Mrps12|O35680; Ndufa1|O35683; Noct|O35710; Bcat2|O35855; Timm44|O35857; Bckdk|O55028; Nipsnap1|O55125; Nipsnap2|O55126; Gpx4|O70325; Mtx2|O88441; Clpp|O88696; Ctbp1|O88712; Bsn|O88737; Yme1l1|O88967; Gcat|O88986; Fhit|O89106; CYTB|P00158; Dhfr|P00375; COX1|P00397; COX2|P00405; ATP6|P00848; ND1|P03888; ND2|P03893; ND4|P03911; ND5|P03921; Got2|P05202; Spta1|P08032; Mdh2|P08249; Sod2|P09671; Surf1|P09925; Cox5a|P12787; Sptb|P15508; Mmut|P16332; Cox7c|P17665; Hk1|P17710; Mpv17|P19258; Cox5b|P19536; Cox4i1|P19783; Prdx3|P20108; Fech|P22315; Glud1|P26443; Oat|P29758; Ckmt1|P30275; Pdha1|P35486; Hmgcl|P38060; Hspa9|P38647; Tfam|P40630; Eci1|P42125; Cox6a1|P43024; Acadm|P45952; Aldh2|P47738; Mtx1|P47802; Crat|P47934; Slc25a4|P48962; Bckdha|P50136; H2-Ke6|P50171; Acadvl|P50544; Acadl|P51174; Slc25a5|P51881; Tst|P52196; Ndufs6|P52503; Cpt2|P52825; Dbt|P53395; Idh2|P54071; Galc|P54818; Atp5j2|P56135; Gfer|P56213; Atp5mpl|P56379; Atp5e|P56382; Cox6b1|P56391; Cox7b|P56393; Atp5b|P56480; Mrps21|P58059; Car10|P61215; Abat|P61922; Timm10|P62073; Timm13|P62075; Cycs|P62897; Mpc1|P63030; Hspd1|P63038; Selenow|P63300; Phb|P67778; Idh3g|P70404; Renbp|P82343; Isoc2a|P85094; Coq7|P97478; Txn2|P97493; Fh1|P97807; Dtymk|P97930; Uqcrh|P99028; Prdx5|P99029; Atp5a1|Q03265; Pcx|Q05920; Atp5k|Q06185; Acads|Q07417; Ydjc|Q14BV6; Ptcd3|Q14C51; Aars2|Q14CH7; Map3k13|Q1HKZ5; Fahd2a|Q3TC72; Nlrx1|Q3TL44; Tamm41|Q3TUH1; Rars2|Q3U186; Cmpk2|Q3U5Q7; Lyplal1|Q3UFF7; Nt5dc3|Q3UHB1; Ndufb6|Q3UIU2; Mccc2|Q3ULD5; Spg7|Q3ULF4; Mcu|Q3UMR5; Cryzl2|Q3UNZ8; Tars2|Q3UQ84; Acsf3|Q3URE1; Ccdc51|Q3URS9; Them4|Q3UUI3; Itpripl2|Q3UV16; Pdp1|Q3UV70; Ppm1h|Q3UYC0; Slc25a31|Q3V132; Afg1l|Q3V384; Mthfd1l|Q3V3R1; Mars2|Q499X9; Shank3|Q4ACU6; Ndufa4l2|Q4FZG9; Unc13a|Q4KUS2; Tmem65|Q4VAE3; Opa3|Q505D7; Coq8b|Q566J8; Gls2|Q571F8; Slc25a51|Q5HZI9; Slc30a9|Q5IRJ6; Sdr39u1|Q5M8N4; Mrs2|Q5NCE8; Tefm|Q5SSK3; Dnajc11|Q5U458; Parl|Q5XJY4; Ogdh|Q60597; Clpb|Q60649; Gcdh|Q60759; Coq8a|Q60936; Abcb7|Q61102; Arg1|Q61176; Cox7a2l|Q61387; Hadh|Q61425; Snap91|Q61548; Fdxr|Q61578; Mrps31|Q61733; Dlg4|Q62108; Ndufa4|Q62425; Syn2|Q64332; Hspe1|Q64433; Gpd2|Q64521; Ptpmt1|Q66GT5; Begain|Q68EF6; Cltc|Q68FD5; Ablim3|Q69ZX8; Slc25a23|Q6GQS1; Btbd11|Q6GQW0; Pptc7|Q6NVE9; Ocrl|Q6NVF0; Ckmt2|Q6P8J7; Lrpprc|Q6PB66; Abhd10|Q6PE15; Erc2|Q6PH08; Tlr13|Q6R5N8; Kyat3|Q71RI9; Atp5md|Q78IK2; Apool|Q78IK4; Msrb2|Q78J03; Ndufa12|Q7TMF3; Sugct|Q7TNE1; Micos10|Q7TNS2; Pdpr|Q7TSQ8; Lrrc7|Q80TE7; Rimbp2|Q80U40; Mrps7|Q80X85; Bdh1|Q80XN0; Glrx5|Q80Y14; Bsdc1|Q80Y55; Supv3l1|Q80YD1; Shank2|Q80Z38; Mrps26|Q80ZS3; Pdk1|Q8BFP9; Tufm|Q8BFR5; Coa6|Q8BGD8; Slc25a44|Q8BGF9; Samm50|Q8BGH2; Gpt2|Q8BGT5; Nars2|Q8BGV0; Timm29|Q8BGX2; Pck2|Q8BH04; Thnsl1|Q8BH55; Slc25a12|Q8BH59; Dglucy|Q8BH86; Echs1|Q8BH95; Maip1|Q8BHE8; Iars2|Q8BIJ6; Dars2|Q8BIP0; Cox15|Q8BJ03; Dlgap2|Q8BJ42; Mrps35|Q8BJZ4; Ndufv3|Q8BK30; Mrps27|Q8BK72; Pdhx|Q8BKZ9; Slc25a29|Q8BL03; Plcxd3|Q8BLJ3; Shc2|Q8BMC3; Me3|Q8BMF3; Dlat|Q8BMF4; Hadha|Q8BMS1; Tmem177|Q8BPE4; Prkaa2|Q8BRK8; Pisd|Q8BSF4; Aldh5a1|Q8BWF0; Ptges2|Q8BWM0; Acaa2|Q8BWT1; Pgam5|Q8BX10; Yars2|Q8BYL4; Cars2|Q8BYM8; Pak5|Q8C015; Lrrc4c|Q8C031; Slc25a16|Q8C0K5; Exog|Q8C163; Guf1|Q8C3X4; Nadk2|Q8C5H8; Mmaa|Q8C7H1; Scai|Q8C8N2; Iba57|Q8CAK1; Immt|Q8CAQ8; Vwa8|Q8CC88; Nhlrc3|Q8CCH2; Amt|Q8CFA2; Pars2|Q8CFI5; Lonp1|Q8CGK3; Aldh4a1|Q8CHT0; Mical3|Q8CJ19; Acad9|Q8JZN5; Afg3l2|Q8JZQ2; Slc25a1|Q8JZU2; Fnbp1l|Q8K012; Gfm1|Q8K0D5; Taco1|Q8K0Z7; Angel2|Q8K1C0; Pnpt1|Q8K1R3; Coq9|Q8K1Z0; Sdha|Q8K2B3; Sirt5|Q8K2C6; Mrpl38|Q8K2M0; Chchd7|Q8K2Q5; Acad10|Q8K370; Hscb|Q8K3A0; Ndufs8|Q8K3J1; Pitrm1|Q8K411; Abhd11|Q8K4F5; Hibch|Q8QZS1; Acat1|Q8QZT1; Fahd1|Q8R0F8; Slc25a42|Q8R0Y8; Sirt3|Q8R104; Flad1|Q8R123; Bphl|Q8R164; Uqcr10|Q8R1I1; Stard7|Q8R1R3; Coq6|Q8R1S0; Mcat|Q8R3F5; Micos13|Q8R404; Clybl|Q8R4N0; Nt5m|Q8VCE6; Lipt1|Q8VCM4; Acsf2|Q8VCW8; Micu1|Q8VCX5; Lars2|Q8VDC0; Ttc39c|Q8VE09; Mrps23|Q8VE22; Gdap1l1|Q8VE33; Oxnad1|Q8VE38; Ogfrl1|Q8VE52; Prelid3a|Q8VE85; C030006K11Rik|Q8VE95; Slc25a3|Q8VEM8; Sfxn3|Q91V61; Poldip2|Q91VA6; Ghitm|Q91VC9; Ndufs1|Q91VD9; Ppa2|Q91VM9; Chchd6|Q91VN4; Atp5c1|Q91VR2; Cbr4|Q91VT4; Gldc|Q91W43; Ndufs2|Q91WD5; Spryd4|Q91WK1; Gcsh|Q91WK5; Hdhd5|Q91WM2; Mtif2|Q91YJ5; Tbrg4|Q91YM4; L2hgdh|Q91YP0; Ndufv1|Q91YT0; Pcca|Q91ZA3; Etfdh|Q921G7; Macrod1|Q922B1; Fastkd2|Q922E6; Pdk3|Q922H2; Pycr2|Q922Q4; Glrx2|Q923X4; Mto1|Q923Z3; Rtn4ip1|Q924D0; Letmd1|Q924L1; Atad3a|Q925I1; Mlycd|Q99J39; Mpst|Q99J99; Stoml2|Q99JB2; Sfxn1|Q99JR1; Gatb|Q99JT1; Hadhb|Q99JY0; Nlgn1|Q99K10; Me2|Q99KE1; Aco2|Q99KI0; Hars2|Q99KK9; Ppif|Q99KR7; Hibadh|Q99L13; Dhrs4|Q99LB2; Sardh|Q99LB7; Ndufa10|Q99LC3; Etfa|Q99LC5; Grpel1|Q99LP6; Ndufs5|Q99LY9; Fars2|Q99M01; Lias|Q99M04; Dnaja3|Q99M87; Pccb|Q99MN9; Mccc1|Q99MR8; Mrps5|Q99N87; Mrpl16|Q99N93; Mrpl9|Q99N94; Mrpl3|Q99N95; Mrpl1|Q99N96; Acss1|Q99NB1; Ndufa5|Q9CPP6; Cox6c|Q9CPQ1; Tomm22|Q9CPQ3; Atp5l|Q9CPQ8; Ndufb2|Q9CPU2; Mrps16|Q9CPX7; Uqcr11|Q9CPX8; Dmac1|Q9CQ00; Mrpl24|Q9CQ06; Ndufc2|Q9CQ54; Decr1|Q9CQ62; Uqcrq|Q9CQ69; Ndufa2|Q9CQ75; Timm22|Q9CQ85; Ndufa3|Q9CQ91; Sdhb|Q9CQA3; Ndufb4|Q9CQC7; Nipsnap3b|Q9CQE1; Mrpl11|Q9CQF0; Mtres1|Q9CQF4; Ndufb5|Q9CQH3; Ndufb9|Q9CQJ8; Mrpl18|Q9CQL5; Trap1|Q9CQN1; Atp5pb|Q9CQQ7; Acot13|Q9CQR4; Mrps36|Q9CQX8; Ndufa6|Q9CQZ5; Ndufb3|Q9CQZ6; Gadd45gip1|Q9CR59; Ndufb7|Q9CR61; Slc25a11|Q9CR62; Uqcrfs1|Q9CR68; Atp5g1|Q9CR84; Fam136a|Q9CR98; Dmac2l|Q9CRA7; Mtfp1|Q9CRB8; Chchd3|Q9CRB9; Nubpl|Q9CWD8; Ndufaf7|Q9CWG8; Uqcc1|Q9CWU6; Ndufaf1|Q9CWX2; Coq5|Q9CXI0; Pmpcb|Q9CXT8; Sdhd|Q9CXV1; Mrps22|Q9CXW2; Ndufs4|Q9CXZ1; Mrps28|Q9CY16; Wars2|Q9CYK1; Ssbp1|Q9CYR0; Hdhd3|Q9CYW4; Uqcrc1|Q9CZ13; Mrpl55|Q9CZ83; Sdhc|Q9CZB0; Mtif3|Q9CZD5; Shmt2|Q9CZN7; Bcs1l|Q9CZP5; Tomm40l|Q9CZR3; Tsfm|Q9CZR8; Aldh1b1|Q9CZS1; Cs|Q9CZU6; Mpc2|Q9D023; Pdhb|Q9D051; Mtpap|Q9D0D3; Mrps30|Q9D0G0; Oxct1|Q9D0K2; Adck1|Q9D0L4; Cyc1|Q9D0M3; Mrpl45|Q9D0Q7; Hint2|Q9D0S9; Gatd3a|Q9D172; Mrpl28|Q9D1B9; Ndufaf4|Q9D1H6; Mcee|Q9D1I5; Mrpl14|Q9D1I6; Chchd2|Q9D1L0; Mrpl13|Q9D1P0; Dlst|Q9D2G2; Mrps33|Q9D2R8; Mrpl19|Q9D338; Atp5d|Q9D3D9; Plgrkt|Q9D3P8; Oxsm|Q9D404; Dlgap1|Q9D415; Ndufb8|Q9D6J5; Ndufv2|Q9D6J6; Slc25a22|Q9D6M3; Idh3a|Q9D6R2; Mrrf|Q9D6S7; Fam162a|Q9D6U8; Mrpl2|Q9D773; Mtfmt|Q9D799; Acad8|Q9D7B6; Mrps9|Q9D7N3; Iscu|Q9D7P6; Naaa|Q9D7V9; Uqcrb|Q9D855; Timm50|Q9D880; Rexo2|Q9D8S4; Slirp|Q9D8T7; Ociad2|Q9D8W7; Isca1|Q9D924; Tmem160|Q9D938; Gatm|Q9D964; Trmu|Q9DAT5; Smdt1|Q9DB10; Atp5o|Q9DB20; Prxl2b|Q9DB60; Uqcrc2|Q9DB77; Acadsb|Q9DBL1; Coasy|Q9DBL7; Pmpca|Q9DC61; Ndufa9|Q9DC69; Ndufs7|Q9DC70; Mrps15|Q9DC71; Mrps11|Q9DCA2; Isca2|Q9DCB8; Ndufa8|Q9DCJ5; Ethe1|Q9DCM0; Mecr|Q9DCS3; Ndufb10|Q9DCS9; Ndufs3|Q9DCT2; Mrpl4|Q9DCU6; Rmdn1|Q9DCV4; Etfb|Q9DCW4; Atp5h|Q9DCX2; Apoo|Q9DCZ4; Lactb|Q9EP89; Aldh6a1|Q9EQ20; Rapgef4|Q9EQZ6; Dap3|Q9ER88; Ndufa13|Q9ERS2; Agk|Q9ESW4; Ivd|Q9JHI5; Clpx|Q9JHS4; Mrps34|Q9JIK9; Htra2|Q9JIY5; Lancl2|Q9JJK2; Sars2|Q9JJL8; Cacng3|Q9JJV5; Pdk2|Q9JK42; Mrpl39|Q9JKF7; Ndufaf3|Q9JKL4; Txnrd2|Q9JLT4; Auh|Q9JLZ3; Srcin1|Q9QWI6; Homer2|Q9QWW1; Dguok|Q9QX60; Acot2|Q9QYR9; Pclo|Q9QYX7; Nfu1|Q9QZ23; Slc25a10|Q9QZD8; Ecsit|Q9QZH6; Tk2|Q9R088; Acot9|Q9R0X4; Sqor|Q9R112; Ak3|Q9WTP7; Timm23|Q9WTQ8; Suclg1|Q9WUM5; Ak4|Q9WUR9; Timm10b|Q9WV96; Timm9|Q9WV98; Timm8a1|Q9WVA2; Slc25a15|Q9WVD5; Gstz1|Q9WVL0; Aifm1|Q9Z0X1; Aldh18a1|Q9Z110; Nfs1|Q9Z1J3; Ndufa7|Q9Z1P6; Letm1|Q9Z2I0; Suclg2|Q9Z2I8; Sucla2|Q9Z2I9; Mrpl40|Q9Z2Q5; Slc25a20|Q9Z2Z6; Ildr2|B5TVM2; Cacnb3|P54285; Grin2b|Q01097; Lrrtm1|Q8K377; Prkag2|Q91WG5; Rnf141|Q99MB7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klhdc7a|A2APT9; Akap1|O08715; Cnih2|O35089; Myadm|O35682; Rab33b|O35963; Chmp6|P0C0A3; Gria2|P23819; Rab12|P35283; Rab24|P35290; Acsl1|P41216; Rpia|P47968; Atp6v0d1|P51863; Anks1|P59672; Plp1|P60202; Rab10|P61027; Olfm3|P63056; Abcc9|P70170; Kcnab3|P97382; Pros1|Q08761; Marchf5|Q3KNM2; Rmdn3|Q3UJU9; Miga1|Q4QQM5; Antkmt|Q501J2; Stxbp5l|Q5DQR4; Cldn11|Q60771; Bad|Q61337; Gpam|Q61586; Rab34|Q64008; Maoa|Q64133; Dbh|Q64237; Abhd17b|Q7M759; Snph|Q80U23; Tdrkh|Q80VL1; Lrrc1|Q80VQ1; Mfn1|Q811U4; Zfp365|Q8BG89; Slc35d3|Q8BGF8; Fbxl2|Q8BH16; Sybu|Q8BHS8; Mal2|Q8BI08; Comtd1|Q8BIG7; Flrt2|Q8BLU0; Aifm2|Q8BUE4; Maob|Q8BW75; Lrrtm3|Q8BZ81; Rab15|Q8K386; Rnasek|Q8K3C0; Bmerb1|Q8R1Y2; Mavs|Q8VCF0; Angel1|Q8VCU0; Exd2|Q8VEG4; Cspg4|Q8VHY0; Snx4|Q91YJ2; Syt17|Q920M7; Mtarc2|Q922Q1; Rab30|Q923S9; Rab27b|Q99P58; Fis1|Q9CQ92; Rab5a|Q9CQD1; Cyb5b|Q9CQX2; Msmo1|Q9CRA4; Agpat5|Q9D1E8; Lamp5|Q9D387; Atad1|Q9D5T0; Fundc2|Q9D6K8; Pllp|Q9DCU2; Arfgap1|Q9EPJ9; Rab27a|Q9ERI2; Rdh14|Q9ERI6; Golga5|Q9QYE6; Bnip3l|Q9Z2F7; Htatip2|Q9Z2G9; Gria4|Q9Z2W8; Gria3|Q9Z2W9; Mgat1|P27808; Ddr1|Q03146; Mief2|Q5NCS9; Rab35|Q6PHN9; Mblac2|Q8BL86; Gbp5|Q8CFB4; Abhd17c|Q8VCV1; Sft2d2|Q8VD57; Dhrs7b|Q99J47; Zfpl1|Q9DB43; Tagln3|Q9R1Q8; Man1b1|A2AJ15; Car11|O70354; Casp1|P29452; Ppic|P30412; Man1a2|P39098; Kcnab1|P63143; Slc29a2|Q61672; Bcl2l1|Q64373; Tmem267|Q8VDR5; Znrf1|Q91V17; Dnajb2|Q9QYI5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ccdc186|Q8C9S4; Sec14l1|A8Y5H7; Wdfy1|E9Q4P1; Sh3yl1|O08641; Mab21l1|O70299; Myo5b|P21271; Syt2|P46097; Vps33b|P59016; Lzts1|P60853; Tep1|P97499; Btrc|Q3ULA2; Jakmip3|Q5DTN8; Ankrd13b|Q5F259; Abca13|Q5SSE9; Fstl4|Q5STE3; Vamp1|Q62442; Sv2c|Q69ZS6; Armcx2|Q6A058; Tspoap1|Q7TNF8; Rusc2|Q80U22; Ap4e1|Q80V94; Rusc1|Q8BG26; Clvs2|Q8BG92; Vipas39|Q8BGQ1; Napepld|Q8BH82; Slc17a6|Q8BLE7; Zfp385b|Q8BXJ8; Klhl20|Q8VCK5; Mtmr6|Q8VE11; Thoc3|Q8VE80; Bloc1s4|Q8VED2; Hdac11|Q91WA3; Trappc2|Q9CQP2; Llph|Q9D945; Senp3|Q9EP97; Snap29|Q9ERB0; Scamp5|Q9JKD3; Rab37|Q9JKM7; Atp8a1|P70704; Ext1|P97464; Gdpd5|Q640M6; Slc6a17|Q8BJI1; Tmem163|Q8C996; Hint3|Q9CPS6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neu2|Q9JMH3; Ttc39a|A2ACP1; Klc2|O88448; Nfix|P70257; Hs3st2|Q673U1; Sdad1|Q80UZ2; Ap4s1|Q9WVL1; Atp6v1c1|Q9Z1G3; Syngr1|O55100; Atp6v1a|P50516; Atp6v1e1|P50518; Atp6v1b2|P62814; Atp6v0c|P63082; Slc30a3|P97441; Rogdi|Q3TDK6; Slc17a7|Q3TXX4; Ccdc177|Q3UHB8; Trim41|Q5NCC3; Ppp2r5e|Q61151; Syp|Q62277; Sh3gl1|Q62419; Map3k10|Q66L42; Dgkq|Q6P5E8; Tnks|Q6PFX9; Slc6a7|Q6PGE7; Ddn|Q80TS7; Avl9|Q80U56; Sv2b|Q8BG39; Med12l|Q8BQM9; 2900026A02Rik|Q8BRV5; Atp6v1h|Q8BVE3; Slc7a14|Q8BXR1; N4bp3|Q8C7U1; Phf20l1|Q8CCJ9; Smc4|Q8CG47; Syn3|Q8JZP2; Syngr3|Q8R191; Med17|Q8VCD5; Abhd4|Q8VD66; Mzt2|Q9CQ25; Snx7|Q9CY18; Ttpal|Q9D3D0; Tprgl|Q9DBS2; Sphk2|Q9JIA7; Sv2a|Q9JIS5; Epb41l4b|Q9JMC8; Syt12|Q920N7; Ap4b1|Q9WV76; Atp6v0a1|Q9Z1G4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exoc6b|A6H5Z3; Pi4ka|E9Q3L2; S1pr1|O08530; Exoc7|O35250; Rgs7|O54829; Cask|O70589; Lin7c|O88952; Dao|P18894; Gja1|P23242; Slc6a11|P31650; Slc1a2|P43006; Cd38|P56528; Slc1a3|P56564; Ntsr2|P70310; Gjb6|P70689; Sirpa|P97797; Kcnb1|Q03717; Prex2|Q3LAC4; Cnrip1|Q5M8N0; Slc6a3|Q61327; Atp1a2|Q6PIE5; Ahcyl1|Q80SW1; Fbxo2|Q80UW2; Nfasc|Q810U3; Cpne4|Q8BLR2; Nhsl1|Q8CAF4; Lin7a|Q8JZS0; Manba|Q8K2I4; Plcd1|Q8R3B1; Cadm4|Q8R464; Slc14a1|Q8VHL0; Snx18|Q91ZR2; Plpp3|Q99JY8; Fmnl1|Q9JL26; Mpp6|Q9JLB0; Plcb1|Q9Z1B3; Fxyd1|Q9Z239; Slc22a4|Q9Z306; Exoc5|Q3TPX4; Kctd16|Q5DTY9; Baiap3|Q80TT2; Dlg1|Q811D0; Cdc42ep4|Q9JM96; Ptprs|B0V2N1; Slc4a4|O88343; Mpp3|O88910; Atp1b2|P14231; Plcb3|P51432; Mdga2|P60755; Kctd8|Q50H33; Flot2|Q60634; Cntn2|Q61330; Sdk2|Q6V4S5; Negr1|Q80Z24; Slitrk5|Q810B7; Aida|Q8C4Q6; Septin10|Q8C650; Mlc1|Q8VHK5; Brinp1|Q920P3; Exoc8|Q6PGF7; Nectin1|Q9JKF6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smurf2|A2A5Z6; Ccdc8|D3YZV8; Wnk2|Q3UH66; Radil|Q69Z89; Trak1|Q6PD31; Taok2|Q6ZQ29; Fsd1|Q7TPM6; Epg5|Q80TA9; Pip4k2b|Q80XI4; Prickle2|Q80Y24; Actbl2|Q8BFZ3; Samd14|Q8K070; Otud7a|Q8R554; Mapk8|Q91Y86; Nsmf|Q99NF2; Macf1|Q9QXZ0; Sh3pxd2b|A2AAY5; Dennd4c|A6H8H2; Vwa5b1|A9Z1V5; Dlgap4|B1AZP2; Shank1|D3YZU1; Abl1|P00520; Cbr2|P08074; H2ax|P27661; Kif5c|P28738; Ppfia3|P60469; Cep76|Q0VEJ0; Mettl17|Q3U2U7; Insyn2a|Q3USH1; Iqsec2|Q5DU25; C2cd4c|Q5HZI2; Arhgap44|Q5SSM3; Fgd6|Q69ZL1; Dlgap3|Q6PFD5; Whrn|Q80VW5; Polrmt|Q8BKF1; Baiap2|Q8BKX1; Timmdc1|Q8BUY5; Lrch3|Q8BVU0; Arhgef33|Q8BW86; Vps13c|Q8BX70; Bcas3|Q8CCN5; Gtpbp10|Q8K013; Atg13|Q91YI1; Nln|Q91YP2; D230025D16Rik|Q922R1; Ophn1|Q99J31; Nmnat3|Q99JR6; Erc1|Q99MI1; Rims1|Q99NE5; Rb1cc1|Q9ESK9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exoc4|O35382; Pde11a|P0C1Q2; Sptan1|P16546; Tjp1|P39447; Smad4|P97471; Pla2g6|P97819; Pde4d|Q01063; Ank1|Q02357; Dhrs11|Q3U0B3; Prickle1|Q3U5C7; Arhgap17|Q3UIA2; Gpd1l|Q3ULJ0; Wwc1|Q5SXA9; Sptbn1|Q62261; Exoc3|Q6KAR6; Tln2|Q71LX4; Tppp|Q7TQD2; Cyld|Q80TQ2; Lrsam1|Q80ZI6; Zfyve1|Q810J8; Dtd2|Q8BHA3; Spata2l|Q8BNN1; Iffo1|Q8BXL9; Arhgap25|Q8BYW1; Wdr47|Q8CGF6; Ogt|Q8CGY8; Plcl2|Q8K394; Exoc1|Q8R3S6; Arhgef12|Q8R4H2; Sgip1|Q8VD37; Amot|Q8VHG2; Grip1|Q925T6; Exoc2|Q9D4H1; Klc4|Q9DBS5; Fbxo3|Q9DC63; Add3|Q9QYB5; Mthfd2l|D3YZG8; Syngap1|F6SEU4; Pde4a|O89084; Dnm1|P39053; Epb41|P48193; Hmgcs2|P54869; Mrps6|P58064; Dlg3|P70175; Chat|Q03059; Cblb|Q3TTA7; Plekha7|Q3UIL6; Eml6|Q5SQM0; Traf3|Q60803; Arhgap21|Q6DFV3; Nwd2|Q6P5U7; Syne1|Q6ZWR6; Amph|Q7TQF7; Madd|Q80U28; Ddhd1|Q80YA3; Arhgap33|Q80YF9; Anks1b|Q8BIZ1; Fam163b|Q8BUM6; Ston2|Q8BZ60; Ank2|Q8C8R3; Ablim1|Q8K4G5; Cacnb4|Q8R0S4; Dlg2|Q91XM9; Mrpl44|Q9CY73; Ndel1|Q9ERR1; Mapk8ip3|Q9ESN9; Homer1|Q9Z2Y3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setx|A2AKX3; Nhsl2|B1AXH1; Akap13|E9Q394; Numa1|E9Q7G0; Srpk2|O54781; Shoc2|O88520; Ercc1|P07903; Map1b|P14873; Sars|P26638; Ftl1|P29391; Matk|P41242; Eef2|P58252; Inpp5j|P59644; Tpt1|P63028; Pip5k1a|P70182; Pdap1|Q3UHX2; Parp3|Q3ULW8; Peg3|Q3URU2; Cdv3|Q4VAA2; Deptor|Q570Y9; Tsr1|Q5SWD9; Specc1|Q5SXY1; Plekhg5|Q66T02; Ltn1|Q6A009; Dgkb|Q6NS52; Mapkbp1|Q6NS57; Abcf1|Q6P542; Dync1li2|Q6PDL0; Mob4|Q6PEB6; Ccdc25|Q78PG9; Ccnt2|Q7TQK0; Ckap2l|Q7TS74; Wdr82|Q8BFQ4; Nelfa|Q8BG30; Eif4b|Q8BGD9; Map4k5|Q8BPM2; Tyw3|Q8BSA9; Dip2a|Q8BWT5; Tbc1d4|Q8BYJ6; Nelfb|Q8C4Y3; Strip2|Q8C9H6; Dcun1d4|Q8CCA0; Riox2|Q8CD15; Rcor1|Q8CFE3; Cwf19l1|Q8CI33; Cdk17|Q8K0D0; Usp45|Q8K387; Gtf3c5|Q8R2T8; Macir|Q8VEB3; Map1lc3a|Q91VR7; Yars|Q91WQ3; Wasl|Q91YD9; Abcf2|Q99LE6; Hspa14|Q99M31; Brap|Q99MP8; Cep41|Q99NF3; Trp53rkb|Q99PW4; Pno1|Q9CPS7; Zmym2|Q9CU65; Mdm1|Q9D067; Zfp706|Q9D115; Necap2|Q9D1J1; Rpap3|Q9D706; Pold3|Q9EQ28; Wdr61|Q9ERF3; Trim2|Q9ESN6; Trpc4ap|Q9JLV2; Map1a|Q9QYR6; Eif2ak4|Q9QZ05; Ercc4|Q9QZD4; Rnf25|Q9QZR0; Syt6|Q9R0N8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ilk|O55222; Apaf1|O88879; Ina|P46660; Limch1|Q3UH68; Mfhas1|Q3V1N1; Zc3h12c|Q5DTV4; Lbp|Q61805; Pdzrn3|Q69ZS0; Polr2m|Q6P6I6; Tango6|Q8C3S2; Dusp12|Q9D0T2; Plec|Q9QXS1; Klhdc8b|Q9D2D9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tprn|A2AI08; Agrn|A2ASQ1; Dennd5b|A2RSQ0; Rrn3|B2RS91; Sec16a|E9QAT4; Aox3|G3X982; Hap1|O35668; Dffa|O54786; Bysl|O54825; Pde6d|O55057; Impact|O55091; Supt5|O55201; Fhl2|O70433; C3|P01027; Ighg2b|P01867; Nefl|P08551; Nefm|P08553; Fth1|P09528; Tcea1|P10711; Rps16|P14131; Rpsa|P14206; Gstm2|P15626; Nefh|P19246; Ubl4a|P21126; Xrcc6|P23475; Cdk11b|P24788; Rps2|P25444; Atxn10|P28658; Mug1|P28665; Aimp1|P31230; Msh2|P43247; Rangap1|P46061; Srp9|P49962; Pon1|P52430; Pold1|P52431; Polr1c|P52432; Msh6|P54276; Ncan|P55066; Arpp19|P56212; Gmeb2|P58929; Eif5|P59325; Rps20|P60867; Psme3|P61290; Dcaf7|P61963; Rps8|P62242; Ube2h|P62257; Rps14|P62264; Rps23|P62267; Rps29|P62274; Rps11|P62281; Rps4x|P62702; Rps6|P62754; Rps15|P62843; Rps24|P62849; Rps28|P62858; Rps3|P62908; Dnaja1|P63037; Ppp1cc|P63087; Rps17|P63276; Rps10|P63325; Prkacb|P68181; Ufd1|P70362; Vasp|P70460; Serping1|P97290; Polr1d|P97304; Mcm2|P97310; Rps3a1|P97351; Rps5|P97461; Ppp4c|P97470; Polr2c|P97760; Anp32e|P97822; Xdh|Q00519; Rsu1|Q01730; Eml1|Q05BC3; Larp7|Q05CL8; Ssrp1|Q08943; Gtf2f1|Q3THK3; Trmt1|Q3TX08; Ogfod1|Q3U0K8; Map3k9|Q3U1V8; Fam160a2|Q3U2I3; Spg11|Q3UHA3; Dop1b|Q3UHQ6; Cog7|Q3UM29; Iqgap2|Q3UQ44; Ddx46|Q569Z5; Kctd1|Q5M956; Ctc1|Q5SUQ9; Pfas|Q5SUR0; Samhd1|Q60710; Reln|Q60841; Caprin1|Q60865; Papss1|Q60967; Hars|Q61035; Cbx5|Q61686; Itih1|Q61702; Itih3|Q61704; Pdcd4|Q61823; Pzp|Q61838; Ctr9|Q62018; Map3k7|Q62073; Sin3b|Q62141; Aldh1a2|Q62148; Supt6|Q62383; Tfe3|Q64092; Isg15|Q64339; Fkbp5|Q64378; Eif3j2|Q66JS6; Sbno1|Q689Z5; Crtc1|Q68ED7; Mars1|Q68FL6; A2m|Q6GQT1; Helb|Q6NVF4; Ppp4r3a|Q6P2K6; Naa50|Q6PGB6; Ddx58|Q6Q899; Klhl9|Q6ZPT1; Kdm1a|Q6ZQ88; Usp34|Q6ZQ93; Rps9|Q6ZWN5; Akap9|Q70FJ1; Fbxo22|Q78JE5; Arhgef4|Q7TNR9; Nsun6|Q7TS68; Ctdp1|Q7TSG2; Plekhm1|Q7TSI1; Atf7ip|Q7TT18; Dcaf5|Q80T85; Mon2|Q80TL7; Ubr5|Q80TP3; Dcaf1|Q80TR8; Pja2|Q80U04; Arhgef17|Q80U35; Nup214|Q80U93; Naa15|Q80UM3; Polr2e|Q80UW8; Pde4dip|Q80YT7; Rbm11|Q80YT9; Wdtc1|Q80ZK9; Rnaseh2b|Q80ZV0; Htatsf1|Q8BGC0; Ublcp1|Q8BGR9; F13a1|Q8BH61; Sephs1|Q8BH69; Tbl1xr1|Q8BHJ5; Gcfc2|Q8BKT3; Dop1a|Q8BL99; Tarsl2|Q8BLY2; Srp68|Q8BMA6; Cdadc1|Q8BMD5; Fbxo38|Q8BMI0; Lars|Q8BMJ2; Qars|Q8BML9; Tcaf1|Q8BNE1; Mob1b|Q8BPB0; Heatr3|Q8BQM4; Ubr7|Q8BU04; Iars|Q8BU30; Plekha1|Q8BUL6; Bmt2|Q8BXK4; Cog5|Q8C0L8; Rapgef5|Q8C0Q9; Prepl|Q8C167; Klhl11|Q8CE33; Eprs|Q8CGC7; Pym1|Q8CHP5; Pdlim5|Q8CI51; Commd10|Q8JZY2; Ipo13|Q8K0C1; Lrrc41|Q8K1C9; Mtmr3|Q8K296; Stn1|Q8K2X3; Mepce|Q8K3A9; Ahsa2|Q8N9S3; Flcn|Q8QZS3; Tprkb|Q8QZZ7; Aimp2|Q8R010; Cog4|Q8R1U1; Nupl1|Q8R332; Tut1|Q8R3F9; Cluap1|Q8R3P7; Nup85|Q8R480; Ifih1|Q8R5F7; Pdcd10|Q8VE70; Rpa1|Q8VEE4; Rem2|Q8VEL9; Csde1|Q91W50; Gne|Q91WG8; Mtmr4|Q91XS1; Wrnip1|Q91XU0; Egln1|Q91YE3; Supt16|Q920B9; Cog2|Q921L5; Dars|Q922B2; Xpo5|Q924C1; Xpo6|Q924Z6; Mvd|Q99JF5; Unc45a|Q99KD5; Ttc5|Q99LG4; Cttnbp2nl|Q99LJ0; Kars|Q99MN1; Actl6b|Q99MR0; Pard3|Q99NH2; Rwdd4a|Q9CPR1; 2610002M06Rik|Q9CQD4; Rps21|Q9CQR2; Atg12|Q9CQY1; Rchy1|Q9CR50; Bccip|Q9CWI3; Smyd3|Q9CWR2; Ppil4|Q9CXG3; Cacybp|Q9CXW3; Mmachc|Q9CZD0; Rps19|Q9CZX8; Rars|Q9D0I9; Ift27|Q9D0P8; Maf1|Q9D0U6; Eef1e1|Q9D1M4; Armc9|Q9D2I5; Aacs|Q9D2R0; Aar2|Q9D2V5; Polr3c|Q9D483; Ttc33|Q9D6K7; Srp19|Q9D7A6; Cutc|Q9D8X1; Dda1|Q9D9Z5; Cmtr1|Q9DBC3; Ppp1r12a|Q9DBR7; Ccdc97|Q9DBT3; Telo2|Q9DC40; Plekha2|Q9ERS5; Anp32b|Q9EST5; Tssc4|Q9JHE7; Slc9a3r2|Q9JHL1; Lztfl1|Q9JHQ5; Prmt1|Q9JIF0; Copb1|Q9JIF7; Cog8|Q9JJA2; Iqgap1|Q9JKF1; Sart3|Q9JLI8; Bag3|Q9JLV1; Hapln1|Q9QUP5; Cyhr1|Q9QXA1; Naa10|Q9QY36; Dnajc7|Q9QYI3; Copg1|Q9QZE5; Tsnax|Q9QZE7; Sorbs3|Q9R1Z8; Stub1|Q9WUD1; Dctn3|Q9Z0Y1; Cog1|Q9Z160; Bag6|Q9Z1R2; Thbs4|Q9Z1T2; Strap|Q9Z1Z2; Ube2a|Q9Z255; Hdac5|Q9Z2V6; Stk25|Q9Z2W1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pdzd8|B9EJ80; Slc35g2|D3YVE8; Mctp1|E9PV86; Ryr1|E9PZQ0; C2cd2|E9Q3C1; Ryr2|E9Q401; Bdnf|P21237; Rab18|P35293; Atp9b|P98195; Asphd1|Q2TA57; Zfyve27|Q3TXX3; Esyt2|Q3TZZ7; Dcp1b|Q3U564; Esyt1|Q3U7R1; Prrc1|Q3UPH1; Snx25|Q3ZT31; Map3k12|Q60700; Reep5|Q60870; Mcf2l|Q64096; H2ac20|Q64523; Atg9a|Q68FE2; Gba2|Q69ZF3; Tmcc1|Q69ZZ6; Cyp4x1|Q6A152; Retreg2|Q6NS82; G6pc3|Q6NSQ9; Snx19|Q6P4T1; Snx6|Q6P8X1; Sgsm2|Q80U12; Asphd2|Q80VP9; Tmcc2|Q80W04; Tbc1d5|Q80XQ2; Snx32|Q80ZJ7; Pcyt1b|Q811Q9; Reep1|Q8BGH4; Nipal3|Q8BGN5; Atl1|Q8BH66; Snx14|Q8BHY8; Ldah|Q8BVA5; Gpat3|Q8C0N2; Endod1|Q8C522; Inpp5k|Q8C5L6; Usp20|Q8C6M1; Gramd4|Q8CB44; Cyp2d26|Q8CIM7; Acsl5|Q8JZR0; Meak7|Q8K0P3; Rtn1|Q8K0T0; Sde2|Q8K1J5; Gpat4|Q8K2C8; Casc3|Q8K3W3; Arl6ip5|Q8R5J9; Ccdc9|Q8VC31; Ndc1|Q8VCB1; Reep2|Q8VCD6; Daglb|Q91WC9; Bag2|Q91YN9; Fyttd1|Q91Z49; Tmem189|Q99LQ7; Rtn4|Q99P72; Retreg3|Q9CQV4; Tmem167|Q9CR64; Fgfr1op2|Q9CRA9; Snx2|Q9CWK8; Yif1b|Q9CX30; Stx17|Q9D0I4; H2bu2|Q9D2U9; Fam241b|Q9D882; Tbc1d20|Q9D9I4; Rtn3|Q9ES97; Ppp1r3f|Q9JIG4; Praf2|Q9JIG8; Arl6ip1|Q9JKW0; Snx1|Q9WV80; D17H6S53E|Q9Z1R4; Fkbp1b|Q9Z2I2; Reep6|Q9JM62; Rcc1|Q8VE37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zbtb11|G5E8B9; Lsm2|O35900; Strn|O55106; Cbx4|O55187; Hc|P06684; Crebbp|P45481; Nek1|P51954; Abce1|P61222; Lmo4|P61969; Sumo1|P63166; Rpl22|P67984; Prkdc|P97313; Frg1|P97376; Rnf40|Q3U319; Sfswap|Q3USH5; Pds5b|Q4VA53; Usp22|Q5DU02; Cluh|Q5SW19; Nop58|Q6DFW4; Dzip3|Q7TPV2; Pcid2|Q8BFV2; Txlng|Q8BHN1; Nop9|Q8BMC4; Anapc5|Q8BTZ4; Irf2bpl|Q8K3X4; Exosc2|Q8VBV3; Spats2l|Q91WJ7; Fam76a|Q922G2; Bap1|Q99PU7; Nhp2|Q9CRB2; Dis3|Q9CSH3; Ppih|Q9D868; Akap8|Q9DBR0; Wtap|Q9ER69; Cnot9|Q9JKY0; Ncor2|Q9WU42; Las1l|A2BE28; Arhgap31|A6X8Z5; Nfx1|B1AY10; Ythdc2|B2RR83; Zcchc24|B2RVL6; Tut4|B2RX14; Trappc11|B2RXC1; Gcn1|E9PVA8; Cpsf2|O35218; Dnajb6|O54946; Ttc3|O88196; Rc3h2|P0C090; Mov10|P23249; Ighmbp2|P40694; Ercc3|P49135; Cebpz|P53569; Lipe|P54310; Exosc10|P56960; Pcbp4|P57724; Snrpe|P62305; Snrpd1|P62315; Eif4e|P63073; Nfic|P70255; Surf6|P70279; Smarcc1|P97496; Rp9|P97762; Smn1|P97801; Mex3c|Q05A36; Bzw2|Q2L4X1; Trappc13|Q3TIR1; Alkbh5|Q3TSG4; Nol9|Q3TZX8; Tnrc6c|Q3UHC0; Mtcl1|Q3UHU5; Dtx3l|Q3UIR3; Tex10|Q3URQ0; Rnpc3|Q3UZ01; Rc3h1|Q4VGL6; Tut7|Q5BLK4; Unkl|Q5FWH2; Rbm27|Q5SFM8; Cnot7|Q60809; Eif1a|Q60872; Zfp638|Q61464; Smarcd1|Q61466; Msi1|Q61474; Utp14a|Q640M1; Tent4b|Q68ED3; Pnkd|Q69ZP3; Pds5a|Q6A026; Fam120a|Q6A0A9; Soga3|Q6NZL0; Ints1|Q6P4S8; Rexo4|Q6PAQ4; Bhlhb9|Q6PB60; Cnot1|Q6ZQ08; Wdr43|Q6ZQL4; Cpeb4|Q7TN98; Fbxo11|Q7TPD1; Mybbp1a|Q7TPV4; Tspyl2|Q7TQI8; Clasp1|Q80TV8; Rab3gap1|Q80UJ7; Vac14|Q80WQ2; Dapk1|Q80YE7; Med23|Q80YQ2; Trrap|Q80YV3; Vxn|Q8BG31; Krr1|Q8BGA5; Cnot10|Q8BH15; Gemin8|Q8BHE1; 1110051M20Rik|Q8BHR8; Tnrc6b|Q8BKI2; Smg1|Q8BKX6; Unk|Q8BL48; Rab3gap2|Q8BMG7; Mical2|Q8BML1; Exosc6|Q8BTW3; Jakmip1|Q8BVL9; Gemin5|Q8BX17; Zc3h6|Q8BYK8; Parp12|Q8BZ20; Fam120c|Q8C3F2; Utp15|Q8C7V3; Eloa|Q8CB77; Samd4|Q8CBY1; Smc5|Q8CG46; Fam193a|Q8CGI1; Flywch1|Q8CI03; Ago3|Q8CJF9; Ago1|Q8CJG1; Pnma3|Q8JZW8; Snapc1|Q8K0S9; Cnot3|Q8K0V4; Trappc12|Q8K2L8; Ddx18|Q8K363; Smg8|Q8VE18; Cnot6l|Q8VEG6; Dhx36|Q8VHK9; Ttll1|Q91V51; Ddx41|Q91VN6; Fig4|Q91WF7; Sh3d19|Q91X43; Lrrc49|Q91YK0; Sh3bp4|Q921I6; Nop2|Q922K7; Kctd10|Q922M3; Med15|Q924H2; Mlf2|Q99KX1; Zfp318|Q99PP2; Dhx30|Q99PU8; Nkiras2|Q9CR56; Smc1a|Q9CU62; Cnot11|Q9CWN7; Ints11|Q9CWS4; Rbm33|Q9CXK9; Bud23|Q9CY21; Sesn3|Q9CYP7; Toe1|Q9D2E2; Clvs1|Q9D4C9; Exosc8|Q9D753; Dnajb4|Q9D832; Rpl7l1|Q9D8M4; Hcfc2|Q9D968; Exosc1|Q9DAA6; Smg9|Q9DB90; Pelp1|Q9DBD5; Ftsj3|Q9DBE9; Brix1|Q9DCA5; Nmnat1|Q9EPA7; Upf1|Q9EPU0; Mkrn2|Q9ERV1; Dkc1|Q9ESX5; Gtf2h2|Q9JIB4; Rpf2|Q9JJ80; Riox1|Q9JJF3; Rcl1|Q9JJT0; Ddx20|Q9JJY4; Trappc2l|Q9JME7; Cpsf3|Q9QXK7; Prkra|Q9WTX2; Stau1|Q9Z108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ccdc9b|A3KGF9; Scamp3|O35609; Smg7|Q5RJH6; Ptbp3|Q8BHD7; Sphk1|Q8CI15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhx8|A2A4P0; Camta1|A2A891; Virma|A2AIV2; Ppig|A2AR02; Rsrc2|A2RTL5; Rbm25|B2RY56; Nolc1|E9Q5C9; Ythdc1|E9Q5K9; Rnf169|E9Q7F2; Tcof1|O08784; Rpl21|O09167; Terf2|O35144; Hmgb3|O54879; Rpl35a|O55142; Rngtt|O55236; Eif3d|O70194; Eef1b2|O70251; Cript|O70333; Srpk1|O70551; Rbm3|O89086; Ighm|P01872; Eif4a2|P10630; Cfp|P11680; Rpl7a|P12970; Dnmt1|P13864; Rpl27a|P14115; Rpl7|P14148; Rplp0|P14869; Rpl13a|P19253; Eif3a|P23116; Snrpb|P27048; Rpl3|P27659; Vtn|P29788; Hmgb2|P30681; Ssb|P32067; Fbl|P35550; Rpl12|P35979; Rpl18|P35980; Col18a1|P39061; Rpl28|P41105; Rpl6|P47911; Rpl29|P47915; Rpl5|P47962; Rpl13|P47963; Rpl36|P47964; Sox2|P48432; Pa2g4|P50580; Rpl9|P51410; Usp10|P52479; Rpl10a|P53026; Eef1d|P57776; Snrpa1|P57784; Ythdf1|P59326; Eif3e|P60229; Cirbp|P60824; Rpl26|P61255; Rpl37a|P61514; Rps7|P62082; Snrpf|P62307; Snrpg|P62309; Lsm6|P62313; Snrpd2|P62317; Snrpd3|P62320; Rpl23a|P62751; Rpl23|P62830; Fau|P62862; Rpl31|P62900; Rpl32|P62911; Uba52|P62984; Tra2b|P62996; Rps12|P63323; Rad50|P70388; Phf5a|P83870; Rpl36a|P83882; Erh|P84089; Srsf3|P84104; G3bp2|P97379; Myo7a|P97479; Nfib|P97863; Rplp2|P99027; Eif5b|Q05D44; Usp39|Q3TIX9; Fam98a|Q3TJZ6; Puf60|Q3UEB3; Nom1|Q3UFM5; Usp19|Q3UJD6; Selenoh|Q3UQA7; Ncbp1|Q3UYV9; Srrm1|Q52KI8; Thrap3|Q569Z6; Gpkow|Q56A08; Zfyve26|Q5DU37; Nsrp1|Q5NCR9; Luc7l3|Q5SUF2; Wbp4|Q61048; Spin1|Q61142; Papola|Q61183; Ddx5|Q61656; Npm1|Q61937; Ddx3x|Q62167; Sf3a2|Q62203; Fkbp3|Q62446; Cavin2|Q63918; Btf3|Q64152; Zrsr1|Q64707; Rbm12b2|Q66JV4; Isy1|Q69ZQ2; Larp4b|Q6A0A2; Cpsf6|Q6NVF9; Rprd2|Q6NXI6; Dnajc8|Q6NZB0; Scube1|Q6NZL8; Klhdc10|Q6PAR0; Srsf1|Q6PDM2; Tra2a|Q6PFR5; Gigyf2|Q6Y7W8; Lsm8|Q6ZWM4; Rps27|Q6ZWU9; Gm2000|Q6ZWV7; Eif2s1|Q6ZWX6; Synm|Q70IV5; Luc7l2|Q7TNC4; Ccp110|Q7TSH4; Scaf4|Q7TSH6; Prpf38b|Q80SY5; Fam98b|Q80VD1; Hapln4|Q80WM4; Srrm3|Q80WV7; Ubap2l|Q80X50; Nrde2|Q80XC6; Ddx42|Q810A7; Cwf19l2|Q8BG79; Hook1|Q8BIL5; Snip1|Q8BIZ6; Smarcal1|Q8BJL0; Rcc2|Q8BK67; Srsf7|Q8BL97; Eif1ax|Q8BMJ3; Rpl24|Q8BP67; Utp25|Q8BTT6; Cdk19|Q8BWD8; Ythdf3|Q8BYK6; Lmo3|Q8BZL8; Srek1|Q8BZX4; Farsa|Q8C0C7; Tlk1|Q8C0V0; Dido1|Q8C9B9; Gatad2a|Q8CHY6; Ints4|Q8CIM8; Eif3b|Q8JZQ9; Bclaf1|Q8K019; Kin|Q8K339; Sf3a1|Q8K4Z5; Ccsap|Q8QZT2; Eif3l|Q8QZY1; Ilkap|Q8R0F6; Eif3c|Q8R1B4; D8Ertd738e|Q8R1F0; Ccdc59|Q8R2N0; Seh1l|Q8R2U0; Nepro|Q8R2U2; Tcf25|Q8R3L2; Rbm12|Q8R4X3; Fbxw7|Q8VBV4; Zgpat|Q8VDM1; Hnrnpul1|Q8VDM6; C330007P06Rik|Q8VDP2; Rbm4b|Q8VE92; Hnrnpu|Q8VEK3; Rbm39|Q8VH51; Recql5|Q8VID5; Ddx1|Q91VR5; Ubap2|Q91VX2; Rpp25|Q91WE3; Eif3h|Q91WK2; Rrp9|Q91WM3; Thyn1|Q91YJ3; Ythdf2|Q91YT7; Vps16|Q920Q4; Hnrnpll|Q921F4; Sf3b3|Q921M3; Prpf3|Q922U1; Wac|Q924H7; Hnrnpab|Q99020; Psip1|Q99JF8; Eif3m|Q99JX4; Nxf1|Q99JX7; Rbm10|Q99KG3; Eif2s2|Q99L45; Rtcb|Q99LF4; Gnl2|Q99LH1; Srrt|Q99MR6; Sf3b1|Q99NB9; Rpl17|Q9CPR4; Zmat2|Q9CPW7; Ncbp2|Q9CQ49; Bzw1|Q9CQC6; Rtraf|Q9CQE8; Mettl16|Q9CQG2; Ramac|Q9CQY2; Tma16|Q9CR02; Rpl14|Q9CR57; Cactin|Q9CS00; Prkrip1|Q9CWV6; Ddx47|Q9CWX9; Rpl11|Q9CXW4; Zcchc8|Q9CYA6; Luc7l|Q9CYI4; Zcrb1|Q9CZ96; Rpl15|Q9CZM2; Ssbp3|Q9D032; Snu13|Q9D0T1; Rita1|Q9D1H0; Rpl34|Q9D1R9; Phf6|Q9D4J7; Sf3a3|Q9D554; Nosip|Q9D6T0; Nop56|Q9D6Z1; Trir|Q9D735; Rpl22l1|Q9D7S7; Rpl37|Q9D823; Rpl4|Q9D8E6; Gtf2e2|Q9D902; 1810009A15Rik|Q9D937; Prpf4|Q9DAW6; Leng1|Q9DB98; Xrn2|Q9DBR1; Eif3k|Q9DBZ5; Eif3f|Q9DCH4; Pes1|Q9EQ61; Zfp287|Q9EQB9; Cars|Q9ER72; Hrg|Q9ESB3; Aff4|Q9ESC8; Hapln2|Q9ESM3; Thap11|Q9JJD0; Grb14|Q9JLM9; Arl6ip4|Q9JM93; Zfp207|Q9JMD0; Edf1|Q9JMG1; Mageh1|Q9NWG9; Lsm4|Q9QXA5; Eif3i|Q9QZD9; Morf4l2|Q9R0Q4; Srsf10|Q9R0U0; Prpf40a|Q9R1C7; Farsb|Q9WUA2; Fam50a|Q9WV03; Bub3|Q9WVA3; Eif2s3x|Q9Z0N1; Eif3g|Q9Z1D1; Hnrnpf|Q9Z2X1; Map7d1|A2AJI0; Zc3h13|E9Q784; Map7|O88735; Rplp1|P47955; Paxbp1|P58501; Rpl27|P61358; Rpl18a|P62717; Rpl30|P62889; Rpl8|P62918; Hnrnph2|P70333; Rpl19|P84099; C1qc|Q02105; Eif2ak2|Q03963; Arglu1|Q3UL36; Tspyl5|Q69ZB3; Secisbp2l|Q6A098; Txlna|Q6PAM1; Rpl10|Q6ZWV3; Rsbn1|Q80T69; Samd4b|Q80XS6; Cdkn2aip|Q8BI72; Polb|Q8K409; Hdlbp|Q8VDJ3; Prpf6|Q91YR7; Ankrd17|Q99NH0; Nop16|Q9CPT5; Nudt21|Q9CQF3; Cenpv|Q9CXS4; Dcun1d5|Q9CXV9; Mtrex|Q9CZU3; Mrto4|Q9D0I8; Eef1g|Q9D8N0; Gpatch1|Q9DBM1; Maged1|Q9QYH6; Vars|Q9Z1Q9; Sart1|Q9Z315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map2k3|O09110; Fen1|P39749; Smad1|P70340; Vwf|Q8CIZ8; Obi1|Q8K2Y0; Lmcd1|Q8VEE1; Arpc1b|Q9WV32; Parp4|E9PYK3; Plin4|O88492; Mlip|Q5FW52; Nkiras1|Q8CEC5; Celf3|Q8CIN6; 3110082I17Rik|Q9CXL3; Mvp|Q9EQK5; Cdk5rap2|Q8K389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sephs2|P97364; Rnf187|Q8BFX1; Bex4|Q9CWT2; Slc6a4|Q60857; Mrps10|Q80ZK0; Osbpl11|Q8CI95; Timm17a|Q9Z0V8; Nde1|Q9CZA6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cdc27|A2A6Q5; Mocs3|A2BDX3; Kif16b|B1AVY7; Arfgef1|G3X9K3; Diaph1|O08808; Me1|P06801; Phkg1|P07934; Mapt|P10637; Glul|P15105; Ass1|P16460; Phka1|P18826; Fasn|P19096; Sag|P20443; Foxa2|P35583; Htt|P42859; Capza1|P47753; Capza2|P47754; Capzb|P47757; Pfkm|P47857; Ppp1cb|P62141; Mapk1|P63085; Map2k6|P70236; Rock2|P70336; Usp9x|P70398; Lyst|P97412; F8a|Q00558; Prkcz|Q02956; Cdk18|Q04899; Nudt18|Q3U2V3; Mylk3|Q3UIZ8; Ppp1r12c|Q3UMT1; Vps51|Q3UVL4; Ttc9|Q3V038; Garnl3|Q3V0G7; Ankrd28|Q505D1; Rabl6|Q5U3K5; Csnk2a1|Q60737; Tbc1d1|Q60949; Arhgef1|Q61210; Kif5b|Q61768; Lasp1|Q61792; Hbs1l|Q69ZS7; Ncoa7|Q6DFV7; Wwc2|Q6NXJ0; Kank4|Q6P9J5; Bcr|Q6PAJ1; Sarm1|Q6PDS3; Ppp1r9b|Q6R891; Cand1|Q6ZQ38; Dsg1b|Q7TSF1; Rpap1|Q80TE0; Rpp38|Q80UU2; Reps2|Q80XA6; Rbsn|Q80Y56; Zfand1|Q8BFR6; Katnb1|Q8BG40; Ttc26|Q8BS45; Ap3s2|Q8BSZ2; Pik3cb|Q8BTI9; Flna|Q8BTM8; Engase|Q8BX80; Dcun1d2|Q8BZJ7; Strip1|Q8C079; Ppp4r4|Q8C0Y0; Vps52|Q8C754; Gan|Q8CA72; Vps53|Q8CCB4; Trp53bp2|Q8CG79; Vps50|Q8CI71; Sh2d5|Q8JZW5; Eipr1|Q8K0G5; Katnal1|Q8K0T4; Hspa12a|Q8K0U4; Dennd1a|Q8K382; Glcci1|Q8K3I9; Mapre2|Q8R001; Blmh|Q8R016; Stac2|Q8R1B0; Tbc1d22a|Q8R5A6; Paip1|Q8VE62; Elac1|Q8VEB6; Chn1|Q91V57; Vps36|Q91XD6; Pip4k2c|Q91XU3; Ugp2|Q91ZJ5; Gmppa|Q922H4; Ppp2r2d|Q925E7; Atg5|Q99J83; Raf1|Q99N57; Lpin2|Q99PI5; Ubxn6|Q99PL6; Arpc5|Q9CPW4; Vps25|Q9CQ80; Denr|Q9CQJ6; Lrrc40|Q9CRC8; Cap2|Q9CYT6; Snf8|Q9CZ28; Pdzd11|Q9CZG9; Cul2|Q9D4H8; Tsc1|Q9EP53; Nckipsd|Q9ESJ4; Ngly1|Q9JI78; Ap3m1|Q9JKC8; Cul3|Q9JLV5; Kif21b|Q9QXL1; Jmy|Q9QXM1; Pde7b|Q9QXQ1; Dcun1d1|Q9QZ73; Pfkp|Q9WUA3; Carm1|Q9WVG6; Twf2|Q9Z0P5; Mtmr2|Q9Z2D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tub|P50586; Aldh16a1|Q571I9; Sepsecs|Q6P6M7; Cand2|Q6ZQ73; Ttc28|Q80XJ3; Pi4kb|Q8BKC8; Wdfy2|Q8BUB4; Fsd1l|Q8BYN5; Exoc6|Q8R313; Rhobtb2|Q91V93; Arhgap35|Q91YM2; Myo18a|Q9JMH9; Bcar3|Q9QZK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aldoa|P05064; Tatdn1|Q6P8M1; Kbtbd3|Q8BHI4; Tubb1|A2AQ07; Grem2|O88273; Armc2|Q3URY6; Kcna5|Q61762; Trim37|Q6PCX9; Dock9|Q8BIK4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gpr108|Q91WD0; Tmem201|A2A8U2; Ryr3|A2AGL3; Tmem245|B1AZA5; Osbpl8|B9EJ86; Smim13|E9Q942; Sec22b|O08547; Emd|O08579; Ptgis|O35074; Agpat1|O35083; Slc27a2|O35488; Pitpnm1|O35954; Zw10|O54692; Pgrmc1|O55022; Tesk1|O70146; Hmox2|O70252; Comt|O88587; Hsd17b7|O88736; Ly6c2|P0CW03; Prkch|P23298; M6pr|P24668; Prkcd|P28867; Por|P37040; Dpagt1|P42867; Igfbp4|P47879; Lmna|P48678; Caml|P49070; Cav1|P49817; Clgn|P52194; Ptpn5|P54830; Rab4a|P56371; Lman2l|P59481; Ube2g2|P60605; Ap1s1|P61967; Aup1|P70295; Ext2|P70428; Stim2|P83093; Sptlc2|P97363; Vps45|P97390; Ptpn2|Q06180; Igf2r|Q07113; Lpcat1|Q3TFD2; Pnpla6|Q3TRM4; Pomk|Q3TUA9; Otulinl|Q3TVP5; Cybc1|Q3TYS2; Alg11|Q3TZM9; Hgsnat|Q3UDW8; Nat8l|Q3UGX3; Pitpnm3|Q3UHE1; Lsg1|Q3UM18; Lclat1|Q3UN02; Slmap|Q3URD3; Vezt|Q3ZK22; Fa2h|Q5MPP0; Tmem199|Q5SYH2; 2610507B11Rik|Q5SYL3; Cyp7b1|Q60991; Tmpo|Q61029; Ei24|Q61070; Bcap29|Q61334; Bcap31|Q61335; Surf4|Q64310; Sidt1|Q6AXF6; Kdsr|Q6GV12; Ephx4|Q6IE26; Zdhhc24|Q6IR37; Lpcat4|Q6NVG1; Ankle2|Q6P1H6; Atl2|Q6PA06; Ano8|Q6PB70; Snx13|Q6PHS6; Bnip1|Q6QD59; Fmnl3|Q6ZPF4; Pitpnm2|Q6ZPQ6; Smpd4|Q6ZPR5; Tm7sf2|Q71KT5; Vma21|Q78T54; Tlcd3b|Q7TNV1; Lnpk|Q7TQ95; Cpm|Q80V42; Jph4|Q80WT0; C2cd2l|Q80X80; Them6|Q80ZW2; Slc6a15|Q8BG16; Cpt1c|Q8BGD5; 6430571L13Rik|Q8BGK9; Sec22a|Q8BH47; Ano10|Q8BH79; Ppm1l|Q8BHN0; Nagpa|Q8BJ48; Kctd7|Q8BJK1; Ralyl|Q8BTF8; Scfd2|Q8BTY8; Ilvbl|Q8BU33; Slc39a11|Q8BWY7; Vps26b|Q8C0E2; Tmx4|Q8C0L0; Tmem120a|Q8C1E7; Rft1|Q8C3B8; Lmbrd2|Q8C561; Cnst|Q8CBC4; Rnf170|Q8CBG9; Tmem63c|Q8CBX0; Tlcd4|Q8CGF5; Arel1|Q8CHG5; Mboat7|Q8CHK3; Scamp1|Q8K021; Get1|Q8K0D7; Saysd1|Q8K190; Agpat4|Q8K4X7; Bfar|Q8R079; Ubac2|Q8R1K1; Tmcc3|Q8R310; Ubxn4|Q8VCH8; Tapbpl|Q8VD31; Cdipt|Q8VDP6; Stx18|Q8VDS8; Gramd1a|Q8VEF1; Slc27a4|Q91VE0; Rusf1|Q91W34; Lpgat1|Q91YX5; Alg1|Q921Q3; Slc33a1|Q99J27; Reep3|Q99KK1; Clcc1|Q99LI2; Tspan31|Q9CQ88; Rer1|Q9CQU3; Golt1b|Q9CR60; Tmem33|Q9CR67; Cyp2u1|Q9CX98; Lman1|Q9D0F3; Tmem53|Q9D0Z3; Ephx1|Q9D379; Plpp6|Q9D4F2; Rabl3|Q9D4V7; Tmx2|Q9D710; Aig1|Q9D8B1; Tmem41a|Q9D8U2; Tmem38b|Q9DAV9; Lman2|Q9DBH5; Cyp2s1|Q9DBX6; Sacm1l|Q9EP69; Elovl4|Q9EQC4; Yipf5|Q9EQQ2; Osbpl5|Q9ER64; Jph1|Q9ET80; Sgpp1|Q9JI99; Fads3|Q9JJE7; Tacc2|Q9JJG0; Tmem9b|Q9JJR8; Slc30a7|Q9JKN1; Acsl4|Q9QUJ7; Vapb|Q9QY76; Rdh11|Q9QYF1; Ubxn8|Q9QZ49; Amfr|Q9R049; Mpdu1|Q9R0Q9; Vapa|Q9WV55; Ptdss2|Q9Z1X2; Bscl2|Q9Z2E9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gpatch8|A2A6A1; Pnisr|A2AJT4; Rtf1|A2AQ19; Itih4|A6X935; Irf2bp2|E9Q1P8; Kng1|O08677; Vps26c|O35075; Anp32a|O35381; Copb2|O55029; Eif6|O55135; Ess2|O70279; Cope|O89079; Igkc|P01837; H2-Q10|P01898; Hba-a1|P01942; Hbb-b1|P02088; Apoa4|P06728; Ltf|P08071; Hmgn2|P09602; Nid1|P10493; Cd14|P10810; Sub1|P11031; Hspb1|P14602; Lyz1|P17897; F2|P19221; Serpina1b|P22599; Cbx3|P23198; Cryab|P23927; Ndn|P25233; Ubtf|P25976; Xrcc5|P27641; Adssl1|P28650; Tagln|P37804; Pbx1|P41778; Eif1|P48024; Hdgf|P51859; Atxn1|P54254; Cdk5r1|P61809; Copz1|P61924; Lsm3|P62311; Hmgb1|P63158; Ube2i|P63280; Naca|P70670; Gabpa|Q00422; Apoa1|Q00623; Hspg2|Q05793; Nsun2|Q1HFZ0; Fam107b|Q3TGF2; Fam172a|Q3TNH5; BC005624|Q3TQI7; Ccdc174|Q3U155; Qrich1|Q3UA37; Foxk2|Q3UCQ1; Rrp36|Q3UFY0; Cobll1|Q3UMF0; Hdgfl2|Q3UMU9; 2210016L21Rik|Q3UY34; Commd6|Q3V4B5; Fam169a|Q5XG69; Arcn1|Q5XJY5; Eps15l1|Q60902; Ppm1g|Q61074; Nab2|Q61127; Acan|Q61282; Lamb2|Q61292; Bcan|Q61361; Atrx|Q61687; Itih2|Q61703; Mapk10|Q61831; Vcan|Q62059; Coch|Q62507; Commd3|Q63829; Nup62|Q63850; Sphkap|Q6NSW3; Pcnp|Q6P8I4; Ccdc93|Q7TQK5; Gvin1|Q80SU7; Rere|Q80TZ9; Cep104|Q80V31; Hapln3|Q80WM5; Aftph|Q80WT5; Commd7|Q8BG94; Fto|Q8BGW1; Ppp1r37|Q8BKR5; Qsox1|Q8BND5; Elmo1|Q8BPU7; Cnot4|Q8BT14; Vps35l|Q8BWQ6; Commd2|Q8BXC6; Heatr5b|Q8C547; Tceal5|Q8CCT4; Nup88|Q8CEC0; Gcc2|Q8CHG3; Copa|Q8CIE6; Tma7|Q8K003; Commd9|Q8K2Q0; Prpf39|Q8K2Z2; Commd1|Q8K4M5; Dcaf8|Q8N7N5; Tmem119|Q8R138; Vps18|Q8R307; Commd5|Q8R395; Ppp1r14a|Q91VC7; Golga4|Q91VW5; Vps11|Q91W86; Psme3ip1|Q91WE2; Dus3l|Q91XI1; Smarca5|Q91ZW3; Pdia5|Q921X9; Cic|Q924A2; Thumpd1|Q99J36; Commd4|Q9CQ02; Btf3l4|Q9CQH7; Lsm7|Q9CQQ8; Rprd1b|Q9CSU0; Snx10|Q9CWT3; Vps33a|Q9D2N9; 2310057M21Rik|Q9D2Q3; Arl2bp|Q9D385; Drap1|Q9D6N5; Dennd10|Q9D8N2; Set|Q9EQU5; Slc15a2|Q9ES07; Ccdc22|Q9JIG7; Plekho1|Q9JIY0; Dusp14|Q9JLY7; Copg2|Q9QXK3; Zranb2|Q9R020; Mad1l1|Q9WTX8; Slit3|Q9WVB4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ap3d1|O54774; Sqstm1|Q64337; Atg2a|Q6P4T0; Aldh1l1|Q8R0Y6; Mcts1|Q9DB27; Ap3s1|Q9DCR2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polr2a|P08775; Gpx1|P11352; Kpna2|P52293; Evi5|P97366; Topbp1|Q6ZQF0; Gorab|Q8BRM2; Eri3|Q8C460; Rps19bp1|Q8C6B9; Bdh2|Q8JZV9; Snrnp27|Q8K194; Svil|Q8K4L3; Zfp830|Q8R1N0; Ap3m2|Q8R2R9; Cul7|Q8VE73; Ptov1|Q91VU8; Coro6|Q920M5; Map1lc3b|Q9CQV6; Pop4|Q9CR08; Ascc1|Q9D8Z1; Cd5l|Q9QWK4; Nphp1|Q9QY53; Cry2|Q9R194; Pikfyve|Q9Z1T6; Fem1b|Q9Z2G0; Ap1b1|O35643; Dnah2|P0C6F1; Mex3d|Q3UE17; Spire1|Q52KF3; Pml|Q60953; Edrf1|Q6GQV7; Hltf|Q6PCN7; Rasa4|Q6PFQ7; Arhgap10|Q6Y5D8; Klhl29|Q80T74; Coro2a|Q8C0P5; Synpo2|Q91YE8; Bbs2|Q9CWF6; Mapk8ip2|Q9ERE9; Lima1|Q9ERG0; Fzr1|Q9R1K5; Fut8|Q9WTS2; Emg1|O35130; Cnih4|Q9CX13; Atp6v1f|Q9D1K2; Ap4m1|Q9JKC7; Rps6kb2|Q9Z1M4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cdc42|P60766; Jup|Q02257; Bax|Q07813; Vangl2|Q91ZD4; Cdh20|Q9Z0M3; Ptpru|B1AUH1; Tmem240|B2RWJ3; Epb41l2|O70318; Cntn1|P12960; Cntn3|Q07409; Rhoc|Q62159; Vstm2b|Q9JME9; Slc7a11|Q9WTR6; Cpq|Q9WVJ3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fggy|A2AJL3; Plch2|A2AP18; Rabgap1|A2AWA9; Arhgef10l|A2AWP8; Tyw5|A2RSX7; Tbc1d8b|A3KGB4; Usp24|B1AY13; Ankrd44|B2RXR6; Ptrhd1|D3Z4S3; Wdfy4|E9Q2M9; Yjefn3|F6W8I0; Bin1|O08539; Serpinb8|O08800; Ro60|O08848; Dpysl4|O35098; Kpna4|O35343; Kpna3|O35344; Kpna6|O35345; Pmm1|O35621; Aox1|O54754; Chka|O54804; Csnk2a2|O54833; Reps1|O54916; Pip5k1c|O70161; Pgam2|O70250; Klc1|O88447; Ddc|O88533; Pak1|O88643; Arl6|O88848; Apba3|O88888; Lin7b|O88951; Gnpda1|O88958; Tpp1|O89023; Coro1a|O89053; Aldoc|P05063; Prkaca|P05132; Gstm1|P10649; Prkar2a|P12367; Nme1|P15532; Hspa2|P17156; Th|P24529; Aldh1a1|P24549; Gabra2|P26048; Plaa|P27612; Braf|P28028; Aco1|P28271; Map2k1|P31938; Kif1a|P33173; Ptpn11|P35235; Cap1|P40124; Akr1b8|P45377; Map2k4|P47809; Ppp3cb|P48453; Tmod1|P49813; Uros|P51163; Pkm|P52480; Pitpnb|P53811; Golga3|P55937; Nudt2|P56380; Ctbp2|P56546; Tbc1d10a|P58802; Nup43|P59235; Pdxp|P60487; Ube2m|P61082; Ube2d2a|P62838; Sult4a1|P63046; Dynll1|P63168; Ppp2ca|P63330; Csnk2b|P67871; Pfkfb2|P70265; Ctps2|P70303; Ctps|P70698; Crmp1|P97427; Lypla1|P97823; Enah|Q03173; Relch|Q148V7; Gspt2|Q149F3; Tnfaip8l3|Q3TBL6; Abraxas2|Q3TCJ1; Pde12|Q3TIU4; Fbxo31|Q3TQF0; Hace1|Q3U0D9; Ctu2|Q3U308; Yrdc|Q3U5F4; Trafd1|Q3UDK1; Wdr41|Q3UDP0; Zyg11b|Q3UFS0; Garem1|Q3UFT3; Arfgef3|Q3UGY8; Smcr8|Q3UMB5; Lingo2|Q3URE9; Tbc1d24|Q3UUG6; Strada|Q3UUJ4; Nt5c2|Q3V1L4; Pacs2|Q3V3Q7; Oxr1|Q4KMM3; Ipcef1|Q5DU31; Vps13a|Q5H8C4; Diras2|Q5PR73; Osbp2|Q5QNQ6; Abr|Q5SSL4; Tns3|Q5SSZ5; Tbc1d9b|Q5SVR0; Ubr3|Q5U430; Rnf123|Q5XPI3; Cttn|Q60598; Pak3|Q61036; Bcar1|Q61140; Erbb4|Q61527; Pacsin1|Q61644; Myh10|Q61879; Plcg1|Q62077; Ralbp1|Q62172; Dpysl3|Q62188; Irak1|Q62406; Ifit3|Q64345; Fnip1|Q68FD7; Prex1|Q69ZK0; Swap70|Q6A028; C9orf72|Q6DFW0; Ppp2r2a|Q6P1F6; Tnpo3|Q6P2B1; Sik3|Q6P4S6; Ubxn7|Q6P5G6; Mtss2|Q6P9S0; Prmt8|Q6PAK3; Herc4|Q6PAV2; Ado|Q6PDY2; Myh14|Q6URW6; Ubr2|Q6WKZ8; Ppp2r1a|Q76MZ3; Doc2a|Q7TNF0; Ppp6r1|Q7TSI3; Vat1l|Q80TB8; Cadps|Q80TJ1; Scrib|Q80U72; Wipi2|Q80W47; Ric8b|Q80XE1; Atg2b|Q80XK6; Llgl1|Q80Y17; Ddhd2|Q80Y98; Tnpo1|Q8BFY9; Pld4|Q8BG07; Ubash3b|Q8BGG7; Fbxo30|Q8BJL1; Iqcb1|Q8BP00; Nars|Q8BP47; Ppp1r18|Q8BQ30; Cep295|Q8BQ48; Eml5|Q8BQM8; Dusp28|Q8BTR5; Gmppb|Q8BTZ7; Mrpl22|Q8BU88; Gphn|Q8BUV3; Nudt9|Q8BVU5; Kank2|Q8BX02; Cadps2|Q8BYR5; Tigar|Q8BZA9; Glmn|Q8BZM1; Fem1al|Q8C0T1; Zfp428|Q8C1M2; Unc119b|Q8C4B4; Crbn|Q8C7D2; Naprt|Q8CC86; Nedd4l|Q8CFI0; Akr7a5|Q8CG76; Rgs12|Q8CGE9; Tph2|Q8CGV2; Vps37a|Q8CHS8; Pygb|Q8CI94; Fermt2|Q8CIB5; Amdhd2|Q8JZV7; Oplah|Q8K010; Trnt1|Q8K1J6; Dnm1l|Q8K1M6; Spire2|Q8K1S6; Fn3krp|Q8K274; Inpp5b|Q8K337; Babam2|Q8K3W0; Pitpnc1|Q8K4R4; Naxe|Q8K4Z3; 6430548M08Rik|Q8R0A7; Cplx3|Q8R1B5; Aagab|Q8R2R3; Ppp6r2|Q8R3Q2; Eps8l1|Q8R5F8; Gpn1|Q8VCE2; Cth|Q8VCN5; Fbxo21|Q8VDH1; Nit1|Q8VDK1; Mical1|Q8VDP3; Rab3il1|Q8VDV3; Nrbp2|Q91V36; Snx9|Q91VH2; Memo1|Q91VH6; Smap1|Q91VZ6; Fbxl15|Q91W61; Lrrfip2|Q91WK0; Cbs|Q91WT9; Ipo9|Q91YE6; Asl|Q91YI0; Necab2|Q91ZP9; Fgd4|Q91ZT5; Als2|Q920R0; Rnf31|Q924T7; Hagh|Q99KB8; Vwa5a|Q99KC8; Gstt3|Q99L20; Ubqln4|Q99NB8; Ppp1r3g|Q9CW07; Dph7|Q9CYU6; Mms19|Q9D071; Dynll2|Q9D0M5; Trmt44|Q9D2Q2; Msra|Q9D6Y7; Dusp3|Q9D7X3; Bola1|Q9D8S9; Atg101|Q9D8Z6; Atg7|Q9D906; Rwdd2a|Q9D9S3; Echdc1|Q9D9V3; Zfyve19|Q9DAZ9; Iah1|Q9DB29; Selenoo|Q9DBC0; Aldh7a1|Q9DBF1; Pycrl|Q9DCC4; Pgd|Q9DCD0; Xpo7|Q9EPK7; Ipo7|Q9EPL8; Nif3l1|Q9EQ80; Dpysl5|Q9EQF6; Xpo4|Q9ESJ0; Pygl|Q9ET01; Nit2|Q9JHW2; Psmg1|Q9JK23; Aldh9a1|Q9JLJ2; Kif21a|Q9QXL2; Fbxo6|Q9QZN4; Vav3|Q9R0C8; Stk11|Q9WTK7; Ptpn4|Q9WU22; Pfdn5|Q9WU28; Pygm|Q9WUB3; Coro1b|Q9WUM3; Rps6ka2|Q9WUT3; Nme3|Q9WV85; Epb41l3|Q9WV92; Magi2|Q9WVQ1; Bpnt1|Q9Z0S1; Gab2|Q9Z1S8; Rasal1|Q9Z268; Epb41l1|Q9Z2H5; Hdac6|Q9Z2V5; Psmd10|Q9Z2X2; Plpbp|Q9Z2Y8; Unc5c|O08747; Gad1|P48318; Gad2|P48320; Ablim2|Q8BL65; Dcxr|Q91X52; Cpne8|Q9DC53; Ube2v2|Q9D2M8; Gng4|P50153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ttc17|E9PVB5; Rab11fip2|G3XA57; Fcgr2b|P08101; Cst3|P21460; Inf2|Q0GNC1; Enpp6|Q8BGN3; Ostm1|Q8BGT0; Wdr48|Q8BH57; Tmem161b|Q8C2L6; Cerk|Q8K4Q7; Ccdc115|Q8VE99; Rnf167|Q91XF4; Dnajc14|Q921R4; Ctnnbl1|Q9CWL8; Qpct|Q9CYK2; Cthrc1|Q9D1D6; Rab11fip1|Q9D620; Gtf2i|Q9ESZ8; Ehd2|Q8BH64; Mfsd6|Q8CBH5; Crocc|Q8CJ40; Hs6st3|Q9QYK4; Sh3bp5|Q9Z131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celsr1|O35161; Abca4|O35600; Prkar1b|P12849; Rgl1|Q60695; Lama5|Q61001; Traf7|Q922B6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ascc3|E9PZJ8; Chd2|E9PZM4; Stag2|O35638; Dapk3|O54784; Hdac3|O88895; Gas2|P11862; Dip2b|Q3UH60; Spata5|Q3UMC0; Nxt2|Q3UNA4; Stox2|Q499E5; Ddx49|Q4FZF3; Cobl|Q5NBX1; Nuak1|Q641K5; Dclk2|Q6PGN3; Ints7|Q7TQK1; R3hdm2|Q80TM6; Dgkz|Q80UP3; Zfp598|Q80YR4; Coro2b|Q8BH44; Ankrd34c|Q8BLB8; Gprasp2|Q8BUY8; Gtdc1|Q8BW56; Larp4|Q8BWW4; Trim35|Q8C006; Wdr24|Q8CFJ9; Znfx1|Q8R151; Mthfd1|Q922D8; Cxxc1|Q9CWW7; Ccdc124|Q9D8X2; Rasgrp1|Q9Z1S3; Szt2|A2A9C3; Med12|A2AGH6; Lzts3|A2AHG0; Trmt1l|A2RSY6; Otud3|B1AZ99; Soga1|E1U8D0; Arhgef5|E9Q7D5; Tubgcp6|G5E8P0; Kif1c|O35071; Tpd52l1|O54818; Tnk2|O54967; Dcx|O88809; Tspyl1|O88852; Ccnk|O88874; Irs1|P35569; Tubgcp3|P58854; Tubg1|P83887; Mprip|P97434; Tarbp2|P97473; Xrn1|P97789; Mark2|Q05512; Lyar|Q08288; Exph5|Q0VAV2; Tanc1|Q0VGY8; Wdr19|Q3UGF1; Gfod1|Q3UHD2; Cdkl5|Q3UTQ8; Ttbk2|Q3UVR3; Dync2h1|Q45VK7; Herc2|Q4U2R1; Rtl6|Q505G4; Nufip2|Q5F2E7; Neurl4|Q5NCX5; Lrrk2|Q5S006; Sin3a|Q60520; Arhgef2|Q60875; Dyrk1a|Q61214; Tpd52|Q62393; Top2b|Q64511; Tpp2|Q64514; Togaram1|Q6A070; Smarca2|Q6DIC0; Ralgapa1|Q6GYP7; BC048403|Q6P1I3; Nudt16|Q6P3D0; Rrp12|Q6P5B0; Dhx29|Q6PGC1; Rictor|Q6QI06; Eid2|Q6X7S9; Smg5|Q6ZPY2; Fhod3|Q76LL6; Ints3|Q7TPD0; Mycbp2|Q7TPH6; Exosc3|Q7TQK4; Trim56|Q80VI1; Ppp1r10|Q80W00; Btbd10|Q80X66; Kctd13|Q8BGV7; Klhl26|Q8BGY4; Ap5m1|Q8BJ63; Nop53|Q8BK35; Csnk1a1|Q8BK63; Mapkap1|Q8BKH7; Tubgcp5|Q8BKN5; Ralgapb|Q8BQZ4; Lsm11|Q8BUV6; Zfp574|Q8BY46; Wdr59|Q8C0M0; Myo9a|Q8C170; Bbs4|Q8C1Z7; Rae1|Q8C570; Grsf1|Q8C5Q4; Trim9|Q8C7M3; Spice1|Q8C804; Rpgrip1l|Q8CG73; Rbm28|Q8CGC6; Ep400|Q8CHI8; Ints5|Q8CHT3; Tdrd7|Q8K1H1; Spats2|Q8K1N4; Arfip2|Q8K221; Nat10|Q8K224; Ints10|Q8K2A7; Bbs7|Q8K2G4; Zfp668|Q8K2R5; Fbxo45|Q8K3B1; Rbmx2|Q8R0F5; Dock7|Q8R1A4; Sh3glb2|Q8R3V5; Luzp1|Q8R4U7; Mib2|Q8R516; Tubg2|Q8VCK3; Mios|Q8VE19; Acot11|Q8VHQ9; Noc3l|Q8VI84; Rbm42|Q91V81; Nifk|Q91VE6; Tubgcp2|Q921G8; Map4k3|Q99JP0; Med4|Q9CQA5; Smc3|Q9CW03; Gfod2|Q9CYH5; Tpd52l2|Q9CYZ2; Dimt1|Q9D0D4; Tubgcp4|Q9D4F8; Nvl|Q9DBY8; Ranbp2|Q9ERU9; Sh3glb1|Q9JK48; Ybx3|Q9JKB3; Trip4|Q9QXN3; Usp21|Q9QZL6; Atp6v1g2|Q9WTT4; Smarcb1|Q9Z0H3; Recql|Q9Z129; Apc2|Q9Z1K7; Mtmr9|Q9Z2D0; Gm12695|A2AGB2; Ptpn9|O35239; Synpr|Q8BGN8; Slc32a1|O35633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cdr2l|A2A6T1; Fmnl2|A2APV2; Kcnb2|A6H8H5; Pex10|B1AUE5; Dock5|B2RY04; Akap5|D3YVF0; Matn2|O08746; Ptgds|O09114; Sod3|O09164; Amacr|O09174; Phyh|O35386; Anxa3|O35639; Stk10|O55098; Cfdp1|O88271; Stam2|O88811; Afm|O89020; Adh1|P00329; Car2|P00920; Lamb1|P02469; Araf|P04627; Ttr|P07309; Anxa2|P07356; Alb|P07724; Serpina1a|P07758; Prkg1|P0C605; Anxa1|P10107; Agt|P11859; App|P12023; Gsn|P13020; Car1|P13634; Anxa6|P14824; Gc|P21614; Ces1c|P23953; Cat|P24270; Msn|P26041; Ptma|P26350; Ahsg|P29699; Gna15|P30678; Scp2|P32020; Serpinc1|P32261; Fah|P35505; Folr1|P35846; Fbln2|P37889; Dnm2|P39054; Cdkn1b|P46414; Anxa5|P48036; S100a11|P50543; Hsd17b4|P51660; Apod|P51910; Abcd3|P55096; Usp25|P57080; Acot8|P58137; Arl1|P61211; Ufm1|P61961; Vsnl1|P62761; Tuba1a|P68369; Stam|P70297; Sparcl1|P70663; Kcnj13|P86046; Anxa11|P97384; Anxa4|P97429; Mllt11|P97783; Dab2|P98078; Gnpat|P98192; Rbp4|Q00724; Serpina1d|Q00897; Aqp1|Q02013; Col6a2|Q02788; Aplp1|Q03157; Clu|Q06890; Padi2|Q08642; Nell1|Q2VWQ2; Ankmy2|Q3TPE9; Fcho2|Q3UQN2; Plcl1|Q3USB7; Niban1|Q3UW53; Pls1|Q3V0K9; Spag9|Q58A65; Pex1|Q5BL07; Ermn|Q5EBJ4; Synrg|Q5SV85; Shroom1|Q5SX79; Acbd5|Q5XG73; Crhbp|Q60571; Icam5|Q60625; P4ha1|Q60715; Trpc1|Q61056; Nell2|Q61220; Serpinf2|Q61247; Abcd2|Q61285; Stard3|Q61542; Mrc1|Q61830; Dag1|Q62165; Slc26a2|Q62273; Spock1|Q62288; Megf10|Q6DIB5; Rragb|Q6NTA4; Golm2|Q6P2L7; Armh3|Q6PD19; Slc6a5|Q761V0; Snd1|Q78PY7; Smap2|Q7TN29; Pcdh8|Q7TSK3; Ankrd13a|Q80UP5; Gstm7|Q80W21; Agfg2|Q80WC7; Trim36|Q80WG7; Nucks1|Q80XU3; Crb2|Q80YA8; Tnc|Q80YX1; Ttc9c|Q810A3; Fstl5|Q8BFR2; Clic6|Q8BHB9; Itih5|Q8BJD1; Chmp2b|Q8BJF9; Tmem214|Q8BM55; Ckap4|Q8BMK4; Adamts4|Q8BNJ2; Sfr1|Q8BP27; Ndrg4|Q8BTG7; Nup54|Q8BTS4; Qdpr|Q8BVI4; Golim4|Q8BXA1; Dhx32|Q8BZS9; Snx16|Q8C080; Agps|Q8C0I1; Lrrn3|Q8CBC6; Fermt3|Q8K1B8; Colgalt1|Q8K297; Agfg1|Q8K2K6; Nmral1|Q8K2T1; Niban2|Q8R1F1; Hid1|Q8R1F6; Aspa|Q8R3P0; Stab1|Q8R4Y4; Rmc1|Q8VC42; Slc22a6|Q8VC69; Zfyve21|Q8VCM3; Slc15a4|Q91W98; Scgn|Q91WD9; Hpx|Q91X72; Acaa1a|Q921H8; Trf|Q921I1; Chmp1a|Q921W0; Far1|Q922J9; Taldo1|Q93092; Gorasp2|Q99JX3; Arfgap2|Q99K28; Eps8l2|Q99K30; Sntb1|Q99L88; Pex6|Q99LC9; Ptdss1|Q99LH2; Hgs|Q99LI8; Pecr|Q99MZ7; Sar1b|Q9CQC9; Rgs10|Q9CQE5; Desi1|Q9CQT7; Carhsp1|Q9CR86; Ranbp3|Q9CT10; 2410004B18Rik|Q9CWU4; Ssu72|Q9CY97; Tmem135|Q9CYV5; Ptms|Q9D0J8; Serpinb1a|Q9D154; Lamtor5|Q9D1L9; Cmip|Q9D486; Dcps|Q9DAR7; Tysnd1|Q9DBA6; Plin3|Q9DBG5; Baiap2l1|Q9DBJ3; Lonp2|Q9DBN5; Nudt12|Q9DCN1; Sil1|Q9EPK6; Trpv4|Q9EPK8; Clstn1|Q9EPL2; Acox3|Q9EPL9; Palmd|Q9JHU2; Ldb3|Q9JKS4; Gltp|Q9JL62; Scly|Q9JLI6; Rabgef1|Q9JM13; Sema7a|Q9QUR8; Pex3|Q9QXY9; Clic4|Q9QYB1; Ndrg3|Q9QYF9; Gab1|Q9QYY0; Acox1|Q9R0H0; Enpp2|Q9R1E6; Sae1|Q9R1T2; Decr2|Q9WV68; Tagln2|Q9WVA4; Ehd1|Q9WVK4; Sncg|Q9Z0F7; Uba2|Q9Z1F9; Pex11b|Q9Z210; Slc38a7|Q8BWH0; Apbb1ip|Q8R5A3; Serpina3n|Q91WP6; Ctnnal1|O88327; Prnp|P04925; Arf6|P62331; Cdk16|Q04735; Stxbp3|Q60770; Gas7|Q60780; Rasa3|Q60790; Stxbp2|Q64324; Pcdhb14|Q6PB90; Erbin|Q80TH2; Slitrk1|Q810C1; Tmem266|Q8BZB3; Slc13a3|Q91Y63; Mmp17|Q9R0S3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shroom2|A2ALU4; Ptprz1|B9EKR1; Aip|O08915; Atox1|O08997; Gclm|O09172; Nudc|O35685; Gamt|O35969; Gucy1b1|O54865; Impa1|O55023; Snca|O55042; Acot1|O55137; Pdlim1|O70400; Scrg1|O88745; Tom1|O88746; Rbbp9|O88851; Mt2|P02798; Hsp90aa1|P07901; Sod1|P08228; Camk4|P08414; Calm2|P0DP27; Txn1|P10639; Hsp90ab1|P11499; Nudt19|P11930; Calb1|P12658; Bpgm|P15327; Lgals1|P16045; Gstp1|P19157; Prkca|P20444; Tpm3|P21107; Tgm2|P21981; Hmbs|P22907; Crabp2|P22935; Glb1|P23780; Nfkb1|P25799; Tln1|P26039; Car8|P28651; Nap1l1|P28656; Fkbp4|P30416; Prkar2b|P31324; Dbi|P31786; Pvalb|P32848; Oxt|P35454; Ppm1b|P36993; Akr1b3|P45376; Vps4b|P46467; Nedd4|P46935; Mapk14|P47811; Tbca|P48428; Cdk5|P49615; Nat2|P50295; Arsa|P50428; Gpc4|P51655; Gss|P51855; Stat6|P52633; Stmn1|P54227; Rad23a|P54726; Nub1|P54729; Faf1|P54731; Tango2|P54797; Adprh|P54923; Adk|P55264; Pdcd5|P56812; Tpm1|P58771; Nrgn|P60761; Ensa|P60840; Ube2d3|P61079; Fgf1|P61148; Arf4|P61750; Vbp1|P61759; Nutf2|P61971; Tsc22d1|P62500; Hpcal1|P62748; Mtpn|P62774; Gnb5|P62881; Pfn1|P62962; Cplx1|P63040; Pcp4|P63054; Prkcg|P63318; Ube2l3|P68037; Ywhaq|P68254; Prkcb|P68404; Ywhah|P68510; Pebp1|P70296; Rock1|P70335; Hint1|P70349; Irf3|P70671; Hpca|P84075; Cplx2|P84086; S100a13|P97352; Sms|P97355; Wbp2|P97765; Jpt1|P97825; G6pdx|Q00612; Rbp1|Q00915; Pde1b|Q01065; Pfdn6|Q03958; Rela|Q04207; Anxa7|Q07076; Cbfb|Q08024; Calb2|Q08331; Cpne7|Q0VE82; Osbp|Q3B7Z2; Ric8a|Q3TIR3; Scrn3|Q3TMH2; Dhps|Q3TXU5; Fchsd2|Q3USJ8; Crppa|Q5RJG7; Ankrd40|Q5SUE8; Kif1b|Q60575; Ppp1r1b|Q60829; Serpinb6a|Q60854; Asns|Q61024; Cdc37|Q61081; Gbp3|Q61107; Lcp1|Q61233; Fnta|Q61239; Igbp1|Q61249; Arhgdib|Q61599; Phgdh|Q61753; Ovgp1|Q62010; Pea15a|Q62048; Zpr1|Q62384; Ostf1|Q62422; Cstb|Q62426; Zyx|Q62523; Omp|Q64288; Myo6|Q64331; Nqo1|Q64669; Srm|Q64674; Rapgefl1|Q68EF8; Galk2|Q68FH4; Ehbp1|Q69ZW3; N4bp1|Q6A037; Churc1|Q6DG52; Tpm4|Q6IRU2; Sri|Q6P069; Sat2|Q6P8J2; Ip6k1|Q6PD10; N6amt1|Q6SKR2; Kctd12|Q6WVG3; Carns1|Q6ZPS2; Kifbp|Q6ZPU9; Arhgap26|Q6ZQ82; Ube2r2|Q6ZWZ2; Nap1l4|Q78ZA7; Actn1|Q7TPR4; Ube2q1|Q7TSS2; Adal|Q80SY6; Fnbp1|Q80TY0; Sra1|Q80VJ2; Flnb|Q80X90; Necab1|Q8BG18; Enoph1|Q8BGB7; Atg4b|Q8BGE6; D3Ertd751e|Q8BGN2; Bola2|Q8BGS2; Hpcal4|Q8BGZ1; Ubap1|Q8BH48; Czib|Q8BHG2; Psmf1|Q8BHL8; Ncs1|Q8BNY6; Cc2d1b|Q8BRN9; Pggt1b|Q8BUY9; Rhpn2|Q8BWR8; Osgep|Q8BWU5; Tbc1d17|Q8BYH7; Tnr|Q8BYI9; Itpk1|Q8BYN3; Arhgef10|Q8C033; Thop1|Q8C1A5; Tbcel|Q8C5W3; Rtkn|Q8C6B2; Cfap36|Q8C6E0; Tsr2|Q8C8T8; Ttc27|Q8CD92; Cdc34|Q8CFI2; Trim32|Q8CH72; Ngef|Q8CHT1; Epn2|Q8CHU3; Dym|Q8CHY3; Hmgcs1|Q8JZK9; Cpne5|Q8JZW4; Ppp1r11|Q8K1L5; Fntb|Q8K2I1; Brox|Q8K2Q7; Shtn1|Q8K2Q9; Champ1|Q8K327; Lzic|Q8K3C3; Appl1|Q8K3H0; Gpt|Q8QZR5; Aamdc|Q8R0P4; Nudcd3|Q8R1N4; Phospho1|Q8R2H9; Pex19|Q8VCI5; Tbcc|Q8VCN9; Abhd14b|Q8VCR7; Sgtb|Q8VD33; Myh9|Q8VDD5; Vps4a|Q8VEJ9; Hdac8|Q8VH37; Irgq|Q8VIM9; Ciapin1|Q8WTY4; Rnh1|Q91VI7; Wdr45|Q91VM3; Snx15|Q91WE1; Rabif|Q91X96; Ncald|Q91X97; Dap|Q91XC8; Pnpo|Q91XF0; Csdc2|Q91YQ3; Ttc1|Q91Z38; Sncb|Q91ZZ3; Tmem132a|Q922P8; Ddo|Q922Z0; Nans|Q99J77; Adi1|Q99JT9; Acy1|Q99JW2; Pdxdc1|Q99K01; Rragc|Q99K70; Psat1|Q99K85; Cryl1|Q99KP3; Lactb2|Q99KR3; St13|Q99L47; Ddah2|Q99LD8; Arhgdia|Q99PT1; Glo1|Q9CPU0; Chmp3|Q9CQ10; Stambp|Q9CQ26; Nudcd2|Q9CQ48; Mien1|Q9CQ86; Gmfb|Q9CQI3; Txndc17|Q9CQM5; Ufc1|Q9CR09; Ccdc43|Q9CR29; Atxn3|Q9CVD2; Sugt1|Q9CX34; Cygb|Q9CX80; Ube2f|Q9CY34; Eef1akmt1|Q9CY45; Rnf181|Q9CY62; Scrn1|Q9CZC8; Cdc37l1|Q9CZP7; Pbdc1|Q9D0B6; Arl2|Q9D0J4; Nudt14|Q9D142; Vps28|Q9D1C8; Tbcb|Q9D1E6; Pmvk|Q9D1G2; Chordc1|Q9D1P4; Saal1|Q9D2C2; Synj2|Q9D2G5; Coro7|Q9D2V7; Rufy3|Q9D394; Tubb4a|Q9D6F9; Pir|Q9D711; Chmp5|Q9D7S9; Kctd4|Q9D7X1; Ggct|Q9D7X8; Ppa1|Q9D819; Chmp4b|Q9D8B3; Mdp1|Q9D967; Ddi1|Q9DAF3; Cab39l|Q9DB16; Chmp2a|Q9DB34; Prkar1a|Q9DBC7; Rgs3|Q9DC04; Nebl|Q9DC07; Crot|Q9DC50; Ppp1r2|Q9DCL8; Hikeshi|Q9DD02; Cert1|Q9EQG9; Rcan2|Q9JHG2; Tmod3|Q9JHJ0; Nrip2|Q9JHR9; Stk3|Q9JI10; Nqo2|Q9JI75; Rnf14|Q9JI90; Actn2|Q9JI91; Kcnip1|Q9JJ57; Rilpl1|Q9JJC6; Sh3bgrl|Q9JJU8; Pxmp4|Q9JJW0; Tuba8|Q9JJZ2; Myg1|Q9JK81; Uchl3|Q9JKB1; Trim44|Q9QXA7; Hacl1|Q9QXE0; Chm|Q9QXG2; Galk1|Q9R0N0; Uchl1|Q9R0P9; Ptges3|Q9R0Q7; Akap12|Q9WTQ5; Mapk9|Q9WTU6; Skp1|Q9WTX5; Hebp2|Q9WU63; Faim|Q9WUD8; Arl3|Q9WUL7; Stxbp4|Q9WV89; Cpne6|Q9Z140; Clic1|Q9Z1Q5; Stk39|Q9Z1W9; Uso1|Q9Z1Z0; Pmm2|Q9Z2M7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ralgapa2|A3KGS3; Otud4|B2RRE7; Fry|E9Q8I9; Clk3|O35492; Dnajb5|O89114; Rps15a|P62245; Rps18|P62270; Rps13|P62301; Rps26|P62855; Rps27a|P62983; G3bp1|P97855; Zswim8|Q3UHH1; Gtpbp2|Q3UJK4; Mthfsd|Q3URQ7; Ddx19a|Q61655; Jmjd1c|Q69ZK6; Tasor|Q69ZR9; Ift172|Q6VH22; Larp1|Q6ZQ58; Etf1|Q8BWY3; Camsap2|Q8C1B1; Ahi1|Q8K3E5; Kdm4b|Q91VY5; Med30|Q9CQI9; Hspa12b|Q9CZJ2; Pak1ip1|Q9DCE5; Nipbl|Q6KCD5; Nol6|Q8R5K4; Neurl1a|Q923S6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pnpla7|A2AJ88; Frrs1l|B1AXV0; Faah|O08914; Degs1|O09005; Pkd2|O35245; Pdyn|O35417; Fkbp8|O35465; Sptlc1|O35704; Cyp2j6|O54750; Slc27a3|O88561; Abcd4|O89016; Vti1a|O89116; Bcl2|P10417; Agtr2|P35374; Ptpn1|P35821; Aldh3a2|P47740; Aaas|P58742; Rab2b|P59279; Snn|P61807; Vamp7|P70280; Pam|P97467; Adra1b|P97717; Faf2|Q3TDN2; Srebf2|Q3U1N2; Lbr|Q3U9G9; Pid1|Q3UBG2; Tmed8|Q3UHI4; Slc2a13|Q3UHK1; Ankrd13c|Q3UX43; Chsy3|Q5DTK1; Dhrs13|Q5SS80; Slc27a1|Q60714; Npdc1|Q64322; Ube2j2|Q6P073; Frmd5|Q6P5H6; Rundc3b|Q6PDC0; Tmed3|Q78IS1; Atp2c1|Q80XR2; Qpctl|Q8BH73; Armcx3|Q8BHS6; Tm2d3|Q8BJ83; Cyp20a1|Q8BKE6; Lss|Q8BLN5; Slc7a4|Q8BLQ7; Man2a2|Q8BRK9; Nat14|Q8BVG8; Itch|Q8C863; Kctd2|Q8CEZ0; Stx5a|Q8K1E0; Mboat2|Q8R3I2; Usp33|Q8R5K2; Dhrsx|Q8VBZ0; Tmem30a|Q8VEK0; Lpcat3|Q91V01; Tmem168|Q91VX9; Acsl6|Q91WC3; Abhd3|Q91ZH7; Slc35b2|Q91ZN5; Rab4b|Q91ZR1; Slc41a3|Q921R8; Nptxr|Q99J85; Kdelr1|Q99JH8; Ggt7|Q99JP7; Tlcd1|Q99JT6; Arl8b|Q9CQW2; Ier3ip1|Q9CR20; Armcx1|Q9CX83; Dhrs7|Q9CXR1; Etnk1|Q9D4V0; Tmem68|Q9D850; Snx5|Q9D8U8; Napa|Q9DB05; Gdap2|Q9DBL2; Cyp4f14|Q9EP75; Mettl9|Q9EPL4; Vps35|Q9EQH3; Icmt|Q9EQK7; Syt13|Q9EQT6; Stx12|Q9ER00; Tor1a|Q9ER39; Erg28|Q9ERY9; Galnt16|Q9JJ61; Stx6|Q9JKK1; Cln8|Q9QUK3; Abhd16a|Q9Z1Q2; Cpt1a|P97742; Rab39b|Q8BHC1; Rab5c|P35278; Rab1a|P62821; Yipf3|Q3UDR8; Rnft2|Q3UF64; Stx3|Q64704; Abhd13|Q80UX8; Elmod2|Q8BGF6; B4gat1|Q8BWP8; Osbpl2|Q8BX94; Slc35e1|Q8CD26; Scyl2|Q8CFE4; Sccpdh|Q8R127; Ptrh2|Q8R2Y8; Arl8a|Q8VEH3; Dhrs1|Q99L04; Fbxl20|Q9CZV8; Rab1b|Q9D1G1; Cyb5r3|Q9DCN2; B3galt5|Q9JI67; Atp6ap1|Q9R1Q9; Slc25a14|Q9Z2B2; Kcnk1|O08581; Banf1|O54962; Chrna4|O70174; Nptx2|O70340; Stx7|O70439; Smpd2|O70572; Cacna1h|O88427; Adam15|O88839; Leprot|O89013; Napb|P28663; Ptprk|P35822; Tbxas1|P36423; Vps26a|P40336; Nsf|P46460; Glrb|P48168; Psen1|P49769; Rab7|P51150; Rab2a|P53994; Tyro3|P55144; Bace1|P56818; B3gat3|P58158; Rab5b|P61021; Rab8b|P61028; Ptprn2|P80560; Nrsn1|P97799; Atp8b2|P98199; Elmod1|Q3V1U8; Bloc1s3|Q5U5M8; Ptprn|Q60673; Sdf4|Q61112; Nptx1|Q62443; Tmem151b|Q68FE7; Gpr17|Q6NS65; Tacc1|Q6Y685; Slc20a2|Q80UP8; Chst2|Q80WV3; Tmem167b|Q80X45; Svop|Q8BFT9; Dcakd|Q8BHC4; Rab9b|Q8BHH2; Csgalnact1|Q8BJQ9; Miga2|Q8BK03; Neto2|Q8BNJ6; Lpcat2|Q8BYI6; Slc38a1|Q8K2P7; Stxbp5|Q8K400; Slc30a5|Q8R4H9; Fam20b|Q8VCS3; Slc35f6|Q8VE96; Pcnx3|Q8VI59; Rab14|Q91V41; Frs3|Q91WJ0; Wwox|Q91WL8; Pgap4|Q91YV9; B3galt6|Q91Z92; Slc12a6|Q924N4; Dipk1b|Q99ML4; Slc12a9|Q99MR3; Slc24a3|Q99PD7; Napg|Q9CWZ7; Apbb2|Q9DBR4; Tm9sf1|Q9DBU0; Tpcn1|Q9EQJ0; Extl2|Q9ES89; Tm9sf3|Q9ET30; Slc12a4|Q9JIS8; Scamp4|Q9JKV5; Jag2|Q9QYE5; Syt5|Q9R0N5; Extl3|Q9WVL6; Sema4f|Q9Z123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntn1|O09118; Krt18|P05784; Krt8|P11679; H1f5|P43276; Igfbp6|P47880; Sf3b6|P59708; Rbm15|Q0VBL3; Map9|Q3TRR0; Ccdc106|Q3ULM0; Fbxw11|Q5SRY7; Hnrnpd|Q60668; Tbc1d30|Q69ZT9; Nexn|Q7TPW1; U2af1l4|Q8BGJ9; Macroh2a2|Q8CCK0; Zfp385a|Q8VD12; Pqbp1|Q91VJ5; Itfg2|Q91WI7; Vkorc1|Q9CRC0; Nol7|Q9D7Z3; Papln|Q9EPX2; Dnajb1|Q9QYJ3; Ppie|Q9QZH3; Ylpm1|Q9R0I7; Hnrnpdl|Q9Z130; Med14|A2ABV5; Thoc2|B1AZI6; Mfap1b|C0HKD9; Safb|D3YXK2; Cep350|E9Q309; Alyref|O08583; Mknk1|O08605; Eftud2|O08810; Hps1|O08983; Purb|O35295; Pnn|O35691; Hnrnph1|O35737; Api5|O35841; Cavin1|O54724; Trappc3|O55013; Sap18|O55128; Dhx9|O70133; Atxn2|O70305; Zfp326|O88291; Ap1g2|O88512; Zfr|O88532; Hnrnpa2b1|O88569; H1f0|P10922; Parp1|P11103; C1qb|P14106; Srp54a|P14576; H1f2|P15864; Ptbp1|P17225; Ap1g1|P22892; U2af2|P26369; Celf1|P28659; Pabpc1|P29341; Apoc3|P33622; Apoc1|P34928; Ap1m1|P35585; Fmr1|P35922; Pura|P42669; H1f4|P43274; H1f1|P43275; Hnrnpa1|P49312; Pcyt1a|P49586; Tia1|P52912; Ddx6|P54823; Pcbp3|P57722; Pcbp1|P60335; Smg6|P61406; Hnrnpk|P61979; Lrch1|P62046; Ybx1|P62960; Crnkl1|P63154; Tial1|P70318; Elavl1|P70372; Rbbp6|P97868; Fmo5|P97872; C1qa|P98086; Hnrnpul2|Q00PI9; Sec23a|Q01405; Zc3h18|Q0P678; St3gal2|Q11204; Cdk12|Q14AX6; Patl1|Q3TC46; Khdc4|Q3TCX3; Prrc2c|Q3TLH4; Trappc10|Q3TLI0; Ctdnep1|Q3TP92; Ccdc136|Q3TVA9; Trappc9|Q3U0M1; Khsrp|Q3U0V1; Sec24a|Q3U2P1; Mcrip1|Q3UGS4; Tnrc6a|Q3UHK8; Edc4|Q3UJB9; Smu1|Q3UKJ7; Sec31a|Q3UPL0; Map11|Q3UTZ3; Prpf38a|Q4FK66; Wdr18|Q4VBE8; Ddx17|Q501J6; Trappc1|Q5NCF2; Coil|Q5SU73; Ggnbp2|Q5SV77; Gprasp1|Q5U4C1; Thoc6|Q5U4D9; Khdrbs1|Q60749; Col12a1|Q60847; Elavl2|Q60899; Elavl3|Q60900; Prpf4b|Q61136; Fxr1|Q61584; Pcbp2|Q61990; Cep131|Q62036; Atm|Q62388; Eif4g2|Q62448; Raly|Q64012; Sf1|Q64213; Aktip|Q64362; H2bc18|Q64525; Tpgs2|Q66JT5; 0610010F05Rik|Q68FF0; Cdk13|Q69ZA1; Cdc5l|Q6A068; Helz|Q6DFV5; U2surp|Q6NV83; Sec23ip|Q6NZC7; Zc3h11a|Q6NZF1; Eif4g1|Q6NZJ6; Rbm26|Q6NZN0; Snrnp200|Q6P4T2; Smchd1|Q6P5D8; Snrnp40|Q6PE01; Ctif|Q6PEE2; Bud31|Q6PGH1; Rbm15b|Q6PHZ5; Tex2|Q6ZPJ0; Syncrip|Q7TMK9; Thoc7|Q7TMY4; Celf6|Q7TN33; Cpeb3|Q7TN99; Prrc2b|Q7TPM1; Atxn2l|Q7TQH0; Prrc2a|Q7TSC1; Celf4|Q7TSY6; Mib1|Q80SY4; Pum2|Q80U58; Pum1|Q80U78; Ints2|Q80UK8; Vrk1|Q80X41; Sympk|Q80X82; Eif4g3|Q80XI3; Fam160b2|Q80YR2; Cpeb2|Q812E0; Rnf214|Q8BFU3; Hnrnpa3|Q8BG05; Poldip3|Q8BG81; Smndc1|Q8BGT7; Rnf41|Q8BH75; Rbm45|Q8BHN5; Rbm22|Q8BHS3; Noc4l|Q8BHY2; Rbfox3|Q8BIF2; Cstf2|Q8BIQ5; Zc3h14|Q8BJ05; Marf1|Q8BJ34; Pum3|Q8BKS9; Thoc5|Q8BKT7; Cpsf7|Q8BTV2; Hook3|Q8BUK6; Rsl1d1|Q8BVY0; Rbms3|Q8BWL5; Nkrf|Q8BY02; Zmat4|Q8BZ94; Ncbp3|Q8BZR9; Dzank1|Q8C008; Mbnl2|Q8C181; Rbm14|Q8C2Q3; Cnot2|Q8C5L3; Rbm34|Q8C5L7; Cstf2t|Q8C7E9; Myef2|Q8C854; Shfl|Q8CAK3; Bivm|Q8CBX9; Pabpn1|Q8CCS6; Ppwd1|Q8CEC6; Aqr|Q8CFQ3; Lsm14b|Q8CGC4; Tcerg1|Q8CGF7; Cherp|Q8CGZ0; Sugp2|Q8CH09; Ccar1|Q8CH18; Sltm|Q8CH25; Zc3h3|Q8CHP0; Clip4|Q8CI96; Stau2|Q8CJ67; Ago2|Q8CJG0; Rbm17|Q8JZX4; Edc3|Q8K2D3; Lsm14a|Q8K2F8; Matr3|Q8K310; Wdr33|Q8K4P0; Ints13|Q8QZV7; Sf3b4|Q8QZY9; Hnrnpl|Q8R081; Pspc1|Q8R326; Ppp1r8|Q8R3G1; Nop14|Q8R3N1; Thoc1|Q8R3N6; Purg|Q8R4E6; Wrap53|Q8VC51; Ssx2ip|Q8VC66; Wdr74|Q8VCG3; Ddx39a|Q8VDW0; Nudt16l1|Q8VHN8; Sfpq|Q8VIJ6; Eif4a3|Q91VC3; Rbmxl1|Q91VM5; Tdrd3|Q91W18; Ncoa5|Q91W39; Fubp1|Q91WJ8; Strbp|Q91WM1; Dcp1a|Q91YD3; Rbm5|Q91YE7; Ppan|Q91YU8; Ptbp2|Q91Z31; Adarb1|Q91ZS8; Dst|Q91ZU6; Msi2|Q920Q6; Tardbp|Q921F2; Ddx27|Q921N6; AI597479|Q922M7; Plrg1|Q922V4; Wbp11|Q923D5; Rnf112|Q96DY5; Myo5a|Q99104; Nono|Q99K48; Rtf2|Q99K95; Cmas|Q99KK2; Prpf19|Q99KP6; Cstf1|Q99LC2; Cstf3|Q99LI7; 2310033P09Rik|Q99LX5; Rnps1|Q99M28; Gtpbp4|Q99ME9; Ddx50|Q99MJ9; Tpgs1|Q99MS8; Adar|Q99MU3; Prpf8|Q99PV0; Trappc5|Q9CQA1; Snrpb2|Q9CQI7; Magohb|Q9CQL1; Snw1|Q9CSN1; Raver1|Q9CW46; Rbm8a|Q9CWZ3; Gemin6|Q9CX53; Hnrnpa0|Q9CX86; Ilf2|Q9CXY6; Chtop|Q9CY57; Dcp2|Q9CYC6; Rrs1|Q9CYH6; Srsf9|Q9D0B0; Hnrnpm|Q9D0E1; Ddx56|Q9D0R4; Lsm12|Q9D0R8; Ppil1|Q9D0W5; Ints12|Q9D168; Sarnp|Q9D1J3; Sec13|Q9D1M0; Dpm3|Q9D1Q4; Bcas2|Q9D287; Trappc6b|Q9D289; Sec23b|Q9D662; Ppil2|Q9D787; Fip1l1|Q9D824; U2af1|Q9D883; Ebna1bp2|Q9D903; Osbpl3|Q9DBS9; Rsrc1|Q9DBU6; Cdc40|Q9DC48; Xab2|Q9DCD2; Cpsf1|Q9EPU4; Ubl5|Q9EPV8; Dgcr8|Q9EQM6; Tfip11|Q9ERA6; Trappc4|Q9ES56; Eif4enif1|Q9EST3; Ddx24|Q9ESV0; Cwc15|Q9JHS9; Dazap1|Q9JII5; Ddx21|Q9JIK5; Acin1|Q9JIX8; Rbfox1|Q9JJ43; Alyref2|Q9JJW6; Nova1|Q9JKN6; Mbnl1|Q9JKP5; Aatf|Q9JKX4; Sacs|Q9JLC8; Son|Q9QX47; Qk|Q9QYS9; Zfp346|Q9R0B7; Pcm1|Q9R0L6; Khdrbs3|Q9R226; Hao1|Q9WU19; Rbmx|Q9WV02; Fxr2|Q9WVR4; Celf2|Q9Z0H4; Ik|Q9Z1M8; Ddx39b|Q9Z1N5; Ilf3|Q9Z1X4; Hnrnpc|Q9Z204; Keap1|Q9Z2X8; Top3b|Q9Z321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camsap1|A2AHC3; Focad|A2AKG8; Cttnbp2|B9EJA2; Ift140|E9PY46; Rnf213|E9Q555; Ampd3|O08739; Cyth3|O08967; Ppfibp2|O35711; Grk6|O70293; Dync1i1|O88485; Msh3|P13705; Cryz|P47199; Strn4|P58404; Dock4|P59764; Depdc5|P61460; Ldb1|P70662; Tnik|P83510; Fmn1|Q05860; Ttc21b|Q0HA38; Dact3|Q0PHV7; Fam117b|Q3U3E2; Mtus2|Q3UHD3; Lrch2|Q3UMG5; Arhgef40|Q3UPH7; Ksr2|Q3UVC0; Fam91a1|Q3UVG3; Rassf5|Q5EBH1; Tiam1|Q60610; Ksr1|Q61097; Pik3c2a|Q61194; Eif2d|Q61211; Trim25|Q61510; Agtpbp1|Q641K1; Brsk2|Q69Z98; Sh3rf1|Q69ZI1; Cep170|Q6A065; Hecw2|Q6I6G8; Ttbk1|Q6PCN3; Shb|Q6PD21; Wipf2|Q6PEV3; Pik3c3|Q6PF93; Dmxl1|Q6PNC0; Fam120b|Q6RI63; Syne2|Q6ZWQ0; Fbxo10|Q7TQF2; Btbd8|Q80TK0; Clec16a|Q80U30; Cep170b|Q80U49; Ankzf1|Q80UU1; Cdc42bpg|Q80UW5; Dtx3|Q80V91; Bbs9|Q811G0; Mast4|Q811L6; Arhgap32|Q811P8; Frmd4a|Q8BIE6; Nyap2|Q8BM65; Larp6|Q8BN59; Dclk3|Q8BWQ5; Agap1|Q8BXK8; Arap2|Q8BZ05; Map1s|Q8C052; Cfap410|Q8C6G1; Amer2|Q8CCJ4; Synj1|Q8CHC4; Dock3|Q8CIQ7; Wdr11|Q8K1X1; Uvrag|Q8K245; Arhgef6|Q8K4I3; Dync1li1|Q8R1Q8; Actr1b|Q8R5C5; Pik3r4|Q8VD65; Tti1|Q91V83; Eef1aknmt|Q91YR5; Srgap1|Q91Z69; Rin1|Q921Q7; Glyr1|Q922P9; Ntpcr|Q9CQA9; Necap1|Q9CR95; Gar1|Q9CY66; Rfc5|Q9D0F6; Nos1ap|Q9D3A8; Aven|Q9D9K3; Inpp4a|Q9EPW0; Magi3|Q9EQJ9; Arhgef7|Q9ES28; Nek7|Q9ES74; Dync1h1|Q9JHU4; Eefsec|Q9JHW4; Tulp4|Q9JIL5; Zmym3|Q9JLM4; Dclk1|Q9JLM8; Pnkp|Q9JLV6; Cyth1|Q9QX11; Numb|Q9QZS3; Dlc1|Q9R0Z9; Mast1|Q9R1L5; Trim3|Q9R1R2; Tbk1|Q9WUN2; Gsk3b|Q9WV60; Anapc7|Q9WVM3; Clip2|Q9Z0H8; Itsn1|Q9Z0R4; Nek4|Q9Z1J2; Unc13b|Q9Z1N9; Dock11|A2AF47; Chadl|E9Q7T7; Sipa1l3|G3X9J0; Kif2a|P28740; Mark3|Q03141; Nf1|Q04690; Specc1l|Q2KN98; Mast3|Q3U214; Agap2|Q3UHD9; Aak1|Q3UHJ0; Brsk1|Q5RJI5; Grb10|Q60760; Dhx57|Q6P5D3; Map6|Q7TSJ2; Sipa1l2|Q80TE4; Tecpr1|Q80VP0; Cnksr2|Q80YA9; Zc2hc1a|Q8BJH1; Clasp2|Q8BRT1; Ift57|Q8BXG3; Nav1|Q8CH77; Gas2l1|Q8JZP9; Cc2d1a|Q8K1A6; Sh3kbp1|Q8R550; Ttc8|Q8VD72; Mark1|Q8VHJ5; Nprl3|Q8VIJ8; Trub2|Q91WG3; Ascc2|Q91WR3; Pard3b|Q9CSB4; Bbs5|Q9CZQ9; Exosc7|Q9D0M0; Csnk1d|Q9DC28; Inpp5e|Q9JII1; Mink1|Q9JM52; Csnk1e|Q9JMK2; Asap1|Q9QWY8; Nme7|Q9QXL8; Arntl|Q9WTL8; Mtmr7|Q9Z2C9; Tanc2|A2A690; Chd6|A3KFM7; Numbl|O08919; Kifc3|O35231; Nck2|O55033; Syn1|O88935; Ap2a1|P17426; Ap2a2|P17427; Cit|P49025; Arhgap39|P59281; Ap2s1|P62743; Ap2m1|P84091; Nfia|Q02780; Trio|Q0KL02; Dennd4b|Q3U1Y4; Carmil3|Q3UFQ8; Dab2ip|Q3UHC7; Bbs1|Q3V3N7; Ccdc85a|Q5SP85; Apc|Q61315; Actr3b|Q641P0; Peak1|Q69Z38; Carmil1|Q6EDY6; Caskin1|Q6P9K8; Nyap1|Q6PFX7; Morn4|Q6PGF2; Wdfy3|Q6VNB8; Plekha6|Q7TQG1; Camsap3|Q80VC9; Dmxl2|Q8BPN8; Ppfia2|Q8BSS9; Pak4|Q8BTW9; Sipa1l1|Q8C0T5; Taf2|Q8C176; Mark4|Q8CIP4; Atat1|Q8K341; Wdr7|Q920I9; Ap2b1|Q9DBG3; Rims2|Q9EQZ7; Fn3k|Q9ER35; Grasp|Q9JJA9; Ulk2|Q9QY01; Mapk8ip1|Q9WVI9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ddi2|A2ADY9; Frmpd4|A2AFR3; Rap1gap|A2ALS5; Ppip5k1|A2ARP1; Fbxl16|A2RT62; Ttc38|A3KMP2; Mtr|A6H5Y3; Armt1|A6H630; Rabgap1l|A6H6A9; Apba1|B2RUJ5; Otud7b|B2RUR8; Capn2|O08529; Dpysl2|O08553; Clta|O08585; Pten|O08586; Prdx6|O08709; Casp6|O08738; Pex5|O09012; Gsto1|O09131; Ddt|O35215; Capn1|O35350; Rabep1|O35551; Crym|O54983; Slk|O54988; Tpmt|O55060; Chkb|O55229; Ubr1|O70481; Pfdn2|O70591; Wdr1|O88342; Capns1|O88456; Shd|O88834; Idh1|O88844; Hprt|P00493; Got1|P05201; Ldha|P06151; Gpi1|P06745; Ckm|P07310; Aprt|P08030; Pgk1|P09411; Nudt11|P0C028; Fabp3|P11404; Gusb|P12265; Pdcd6|P12815; Umps|P13439; Gpd1|P13707; Mdh1|P14152; Ldhb|P16125; Gapdh|P16858; Eno1|P17182; Eno2|P17183; Selenbp1|P17563; Ppia|P17742; Tpi1|P17751; Rps6ka3|P18654; Cfl1|P18760; Eno3|P21550; Pnp|P23492; Pcmt1|P23506; Gfus|P23591; Bcat1|P24288; Gsta4|P24472; Lta4h|P24527; Fkbp1a|P26883; Adh5|P28474; Nedd8|P29595; Akt1|P31750; Ranbp1|P34022; Mif|P34884; Ephx2|P34914; Usp4|P35123; Prdx1|P35700; Ptpn12|P35831; Gnl1|P36916; Ttl|P38585; Tkt|P40142; Stat3|P42227; Stat5b|P42232; Cfl2|P45591; Adss|P46664; Brcc3|P46737; Gsr|P47791; Crkl|P47941; Hspa4l|P48722; Cbr1|P48758; Gstm5|P48774; Inpp1|P49442; Ppm1a|P49443; Ahcy|P50247; Gdi1|P50396; Fabp7|P51880; Rida|P52760; Rabggtb|P53612; Limk1|P53668; Pitpna|P53810; Rad23b|P54728; Acyp2|P56375; Acyp1|P56376; Cda|P56389; Usp5|P56399; Znrd2|P56873; Actn4|P57780; Idi1|P58044; Ptpa|P58389; Actb|P60710; Ube2d1|P61080; Ube2k|P61087; Ube2n|P61089; Pcbd1|P61458; Ywhag|P61982; Ywhae|P62259; Ppp2cb|P62715; Ran|P62827; Elob|P62869; Hspa8|P63017; Ywhaz|P63101; Pkia|P63248; Ppp3ca|P63328; Actc1|P68033; Tuba4a|P68368; Tubb4b|P68372; Tuba1c|P68373; Kpnb1|P70168; Lxn|P70202; Pdlim4|P70271; Mpp1|P70290; Casp3|P70677; Urod|P70697; Eloc|P83940; Arf1|P84078; Rgs14|P97492; Gclc|P97494; Thumpd3|P97770; Apba2|P98084; Tubb5|P99024; Nme2|Q01768; Uba1|Q02053; Galt|Q03249; Ckb|Q04447; Fabp5|Q05816; Dnal1|Q05A62; Cab39|Q06138; Dmwd|Q08274; Ubxn2b|Q0KL01; Npepps|Q11011; Pepd|Q11136; Msto1|Q2YDW2; Cyb5r4|Q3TDX8; Myl12b|Q3THE2; Aarsd1|Q3THG9; Gmps|Q3THK7; Mat2a|Q3THS6; Gdpgp1|Q3TLS3; Uap1l1|Q3TW96; Smyd5|Q3TYX3; Fbxo7|Q3U7U3; Otulin|Q3UCV8; Ttll12|Q3UDE2; Ube2z|Q3UE37; Nt5c3b|Q3UFY7; Hdhd2|Q3UGR5; Babam1|Q3UI43; 2610301B20Rik|Q3UJP5; Tax1bp1|Q3UKC1; Ppp1r7|Q3UM45; Arhgef9|Q3UTH8; Macrod2|Q3UYG8; Rap1gap2|Q5SVL6; Myl6|Q60605; Grb2|Q60631; Ppp5c|Q60676; Akt2|Q60823; Stip1|Q60864; Gstt2|Q61133; Prdx2|Q61171; Tsg101|Q61187; Clns1a|Q61189; Pafah1b3|Q61205; Pafah1b2|Q61206; Hspa4|Q61316; Pde1a|Q61481; Fscn1|Q61553; Gdi2|Q61598; Hsph1|Q61699; Prkd1|Q62101; Dbnl|Q62418; Ppp3r1|Q63810; Mapk3|Q63844; Map2k2|Q63932; Crk|Q64010; Spr|Q64105; Sord|Q64442; Gstt1|Q64471; Guk1|Q64520; Vcl|Q64727; Gart|Q64737; Ripor1|Q68FE6; Gpsm1|Q6IR34; Cltb|Q6IRU5; Wdr44|Q6NVE8; Ptpdc1|Q6NZK8; Xpnpep1|Q6P1B1; Xpo1|Q6P5F9; Oxsr1|Q6P9R2; Gapvd1|Q6PAR5; Ptpn23|Q6PB44; Rrm2b|Q6PEE3; Ube2o|Q6ZPJ3; Acap2|Q6ZQK5; Tubb2a|Q7TMM9; Ciao3|Q7TMW6; Otub1|Q7TQI3; Stk38l|Q7TSE6; Pgm2|Q7TSV4; Ppm1e|Q80TL0; Nisch|Q80TM9; Plekhm2|Q80TQ5; Dnajc6|Q80TZ3; Epn1|Q80VP1; Thnsl2|Q80W22; Dpp8|Q80YA7; Sergef|Q80YD6; Pank4|Q80YV4; Ankfy1|Q810B6; Cpped1|Q8BFS6; Pef1|Q8BFY6; Sh3bgrl2|Q8BG73; Aars|Q8BGQ7; Phyhipl|Q8BGT8; 8030462N17Rik|Q8BH50; Tiprl|Q8BH58; Gopc|Q8BH60; Nrd1|Q8BHG1; Oscp1|Q8BHW2; Cyria|Q8BHZ0; Prune1|Q8BIW1; Nup93|Q8BJ71; Sgta|Q8BJU0; Fbxo44|Q8BK26; Ahsa1|Q8BK64; Ipo5|Q8BKC5; Gga3|Q8BMI3; Armc6|Q8BNU0; AW549877|Q8BR90; Rps6kb1|Q8BSK8; Cpne3|Q8BT60; Tcp11l1|Q8BTG3; Kyat1|Q8BTY1; Ppme1|Q8BVQ5; Camk1d|Q8BW96; Pithd1|Q8BWR2; Usp47|Q8BY87; Tbcd|Q8BYA0; Pgm5|Q8BZF8; Nhlrc2|Q8BZW8; Camkk2|Q8C078; Atg16l1|Q8C0J2; Paox|Q8C0L6; Gpcpd1|Q8C0L9; Asrgl1|Q8C0M9; Zfp451|Q8C0P7; Cpne1|Q8C166; 2310022B05Rik|Q8C3W1; Uba6|Q8C7R4; Uba3|Q8C878; Pgm2l1|Q8CAA7; Castor2|Q8CAB8; Acat2|Q8CAY6; Yod1|Q8CB27; Fam160b1|Q8CDM8; Adprhl2|Q8CG72; Ppm1f|Q8CGA0; Phlpp1|Q8CHE4; Pgp|Q8CHP8; Myl6b|Q8CI43; Pak2|Q8CIN4; Tbce|Q8CIV8; Thtpa|Q8JZL3; Gmds|Q8K0C9; Phyhip|Q8K0S0; Pdxk|Q8K183; Ipo11|Q8K2V6; Cbr3|Q8K354; Gspt1|Q8R050; Gale|Q8R059; Gga1|Q8R0H9; Cmbl|Q8R1G2; Pdlim2|Q8R1G6; Chmp7|Q8R1T1; Sdsl|Q8R238; Ubqln1|Q8R317; Tbc1d13|Q8R3D1; Wipi1|Q8R3E3; Usp15|Q8R5H1; Nae1|Q8VBW6; Mpdz|Q8VBX6; Camkk1|Q8VBY2; Tkfc|Q8VC30; Gca|Q8VC88; Scrn2|Q8VCA8; Rnpep|Q8VCT3; Gripap1|Q8VD04; Hip1|Q8VD75; Ptgr2|Q8VDQ1; Uba5|Q8VE47; Fam114a2|Q8VE88; Lgalsl|Q8VED9; Rpe|Q8VEE0; Epm2aip1|Q8VEH5; Setd7|Q8VHL1; Ipo4|Q8VI75; Impa2|Q91UZ5; Acot7|Q91V12; Isoc1|Q91V64; 4931406C07Rik|Q91V76; Hnmt|Q91VF2; Stk38|Q91VJ4; Sh3bgrl3|Q91VW3; Ubl7|Q91W67; Rabep2|Q91WG2; Eva1a|Q91WM6; As3mt|Q91WU5; Osbpl1a|Q91XL9; Uap1|Q91YN5; Camk1|Q91YS8; Grhpr|Q91Z53; Diras1|Q91Z61; Fdps|Q920E5; Hlcs|Q920N2; Ak5|Q920P5; Cyrib|Q921M7; Ppp6r3|Q922D4; Pcyt2|Q922E4; Tubb6|Q922F4; Prmt7|Q922X9; Ubxn1|Q922Y1; Blvrb|Q923D2; Mpi|Q924M7; Sec14l2|Q99J08; Nrbp1|Q99J45; Usp11|Q99K46; Pls3|Q99K51; Dpp3|Q99KK7; Rab28|Q99KL7; Ciao1|Q99KN2; Nampt|Q99KQ4; Mat2b|Q99LB6; Tnpo2|Q99LG2; Psph|Q99LS3; Park7|Q99LX0; Hspbp1|Q99P31; Ogfr|Q99PG2; Nanp|Q9CPT3; Glod4|Q9CPV4; Atg3|Q9CPX6; Lap3|Q9CPY7; Mid1ip1|Q9CQ20; Pgls|Q9CQ60; Mtap|Q9CQ65; Cotl1|Q9CQI6; Rwdd1|Q9CQK7; Glrx3|Q9CQM9; Ppp6c|Q9CQR6; Mri1|Q9CQT1; Ywhab|Q9CQV8; Psmd9|Q9CR00; Ppid|Q9CR16; Dph2|Q9CR25; Vta1|Q9CR26; Gnpda2|Q9CRC9; Xpot|Q9CRT8; Tubb2b|Q9CWF2; Atic|Q9CWJ9; Ddah1|Q9CWS0; Tbc1d15|Q9CXF4; Blvra|Q9CY64; Pgm3|Q9CYR6; Ola1|Q9CZ30; Nsfl1c|Q9CZ44; Gars|Q9CZD3; Ube2v1|Q9CZY3; Acbd6|Q9D061; Arpin|Q9D0A3; Lysmd1|Q9D0E3; Pgm1|Q9D0F9; Cndp2|Q9D1A2; 1700037H04Rik|Q9D1K7; Acp1|Q9D358; Shpk|Q9D5J6; Cul5|Q9D5V5; Gbe1|Q9D6Y9; Lhpp|Q9D7I5; Lysmd2|Q9D7V2; Eef1akmt2|Q9D853; Itpa|Q9D892; Ccdc91|Q9D8L5; Efhd2|Q9D8Y0; 1700066M21Rik|Q9D9H8; Ift22|Q9DAI2; Phpt1|Q9DAK9; Cnn3|Q9DAW9; Phyhd1|Q9DB26; Haghl|Q9DB32; Dhdh|Q9DBB8; Csad|Q9DBE0; Pgam1|Q9DBJ1; Cmpk1|Q9DBP5; Arpp21|Q9DCB4; Npl|Q9DCJ9; Paics|Q9DCL9; Gstk1|Q9DCM2; Mettl26|Q9DCS2; Akr1e1|Q9DCT1; Oga|Q9EQQ9; Tubb3|Q9ERD7; Cse1l|Q9ERK4; Gucy1a1|Q9ERL9; Ube4b|Q9ES00; Rcan1|Q9JHG6; Rabggta|Q9JHK4; Ide|Q9JHR7; Isyna1|Q9JHU9; Nudt3|Q9JI46; Akr1a1|Q9JII6; Fzd2|Q9JIP6; Pfn2|Q9JJV2; Rcan3|Q9JKK0; Tmod2|Q9JKK7; Nudt5|Q9JKX6; Nt5c|Q9JM14; Dnaja4|Q9JMC3; Stard10|Q9JMD3; Txnrd1|Q9JMH6; Glrx|Q9QUH0; Prep|Q9QUR6; Drg2|Q9QXB9; Acss2|Q9QXG4; Ndrg2|Q9QYG0; Dnaja2|Q9QYJ0; Nagk|Q9QZ08; Ubqln2|Q9QZM0; Srr|Q9QZX7; Mvk|Q9R008; Nubp1|Q9R060; Wdr54|Q9R0D8; Esd|Q9R0P3; Dstn|Q9R0P5; Rpgr|Q9R0X5; Ak1|Q9R0Y5; Gda|Q9R111; Cetn2|Q9R1K9; Pts|Q9R1Z7; Lypla2|Q9WTL7; Ggps1|Q9WTN0; Rnf7|Q9WTZ1; Pdcd6ip|Q9WU78; Akt3|Q9WUA6; Rbck1|Q9WUB0; Dmtn|Q9WV69; Apip|Q9WVQ5; Ncdn|Q9Z0E0; Arih1|Q9Z1K5; Arih2|Q9Z1K6; Ate1|Q9Z2A5; Gsdme|Q9Z2D3; Crlf3|Q9Z2L7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map7d2|A2AG50; Ralgps1|A2AR50; Ankrd63|A2ARS0; Ttll7|A4Q9F0; Plekhd1|B2RPU2; Plcxd2|B2RXA1; Setd1a|E9PYH6; Bod1l|E9Q6J5; Tpr|F6ZDS4; Metap2|O08663; Hdac1|O09106; Dhx15|O35286; Srsf5|O35326; Ring1|O35730; Per1|O35973; Nmt1|O70310; Dxo|O70348; Sp3|O70494; Parg|O88622; Rpp30|O88796; Cfh|P06909; Ncl|P09405; Eef1a1|P10126; Srp14|P16254; Vim|P20152; Map2|P20357; Plg|P20918; Map4|P27546; Apex1|P28352; Rxrb|P28704; Drg1|P32233; Foxk1|P42128; Cnbp|P53996; Dnajc2|P54103; Rrp1|P56183; Tdg|P56581; Fus|P56959; Btbd1|P58544; Pcif1|P59114; Eif4a1|P60843; Naa20|P61600; Wdr5|P61965; Eef1a2|P62631; Rps25|P62852; Gtf2b|P62915; Eif5a|P63242; Crip1|P63254; Rack1|P68040; Hdac2|P70288; Ncoa1|P70365; Irs2|P81122; Txnl4a|P83877; Etv6|P97360; Sap30bp|Q02614; Cdk7|Q03147; Smarcad1|Q04692; Spindoc|Q05AH6; Kndc1|Q0KK55; Samd12|Q0VE29; Hp1bp3|Q3TEA8; Zc3h15|Q3TIV5; Hexim2|Q3TVI4; Srsf6|Q3TWW8; Ap5z1|Q3U829; Gpatch11|Q3UFS4; Rnf10|Q3UIW5; Zc3hav1|Q3UPF5; Klhdc2|Q4G5Y1; Phactr4|Q501J7; Rnf20|Q5DTM8; Zdbf2|Q5SS00; Scaf1|Q5U4C3; Rbbp7|Q60973; Ncor1|Q60974; Usf1|Q61069; Hcfc1|Q61191; Arnt2|Q61324; Ccnh|Q61458; Ewsr1|Q61545; Rad21|Q61550; Srsf2|Q62093; Snrpa|Q62189; Snrpc|Q62241; Trim28|Q62318; Snrnp70|Q62376; Zfp91|Q62511; Trim24|Q64127; Wapl|Q65Z40; Morc2a|Q69ZX6; Scaf8|Q6DID3; Zmiz1|Q6P1E1; Magee1|Q6PCZ4; Smarcc2|Q6PDG5; Rnf220|Q6PDX6; Gnl3l|Q6PGG6; Dnmbp|Q6TXD4; Ddx55|Q6ZPL9; Zc3h4|Q6ZPZ3; Spag7|Q7TNE3; Trim46|Q7TNM2; Dek|Q7TNV0; Ints8|Q80V86; Tox3|Q80W03; Prpf40b|Q80W14; Fbll1|Q80WS3; Camta2|Q80Y50; F12|Q80YC5; Ccdc50|Q810U5; Zfp771|Q8BJ90; Eif4e2|Q8BMB3; Gtf3c4|Q8BMQ2; Trmt2a|Q8BNV1; Metap1|Q8BP48; Lig4|Q8BTF7; Srrm2|Q8BTI8; Cfap20|Q8BTU1; Nob1|Q8BW10; Naa25|Q8BWZ3; Ttc39b|Q8BYY4; Rps6ka5|Q8C050; Mettl3|Q8C3P7; Prpf31|Q8CCF0; Nemf|Q8CCP0; Hpf1|Q8CFE2; Tns2|Q8CGB6; Cog3|Q8CI04; Rassf8|Q8CJ96; Taf10|Q8K0H5; Wipf1|Q8K1I7; Gtf3c1|Q8K284; Otud6b|Q8K2H2; Mta1|Q8K4B0; Sbk1|Q8QZX0; Gtf2f2|Q8R0A0; Hmces|Q8R1M0; Actr8|Q8R2S9; Nabp2|Q8R2Y9; Irf2bp1|Q8R3Y8; Hexim1|Q8R409; Oard1|Q8R5F3; Spon1|Q8VCC9; Tspyl4|Q8VD63; Parn|Q8VDG3; Ccdc92|Q8VDN4; Ccar2|Q8VDP4; Rprd1a|Q8VDS4; Srsf4|Q8VE97; Setd3|Q91WC0; Klhdc8a|Q91XA8; Arrb2|Q91YI4; Klhdc4|Q921I2; Exosc4|Q921I9; Nelfcd|Q922L6; Dbr1|Q923B1; Stard13|Q923Q2; Rfc4|Q99J62; Cdk9|Q99J95; Rpp25l|Q99JH1; Gigyf1|Q99MR1; Hdac9|Q99N13; Npm3|Q9CPP0; 1110059E24Rik|Q9CQ90; Exosc5|Q9CRA8; Cd2bp2|Q9CWK3; Pin4|Q9CWW6; Serbp1|Q9CY58; Tomm34|Q9CYG7; Thumpd2|Q9CZB3; Cmss1|Q9CZT6; Gtf2e1|Q9D0D5; Rnmt|Q9D0L8; Naa38|Q9D2U5; Ppil3|Q9D6L8; Zfp593|Q9DB42; Exosc9|Q9JHI7; Wdr12|Q9JJA4; Rpl38|Q9JJI8; Nrip3|Q9JJR9; Prelp|Q9JK53; Atr|Q9JKK8; Habp4|Q9JKS5; Hdgfl3|Q9JMG7; Ccnt1|Q9QWV9; Tbl1x|Q9QXE7; Akap8l|Q9R0L7; Mta2|Q9R190; Bex2|Q9WTZ8; Eif4h|Q9WUK2; Nup160|Q9Z0W3; Adnp|Q9Z103; Rps6ka4|Q9Z2B9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M10</t>
   </si>
   <si>
     <t xml:space="preserve">Cul4b|A2A432; Ubr4|A2AN08; Uprt|B1AVZ0; Cad|B2RQC6; Ccdc6|D3YZP9; Ccdc85c|E9Q6B2; Map3k4|O08648; Ube3a|O08759; Dctn1|O08788; Psmb1|O09061; Kif3c|O35066; Map3k5|O35099; Psmd4|O35226; Psmb9|O35522; Psmd14|O35593; Ift81|O35594; Cops5|O35864; Psmb10|O35955; Psmb5|O55234; Nmt2|O70311; Psma3|O70435; Dync1i2|O88487; Ikbkg|O88522; Cops3|O88543; Cops4|O88544; Cops6|O88545; Becn1|O88597; Psmc3|O88685; Birc6|O88738; Mkln1|O89050; Lancl1|O89112; Alad|P10518; Tcp1|P11983; Pfkl|P12382; Psmd3|P14685; Rps6ka1|P18653; Cbl|P22682; Impdh2|P24547; Psmd7|P26516; Psmb8|P28063; Kif3a|P28741; Wars|P32921; Csk|P41241; Stat1|P42225; Cct8|P42932; Psmc2|P46471; Gfpt1|P47856; Mapkapk2|P49138; Psma2|P49722; Impdh1|P50096; Uck1|P52623; Anapc1|P53995; Psmc4|P54775; Adsl|P54822; Mrtfb|P59759; Ruvbl1|P60122; Nploc4|P60670; Actr1a|P61164; Cops2|P61202; Ppp1ca|P62137; Psmc1|P62192; Psmc5|P62196; Psmc6|P62334; Ypel5|P62700; Rbx1|P62878; Ranbp9|P69566; Kifap3|P70188; Psmb7|P70195; Cct7|P80313; Cct2|P80314; Cct4|P80315; Cct5|P80316; Cct6a|P80317; Cct3|P80318; Psme1|P97371; Psme2|P97372; Fhl1|P97447; Psmb4|P99026; Vcp|Q01853; Psd3|Q2PFD7; Cul4a|Q3TCH7; Psmd1|Q3TXS7; Ddb1|Q3U1J4; Hectd3|Q3U487; Eml4|Q3UMY5; Maea|Q4VC33; Urgcp|Q5NCI0; Wdr81|Q5ND34; Zzef1|Q5SSH7; Psme4|Q5SSW2; Acaca|Q5SWU9; Psmb6|Q60692; Kpna1|Q60960; Mapre1|Q61166; Eif2b4|Q61749; Kif3b|Q61771; Prkci|Q62074; Ric1|Q69ZJ7; Hectd1|Q69ZR2; Usp7|Q6A4J8; Npepl1|Q6NSR8; Arhgef18|Q6P9R4; Ppp2r5b|Q6PD28; Ecpas|Q6PDI5; Ccdc85b|Q6PDY0; Mapre3|Q6PER3; Nudcd1|Q6PIP5; Dalrd3|Q6PJN8; Ranbp10|Q6VN19; Nadsyn1|Q711T7; Ubfd1|Q78JW9; Fcsk|Q7TMC8; Wdr91|Q7TMQ7; Huwe1|Q7TMY8; Eml2|Q7TNG5; Phkb|Q7TSH2; Elp1|Q7TT37; Cul9|Q80TT8; Ube3c|Q80U95; Kcmf1|Q80UY2; Pelo|Q80X73; Elac2|Q80Y81; Rmnd5a|Q80YQ8; Zer1|Q80ZJ6; Psmd11|Q8BG32; Cdc23|Q8BGZ4; Eif2a|Q8BJW6; Psmd5|Q8BJY1; Elp6|Q8BK75; Dpcd|Q8BPA8; R3hcc1|Q8BSI6; Peli2|Q8BST6; Cops7b|Q8BV13; Pdcl3|Q8BVF2; Arrb1|Q8BWG8; Phka2|Q8BWJ3; Anapc2|Q8BZQ7; Trub1|Q8C0D0; Arhgap12|Q8C0D4; Dis3l|Q8C0S1; Wdr26|Q8C6G8; Dctn4|Q8CBY8; Inpp5f|Q8CDA1; Vcpip1|Q8CDG3; Txnl1|Q8CDN6; Trmt6|Q8CE96; Tab1|Q8CF89; Polr2b|Q8CFI7; Eif2b5|Q8CHW4; Dis3l2|Q8CI75; Prmt5|Q8CIG8; Cdc73|Q8JZM7; Nek9|Q8K1R7; Abcf3|Q8K268; Rptor|Q8K4Q0; Apeh|Q8R146; Cdc16|Q8R349; Cog6|Q8R3I3; Prpsap2|Q8R574; Aspscr1|Q8VBT9; Cops8|Q8VBV7; Eml3|Q8VC03; Lrrc14|Q8VC16; Nrbf2|Q8VCQ3; AI837181|Q8VD62; Psmd2|Q8VDM4; Fbxo33|Q8VE08; Klhdc3|Q8VEM9; Acly|Q91V92; Dcaf11|Q91VU6; Man2c1|Q91W89; Anapc4|Q91W96; Elp2|Q91WG4; Dgkg|Q91WG7; Zfand2b|Q91X58; Crtc3|Q91X84; Uckl1|Q91YL3; Twf1|Q91YR1; Sh2b1|Q91ZM2; Ivns1abp|Q920Q8; Polr3f|Q921X6; Prmt3|Q922H1; Clip1|Q922J3; Wdr77|Q99J09; Psmd6|Q99JI4; Klhl22|Q99JN2; Stk24|Q99KH8; Dctn2|Q99KJ8; Gmpr2|Q99L27; Elp5|Q99L85; Eif2b1|Q99LC8; Gps1|Q99LD4; Eif2b2|Q99LD9; Nck1|Q99M51; Txnrd3|Q99MD6; Trim33|Q99PP7; Txndc9|Q9CQ79; Prps2|Q9CS42; Psmd8|Q9CX56; Ttc30b|Q9CY00; 5730455P16Rik|Q9CYI0; Cops7a|Q9CZ04; Cep97|Q9CZ62; Polr3e|Q9CZT4; Elp3|Q9CZX0; Prpsap1|Q9D0M1; Tars|Q9D0R2; Akt1s1|Q9D1F4; Get4|Q9D1H7; Kti12|Q9D1R2; 2310011J03Rik|Q9D7E4; Prps1|Q9D7G0; Psmd12|Q9D8W5; Appbp2|Q9DAX9; Phkg2|Q9DB30; Armc8|Q9DBR3; Pdcl|Q9DBX2; Dcaf6|Q9DC22; Trmt112|Q9DCG9; Crip2|Q9DCT8; Gmpr|Q9DCZ1; Nbea|Q9EPN1; Elp4|Q9ER73; Lrba|Q9ESE1; Capn10|Q9ESK3; Psmg2|Q9EST4; Flii|Q9JJ28; Adrm1|Q9JKV1; Arpc3|Q9JM76; Usp14|Q9JMA1; Rasgrp2|Q9QUG9; Psma6|Q9QUM9; Pin1|Q9QUR7; Ptk2b|Q9QVP9; Actr10|Q9QZB7; Dctn5|Q9QZB9; Psma4|Q9R1P0; Psmb3|Q9R1P1; Psmb2|Q9R1P3; Psma1|Q9R1P4; Ruvbl2|Q9WTM5; Cul1|Q9WTX6; Dctn6|Q9WUB4; Coro1c|Q9WUM4; Uchl5|Q9WUP7; Psmd13|Q9WVJ2; Mettl1|Q9Z120; Kank3|Q9Z1P7; Ap3b1|Q9Z1T1; Psma7|Q9Z2U0; Psma5|Q9Z2U1; Dnpep|Q9Z2W0</t>
@@ -746,25 +680,25 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0489006497008322</v>
+        <v>-0.0194565168509321</v>
       </c>
       <c r="D2" t="n">
-        <v>0.966672664086338</v>
+        <v>0.986604301963995</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00299299829185048</v>
+        <v>0.00138910864570498</v>
       </c>
       <c r="F2" t="n">
-        <v>-16.3383486833193</v>
+        <v>-14.0064759593069</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000113117340861052</v>
+        <v>0.000000000000000000000000000000000000000000367346010679316</v>
       </c>
       <c r="H2" t="n">
-        <v>1287.00000238037</v>
+        <v>2860.00000184714</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00313531357125696</v>
+        <v>0.00149256325867419</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -773,13 +707,13 @@
         <v>16</v>
       </c>
       <c r="L2" t="n">
-        <v>100</v>
+        <v>221</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000576898438391364</v>
+        <v>0.0000000000000000000000000000000000000000146938404271726</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000576898438391364</v>
+        <v>0.0000000000000000000000000000000000000000146938404271726</v>
       </c>
     </row>
     <row r="3">
@@ -790,25 +724,25 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0194565168509321</v>
+        <v>0.0222627458649934</v>
       </c>
       <c r="D3" t="n">
-        <v>0.986604301963995</v>
+        <v>1.01555103776313</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00138910864570498</v>
+        <v>0.00210422721148602</v>
       </c>
       <c r="F3" t="n">
-        <v>-14.0064759593069</v>
+        <v>10.580010439686</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000000000000000000000000000000000000000000367346010679316</v>
+        <v>0.000000000000000000000000402043570950349</v>
       </c>
       <c r="H3" t="n">
-        <v>2860.00000184714</v>
+        <v>1261.00000482878</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00149256325867419</v>
+        <v>0.00151872585004248</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -817,13 +751,13 @@
         <v>18</v>
       </c>
       <c r="L3" t="n">
-        <v>221</v>
+        <v>98</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00000000000000000000000000000000000000000936732327232254</v>
+        <v>0.00000000000000000000000804087141900698</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0000000000000000000000000000000000000000187346465446451</v>
+        <v>0.000000000000000000000016081742838014</v>
       </c>
     </row>
     <row r="4">
@@ -834,25 +768,25 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0378694273517671</v>
+        <v>-0.0114874420797885</v>
       </c>
       <c r="D4" t="n">
-        <v>1.02659662829617</v>
+        <v>0.992069128547486</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0031164673753499</v>
+        <v>0.00131581662310766</v>
       </c>
       <c r="F4" t="n">
-        <v>12.1513954072808</v>
+        <v>-8.73027584395293</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00000000000000000000000000000219564892400414</v>
+        <v>0.00000000000000000563566867387517</v>
       </c>
       <c r="H4" t="n">
-        <v>572.000002272094</v>
+        <v>1820.00000080355</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00152969810200519</v>
+        <v>0.000854432765816518</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -861,13 +795,13 @@
         <v>20</v>
       </c>
       <c r="L4" t="n">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0000000000000000000000000000373260317080704</v>
+        <v>0.0000000000000000751422489850023</v>
       </c>
       <c r="N4" t="n">
-        <v>0.000000000000000000000000000111978095124211</v>
+        <v>0.000000000000000225426746955007</v>
       </c>
     </row>
     <row r="5">
@@ -878,25 +812,25 @@
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0222627458649934</v>
+        <v>0.00900859808170851</v>
       </c>
       <c r="D5" t="n">
-        <v>1.01555103776313</v>
+        <v>1.00626382054672</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00210422721148602</v>
+        <v>0.00105049768421679</v>
       </c>
       <c r="F5" t="n">
-        <v>10.580010439686</v>
+        <v>8.57555253767645</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000000000000000000000000402043570950349</v>
+        <v>0.0000000000000000146739229320963</v>
       </c>
       <c r="H5" t="n">
-        <v>1261.00000482878</v>
+        <v>3445.00000206629</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00151872585004248</v>
+        <v>0.00102740075301124</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -905,13 +839,13 @@
         <v>22</v>
       </c>
       <c r="L5" t="n">
-        <v>98</v>
+        <v>266</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00000000000000000000000512605552961695</v>
+        <v>0.000000000000000146739229320963</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0000000000000000000000205042221184678</v>
+        <v>0.00000000000000058695691728385</v>
       </c>
     </row>
     <row r="6">
@@ -922,25 +856,25 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0114874420797885</v>
+        <v>0.0225039405813241</v>
       </c>
       <c r="D6" t="n">
-        <v>0.992069128547486</v>
+        <v>1.01572083526994</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00131581662310766</v>
+        <v>0.00259041654433792</v>
       </c>
       <c r="F6" t="n">
-        <v>-8.73027584395293</v>
+        <v>8.68738297341125</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00000000000000000563566867387517</v>
+        <v>0.000000000000000018558104984014</v>
       </c>
       <c r="H6" t="n">
-        <v>1820.00000080355</v>
+        <v>858.000001365335</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000854432765816518</v>
+        <v>0.00157355547126062</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -949,13 +883,13 @@
         <v>24</v>
       </c>
       <c r="L6" t="n">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0000000000000000574838204735267</v>
+        <v>0.000000000000000148464839872112</v>
       </c>
       <c r="N6" t="n">
-        <v>0.000000000000000287419102367634</v>
+        <v>0.00000000000000074232419936056</v>
       </c>
     </row>
     <row r="7">
@@ -966,25 +900,25 @@
         <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00900859808170851</v>
+        <v>-0.0113825567799785</v>
       </c>
       <c r="D7" t="n">
-        <v>1.00626382054672</v>
+        <v>0.992141255537262</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00105049768421679</v>
+        <v>0.00148996894215375</v>
       </c>
       <c r="F7" t="n">
-        <v>8.57555253767645</v>
+        <v>-7.63945909068754</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0000000000000000146739229320963</v>
+        <v>0.0000000000000364443188715372</v>
       </c>
       <c r="H7" t="n">
-        <v>3445.00000206629</v>
+        <v>1677.00000068688</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00102740075301124</v>
+        <v>0.00101010338910515</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -993,13 +927,13 @@
         <v>26</v>
       </c>
       <c r="L7" t="n">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="M7" t="n">
-        <v>0.000000000000000124728344922818</v>
+        <v>0.000000000000242962125810248</v>
       </c>
       <c r="N7" t="n">
-        <v>0.00000000000000074837006953691</v>
+        <v>0.00000000000145777275486149</v>
       </c>
     </row>
     <row r="8">
@@ -1010,25 +944,25 @@
         <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0225039405813241</v>
+        <v>0.00591227529063243</v>
       </c>
       <c r="D8" t="n">
-        <v>1.01572083526994</v>
+        <v>1.00410648554817</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00259041654433792</v>
+        <v>0.000958415333578139</v>
       </c>
       <c r="F8" t="n">
-        <v>8.68738297341125</v>
+        <v>6.1688029015141</v>
       </c>
       <c r="G8" t="n">
-        <v>0.000000000000000018558104984014</v>
+        <v>0.000000000765461308795467</v>
       </c>
       <c r="H8" t="n">
-        <v>858.000001365335</v>
+        <v>3549.00000315783</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00157355547126062</v>
+        <v>0.00088089899362055</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -1037,13 +971,13 @@
         <v>28</v>
       </c>
       <c r="L8" t="n">
-        <v>67</v>
+        <v>274</v>
       </c>
       <c r="M8" t="n">
-        <v>0.000000000000000135209050597816</v>
+        <v>0.00000000437406462168838</v>
       </c>
       <c r="N8" t="n">
-        <v>0.000000000000000946463354184713</v>
+        <v>0.0000000306184523518187</v>
       </c>
     </row>
     <row r="9">
@@ -1054,25 +988,25 @@
         <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0113825567799785</v>
+        <v>0.00637221077539007</v>
       </c>
       <c r="D9" t="n">
-        <v>0.992141255537262</v>
+        <v>1.0044266487243</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00148996894215375</v>
+        <v>0.00126053434854558</v>
       </c>
       <c r="F9" t="n">
-        <v>-7.63945909068754</v>
+        <v>5.05516631319283</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0000000000000364443188715372</v>
+        <v>0.000000470799227864648</v>
       </c>
       <c r="H9" t="n">
-        <v>1677.00000068688</v>
+        <v>1924.00000105334</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00101010338910515</v>
+        <v>0.000828635779074673</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -1081,13 +1015,13 @@
         <v>30</v>
       </c>
       <c r="L9" t="n">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="M9" t="n">
-        <v>0.000000000000232332532806049</v>
+        <v>0.00000235399613932324</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0000000000018586602624484</v>
+        <v>0.0000188319691145859</v>
       </c>
     </row>
     <row r="10">
@@ -1098,25 +1032,25 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00591227529063243</v>
+        <v>0.00416815470511994</v>
       </c>
       <c r="D10" t="n">
-        <v>1.00410648554817</v>
+        <v>1.00289332228275</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000958415333578139</v>
+        <v>0.000969543707245535</v>
       </c>
       <c r="F10" t="n">
-        <v>6.1688029015141</v>
+        <v>4.29908901885572</v>
       </c>
       <c r="G10" t="n">
-        <v>0.000000000765461308795467</v>
+        <v>0.0000176644702967325</v>
       </c>
       <c r="H10" t="n">
-        <v>3549.00000315783</v>
+        <v>3185.00000160092</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00088089899362055</v>
+        <v>0.000809352915223357</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
@@ -1125,13 +1059,13 @@
         <v>32</v>
       </c>
       <c r="L10" t="n">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00000000433761408317431</v>
+        <v>0.0000785087568743668</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0000000390385267485688</v>
+        <v>0.000706578811869301</v>
       </c>
     </row>
     <row r="11">
@@ -1142,25 +1076,25 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00637221077539007</v>
+        <v>-0.00877902801909122</v>
       </c>
       <c r="D11" t="n">
-        <v>1.0044266487243</v>
+        <v>0.993933318559964</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00126053434854558</v>
+        <v>0.00207166827761412</v>
       </c>
       <c r="F11" t="n">
-        <v>5.05516631319283</v>
+        <v>-4.23766107438869</v>
       </c>
       <c r="G11" t="n">
-        <v>0.000000470799227864648</v>
+        <v>0.000023864907645421</v>
       </c>
       <c r="H11" t="n">
-        <v>1924.00000105334</v>
+        <v>1612.00000005512</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000828635779074673</v>
+        <v>0.00187766663545679</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -1169,13 +1103,13 @@
         <v>34</v>
       </c>
       <c r="L11" t="n">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0000024010760621097</v>
+        <v>0.0000954596305816842</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0000240107606210971</v>
+        <v>0.000954596305816842</v>
       </c>
     </row>
     <row r="12">
@@ -1186,25 +1120,25 @@
         <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00416815470511994</v>
+        <v>0.00647518670311581</v>
       </c>
       <c r="D12" t="n">
-        <v>1.00289332228275</v>
+        <v>1.00449834471998</v>
       </c>
       <c r="E12" t="n">
-        <v>0.000969543707245535</v>
+        <v>0.00160625388589921</v>
       </c>
       <c r="F12" t="n">
-        <v>4.29908901885572</v>
+        <v>4.03123488756007</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0000176644702967325</v>
+        <v>0.0000589169395708392</v>
       </c>
       <c r="H12" t="n">
-        <v>3185.00000160092</v>
+        <v>1222.00000014743</v>
       </c>
       <c r="I12" t="n">
-        <v>0.000809352915223357</v>
+        <v>0.000857867139033795</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
@@ -1213,13 +1147,13 @@
         <v>36</v>
       </c>
       <c r="L12" t="n">
-        <v>246</v>
+        <v>95</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0000818989077393963</v>
+        <v>0.000214243416621233</v>
       </c>
       <c r="N12" t="n">
-        <v>0.000900887985133359</v>
+        <v>0.00235667758283357</v>
       </c>
     </row>
     <row r="13">
@@ -1230,25 +1164,25 @@
         <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.00877902801909122</v>
+        <v>-0.0039944842078569</v>
       </c>
       <c r="D13" t="n">
-        <v>0.993933318559964</v>
+        <v>0.997235064029496</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00207166827761412</v>
+        <v>0.00102212587650866</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.23766107438869</v>
+        <v>-3.90801592999596</v>
       </c>
       <c r="G13" t="n">
-        <v>0.000023864907645421</v>
+        <v>0.0000939224625395763</v>
       </c>
       <c r="H13" t="n">
-        <v>1612.00000005512</v>
+        <v>7098.00000523867</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00187766663545679</v>
+        <v>0.00200015723307203</v>
       </c>
       <c r="J13" t="b">
         <v>0</v>
@@ -1257,13 +1191,13 @@
         <v>38</v>
       </c>
       <c r="L13" t="n">
-        <v>125</v>
+        <v>547</v>
       </c>
       <c r="M13" t="n">
-        <v>0.000101425857493039</v>
+        <v>0.000313074875131921</v>
       </c>
       <c r="N13" t="n">
-        <v>0.00121711028991647</v>
+        <v>0.00375689850158305</v>
       </c>
     </row>
     <row r="14">
@@ -1274,25 +1208,25 @@
         <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0080277814902133</v>
+        <v>-0.00647049522752442</v>
       </c>
       <c r="D14" t="n">
-        <v>0.994451018682075</v>
+        <v>0.995525037094147</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00197681852704516</v>
+        <v>0.00169522538140157</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.06096026538805</v>
+        <v>-3.81689378799578</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0000537229705943621</v>
+        <v>0.000141839086712363</v>
       </c>
       <c r="H14" t="n">
-        <v>793.000000187946</v>
+        <v>1235.00000123485</v>
       </c>
       <c r="I14" t="n">
-        <v>0.000847995093084569</v>
+        <v>0.00096559313549936</v>
       </c>
       <c r="J14" t="b">
         <v>0</v>
@@ -1301,13 +1235,13 @@
         <v>40</v>
       </c>
       <c r="L14" t="n">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="M14" t="n">
-        <v>0.000210759346177882</v>
+        <v>0.000436427959114962</v>
       </c>
       <c r="N14" t="n">
-        <v>0.00273987150031247</v>
+        <v>0.00567356346849451</v>
       </c>
     </row>
     <row r="15">
@@ -1318,25 +1252,25 @@
         <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00647518670311581</v>
+        <v>-0.0145255593364208</v>
       </c>
       <c r="D15" t="n">
-        <v>1.00449834471998</v>
+        <v>0.989982165660511</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00160625388589921</v>
+        <v>0.00396237512605997</v>
       </c>
       <c r="F15" t="n">
-        <v>4.03123488756007</v>
+        <v>-3.66587182543325</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0000589169395708392</v>
+        <v>0.000270007489088328</v>
       </c>
       <c r="H15" t="n">
-        <v>1222.00000014743</v>
+        <v>559.000000936632</v>
       </c>
       <c r="I15" t="n">
-        <v>0.000857867139033795</v>
+        <v>0.00241786416250129</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -1345,13 +1279,13 @@
         <v>42</v>
       </c>
       <c r="L15" t="n">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="M15" t="n">
-        <v>0.000214625994150914</v>
+        <v>0.000771449968823794</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0030047639181128</v>
+        <v>0.0108002995635331</v>
       </c>
     </row>
     <row r="16">
@@ -1362,25 +1296,25 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0039944842078569</v>
+        <v>-0.0100060289760933</v>
       </c>
       <c r="D16" t="n">
-        <v>0.997235064029496</v>
+        <v>0.993088345344166</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00102212587650866</v>
+        <v>0.0027849916884768</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.90801592999596</v>
+        <v>-3.59283979822788</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0000939224625395763</v>
+        <v>0.000352867834083369</v>
       </c>
       <c r="H16" t="n">
-        <v>7098.00000523867</v>
+        <v>624.000000018358</v>
       </c>
       <c r="I16" t="n">
-        <v>0.00200015723307203</v>
+        <v>0.00133018464788775</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -1389,13 +1323,13 @@
         <v>44</v>
       </c>
       <c r="L16" t="n">
-        <v>547</v>
+        <v>49</v>
       </c>
       <c r="M16" t="n">
-        <v>0.000319336372634559</v>
+        <v>0.000940980890888983</v>
       </c>
       <c r="N16" t="n">
-        <v>0.00479004558951839</v>
+        <v>0.0141147133633347</v>
       </c>
     </row>
     <row r="17">
@@ -1406,25 +1340,25 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.00647049522752442</v>
+        <v>-0.00679948316833492</v>
       </c>
       <c r="D17" t="n">
-        <v>0.995525037094147</v>
+        <v>0.99529804637007</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00169522538140157</v>
+        <v>0.00198214469461402</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.81689378799578</v>
+        <v>-3.43036670673479</v>
       </c>
       <c r="G17" t="n">
-        <v>0.000141839086712363</v>
+        <v>0.000634457470488866</v>
       </c>
       <c r="H17" t="n">
-        <v>1235.00000123485</v>
+        <v>780.000000290645</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00096559313549936</v>
+        <v>0.000838819635547518</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
@@ -1433,13 +1367,13 @@
         <v>46</v>
       </c>
       <c r="L17" t="n">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="M17" t="n">
-        <v>0.000452112088895656</v>
+        <v>0.00158614367622217</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0072337934223305</v>
+        <v>0.0253782988195547</v>
       </c>
     </row>
     <row r="18">
@@ -1450,25 +1384,25 @@
         <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0145255593364208</v>
+        <v>-0.00702658997214414</v>
       </c>
       <c r="D18" t="n">
-        <v>0.989982165660511</v>
+        <v>0.995141380434909</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00396237512605997</v>
+        <v>0.00254221495756267</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.66587182543325</v>
+        <v>-2.76396374399466</v>
       </c>
       <c r="G18" t="n">
-        <v>0.000270007489088328</v>
+        <v>0.00587217312426298</v>
       </c>
       <c r="H18" t="n">
-        <v>559.000000936632</v>
+        <v>650.000000676964</v>
       </c>
       <c r="I18" t="n">
-        <v>0.00241786416250129</v>
+        <v>0.00115361995494629</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -1477,13 +1411,13 @@
         <v>48</v>
       </c>
       <c r="L18" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M18" t="n">
-        <v>0.000810022467264984</v>
+        <v>0.0138168779394423</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0137703819435047</v>
+        <v>0.234886924970519</v>
       </c>
     </row>
     <row r="19">
@@ -1494,25 +1428,25 @@
         <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0100060289760933</v>
+        <v>-0.00534727155617812</v>
       </c>
       <c r="D19" t="n">
-        <v>0.993088345344166</v>
+        <v>0.996300414190364</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0027849916884768</v>
+        <v>0.00202063218825273</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.59283979822788</v>
+        <v>-2.64633592757026</v>
       </c>
       <c r="G19" t="n">
-        <v>0.000352867834083369</v>
+        <v>0.00828593462476118</v>
       </c>
       <c r="H19" t="n">
-        <v>624.000000018358</v>
+        <v>858.000000127736</v>
       </c>
       <c r="I19" t="n">
-        <v>0.00133018464788775</v>
+        <v>0.000957452816227609</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
@@ -1521,13 +1455,13 @@
         <v>50</v>
       </c>
       <c r="L19" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="M19" t="n">
-        <v>0.000999792196569544</v>
+        <v>0.0184131880550248</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0179962595382518</v>
+        <v>0.331437384990447</v>
       </c>
     </row>
     <row r="20">
@@ -1538,25 +1472,25 @@
         <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.00679948316833492</v>
+        <v>0.0048285095952301</v>
       </c>
       <c r="D20" t="n">
-        <v>0.99529804637007</v>
+        <v>1.00335247482789</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00198214469461402</v>
+        <v>0.00184514480430717</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.43036670673479</v>
+        <v>2.61687298685652</v>
       </c>
       <c r="G20" t="n">
-        <v>0.000634457470488866</v>
+        <v>0.00901903962320608</v>
       </c>
       <c r="H20" t="n">
-        <v>780.000000290645</v>
+        <v>923.000000032174</v>
       </c>
       <c r="I20" t="n">
-        <v>0.000838819635547518</v>
+        <v>0.000857948955913161</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
@@ -1565,13 +1499,13 @@
         <v>52</v>
       </c>
       <c r="L20" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0017030174207859</v>
+        <v>0.0189874518383286</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0323573309949322</v>
+        <v>0.360761584928243</v>
       </c>
     </row>
     <row r="21">
@@ -1582,25 +1516,25 @@
         <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.00702658997214414</v>
+        <v>0.00338193606991452</v>
       </c>
       <c r="D21" t="n">
-        <v>0.995141380434909</v>
+        <v>1.00234692918855</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00254221495756267</v>
+        <v>0.0014174354859371</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.76396374399466</v>
+        <v>2.38595414286432</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00587217312426298</v>
+        <v>0.0170904698161674</v>
       </c>
       <c r="H21" t="n">
-        <v>650.000000676964</v>
+        <v>3328.00002591426</v>
       </c>
       <c r="I21" t="n">
-        <v>0.00115361995494629</v>
+        <v>0.00180720645943597</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
@@ -1609,13 +1543,13 @@
         <v>54</v>
       </c>
       <c r="L21" t="n">
-        <v>51</v>
+        <v>257</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0149740414668706</v>
+        <v>0.0341809396323348</v>
       </c>
       <c r="N21" t="n">
-        <v>0.299480829337412</v>
+        <v>0.683618792646696</v>
       </c>
     </row>
     <row r="22">
@@ -1626,25 +1560,25 @@
         <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.00534727155617812</v>
+        <v>0.00329365142106153</v>
       </c>
       <c r="D22" t="n">
-        <v>0.996300414190364</v>
+        <v>1.00228559319125</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00202063218825273</v>
+        <v>0.00145168906290561</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.64633592757026</v>
+        <v>2.26884083184394</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00828593462476118</v>
+        <v>0.0234902014926059</v>
       </c>
       <c r="H22" t="n">
-        <v>858.000000127736</v>
+        <v>1001.00000052175</v>
       </c>
       <c r="I22" t="n">
-        <v>0.000957452816227609</v>
+        <v>0.00057532050995322</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -1653,13 +1587,13 @@
         <v>56</v>
       </c>
       <c r="L22" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0201229840887057</v>
+        <v>0.044743240938297</v>
       </c>
       <c r="N22" t="n">
-        <v>0.42258266586282</v>
+        <v>0.939608059704237</v>
       </c>
     </row>
     <row r="23">
@@ -1670,25 +1604,25 @@
         <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0048285095952301</v>
+        <v>-0.00307991560806911</v>
       </c>
       <c r="D23" t="n">
-        <v>1.00335247482789</v>
+        <v>0.997867442319032</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00184514480430717</v>
+        <v>0.00154832995863287</v>
       </c>
       <c r="F23" t="n">
-        <v>2.61687298685652</v>
+        <v>-1.98918556790608</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00901903962320608</v>
+        <v>0.0467989491863145</v>
       </c>
       <c r="H23" t="n">
-        <v>923.000000032174</v>
+        <v>2300.99999998884</v>
       </c>
       <c r="I23" t="n">
-        <v>0.000857948955913161</v>
+        <v>0.00149353388667844</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
@@ -1697,13 +1631,13 @@
         <v>58</v>
       </c>
       <c r="L23" t="n">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0209077736719777</v>
+        <v>0.0850889985205718</v>
       </c>
       <c r="N23" t="n">
-        <v>0.45997102078351</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1714,25 +1648,25 @@
         <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>0.011027010105809</v>
+        <v>0.00198811831277951</v>
       </c>
       <c r="D24" t="n">
-        <v>1.00767262585933</v>
+        <v>1.0013790085622</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00450848896283487</v>
+        <v>0.00101779730505084</v>
       </c>
       <c r="F24" t="n">
-        <v>2.44583278271472</v>
+        <v>1.95335387794153</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0155635533705581</v>
+        <v>0.0508523193686752</v>
       </c>
       <c r="H24" t="n">
-        <v>156.000000232329</v>
+        <v>3731.00001860795</v>
       </c>
       <c r="I24" t="n">
-        <v>0.000924854509124172</v>
+        <v>0.00104419864500211</v>
       </c>
       <c r="J24" t="b">
         <v>0</v>
@@ -1741,13 +1675,13 @@
         <v>60</v>
       </c>
       <c r="L24" t="n">
-        <v>13</v>
+        <v>288</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0345104879086289</v>
+        <v>0.0884388162933482</v>
       </c>
       <c r="N24" t="n">
-        <v>0.793741221898465</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1758,25 +1692,25 @@
         <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00338193606991452</v>
+        <v>-0.00187130019050957</v>
       </c>
       <c r="D25" t="n">
-        <v>1.00234692918855</v>
+        <v>0.998703754402005</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0014174354859371</v>
+        <v>0.00106465527041192</v>
       </c>
       <c r="F25" t="n">
-        <v>2.38595414286432</v>
+        <v>-1.75765831674844</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0170904698161674</v>
+        <v>0.0790176794286073</v>
       </c>
       <c r="H25" t="n">
-        <v>3328.00002591426</v>
+        <v>1443.00000092353</v>
       </c>
       <c r="I25" t="n">
-        <v>0.00180720645943597</v>
+        <v>0.000444328411167823</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
@@ -1785,13 +1719,13 @@
         <v>62</v>
       </c>
       <c r="L25" t="n">
-        <v>257</v>
+        <v>112</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0363172483593557</v>
+        <v>0.131696132381012</v>
       </c>
       <c r="N25" t="n">
-        <v>0.871613960624538</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1802,25 +1736,25 @@
         <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00329365142106153</v>
+        <v>0.00136405602182335</v>
       </c>
       <c r="D26" t="n">
-        <v>1.00228559319125</v>
+        <v>1.00094593870373</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00145168906290561</v>
+        <v>0.000904602094599328</v>
       </c>
       <c r="F26" t="n">
-        <v>2.26884083184394</v>
+        <v>1.50790721132204</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0234902014926059</v>
+        <v>0.131730140729112</v>
       </c>
       <c r="H26" t="n">
-        <v>1001.00000052175</v>
+        <v>2080.00000090994</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00057532050995322</v>
+        <v>0.000461114839073393</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
@@ -1829,10 +1763,10 @@
         <v>64</v>
       </c>
       <c r="L26" t="n">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0479200110449161</v>
+        <v>0.210768225166578</v>
       </c>
       <c r="N26" t="n">
         <v>1</v>
@@ -1846,25 +1780,25 @@
         <v>15</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.00307991560806911</v>
+        <v>0.00203588656377499</v>
       </c>
       <c r="D27" t="n">
-        <v>0.997867442319032</v>
+        <v>1.00141216519917</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00154832995863287</v>
+        <v>0.00147894441686325</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.98918556790608</v>
+        <v>1.37658085088348</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0467989491863145</v>
+        <v>0.168825630341102</v>
       </c>
       <c r="H27" t="n">
-        <v>2300.99999998884</v>
+        <v>1677.00000023004</v>
       </c>
       <c r="I27" t="n">
-        <v>0.00149353388667844</v>
+        <v>0.000995210847617794</v>
       </c>
       <c r="J27" t="b">
         <v>0</v>
@@ -1873,10 +1807,10 @@
         <v>66</v>
       </c>
       <c r="L27" t="n">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="M27" t="n">
-        <v>0.09179793878854</v>
+        <v>0.259731738986311</v>
       </c>
       <c r="N27" t="n">
         <v>1</v>
@@ -1890,25 +1824,25 @@
         <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0129731517677014</v>
+        <v>0.004589663365029</v>
       </c>
       <c r="D28" t="n">
-        <v>1.00903285579401</v>
+        <v>1.00318637796539</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00644051709913066</v>
+        <v>0.00361418487844197</v>
       </c>
       <c r="F28" t="n">
-        <v>2.01430282196635</v>
+        <v>1.26990276352646</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0491637545351077</v>
+        <v>0.204624157318051</v>
       </c>
       <c r="H28" t="n">
-        <v>52.0000000024641</v>
+        <v>585.000000065892</v>
       </c>
       <c r="I28" t="n">
-        <v>0.000725904558823402</v>
+        <v>0.00210303550602494</v>
       </c>
       <c r="J28" t="b">
         <v>0</v>
@@ -1917,10 +1851,10 @@
         <v>68</v>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0926238674215156</v>
+        <v>0.295978277028817</v>
       </c>
       <c r="N28" t="n">
         <v>1</v>
@@ -1934,25 +1868,25 @@
         <v>15</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00198811831277951</v>
+        <v>-0.00541598311490503</v>
       </c>
       <c r="D29" t="n">
-        <v>1.0013790085622</v>
+        <v>0.996252964298122</v>
       </c>
       <c r="E29" t="n">
-        <v>0.00101779730505084</v>
+        <v>0.00427735921838441</v>
       </c>
       <c r="F29" t="n">
-        <v>1.95335387794153</v>
+        <v>-1.26619786611017</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0508523193686752</v>
+        <v>0.207184793920172</v>
       </c>
       <c r="H29" t="n">
-        <v>3731.00001860795</v>
+        <v>169.000000088776</v>
       </c>
       <c r="I29" t="n">
-        <v>0.00104419864500211</v>
+        <v>0.000896494292271808</v>
       </c>
       <c r="J29" t="b">
         <v>0</v>
@@ -1961,10 +1895,10 @@
         <v>70</v>
       </c>
       <c r="L29" t="n">
-        <v>288</v>
+        <v>14</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0926238674215156</v>
+        <v>0.295978277028817</v>
       </c>
       <c r="N29" t="n">
         <v>1</v>
@@ -1978,25 +1912,25 @@
         <v>15</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0115114083842638</v>
+        <v>0.000995930436299808</v>
       </c>
       <c r="D30" t="n">
-        <v>1.0080110181218</v>
+        <v>1.00069056470404</v>
       </c>
       <c r="E30" t="n">
-        <v>0.00626868921468354</v>
+        <v>0.000866211113239279</v>
       </c>
       <c r="F30" t="n">
-        <v>1.83633419843178</v>
+        <v>1.14975485892282</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0679395945341316</v>
+        <v>0.250325576266257</v>
       </c>
       <c r="H30" t="n">
-        <v>182.000000297606</v>
+        <v>3406.00000081132</v>
       </c>
       <c r="I30" t="n">
-        <v>0.00206306438469022</v>
+        <v>0.000690671118129641</v>
       </c>
       <c r="J30" t="b">
         <v>0</v>
@@ -2005,10 +1939,10 @@
         <v>72</v>
       </c>
       <c r="L30" t="n">
-        <v>15</v>
+        <v>263</v>
       </c>
       <c r="M30" t="n">
-        <v>0.119479976594507</v>
+        <v>0.345276656918975</v>
       </c>
       <c r="N30" t="n">
         <v>1</v>
@@ -2022,25 +1956,25 @@
         <v>15</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.0186260347429247</v>
+        <v>-0.00285179547919995</v>
       </c>
       <c r="D31" t="n">
-        <v>0.987172400607494</v>
+        <v>0.998025238416504</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0104220069854915</v>
+        <v>0.00286602376185561</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.78718309907621</v>
+        <v>-0.99503553220841</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0772373599843343</v>
+        <v>0.320560090244503</v>
       </c>
       <c r="H31" t="n">
-        <v>91.0000000134108</v>
+        <v>286.000000123598</v>
       </c>
       <c r="I31" t="n">
-        <v>0.00304131042895777</v>
+        <v>0.00066123442238344</v>
       </c>
       <c r="J31" t="b">
         <v>0</v>
@@ -2049,10 +1983,10 @@
         <v>74</v>
       </c>
       <c r="L31" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="M31" t="n">
-        <v>0.12956099195466</v>
+        <v>0.427413453659338</v>
       </c>
       <c r="N31" t="n">
         <v>1</v>
@@ -2066,25 +2000,25 @@
         <v>15</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.00187130019050957</v>
+        <v>-0.001324178161935</v>
       </c>
       <c r="D32" t="n">
-        <v>0.998703754402005</v>
+        <v>0.999082570736293</v>
       </c>
       <c r="E32" t="n">
-        <v>0.00106465527041192</v>
+        <v>0.00146857394574876</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.75765831674844</v>
+        <v>-0.901676191224994</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0790176794286073</v>
+        <v>0.367341004355313</v>
       </c>
       <c r="H32" t="n">
-        <v>1443.00000092353</v>
+        <v>1936.99999998009</v>
       </c>
       <c r="I32" t="n">
-        <v>0.000444328411167823</v>
+        <v>0.00113227245291934</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
@@ -2093,10 +2027,10 @@
         <v>76</v>
       </c>
       <c r="L32" t="n">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="M32" t="n">
-        <v>0.12956099195466</v>
+        <v>0.46153701034691</v>
       </c>
       <c r="N32" t="n">
         <v>1</v>
@@ -2110,25 +2044,25 @@
         <v>15</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.00675697014023088</v>
+        <v>0.0012172089992487</v>
       </c>
       <c r="D33" t="n">
-        <v>0.995327376031614</v>
+        <v>1.00084406100515</v>
       </c>
       <c r="E33" t="n">
-        <v>0.00385102945673377</v>
+        <v>0.00137174261209837</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.7545880176055</v>
+        <v>0.887345037263742</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0812931714225318</v>
+        <v>0.374970959715332</v>
       </c>
       <c r="H33" t="n">
-        <v>156.000000021398</v>
+        <v>2743.00000007612</v>
       </c>
       <c r="I33" t="n">
-        <v>0.000674784468386721</v>
+        <v>0.00139620492303408</v>
       </c>
       <c r="J33" t="b">
         <v>0</v>
@@ -2137,10 +2071,10 @@
         <v>78</v>
       </c>
       <c r="L33" t="n">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="M33" t="n">
-        <v>0.12956099195466</v>
+        <v>0.46153701034691</v>
       </c>
       <c r="N33" t="n">
         <v>1</v>
@@ -2154,25 +2088,25 @@
         <v>15</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00885269999790447</v>
+        <v>-0.000644013464208573</v>
       </c>
       <c r="D34" t="n">
-        <v>1.00615508923392</v>
+        <v>0.999553703502964</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00568438896563294</v>
+        <v>0.000734688125977757</v>
       </c>
       <c r="F34" t="n">
-        <v>1.55737055494033</v>
+        <v>-0.876580744178341</v>
       </c>
       <c r="G34" t="n">
-        <v>0.122420508466616</v>
+        <v>0.3807680335362</v>
       </c>
       <c r="H34" t="n">
-        <v>104.000000021716</v>
+        <v>3926.00001757373</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0010178367542472</v>
+        <v>0.000572422524321097</v>
       </c>
       <c r="J34" t="b">
         <v>0</v>
@@ -2181,10 +2115,10 @@
         <v>80</v>
       </c>
       <c r="L34" t="n">
-        <v>9</v>
+        <v>303</v>
       </c>
       <c r="M34" t="n">
-        <v>0.189195331266588</v>
+        <v>0.46153701034691</v>
       </c>
       <c r="N34" t="n">
         <v>1</v>
@@ -2198,25 +2132,25 @@
         <v>15</v>
       </c>
       <c r="C35" t="n">
-        <v>0.00136405602182335</v>
+        <v>0.00221426267027094</v>
       </c>
       <c r="D35" t="n">
-        <v>1.00094593870373</v>
+        <v>1.00153598835048</v>
       </c>
       <c r="E35" t="n">
-        <v>0.000904602094599328</v>
+        <v>0.00337446074494371</v>
       </c>
       <c r="F35" t="n">
-        <v>1.50790721132204</v>
+        <v>0.656182672620743</v>
       </c>
       <c r="G35" t="n">
-        <v>0.131730140729112</v>
+        <v>0.512121168021477</v>
       </c>
       <c r="H35" t="n">
-        <v>2080.00000090994</v>
+        <v>364.000000134458</v>
       </c>
       <c r="I35" t="n">
-        <v>0.000461114839073393</v>
+        <v>0.00115577900989535</v>
       </c>
       <c r="J35" t="b">
         <v>0</v>
@@ -2225,10 +2159,10 @@
         <v>82</v>
       </c>
       <c r="L35" t="n">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="M35" t="n">
-        <v>0.197595211093667</v>
+        <v>0.602495491789974</v>
       </c>
       <c r="N35" t="n">
         <v>1</v>
@@ -2242,25 +2176,25 @@
         <v>15</v>
       </c>
       <c r="C36" t="n">
-        <v>0.00203588656377499</v>
+        <v>-0.000764538137142418</v>
       </c>
       <c r="D36" t="n">
-        <v>1.00141216519917</v>
+        <v>0.999470202937861</v>
       </c>
       <c r="E36" t="n">
-        <v>0.00147894441686325</v>
+        <v>0.00129409912216885</v>
       </c>
       <c r="F36" t="n">
-        <v>1.37658085088348</v>
+        <v>-0.590787926554718</v>
       </c>
       <c r="G36" t="n">
-        <v>0.168825630341102</v>
+        <v>0.554720221783318</v>
       </c>
       <c r="H36" t="n">
-        <v>1677.00000023004</v>
+        <v>2314.00000027295</v>
       </c>
       <c r="I36" t="n">
-        <v>0.000995210847617794</v>
+        <v>0.00104919487505587</v>
       </c>
       <c r="J36" t="b">
         <v>0</v>
@@ -2269,10 +2203,10 @@
         <v>84</v>
       </c>
       <c r="L36" t="n">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="M36" t="n">
-        <v>0.246003061354178</v>
+        <v>0.633965967752363</v>
       </c>
       <c r="N36" t="n">
         <v>1</v>
@@ -2286,25 +2220,25 @@
         <v>15</v>
       </c>
       <c r="C37" t="n">
-        <v>0.00539023238520961</v>
+        <v>0.000795948585568418</v>
       </c>
       <c r="D37" t="n">
-        <v>1.00374321276736</v>
+        <v>1.00055186173765</v>
       </c>
       <c r="E37" t="n">
-        <v>0.00400132824422045</v>
+        <v>0.00143472028788831</v>
       </c>
       <c r="F37" t="n">
-        <v>1.34711077327767</v>
+        <v>0.554776141585013</v>
       </c>
       <c r="G37" t="n">
-        <v>0.18262227715719</v>
+        <v>0.579078183542896</v>
       </c>
       <c r="H37" t="n">
-        <v>65.0000000391877</v>
+        <v>4082.00000142346</v>
       </c>
       <c r="I37" t="n">
-        <v>0.000336223182077923</v>
+        <v>0.00226941059068736</v>
       </c>
       <c r="J37" t="b">
         <v>0</v>
@@ -2313,10 +2247,10 @@
         <v>86</v>
       </c>
       <c r="L37" t="n">
-        <v>6</v>
+        <v>315</v>
       </c>
       <c r="M37" t="n">
-        <v>0.258714892639352</v>
+        <v>0.643420203936551</v>
       </c>
       <c r="N37" t="n">
         <v>1</v>
@@ -2330,25 +2264,25 @@
         <v>15</v>
       </c>
       <c r="C38" t="n">
-        <v>0.004589663365029</v>
+        <v>0.000493257388389484</v>
       </c>
       <c r="D38" t="n">
-        <v>1.00318637796539</v>
+        <v>1.00034195842251</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00361418487844197</v>
+        <v>0.000998182281985966</v>
       </c>
       <c r="F38" t="n">
-        <v>1.26990276352646</v>
+        <v>0.494155623968909</v>
       </c>
       <c r="G38" t="n">
-        <v>0.204624157318051</v>
+        <v>0.621241163930083</v>
       </c>
       <c r="H38" t="n">
-        <v>585.000000065892</v>
+        <v>2418.00000053515</v>
       </c>
       <c r="I38" t="n">
-        <v>0.00210303550602494</v>
+        <v>0.000652122769652281</v>
       </c>
       <c r="J38" t="b">
         <v>0</v>
@@ -2357,10 +2291,10 @@
         <v>88</v>
       </c>
       <c r="L38" t="n">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="M38" t="n">
-        <v>0.278063802366546</v>
+        <v>0.665487599875406</v>
       </c>
       <c r="N38" t="n">
         <v>1</v>
@@ -2374,25 +2308,25 @@
         <v>15</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.00541598311490503</v>
+        <v>-0.00024632053964066</v>
       </c>
       <c r="D39" t="n">
-        <v>0.996252964298122</v>
+        <v>0.999829278187062</v>
       </c>
       <c r="E39" t="n">
-        <v>0.00427735921838441</v>
+        <v>0.000531122108974405</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.26619786611017</v>
+        <v>-0.463773839346104</v>
       </c>
       <c r="G39" t="n">
-        <v>0.207184793920172</v>
+        <v>0.642826522764122</v>
       </c>
       <c r="H39" t="n">
-        <v>169.000000088776</v>
+        <v>6032.0000017389</v>
       </c>
       <c r="I39" t="n">
-        <v>0.000896494292271808</v>
+        <v>0.000459102605528911</v>
       </c>
       <c r="J39" t="b">
         <v>0</v>
@@ -2401,10 +2335,10 @@
         <v>90</v>
       </c>
       <c r="L39" t="n">
-        <v>14</v>
+        <v>465</v>
       </c>
       <c r="M39" t="n">
-        <v>0.278063802366546</v>
+        <v>0.665487599875406</v>
       </c>
       <c r="N39" t="n">
         <v>1</v>
@@ -2418,25 +2352,25 @@
         <v>15</v>
       </c>
       <c r="C40" t="n">
-        <v>0.000995930436299808</v>
+        <v>-0.000638170098748919</v>
       </c>
       <c r="D40" t="n">
-        <v>1.00069056470404</v>
+        <v>0.999557752015816</v>
       </c>
       <c r="E40" t="n">
-        <v>0.000866211113239279</v>
+        <v>0.00140129215020835</v>
       </c>
       <c r="F40" t="n">
-        <v>1.14975485892282</v>
+        <v>-0.455415452555012</v>
       </c>
       <c r="G40" t="n">
-        <v>0.250325576266257</v>
+        <v>0.648850409878521</v>
       </c>
       <c r="H40" t="n">
-        <v>3406.00000081132</v>
+        <v>2470.00000115108</v>
       </c>
       <c r="I40" t="n">
-        <v>0.000690671118129641</v>
+        <v>0.00131267976292245</v>
       </c>
       <c r="J40" t="b">
         <v>0</v>
@@ -2445,10 +2379,10 @@
         <v>92</v>
       </c>
       <c r="L40" t="n">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="M40" t="n">
-        <v>0.327348830502028</v>
+        <v>0.665487599875406</v>
       </c>
       <c r="N40" t="n">
         <v>1</v>
@@ -2462,25 +2396,25 @@
         <v>15</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.00285179547919995</v>
+        <v>0.000199959058587662</v>
       </c>
       <c r="D41" t="n">
-        <v>0.998025238416504</v>
+        <v>1.00013861066326</v>
       </c>
       <c r="E41" t="n">
-        <v>0.00286602376185561</v>
+        <v>0.00113815664611516</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.99503553220841</v>
+        <v>0.175686764445103</v>
       </c>
       <c r="G41" t="n">
-        <v>0.320560090244503</v>
+        <v>0.86055093547186</v>
       </c>
       <c r="H41" t="n">
-        <v>286.000000123598</v>
+        <v>3263.00002519151</v>
       </c>
       <c r="I41" t="n">
-        <v>0.00066123442238344</v>
+        <v>0.00114254328606677</v>
       </c>
       <c r="J41" t="b">
         <v>0</v>
@@ -2489,496 +2423,12 @@
         <v>94</v>
       </c>
       <c r="L41" t="n">
-        <v>23</v>
+        <v>252</v>
       </c>
       <c r="M41" t="n">
-        <v>0.401751783020657</v>
+        <v>0.86055093547186</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.0123230632542153</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1.00857828093054</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.0123734122285727</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.995930873923272</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.322976923604842</v>
-      </c>
-      <c r="H42" t="n">
-        <v>65.0000010736197</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.00321512793374204</v>
-      </c>
-      <c r="J42" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" t="s">
-        <v>96</v>
-      </c>
-      <c r="L42" t="n">
-        <v>6</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.401751783020657</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" t="n">
-        <v>-0.001324178161935</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.999082570736293</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.00146857394574876</v>
-      </c>
-      <c r="F43" t="n">
-        <v>-0.901676191224994</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.367341004355313</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1936.99999998009</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.00113227245291934</v>
-      </c>
-      <c r="J43" t="b">
-        <v>0</v>
-      </c>
-      <c r="K43" t="s">
-        <v>98</v>
-      </c>
-      <c r="L43" t="n">
-        <v>150</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.441344766144232</v>
-      </c>
-      <c r="N43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.0012172089992487</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1.00084406100515</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.00137174261209837</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.887345037263742</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.374970959715332</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2743.00000007612</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.00139620492303408</v>
-      </c>
-      <c r="J44" t="b">
-        <v>0</v>
-      </c>
-      <c r="K44" t="s">
-        <v>100</v>
-      </c>
-      <c r="L44" t="n">
-        <v>212</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.441344766144232</v>
-      </c>
-      <c r="N44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" t="n">
-        <v>-0.000644013464208573</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.999553703502964</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.000734688125977757</v>
-      </c>
-      <c r="F45" t="n">
-        <v>-0.876580744178341</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.3807680335362</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3926.00001757373</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.000572422524321097</v>
-      </c>
-      <c r="J45" t="b">
-        <v>0</v>
-      </c>
-      <c r="K45" t="s">
-        <v>102</v>
-      </c>
-      <c r="L45" t="n">
-        <v>303</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.441344766144232</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>103</v>
-      </c>
-      <c r="B46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.00221426267027094</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1.00153598835048</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.00337446074494371</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.656182672620743</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.512121168021477</v>
-      </c>
-      <c r="H46" t="n">
-        <v>364.000000134458</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.00115577900989535</v>
-      </c>
-      <c r="J46" t="b">
-        <v>0</v>
-      </c>
-      <c r="K46" t="s">
-        <v>104</v>
-      </c>
-      <c r="L46" t="n">
-        <v>29</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.580403990424341</v>
-      </c>
-      <c r="N46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>105</v>
-      </c>
-      <c r="B47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" t="n">
-        <v>-0.000764538137142418</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.999470202937861</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.00129409912216885</v>
-      </c>
-      <c r="F47" t="n">
-        <v>-0.590787926554718</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.554720221783318</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2314.00000027295</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.00104919487505587</v>
-      </c>
-      <c r="J47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K47" t="s">
-        <v>106</v>
-      </c>
-      <c r="L47" t="n">
-        <v>179</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.615015898064113</v>
-      </c>
-      <c r="N47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>107</v>
-      </c>
-      <c r="B48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.000795948585568418</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1.00055186173765</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.00143472028788831</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.554776141585013</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.579078183542896</v>
-      </c>
-      <c r="H48" t="n">
-        <v>4082.00000142346</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.00226941059068736</v>
-      </c>
-      <c r="J48" t="b">
-        <v>0</v>
-      </c>
-      <c r="K48" t="s">
-        <v>108</v>
-      </c>
-      <c r="L48" t="n">
-        <v>315</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.628361433206121</v>
-      </c>
-      <c r="N48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.000493257388389484</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1.00034195842251</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.000998182281985966</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.494155623968909</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.621241163930083</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2418.00000053515</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.000652122769652281</v>
-      </c>
-      <c r="J49" t="b">
-        <v>0</v>
-      </c>
-      <c r="K49" t="s">
-        <v>110</v>
-      </c>
-      <c r="L49" t="n">
-        <v>187</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.660068736675714</v>
-      </c>
-      <c r="N49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" t="n">
-        <v>-0.00024632053964066</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.999829278187062</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.000531122108974405</v>
-      </c>
-      <c r="F50" t="n">
-        <v>-0.463773839346104</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.642826522764122</v>
-      </c>
-      <c r="H50" t="n">
-        <v>6032.0000017389</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.000459102605528911</v>
-      </c>
-      <c r="J50" t="b">
-        <v>0</v>
-      </c>
-      <c r="K50" t="s">
-        <v>112</v>
-      </c>
-      <c r="L50" t="n">
-        <v>465</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.661827418076091</v>
-      </c>
-      <c r="N50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" t="n">
-        <v>-0.000638170098748919</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.999557752015816</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.00140129215020835</v>
-      </c>
-      <c r="F51" t="n">
-        <v>-0.455415452555012</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.648850409878521</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2470.00000115108</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.00131267976292245</v>
-      </c>
-      <c r="J51" t="b">
-        <v>0</v>
-      </c>
-      <c r="K51" t="s">
-        <v>114</v>
-      </c>
-      <c r="L51" t="n">
-        <v>191</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.661827418076091</v>
-      </c>
-      <c r="N51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>115</v>
-      </c>
-      <c r="B52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.000199959058587662</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1.00013861066326</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.00113815664611516</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.175686764445103</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.86055093547186</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3263.00002519151</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.00114254328606677</v>
-      </c>
-      <c r="J52" t="b">
-        <v>0</v>
-      </c>
-      <c r="K52" t="s">
-        <v>116</v>
-      </c>
-      <c r="L52" t="n">
-        <v>252</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.86055093547186</v>
-      </c>
-      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>

--- a/tables/SWIP_Module_Results.xlsx
+++ b/tables/SWIP_Module_Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">Module</t>
   </si>
@@ -44,9 +44,6 @@
     <t xml:space="preserve">isSingular</t>
   </si>
   <si>
-    <t xml:space="preserve">Proteins</t>
-  </si>
-  <si>
     <t xml:space="preserve">nProts</t>
   </si>
   <si>
@@ -56,79 +53,148 @@
     <t xml:space="preserve">Padjust</t>
   </si>
   <si>
+    <t xml:space="preserve">M4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutant-Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M8</t>
+  </si>
+  <si>
     <t xml:space="preserve">M9</t>
   </si>
   <si>
-    <t xml:space="preserve">Mutant-Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice1|E9Q286; Prx|O55103; Avil|O88398; Cga|P01216; Mbp|P04370; Prl|P06879; Gh|P06880; Mpz|P27573; Ptprm|P28828; A1bg|Q19LI2; Washc4|Q3UMB9; Zranb3|Q6NZP1; Washc2|Q6PGL7; Washc5|Q8C2E7; Washc1|Q8VDD8; Washc3|Q9CR27; Cbln3|Q9JHG0; Tjp2|Q9Z0U1</t>
+    <t xml:space="preserve">M13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M20</t>
   </si>
   <si>
     <t xml:space="preserve">M11</t>
   </si>
   <si>
-    <t xml:space="preserve">Gpld1|O70362; Matn4|O89029; Lgals3|P16110; Ptpn6|P29351; Tmod1|P49813; Ecm1|Q61508; Dock2|Q8C3J5</t>
+    <t xml:space="preserve">M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M5</t>
   </si>
   <si>
     <t xml:space="preserve">M3</t>
   </si>
   <si>
-    <t xml:space="preserve">Cdr2l|A2A6T1; Tmem201|A2A8U2; Fndc10|A2A9Q0; Elapor1|A2AFS3; Ryr3|A2AGL3; Pnpla7|A2AJ88; Dpy19l4|A2AJQ3; Slc35d1|A2AKQ0; Syndig1|A2ANU3; Fsip2|A2ARZ3; Dpy19l1|A6X919; Frrs1l|B1AXV0; Tmem245|B1AZA5; Triqk|B2B9E1; Ece2|B2RQR8; Dock5|B2RY04; Clip3|B9EHT4; Pdzd8|B9EJ80; Osbpl8|B9EJ86; Tmem229a|B9EJI9; Arxes1|C0HK79; Slc35g2|D3YVE8; Vsig10|D3YX43; Mctp1|E9PV86; Ttc17|E9PVB5; Cep350|E9Q309; C2cd2|E9Q3C1; Ube4a|E9Q735; Smim13|E9Q942; Rab11fip2|G3XA57; Poglut3|G5E897; Sec22b|O08547; Rundc3a|O08576; Emd|O08579; Mttp|O08601; Matn2|O08746; Prkcsh|O08795; Prdx4|O08807; Faah|O08914; Degs1|O09005; Ptgds|O09114; Ptgis|O35074; Agpat1|O35083; Bet1l|O35153; Gosr2|O35166; Cx3cl1|O35188; Kcnh2|O35219; Pkd2|O35245; Bok|O35425; Clcn6|O35454; Fkbp8|O35465; Slc27a2|O35488; Bet1|O35623; Serpini1|O35684; Sptlc1|O35704; Calu|O35887; Pitpnm1|O35954; Zw10|O54692; Ddost|O54734; Cyp2j6|O54750; Banf1|O54962; Rnf13|O54965; Get3|O54984; Fkbp7|O54998; Pgrmc1|O55022; Stk10|O55098; Atp2a2|O55143; Rdh5|O55240; Sigmar1|O55242; Tesk1|O70146; Dpm1|O70152; Chrna4|O70174; Atp9a|O70228; Hmox2|O70252; Itgb5|O70309; Emc8|O70378; Stx7|O70439; Tmem131|O70472; Vamp4|O70480; Snx3|O70492; Snx12|O70493; Hsd17b12|O70503; Smpd2|O70572; Sorl1|O88307; Vti1b|O88384; Dhcr7|O88455; Ap1g2|O88512; Slc27a3|O88561; Lrp6|O88572; Comt|O88587; Gosr1|O88630; Ugcg|O88693; Hsd17b7|O88736; F11r|O88792; Fut9|O88819; St3gal5|O88829; Adam15|O88839; Slc22a8|O88909; Stx8|O88983; Cpd|O89001; Leprot|O89013; Abcd4|O89016; Vti1a|O89116; B2m|P01887; H2-D1|P01899; Lamb1|P02469; Araf|P04627; Itgam|P05555; Ptprc|P06800; Enpp1|P06802; Ttr|P07309; Anxa2|P07356; Pdia4|P08003; Fcgr2b|P08101; Hsp90b1|P08113; Itgb1|P09055; P4hb|P09103; Alpl|P09242; Ace|P09470; Csf1r|P09581; Prkg1|P0C605; Ly6c2|P0CW03; Tmem254c|P0DN91; Anxa1|P10107; Bcl2|P10417; Plat|P11214; Itga5|P11688; Itgb2|P11835; Agt|P11859; Itpr1|P11881; App|P12023; Icam1|P13597; Calr|P14211; Lmnb1|P14733; Atp6v0a2|P15920; Chgb|P16014; Lcat|P16301; Enpep|P16406; Lamp2|P17047; Serpinh1|P19324; Hspa5|P20029; Cyp2a5|P20852; Evi2a|P20934; Abcb1a|P21447; Cst3|P21460; Lmnb2|P21619; Pcsk2|P21661; Mfge8|P21956; Tap1|P21958; Ptgs1|P22437; Ap1g1|P22892; Prkch|P23298; Ppib|P24369; Acp2|P24638; M6pr|P24668; Timp2|P25785; Msn|P26041; Fcgr1|P26151; Chga|P26339; Tgfb2|P27090; Cers1|P27545; Pdia3|P27773; Napb|P28663; Dpp4|P28843; Prkcd|P28867; Ccn2|P29268; Gna15|P30678; Dpep1|P31428; Slc6a13|P31649; Cyp2f2|P33267; Rab5c|P35278; Rab18|P35293; Canx|P35564; Ap1m1|P35585; Ptpn1|P35821; Folr1|P35846; Ldlr|P35951; Tap2|P36371; Tbxas1|P36423; Por|P37040; Fbln2|P37889; Cd82|P40237; Cd9|P40240; Vps26a|P40336; Acsl1|P41216; Abca2|P41234; Dpagt1|P42867; Man1a|P45700; Fkbp2|P45878; Nsf|P46460; Rab11b|P46638; Myo1b|P46735; Stt3a|P46978; Aldh3a2|P47740; Srprb|P47758; Scg3|P47867; Igfbp4|P47879; Abcd1|P48410; Kcnj9|P48543; Lmna|P48678; Caml|P49070; Cav1|P49817; Hsd11b1|P50172; Fmo1|P50285; Sts|P50427; S100a11|P50543; Rab7|P51150; Clcn3|P51791; Slc1a1|P51906; Sqle|P52019; Clgn|P52194; Efna1|P52793; Fdft1|P53798; Rab2a|P53994; Ptpn5|P54830; Lrpap1|P55302; Entpd1|P55772; Rab4a|P56371; Cyb5a|P56395; Cckbr|P56481; Wfs1|P56695; Bace1|P56818; Erp29|P57759; Tm9sf2|P58021; Aaas|P58742; Rab2b|P59279; Lman2l|P59481; Ube2g2|P60605; Megf8|P60882; Rab5b|P61021; Chp1|P61022; Rab10|P61027; Gal3st3|P61315; Sec61a1|P61620; Dad1|P61804; Snn|P61807; Ap1s1|P61967; Selenot|P62342; H4c1|P62806; Rab1a|P62821; Pcsk1|P63239; St8sia5|P70126; Fv1|P70213; Vamp7|P70280; Aup1|P70295; Stim1|P70302; Ext2|P70428; Sparcl1|P70663; Ptprn2|P80560; Nucb2|P81117; Stim2|P83093; H3f3a|P84244; Sptlc2|P97363; Vps45|P97390; Anpep|P97449; Pam|P97467; Adra1b|P97717; Cpt1a|P97742; Mllt11|P97783; Nrsn1|P97799; Fmo5|P97872; Dab2|P98078; Dgcr2|P98154; Vldlr|P98156; Cds1|P98191; Atp9b|P98195; Atp11a|P98197; Atp8a2|P98200; Flt3|Q00342; Cpe|Q00493; Rbp4|Q00724; Hmgcr|Q01237; Apoh|Q01339; Col6a2|Q02788; Nucb1|Q02819; Aplp1|Q03157; Scg2|Q03517; Rac2|Q05144; Rcn1|Q05186; Ptpn2|Q06180; Aplp2|Q06335; Igfbp5|Q07079; Igf2r|Q07113; Mest|Q07646; Fbln1|Q08879; B4galnt1|Q09200; Unc79|Q0KK59; Rundc1|Q0VDN7; Vgf|Q0VGU4; Dnajb14|Q149L6; Edem3|Q2HXL6; Pi4k2a|Q2TBE6; Cd163|Q2VLH6; Nell1|Q2VWQ2; Slc39a7|Q31125; Emc10|Q3TAS6; Faf2|Q3TDN2; Stt3b|Q3TDQ1; Rnf157|Q3TEL6; Lpcat1|Q3TFD2; Spryd7|Q3TFQ1; Tmem38a|Q3TMP8; Ctdnep1|Q3TP92; Ankmy2|Q3TPE9; Pnpla6|Q3TRM4; Pomk|Q3TUA9; Ccdc136|Q3TVA9; Pbxip1|Q3TVI8; Otulinl|Q3TVP5; Tmem63b|Q3TWI9; Pip4p1|Q3TWL2; Lmtk2|Q3TYD6; Tmem88b|Q3TYP4; Cybc1|Q3TYS2; Alg11|Q3TZM9; Esyt2|Q3TZZ7; Srebf2|Q3U1N2; Uevld|Q3U1V6; Lmf1|Q3U3R4; Xxylt1|Q3U4G3; Esyt1|Q3U7R1; Lbr|Q3U9G9; Pid1|Q3UBG2; Tmem109|Q3UBX0; Yipf3|Q3UDR8; Hgsnat|Q3UDW8; Rnft2|Q3UF64; Alg10b|Q3UGP8; Nat8l|Q3UGX3; Snx27|Q3UHD6; Pitpnm3|Q3UHE1; Dennd11|Q3UHG7; Gxylt1|Q3UHH8; Tmed8|Q3UHI4; Slc2a13|Q3UHK1; Ndst1|Q3UHN9; Lsg1|Q3UM18; Lclat1|Q3UN02; Prrc1|Q3UPH1; Slmap|Q3URD3; Dipk2a|Q3USZ8; Pgap1|Q3UUQ7; Tmtc1|Q3UV71; Ermp1|Q3UVK0; Ankrd13c|Q3UX43; Elapor2|Q3UZV7; Endou|Q3V188; Elmod1|Q3V1U8; Tmub2|Q3V209; Vezt|Q3ZK22; Odr4|Q4PJX1; Ece1|Q4PZA2; Trp53i11|Q4QQM4; Sez6l2|Q4V9Z5; Dscaml1|Q4VA61; Tapt1|Q4VBD2; Slc22a15|Q504N2; Lrig2|Q52KR2; Spag9|Q58A65; Pex1|Q5BL07; Pcnx2|Q5DU28; Vps41|Q5KU39; Pigh|Q5M9N4; Fa2h|Q5MPP0; Mief2|Q5NCS9; Rasef|Q5RI75; Dhrs13|Q5SS80; Cyb5d2|Q5SSH8; Synrg|Q5SV85; Shroom1|Q5SX79; 2610507B11Rik|Q5SYL3; D130043K22Rik|Q5SZV5; Mfsd3|Q5U419; Bloc1s3|Q5U5M8; Lmtk3|Q5XJV6; Jagn1|Q5XKN4; Sema5b|Q60519; Ptprn|Q60673; Map3k12|Q60700; Slc27a1|Q60714; P4ha1|Q60715; Reep5|Q60870; Ggt1|Q60928; Cyp7b1|Q60991; Tmpo|Q61029; Ei24|Q61070; Adam9|Q61072; Sdf4|Q61112; Cp|Q61147; Nell2|Q61220; Soat1|Q61263; Bcap29|Q61334; Bcap31|Q61335; Clcn4|Q61418; Fcgrt|Q61559; Ktn1|Q61595; Itga7|Q61738; Itga6|Q61739; Lrrn1|Q61809; Ltbp3|Q61810; Mrc1|Q61830; Pon2|Q62086; Pon3|Q62087; Ssr4|Q62186; Sema5a|Q62217; Shh|Q62226; Slc26a2|Q62273; Spock1|Q62288; Tgoln1|Q62313; Tfrc|Q62351; Fstl1|Q62356; Ndrg1|Q62433; Nptx1|Q62443; Itga3|Q62470; Ccpg1|Q640L3; Ccn3|Q64299; Surf4|Q64310; Npdc1|Q64322; Piga|Q64323; Pnoc|Q64387; Atp7a|Q64430; Mrc2|Q64449; Atp2a3|Q64518; Ugt8a|Q64676; St8sia3|Q64689; Atg9a|Q68FE2; Tmem151b|Q68FE7; Gba2|Q69ZF3; Myof|Q69ZN7; Tmcc1|Q69ZZ6; Atrnl1|Q6A051; Cyp4x1|Q6A152; Sidt1|Q6AXF6; Megf10|Q6DIB5; Wls|Q6DID7; Lemd2|Q6DVA0; Enpp3|Q6DYE8; Scap|Q6GQT6; Nomo1|Q6GQT9; Islr|Q6GU68; Kdsr|Q6GV12; Ephx4|Q6IE26; Chpf|Q6IQX7; Zdhhc24|Q6IR37; G6pc3|Q6NSQ9; Lpcat4|Q6NVG1; Manea|Q6NXH2; Tmem130|Q6NXM3; Ube2j2|Q6P073; Sez6l|Q6P1D5; Ankle2|Q6P1H6; Golm2|Q6P2L7; Uggt1|Q6P5E4; Frmd5|Q6P5H6; Txndc15|Q6P6J9; Atl2|Q6PA06; Ano8|Q6PB70; Pigs|Q6PD26; Rundc3b|Q6PDC0; Mon1a|Q6PDG8; Cachd1|Q6PDJ1; Vstm2l|Q6PDS0; Atraid|Q6PGD0; Snx13|Q6PHS6; Sort1|Q6PHU5; Bnip1|Q6QD59; Paqr9|Q6TCG2; Vkorc1l1|Q6TEK5; Fmnl3|Q6ZPF4; Pitpnm2|Q6ZPQ6; Smpd4|Q6ZPR5; Marchf6|Q6ZQ89; Mlec|Q6ZQI3; Spcs3|Q6ZWQ7; Dpy19l3|Q71B07; Tm7sf2|Q71KT5; Tmed3|Q78IS1; Snd1|Q78PY7; Vma21|Q78T54; Picalm|Q7M6Y3; Txndc16|Q7TN22; Casd1|Q7TN73; Tlcd3b|Q7TNV1; Lnpk|Q7TQ95; Maco1|Q7TQE6; Kcnf1|Q7TSH7; Sez6|Q7TSK2; Adgra3|Q7TT36; Mib1|Q80SY4; Gramd1b|Q80TI0; Dnajc16|Q80TN4; Zdhhc17|Q80TN5; Slit1|Q80TR4; Sel1l3|Q80TS8; Fads6|Q80UG1; Mogs|Q80UM7; Pgrmc2|Q80UU9; Hs6st2|Q80UW0; Abhd13|Q80UX8; Bpnt2|Q80V26; Cpm|Q80V42; Tmcc2|Q80W04; Zmpste24|Q80W54; Mtdh|Q80WJ7; Jph4|Q80WT0; Ddrgk1|Q80WW9; Tmem167b|Q80X45; Tmem106b|Q80X71; C2cd2l|Q80X80; Kxd1|Q80XH1; Atp2c1|Q80XR2; Crb2|Q80YA8; Aatk|Q80YE4; Arl5a|Q80ZU0; Them6|Q80ZW2; Ttc9c|Q810A3; Xylt1|Q811B1; Atg4c|Q811C2; Svop|Q8BFT9; Erlin2|Q8BFZ9; Slc6a15|Q8BG16; Tmtc4|Q8BG19; P4htm|Q8BG58; Creg2|Q8BGC9; Cpt1c|Q8BGD5; Elmod2|Q8BGF6; Pex26|Q8BGI5; Slc35f1|Q8BGK5; 6430571L13Rik|Q8BGK9; Enpp6|Q8BGN3; Nipal3|Q8BGN5; Tmem127|Q8BGP5; Pomt2|Q8BGQ4; Efcab14|Q8BGQ6; Cept1|Q8BGS7; Ostm1|Q8BGT0; Luzp2|Q8BGY3; Tm9sf4|Q8BH24; Megf9|Q8BH27; Wasf2|Q8BH43; Sec22a|Q8BH47; Ehd2|Q8BH64; Qpctl|Q8BH73; Ano10|Q8BH79; Lrrc24|Q8BHA1; Dcakd|Q8BHC4; Fut11|Q8BHC9; Bmp3|Q8BHE5; Rab9b|Q8BHH2; Nipa1|Q8BHK1; Ppm1l|Q8BHN0; Ganab|Q8BHN3; Armcx3|Q8BHS6; Sybu|Q8BHS8; B3glct|Q8BHT6; Snx14|Q8BHY8; Mal2|Q8BI08; Mia3|Q8BI84; Ranbp6|Q8BIV3; Slc45a1|Q8BIV7; Nagpa|Q8BJ48; Tm2d3|Q8BJ83; Itih5|Q8BJD1; Sun2|Q8BJS4; Cyp20a1|Q8BKE6; Spock3|Q8BKV0; Nceh1|Q8BLF1; Lss|Q8BLN5; Unc80|Q8BLN6; Slc7a4|Q8BLQ7; Slc9a7|Q8BLV3; Tmem214|Q8BM55; Hspa13|Q8BM72; Ctso|Q8BM88; Tmem260|Q8BMD6; Ckap4|Q8BMK4; Acbd3|Q8BMP6; Derl2|Q8BNI4; Adamts4|Q8BNJ2; Nmnat2|Q8BNJ3; Rcn2|Q8BP92; Sumf2|Q8BPG6; Ric3|Q8BPM6; Cnpy4|Q8BQ47; Bicd1|Q8BR07; Yipf6|Q8BR70; Scfd1|Q8BRF7; Tmtc3|Q8BRH0; Man2a2|Q8BRK9; Gpr89|Q8BS95; Asph|Q8BSY0; Enpp4|Q8BTJ4; Pigz|Q8BTP0; Tusc3|Q8BTV1; Scfd2|Q8BTY8; Ankrd46|Q8BTZ5; Sec62|Q8BU14; Ilvbl|Q8BU33; Gpr107|Q8BUV8; Nat14|Q8BVG8; Stx16|Q8BVI5; Pomgnt2|Q8BW41; Steap2|Q8BWB6; Fam131a|Q8BWU3; Slc39a11|Q8BWY7; Fndc3a|Q8BX90; Osbpl2|Q8BX94; Golim4|Q8BXA1; Clptm1l|Q8BXA5; Slco2b1|Q8BXB6; Tmem62|Q8BXJ9; Arfrp1|Q8BXL7; Tmem87a|Q8BXN9; Pigt|Q8BXQ2; Nalcn|Q8BXR5; Bri3bp|Q8BXV2; Tmx3|Q8BXZ1; Poglut1|Q8BYB9; Fam234b|Q8BYI8; Rdh12|Q8BYK4; Eogt|Q8BYW9; Abi3|Q8BYZ1; Rint1|Q8BZ36; Dhx32|Q8BZS9; Chpt1|Q8C025; Vps26b|Q8C0E2; Agps|Q8C0I1; Tmx4|Q8C0L0; Gpat3|Q8C0N2; Lnpep|Q8C129; Pm20d1|Q8C165; Cers6|Q8C172; Tmem120a|Q8C1E7; Ccz1|Q8C1Y8; Tmem161b|Q8C2L6; Suco|Q8C341; Rft1|Q8C3B8; Lmf2|Q8C3X8; Tmem145|Q8C4U2; Lmbrd2|Q8C561; Usp20|Q8C6M1; Stbd1|Q8C7E7; Pcyox1l|Q8C7K6; Ccdc134|Q8C7V8; Emc1|Q8C7X2; Itch|Q8C863; Adamts2|Q8C9W3; Podxl2|Q8CAE9; Gramd4|Q8CB44; Lrp11|Q8CB67; Slfn5|Q8CBA2; Cnst|Q8CBC4; Lrrn3|Q8CBC6; Rnf170|Q8CBG9; Mfsd6|Q8CBH5; Tmem63c|Q8CBX0; Ufl1|Q8CCJ3; Slc35e1|Q8CD26; Kctd2|Q8CEZ0; Slc38a2|Q8CFE6; Sulf2|Q8CFG0; H6pd|Q8CFX1; Tlcd4|Q8CGF5; Arel1|Q8CHG5; Mboat7|Q8CHK3; Stoml1|Q8CI66; Tmem230|Q8CIB6; Sidt2|Q8CIF6; Cyp2d26|Q8CIM7; Disp2|Q8CIP5; Tmem259|Q8CIV2; Crocc|Q8CJ40; Cmtm4|Q8CJ61; Dner|Q8JZM4; Acsl5|Q8JZR0; Scamp1|Q8K021; Lmbrd1|Q8K0B2; Cyp51|Q8K0C4; Get1|Q8K0D7; AU040320|Q8K135; Saysd1|Q8K190; Tmem41b|Q8K1A5; Stx5a|Q8K1E0; Nckap1l|Q8K1X4; 9530068E07Rik|Q8K201; Mmgt1|Q8K273; Colgalt1|Q8K297; Gulp1|Q8K2A1; Alg3|Q8K2A8; Os9|Q8K2C7; Gpat4|Q8K2C8; Hacd3|Q8K2C9; Slc38a1|Q8K2P7; Txndc11|Q8K2W3; Pigu|Q8K358; Abca8b|Q8K440; Abca5|Q8K448; Abca9|Q8K449; Slc36a1|Q8K4D3; Colec12|Q8K4Q8; Agpat4|Q8K4X7; Tram1l1|Q8QZR0; C1qtnf4|Q8R066; Bfar|Q8R079; Sumf1|Q8R0F3; Sgpl1|Q8R0X7; Sccpdh|Q8R127; Slc29a4|Q8R139; Pttg1ip|Q8R143; Ero1a|Q8R180; Ubac2|Q8R1K1; Tmed4|Q8R1V4; Spg20|Q8R1X6; Rnf121|Q8R1Z9; Adap2|Q8R2V5; Abhd6|Q8R2Y0; Mcam|Q8R2Y2; Dolk|Q8R2Y3; Tmcc3|Q8R310; Rab11fip5|Q8R361; Mboat2|Q8R3I2; Saraf|Q8R3Q0; Plaat3|Q8R3U1; Atp2a1|Q8R429; Slc9a8|Q8R4D1; Slc30a5|Q8R4H9; Stab1|Q8R4Y4; Arl6ip5|Q8R5J9; Usp33|Q8R5K2; Vps39|Q8R5L3; Tmx1|Q8VBT0; Dhrsx|Q8VBZ0; Clptm1|Q8VBZ3; Rmc1|Q8VC42; Slc22a6|Q8VC69; Dhcr24|Q8VCH6; Rdh10|Q8VCH7; Ubxn4|Q8VCH8; Ncln|Q8VCM8; Tmem97|Q8VD00; Tapbpl|Q8VD31; Fyco1|Q8VDC1; Alg9|Q8VDI9; Adpgk|Q8VDL4; Cdipt|Q8VDP6; Stx18|Q8VDS8; Ccdc115|Q8VE99; Gramd1a|Q8VEF1; Arl8a|Q8VEH3; Erlec1|Q8VEH8; Tmem30a|Q8VEK0; Rhbdd2|Q8VEK2; Mospd1|Q8VEL0; Selenom|Q8VHC3; Sec63|Q8VHE0; Pofut2|Q8VHI3; Lpcat3|Q91V01; Rab14|Q91V41; Slc27a4|Q91VE0; Mgst1|Q91VS7; Fam3c|Q91VU0; Tmem168|Q91VX9; Rusf1|Q91W34; Ncoa5|Q91W39; Txndc5|Q91W90; Plpp7|Q91WB2; Acsl6|Q91WC3; Gpr108|Q91WD0; BC031181|Q91WE4; Cdkal1|Q91WE6; Wwox|Q91WL8; Serpina3n|Q91WP6; Erlin1|Q91X78; Creld1|Q91XD7; Tmem205|Q91XE8; Rnf167|Q91XF4; Pcdhb18|Q91Y02; Trpm2|Q91YD4; Atl3|Q91YH5; Rpn1|Q91YQ5; Rnf185|Q91YT2; Tmem63a|Q91YT8; Dnajc3|Q91YW3; Lpgat1|Q91YX5; Abhd3|Q91ZH7; Slc35b2|Q91ZN5; Rab4b|Q91ZR1; Mia2|Q91ZV0; Plxdc1|Q91ZV7; Pofut1|Q91ZW2; Lrp1|Q91ZX7; Fads1|Q920L1; B3galnt1|Q920V1; Acaa1a|Q921H8; Trf|Q921I1; Tmco1|Q921L3; Golga2|Q921M4; Alg1|Q921Q3; Dnajc14|Q921R4; Slc41a3|Q921R8; Tor1aip1|Q921T2; Chmp1a|Q921W0; Mfsd5|Q921Y4; Tspan2|Q922J6; Far1|Q922J9; Lrrc59|Q922Q8; Chid1|Q922Q9; Pdia6|Q922R8; Cers2|Q924Z4; Ghdc|Q99J23; Slc33a1|Q99J27; Derl1|Q99J56; Nptxr|Q99J85; Clstn3|Q99JH7; Kdelr1|Q99JH8; Ggt7|Q99JP7; Tlcd1|Q99JT6; Abhd17a|Q99JW1; Ufsp2|Q99K23; Tmed9|Q99KF1; Emc3|Q99KI3; Reep3|Q99KK1; Clint1|Q99KN9; Vmp1|Q99KU0; Dnajb11|Q99KV1; Itfg1|Q99KW9; Dhrs1|Q99L04; Cds2|Q99L43; Pex6|Q99LC9; Ptdss1|Q99LH2; Clcc1|Q99LI2; Gpx7|Q99LJ6; Cdk5rap3|Q99LM2; Abhd12|Q99LR1; St7|Q99M96; Dipk1b|Q99ML4; Col25a1|Q99MQ5; Slc12a9|Q99MR3; Nup155|Q99P88; Slc24a3|Q99PD7; Rrbp1|Q99PL5; Scd3|Q99PL7; Mydgf|Q9CPT4; Zdhhc6|Q9CPV7; P2ry12|Q9CPV9; Nenf|Q9CQ45; Use1|Q9CQ56; Tspan31|Q9CQ88; Cisd2|Q9CQB5; Spg21|Q9CQC8; Ergic3|Q9CQE7; Pcyox1|Q9CQF9; Tmem147|Q9CQG6; Sec61b|Q9CQS8; Txndc12|Q9CQU0; Rer1|Q9CQU3; Emc6|Q9CQW0; Arl8b|Q9CQW2; Magt1|Q9CQY5; Ier3ip1|Q9CR20; Tmem9|Q9CR23; Golt1b|Q9CR60; Tmem167|Q9CR64; Tmem33|Q9CR67; Ergic2|Q9CR89; Golph3|Q9CRA5; Emc2|Q9CRD2; Gdpd1|Q9CRY7; Smurf1|Q9CUN6; B3gat1|Q9CW73; Snx2|Q9CWK8; Mospd2|Q9CWP6; 2410004B18Rik|Q9CWU4; Napg|Q9CWZ7; Yif1b|Q9CX30; Armcx1|Q9CX83; Cyp2u1|Q9CX98; Tmed5|Q9CXE7; Manf|Q9CXI5; Dhrs7|Q9CXR1; Pigk|Q9CXY9; Tecr|Q9CY27; Ssr1|Q9CY50; Creld2|Q9CYA0; Prxl2a|Q9CYH2; Qpct|Q9CYK2; Spcs2|Q9CYN2; Atp6ap2|Q9CYN9; Dnajc18|Q9CZJ9; Fbxl20|Q9CZV8; Acsl3|Q9CZW4; Emc4|Q9CZX9; Ccdc47|Q9D024; Lman1|Q9D0F3; Pex13|Q9D0K1; Tmem53|Q9D0Z3; Ogfod3|Q9D136; Ccdc167|Q9D162; Tmed10|Q9D1D4; Cthrc1|Q9D1D6; Rab1b|Q9D1G1; Hhatl|Q9D1G3; Fkbp11|Q9D1M7; Erp44|Q9D1Q6; Tmem50b|Q9D1X9; Tmbim6|Q9D2C7; Rnf128|Q9D304; Tmem35a|Q9D328; Ephx1|Q9D379; Hacd2|Q9D3B1; Fam174a|Q9D3L0; Plpp6|Q9D4F2; Etnk1|Q9D4V0; Rabl3|Q9D4V7; Agpat3|Q9D517; Wdr20rt|Q9D5R2; Rab11fip1|Q9D620; Vsir|Q9D659; Cers4|Q9D6J1; Borcs6|Q9D6W8; Tmx2|Q9D710; Apmap|Q9D7N9; Tmem68|Q9D850; Fam241b|Q9D882; Aig1|Q9D8B1; Tspan13|Q9D8C2; Tvp23b|Q9D8T4; Tmem41a|Q9D8U2; Snx5|Q9D8U8; H13|Q9D8V0; Sec11c|Q9D8V7; Slc22a17|Q9D9E0; Usp12|Q9D9M2; Samd8|Q9DA37; Cnpy3|Q9DAU1; Tmem38b|Q9DAV9; Napa|Q9DB05; Alg5|Q9DB25; Ap1s2|Q9DB50; Alg2|Q9DBE8; Plin3|Q9DBG5; Rpn2|Q9DBG6; Srpr|Q9DBG7; Lman2|Q9DBH5; Baiap2l1|Q9DBJ3; Tmem43|Q9DBS1; Cyp2s1|Q9DBX6; Syvn1|Q9DBY1; Plxdc2|Q9DC11; Ergic1|Q9DC16; Dnajc10|Q9DC23; Ssr3|Q9DCF9; Cyb5r3|Q9DCN2; Sdf2|Q9DCT5; Sacm1l|Q9EP69; Emc7|Q9EP72; Cyp4f14|Q9EP75; Slco1a4|Q9EP96; Atp13a1|Q9EPE9; Sil1|Q9EPK6; Clstn1|Q9EPL2; Mettl9|Q9EPL4; Sorcs2|Q9EPR5; Hsd17b11|Q9EQ06; Chst1|Q9EQC0; Elovl4|Q9EQC4; Enpp5|Q9EQG7; Erap1|Q9EQH2; Vps35|Q9EQH3; Tpcn1|Q9EQJ0; Icmt|Q9EQK7; Yipf5|Q9EQQ2; Syt13|Q9EQT6; Stx12|Q9ER00; Tor1a|Q9ER39; Tor1b|Q9ER41; Spock2|Q9ER58; Osbpl5|Q9ER64; Clstn2|Q9ER65; Mesd|Q9ERE7; Scamp2|Q9ERN0; Selenof|Q9ERR7; Erg28|Q9ERY9; Extl2|Q9ES89; Sdf2l1|Q9ESP1; Gtf2i|Q9ESZ8; Jph3|Q9ET77; Jph1|Q9ET80; Glmp|Q9JHJ3; Plek|Q9JHK5; Cwc15|Q9JHS9; Ank|Q9JHZ2; Sgpp1|Q9JI99; Praf2|Q9JIG8; Slc12a4|Q9JIS8; Galnt16|Q9JJ61; Herpud2|Q9JJC9; Paqr4|Q9JJE4; Fads3|Q9JJE7; Tacc2|Q9JJG0; Pigo|Q9JJI6; Porcn|Q9JJJ7; Tmem9b|Q9JJR8; Ube2j1|Q9JJZ4; Stx6|Q9JKK1; Slc30a7|Q9JKN1; Hyou1|Q9JKR6; Ldb3|Q9JKS4; Scamp4|Q9JKV5; Gde1|Q9JL56; Gltp|Q9JL62; Sorcs1|Q9JLC4; Selenok|Q9JLJ1; Elovl1|Q9JLJ5; Crim1|Q9JLL0; Sec61a2|Q9JLR1; Dolpp1|Q9JMF7; Tmub1|Q9JMG3; Acsl4|Q9QUJ7; Cln8|Q9QUK3; Abhd2|Q9QXM0; Cnpy2|Q9QXT0; Pcsk1n|Q9QXV0; Tspan3|Q9QY33; Plxnb3|Q9QY40; Vapb|Q9QY76; Nup210|Q9QY81; Casr|Q9QY96; Rdh11|Q9QYF1; Dnajb12|Q9QYI4; St6galnac5|Q9QYJ1; Hs6st3|Q9QYK4; Hs6st1|Q9QYK5; Ubxn8|Q9QZ49; Vps29|Q9QZ88; Serinc1|Q9QZI8; Macroh2a1|Q9QZQ8; Atp11c|Q9QZW0; Amfr|Q9R049; Tbl2|Q9R099; Plod3|Q9R0E1; Pcm1|Q9R0L6; Podxl|Q9R0M4; Slc35a2|Q9R0M8; Syt11|Q9R0N3; Syt5|Q9R0N5; Sec11a|Q9R0P6; Tmed2|Q9R0Q3; Mpdu1|Q9R0Q9; Htra1|Q9R118; Dgke|Q9R1C6; Enpp2|Q9R1E6; Nsdhl|Q9R1J0; Atp6ap1|Q9R1Q9; Pign|Q9R1S3; Abcc5|Q9R1X5; Tapbp|Q9R233; Myo1c|Q9WTI7; Gpaa1|Q9WTK3; Lemd3|Q9WU40; Sema4g|Q9WUH7; Srd5a3|Q9WUP4; Preb|Q9WUQ2; Entpd5|Q9WUZ9; Slc2a5|Q9WV38; Vapa|Q9WV55; Snx1|Q9WV80; Clcn5|Q9WVD4; Cyp46a1|Q9WVK8; Slc12a7|Q9WVL3; Cx3cr1|Q9Z0D9; Itsn2|Q9Z0R6; Fads2|Q9Z0R9; Rabac1|Q9Z0S9; Sema4f|Q9Z123; Sh3bp5|Q9Z131; Large1|Q9Z1M7; Cd320|Q9Z1P5; Abhd16a|Q9Z1Q2; Ptdss2|Q9Z1X2; Pex11b|Q9Z210; Pld1|Q9Z280; Dgat1|Q9Z2A7; Ggt5|Q9Z2A9; Slc25a14|Q9Z2B2; Eif2ak3|Q9Z2B5; Bscl2|Q9Z2E9; Sel1l|Q9Z2G6; Minpp1|Q9Z2L6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atp6v0c|P63082; Slc30a3|P97441; Ppp2r5e|Q61151; Gdpd5|Q640M6; Map3k10|Q66L42; Slc6a7|Q6PGE7; Avl9|Q80U56; Sv2b|Q8BG39; Slc6a17|Q8BJI1; Tmem163|Q8C996; Syn3|Q8JZP2; Bloc1s4|Q8VED2; Cnih4|Q9CX13; Snx7|Q9CY18; Ttpal|Q9D3D0; Ap4b1|Q9WV76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fam171a2|A2A699; C77080|A2A7S8; Ptprf|A2A8L5; Osbpl9|A2A8Z1; 4932438A13Rik|A2AAE1; Ddi2|A2ADY9; Frmpd4|A2AFR3; Ano3|A2AHL1; Man1b1|A2AJ15; Ajm1|A2AJA9; Fggy|A2AJL3; Frmpd1|A2AKB4; Rap1gap|A2ALS5; Shroom2|A2ALU4; Plch2|A2AP18; Fmnl2|A2APV2; Scn1a|A2APX8; Tubb1|A2AQ07; Ppip5k1|A2ARP1; Slc25a25|A2ASZ8; Rabgap1|A2AWA9; Kalrn|A2CG49; Tyw5|A2RSX7; Fbxl16|A2RT62; Palm3|A2TJV2; Tbc1d8b|A3KGB4; Ttc38|A3KMP2; Mtr|A6H5Y3; Exoc6b|A6H5Z3; Mipep|A6H611; Phrf1|A6H619; Armt1|A6H630; Rabgap1l|A6H6A9; Kcnb2|A6H8H5; Nlgn4l|B0F2B4; Ptprs|B0V2N1; Cisd3|B1AR13; Grik3|B1AS29; Pex10|B1AUE5; Ptpru|B1AUH1; Scn2a|B1AWN6; Gnai1|B2RSH2; Apba1|B2RUJ5; Otud7b|B2RUR8; Tmem240|B2RWJ3; Ankrd44|B2RXR6; Plxnb2|B2RXS4; Ildr2|B5TVM2; Xpnpep3|B7ZMP1; Tmf1|B9EKI3; Rnaset2b|C0HKG6; Akap5|D3YVF0; Ptrhd1|D3Z4S3; Bin2|D3Z6Q9; Gls|D3Z7P3; Prrt2|E9PUL5; Dchs1|E9PVD3; Igsf9b|E9PZ19; Pi4ka|E9Q3L2; Pde8b|E9Q4S1; Xkr6|E9Q6C8; Ttc7b|E9Q6P5; Nrxn2|E9Q7X7; Yjefn3|F6W8I0; Tspan15|F7BWT7; Farp1|F8VPU2; Myo10|F8VQB6; Atp2b1|G5E829; Ank3|G5E8K5; Hk2|O08528; Capn2|O08529; S1pr1|O08530; Cacna2d1|O08532; Bin1|O08539; Dpysl2|O08553; Kcnk1|O08581; Clta|O08585; Pten|O08586; Stxbp1|O08599; Ephb6|O08644; Capn5|O08688; Ngp|O08692; Prdx6|O08709; Akap1|O08715; Casp6|O08738; Unc5c|O08747; Dld|O08749; Hsd17b10|O08756; Gfra2|O08842; Aip|O08915; Flot1|O08917; Mras|O08989; Sdcbp|O08992; Atox1|O08997; Pex5|O09012; Snap23|O09044; Lhb|O09108; Ndufb11|O09111; Sypl|O09117; Sema4d|O09126; Gsto1|O09131; Man2b1|O09159; Casq2|O09161; Gclm|O09172; Amacr|O09174; Cnih2|O35089; Scarb2|O35114; Phb2|O35129; Ncam2|O35136; Atpif1|O35143; Celsr1|O35161; Ddt|O35215; Exoc7|O35250; Slc6a6|O35316; Kpna3|O35344; Capn1|O35350; Nrp2|O35375; Abcc1|O35379; Phyh|O35386; Hax1|O35387; Efnb3|O35393; Pld3|O35405; Folh1|O35409; Pdyn|O35417; Dhodh|O35435; Ppt2|O35448; Prrt1|O35449; Ech1|O35459; Edil3|O35474; Notch2|O35516; Stx1a|O35526; Slc1a6|O35544; Rabep1|O35551; Cd151|O35566; Adam10|O35598; Npc1|O35604; Bmpr2|O35607; Pmm1|O35621; Anxa3|O35639; Neu1|O35657; C1qbp|O35658; Mrps12|O35680; Syt3|O35681; Myadm|O35682; Ndufa1|O35683; Nudc|O35685; Noct|O35710; Bcat2|O35855; Slc1a4|O35874; Ctnnd2|O35927; Rab33b|O35963; Gamt|O35969; Sdc4|O35988; Man2b2|O54782; Rgs7|O54829; Gucy1b1|O54865; Cd200|O54901; Reps1|O54916; Pakap|O54931; Prkag1|O54950; Sema6b|O54951; Crym|O54983; Slk|O54988; Prom1|O54990; Cntnap1|O54991; Bnip3|O55003; Cacna1b|O55017; Impa1|O55023; Entpd2|O55026; Snca|O55042; Tpmt|O55060; Nipsnap1|O55125; Nipsnap2|O55126; Septin7|O55131; Acot1|O55137; Slc6a2|O55192; Chkb|O55229; Ncf2|O70145; Pip5k1c|O70161; Stmn3|O70166; Aif1|O70200; Pgam2|O70250; Sgce|O70258; Epb41l2|O70318; Gpx4|O70325; Nptx2|O70340; Car11|O70354; Ctss|O70370; Pdlim1|O70400; Gnaz|O70443; Slc16a7|O70451; Ubr1|O70481; Clcn7|O70496; Cask|O70589; Pfdn2|O70591; Pde9a|O70628; Ctnnal1|O88327; Wdr1|O88342; Slc4a4|O88343; Tulp3|O88413; Cacna1h|O88427; Mtx2|O88441; Adcy1|O88444; Klc1|O88447; Capns1|O88456; Pde8a|O88502; Cntfr|O88507; Ppt1|O88531; Ddc|O88533; Cacng2|O88602; Usp2|O88623; Pak1|O88643; Emp2|O88662; Clpp|O88696; Hcn2|O88703; Hcn1|O88704; Hcn3|O88705; Ctbp1|O88712; Bsn|O88737; Gdap1|O88741; Tom1|O88746; Stam2|O88811; Shd|O88834; Idh1|O88844; Arl6|O88848; Rbbp9|O88851; Apba3|O88888; Mpp3|O88910; Lin7b|O88951; Lin7c|O88952; Yme1l1|O88967; Olfm1|O88998; Lgmn|O89017; Tpp1|O89023; Robo1|O89026; Sh3pxd2a|O89032; Itm2b|O89051; Coro1a|O89053; Pde4a|O89084; Fhit|O89106; CYTB|P00158; COX1|P00397; COX2|P00405; Hprt|P00493; ATP6|P00848; Car2|P00920; Pomc|P01193; Thy1|P01831; H2-K1|P01901; ND1|P03888; ND2|P03893; ND4|P03911; ND5|P03921; Slc4a1|P04919; Prnp|P04925; Aldoc|P05063; Got1|P05201; Got2|P05202; Src|P05480; Kit|P05532; Pdgfrb|P05622; Ldha|P06151; Gpi1|P06745; Ctsl|P06797; Gap43|P06837; Sparc|P07214; Hsp90aa1|P07901; Aprt|P08030; Hck|P08103; Sod1|P08228; Mdh2|P08249; Camk4|P08414; Nras|P08556; Gnai2|P08752; Pgk1|P09411; Sod2|P09671; Surf1|P09925; Nudt11|P0C028; Chmp6|P0C0A3; Lrrc4b|P0C192; Igsf11|P0C673; Clec2l|P0C7M9; 1500009L16Rik|P0C913; Calm2|P0DP27; Lynx1|P0DP60; Ctsb|P10605; Txn1|P10639; Gstm1|P10649; Rras|P10833; Slc3a2|P10852; Fabp3|P11404; Lamp1|P11438; Hsp90ab1|P11499; Dmd|P11531; L1cam|P11627; Nudt19|P11930; Gusb|P12265; Chrm1|P12657; Calb1|P12658; Cox5a|P12787; Pdcd6|P12815; Cntn1|P12960; Gsn|P13020; Ncam1|P13595; Gpd1|P13707; Slc4a2|P13808; Atp1b1|P14094; Mdh1|P14152; Atp1b2|P14231; Anxa6|P14824; Cdh2|P15116; Insr|P15208; Ntrk2|P15209; Bpgm|P15327; Cd44|P15379; Kcnc1|P15388; Sptb|P15508; Nme1|P15532; Lgals1|P16045; Prkce|P16054; Fgfr1|P16092; Ldhb|P16125; Slc4a3|P16283; Gabra6|P16305; Cnp|P16330; Mmut|P16332; Kcna1|P16388; Kcna3|P16390; Sptan1|P16546; Ctsa|P16675; Gapdh|P16858; Eno1|P17182; Eno2|P17183; Gba|P17439; Selenbp1|P17563; Cox7c|P17665; Hk1|P17710; Ppia|P17742; Tpi1|P17751; Slc2a1|P17809; Ptpra|P18052; Ctsd|P18242; Npr1|P18293; Bsg|P18572; Slc7a2|P18581; Cfl1|P18760; Gnao1|P18872; Dao|P18894; Gstp1|P19157; Mpv17|P19258; Cox5b|P19536; Cox4i1|P19783; Prdx3|P20108; F3|P20352; Prkca|P20444; Mag|P20917; Tpm3|P21107; Gna11|P21278; Gnaq|P21279; Eno3|P21550; Ache|P21836; Emb|P21995; Penk|P22005; Fech|P22315; Gabrg2|P22723; Hmbs|P22907; Gabrd|P22933; Gja1|P23242; Pnp|P23492; Pcmt1|P23506; Gfus|P23591; Glb1|P23780; Gria1|P23818; Gria2|P23819; Cat|P24270; Bcat1|P24288; Gsta4|P24472; Lta4h|P24527; Th|P24529; Aldh1a1|P24549; Nfkb1|P25799; Lyn|P25911; Tln1|P26039; Ezr|P26040; Rdx|P26043; Gabra2|P26048; Gabra3|P26049; Ctnna1|P26231; Marcks|P26645; Fkbp1a|P26883; Gna12|P27600; Gna13|P27601; Mgat1|P27808; Vav1|P27870; Mt3|P28184; Aco1|P28271; Adh5|P28474; Slc6a9|P28571; Nap1l1|P28656; Septin4|P28661; Marcksl1|P28667; Grn|P28798; Gnb4|P29387; Hexa|P29416; Casp1|P29452; Vcam1|P29533; Nedd8|P29595; Oat|P29758; Ppic|P30412; Fkbp4|P30416; Sstr2|P30875; Ctnnd1|P30999; Prkar2b|P31324; Slc6a1|P31648; Slc6a11|P31650; Dbi|P31786; Map2k1|P31938; Scp2|P32020; Slc2a3|P32037; Chrm4|P32211; Nectin2|P32507; Pvalb|P32848; Kras|P32883; Kif1a|P33173; Ranbp1|P34022; Mif|P34884; Ephx2|P34914; Usp4|P35123; Rab6a|P35279; Rab21|P35282; Rab12|P35283; Rab22a|P35285; Rab23|P35288; Rab24|P35290; Agtr2|P35374; Grin2a|P35436; Grin1|P35438; Oxt|P35454; Avp|P35455; Pdha1|P35486; Fah|P35505; Ret|P35546; Prdx1|P35700; Cd81|P35762; Gpm6a|P35802; Gpm6b|P35803; Ptprk|P35822; Ptpn12|P35831; Sar1a|P36536; Cpox|P36552; Bmpr1a|P36895; Gnl1|P36916; Ppm1b|P36993; Acvr1|P37172; Hmgcl|P38060; Ttl|P38585; Hspa9|P38647; Dnm1|P39053; Dnm2|P39054; Grik2|P39087; Man1a2|P39098; Fyn|P39688; Tfam|P40630; Abca1|P41233; Slc19a1|P41438; Eci1|P42125; Septin2|P42208; Stat3|P42227; Stat5b|P42232; Eps15|P42567; Lifr|P42703; Oprm1|P42866; Slc1a2|P43006; Cox6a1|P43024; Itgav|P43406; Akr1b3|P45376; Akr1b8|P45377; Cfl2|P45591; Acadm|P45952; Vps4b|P46467; Nf2|P46662; Adss|P46664; Brcc3|P46737; Nedd4|P46935; Rph3a|P47708; Aldh2|P47738; Grm8|P47743; Cnr1|P47746; Nsg2|P47759; Gsr|P47791; Mtx1|P47802; Map2k4|P47809; Crat|P47934; Crkl|P47941; Rpia|P47968; Anxa5|P48036; Glrb|P48168; Epb41|P48193; Ednrb|P48302; Gad1|P48318; Gad2|P48320; Tbca|P48428; Ppp3cb|P48453; Kcnj6|P48542; Hspa4l|P48722; Cbr1|P48758; Gstm5|P48774; Slc25a4|P48962; Inpp1|P49442; Ppm1a|P49443; Ptpre|P49446; Cdk5|P49615; Hcls1|P49710; Psen1|P49769; Bckdha|P50136; Gng4|P50153; H2-Ke6|P50171; Nat2|P50295; Gdi1|P50396; Arsa|P50428; Arsb|P50429; Gabrb1|P50571; Acadl|P51174; Plcb3|P51432; Gla|P51569; Gpc4|P51655; Hsd17b4|P51660; Adcy9|P51830; Gss|P51855; Fabp7|P51880; Slc25a5|P51881; Apod|P51910; Kcnj4|P52189; Tst|P52196; Ndufs6|P52503; Rida|P52760; Efnb1|P52795; Efnb2|P52800; Rabggtb|P53612; Limk1|P53668; Hccs|P53702; Pitpna|P53810; Pitpnb|P53811; Slc16a1|P53986; Idh2|P54071; Stom|P54116; Stmn1|P54227; Cacnb3|P54285; Rad23a|P54726; Rad23b|P54728; Faf1|P54731; Ephb3|P54754; Ephb2|P54763; Tango2|P54797; Galc|P54818; Adprh|P54923; Slc12a2|P55012; Aqp4|P55088; Abcd3|P55096; Tyro3|P55144; Rab8a|P55258; Adk|P55264; Cdh11|P55288; Stmn2|P55821; Golga3|P55937; Atp5j2|P56135; Gfer|P56213; Acyp2|P56375; Acyp1|P56376; Atp5mpl|P56379; Nudt2|P56380; Atp5e|P56382; Cda|P56389; Cox6b1|P56391; Cox7b|P56393; Usp5|P56399; Atp5b|P56480; Cd38|P56528; Ctbp2|P56546; Slc1a3|P56564; Pdcd5|P56812; Znrd2|P56873; Usp25|P57080; Ncstn|P57716; Actn4|P57780; Idi1|P58044; Acot8|P58137; B3gat3|P58158; Plscr4|P58196; Smpdl3b|P58242; Opa1|P58281; Ptpa|P58389; Kcnn2|P58390; Tpm1|P58771; Tbc1d10a|P58802; Bcl2l13|P59017; Cpne2|P59108; Nup43|P59235; Fxyd7|P59648; Il1rapl1|P59823; Plp1|P60202; Pdxp|P60487; Actb|P60710; Mdga2|P60755; Nrgn|P60761; Rac3|P60764; Cdc42|P60766; Snap25|P60879; Rab8b|P61028; Ube2d3|P61079; Ube2d1|P61080; Ube2k|P61087; Ube2n|P61089; Fgf1|P61148; Arl1|P61211; Car10|P61215; Rap2b|P61226; Stx1b|P61264; Rab6b|P61294; Pcbd1|P61458; Arf4|P61750; Vbp1|P61759; Lpar1|P61793; Abat|P61922; Ufm1|P61961; Nutf2|P61971; Ywhag|P61982; Rras2|P62071; Timm10|P62073; Timm8b|P62077; Ywhae|P62259; Arf6|P62331; Kcnab2|P62482; Ppp2cb|P62715; Rhob|P62746; Hpcal1|P62748; Vsnl1|P62761; Mtpn|P62774; Gabra1|P62812; Rab3c|P62823; Ran|P62827; Rap1a|P62835; Ube2d2a|P62838; Gnb1|P62874; Gnb2|P62880; Gnb5|P62881; Cycs|P62897; Pfn1|P62962; Rac1|P63001; Rab3a|P63011; Hspa8|P63017; Mpc1|P63030; Hspd1|P63038; Cplx1|P63040; Stmn4|P63042; Sult4a1|P63046; Pcp4|P63054; Olfm3|P63056; Gabrb3|P63080; Gnas|P63094; Ywhaz|P63101; Slc7a10|P63115; Gabrb2|P63137; Kcna2|P63141; Kcnab1|P63143; Dynll1|P63168; Gng2|P63213; Gng3|P63216; Pkia|P63248; Kcnj3|P63250; Prkcg|P63318; Rala|P63321; Ppp3ca|P63328; Phb|P67778; Actc1|P68033; Ube2l3|P68037; Ywhaq|P68254; Tuba4a|P68368; Tuba1a|P68369; Tubb4b|P68372; Tuba1c|P68373; Prkcb|P68404; Ywhah|P68510; Kpnb1|P70168; Abcc9|P70170; Lrig1|P70193; Lxn|P70202; Adcyap1r1|P70205; Plxna1|P70206; Plxna2|P70207; Plxna3|P70208; Dcc|P70211; Chl1|P70232; Myo1f|P70248; Pald1|P70261; Pkn1|P70268; Pdlim4|P70271; Mpp1|P70290; Pebp1|P70296; Stam|P70297; Ntsr2|P70310; Rock1|P70335; Hint1|P70349; Idh3g|P70404; Cdh10|P70408; Slc8a1|P70414; Slc7a3|P70423; Slc9a3r1|P70441; Fer|P70451; Stx4a|P70452; Irf3|P70671; Casp3|P70677; Gjb6|P70689; Urod|P70697; Ctps|P70698; Gaa|P70699; Renbp|P82343; Sgcd|P82347; Hpca|P84075; Arf1|P84078; Arf5|P84084; Cplx2|P84086; Rhog|P84096; Adcy5|P84309; Isoc2a|P85094; Kcnj13|P86046; Cdh8|P97291; Nptn|P97300; Csrp1|P97315; Dab1|P97318; St3gal3|P97325; Cdh6|P97326; Nrp1|P97333; S100a13|P97352; Sms|P97355; Atp1b3|P97370; Kcnab3|P97382; Anxa11|P97384; Ica1|P97411; Anxa4|P97429; Cacna1a|P97445; Coq7|P97478; Adcy8|P97490; Rgs14|P97492; Txn2|P97493; Gclc|P97494; Wbp2|P97765; Thumpd3|P97770; Grm1|P97772; Gfra1|P97785; Cxadr|P97792; Alk|P97793; Sirpa|P97797; Neo1|P97798; Fh1|P97807; Pld2|P97813; Lypla1|P97823; Jpt1|P97825; Dtymk|P97930; Scn1b|P97952; Apba2|P98084; Gnpat|P98192; Atp8b2|P98199; Arvcf|P98203; Tubb5|P99024; Uqcrh|P99028; Prdx5|P99029; Il6st|Q00560; G6pdx|Q00612; Rbp1|Q00915; Axl|Q00993; Pde4d|Q01063; Pde1b|Q01065; Grin2b|Q01097; Egfr|Q01279; Adra2a|Q01338; Adcy6|Q01341; Notch1|Q01705; Nme2|Q01768; Cacna1c|Q01815; Aqp1|Q02013; Uba1|Q02053; Ctnnb1|Q02248; Jup|Q02257; Epha4|Q03137; Ddr1|Q03146; Galt|Q03249; Atp5a1|Q03265; Bche|Q03311; Grin2d|Q03391; Kcnb1|Q03717; Rela|Q04207; Ckb|Q04447; Smpd1|Q04519; Cdk16|Q04735; Yes1|Q04736; Fabp5|Q05816; Ptprg|Q05909; Pcx|Q05920; Dnal1|Q05A62; Drp2|Q05AA6; Cab39|Q06138; Atp5k|Q06185; Clu|Q06890; Anxa7|Q07076; Cntn3|Q07409; Lgals3bp|Q07797; Bax|Q07813; Cbfb|Q08024; Dmwd|Q08274; Calb2|Q08331; Kcnma1|Q08460; Padi2|Q08642; Pros1|Q08761; Ids|Q08890; Ncf1|Q09014; Slc7a1|Q09143; Cnnm1|Q0GA42; Mdga1|Q0PMG2; Grid2ip|Q0QWG9; Cntnap5a|Q0V8T9; Itgb8|Q0VBD0; Stum|Q0VBF8; Cpne7|Q0VE82; Npepps|Q11011; Pepd|Q11136; Relch|Q148V7; Kcnc2|Q14B80; Grm2|Q14BI2; Ydjc|Q14BV6; Fam171b|Q14CH0; Aars2|Q14CH7; Slc35f3|Q1LZI2; Cpne9|Q1RLL3; Hsdl2|Q2TPA8; Trpm1|Q2TV84; Lrfn1|Q2WF71; Msto1|Q2YDW2; Cnnm3|Q32NY4; Osbp|Q3B7Z2; Marchf5|Q3KNM2; Prex2|Q3LAC4; Stk11ip|Q3TAA7; Tnfaip8l3|Q3TBL6; Fahd2a|Q3TC72; Abraxas2|Q3TCJ1; Plbd2|Q3TCN2; Cyb5r4|Q3TDX8; Eepd1|Q3TGW2; Ttyh2|Q3TH73; Ric8a|Q3TIR3; Pde12|Q3TIU4; Nlrx1|Q3TL44; Gdpgp1|Q3TLS3; Scrn3|Q3TMH2; Exoc5|Q3TPX4; Fbxo31|Q3TQF0; Cblb|Q3TTA7; Tamm41|Q3TUH1; Uap1l1|Q3TW96; Cnnm2|Q3TWN3; Fam131b|Q3TY60; Ica1l|Q3TY65; Aifm3|Q3TY86; Arsg|Q3TYD4; Smyd5|Q3TYX3; Hace1|Q3U0D9; Rars2|Q3U186; Pag1|Q3U1F9; Ctu2|Q3U308; Yrdc|Q3U5F4; Cmpk2|Q3U5Q7; Fbxo7|Q3U7U3; Otulin|Q3UCV8; Ttll12|Q3UDE2; Trafd1|Q3UDK1; Wdr41|Q3UDP0; 5031439G07Rik|Q3UE31; Ube2z|Q3UE37; Lyplal1|Q3UFF7; Frmd8|Q3UFK8; Garem1|Q3UFT3; Nt5c3b|Q3UFY7; Hdhd2|Q3UGR5; Sdk1|Q3UH53; Plxnd1|Q3UH93; Shisa6|Q3UH99; Nt5dc3|Q3UHB1; Adgrb1|Q3UHD1; Slc22a23|Q3UHH2; Tenm4|Q3UHK6; Camkv|Q3UHL1; Babam1|Q3UI43; Ndufb6|Q3UIU2; 2610301B20Rik|Q3UJP5; Rmdn3|Q3UJU9; Tax1bp1|Q3UKC1; Mccc2|Q3ULD5; Spg7|Q3ULF4; Ppp1r7|Q3UM45; Smcr8|Q3UMB5; Ankrd27|Q3UMR0; Mcu|Q3UMR5; Usp30|Q3UN04; Gpr162|Q3UN16; Gprin1|Q3UNH4; Fcho2|Q3UQN2; Acsf3|Q3URE1; Lingo2|Q3URE9; Nkain3|Q3URJ8; Ccdc51|Q3URS9; Armc2|Q3URY6; Plcl1|Q3USB7; Fchsd2|Q3USJ8; Tbc1d24|Q3UUG6; Them4|Q3UUI3; Strada|Q3UUJ4; Pdp1|Q3UV70; Grm5|Q3UVX5; Niban1|Q3UW53; Macrod2|Q3UYG8; Prr7|Q3V0I2; Pls1|Q3V0K9; Afg1l|Q3V384; Mars2|Q499X9; Ndufa4l2|Q4FZG9; Oxr1|Q4KMM3; Unc13a|Q4KUS2; Arap1|Q4LDD4; Miga1|Q4QQM5; Tmem65|Q4VAE3; Antkmt|Q501J2; Opa3|Q505D7; Kctd8|Q50H33; Prune2|Q52KR3; Coq8b|Q566J8; Scn2b|Q56A07; Gls2|Q571F8; Ndufaf2|Q59J78; Stxbp5l|Q5DQR4; Chsy3|Q5DTK1; Slc4a10|Q5DTL9; Kctd16|Q5DTY9; Rnf150|Q5DTZ6; Cep164|Q5DU05; Ipcef1|Q5DU31; Lrrc8b|Q5DU41; Ermn|Q5EBJ4; Prkaa1|Q5EG47; Fat2|Q5F226; Taok1|Q5F2E8; Slc39a12|Q5FWH7; Cemip2|Q5FWI3; Arhgap1|Q5FWK3; Xkr4|Q5GH67; Vps13a|Q5H8C4; Slc25a51|Q5HZI9; Slc30a9|Q5IRJ6; Cnrip1|Q5M8N0; Diras2|Q5PR73; Osbp2|Q5QNQ6; Crppa|Q5RJG7; Cdh12|Q5RJH3; Islr2|Q5RKR3; Tom1l2|Q5SRX1; Abr|Q5SSL4; Tns3|Q5SSZ5; Ankrd40|Q5SUE8; Rap1gap2|Q5SVL6; Tbc1d9b|Q5SVR0; Myo1d|Q5SYD0; Dnajc11|Q5U458; Slc5a6|Q5U4D8; Acbd5|Q5XG73; Parl|Q5XJY4; Rnf123|Q5XPI3; Zdhhc20|Q5Y5T1; Zdhhc8|Q5Y5T5; Crhbp|Q60571; Kif1b|Q60575; Kcnh1|Q60603; Adora1|Q60612; Adora2a|Q60613; Icam5|Q60625; Epha5|Q60629; Grb2|Q60631; Flot2|Q60634; Gm2a|Q60648; Ppp5c|Q60676; Rgl1|Q60695; Slc30a1|Q60738; Igf1r|Q60751; Irgm1|Q60766; Stxbp3|Q60770; Cldn11|Q60771; Gas7|Q60780; Rasa3|Q60790; Traf3|Q60803; Mertk|Q60805; Akt2|Q60823; Ppp1r1b|Q60829; Serpinb6a|Q60854; Stip1|Q60864; Vdac2|Q60930; Vdac3|Q60931; Vdac1|Q60932; Coq8a|Q60936; Pak3|Q61036; Cdc37|Q61081; Fzd7|Q61090; Abcb7|Q61102; Gstt2|Q61133; Astn1|Q61137; Bcar1|Q61140; Trpc6|Q61143; Slc9a1|Q61165; Prdx2|Q61171; Arg1|Q61176; Tsg101|Q61187; Rgl2|Q61193; Pafah1b3|Q61205; Pafah1b2|Q61206; Psap|Q61207; Lcp1|Q61233; Snta1|Q61234; Sntb2|Q61235; Fnta|Q61239; Igbp1|Q61249; Acvr1b|Q61271; Abcd2|Q61285; Cacna1e|Q61290; Ctnna2|Q61301; Hspa4|Q61316; Slc6a3|Q61327; Cntn2|Q61330; Bad|Q61337; Cox7a2l|Q61387; Prkg2|Q61410; Hras|Q61411; Kcna4|Q61423; Hadh|Q61425; Cd55|Q61475; Pde1a|Q61481; Alcam|Q61490; Nt5e|Q61503; Erbb4|Q61527; Stard3|Q61542; Glg1|Q61543; Snap91|Q61548; Fscn1|Q61553; Fkbp10|Q61576; Gpam|Q61586; Gdi2|Q61598; Arhgdib|Q61599; Slc20a1|Q61609; Grid2|Q61625; Grik5|Q61626; Grid1|Q61627; Pacsin1|Q61644; Slc29a2|Q61672; Hsph1|Q61699; Il1rap|Q61730; Cd47|Q61735; Kcnj11|Q61743; Phgdh|Q61753; Epha7|Q61772; Fgfr3|Q61851; Mog|Q61885; Kcna6|Q61923; Ovgp1|Q62010; Pea15a|Q62048; Plcg1|Q62077; Pick1|Q62083; Nsg1|Q62092; Prkd1|Q62101; Dlg4|Q62108; Ptprr|Q62132; Rhoc|Q62159; Dag1|Q62165; Ralbp1|Q62172; Sema4a|Q62178; Sema4b|Q62179; Birc2|Q62210; Sptbn1|Q62261; Tspan7|Q62283; Zpr1|Q62384; Epha6|Q62413; Dbnl|Q62418; Sh3gl2|Q62420; Ostf1|Q62422; Ndufa4|Q62425; Cstb|Q62426; Itga2|Q62469; Zyx|Q62523; Ptp4a1|Q63739; Ppp3r1|Q63810; Mapk3|Q63844; Omg|Q63912; Map2k2|Q63932; Kcnc3|Q63959; Patj|Q63ZW7; Rab34|Q64008; Crk|Q64010; Glra1|Q64018; Hepacam|Q640R3; Spr|Q64105; Maoa|Q64133; Aga|Q64191; Dbh|Q64237; Omp|Q64288; Cd34|Q64314; Stxbp2|Q64324; Myo6|Q64331; Abcg1|Q64343; Ifit3|Q64345; Bcl2l1|Q64373; Hspe1|Q64433; Atp4a|Q64436; Sord|Q64442; Car4|Q64444; Ptprj|Q64455; Gstt1|Q64471; Ptprd|Q64487; Ptpn13|Q64512; Gk|Q64516; Guk1|Q64520; Gpd2|Q64521; Nqo1|Q64669; Srm|Q64674; Stx3|Q64704; Vcl|Q64727; Cr1l|Q64735; Gart|Q64737; Ctnna3|Q65CL1; Ptpmt1|Q66GT5; Cbarp|Q66L44; Slc13a5|Q67BT3; Grm7|Q68ED2; Grm4|Q68EF4; Begain|Q68EF6; Rapgefl1|Q68EF8; Cltc|Q68FD5; D630045J12Rik|Q68FD9; Ripor1|Q68FE6; Pkp4|Q68FH0; Galk2|Q68FH4; Ahcyl2|Q68FL4; Elfn2|Q68FM6; Cntn4|Q69Z26; Cnnm4|Q69ZF7; Prex1|Q69ZK0; Nlgn2|Q69ZK9; Myorg|Q69ZQ1; Thsd7a|Q69ZU6; Ehbp1|Q69ZW3; N4bp1|Q6A037; Rftn1|Q6A0D4; Arhgap21|Q6DFV3; C9orf72|Q6DFW0; Brinp2|Q6DFY8; Churc1|Q6DG52; Exoc3l4|Q6DIA2; Slc25a23|Q6GQS1; Tmem151a|Q6GQT5; Lingo3|Q6GQU6; Btbd11|Q6GQW0; Tmem132e|Q6IEE6; Panx2|Q6IMP4; Gpsm1|Q6IR34; Tpm4|Q6IRU2; Cltb|Q6IRU5; Mvb12b|Q6KAU4; Fbxo41|Q6NS60; Gpr17|Q6NS65; Rragb|Q6NTA4; Wdr44|Q6NVE8; Dpp10|Q6NXK7; Asic1|Q6NXK8; Ptpdc1|Q6NZK8; Sri|Q6P069; Xpnpep1|Q6P1B1; Pianp|Q6P1B3; Ppp2r2a|Q6P1F6; Psd2|Q6P1I6; Inpp4b|Q6P1Y8; Tnpo3|Q6P2B1; Slc39a10|Q6P5F6; Ttyh3|Q6P5F7; Ubxn7|Q6P5G6; Spred3|Q6P6N5; Sat2|Q6P8J2; Ano6|Q6P9J9; Nrxn3|Q6P9K9; Fam126a|Q6P9N1; Oxsr1|Q6P9R2; Mtss2|Q6P9S0; Prmt8|Q6PAK3; Prkab2|Q6PAM0; Gapvd1|Q6PAR5; Herc4|Q6PAV2; Ptpn23|Q6PB44; Lrpprc|Q6PB66; Pcdhb14|Q6PB90; Galnt2|Q6PB93; Mff|Q6PCP5; Rgma|Q6PCX7; Trim37|Q6PCX9; Ppp2r5a|Q6PD03; Ip6k1|Q6PD10; Armh3|Q6PD19; Ankrd13d|Q6PD24; Mindy2|Q6PDI6; Ado|Q6PDY2; Prrt3|Q6PE13; Abhd10|Q6PE15; Rrm2b|Q6PEE3; Tmeff1|Q6PFE7; Exoc8|Q6PGF7; Ubtd2|Q6PGH0; Erc2|Q6PH08; Rab35|Q6PHN9; Cacna2d2|Q6PHS9; Kcnip4|Q6PHZ8; Atp1a3|Q6PIC6; Atp1a2|Q6PIE5; Rhbdf1|Q6PIX5; Atp2b4|Q6Q477; Flrt1|Q6RKD8; Krit1|Q6S5J6; N6amt1|Q6SKR2; Myh14|Q6URW6; Sdk2|Q6V4S5; Ntrk3|Q6VNS1; Npr2|Q6VVW5; Dagla|Q6WQJ1; Kctd12|Q6WVG3; Slc44a1|Q6X893; Tacc1|Q6Y685; Ube2o|Q6ZPJ3; Kcnt1|Q6ZPR4; Ankib1|Q6ZPS6; Kifbp|Q6ZPU9; Efr3b|Q6ZQ18; Arhgap26|Q6ZQ82; Igsf3|Q6ZQA6; Acap2|Q6ZQK5; Ube2r2|Q6ZWZ2; Znrf2|Q71FD5; Tln2|Q71LX4; Cspg5|Q71M36; Kyat3|Q71RI9; Slc6a5|Q761V0; Sema6d|Q76KF0; Mindy1|Q76LS9; Ppp2r1a|Q76MZ3; Atp5md|Q78IK2; Apool|Q78IK4; Msrb2|Q78J03; Nap1l4|Q78ZA7; Mtch1|Q791T5; Mtch2|Q791V5; Rtn4rl2|Q7M6Z0; Scn4b|Q7M729; Opalin|Q7M750; Abhd17b|Q7M759; Cyfip1|Q7TMB8; Plppr4|Q7TME0; Ndufa12|Q7TMF3; Tubb2a|Q7TMM9; Prcp|Q7TMR0; Abcg2|Q7TMS5; Smap2|Q7TN29; Sugct|Q7TNE1; Doc2a|Q7TNF0; Tmem59l|Q7TNI2; Igsf21|Q7TNR6; Micos10|Q7TNS2; Plppr3|Q7TPB0; Robo2|Q7TPD3; Actn1|Q7TPR4; C2cd5|Q7TPS5; Igsf1|Q7TQA1; Amph|Q7TQF7; Otub1|Q7TQI3; Gpr135|Q7TQP2; Stk38l|Q7TSE6; Lrrc75a|Q7TSF4; Tmem94|Q7TSH8; Ppp6r1|Q7TSI3; Pcdh8|Q7TSK3; Pdpr|Q7TSQ8; Ube2q1|Q7TSS2; Kirrel2|Q7TSU7; Pgm2|Q7TSV4; Galnt17|Q7TT15; Ahcyl1|Q80SW1; Adal|Q80SY6; Gabbr2|Q80T41; Csmd3|Q80T79; Vat1l|Q80TB8; Lrrc7|Q80TE7; Pcdh19|Q80TF3; Lrfn2|Q80TG9; Erbin|Q80TH2; Cadps|Q80TJ1; Ppm1e|Q80TL0; Adcy2|Q80TL1; Phf24|Q80TL4; Nisch|Q80TM9; Nav3|Q80TN7; Plekhm2|Q80TQ5; Adgrl1|Q80TR1; Adgrl3|Q80TS3; Baiap3|Q80TT2; Fnbp1|Q80TY0; Dnajc6|Q80TZ3; Daam2|Q80U19; Snph|Q80U23; Rimbp2|Q80U40; Mfn2|Q80U63; Scrib|Q80U72; Plxna4|Q80UG2; Septin9|Q80UG5; Ankrd13a|Q80UP5; Slc20a2|Q80UP8; Fbxo2|Q80UW2; Sra1|Q80VJ2; Tdrkh|Q80VL1; Epn1|Q80VP1; Aldh3b1|Q80VQ0; Lrrc1|Q80VQ1; Gstm7|Q80W21; Thnsl2|Q80W22; Wipi2|Q80W47; Kirrel|Q80W68; Agfg2|Q80WC7; Tspan18|Q80WR1; Chst2|Q80WV3; Ugt2a1|Q80X89; Flnb|Q80X90; Usp6nl|Q80XC3; Lrrtm4|Q80XG9; Acad11|Q80XL6; Bdh1|Q80XN0; Lrfn4|Q80XU8; Glrx5|Q80Y14; Llgl1|Q80Y17; Bsdc1|Q80Y55; Dixdc1|Q80Y83; Ddhd2|Q80Y98; Dpp8|Q80YA7; Supv3l1|Q80YD1; Sergef|Q80YD6; Bcas1|Q80YN3; Pank4|Q80YV4; Tnc|Q80YX1; Astn2|Q80Z10; Negr1|Q80Z24; Amigo1|Q80ZD8; Amigo2|Q80ZD9; Adgrb3|Q80ZF8; Lrsam1|Q80ZI6; Rap2a|Q80ZJ1; Spag1|Q80ZX8; Ankfy1|Q810B6; Slitrk5|Q810B7; Slitrk4|Q810B8; Slitrk3|Q810B9; Slitrk2|Q810C0; Slitrk1|Q810C1; Nfasc|Q810U3; Nrcam|Q810U4; Dlg1|Q811D0; Atpaf1|Q811I0; Mfn1|Q811U4; Pdk1|Q8BFP9; Fstl5|Q8BFR2; Gns|Q8BFR4; Tufm|Q8BFR5; Cpped1|Q8BFS6; Pef1|Q8BFY6; Tnpo1|Q8BFY9; Plppr1|Q8BFZ2; Pld4|Q8BG07; Necab1|Q8BG18; Tmem169|Q8BG50; Rhot1|Q8BG51; Efr3a|Q8BG67; Sh3bgrl2|Q8BG73; Tmem198|Q8BG75; Zfp365|Q8BG89; Lhfpl2|Q8BGA2; Lrrtm2|Q8BGA3; Enoph1|Q8BGB7; Zadh2|Q8BGC4; Coa6|Q8BGD8; Atg4b|Q8BGE6; Slc25a44|Q8BGF9; Ubash3b|Q8BGG7; Samm50|Q8BGH2; D3Ertd751e|Q8BGN2; Aars|Q8BGQ7; Lrrc8d|Q8BGR2; Arl15|Q8BGR6; Bola2|Q8BGS2; Flrt3|Q8BGT1; Gpt2|Q8BGT5; Micall1|Q8BGT6; Phyhipl|Q8BGT8; Ccny|Q8BGU5; Nars2|Q8BGV0; Mief1|Q8BGV8; Timm29|Q8BGX2; Lrtm2|Q8BGX3; Slc5a7|Q8BGY9; Hpcal4|Q8BGZ1; Pck2|Q8BH04; Fbxl2|Q8BH16; Ubap1|Q8BH48; 8030462N17Rik|Q8BH50; Thnsl1|Q8BH55; Tiprl|Q8BH58; Slc25a12|Q8BH59; Gopc|Q8BH60; Dennd6a|Q8BH65; Fbxl4|Q8BH70; Dglucy|Q8BH86; Echs1|Q8BH95; Clic6|Q8BHB9; Rab39b|Q8BHC1; Atcay|Q8BHE3; Maip1|Q8BHE8; Pgs1|Q8BHF7; Czib|Q8BHG2; Serinc5|Q8BHJ6; Gabra5|Q8BHJ7; Scn3b|Q8BHK2; Tbc1d10b|Q8BHL3; Psmf1|Q8BHL8; Oscp1|Q8BHW2; Cyria|Q8BHZ0; Cd99l2|Q8BIF0; Comtd1|Q8BIG7; Iars2|Q8BIJ6; Dars2|Q8BIP0; Prune1|Q8BIW1; Cox15|Q8BJ03; Dlgap2|Q8BJ42; Chmp2b|Q8BJF9; Fbxo30|Q8BJL1; Csgalnact1|Q8BJQ9; Sgta|Q8BJU0; Tspan9|Q8BJU2; Miga2|Q8BK03; Tmem11|Q8BK08; Ndufv3|Q8BK30; Ahsa1|Q8BK64; Ipo5|Q8BKC5; Ptk7|Q8BKG3; Slc25a29|Q8BL03; Usp54|Q8BL06; Ablim2|Q8BL65; Eea1|Q8BL66; Mblac2|Q8BL86; Lypd1|Q8BLC3; Plcxd3|Q8BLJ3; Lsamp|Q8BLK3; Rps6kc1|Q8BLK9; Cadm2|Q8BLQ9; Cpne4|Q8BLR2; Flrt2|Q8BLU0; Lrfn3|Q8BLY3; Olfm2|Q8BM13; Plekhm3|Q8BM47; Slc25a24|Q8BMD8; Me3|Q8BMF3; Gga3|Q8BMI3; Mon1b|Q8BMQ8; Hadha|Q8BMS1; E130311K13Rik|Q8BN57; Slc17a5|Q8BN82; Fat3|Q8BNA6; Neto2|Q8BNJ6; Spata2l|Q8BNN1; Armc6|Q8BNU0; Ncs1|Q8BNY6; Iqcb1|Q8BP00; Acp6|Q8BP40; Tmem177|Q8BPE4; Daam1|Q8BPM0; Sgsm1|Q8BPQ7; Eml5|Q8BQM8; Rgs7bp|Q8BQP9; Zdhhc14|Q8BQQ1; Gjc2|Q8BQU6; Fam177a|Q8BR63; Tmem67|Q8BR76; Kirrel3|Q8BR86; AW549877|Q8BR90; Pakap|Q8BR92; Rell2|Q8BRJ3; Prkaa2|Q8BRK8; Cc2d1b|Q8BRN9; Pisd|Q8BSF4; Rps6kb1|Q8BSK8; Arf2|Q8BSL7; Cpne3|Q8BT60; Tcp11l1|Q8BTG3; Ndrg4|Q8BTG7; Csnk1g1|Q8BTH8; Dusp28|Q8BTR5; Nup54|Q8BTS4; Hsdl1|Q8BTX9; Kyat1|Q8BTY1; Slc4a7|Q8BTY2; Rap2c|Q8BU31; Aifm2|Q8BUE4; Dock1|Q8BUR4; Pggt1b|Q8BUY9; Mpp7|Q8BVD5; Qdpr|Q8BVI4; Snx17|Q8BVL3; Ppme1|Q8BVQ5; Rspry1|Q8BVR6; Nudt9|Q8BVU5; Maob|Q8BW75; Camk1d|Q8BW96; Aldh5a1|Q8BWF0; Slc38a7|Q8BWH0; Ptges2|Q8BWM0; Pithd1|Q8BWR2; Rhpn2|Q8BWR8; Gprin3|Q8BWS5; Acaa2|Q8BWT1; Pgam5|Q8BX10; Rgs8|Q8BXT1; Usp47|Q8BY87; Slc44a2|Q8BY89; Tbcd|Q8BYA0; Taok3|Q8BYC6; Tbc1d17|Q8BYH7; Lpcat2|Q8BYI6; Nlgn3|Q8BYM5; Cars2|Q8BYM8; Itpk1|Q8BYN3; Rhof|Q8BYP3; Cadps2|Q8BYR5; Arhgap25|Q8BYW1; Ston2|Q8BZ60; Lrrtm3|Q8BZ81; Dnm3|Q8BZ98; Tigar|Q8BZA9; Tmem266|Q8BZB3; Glmn|Q8BZM1; Dock10|Q8BZN6; Nhlrc2|Q8BZW8; Pak5|Q8C015; Lrrc4c|Q8C031; Arhgef10|Q8C033; Camkk2|Q8C078; Snx16|Q8C080; Atg16l1|Q8C0J2; Slc25a16|Q8C0K5; Paox|Q8C0L6; Asrgl1|Q8C0M9; Zfp451|Q8C0P7; Fam234a|Q8C0Z1; Slc39a6|Q8C145; Exog|Q8C163; Cpne1|Q8C166; Frs2|Q8C180; Vps9d1|Q8C190; Thop1|Q8C1A5; Septin11|Q8C1B7; Zfp428|Q8C1M2; Shisa7|Q8C3Q5; 2310022B05Rik|Q8C3W1; Guf1|Q8C3X4; Gpr158|Q8C419; Pex5l|Q8C437; Adgra1|Q8C4G9; Aida|Q8C4Q6; Csnk1g3|Q8C4X2; Mb21d2|Q8C525; Nadk2|Q8C5H8; Clmn|Q8C5W0; Tbcel|Q8C5W3; Septin10|Q8C650; Rtkn|Q8C6B2; Cfap36|Q8C6E0; Fam126b|Q8C729; Uba6|Q8C7R4; Uba3|Q8C878; Scai|Q8C8N2; Ank2|Q8C8R3; Elfn1|Q8C8T7; Tsr2|Q8C8T8; Shisa4|Q8CA71; Pde10a|Q8CA95; Pgm2l1|Q8CAA7; Castor2|Q8CAB8; Nhsl1|Q8CAF4; Iba57|Q8CAK1; Gpc5|Q8CAL5; Immt|Q8CAQ8; Acat2|Q8CAY6; Yod1|Q8CB27; Naprt|Q8CC86; Vwa8|Q8CC88; Nhlrc3|Q8CCH2; Fam160b1|Q8CDM8; Snx30|Q8CE50; Rdh13|Q8CEE7; Amt|Q8CFA2; Scyl2|Q8CFE4; Nedd4l|Q8CFI0; Cdc34|Q8CFI2; Nrn1|Q8CFV4; Fkrp|Q8CG64; Adprhl2|Q8CG72; Akr7a5|Q8CG76; Ppm1f|Q8CGA0; Slc43a2|Q8CGA3; Rgs12|Q8CGE9; Lonp1|Q8CGK3; Gnal|Q8CGK7; Adgrb2|Q8CGM1; Slc24a4|Q8CGQ8; Tph2|Q8CGV2; Trim32|Q8CH72; Septin8|Q8CHH9; Rln3|Q8CHK2; Pgp|Q8CHP8; Vps37a|Q8CHS8; Aldh4a1|Q8CHT0; Ngef|Q8CHT1; Epn2|Q8CHU3; Rftn2|Q8CHX7; Dym|Q8CHY3; Steap3|Q8CI59; Rmnd1|Q8CI78; Pygb|Q8CI94; Fermt2|Q8CIB5; Plcg2|Q8CIH5; Pak2|Q8CIN4; Tbce|Q8CIV8; Mical3|Q8CJ19; Nradd|Q8CJ26; Plxnb1|Q8CJH3; Iglon5|Q8HW98; Hmgcs1|Q8JZK9; Thtpa|Q8JZL3; Acad9|Q8JZN5; Rhot2|Q8JZN7; Afg3l2|Q8JZQ2; Slc4a8|Q8JZR6; Lin7a|Q8JZS0; Slc25a1|Q8JZU2; Cpne5|Q8JZW4; Adgrl2|Q8JZZ7; Oplah|Q8K010; Trhde|Q8K093; Faim2|Q8K097; Gmds|Q8K0C9; Gfm1|Q8K0D5; Tbc1d23|Q8K0F1; Phyhip|Q8K0S0; Rtn4rl1|Q8K0S5; Dcun1d3|Q8K0V2; Fez1|Q8K0X8; Taco1|Q8K0Z7; Plekho2|Q8K124; Pdxk|Q8K183; Fermt3|Q8K1B8; Trnt1|Q8K1J6; Ppp1r11|Q8K1L5; Pnpla8|Q8K1N1; Lgi4|Q8K1S1; Unc5d|Q8K1S2; Unc5a|Q8K1S4; Coq9|Q8K1Z0; Adgrg1|Q8K209; Fn3krp|Q8K274; Anln|Q8K298; Sdha|Q8K2B3; Sirt5|Q8K2C6; Fntb|Q8K2I1; Manba|Q8K2I4; Plcd3|Q8K2J0; Rell1|Q8K2J7; Agfg1|Q8K2K6; Brox|Q8K2Q7; Shtn1|Q8K2Q9; Nmral1|Q8K2T1; Ccm2|Q8K2Y9; Inpp5b|Q8K337; Acvr1c|Q8K348; Cystm1|Q8K353; Cbr3|Q8K354; Lrrtm1|Q8K377; Rab15|Q8K386; Plcl2|Q8K394; Hscb|Q8K3A0; Lzic|Q8K3C3; Kcnq3|Q8K3F6; Appl2|Q8K3G9; Appl1|Q8K3H0; Myrip|Q8K3I4; Ndufs8|Q8K3J1; Cables2|Q8K3M5; Minar1|Q8K3V7; Stxbp5|Q8K400; Pitrm1|Q8K411; Pitpnc1|Q8K4R4; Lgi2|Q8K4Z0; Naxe|Q8K4Z3; Slc8a2|Q8K596; Gpt|Q8QZR5; Hibch|Q8QZS1; Acat1|Q8QZT1; Tspan14|Q8QZY6; Gspt1|Q8R050; Gale|Q8R059; Suox|Q8R086; 4933434E20Rik|Q8R092; 6430548M08Rik|Q8R0A7; Fahd1|Q8R0F8; Gga1|Q8R0H9; Aamdc|Q8R0P4; Slc25a42|Q8R0Y8; Sirt3|Q8R104; Flad1|Q8R123; Bphl|Q8R164; Cplx3|Q8R1B5; Niban2|Q8R1F1; Cmbl|Q8R1G2; Pdlim2|Q8R1G6; Uqcr10|Q8R1I1; Nudcd3|Q8R1N4; Stard7|Q8R1R3; Coq6|Q8R1S0; Chmp7|Q8R1T1; Bmerb1|Q8R1Y2; Sdsl|Q8R238; Phospho1|Q8R2H9; Ptrh2|Q8R2Y8; Igsf8|Q8R366; Clmp|Q8R373; Plcd1|Q8R3B1; Tbc1d13|Q8R3D1; Wipi1|Q8R3E3; Hs2st1|Q8R3H7; Slco3a1|Q8R3L5; Aspa|Q8R3P0; Stxbp6|Q8R3T5; Cacnb1|Q8R3Z5; Micos13|Q8R404; Abca3|Q8R420; Cadm4|Q8R464; Rufy2|Q8R4C2; Ntng2|Q8R4F1; Ntng1|Q8R4G0; Mgat5|Q8R4G6; Clybl|Q8R4N0; Abcc10|Q8R4P9; Dusp15|Q8R4V2; Lrrc8c|Q8R502; Crtac1|Q8R555; Snap47|Q8R570; Apbb1ip|Q8R5A3; Eps8l1|Q8R5F8; Cadm1|Q8R5M8; Nae1|Q8VBW6; Mpdz|Q8VBX6; Camkk1|Q8VBY2; Tkfc|Q8VC30; Gca|Q8VC88; Scrn2|Q8VCA8; Nt5m|Q8VCE6; Mavs|Q8VCF0; Pex19|Q8VCI5; Zfyve21|Q8VCM3; Lipt1|Q8VCM4; Mul1|Q8VCM5; Cth|Q8VCN5; Tbcc|Q8VCN9; Abhd14b|Q8VCR7; Fam20b|Q8VCS3; Rnpep|Q8VCT3; Abhd17c|Q8VCV1; Acsf2|Q8VCW8; Micu1|Q8VCX5; Plppr2|Q8VCY8; Gripap1|Q8VD04; Tmem143|Q8VD26; Sgtb|Q8VD33; Sft2d2|Q8VD57; Hip1|Q8VD75; Lars2|Q8VDC0; Myh9|Q8VDD5; Ppcs|Q8VDG5; Pafah2|Q8VDG7; Nit1|Q8VDK1; Atp1a1|Q8VDN2; Mical1|Q8VDP3; Ptgr2|Q8VDQ1; Sirt2|Q8VDQ8; Tmem267|Q8VDR5; Zdhhc5|Q8VDZ4; Ttc39c|Q8VE09; Gdap1l1|Q8VE33; Oxnad1|Q8VE38; Uba5|Q8VE47; Ogfrl1|Q8VE52; Prelid3a|Q8VE85; Fam114a2|Q8VE88; Slc35f6|Q8VE96; Pla2g15|Q8VEB4; Lgalsl|Q8VED9; Rpe|Q8VEE0; Epm2aip1|Q8VEH5; Vps4a|Q8VEJ9; Mtmr14|Q8VEL2; Rnf130|Q8VEM1; Slc25a3|Q8VEM8; Hdac8|Q8VH37; Adcy3|Q8VHH7; Caskin2|Q8VHK1; Mlc1|Q8VHK5; Slc14a1|Q8VHL0; Setd7|Q8VHL1; Serpinb1b|Q8VHP7; Ppp1r16b|Q8VHQ3; Rab40c|Q8VHQ4; Cacng8|Q8VHW2; Flnc|Q8VHX6; Cspg4|Q8VHY0; Sorcs3|Q8VI51; Lrp4|Q8VI56; Pcnx3|Q8VI59; Ipo4|Q8VI75; Irgq|Q8VIM9; Ciapin1|Q8WTY4; Impa2|Q91UZ5; Acot7|Q91V12; Slc12a5|Q91V14; Znrf1|Q91V17; Abca7|Q91V24; Nrbp2|Q91V36; Sfxn3|Q91V61; Isoc1|Q91V64; 4931406C07Rik|Q91V76; Poldip2|Q91VA6; Ghitm|Q91VC9; Ndufs1|Q91VD9; Hnmt|Q91VF2; Snx9|Q91VH2; Memo1|Q91VH6; Rnh1|Q91VI7; Stk38|Q91VJ4; Itm2c|Q91VK4; Ppa2|Q91VM9; Chchd6|Q91VN4; Atp5c1|Q91VR2; Cbr4|Q91VT4; Sh3bgrl3|Q91VW3; Smap1|Q91VZ6; Golga7|Q91W53; Fbxl15|Q91W61; Cdc42ep1|Q91W92; Slc15a4|Q91W98; Sharpin|Q91WA6; Ndufs2|Q91WD5; Scgn|Q91WD9; Snx15|Q91WE1; Rabep2|Q91WG2; Prkag2|Q91WG5; Frs3|Q91WJ0; Gcsh|Q91WK5; Hdhd5|Q91WM2; Eva1a|Q91WM6; Cisd1|Q91WS0; Cbs|Q91WT9; As3mt|Q91WU5; Gorasp1|Q91X51; Dcxr|Q91X52; S1pr5|Q91X56; Rabif|Q91X96; Ncald|Q91X97; Dap|Q91XC8; Pex16|Q91XC9; Acy3|Q91XE4; Pnpo|Q91XF0; Osbpl1a|Q91XL9; Glra3|Q91XP5; Basp1|Q91XV3; Pcdhga4|Q91XY4; Slc13a3|Q91Y63; Ipo9|Q91YE6; Asl|Q91YI0; Snx4|Q91YJ2; Mtif2|Q91YJ5; Uap1|Q91YN5; Csdc2|Q91YQ3; Camk1|Q91YS8; Ndufv1|Q91YT0; Pgap4|Q91YV9; Ttc1|Q91Z38; Grhpr|Q91Z53; Diras1|Q91Z61; B3galt6|Q91Z92; Vangl2|Q91ZD4; Necab2|Q91ZP9; Snx18|Q91ZR2; Fgd4|Q91ZT5; Sncb|Q91ZZ3; Scpep1|Q920A5; Fdps|Q920E5; Hlcs|Q920N2; Brinp1|Q920P3; Ak5|Q920P5; Als2|Q920R0; Gjc3|Q921C1; Rab31|Q921E2; Etfdh|Q921G7; Coa7|Q921H9; Rheb|Q921J2; Cyrib|Q921M7; Macrod1|Q922B1; Ppp6r3|Q922D4; Pcyt2|Q922E4; Tubb6|Q922F4; Pdk3|Q922H2; Tmem132a|Q922P8; Mtarc2|Q922Q1; Pycr2|Q922Q4; Pde2a|Q922S4; Prmt7|Q922X9; Ddo|Q922Z0; Blvrb|Q923D2; Csmd1|Q923L3; Ppp1r16a|Q923M0; Glrx2|Q923X4; Gprc5b|Q923Z0; Mto1|Q923Z3; Rtn4ip1|Q924D0; Letmd1|Q924L1; Mpi|Q924M7; Slc12a6|Q924N4; Spred2|Q924S7; Spred1|Q924S8; Rnf31|Q924T7; Lrp8|Q924X6; Atad3a|Q925I1; Sfxn5|Q925N0; Sec14l2|Q99J08; Mcoln1|Q99J21; Mlycd|Q99J39; Nrbp1|Q99J45; Dhrs7b|Q99J47; Nans|Q99J77; Mpst|Q99J99; Stoml2|Q99JB2; Pacsin3|Q99JB8; Gpr37l1|Q99JG2; Rap1b|Q99JI6; Sfxn1|Q99JR1; Gatb|Q99JT1; Adi1|Q99JT9; Acy1|Q99JW2; Gorasp2|Q99JX3; Hadhb|Q99JY0; Plpp3|Q99JY8; Nlgn1|Q99K10; Arfgap2|Q99K28; Pls3|Q99K51; Rragc|Q99K70; Psat1|Q99K85; Hagh|Q99KB8; Me2|Q99KE1; Aco2|Q99KI0; Dpp3|Q99KK7; Hars2|Q99KK9; Rab28|Q99KL7; Cryl1|Q99KP3; Lactb2|Q99KR3; Ppif|Q99KR7; Fuca2|Q99KR8; Gak|Q99KY4; Hibadh|Q99L13; Gstt3|Q99L20; St13|Q99L47; Sntb1|Q99L88; Dhrs4|Q99LB2; Sardh|Q99LB7; Ndufa10|Q99LC3; Etfa|Q99LC5; Ddah2|Q99LD8; Tmem51|Q99LG1; Tnpo2|Q99LG2; Hgs|Q99LI8; Fuca1|Q99LJ1; Grpel1|Q99LP6; Psph|Q99LS3; Park7|Q99LX0; Ndufs5|Q99LY9; Lias|Q99M04; Epdr1|Q99M71; Ptprt|Q99M80; Dnaja3|Q99M87; Rnf141|Q99MB7; Pccb|Q99MN9; Mccc1|Q99MR8; Tmem121b|Q99MX7; Pecr|Q99MZ7; Cyp4f18|Q99N16; Cadm3|Q99N28; Sytl2|Q99N50; Acss1|Q99NB1; Ubqln4|Q99NB8; Hspbp1|Q99P31; Cntnap4|Q99P47; Rab27b|Q99P58; Ogfr|Q99PG2; Lrrc4|Q99PH1; Rtn4r|Q99PI8; Ntm|Q99PJ0; Arhgdia|Q99PT1; Ndufa5|Q9CPP6; Cox6c|Q9CPQ1; Tomm22|Q9CPQ3; Atp5l|Q9CPQ8; Nanp|Q9CPT3; Glo1|Q9CPU0; Mgst3|Q9CPU4; Glod4|Q9CPV4; Cntnap2|Q9CPW0; Atg3|Q9CPX6; Uqcr11|Q9CPX8; Lap3|Q9CPY7; Chmp3|Q9CQ10; Mid1ip1|Q9CQ20; Lamtor1|Q9CQ22; Stambp|Q9CQ26; Nudcd2|Q9CQ48; Ndufc2|Q9CQ54; Pgls|Q9CQ60; Mtap|Q9CQ65; Uqcrq|Q9CQ69; Ndufa2|Q9CQ75; Timm22|Q9CQ85; Mien1|Q9CQ86; Ndufa3|Q9CQ91; Fis1|Q9CQ92; Sdhb|Q9CQA3; Ndufb4|Q9CQC7; Sar1b|Q9CQC9; Rab5a|Q9CQD1; Nipsnap3b|Q9CQE1; Rgs10|Q9CQE5; Mtres1|Q9CQF4; Tmem100|Q9CQG9; Ndufb5|Q9CQH3; Gmfb|Q9CQI3; Cotl1|Q9CQI6; Ndufb9|Q9CQJ8; Rwdd1|Q9CQK7; Txndc17|Q9CQM5; Glrx3|Q9CQM9; Trap1|Q9CQN1; Atp5pb|Q9CQQ7; Acot13|Q9CQR4; Ppp6c|Q9CQR6; Slc25a46|Q9CQS4; Mri1|Q9CQT1; Desi1|Q9CQT7; Dnajc19|Q9CQV7; Ywhab|Q9CQV8; Ykt6|Q9CQW1; Cldnd1|Q9CQX5; Ndufa6|Q9CQZ5; Ndufb3|Q9CQZ6; Psmd9|Q9CR00; Ufc1|Q9CR09; Ppid|Q9CR16; Dph2|Q9CR25; Vta1|Q9CR26; Ccdc43|Q9CR29; Wdr45b|Q9CR39; Ndufb7|Q9CR61; Slc25a11|Q9CR62; Uqcrfs1|Q9CR68; Atp5g1|Q9CR84; Carhsp1|Q9CR86; Fam136a|Q9CR98; Dmac2l|Q9CRA7; Mtfp1|Q9CRB8; Chchd3|Q9CRB9; Gnpda2|Q9CRC9; Ociad1|Q9CRD0; Xpot|Q9CRT8; Nrxn1|Q9CS84; Atp13a2|Q9CTG6; Micu3|Q9CTY5; Atxn3|Q9CVD2; Ppp1r3g|Q9CW07; Nubpl|Q9CWD8; Mtfr1l|Q9CWE0; Tubb2b|Q9CWF2; Ndufaf7|Q9CWG8; Atic|Q9CWJ9; Pfdn1|Q9CWM4; Arhgef25|Q9CWR0; Ddah1|Q9CWS0; Uqcc1|Q9CWU6; Ndufaf1|Q9CWX2; Ist1|Q9CX00; Sugt1|Q9CX34; Cygb|Q9CX80; Rgs19|Q9CX84; Tbc1d15|Q9CXF4; Coq5|Q9CXI0; Moxd1|Q9CXI3; Ears2|Q9CXJ1; Abcb8|Q9CXJ4; Tmem192|Q9CXT7; Pmpcb|Q9CXT8; Sdhd|Q9CXV1; Ndufs4|Q9CXZ1; Mrps28|Q9CY16; Ube2f|Q9CY34; Eef1akmt1|Q9CY45; Blvra|Q9CY64; Glipr2|Q9CYL5; Ssbp1|Q9CYR0; Pgm3|Q9CYR6; 2810459M11Rik|Q9CYS6; Dph7|Q9CYU6; Tmem135|Q9CYV5; Hdhd3|Q9CYW4; Uqcrc1|Q9CZ13; Tmem178|Q9CZ16; Ola1|Q9CZ30; Naxd|Q9CZ42; Nsfl1c|Q9CZ44; Antxr1|Q9CZ52; Cmtm6|Q9CZ69; Mrpl55|Q9CZ83; Sdhc|Q9CZB0; Scrn1|Q9CZC8; Gars|Q9CZD3; Shisa9|Q9CZN4; Shmt2|Q9CZN7; Bcs1l|Q9CZP5; Cdc37l1|Q9CZP7; Tomm40l|Q9CZR3; Tsfm|Q9CZR8; Aldh1b1|Q9CZS1; Rab3b|Q9CZT8; Cs|Q9CZU6; Tomm70a|Q9CZW5; Pip4p2|Q9CZX7; Ube2v1|Q9CZY3; Nt5c3|Q9D020; Mpc2|Q9D023; Acbd6|Q9D061; Mgrn1|Q9D074; Arpin|Q9D0A3; Pbdc1|Q9D0B6; Lysmd1|Q9D0E3; Pgm1|Q9D0F9; Mrps30|Q9D0G0; Arl2|Q9D0J4; Oxct1|Q9D0K2; Adck1|Q9D0L4; Armc10|Q9D0L7; Cyc1|Q9D0M3; Dynll2|Q9D0M5; Mrpl45|Q9D0Q7; Hint2|Q9D0S9; Nudt14|Q9D142; Serpinb1a|Q9D154; Fxyd6|Q9D164; Gatd3a|Q9D172; Cndp2|Q9D1A2; Vps28|Q9D1C8; Tbcb|Q9D1E6; Agpat5|Q9D1E8; Pmvk|Q9D1G2; Lrrc57|Q9D1G5; Ndufaf4|Q9D1H6; Mcee|Q9D1I5; 1700037H04Rik|Q9D1K7; Lamtor5|Q9D1L9; Mrpl13|Q9D1P0; Chordc1|Q9D1P4; Lingo1|Q9D1T0; Nol3|Q9D1X0; Zdhhc21|Q9D270; Mmab|Q9D273; Ube2v2|Q9D2M8; Dtna|Q9D2N4; Mobp|Q9D2P8; Coro7|Q9D2V7; Acp1|Q9D358; Lamp5|Q9D387; Rufy3|Q9D394; Ttyh1|Q9D3A9; Atp5d|Q9D3D9; Plgrkt|Q9D3P8; Oxsm|Q9D404; Golga7b|Q9D428; Cmip|Q9D486; Exoc2|Q9D4H1; Shpk|Q9D5J6; Atad1|Q9D5T0; Cul5|Q9D5V5; Ptp4a3|Q9D658; Gabra4|Q9D6F4; Tubb4a|Q9D6F9; Cmtm5|Q9D6G9; Lurap1|Q9D6I9; Necab3|Q9D6J4; Ndufb8|Q9D6J5; Ndufv2|Q9D6J6; Synj2bp|Q9D6K5; Fundc2|Q9D6K8; Slc25a22|Q9D6M3; Idh3a|Q9D6R2; Mrrf|Q9D6S7; Fam162a|Q9D6U8; Borcs8|Q9D6Y4; Msra|Q9D6Y7; Gbe1|Q9D6Y9; S100a16|Q9D708; Pir|Q9D711; Mtfmt|Q9D799; Armc1|Q9D7A8; Acad8|Q9D7B6; Lhpp|Q9D7I5; Iscu|Q9D7P6; Chmp5|Q9D7S9; Lysmd2|Q9D7V2; Naaa|Q9D7V9; Dusp3|Q9D7X3; Ggct|Q9D7X8; Ppa1|Q9D819; Eef1akmt2|Q9D853; Uqcrb|Q9D855; Timm50|Q9D880; Itpa|Q9D892; Ndufa11|Q9D8B4; Jam3|Q9D8B7; Slc48a1|Q9D8M3; Arfgap3|Q9D8S3; Rexo2|Q9D8S4; Bola1|Q9D8S9; Fam3a|Q9D8T0; Gsdmd|Q9D8T2; Slirp|Q9D8T7; Ociad2|Q9D8W7; Efhd2|Q9D8Y0; Tmem126a|Q9D8Y1; Isca1|Q9D924; Tmem160|Q9D938; Gatm|Q9D964; Mdp1|Q9D967; Chic2|Q9D9G3; 1700066M21Rik|Q9D9H8; Echdc1|Q9D9V3; Dennd6b|Q9D9V7; Ddi1|Q9DAF3; Phpt1|Q9DAK9; Slc25a19|Q9DAM5; Gng12|Q9DAS9; Trmu|Q9DAT5; Cnn3|Q9DAW9; Smdt1|Q9DB10; Atp5o|Q9DB20; Phyhd1|Q9DB26; Iah1|Q9DB29; Haghl|Q9DB32; Chmp2a|Q9DB34; Slc25a18|Q9DB41; Zfpl1|Q9DB43; Prxl2b|Q9DB60; Cyb5r1|Q9DB73; Cdip1|Q9DB75; Uqcrc2|Q9DB77; Tysnd1|Q9DBA6; Dhdh|Q9DBB8; Prkar1a|Q9DBC7; Csad|Q9DBE0; Aldh7a1|Q9DBF1; Pgam1|Q9DBJ1; Acadsb|Q9DBL1; Gdap2|Q9DBL2; Coasy|Q9DBL7; Ehhadh|Q9DBM2; 4833439L19Rik|Q9DBN4; Lonp2|Q9DBN5; Cmpk1|Q9DBP5; Fam13c|Q9DBR2; Apbb2|Q9DBR4; Tm9sf1|Q9DBU0; Susd2|Q9DBX3; Tril|Q9DBY4; Nebl|Q9DC07; Abcb6|Q9DC29; Crot|Q9DC50; Gnai3|Q9DC51; Cpne8|Q9DC53; Pmpca|Q9DC61; Ndufa9|Q9DC69; Ndufs7|Q9DC70; Caly|Q9DCA7; Arpp21|Q9DCB4; Isca2|Q9DCB8; Tomm20|Q9DCC8; Ndufa8|Q9DCJ5; Npl|Q9DCJ9; Ppp1r2|Q9DCL8; Paics|Q9DCL9; Ethe1|Q9DCM0; Gstk1|Q9DCM2; Nudt12|Q9DCN1; Slc38a3|Q9DCP2; Mettl26|Q9DCS2; Mecr|Q9DCS3; Ndufb10|Q9DCS9; Akr1e1|Q9DCT1; Ndufs3|Q9DCT2; Pllp|Q9DCU2; Rmdn1|Q9DCV4; Etfb|Q9DCW4; Atp5h|Q9DCX2; Apoo|Q9DCZ4; Hikeshi|Q9DD02; Lactb|Q9EP89; Arfgap1|Q9EPJ9; Rp2|Q9EPK2; Trpv4|Q9EPK8; Ipo7|Q9EPL8; Acox3|Q9EPL9; Slc23a2|Q9EPR4; Glce|Q9EPS3; Tnfrsf21|Q9EPU5; Aldh6a1|Q9EQ20; Nif3l1|Q9EQ80; Cert1|Q9EQG9; Ehd4|Q9EQP2; Oga|Q9EQQ9; Igdcc4|Q9EQS9; Rapgef4|Q9EQZ6; Kcnh7|Q9ER47; Dap3|Q9ER88; Slco1c1|Q9ERB5; Tubb3|Q9ERD7; Parvg|Q9ERD8; Cse1l|Q9ERK4; Gucy1a1|Q9ERL9; Car7|Q9ERQ8; Ndufa13|Q9ERS2; Chrm3|Q9ERZ3; Ube3b|Q9ES34; Xpo4|Q9ESJ0; C1ql3|Q9ESN4; Agk|Q9ESW4; Pygl|Q9ET01; Dpp7|Q9ET22; Tm9sf3|Q9ET30; Asah2|Q9JHE3; Rcan2|Q9JHG2; Rcan1|Q9JHG6; Ivd|Q9JHI5; Rabggta|Q9JHK4; Ide|Q9JHR7; Lamtor2|Q9JHS3; Clpx|Q9JHS4; Palmd|Q9JHU2; Isyna1|Q9JHU9; Nit2|Q9JHW2; Lrp1b|Q9JI18; Fibp|Q9JI19; Abcb10|Q9JI39; Nudt3|Q9JI46; Jam2|Q9JI59; B3galt5|Q9JI67; Nqo2|Q9JI75; Rnf14|Q9JI90; Actn2|Q9JI91; Lgi1|Q9JIA1; Akr1a1|Q9JII6; Slc29a1|Q9JIM1; Fzd2|Q9JIP6; Ralb|Q9JIW9; Htra2|Q9JIY5; Plscr3|Q9JIZ9; Plscr1|Q9JJ00; Kcnip1|Q9JJ57; Abcb9|Q9JJ59; Kcnip2|Q9JJ69; Rilpl1|Q9JJC6; Sppl2a|Q9JJF9; Lancl2|Q9JJK2; Sh3bgrl|Q9JJU8; Pfn2|Q9JJV2; Cacng3|Q9JJV5; Pxmp4|Q9JJW0; P2rx4|Q9JJX6; Smpd3|Q9JJY3; Pdk2|Q9JK42; Kcnq5|Q9JK45; Myg1|Q9JK81; Uchl3|Q9JKB1; Cend1|Q9JKC6; Nectin1|Q9JKF6; Rcan3|Q9JKK0; Tmod2|Q9JKK7; Tesc|Q9JKL5; Nudt5|Q9JKX6; Slc5a3|Q9JKZ2; Fmn2|Q9JL04; Lgals8|Q9JL15; Fmnl1|Q9JL26; Mpp6|Q9JLB0; Mpp5|Q9JLB2; Aldh9a1|Q9JLJ2; Txnrd2|Q9JLT4; Rabgef1|Q9JM13; Nt5c|Q9JM14; Kcnj10|Q9JM63; Cdc42ep4|Q9JM96; Cntn6|Q9JMB8; Dnaja4|Q9JMC3; Stard10|Q9JMD3; Vstm2b|Q9JME9; Txnrd1|Q9JMH6; Neu3|Q9JMH7; Ecel1|Q9JMI0; Glrx|Q9QUH0; Rhoa|Q9QUI0; Dkk3|Q9QUN9; Prep|Q9QUR6; Sema7a|Q9QUR8; Srcin1|Q9QWI6; Naga|Q9QWR8; Homer2|Q9QWW1; Trim44|Q9QXA7; Drg2|Q9QXB9; Hacl1|Q9QXE0; Chm|Q9QXG2; Acss2|Q9QXG4; Apbb1|Q9QXJ1; Dbn1|Q9QXS6; Kcnip3|Q9QXT8; Spry2|Q9QXV8; Slc7a8|Q9QXW9; Ehd3|Q9QXY6; Pex3|Q9QXY9; Gpr37|Q9QY42; Tomm40|Q9QYA2; Clic4|Q9QYB1; Pcnx|Q9QYC1; Jag2|Q9QYE5; Golga5|Q9QYE6; Plekhb1|Q9QYE9; Ndrg3|Q9QYF9; Ndrg2|Q9QYG0; Dnajb2|Q9QYI5; Rnf11|Q9QYK7; Tmeff2|Q9QYM9; Acot2|Q9QYR9; Grm3|Q9QYS2; Pclo|Q9QYX7; Gab1|Q9QYY0; Tollip|Q9QZ06; Nagk|Q9QZ08; Nfu1|Q9QZ23; Rgs17|Q9QZB0; Rgs20|Q9QZB1; Trpc3|Q9QZC1; Plxnc1|Q9QZC2; Plekhb2|Q9QZC7; Slc25a10|Q9QZD8; Gpc1|Q9QZF2; Ecsit|Q9QZH6; Serinc3|Q9QZI9; Ubqln2|Q9QZM0; Fbxo6|Q9QZN4; Sh2d3c|Q9QZS8; Srr|Q9QZX7; Mvk|Q9R008; Ctsf|Q9R013; Nubp1|Q9R060; Bcam|Q9R069; Gpc6|Q9R087; Tk2|Q9R088; Pex14|Q9R0A0; Clcn2|Q9R0A1; Vav3|Q9R0C8; Wdr54|Q9R0D8; Acox1|Q9R0H0; Atp2b2|Q9R0K7; Celsr2|Q9R0M0; Rab9|Q9R0M6; Galk1|Q9R0N0; Syt10|Q9R0N4; Syt7|Q9R0N7; Esd|Q9R0P3; Dstn|Q9R0P5; Uchl1|Q9R0P9; Ptges3|Q9R0Q7; Mmp17|Q9R0S3; Acot9|Q9R0X4; Rpgr|Q9R0X5; Ak1|Q9R0Y5; Gda|Q9R111; Sqor|Q9R112; Tyk2|Q9R117; Cbln1|Q9R171; Cetn2|Q9R1K9; Septin6|Q9R1T4; Adam11|Q9R1V4; Adam22|Q9R1V6; Adam23|Q9R1V7; Pts|Q9R1Z7; Hebp1|Q9R257; Stk11|Q9WTK7; Lypla2|Q9WTL7; Ggps1|Q9WTN0; Cdh22|Q9WTP5; Ak2|Q9WTP6; Ak3|Q9WTP7; Akap12|Q9WTQ5; Timm23|Q9WTQ8; Trpv2|Q9WTR1; Cdh13|Q9WTR5; Slc7a11|Q9WTR6; Tenm1|Q9WTS4; Tenm2|Q9WTS5; Tenm3|Q9WTS6; Scn8a|Q9WTU3; Mapk9|Q9WTU6; Skp1|Q9WTX5; Rnf7|Q9WTZ1; Ptpn4|Q9WU22; Pfdn5|Q9WU28; Atrn|Q9WU60; Hebp2|Q9WU63; Pdcd6ip|Q9WU78; Prodh|Q9WU79; Ccs|Q9WU84; Akt3|Q9WUA6; Rbck1|Q9WUB0; Pygm|Q9WUB3; Ly6h|Q9WUC3; Faim|Q9WUD8; Arl3|Q9WUL7; Suclg1|Q9WUM5; Eci2|Q9WUR2; Ak4|Q9WUR9; Rps6ka2|Q9WUT3; Ctsz|Q9WUU7; Gabbr1|Q9WV18; Atp1a4|Q9WV27; Arc|Q9WV31; Mpp2|Q9WV34; Asah1|Q9WV54; Decr2|Q9WV68; Dmtn|Q9WV69; Nme3|Q9WV85; Stxbp4|Q9WV89; Ptgfrn|Q9WV91; Epb41l3|Q9WV92; Phlda3|Q9WV95; Timm10b|Q9WV96; Timm9|Q9WV98; Timm8a1|Q9WVA2; Slc25a15|Q9WVD5; Pacsin2|Q9WVE8; Kcnh3|Q9WVJ0; Cpq|Q9WVJ3; Crybb1|Q9WVJ5; Ehd1|Q9WVK4; Gstz1|Q9WVL0; Extl3|Q9WVL6; Magi2|Q9WVQ1; Car14|Q9WVT6; Ncdn|Q9Z0E0; Sncg|Q9Z0F7; Adam17|Q9Z0F8; Gipc1|Q9Z0G0; Npc2|Q9Z0J0; Tpbg|Q9Z0L0; Ggh|Q9Z0L8; Cdh20|Q9Z0M3; Lipa|Q9Z0M5; Palm|Q9Z0P4; Bpnt1|Q9Z0S1; Cldn10|Q9Z0S6; Xpr1|Q9Z0U0; Kcnd3|Q9Z0V1; Kcnd2|Q9Z0V2; Aifm1|Q9Z0X1; Heph|Q9Z0Z4; Aldh18a1|Q9Z110; Slc7a5|Q9Z127; Cpne6|Q9Z140; Plcb1|Q9Z1B3; Nfs1|Q9Z1J3; Arih1|Q9Z1K5; Arih2|Q9Z1K6; Cacna2d3|Q9Z1L5; P2rx7|Q9Z1M0; Ndufa7|Q9Z1P6; Clic1|Q9Z1Q5; Septin3|Q9Z1S5; Gab2|Q9Z1S8; Uso1|Q9Z1Z0; Dpp6|Q9Z218; Fxyd1|Q9Z239; Rasal1|Q9Z268; Rlbp1|Q9Z275; Pdpk1|Q9Z2A0; Gsdme|Q9Z2D3; Htatip2|Q9Z2G9; Rgs6|Q9Z2H2; Epb41l1|Q9Z2H5; Letm1|Q9Z2I0; Suclg2|Q9Z2I8; Sucla2|Q9Z2I9; Crlf3|Q9Z2L7; Ubl3|Q9Z2M6; Pmm2|Q9Z2M7; Septin5|Q9Z2Q6; Hdac6|Q9Z2V5; Gria4|Q9Z2W8; Gria3|Q9Z2W9; Plpbp|Q9Z2Y8; Slc25a20|Q9Z2Z6; Slc22a4|Q9Z306; Kcnj16|Q9Z307; Itpr2|Q9Z329; Kcnq2|Q9Z351; Osbpl10|S4R1M9; Slc8a3|S4R2P9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pnisr|A2AJT4; Rtf1|A2AQ19; Ptprz1|B9EKR1; Myo1e|E9Q634; Kng1|O08677; Sod3|O09164; Anp32a|O35381; Eif6|O55135; Supt5|O55201; Cfdp1|O88271; Scrg1|O88745; Afm|O89020; Adh1|P00329; H2-Q10|P01898; Hba-a1|P01942; Hbb-b1|P02088; Mt2|P02798; Apoa4|P06728; Alb|P07724; Serpina1a|P07758; Serpina3k|P07759; Apoe|P08226; Sub1|P11031; Prkar1b|P12849; Car1|P13634; Hspb1|P14602; Gstm2|P15626; Gc|P21614; Tgm2|P21981; Serpina1b|P22599; Crabp2|P22935; Cbx3|P23198; Cryab|P23927; Ces1c|P23953; Cdk11b|P24788; Ptma|P26350; Car8|P28651; Atxn10|P28658; Mug1|P28665; Ahsg|P29699; Serpinc1|P32261; Tagln|P37804; Pbx1|P41778; Cdkn1b|P46414; Pdcd2|P46718; Mapk14|P47811; Hdgf|P51859; Jak1|P52332; Stat6|P52633; Nub1|P54729; Pltp|P55065; Sst|P60041; Cbx1|P83917; Anp32e|P97822; Masp1|P98064; Gabpa|Q00422; Apoa1|Q00623; Serpina1d|Q00897; Pfdn6|Q03958; Dhps|Q3TXU5; Ogfod1|Q3U0K8; Qrich1|Q3UA37; Hdgfl2|Q3UMU9; Commd6|Q3V4B5; Pfas|Q5SUR0; Fam169a|Q5XG69; Bag1|Q60739; Eps15l1|Q60902; Papss1|Q60967; Lama5|Q61001; Asns|Q61024; Ppm1g|Q61074; Gbp3|Q61107; Nab2|Q61127; Serpinf2|Q61247; Bcan|Q61361; Itih1|Q61702; Itih2|Q61703; Ogn|Q62000; Coch|Q62507; Commd3|Q63829; Pde1c|Q64338; Isg15|Q64339; Pcnp|Q6P8I4; Carns1|Q6ZPS2; Fbxo22|Q78JE5; Plekhm1|Q7TSI1; Ripor2|Q80U16; Trim36|Q80WG7; Hapln3|Q80WM5; Aftph|Q80WT5; Nucks1|Q80XU3; Commd7|Q8BG94; Fto|Q8BGW1; Sephs1|Q8BH69; Sfr1|Q8BP27; Osgep|Q8BWU5; Neu4|Q8BZL1; Ttc27|Q8CD92; Gcc2|Q8CHG3; Commd9|Q8K2Q0; Prpf39|Q8K2Z2; Champ1|Q8K327; Dcaf8|Q8N7N5; Hid1|Q8R1F6; Mtss1|Q8R1S4; Ppp1r14a|Q91VC7; Wdr45|Q91VM3; Psme3ip1|Q91WE2; Hpx|Q91X72; Mtmr4|Q91XS1; Taldo1|Q93092; Thumpd1|Q99J36; Pdxdc1|Q99K01; Eps8l2|Q99K30; Ttc5|Q99LG4; Btf3l4|Q9CQH7; Tppp3|Q9CRB6; Ranbp3|Q9CT10; Snx10|Q9CWT3; Ssu72|Q9CY97; Ptms|Q9D0J8; Saal1|Q9D2C2; Synj2|Q9D2G5; Drap1|Q9D6N5; Kctd4|Q9D7X1; Chmp4b|Q9D8B3; Dennd10|Q9D8N2; Dcps|Q9DAR7; Cab39l|Q9DB16; Set|Q9EQU5; Anp32b|Q9EST5; Tmod3|Q9JHJ0; Slc9a3r2|Q9JHL1; Nrip2|Q9JHR9; Plekho1|Q9JIY0; Tuba8|Q9JJZ2; Scly|Q9JLI6; Cyhr1|Q9QXA1; Dnajc7|Q9QYI3; Sae1|Q9R1T2; Tagln2|Q9WVA4; Uba2|Q9Z1F9; Stk39|Q9Z1W9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smurf2|A2A5Z6; Sh3pxd2b|A2AAY5; Ndufaf5|A2APY7; Etl4|A2AQ25; Arhgef10l|A2AWP8; Mocs3|A2BDX3; Dennd4c|A6H8H2; Vwa5b1|A9Z1V5; Dlgap4|B1AZP2; Mthfd2l|D3YZG8; Pgbd5|D3YZI9; Shank1|D3YZU1; Ccdc8|D3YZV8; Syngap1|F6SEU4; Endog|O08600; Slc18a3|O35304; Exoc4|O35382; Timm44|O35857; Aox1|O54754; Csnk2a2|O54833; Bckdk|O55028; Ugdh|O70475; Syn1|O88935; Gcat|O88986; Dhfr|P00375; Aldoa|P05064; Me1|P06801; Spta1|P08032; Cbr2|P08074; Pde11a|P0C1Q2; Camk2a|P11798; Glud1|P26443; H2ax|P27661; Braf|P28028; Nckap1|P28660; Ckmt1|P30275; Ptk2|P34152; Tjp1|P39447; Syt1|P46096; Acadvl|P50544; Cpt2|P52825; Dbt|P53395; Hmgcs2|P54869; Atp6v1d|P57746; Mrps21|P58059; Mrps6|P58064; Rasa2|P58069; Ppfia3|P60469; Gabarapl2|P60521; Fgf12|P61329; Timm13|P62075; Abi2|P62484; Pafah1b1|P63005; Selenow|P63300; Dlg3|P70175; Map2k6|P70236; Rock2|P70336; Smad4|P97471; Pla2g6|P97819; Ank1|Q02357; Chat|Q03059; Enah|Q03173; Acads|Q07417; Cep76|Q0VEJ0; Ptcd3|Q14C51; Map3k13|Q1HKZ5; Iqsec3|Q3TES0; Slc17a7|Q3TXX4; Dhrs11|Q3U0B3; Tbc1d2b|Q3U0J8; Mettl17|Q3U2U7; Prickle1|Q3U5C7; Wnk2|Q3UH66; Plekha7|Q3UIL6; Gpd1l|Q3ULJ0; Cryzl2|Q3UNZ8; Tars2|Q3UQ84; Insyn2a|Q3USH1; Itpripl2|Q3UV16; Vps51|Q3UVL4; Fam81a|Q3UXZ6; Ppm1h|Q3UYC0; Slc25a31|Q3V132; Mthfd1l|Q3V3R1; Shank3|Q4ACU6; Abl2|Q4JIM5; Iqsec2|Q5DU25; Sdr39u1|Q5M8N4; Mrs2|Q5NCE8; Eml6|Q5SQM0; Tefm|Q5SSK3; Arhgap44|Q5SSM3; Wwc1|Q5SXA9; Rabl6|Q5U3K5; Ogdh|Q60597; Clpb|Q60649; Gcdh|Q60759; Ppp2r5c|Q60996; Fdxr|Q61578; Mrps31|Q61733; Kcna5|Q61762; Irak1|Q62406; Sh3gl3|Q62421; Vat1|Q62465; Syn2|Q64332; Sqstm1|Q64337; Radil|Q69Z89; Arhgap23|Q69ZH9; Fgd6|Q69ZL1; Ablim3|Q69ZX8; Ncoa7|Q6DFV7; Exoc3|Q6KAR6; Pptc7|Q6NVE9; Ocrl|Q6NVF0; Atg2a|Q6P4T0; Inppl1|Q6P549; Nwd2|Q6P5U7; Sepsecs|Q6P6M7; Ckmt2|Q6P8J7; Tatdn1|Q6P8M1; Sarm1|Q6PDS3; Dlgap3|Q6PFD5; Tlr13|Q6R5N8; Magi1|Q6RHR9; Sbf1|Q6ZPE2; Cand2|Q6ZQ73; Syne1|Q6ZWR6; Fsd1|Q7TPM6; Tppp|Q7TQD2; Mtmr12|Q80TA6; Epg5|Q80TA9; Cyld|Q80TQ2; Madd|Q80U28; Sestd1|Q80UK0; Whrn|Q80VW5; Mrps7|Q80X85; Ric8b|Q80XE1; Pip4k2b|Q80XI4; Ttc28|Q80XJ3; Wnk3|Q80XP9; Prickle2|Q80Y24; Ddhd1|Q80YA3; Arhgap33|Q80YF9; Shank2|Q80Z38; Mrps10|Q80ZK0; Mrps26|Q80ZS3; Zfyve1|Q810J8; Srgap3|Q812A2; Actbl2|Q8BFZ3; Ppp2r2c|Q8BG02; Dtd2|Q8BHA3; Anks1b|Q8BIZ1; Mrps35|Q8BJZ4; Mrps27|Q8BK72; Polrmt|Q8BKF1; Baiap2|Q8BKX1; Pdhx|Q8BKZ9; Shc2|Q8BMC3; Dlat|Q8BMF4; Kbtbd11|Q8BNW9; Mrpl22|Q8BU88; Wdfy2|Q8BUB4; Fam163b|Q8BUM6; Timmdc1|Q8BUY5; Lrch3|Q8BVU0; Arhgef33|Q8BW86; Vps13c|Q8BX70; Iffo1|Q8BXL9; Yars2|Q8BYL4; Fsd1l|Q8BYN5; Vps52|Q8C754; Mmaa|Q8C7H1; Wdr37|Q8CBE3; Abi1|Q8CBW3; Vps53|Q8CCB4; Bcas3|Q8CCN5; Pars2|Q8CFI5; Wdr47|Q8CGF6; Ogt|Q8CGY8; Vps50|Q8CI71; Fnbp1l|Q8K012; Gtpbp10|Q8K013; Samd14|Q8K070; Katnal1|Q8K0T4; Hspa12a|Q8K0U4; Angel2|Q8K1C0; Dnm1l|Q8K1M6; Pnpt1|Q8K1R3; Spire2|Q8K1S6; Pacs1|Q8K212; Mrpl38|Q8K2M0; Chchd7|Q8K2Q5; Acad10|Q8K370; Abhd11|Q8K4F5; Ablim1|Q8K4G5; Stk32c|Q8QZV4; Cacnb4|Q8R0S4; Aldh1l1|Q8R0Y6; Aagab|Q8R2R3; Ap3m2|Q8R2R9; Ntmt1|Q8R2U4; Mcat|Q8R3F5; Exoc1|Q8R3S6; Arhgef12|Q8R4H2; Rapgef3|Q8VCC8; Sgip1|Q8VD37; Fbxo21|Q8VDH1; Mrps23|Q8VE22; C030006K11Rik|Q8VE95; Amot|Q8VHG2; Wasf3|Q8VHI6; Wdr13|Q91V09; Chn1|Q91V57; Brk1|Q91VR8; Farp2|Q91VS8; Gldc|Q91W43; Spryd4|Q91WK1; Dlg2|Q91XM9; Arhgap35|Q91YM2; Tbrg4|Q91YM4; L2hgdh|Q91YP0; Nln|Q91YP2; Pcca|Q91ZA3; Fastkd2|Q922E6; D230025D16Rik|Q922R1; Ppp2r2d|Q925E7; Grip1|Q925T6; Ophn1|Q99J31; Atg5|Q99J83; Homer3|Q99JP6; Nmnat3|Q99JR6; Vwa5a|Q99KC8; Fars2|Q99M01; Erc1|Q99MI1; Mrps5|Q99N87; Mrpl16|Q99N93; Mrpl9|Q99N94; Mrpl3|Q99N95; Mrpl1|Q99N96; Rims1|Q99NE5; Nsmf|Q99NF2; Acsbg1|Q99PU5; Ndufb2|Q9CPU2; Mrps16|Q9CPX7; Dmac1|Q9CQ00; Mrpl24|Q9CQ06; Decr1|Q9CQ62; Vps25|Q9CQ80; Mrpl11|Q9CQF0; Mrpl18|Q9CQL5; Mrps36|Q9CQX8; Gadd45gip1|Q9CR59; Mrps22|Q9CXW2; Mrpl44|Q9CY73; Wars2|Q9CYK1; Mtif3|Q9CZD5; Pdzd11|Q9CZG9; Pdhb|Q9D051; Mtpap|Q9D0D3; Mrpl28|Q9D1B9; Mrpl14|Q9D1I6; Chchd2|Q9D1L0; Dlst|Q9D2G2; Mrps33|Q9D2R8; Mrpl19|Q9D338; Dlgap1|Q9D415; Mrpl2|Q9D773; Mrps9|Q9D7N3; Atg101|Q9D8Z6; Atg7|Q9D906; Mcts1|Q9DB27; Selenoo|Q9DBC0; Tax1bp3|Q9DBG9; Fbxo3|Q9DC63; Mrps15|Q9DC71; Mrps11|Q9DCA2; Ap3s1|Q9DCR2; Mrpl4|Q9DCU6; Dtd1|Q9DD18; Parva|Q9EPC1; Ndel1|Q9ERR1; Nckipsd|Q9ESJ4; Mapk8ip3|Q9ESN9; Mrps34|Q9JIK9; Sars2|Q9JJL8; Mrpl39|Q9JKF7; Ndufaf3|Q9JKL4; Auh|Q9JLZ3; Dguok|Q9QX60; Kif21b|Q9QXL1; Add3|Q9QYB5; Add1|Q9QYC0; Afdn|Q9QZQ1; Mapk8ip1|Q9WVI9; Timm17a|Q9Z0V8; Mtmr1|Q9Z2C4; Mtm1|Q9Z2C5; Mrpl40|Q9Z2Q5; Homer1|Q9Z2Y3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klhdc7a|A2APT9; Mgll|O35678; Atp6v0d1|P51863; Dnajc5|P60904; Vamp2|P63044; Atp8a1|P70704; Rab33a|P97950; Rab26|Q504M8; Mfsd4a|Q6PDC8; Slc35d3|Q8BGF8; Gbp5|Q8CFB4; Rnasek|Q8K3C0; Angel1|Q8VCU0; Abhd4|Q8VD66; Rcc1|Q8VE37; Exd2|Q8VEG4; Syt17|Q920M7; Syt12|Q920N7; Rab30|Q923S9; Trabd|Q99JY4; Hint3|Q9CPS6; Cyb5b|Q9CQX2; Msmo1|Q9CRA4; Stx17|Q9D0I4; Rab27a|Q9ERI2; Rdh14|Q9ERI6; Reep6|Q9JM62; Atp6v0a1|Q9Z1G4; Bnip3l|Q9Z2F7</t>
-  </si>
-  <si>
     <t xml:space="preserve">M12</t>
   </si>
   <si>
-    <t xml:space="preserve">Mt1|P02802; Ccdc88a|Q5SNZ0; Trpc1|Q61056; Fkbp15|Q6P9Q6; Rufy1|Q8BIJ7; Arhgap18|Q8K0Q5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arhgap27|A2AB59; Kif16b|B1AVY7; Usp24|B1AY13; Ccdc6|D3YZP9; Wdfy4|E9Q2M9; Map3k4|O08648; Serpinb8|O08800; Diaph1|O08808; Ro60|O08848; Dpysl4|O35098; Kpna4|O35343; Kpna6|O35345; Cops5|O35864; Dffa|O54786; Chka|O54804; Impact|O55091; Pip4k2a|O70172; Cops3|O88543; Cops4|O88544; Cops6|O88545; Gnpda1|O88958; Prkaca|P05132; Ckm|P07310; Alad|P10518; Prkar2a|P12367; Umps|P13439; Glul|P15105; Ass1|P16460; Hspa2|P17156; Rps6ka3|P18654; Fasn|P19096; Sag|P20443; Plaa|P27612; Akt1|P31750; Ptpn11|P35235; Cap1|P40124; Tkt|P40142; Ahcy|P50247; Uros|P51163; Pkm|P52480; Adsl|P54822; Ensa|P60840; Ube2m|P61082; Cops2|P61202; Ppp1ca|P62137; Ppp1cb|P62141; Elob|P62869; Dnaja1|P63037; Ppp1cc|P63087; Ppp2ca|P63330; Csnk2b|P67871; Pfkfb2|P70265; Ctps2|P70303; Usp9x|P70398; Eloc|P83940; Crmp1|P97427; F8a|Q00558; Rsu1|Q01730; Ubxn2b|Q0KL01; Gspt2|Q149F3; Myl12b|Q3THE2; Aarsd1|Q3THG9; Gmps|Q3THK7; Mat2a|Q3THS6; Trmt1|Q3TX08; Zyg11b|Q3UFS0; Arfgef3|Q3UGY8; Limch1|Q3UH68; Mylk3|Q3UIZ8; Arhgef9|Q3UTH8; Nt5c2|Q3V1L4; Pacs2|Q3V3Q7; Ankrd28|Q505D1; Ubr3|Q5U430; Cttn|Q60598; Myl6|Q60605; Csnk2a1|Q60737; Kpna1|Q60960; Clns1a|Q61189; Lasp1|Q61792; Pdcd4|Q61823; Myh10|Q61879; Map3k7|Q62073; Dpysl3|Q62188; Crtc1|Q68ED7; Fnip1|Q68FD7; Hectd1|Q69ZR2; Swap70|Q6A028; Hdac4|Q6NZM9; Ppp4r3a|Q6P2K6; Sik3|Q6P4S6; Xpo1|Q6P5F9; Kank4|Q6P9J5; Nudcd1|Q6PIP5; Ppp1r9b|Q6R891; Ubr2|Q6WKZ8; Tiam2|Q6ZPF3; Cand1|Q6ZQ38; Ubfd1|Q78JW9; Fcsk|Q7TMC8; Ciao3|Q7TMW6; Huwe1|Q7TMY8; Ctdp1|Q7TSG2; Rpap1|Q80TE0; Snupn|Q80W37; Reps2|Q80XA6; Atg2b|Q80XK6; Zer1|Q80ZJ6; Katnb1|Q8BG40; Nrd1|Q8BHG1; Nup93|Q8BJ71; Psmd5|Q8BJY1; Fbxo44|Q8BK26; Nars|Q8BP47; Ppp1r18|Q8BQ30; Cep295|Q8BQ48; Flna|Q8BTM8; Gmppb|Q8BTZ7; Gphn|Q8BUV3; Cops7b|Q8BV13; Pdcl3|Q8BVF2; Arrb1|Q8BWG8; Etnppl|Q8BWU8; Pkn2|Q8BWW9; Kank2|Q8BX02; Phlpp2|Q8BXA7; Tnr|Q8BYI9; Pgm5|Q8BZF8; Arhgap12|Q8C0D4; Gpcpd1|Q8C0L9; Fem1al|Q8C0T1; Tango6|Q8C3S2; Crbn|Q8C7D2; Gan|Q8CA72; Inpp5f|Q8CDA1; Tab1|Q8CF89; Phlpp1|Q8CHE4; Myl6b|Q8CI43; Amdhd2|Q8JZV7; Ipo13|Q8K0C1; Eipr1|Q8K0G5; Ipo11|Q8K2V6; Babam2|Q8K3W0; Mapre2|Q8R001; Blmh|Q8R016; Apeh|Q8R146; Exoc6|Q8R313; Ubqln1|Q8R317; Cog6|Q8R3I3; Ppp6r2|Q8R3Q2; Tbc1d22a|Q8R5A6; Usp15|Q8R5H1; Aspscr1|Q8VBT9; Cops8|Q8VBV7; Gpn1|Q8VCE2; Nrbf2|Q8VCQ3; Ubl7|Q91W67; Man2c1|Q91W89; Lrrfip2|Q91WK0; Twf1|Q91YR1; Ugp2|Q91ZJ5; Ivns1abp|Q920Q8; Prmt3|Q922H1; Gmppa|Q922H4; Ubxn1|Q922Y1; Mvd|Q99JF5; Klhl22|Q99JN2; Usp11|Q99K46; Ciao1|Q99KN2; Nampt|Q99KQ4; Gmpr2|Q99L27; Mat2b|Q99LB6; Gps1|Q99LD4; Lpin2|Q99PI5; Ubxn6|Q99PL6; Denr|Q9CQJ6; Atg12|Q9CQY1; Rnf181|Q9CY62; Cap2|Q9CYT6; Snf8|Q9CZ28; Mms19|Q9D071; Trmt44|Q9D2Q2; Aacs|Q9D2R0; Cul2|Q9D4H8; Ccdc91|Q9D8L5; Rwdd2a|Q9D9S3; Ift22|Q9DAI2; Zfyve19|Q9DAZ9; Klc4|Q9DBS5; Dcaf6|Q9DC22; Pycrl|Q9DCC4; Pgd|Q9DCD0; Trmt112|Q9DCG9; Gmpr|Q9DCZ1; Xpo7|Q9EPK7; Nbea|Q9EPN1; Dpysl5|Q9EQF6; Ube4b|Q9ES00; Lrba|Q9ESE1; Psmg2|Q9EST4; Ngly1|Q9JI78; Psmg1|Q9JK23; Iqgap1|Q9JKF1; Kif21a|Q9QXL2; Pde7b|Q9QXQ1; Dnaja2|Q9QYJ0; Pnck|Q9QYK9; Pfkp|Q9WUA3; Stub1|Q9WUD1; Coro1b|Q9WUM3; Carm1|Q9WVG6; Apip|Q9WVQ5; Twf2|Q9Z0P5; Ate1|Q9Z2A5; Mtmr2|Q9Z2D1; Psmd10|Q9Z2X2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cul4b|A2A432; Dhx8|A2A4P0; Arfgef2|A2A5R2; Tanc2|A2A690; Gpatch8|A2A6A1; Cdc27|A2A6Q5; Camta1|A2A891; Szt2|A2A9C3; Med14|A2ABV5; Ttc39a|A2ACP1; Dock11|A2AF47; Map7d2|A2AG50; Gm12695|A2AGB2; Med12|A2AGH6; Ckap5|A2AGT5; Camsap1|A2AHC3; Lzts3|A2AHG0; Tprn|A2AI08; Virma|A2AIV2; Map7d1|A2AJI0; Focad|A2AKG8; Setx|A2AKX3; Ptpn3|A2ALK8; Ubr4|A2AN08; Ppig|A2AR02; Ralgps1|A2AR50; Ankrd63|A2ARS0; Agrn|A2ASQ1; Las1l|A2BE28; Uhrf1bp1l|A2RSJ4; Dennd5b|A2RSQ0; Trmt1l|A2RSY6; Rsrc2|A2RTL5; Chd6|A3KFM7; Nt5c1a|A3KFX0; Ccdc9b|A3KGF9; Ralgapa2|A3KGS3; Ttll7|A4Q9F0; Arhgap31|A6X8Z5; Itih4|A6X935; Sec14l1|A8Y5H7; Uprt|B1AVZ0; Nhsl2|B1AXH1; Nfx1|B1AY10; Otud3|B1AZ99; Thoc2|B1AZI6; Plekhd1|B2RPU2; Cad|B2RQC6; Ythdc2|B2RR83; Otud4|B2RRE7; Rrn3|B2RS91; Zcchc24|B2RVL6; Tut4|B2RX14; Plcxd2|B2RXA1; Trappc11|B2RXC1; Rbm25|B2RY56; Cttnbp2|B9EJA2; Mfap1b|C0HKD9; Safb|D3YXK2; Klhl3|E0CZ16; Soga1|E1U8D0; Fga|E9PV24; Gcn1|E9PVA8; Sbf2|E9PXF8; Ift140|E9PY46; Setd1a|E9PYH6; Parp4|E9PYK3; Ascc3|E9PZJ8; Chd2|E9PZM4; Ryr1|E9PZQ0; Irf2bp2|E9Q1P8; Akap13|E9Q394; Ryr2|E9Q401; Wdfy1|E9Q4P1; Rnf213|E9Q555; Dsp|E9Q557; Nolc1|E9Q5C9; Ythdc1|E9Q5K9; Ccdc85c|E9Q6B2; Bod1l|E9Q6J5; Zc3h13|E9Q784; Arhgef5|E9Q7D5; Rnf169|E9Q7F2; Numa1|E9Q7G0; Chadl|E9Q7T7; Fry|E9Q8I9; Dlg5|E9Q9R9; Sec16a|E9QAT4; Tpr|F6ZDS4; Aox3|G3X982; Sipa1l3|G3X9J0; Arfgef1|G3X9K3; Trip12|G5E870; Zbtb11|G5E8B9; Tubgcp6|G5E8P0; Gtpbp1|O08582; Alyref|O08583; Mknk1|O08605; Myh11|O08638; Sh3yl1|O08641; Metap2|O08663; Kifc2|O08672; Ampd3|O08739; Ube3a|O08759; Tcof1|O08784; Dctn1|O08788; Eftud2|O08810; Ercc2|O08811; Pik3r2|O08908; Numbl|O08919; Cyth3|O08967; Hps1|O08983; Psmb1|O09061; Hdac1|O09106; Map2k3|O09110; Ntn1|O09118; Rpl21|O09167; Kif3c|O35066; Kif1c|O35071; Vps26c|O35075; Map3k5|O35099; Emg1|O35130; Terf2|O35144; Col15a1|O35206; Cpsf2|O35218; Psmd4|O35226; Kifc3|O35231; Ptpn9|O35239; Dhx15|O35286; Purb|O35295; Srsf5|O35326; Clk3|O35492; Cdk14|O35495; Psmb9|O35522; Psmd14|O35593; Ift81|O35594; Scamp3|O35609; Slc32a1|O35633; Stag2|O35638; Ap1b1|O35643; Hap1|O35668; Pnn|O35691; Ppfibp2|O35711; Ring1|O35730; Hnrnph1|O35737; Api5|O35841; Lsm2|O35900; Cdk5r2|O35926; Psmb10|O35955; Per1|O35973; Cavin1|O54724; Ap3d1|O54774; Srpk2|O54781; Dapk3|O54784; Limk2|O54785; Tpd52l1|O54818; Il16|O54824; Bysl|O54825; Hmgb3|O54879; Dnajb6|O54946; Tnk2|O54967; Trappc3|O55013; Copb2|O55029; Nck2|O55033; Pde6d|O55057; Syngr1|O55100; Strn|O55106; Sap18|O55128; Rpl35a|O55142; Pja1|O55176; Cbx4|O55187; Ilk|O55222; Psmb5|O55234; Rngtt|O55236; Dhx9|O70133; Fcna|O70165; Eif3d|O70194; Eef1b2|O70251; Ess2|O70279; Grk6|O70293; Mab21l1|O70299; Atxn2|O70305; Nmt1|O70310; Nmt2|O70311; Cript|O70333; Dxo|O70348; Cbfa2t2|O70374; Ulk1|O70405; Fhl2|O70433; Psma3|O70435; Sp3|O70494; Srpk1|O70551; Diaph2|O70566; Dtnb|O70585; Ttc3|O88196; Zfp326|O88291; Ikbkb|O88351; Klc2|O88448; Dync1i1|O88485; Dync1i2|O88487; Plin4|O88492; Shoc2|O88520; Ikbkg|O88522; Zfr|O88532; Hnrnpa2b1|O88569; Becn1|O88597; Parg|O88622; Psmc3|O88685; Map7|O88735; Birc6|O88738; Rpp30|O88796; Dcx|O88809; Akap10|O88845; Tspyl1|O88852; Ccnk|O88874; Apaf1|O88879; Hdac3|O88895; Mkln1|O89050; Cope|O89079; Rbm3|O89086; Lancl1|O89112; Dnajb5|O89114; Abl1|P00520; C3|P01027; C4b|P01029; Igkv6-17|P01633; Igkv12-41|P01635; Igkc|P01837; Ighg2b|P01867; Ighm|P01872; Gfap|P03995; Krt1|P04104; Cfb|P04186; Krt18|P05784; Nr3c1|P06537; Hc|P06684; Cfh|P06909; Ercc1|P07903; Phkg1|P07934; Nefl|P08551; Nefm|P08553; Polr2a|P08775; Ncl|P09405; Fth1|P09528; Hmgn2|P09602; Rc3h2|P0C090; Dnah2|P0C6F1; Wipf3|P0C7L0; Eef1a1|P10126; Nid1|P10493; Eif4a2|P10630; Mapt|P10637; Tcea1|P10711; H1f0|P10922; Parp1|P11103; Gpx1|P11352; Krt8|P11679; Cfp|P11680; Gas2|P11862; Tcp1|P11983; Mdk|P12025; Pfkl|P12382; Rpl7a|P12970; Msh3|P13705; Dnmt1|P13864; C1qb|P14106; Rpl27a|P14115; Rps16|P14131; Rpl7|P14148; Rpsa|P14206; Srp54a|P14576; Psmd3|P14685; Rplp0|P14869; Map1b|P14873; Prph|P15331; H1f2|P15864; Srp14|P16254; Hmga1|P17095; Ptbp1|P17225; Ap2a1|P17426; Ap2a2|P17427; Hspa1b|P17879; Rps6ka1|P18653; Phka1|P18826; Ifrd1|P19182; F2|P19221; Nefh|P19246; Rpl13a|P19253; Hexb|P20060; Vim|P20152; Map2|P20357; Plg|P20918; Ubl4a|P21126; Bdnf|P21237; Myo5b|P21271; Cbl|P22682; Eif3a|P23116; Mov10|P23249; Xrcc6|P23475; Impdh2|P24547; Ndn|P25233; Rps2|P25444; Ubtf|P25976; U2af2|P26369; Pik3r1|P26450; Psmd7|P26516; Sars|P26638; Snrpb|P27048; Map4|P27546; Xrcc5|P27641; Rpl3|P27659; Rasgrf1|P27671; Psmb8|P28063; Apex1|P28352; Adssl1|P28650; Camk2b|P28652; Celf1|P28659; Rxrb|P28704; Kif5c|P28738; Kif2a|P28740; Kif3a|P28741; Pabpc1|P29341; Ftl1|P29391; Vtn|P29788; Hmgb2|P30681; Aimp1|P31230; Ssb|P32067; Drg1|P32233; Wars|P32921; Kif5a|P33175; Apoc3|P33622; Apoc1|P34928; Fbl|P35550; Irs1|P35569; Foxa2|P35583; Fmr1|P35922; Rpl12|P35979; Rpl18|P35980; Col18a1|P39061; Fen1|P39749; Ighmbp2|P40694; Rpl28|P41105; Csk|P41241; Matk|P41242; Foxk1|P42128; Stat1|P42225; Pik3ca|P42337; Pura|P42669; Htt|P42859; Cct8|P42932; Msh2|P43247; H1f4|P43274; H1f1|P43275; H1f5|P43276; Crebbp|P45481; Rangap1|P46061; Sipa1|P46062; Syt2|P46097; Psmc2|P46471; Cryz|P47199; Capza1|P47753; Capza2|P47754; Capzb|P47757; Gfpt1|P47856; Pfkm|P47857; Rpl6|P47911; Rpl29|P47915; Rplp1|P47955; Rpl5|P47962; Rpl13|P47963; Rpl36|P47964; Eif1|P48024; Sox2|P48432; Ppp3cc|P48455; Cit|P49025; Ercc3|P49135; Mapkapk2|P49138; Hnrnpa1|P49312; Pcyt1a|P49586; Psma2|P49722; Srp9|P49962; Impdh1|P50096; Atp6v1a|P50516; Atp6v1e1|P50518; Pa2g4|P50580; Cast|P51125; Rpl9|P51410; Nek1|P51954; Kpna2|P52293; Pon1|P52430; Pold1|P52431; Polr1c|P52432; Usp10|P52479; Uck1|P52623; Fgd1|P52734; Tia1|P52912; Rpl10a|P53026; Cebpz|P53569; Anapc1|P53995; Cnbp|P53996; Dnajc2|P54103; Atxn1|P54254; Msh6|P54276; Lipe|P54310; Psmc4|P54775; Ddx6|P54823; Ncan|P55066; Sh3bp1|P55194; Rrp1|P56183; Arpp19|P56212; Tdg|P56581; Fus|P56959; Exosc10|P56960; Pcbp3|P57722; Pcbp4|P57724; Eef1d|P57776; Snrpa1|P57784; Eef2|P58252; Strn4|P58404; Paxbp1|P58501; Btbd1|P58544; Tubgcp3|P58854; Tnks1bp1|P58871; Gmeb2|P58929; Vps33b|P59016; Pcif1|P59114; Nphp4|P59240; Cgn|P59242; Arhgap39|P59281; Eif5|P59325; Ythdf1|P59326; Polr3b|P59470; Inpp5j|P59644; Sf3b6|P59708; Mrtfb|P59759; Dock4|P59764; Sash1|P59808; Arpc4|P59999; Ruvbl1|P60122; Rims4|P60191; Eif3e|P60229; Pcbp1|P60335; Nploc4|P60670; Cirbp|P60824; Eif4a1|P60843; Lzts1|P60853; Rps20|P60867; Actr2|P61161; Actr1a|P61164; Abce1|P61222; Rpl26|P61255; Psme3|P61290; Rpl27|P61358; Smg6|P61406; Depdc5|P61460; Rpl37a|P61514; Naa20|P61600; Cdk5r1|P61809; Copz1|P61924; Dcaf7|P61963; Wdr5|P61965; Lmo4|P61969; Hnrnpk|P61979; Lrch1|P62046; Usp46|P62069; Rps7|P62082; Psmc1|P62192; Psmc5|P62196; Rps8|P62242; Rps15a|P62245; Ube2h|P62257; Rps14|P62264; Rps23|P62267; Rps18|P62270; Rps29|P62274; Rps11|P62281; Rps13|P62301; Snrpe|P62305; Snrpf|P62307; Snrpg|P62309; Lsm3|P62311; Lsm6|P62313; Snrpd1|P62315; Snrpd2|P62317; Snrpd3|P62320; Psmc6|P62334; Dynlrb1|P62627; Eef1a2|P62631; Ypel5|P62700; Rps4x|P62702; Rpl18a|P62717; Ap2s1|P62743; Rpl23a|P62751; Rps6|P62754; Atp6v1b2|P62814; Rpl23|P62830; Rps15|P62843; Rps24|P62849; Rps25|P62852; Rps26|P62855; Rps28|P62858; Fau|P62862; Rbx1|P62878; Rpl30|P62889; Rpl31|P62900; Rps3|P62908; Rpl32|P62911; Gtf2b|P62915; Rpl8|P62918; Ybx1|P62960; Rps27a|P62983; Uba52|P62984; Tra2b|P62996; Tpt1|P63028; Cyth2|P63034; Eif4e|P63073; Mapk1|P63085; Ptn|P63089; Crnkl1|P63154; Hmgb1|P63158; Sumo1|P63166; Eif5a|P63242; Crip1|P63254; Rps17|P63276; Ube2i|P63280; Rps12|P63323; Rps10|P63325; Rpl22|P67984; Rack1|P68040; Prkacb|P68181; Ranbp9|P69566; Sbds|P70122; Pip5k1a|P70182; Kifap3|P70188; Psmb7|P70195; Nfic|P70255; Nfix|P70257; Surf6|P70279; Hdac2|P70288; Tial1|P70318; Hnrnph2|P70333; Smad1|P70340; Ufd1|P70362; Ncoa1|P70365; Elavl1|P70372; Fgf13|P70377; Rad50|P70388; Rasgrf2|P70392; Rit2|P70425; Evl|P70429; Vasp|P70460; Ldb1|P70662; Naca|P70670; Cct7|P80313; Cct2|P80314; Cct4|P80315; Cct5|P80316; Cct6a|P80317; Cct3|P80318; Irs2|P81122; Tnik|P83510; Wnk1|P83741; Phf5a|P83870; Txnl4a|P83877; Rpl36a|P83882; Tubg1|P83887; Erh|P84089; Ap2m1|P84091; Rpl19|P84099; Srsf3|P84104; Serping1|P97290; Polr1d|P97304; Mcm2|P97310; Prkdc|P97313; Rps3a1|P97351; Etv6|P97360; Evi5|P97366; Psme1|P97371; Psme2|P97372; Frg1|P97376; G3bp2|P97379; Lig3|P97386; Arhgap5|P97393; Lyst|P97412; Nbr1|P97432; Arhgef28|P97433; Mprip|P97434; Fhl1|P97447; Rps5|P97461; Ppp4c|P97470; Tarbp2|P97473; Myo7a|P97479; Smarcc1|P97496; Tep1|P97499; Polr2c|P97760; Rp9|P97762; Xrn1|P97789; Smn1|P97801; Map4k4|P97820; G3bp1|P97855; Nfib|P97863; Rbbp6|P97868; C1qa|P98086; Psmb4|P99026; Rplp2|P99027; Xdh|Q00519; Hnrnpul2|Q00PI9; Vcp|Q01853; C1qc|Q02105; Sos2|Q02384; Sap30bp|Q02614; Nfia|Q02780; Prkcz|Q02956; Mark3|Q03141; Cdk7|Q03147; Eif2ak2|Q03963; Nf1|Q04690; Smarcad1|Q04692; Cdk18|Q04899; Mark2|Q05512; Hspg2|Q05793; Fmn1|Q05860; Rnasel|Q05921; Mex3c|Q05A36; Spindoc|Q05AH6; Eml1|Q05BC3; Larp7|Q05CL8; Eif5b|Q05D44; Serpine2|Q07235; Cnn1|Q08091; Lyar|Q08288; Eps8|Q08509; Ssrp1|Q08943; Agbl4|Q09LZ8; Inf2|Q0GNC1; Ttc21b|Q0HA38; Kndc1|Q0KK55; Trio|Q0KL02; Vps8|Q0P5W1; Zc3h18|Q0P678; Dact3|Q0PHV7; Exph5|Q0VAV2; Rbm15|Q0VBL3; Samd12|Q0VE29; Tanc1|Q0VGY8; St3gal2|Q11204; Cdk12|Q14AX6; Map6d1|Q14BB9; Fam219b|Q14DQ1; Nsun2|Q1HFZ0; Specc1l|Q2KN98; Bzw2|Q2L4X1; Phactr1|Q2M3X8; Gsk3a|Q2NL51; Psd3|Q2PFD7; Patl1|Q3TC46; Cul4a|Q3TCH7; Khdc4|Q3TCX3; Ppp1r21|Q3TDD9; Rogdi|Q3TDK6; Hp1bp3|Q3TEA8; Fam107b|Q3TGF2; Gtf2f1|Q3THK3; H2az2|Q3THW5; Trappc13|Q3TIR1; Zc3h15|Q3TIV5; Usp39|Q3TIX9; Fam98a|Q3TJZ6; Uri1|Q3TLD5; Prrc2c|Q3TLH4; Trappc10|Q3TLI0; Fam172a|Q3TNH5; BC005624|Q3TQI7; Map9|Q3TRR0; Alkbh5|Q3TSG4; Hexim2|Q3TVI4; Srsf6|Q3TWW8; Psmd1|Q3TXS7; Nol9|Q3TZX8; Trappc9|Q3U0M1; Khsrp|Q3U0V1; Ccdc174|Q3U155; Ddb1|Q3U1J4; Map3k9|Q3U1V8; Dennd4b|Q3U1Y4; Mast3|Q3U214; Fam160a2|Q3U2I3; Nudt18|Q3U2V3; Rnf40|Q3U319; Fam117b|Q3U3E2; Hectd3|Q3U487; Dcp1b|Q3U564; Ap5z1|Q3U829; Foxk2|Q3UCQ1; Mex3d|Q3UE17; Puf60|Q3UEB3; Nom1|Q3UFM5; Carmil3|Q3UFQ8; Gpatch11|Q3UFS4; Rrp36|Q3UFY0; Wdr19|Q3UGF1; Mcrip1|Q3UGS4; Dip2b|Q3UH60; Spg11|Q3UHA3; Ccdc177|Q3UHB8; Tnrc6c|Q3UHC0; Dab2ip|Q3UHC7; Gfod1|Q3UHD2; Mtus2|Q3UHD3; Agap2|Q3UHD9; Hivep2|Q3UHF7; Zswim8|Q3UHH1; Aak1|Q3UHJ0; Tnrc6a|Q3UHK8; Dop1b|Q3UHQ6; Mtcl1|Q3UHU5; Pdap1|Q3UHX2; Dtx3l|Q3UIR3; Rnf10|Q3UIW5; Edc4|Q3UJB9; Usp19|Q3UJD6; Gtpbp2|Q3UJK4; Smu1|Q3UKJ7; Arglu1|Q3UL36; Btrc|Q3ULA2; Ccdc106|Q3ULM0; Parp3|Q3ULW8; Cog7|Q3UM29; Spata5|Q3UMC0; Cobll1|Q3UMF0; Lrch2|Q3UMG5; Ppp1r12c|Q3UMT1; Eml4|Q3UMY5; Nxt2|Q3UNA4; Zc3hav1|Q3UPF5; Arhgef40|Q3UPH7; Sec31a|Q3UPL0; Pxdn|Q3UQ28; Iqgap2|Q3UQ44; Selenoh|Q3UQA7; Tgfbrap1|Q3UR70; Tex10|Q3URQ0; Mthfsd|Q3URQ7; Peg3|Q3URU2; Sfswap|Q3USH5; Sorbs2|Q3UTJ2; Cdkl5|Q3UTQ8; Map11|Q3UTZ3; Cdc42bpa|Q3UU96; Ankrd34b|Q3UUF8; Ksr2|Q3UVC0; Fam91a1|Q3UVG3; Ttbk2|Q3UVR3; 2210016L21Rik|Q3UY34; Grk3|Q3UYH7; Ncbp1|Q3UYV9; Rnpc3|Q3UZ01; Ttc9|Q3V038; Garnl3|Q3V0G7; Mfhas1|Q3V1N1; Bbs1|Q3V3N7; Carmil2|Q3V3V9; Snx25|Q3ZT31; Dync2h1|Q45VK7; Stox2|Q499E5; Prpf38a|Q4FK66; Ddx49|Q4FZF3; Klhdc2|Q4G5Y1; Herc2|Q4U2R1; Pds5b|Q4VA53; Cdv3|Q4VAA2; Wdr18|Q4VBE8; Maea|Q4VC33; Rc3h1|Q4VGL6; Ddx17|Q501J6; Phactr4|Q501J7; Lrrc47|Q505F5; Rtl6|Q505G4; Spire1|Q52KF3; Srrm1|Q52KI8; Ddx46|Q569Z5; Thrap3|Q569Z6; Gpkow|Q56A08; Deptor|Q570Y9; Prag1|Q571I4; Tut7|Q5BLK4; Rnf20|Q5DTM8; Jakmip3|Q5DTN8; Psd|Q5DTT2; Zc3h12c|Q5DTV4; Jcad|Q5DTX6; Usp22|Q5DU02; Zfyve26|Q5DU37; Rassf5|Q5EBH1; Ankrd13b|Q5F259; Nufip2|Q5F2E7; Mlip|Q5FW52; Unkl|Q5FWH2; C2cd4c|Q5HZI2; Slc38a10|Q5I012; Kctd1|Q5M956; Cobl|Q5NBX1; Trim41|Q5NCC3; Trappc1|Q5NCF2; Urgcp|Q5NCI0; Nsrp1|Q5NCR9; Neurl4|Q5NCX5; Wdr81|Q5ND34; Cracd|Q5PR69; Zscan26|Q5RJ54; Smg7|Q5RJH6; Brsk1|Q5RJI5; Lrrk2|Q5S006; Rbm27|Q5SFM8; Ccdc85a|Q5SP85; Cyfip2|Q5SQX6; Fbxw11|Q5SRY7; Zdbf2|Q5SS00; Abca13|Q5SSE9; Zzef1|Q5SSH7; Psme4|Q5SSW2; Fstl4|Q5STE3; Coil|Q5SU73; Luc7l3|Q5SUF2; Ctc1|Q5SUQ9; Ggnbp2|Q5SV77; Cluh|Q5SW19; Tsr1|Q5SWD9; Acaca|Q5SWU9; Specc1|Q5SXY1; Gprasp1|Q5U4C1; Scaf1|Q5U4C3; Thoc6|Q5U4D9; Wdr34|Q5U4F6; Arcn1|Q5XJY5; Sin3a|Q60520; Xrcc1|Q60596; Tiam1|Q60610; Hnrnpd|Q60668; Chuk|Q60680; Psmb6|Q60692; Ski|Q60698; Samhd1|Q60710; Khdrbs1|Q60749; Grb10|Q60760; Cnot7|Q60809; Reln|Q60841; Col12a1|Q60847; Slc6a4|Q60857; Caprin1|Q60865; Eif1a|Q60872; Arhgef2|Q60875; Elavl2|Q60899; Elavl3|Q60900; Tbc1d1|Q60949; Pla2g7|Q60963; Rbbp7|Q60973; Ncor1|Q60974; Hars|Q61035; Tsc2|Q61037; Wbp4|Q61048; Dvl3|Q61062; Usf1|Q61069; Ksr1|Q61097; Shc3|Q61120; Cfi|Q61129; Prpf4b|Q61136; Spin1|Q61142; Map4k2|Q61161; Mapre1|Q61166; Papola|Q61183; Hcfc1|Q61191; Pik3c2a|Q61194; Arhgef1|Q61210; Eif2d|Q61211; Dyrk1a|Q61214; Acan|Q61282; Lamb2|Q61292; Apc|Q61315; Arnt2|Q61324; Mme|Q61391; Ccnh|Q61458; Zfp638|Q61464; Smarcd1|Q61466; Msi1|Q61474; Trim25|Q61510; Mapk6|Q61532; Ewsr1|Q61545; Rad21|Q61550; Fxr1|Q61584; Ddx19a|Q61655; Ddx5|Q61656; Cbx5|Q61686; Atrx|Q61687; Elavl4|Q61701; Itih3|Q61704; Eif2b4|Q61749; Kif5b|Q61768; Kif3b|Q61771; Pzp|Q61838; Npm1|Q61937; Pcbp2|Q61990; Ctr9|Q62018; Cep131|Q62036; Vcan|Q62059; Prkci|Q62074; Srsf2|Q62093; Jak2|Q62120; Sin3b|Q62141; Aldh1a2|Q62148; Ddx3x|Q62167; Snrpa|Q62189; Sf3a2|Q62203; Snrpc|Q62241; Sos1|Q62245; Syp|Q62277; Trim28|Q62318; Tsn|Q62348; Snrnp70|Q62376; Supt6|Q62383; Atm|Q62388; Tpd52|Q62393; Speg|Q62407; Ppp1r13b|Q62415; Sorbs1|Q62417; Sh3gl1|Q62419; Fkbp3|Q62446; Eif4g2|Q62448; Zfp91|Q62511; Nup62|Q63850; Cavin2|Q63918; Raly|Q64012; Tfe3|Q64092; Utp14a|Q640M1; Trim24|Q64127; Btf3|Q64152; Agtpbp1|Q641K1; Nuak1|Q641K5; Actr3b|Q641P0; Sf1|Q64213; Aktip|Q64362; Fkbp5|Q64378; Top2b|Q64511; Tpp2|Q64514; H2ac20|Q64523; H2bc18|Q64525; Zrsr1|Q64707; Col11a2|Q64739; Wapl|Q65Z40; Ypel2|Q65Z95; Eif3j2|Q66JS6; Tpgs2|Q66JT5; Rbm12b2|Q66JV4; Plekhg5|Q66T02; Hs3st2|Q673U1; Sbno1|Q689Z5; Tent4b|Q68ED3; Rab3ip|Q68EF0; 0610010F05Rik|Q68FF0; Git1|Q68FF6; Mars1|Q68FL6; Peak1|Q69Z38; Brsk2|Q69Z98; Cdk13|Q69ZA1; Tspyl5|Q69ZB3; Sh3rf1|Q69ZI1; Ric1|Q69ZJ7; Jmjd1c|Q69ZK6; Pnkd|Q69ZP3; Isy1|Q69ZQ2; Tasor|Q69ZR9; Sv2c|Q69ZS6; Hbs1l|Q69ZS7; Kazn|Q69ZS8; Tbc1d30|Q69ZT9; Morc2a|Q69ZX6; Ltn1|Q6A009; Pds5a|Q6A026; Armcx2|Q6A058; Cep170|Q6A065; Cdc5l|Q6A068; Togaram1|Q6A070; Secisbp2l|Q6A098; Larp4b|Q6A0A2; Fam120a|Q6A0A9; Usp7|Q6A4J8; Helz|Q6DFV5; Nop58|Q6DFW4; Smarca2|Q6DIC0; Scaf8|Q6DID3; Carmil1|Q6EDY6; A2m|Q6GQT1; Edrf1|Q6GQV7; Ralgapa1|Q6GYP7; Hecw2|Q6I6G8; Arhgap20|Q6IFT4; Nipbl|Q6KCD5; Dgkb|Q6NS52; Mapkbp1|Q6NS57; Retreg2|Q6NS82; Npepl1|Q6NSR8; Sphkap|Q6NSW3; Wdcp|Q6NV72; U2surp|Q6NV83; Cpsf6|Q6NVF9; Ift122|Q6NWV3; Rprd2|Q6NXI6; Wwc2|Q6NXJ0; Dnajc8|Q6NZB0; Sec23ip|Q6NZC7; Zc3h11a|Q6NZF1; Eif4g1|Q6NZJ6; Soga3|Q6NZL0; Scube1|Q6NZL8; Rbm26|Q6NZN0; Zmiz1|Q6P1E1; Heatr6|Q6P1G0; BC048403|Q6P1I3; Nudt16|Q6P3D0; Ints1|Q6P4S8; Snrnp200|Q6P4T2; Abcf1|Q6P542; Rrp12|Q6P5B0; Dhx57|Q6P5D3; Smchd1|Q6P5D8; Dgkq|Q6P5E8; Polr2m|Q6P6I6; Caskin1|Q6P9K8; Arhgef18|Q6P9R4; Bcr|Q6PAJ1; Dennd5a|Q6PAL8; Txlna|Q6PAM1; Rexo4|Q6PAQ4; Klhdc10|Q6PAR0; Bhlhb9|Q6PB60; Ttbk1|Q6PCN3; Hltf|Q6PCN7; Magee1|Q6PCZ4; Shb|Q6PD21; Ppp2r5b|Q6PD28; Trak1|Q6PD31; Smarcc2|Q6PDG5; Phldb1|Q6PDH0; Ecpas|Q6PDI5; Dync1li2|Q6PDL0; Srsf1|Q6PDM2; Mylk|Q6PDN3; Rnf220|Q6PDX6; Ccdc85b|Q6PDY0; Snrnp40|Q6PE01; Mob4|Q6PEB6; Ctif|Q6PEE2; Mapre3|Q6PER3; Wipf2|Q6PEV3; Pik3c3|Q6PF93; Nup98|Q6PFD9; Rasa4|Q6PFQ7; Tra2a|Q6PFR5; Nyap1|Q6PFX7; Tnks|Q6PFX9; Naa50|Q6PGB6; Dhx29|Q6PGC1; Morn4|Q6PGF2; Gnl3l|Q6PGG6; Bud31|Q6PGH1; Dclk2|Q6PGN3; Naa35|Q6PHQ8; Camk2d|Q6PHZ2; Rbm15b|Q6PHZ5; Dalrd3|Q6PJN8; Dmxl1|Q6PNC0; Ddx58|Q6Q899; Rictor|Q6QI06; Camk2n1|Q6QWF9; Fam120b|Q6RI63; Dnmbp|Q6TXD4; Ift172|Q6VH22; Ranbp10|Q6VN19; Wdfy3|Q6VNB8; Eid2|Q6X7S9; Arhgap10|Q6Y5D8; Gigyf2|Q6Y7W8; Tex2|Q6ZPJ0; Ddx55|Q6ZPL9; Klhl9|Q6ZPT1; Smg5|Q6ZPY2; Zc3h4|Q6ZPZ3; Cnot1|Q6ZQ08; Taok2|Q6ZQ29; Larp1|Q6ZQ58; Kdm1a|Q6ZQ88; Usp34|Q6ZQ93; Ppip5k2|Q6ZQB6; Topbp1|Q6ZQF0; Wdr43|Q6ZQL4; Lsm8|Q6ZWM4; Rps9|Q6ZWN5; Syne2|Q6ZWQ0; Ppp2r2b|Q6ZWR4; Rps27|Q6ZWU9; Rpl10|Q6ZWV3; Gm2000|Q6ZWV7; Eif2s1|Q6ZWX6; Akap9|Q70FJ1; Synm|Q70IV5; Nadsyn1|Q711T7; Fhod3|Q76LL6; Ccdc25|Q78PG9; Fam102a|Q78T81; Asap2|Q7SIG6; Syncrip|Q7TMK9; Wdr91|Q7TMQ7; Thoc7|Q7TMY4; Celf6|Q7TN33; Cpeb4|Q7TN98; Cpeb3|Q7TN99; Luc7l2|Q7TNC4; Spag7|Q7TNE3; Tspoap1|Q7TNF8; Eml2|Q7TNG5; Trim46|Q7TNM2; Arhgef4|Q7TNR9; Dek|Q7TNV0; Ints3|Q7TPD0; Fbxo11|Q7TPD1; Mycbp2|Q7TPH6; Prrc2b|Q7TPM1; Mtmr10|Q7TPM9; Dzip3|Q7TPV2; Mybbp1a|Q7TPV4; Nexn|Q7TPW1; Fbxo10|Q7TQF2; Plekha6|Q7TQG1; Atxn2l|Q7TQH0; Tspyl2|Q7TQI8; Ccnt2|Q7TQK0; Ints7|Q7TQK1; Exosc3|Q7TQK4; Ccdc93|Q7TQK5; Nsun6|Q7TS68; Ckap2l|Q7TS74; Prrc2a|Q7TSC1; Dsg1b|Q7TSF1; Phkb|Q7TSH2; Ccp110|Q7TSH4; Scaf4|Q7TSH6; Map6|Q7TSJ2; Celf4|Q7TSY6; Atf7ip|Q7TT18; Rexo1|Q7TT28; Elp1|Q7TT37; Gvin1|Q80SU7; Prpf38b|Q80SY5; Rsbn1|Q80T69; Klhl29|Q80T74; Dcaf5|Q80T85; Sipa1l2|Q80TE4; Btbd8|Q80TK0; Mon2|Q80TL7; R3hdm2|Q80TM6; Ubr5|Q80TP3; Dcaf1|Q80TR8; Ddn|Q80TS7; Cul9|Q80TT8; Clasp1|Q80TV8; Rere|Q80TZ9; Pja2|Q80U04; Rusc2|Q80U22; Clec16a|Q80U30; Arhgef17|Q80U35; Khnyn|Q80U38; Cep170b|Q80U49; Rims3|Q80U57; Pum2|Q80U58; Pum1|Q80U78; Usp8|Q80U87; Nup214|Q80U93; Ube3c|Q80U95; Rab3gap1|Q80UJ7; Ints2|Q80UK8; Naa15|Q80UM3; Dgkz|Q80UP3; Ankzf1|Q80UU1; Rpp38|Q80UU2; Cdc42bpg|Q80UW5; Polr2e|Q80UW8; Kcmf1|Q80UY2; Sdad1|Q80UZ2; Cep104|Q80V31; Ints8|Q80V86; Dtx3|Q80V91; Ap4e1|Q80V94; Camsap3|Q80VC9; Fam98b|Q80VD1; Trim56|Q80VI1; Tecpr1|Q80VP0; Ppp1r10|Q80W00; Tox3|Q80W03; Prpf40b|Q80W14; Hapln4|Q80WM4; Vac14|Q80WQ2; Fbll1|Q80WS3; Srrm3|Q80WV7; Col14a1|Q80X19; Vrk1|Q80X41; Ubap2l|Q80X50; Btbd10|Q80X66; Pelo|Q80X73; Sympk|Q80X82; Nrde2|Q80XC6; Chn2|Q80XD1; Eif4g3|Q80XI3; Tbc1d5|Q80XQ2; Samd4b|Q80XS6; Camta2|Q80Y50; Rbsn|Q80Y56; Elac2|Q80Y81; Cnksr2|Q80YA9; F12|Q80YC5; Dapk1|Q80YE7; Med23|Q80YQ2; Rmnd5a|Q80YQ8; Fam160b2|Q80YR2; Zfp598|Q80YR4; Clspn|Q80YR7; Afap1|Q80YS6; Pde4dip|Q80YT7; Rbm11|Q80YT9; Trrap|Q80YV3; Snx32|Q80ZJ7; Wdtc1|Q80ZK9; Rnaseh2b|Q80ZV0; Ddx42|Q810A7; Ccdc50|Q810U5; Bbs9|Q811G0; Ireb2|Q811J3; Mast4|Q811L6; Arhgap32|Q811P8; Pcyt1b|Q811Q9; Cpeb2|Q812E0; Wdr82|Q8BFQ4; Gatd1|Q8BFQ8; Zfand1|Q8BFR6; Rnf214|Q8BFU3; Pcid2|Q8BFV2; Rnf187|Q8BFX1; Hnrnpa3|Q8BG05; Rusc1|Q8BG26; Nelfa|Q8BG30; Vxn|Q8BG31; Psmd11|Q8BG32; Stk17b|Q8BG48; Cwf19l2|Q8BG79; Poldip3|Q8BG81; Clvs2|Q8BG92; Ppp1r12b|Q8BG95; Krr1|Q8BGA5; Limd2|Q8BGB5; Htatsf1|Q8BGC0; Eif4b|Q8BGD9; Wdr92|Q8BGF3; Pan2|Q8BGF7; Reep1|Q8BGH4; U2af1l4|Q8BGJ9; Synpr|Q8BGN8; Vipas39|Q8BGQ1; Ublcp1|Q8BGR9; Smndc1|Q8BGT7; Kctd13|Q8BGV7; Klhl26|Q8BGY4; Cdc23|Q8BGZ4; Cnot10|Q8BH15; Coro2b|Q8BH44; F13a1|Q8BH61; Rnf41|Q8BH75; Napepld|Q8BH82; Ptbp3|Q8BHD7; Gemin8|Q8BHE1; Tbl1xr1|Q8BHJ5; Elmo2|Q8BHL5; Txlng|Q8BHN1; Rbm45|Q8BHN5; 1110051M20Rik|Q8BHR8; Rbm22|Q8BHS3; Noc4l|Q8BHY2; Cdkn2aip|Q8BI72; Frmd4a|Q8BIE6; Rbfox3|Q8BIF2; Hook1|Q8BIL5; Cstf2|Q8BIQ5; Snip1|Q8BIZ6; Zc3h14|Q8BJ05; Marf1|Q8BJ34; Ap5m1|Q8BJ63; Zfp771|Q8BJ90; Zc2hc1a|Q8BJH1; Smarcal1|Q8BJL0; Eif2a|Q8BJW6; Nop53|Q8BK35; Olfml3|Q8BK62; Csnk1a1|Q8BK63; Rcc2|Q8BK67; Elp6|Q8BK75; Pi4kb|Q8BKC8; Mapkap1|Q8BKH7; Tnrc6b|Q8BKI2; Tubgcp5|Q8BKN5; Ppp1r37|Q8BKR5; Pum3|Q8BKS9; Gcfc2|Q8BKT3; Thoc5|Q8BKT7; Smg1|Q8BKX6; Unk|Q8BL48; Arhgap22|Q8BL80; Srsf7|Q8BL97; Dop1a|Q8BL99; Ankrd34c|Q8BLB8; Slc17a6|Q8BLE7; Sowaha|Q8BLS7; Smoc1|Q8BLY1; Tarsl2|Q8BLY2; Nyap2|Q8BM65; Tbck|Q8BM85; Srp68|Q8BMA6; Eif4e2|Q8BMB3; Nop9|Q8BMC4; Cdadc1|Q8BMD5; Rab3gap2|Q8BMG7; Fbxo38|Q8BMI0; Lars|Q8BMJ2; Eif1ax|Q8BMJ3; Mical2|Q8BML1; Qars|Q8BML9; Gtf3c4|Q8BMQ2; Tsen34|Q8BMZ5; Larp6|Q8BN59; Wdr35|Q8BND3; Qsox1|Q8BND5; Tcaf1|Q8BNE1; Trmt2a|Q8BNV1; Metap1|Q8BP48; Rpl24|Q8BP67; Dpcd|Q8BPA8; Map4k5|Q8BPM2; Dmxl2|Q8BPN8; Elmo1|Q8BPU7; Heatr3|Q8BQM4; Med12l|Q8BQM9; Ralgapb|Q8BQZ4; Gorab|Q8BRM2; Clasp2|Q8BRT1; 2900026A02Rik|Q8BRV5; Ttc26|Q8BS45; Tyw3|Q8BSA9; R3hcc1|Q8BSI6; Ppfia2|Q8BSS9; Peli2|Q8BST6; Ap3s2|Q8BSZ2; Cnot4|Q8BT14; Lig4|Q8BTF7; Srrm2|Q8BTI8; Pik3cb|Q8BTI9; Utp25|Q8BTT6; Cfap20|Q8BTU1; Cpsf7|Q8BTV2; Exosc6|Q8BTW3; Pak4|Q8BTW9; Anapc5|Q8BTZ4; Ubr7|Q8BU04; Iars|Q8BU30; Hook3|Q8BUK6; Plekha1|Q8BUL6; Usp43|Q8BUM9; Lsm11|Q8BUV6; Gprasp2|Q8BUY8; Ldah|Q8BVA5; Atp6v1h|Q8BVE3; Dpp9|Q8BVG4; Jakmip1|Q8BVL9; Rsl1d1|Q8BVY0; Nob1|Q8BW10; Gtdc1|Q8BW56; Cdk19|Q8BWD8; Phka2|Q8BWJ3; Rbms3|Q8BWL5; Dclk3|Q8BWQ5; Vps35l|Q8BWQ6; Dip2a|Q8BWT5; Larp4|Q8BWW4; Etf1|Q8BWY3; Naa25|Q8BWZ3; Gemin5|Q8BX17; Pxk|Q8BX57; Engase|Q8BX80; Commd2|Q8BXC6; Ift57|Q8BXG3; Zfp385b|Q8BXJ8; Bmt2|Q8BXK4; Agap1|Q8BXK8; Slc7a14|Q8BXR1; Osbpl6|Q8BXR9; Nkrf|Q8BY02; Zfp574|Q8BY46; Tbc1d4|Q8BYJ6; Phactr3|Q8BYK5; Ythdf3|Q8BYK6; Zc3h6|Q8BYK8; Ttc39b|Q8BYY4; Arap2|Q8BZ05; Parp12|Q8BZ20; Zmat4|Q8BZ94; Dcun1d2|Q8BZJ7; Lmo3|Q8BZL8; Anapc2|Q8BZQ7; Ncbp3|Q8BZR9; Srek1|Q8BZX4; Wwp1|Q8BZZ3; Trim35|Q8C006; Dzank1|Q8C008; Rps6ka5|Q8C050; Map1s|Q8C052; Strip1|Q8C079; Farsa|Q8C0C7; Trub1|Q8C0D0; Efl1|Q8C0D5; Cog5|Q8C0L8; Wdr59|Q8C0M0; Coro2a|Q8C0P5; Rapgef5|Q8C0Q9; Dis3l|Q8C0S1; Sipa1l1|Q8C0T5; Tlk1|Q8C0V0; Ppp4r4|Q8C0Y0; Prepl|Q8C167; Myo9a|Q8C170; Taf2|Q8C176; Mbnl2|Q8C181; Camsap2|Q8C1B1; Bbs4|Q8C1Z7; Rbm14|Q8C2Q3; Fam120c|Q8C3F2; Mettl3|Q8C3P7; Eri3|Q8C460; Nelfb|Q8C4Y3; Heatr5b|Q8C547; Rae1|Q8C570; Cnot2|Q8C5L3; Rbm34|Q8C5L7; Cwc22|Q8C5N3; Grsf1|Q8C5Q4; Peli1|Q8C669; Rps19bp1|Q8C6B9; Cfap410|Q8C6G1; Wdr26|Q8C6G8; Fam110b|Q8C739; Cstf2t|Q8C7E9; Trim9|Q8C7M3; N4bp3|Q8C7U1; Utp15|Q8C7V3; Spice1|Q8C804; Dido1|Q8C9B9; Strip2|Q8C9H6; Ccdc186|Q8C9S4; Shfl|Q8CAK3; Rab36|Q8CAM5; Eloa|Q8CB77; Bivm|Q8CBX9; Samd4|Q8CBY1; Leng8|Q8CBY3; Dctn4|Q8CBY8; Synpo|Q8CC35; Dcun1d4|Q8CCA0; Prpf31|Q8CCF0; Amer2|Q8CCJ4; Phf20l1|Q8CCJ9; Macroh2a2|Q8CCK0; Nemf|Q8CCP0; Pabpn1|Q8CCS6; Tceal5|Q8CCT4; Riox2|Q8CD15; Lancl3|Q8CD19; Vcpip1|Q8CDG3; Txnl1|Q8CDN6; Klhl11|Q8CE33; Map2k7|Q8CE90; Trmt6|Q8CE96; Nup88|Q8CEC0; Nkiras1|Q8CEC5; Ppwd1|Q8CEC6; Naa30|Q8CES0; Hpf1|Q8CFE2; Rcor1|Q8CFE3; Polr2b|Q8CFI7; Wdr24|Q8CFJ9; Dnajc27|Q8CFP6; Aqr|Q8CFQ3; Smc5|Q8CG46; Rpgrip1l|Q8CG73; Trp53bp2|Q8CG79; Tns2|Q8CGB6; Lsm14b|Q8CGC4; Rbm28|Q8CGC6; Eprs|Q8CGC7; Tcerg1|Q8CGF7; Fam193a|Q8CGI1; Calcoco1|Q8CGU1; Cherp|Q8CGZ0; Sugp2|Q8CH09; Ccar1|Q8CH18; Sltm|Q8CH25; Nav1|Q8CH77; Synj1|Q8CHC4; Rapgef2|Q8CHG7; Ep400|Q8CHI8; Zc3h3|Q8CHP0; Pym1|Q8CHP5; Ints5|Q8CHT3; Eif2b5|Q8CHW4; Gatad2a|Q8CHY6; Flywch1|Q8CI03; Cog3|Q8CI04; Slain2|Q8CI08; Sphk1|Q8CI15; Bag5|Q8CI32; Cwf19l1|Q8CI33; Pdlim5|Q8CI51; Dis3l2|Q8CI75; Osbpl11|Q8CI95; Clip4|Q8CI96; Copa|Q8CIE6; Prmt5|Q8CIG8; Ints4|Q8CIM8; Celf3|Q8CIN6; Mark4|Q8CIP4; Dock3|Q8CIQ7; Stau2|Q8CJ67; Rassf8|Q8CJ96; Ago3|Q8CJF9; Ago2|Q8CJG0; Ago1|Q8CJG1; Cdc73|Q8JZM7; Gas2l1|Q8JZP9; Eif3b|Q8JZQ9; Bdh2|Q8JZV9; Sh2d5|Q8JZW5; Pnma3|Q8JZW8; Rbm17|Q8JZX4; Tma7|Q8K003; Spata2|Q8K004; Bclaf1|Q8K019; Ift80|Q8K057; Cdk17|Q8K0D0; Fgb|Q8K0E8; Taf10|Q8K0H5; Snapc1|Q8K0S9; Rtn1|Q8K0T0; Unc13c|Q8K0T7; Cnot3|Q8K0V4; Snrnp27|Q8K194; Cc2d1a|Q8K1A6; Lrrc41|Q8K1C9; Alkbh3|Q8K1E6; Tdrd7|Q8K1H1; Wipf1|Q8K1I7; Spats2|Q8K1N4; Nek9|Q8K1R7; Wdr11|Q8K1X1; Arfip2|Q8K221; Nat10|Q8K224; Uvrag|Q8K245; Abcf3|Q8K268; Gtf3c1|Q8K284; Mtmr3|Q8K296; Ints10|Q8K2A7; Edc3|Q8K2D3; Lsm14a|Q8K2F8; Bbs7|Q8K2G4; Otud6b|Q8K2H2; Trappc12|Q8K2L8; Zfp668|Q8K2R5; Stn1|Q8K2X3; Obi1|Q8K2Y0; Matr3|Q8K310; Kin|Q8K339; Atat1|Q8K341; Ddx18|Q8K363; Dennd1a|Q8K382; Usp45|Q8K387; Cdk5rap2|Q8K389; Mepce|Q8K3A9; Fbxo45|Q8K3B1; Ahi1|Q8K3E5; Glcci1|Q8K3I9; Casc3|Q8K3W3; Irf2bpl|Q8K3X4; Lgi3|Q8K406; Polb|Q8K409; Mta1|Q8K4B0; Arhgef6|Q8K4I3; Pank1|Q8K4K6; Svil|Q8K4L3; Commd1|Q8K4M5; Wdr33|Q8K4P0; Hecw1|Q8K4P8; Rptor|Q8K4Q0; Sf3a1|Q8K4Z5; Ahsa2|Q8N9S3; Flcn|Q8QZS3; Ccsap|Q8QZT2; Ints13|Q8QZV7; Sbk1|Q8QZX0; Eif3l|Q8QZY1; Sf3b4|Q8QZY9; Tprkb|Q8QZZ7; Aimp2|Q8R010; Itpka|Q8R071; Gtf2f2|Q8R0A0; Rbmx2|Q8R0F5; Ilkap|Q8R0F6; Nup133|Q8R0G9; Iqsec1|Q8R0S2; Znfx1|Q8R151; Syngr3|Q8R191; Dock7|Q8R1A4; Stac2|Q8R1B0; Eif3c|Q8R1B4; D8Ertd738e|Q8R1F0; Hmces|Q8R1M0; Zfp830|Q8R1N0; Dync1li1|Q8R1Q8; Cog4|Q8R1U1; Taf6l|Q8R2K4; Ccdc59|Q8R2N0; Actr8|Q8R2S9; Gtf3c5|Q8R2T8; Seh1l|Q8R2U0; Nepro|Q8R2U2; Nabp2|Q8R2Y9; Vps18|Q8R307; Pspc1|Q8R326; Cdc16|Q8R349; Commd5|Q8R395; Tut1|Q8R3F9; Ppp1r8|Q8R3G1; Tcf25|Q8R3L2; Nop14|Q8R3N1; Thoc1|Q8R3N6; Cluap1|Q8R3P7; Gabarapl1|Q8R3R8; Sh3glb2|Q8R3V5; Irf2bp1|Q8R3Y8; Hexim1|Q8R409; Dicer1|Q8R418; Nup85|Q8R480; Purg|Q8R4E6; Luzp1|Q8R4U7; Rbm12|Q8R4X3; Mib2|Q8R516; Sh3kbp1|Q8R550; Otud7a|Q8R554; Prpsap2|Q8R574; Actr1b|Q8R5C5; Oard1|Q8R5F3; Wasf1|Q8R5H6; Nol6|Q8R5K4; Exosc2|Q8VBV3; Fbxw7|Q8VBV4; Eml3|Q8VC03; Lrrc14|Q8VC16; Ccdc9|Q8VC31; Wrap53|Q8VC51; Ssx2ip|Q8VC66; Ndc1|Q8VCB1; Spon1|Q8VCC9; Med17|Q8VCD5; Reep2|Q8VCD6; Wdr74|Q8VCG3; Tubg2|Q8VCK3; Klhl20|Q8VCK5; Fgg|Q8VCM7; Kptn|Q8VCX6; Zfp385a|Q8VD12; AI837181|Q8VD62; Tspyl4|Q8VD63; Pik3r4|Q8VD65; Ttc8|Q8VD72; Parn|Q8VDG3; Hdlbp|Q8VDJ3; Zgpat|Q8VDM1; Psmd2|Q8VDM4; Hnrnpul1|Q8VDM6; Ccdc92|Q8VDN4; C330007P06Rik|Q8VDP2; Ccar2|Q8VDP4; Rprd1a|Q8VDS4; Snrk|Q8VDU5; Ddx39a|Q8VDW0; Fbxo33|Q8VE08; Mtmr6|Q8VE11; Smg8|Q8VE18; Mios|Q8VE19; Paip1|Q8VE62; Pdcd10|Q8VE70; Cul7|Q8VE73; Thoc3|Q8VE80; Retreg1|Q8VE91; Rbm4b|Q8VE92; Srsf4|Q8VE97; Macir|Q8VEB3; Elac1|Q8VEB6; Lmcd1|Q8VEE1; Rpa1|Q8VEE4; Cnot6l|Q8VEG6; Nle1|Q8VEJ4; Hnrnpu|Q8VEK3; Rem2|Q8VEL9; Klhdc3|Q8VEM9; Rbm39|Q8VH51; Agap3|Q8VHH5; Mark1|Q8VHJ5; Dhx36|Q8VHK9; Nudt16l1|Q8VHN8; Acot11|Q8VHQ9; Noc3l|Q8VI84; Recql5|Q8VID5; Sfpq|Q8VIJ6; Nprl3|Q8VIJ8; Ttll1|Q91V51; Rbm42|Q91V81; Tti1|Q91V83; Acly|Q91V92; Rhobtb2|Q91V93; Eif4a3|Q91VC3; Nifk|Q91VE6; Cavin3|Q91VJ2; Pqbp1|Q91VJ5; Rbmxl1|Q91VM5; Ddx41|Q91VN6; Ddx1|Q91VR5; Map1lc3a|Q91VR7; Dcaf11|Q91VU6; Ptov1|Q91VU8; Golga4|Q91VW5; Ubap2|Q91VX2; Kdm4b|Q91VY5; Tdrd3|Q91W18; Csde1|Q91W50; Vps11|Q91W86; Anapc4|Q91W96; Hdac11|Q91WA3; Setd3|Q91WC0; Rpp25|Q91WE3; Fig4|Q91WF7; Trub2|Q91WG3; Elp2|Q91WG4; Dgkg|Q91WG7; Gne|Q91WG8; Itfg2|Q91WI7; Spats2l|Q91WJ7; Fubp1|Q91WJ8; Eif3h|Q91WK2; Strbp|Q91WM1; Rrp9|Q91WM3; Dnajc9|Q91WN1; Yars|Q91WQ3; Ascc2|Q91WR3; Sh3d19|Q91X43; Zfand2b|Q91X58; Crtc3|Q91X84; Klhdc8a|Q91XA8; Vps36|Q91XD6; Dus3l|Q91XI1; Wrnip1|Q91XU0; Pip4k2c|Q91XU3; Mapk8|Q91Y86; Dcp1a|Q91YD3; Wasl|Q91YD9; Egln1|Q91YE3; Rbm5|Q91YE7; Synpo2|Q91YE8; Atg13|Q91YI1; Arrb2|Q91YI4; Thyn1|Q91YJ3; Lrrc49|Q91YK0; Uckl1|Q91YL3; D6Wsu163e|Q91YN0; Eef1aknmt|Q91YR5; Prpf6|Q91YR7; Ythdf2|Q91YT7; Ppan|Q91YU8; Ptbp2|Q91Z31; Srgap2|Q91Z67; Srgap1|Q91Z69; Bmp2k|Q91Z96; Sh2b1|Q91ZM2; Dok5|Q91ZM9; Lpin1|Q91ZP3; Adarb1|Q91ZS8; Smarca5|Q91ZW3; Supt16|Q920B9; Wdr7|Q920I9; Coro6|Q920M5; Vps16|Q920Q4; Msi2|Q920Q6; Bicd2|Q921C5; Tardbp|Q921F2; Hnrnpll|Q921F4; Tubgcp2|Q921G8; Klhdc4|Q921I2; Sh3bp4|Q921I6; Exosc4|Q921I9; Cog2|Q921L5; Sf3b3|Q921M3; Ddx27|Q921N6; Rin1|Q921Q7; Cryzl1|Q921W4; Polr3f|Q921X6; Dars|Q922B2; Mthfd1|Q922D8; Fam76a|Q922G2; Zfp330|Q922H9; Clip1|Q922J3; Nop2|Q922K7; Nelfcd|Q922L6; Kctd10|Q922M3; AI597479|Q922M7; Glyr1|Q922P9; Prpf3|Q922U1; Plrg1|Q922V4; Dbr1|Q923B1; Wbp11|Q923D5; Stard13|Q923Q2; Neurl1a|Q923S6; Camk2g|Q923T9; Tgs1|Q923W1; Cic|Q924A2; Xpo5|Q924C1; Med15|Q924H2; Wac|Q924H7; Trim66|Q924W6; Xpo6|Q924Z6; Rnf112|Q96DY5; Hnrnpab|Q99020; Myo5a|Q99104; Wdr77|Q99J09; Rfc4|Q99J62; Cdk9|Q99J95; Psip1|Q99JF8; Rpp25l|Q99JH1; Psmd6|Q99JI4; Map4k3|Q99JP0; Tinagl1|Q99JR5; Lims1|Q99JW4; Eif3m|Q99JX4; Nxf1|Q99JX7; Actr3|Q99JY9; Nono|Q99K48; Rtf2|Q99K95; Unc45a|Q99KD5; Rbm10|Q99KG3; Stk24|Q99KH8; Dctn2|Q99KJ8; Cmas|Q99KK2; Prpf19|Q99KP6; Mlf2|Q99KX1; Eif2s2|Q99L45; Nmd3|Q99L48; Elp5|Q99L85; Cstf1|Q99LC2; Eif2b1|Q99LC8; Eif2b2|Q99LD9; Abcf2|Q99LE6; Rtcb|Q99LF4; Gnl2|Q99LH1; Cstf3|Q99LI7; Cttnbp2nl|Q99LJ0; Tmem189|Q99LQ7; 2310033P09Rik|Q99LX5; Rnps1|Q99M28; Hspa14|Q99M31; Nck1|Q99M51; Txnrd3|Q99MD6; Wdr6|Q99ME2; Gtpbp4|Q99ME9; Ddx50|Q99MJ9; Grk2|Q99MK8; Kars|Q99MN1; Brap|Q99MP8; Actl6b|Q99MR0; Gigyf1|Q99MR1; Srrt|Q99MR6; Tpgs1|Q99MS8; Adar|Q99MU3; Hdac9|Q99N13; Raf1|Q99N57; Sf3b1|Q99NB9; Cep41|Q99NF3; Rad54l2|Q99NG0; Ankrd17|Q99NH0; Pard3|Q99NH2; Rtn4|Q99P72; Zfp318|Q99PP2; Trim33|Q99PP7; Bap1|Q99PU7; Dhx30|Q99PU8; Prpf8|Q99PV0; Trp53rkb|Q99PW4; Npm3|Q9CPP0; Rwdd4a|Q9CPR1; Rpl17|Q9CPR4; Sike1|Q9CPR7; Pno1|Q9CPS7; Nop16|Q9CPT5; Arpc5|Q9CPW4; Zmat2|Q9CPW7; Commd4|Q9CQ02; Mzt2|Q9CQ25; Ncbp2|Q9CQ49; Txndc9|Q9CQ79; 1110059E24Rik|Q9CQ90; Trappc5|Q9CQA1; Med4|Q9CQA5; Ntpcr|Q9CQA9; Bzw1|Q9CQC6; 2610002M06Rik|Q9CQD4; Rtraf|Q9CQE8; Nudt21|Q9CQF3; Mettl16|Q9CQG2; Snrpb2|Q9CQI7; Med30|Q9CQI9; Pih1d1|Q9CQJ2; Magohb|Q9CQL1; Trappc2|Q9CQP2; Lsm7|Q9CQQ8; Rps21|Q9CQR2; Rbm7|Q9CQT2; Zwint|Q9CQU5; Retreg3|Q9CQV4; Map1lc3b|Q9CQV6; Ramac|Q9CQY2; Tma16|Q9CR02; Pop4|Q9CR08; Rchy1|Q9CR50; Atp6v1g1|Q9CR51; Nkiras2|Q9CR56; Rpl14|Q9CR57; Fam32a|Q9CR80; Necap1|Q9CR95; Exosc5|Q9CRA8; Nhp2|Q9CRB2; Vkorc1|Q9CRC0; Lrrc40|Q9CRC8; Cactin|Q9CS00; Prps2|Q9CS42; Pard3b|Q9CSB4; Dis3|Q9CSH3; Snw1|Q9CSN1; Rprd1b|Q9CSU0; Smc1a|Q9CU62; Zmym2|Q9CU65; Arpc2|Q9CVB6; Smc3|Q9CW03; Raver1|Q9CW46; Golga1|Q9CW79; Bbs2|Q9CWF6; Bccip|Q9CWI3; Cd2bp2|Q9CWK3; Cnot11|Q9CWN7; Smyd3|Q9CWR2; Ints11|Q9CWS4; Prkrip1|Q9CWV6; Pin4|Q9CWW6; Cxxc1|Q9CWW7; Ddx47|Q9CWX9; Rbm8a|Q9CWZ3; Gemin6|Q9CX53; Psmd8|Q9CX56; Hnrnpa0|Q9CX86; Ppil4|Q9CXG3; Rbm33|Q9CXK9; 3110082I17Rik|Q9CXL3; Cenpv|Q9CXS4; Dcun1d5|Q9CXV9; Cacybp|Q9CXW3; Rpl11|Q9CXW4; Ilf2|Q9CXY6; Ttc30b|Q9CY00; Bud23|Q9CY21; Chtop|Q9CY57; Serbp1|Q9CY58; Gar1|Q9CY66; Zcchc8|Q9CYA6; Dcp2|Q9CYC6; Tomm34|Q9CYG7; Gfod2|Q9CYH5; Rrs1|Q9CYH6; 5730455P16Rik|Q9CYI0; Luc7l|Q9CYI4; Sesn3|Q9CYP7; Tpd52l2|Q9CYZ2; Cops7a|Q9CZ04; Cep97|Q9CZ62; Zcrb1|Q9CZ96; Thumpd2|Q9CZB3; Mmachc|Q9CZD0; Hspa12b|Q9CZJ2; Rpl15|Q9CZM2; Bbs5|Q9CZQ9; Polr3e|Q9CZT4; Cmss1|Q9CZT6; Mtrex|Q9CZU3; Elp3|Q9CZX0; Rps19|Q9CZX8; Ssbp3|Q9D032; Mdm1|Q9D067; Srsf9|Q9D0B0; Dimt1|Q9D0D4; Gtf2e1|Q9D0D5; Hnrnpm|Q9D0E1; Rfc5|Q9D0F6; Mrto4|Q9D0I8; Rars|Q9D0I9; Tbc1d7|Q9D0K0; Rnmt|Q9D0L8; Exosc7|Q9D0M0; Prpsap1|Q9D0M1; Ift27|Q9D0P8; Tars|Q9D0R2; Ddx56|Q9D0R4; Lsm12|Q9D0R8; Snu13|Q9D0T1; Maf1|Q9D0U6; Ppil1|Q9D0W5; Zfp706|Q9D115; Ints12|Q9D168; Akt1s1|Q9D1F4; Rita1|Q9D1H0; Get4|Q9D1H7; Necap2|Q9D1J1; Sarnp|Q9D1J3; Atp6v1f|Q9D1K2; Sec13|Q9D1M0; Eef1e1|Q9D1M4; Kti12|Q9D1R2; Rpl34|Q9D1R9; Bcas2|Q9D287; Trappc6b|Q9D289; Klhdc8b|Q9D2D9; Toe1|Q9D2E2; Armc9|Q9D2I5; Vps33a|Q9D2N9; 2310057M21Rik|Q9D2Q3; Naa38|Q9D2U5; H2bu2|Q9D2U9; Aar2|Q9D2V5; Nos1ap|Q9D3A8; Polr3c|Q9D483; Clvs1|Q9D4C9; Tubgcp4|Q9D4F8; Phf6|Q9D4J7; Sf3a3|Q9D554; Ttc9b|Q9D6E4; Ttc33|Q9D6K7; Ppil3|Q9D6L8; Nosip|Q9D6T0; Nop56|Q9D6Z1; Rpap3|Q9D706; Trir|Q9D735; Exosc8|Q9D753; Ppil2|Q9D787; Srp19|Q9D7A6; 2310011J03Rik|Q9D7E4; Prps1|Q9D7G0; Rtca|Q9D7H3; Rpl22l1|Q9D7S7; Nol7|Q9D7Z3; Rpl37|Q9D823; Fip1l1|Q9D824; Dnajb4|Q9D832; Ppih|Q9D868; U2af1|Q9D883; Arpc5l|Q9D898; Rpl4|Q9D8E6; Rpl7l1|Q9D8M4; Eef1g|Q9D8N0; Psmd12|Q9D8W5; Cutc|Q9D8X1; Ccdc124|Q9D8X2; Ascc1|Q9D8Z1; Gtf2e2|Q9D902; Ebna1bp2|Q9D903; 1810009A15Rik|Q9D937; Llph|Q9D945; Hcfc2|Q9D968; Tbc1d20|Q9D9I4; Aven|Q9D9K3; Dda1|Q9D9Z5; Exosc1|Q9DAA6; Prpf4|Q9DAW6; Appbp2|Q9DAX9; Phkg2|Q9DB30; Zfp593|Q9DB42; Smg9|Q9DB90; Leng1|Q9DB98; Cmtr1|Q9DBC3; Pelp1|Q9DBD5; Ftsj3|Q9DBE9; Ap2b1|Q9DBG3; Wwp2|Q9DBH0; Gpatch1|Q9DBM1; Akap8|Q9DBR0; Xrn2|Q9DBR1; Armc8|Q9DBR3; Ppp1r12a|Q9DBR7; Tprgl|Q9DBS2; Osbpl3|Q9DBS9; Ccdc97|Q9DBT3; Ampd2|Q9DBT5; Rsrc1|Q9DBU6; Pdcl|Q9DBX2; Nvl|Q9DBY8; Eif3k|Q9DBZ5; Csnk1d|Q9DC28; Telo2|Q9DC40; Cdc40|Q9DC48; Brix1|Q9DCA5; Xab2|Q9DCD2; Pak1ip1|Q9DCE5; Eif3f|Q9DCH4; Mlst8|Q9DCJ1; Crip2|Q9DCT8; Tsc1|Q9EP53; Rai14|Q9EP71; Senp3|Q9EP97; Nmnat1|Q9EPA7; Upf1|Q9EPU0; Cpsf1|Q9EPU4; Inpp4a|Q9EPW0; Papln|Q9EPX2; Pold3|Q9EQ28; Pes1|Q9EQ61; Zfp287|Q9EQB9; Scyl1|Q9EQC5; Magi3|Q9EQJ9; Mvp|Q9EQK5; Dgcr8|Q9EQM6; Rims2|Q9EQZ7; Fn3k|Q9ER35; Wtap|Q9ER69; Cars|Q9ER72; Elp4|Q9ER73; Tfip11|Q9ERA6; Snap29|Q9ERB0; Mapk8ip2|Q9ERE9; Wdr61|Q9ERF3; Lima1|Q9ERG0; Strn3|Q9ERG2; Plekha2|Q9ERS5; Ranbp2|Q9ERU9; Mkrn2|Q9ERV1; Arhgef7|Q9ES28; Parvb|Q9ES46; Trappc4|Q9ES56; Nek7|Q9ES74; Rtn3|Q9ES97; Hrg|Q9ESB3; Aff4|Q9ESC8; Capn10|Q9ESK3; Rb1cc1|Q9ESK9; Hapln2|Q9ESM3; Trim2|Q9ESN6; Eif4enif1|Q9EST3; Ddx24|Q9ESV0; Dkc1|Q9ESX5; Palld|Q9ET54; Tssc4|Q9JHE7; Exosc9|Q9JHI7; Lztfl1|Q9JHQ5; Dync1h1|Q9JHU4; Eefsec|Q9JHW4; Stk4|Q9JI11; Sphk2|Q9JIA7; Gtf2h2|Q9JIB4; Prmt1|Q9JIF0; Copb1|Q9JIF7; Ppp1r3f|Q9JIG4; Ccdc22|Q9JIG7; Inpp5e|Q9JII1; Dazap1|Q9JII5; Ddx21|Q9JIK5; Tulp4|Q9JIL5; Sv2a|Q9JIS5; Acin1|Q9JIX8; Flii|Q9JJ28; Rbfox1|Q9JJ43; Rpf2|Q9JJ80; Cog8|Q9JJA2; Wdr12|Q9JJA4; Grasp|Q9JJA9; Thap11|Q9JJD0; Riox1|Q9JJF3; Rpl38|Q9JJI8; Nrip3|Q9JJR9; Rcl1|Q9JJT0; Alyref2|Q9JJW6; Ddx20|Q9JJY4; Sh3glb1|Q9JK48; Prelp|Q9JK53; Ybx3|Q9JKB3; Ap4m1|Q9JKC7; Ap3m1|Q9JKC8; Scamp5|Q9JKD3; Atr|Q9JKK8; Nova1|Q9JKN6; Mbnl1|Q9JKP5; Habp4|Q9JKS5; Adrm1|Q9JKV1; Aatf|Q9JKX4; Cnot9|Q9JKY0; Hip1r|Q9JKY5; Sacs|Q9JLC8; Capn15|Q9JLG8; Sart3|Q9JLI8; Zmym3|Q9JLM4; Dclk1|Q9JLM8; Grb14|Q9JLM9; Mtor|Q9JLN9; Cd2ap|Q9JLQ0; Git2|Q9JLQ2; Bag3|Q9JLV1; Trpc4ap|Q9JLV2; Cul3|Q9JLV5; Pnkp|Q9JLV6; Dusp14|Q9JLY7; Mink1|Q9JM52; Arpc3|Q9JM76; Arl6ip4|Q9JM93; Usp14|Q9JMA1; Gkap1|Q9JMB0; Epb41l4b|Q9JMC8; Zfp207|Q9JMD0; Ap3b2|Q9JME5; Trappc2l|Q9JME7; Edf1|Q9JMG1; Hdgfl3|Q9JMG7; Neu2|Q9JMH3; Myo18a|Q9JMH9; Csnk1e|Q9JMK2; Mageh1|Q9NWG9; Rasgrp2|Q9QUG9; Psma6|Q9QUM9; Hapln1|Q9QUP5; Pin1|Q9QUR7; Mid2|Q9QUS6; Ptk2b|Q9QVP9; Cd5l|Q9QWK4; Ccnt1|Q9QWV9; Asap1|Q9QWY8; Cyth1|Q9QX11; Son|Q9QX47; Lsm4|Q9QXA5; Tbl1x|Q9QXE7; Copg2|Q9QXK3; Cpsf3|Q9QXK7; Nme7|Q9QXL8; Jmy|Q9QXM1; Trip4|Q9QXN3; Plec|Q9QXS1; Macf1|Q9QXZ0; Ulk2|Q9QY01; Myo9b|Q9QY06; Naa10|Q9QY36; Nphp1|Q9QY53; Add2|Q9QYB8; Maged1|Q9QYH6; Dnajb1|Q9QYJ3; Azi2|Q9QYP6; Map1a|Q9QYR6; Qk|Q9QYS9; Spast|Q9QYY8; Eif2ak4|Q9QZ05; Dcun1d1|Q9QZ73; Actr10|Q9QZB7; Dctn5|Q9QZB9; Ercc4|Q9QZD4; Eif3i|Q9QZD9; Copg1|Q9QZE5; Tsnax|Q9QZE7; Ppie|Q9QZH3; Bcar3|Q9QZK2; Usp21|Q9QZL6; Rnf25|Q9QZR0; Numb|Q9QZS3; Zranb2|Q9R020; Zfp346|Q9R0B7; Ylpm1|Q9R0I7; Akap8l|Q9R0L7; Syt6|Q9R0N8; Morf4l2|Q9R0Q4; Arpc1a|Q9R0Q6; Srsf10|Q9R0U0; Dlc1|Q9R0Z9; Mta2|Q9R190; Cry2|Q9R194; Ntn3|Q9R1A3; Slit2|Q9R1B9; Prpf40a|Q9R1C7; Fzr1|Q9R1K5; Mast1|Q9R1L5; Psma4|Q9R1P0; Psmb3|Q9R1P1; Psmb2|Q9R1P3; Psma1|Q9R1P4; Trim3|Q9R1R2; Capn7|Q9R1S8; Tfeb|Q9R210; Khdrbs3|Q9R226; Arntl|Q9WTL8; Ruvbl2|Q9WTM5; Fut8|Q9WTS2; Atp6v1g2|Q9WTT4; Prkra|Q9WTX2; Cul1|Q9WTX6; Mad1l1|Q9WTX8; Bex2|Q9WTZ8; Hao1|Q9WU19; Ncor2|Q9WU42; Farsb|Q9WUA2; Dctn6|Q9WUB4; Eif4h|Q9WUK2; Coro1c|Q9WUM4; Tbk1|Q9WUN2; Uchl5|Q9WUP7; Rbmx|Q9WV02; Fam50a|Q9WV03; Arpc1b|Q9WV32; Gsk3b|Q9WV60; Noc2l|Q9WV70; Bub3|Q9WVA3; Slit3|Q9WVB4; Psmd13|Q9WVJ2; Ap4s1|Q9WVL1; Stat2|Q9WVL2; Anapc7|Q9WVM3; Fxr2|Q9WVR4; Smarcb1|Q9Z0H3; Celf2|Q9Z0H4; Clip2|Q9Z0H8; Nos1|Q9Z0J4; Eif2s3x|Q9Z0N1; Itsn1|Q9Z0R4; Nup160|Q9Z0W3; Dctn3|Q9Z0Y1; Adnp|Q9Z103; Stau1|Q9Z108; Mettl1|Q9Z120; Recql|Q9Z129; Hnrnpdl|Q9Z130; Cog1|Q9Z160; Eif3g|Q9Z1D1; Gys1|Q9Z1E4; Atp6v1c1|Q9Z1G3; Nek4|Q9Z1J2; Apc2|Q9Z1K7; Rps6kb2|Q9Z1M4; Ik|Q9Z1M8; Ddx39b|Q9Z1N5; Unc13b|Q9Z1N9; Kank3|Q9Z1P7; Vars|Q9Z1Q9; Bag6|Q9Z1R2; D17H6S53E|Q9Z1R4; Rasgrp1|Q9Z1S3; Ap3b1|Q9Z1T1; Thbs4|Q9Z1T2; Pikfyve|Q9Z1T6; Ilf3|Q9Z1X4; Strap|Q9Z1Z2; Ube2a|Q9Z255; Rps6ka4|Q9Z2B9; Mtmr7|Q9Z2C9; Mtmr9|Q9Z2D0; Mecp2|Q9Z2D6; Fem1b|Q9Z2G0; Psma7|Q9Z2U0; Psma5|Q9Z2U1; Hdac5|Q9Z2V6; Dnpep|Q9Z2W0; Stk25|Q9Z2W1; Hnrnpf|Q9Z2X1; Keap1|Q9Z2X8; Sart1|Q9Z315; Top3b|Q9Z321</t>
+    <t xml:space="preserve">M23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M40</t>
   </si>
   <si>
     <t xml:space="preserve">M7</t>
   </si>
   <si>
-    <t xml:space="preserve">Ltf|P08071; Cd14|P10810; Dcn|P28654; Gpx3|P46412; Igfbp6|P47880; Sec23a|Q01405; Asphd1|Q2TA57; Zfyve27|Q3TXX3; Sec24a|Q3U2P1; Nacad|Q5SWP3; Tmem199|Q5SYH2; Mapk10|Q61831; Vamp1|Q62442; Mcf2l|Q64096; Snx19|Q6P4T1; Snx6|Q6P8X1; Asphd2|Q80VP9; Wdr48|Q8BH57; Atl1|Q8BH66; Kctd7|Q8BJK1; Ralyl|Q8BTF8; Endod1|Q8C522; Inpp5k|Q8C5L6; Myef2|Q8C854; Meak7|Q8K0P3; Sde2|Q8K1J5; Ltbp4|Q8K4G1; Cerk|Q8K4Q7; Hnrnpl|Q8R081; Tmem119|Q8R138; Daglb|Q91WC9; Bag2|Q91YN9; Fyttd1|Q91Z49; Dst|Q91ZU6; Pdia5|Q921X9; Ehbp1l1|Q99MS7; Fgfr1op2|Q9CRA9; Ctnnbl1|Q9CWL8; Dpm3|Q9D1Q4; Sec23b|Q9D662; Btbd17|Q9DB72; Ubl5|Q9EPV8; Slc15a2|Q9ES07; Rab37|Q9JKM7; Arl6ip1|Q9JKW0; Fbxl17|Q9QZN1; Cxcl14|Q9WUQ5; Hnrnpc|Q9Z204; Fkbp1b|Q9Z2I2</t>
+    <t xml:space="preserve">M31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M44</t>
   </si>
 </sst>
 </file>
@@ -500,535 +566,1931 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.137750288288232</v>
+        <v>0.238069443982049</v>
       </c>
       <c r="D2" t="n">
-        <v>0.90893542771203</v>
+        <v>1.17941336183957</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00819801811317503</v>
+        <v>0.00443856815397644</v>
       </c>
       <c r="F2" t="n">
-        <v>-16.8028767912642</v>
+        <v>53.6365412726099</v>
       </c>
       <c r="G2" t="n">
-        <v>0.000000000000000000000000000000000000000022555946906311</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>221.00000084371</v>
+        <v>16257.2571140938</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00423407256198859</v>
+        <v>0.0759331692145933</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
-        <v>16</v>
+      <c r="K2" t="n">
+        <v>407</v>
       </c>
       <c r="L2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.000000000000000000000000000000000000000270671362875732</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.000000000000000000000000000000000000000270671362875732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0692289044510682</v>
+        <v>-0.284034572487322</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0491557781203</v>
+        <v>0.821291019244357</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00899553316335495</v>
+        <v>0.00708405044407224</v>
       </c>
       <c r="F3" t="n">
-        <v>7.69592009655254</v>
+        <v>-40.0949392906985</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0000000000364418215866092</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>78.000000110049</v>
+        <v>9602.07744041337</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00198253061387896</v>
+        <v>0.114273371170076</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
-        <v>18</v>
+      <c r="K3" t="n">
+        <v>241</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.000000000218650929519655</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.00000000043730185903931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00319926967474396</v>
+        <v>-0.253053631828818</v>
       </c>
       <c r="D4" t="n">
-        <v>1.00222002537014</v>
+        <v>0.839118442507615</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000592986711338729</v>
+        <v>0.00594239516480352</v>
       </c>
       <c r="F4" t="n">
-        <v>5.3951793751352</v>
+        <v>-42.5844503454838</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0000000695570949411416</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>14144.0000128754</v>
+        <v>8122.29286780464</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0013402500935904</v>
+        <v>0.0680655423112383</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
-        <v>20</v>
+      <c r="K4" t="n">
+        <v>201</v>
       </c>
       <c r="L4" t="n">
-        <v>1089</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.000000278228379764566</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.000000834685139293699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.00946829180452821</v>
+        <v>0.171334437209625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.993458569153197</v>
+        <v>1.12609960177038</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00265286249202723</v>
+        <v>0.00471792208040485</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.56908502908978</v>
+        <v>36.3156564033211</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000450986016795821</v>
+        <v>5.61431246799448e-271</v>
       </c>
       <c r="H5" t="n">
-        <v>195.000000142567</v>
+        <v>9763.11135193501</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000394110046489877</v>
+        <v>0.0515616280478017</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
-        <v>22</v>
+      <c r="K5" t="n">
+        <v>245</v>
       </c>
       <c r="L5" t="n">
-        <v>16</v>
+        <v>6.59681714989352e-270</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00135295805038746</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.00541183220154985</v>
+        <v>2.63872685995741e-269</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.00156895327897817</v>
+        <v>-0.167832530171095</v>
       </c>
       <c r="D6" t="n">
-        <v>0.998913075588965</v>
+        <v>0.890179060344122</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000533597533965366</v>
+        <v>0.00503353296168704</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.94033082821558</v>
+        <v>-33.3428888712084</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0032808014777892</v>
+        <v>5.46863389048377e-231</v>
       </c>
       <c r="H6" t="n">
-        <v>34398.0000018181</v>
+        <v>9791.35391355614</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00263784706810844</v>
+        <v>0.0588491063621309</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
-        <v>24</v>
+      <c r="K6" t="n">
+        <v>244</v>
       </c>
       <c r="L6" t="n">
-        <v>2647</v>
+        <v>5.14051585705474e-230</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00775450896204343</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.0393696177334704</v>
+        <v>2.57025792852737e-229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00356512999887038</v>
+        <v>0.188057842598765</v>
       </c>
       <c r="D7" t="n">
-        <v>1.00247421563907</v>
+        <v>1.13922905191157</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0012329216803346</v>
+        <v>0.0057856027189921</v>
       </c>
       <c r="F7" t="n">
-        <v>2.89161108587436</v>
+        <v>32.5044514344957</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00387725448102171</v>
+        <v>2.28196120751075e-218</v>
       </c>
       <c r="H7" t="n">
-        <v>1859.00000016902</v>
+        <v>8369.19285260387</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000766128318398902</v>
+        <v>0.0664132471048164</v>
       </c>
       <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>211</v>
       </c>
       <c r="L7" t="n">
-        <v>144</v>
+        <v>1.78753627921676e-217</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00775450896204343</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.0465270537722606</v>
+        <v>1.07252176753005e-216</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.00439926099017732</v>
+        <v>0.232843156967891</v>
       </c>
       <c r="D8" t="n">
-        <v>0.996955309149076</v>
+        <v>1.17514856483974</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00157256391044159</v>
+        <v>0.00766791495973811</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.79750855336746</v>
+        <v>30.3659023594393</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00517527138397964</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000235506724663775</v>
       </c>
       <c r="H8" t="n">
-        <v>3874.0000005865</v>
+        <v>5916.47063452827</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00258794976466102</v>
+        <v>0.082579633718309</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
-        <v>28</v>
+      <c r="K8" t="n">
+        <v>148</v>
       </c>
       <c r="L8" t="n">
-        <v>299</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000015812594370282</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00887189380110796</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.0621032566077557</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110688160591974</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.00488445692001721</v>
+        <v>0.171859864694802</v>
       </c>
       <c r="D9" t="n">
-        <v>0.996620077299377</v>
+        <v>1.12650980033855</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00223298232289649</v>
+        <v>0.00628951616378985</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.187414056051</v>
+        <v>27.3248148536826</v>
       </c>
       <c r="G9" t="n">
-        <v>0.029347933285218</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000025023796927459</v>
       </c>
       <c r="H9" t="n">
-        <v>364.000000041789</v>
+        <v>9511.30408533097</v>
       </c>
       <c r="I9" t="n">
-        <v>0.000506100320518374</v>
+        <v>0.0891823460468669</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
-        <v>30</v>
+      <c r="K9" t="n">
+        <v>235</v>
       </c>
       <c r="L9" t="n">
-        <v>29</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000147014806948822</v>
       </c>
       <c r="M9" t="n">
-        <v>0.044021899927827</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.352175199422616</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000117611845559058</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0121037830185421</v>
+        <v>-0.0986266884338342</v>
       </c>
       <c r="D10" t="n">
-        <v>0.991645392270334</v>
+        <v>0.933921575067476</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00871787600961441</v>
+        <v>0.00408007753950373</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.38838669019766</v>
+        <v>-24.1727485516931</v>
       </c>
       <c r="G10" t="n">
-        <v>0.169759250128215</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000442762983374022</v>
       </c>
       <c r="H10" t="n">
-        <v>65.0000001386184</v>
+        <v>18098.0771797632</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00159602860449922</v>
+        <v>0.0715761714289997</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
-      <c r="K10" t="s">
-        <v>32</v>
+      <c r="K10" t="n">
+        <v>451</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000231220669095323</v>
       </c>
       <c r="M10" t="n">
-        <v>0.22634566683762</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000020809860218579</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>0.000686727411248228</v>
+        <v>-0.146486311374925</v>
       </c>
       <c r="D11" t="n">
-        <v>1.00047611647641</v>
+        <v>0.903448136278659</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000677465221589815</v>
+        <v>0.00610740222457066</v>
       </c>
       <c r="F11" t="n">
-        <v>1.01367183046929</v>
+        <v>-23.9850440479581</v>
       </c>
       <c r="G11" t="n">
-        <v>0.310827110082792</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000186883568975846</v>
       </c>
       <c r="H11" t="n">
-        <v>2795.00000205006</v>
+        <v>21192.0834008206</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000346973099606585</v>
+        <v>0.187381452372455</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
-      <c r="K11" t="s">
-        <v>34</v>
+      <c r="K11" t="n">
+        <v>534</v>
       </c>
       <c r="L11" t="n">
-        <v>216</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000878352774186478</v>
       </c>
       <c r="M11" t="n">
-        <v>0.372992532099351</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000878352774186478</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.00022628278083836</v>
+        <v>0.147572380427393</v>
       </c>
       <c r="D12" t="n">
-        <v>0.999843165028343</v>
+        <v>1.10770397208752</v>
       </c>
       <c r="E12" t="n">
-        <v>0.000533128874403648</v>
+        <v>0.00681872116737488</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.4244429287224</v>
+        <v>21.6422371299583</v>
       </c>
       <c r="G12" t="n">
-        <v>0.671245755071848</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000385675146705257</v>
       </c>
       <c r="H12" t="n">
-        <v>31096.0000288895</v>
+        <v>13521.5817412633</v>
       </c>
       <c r="I12" t="n">
-        <v>0.00238053818575265</v>
+        <v>0.14908352526744</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
-      <c r="K12" t="s">
-        <v>36</v>
+      <c r="K12" t="n">
+        <v>336</v>
       </c>
       <c r="L12" t="n">
-        <v>2393</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000164788471774064</v>
       </c>
       <c r="M12" t="n">
-        <v>0.704523116126366</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000018126731895147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.125280105356105</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.0907194799181</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.00657636082342364</v>
+      </c>
+      <c r="F13" t="n">
+        <v>19.050065639629</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000061866555144624</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7041.46924325207</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0723209745805804</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>182</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000242310674316444</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000290772809179733</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.113615384827763</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.924268945012048</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.00615964122142969</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-18.4451302833175</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000188528774774288</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8096.24645919265</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0729497818221528</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>206</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000681604031876273</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000886085241439155</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.271066860123121</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.20669984160876</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0144999021274526</v>
+      </c>
+      <c r="F15" t="n">
+        <v>18.6943923993742</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000221645769831295</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2149.52835047156</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.107938817691427</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>58</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000074409651300506</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000104173511820709</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.170575376489519</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.888488263082056</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.00956563435150899</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-17.8321029449145</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000310187325150259</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3610.33511143929</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0786348615406539</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>92</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000971920285470813</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000145788042820622</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.254369291092429</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.838353561030449</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0146655844843204</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-17.3446405333785</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000158728768362805</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5104.04257866182</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.261300081869839</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>135</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000466265757065739</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000746025211305183</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.113608180250405</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.08193076439126</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.00673951982160792</v>
+      </c>
+      <c r="F18" t="n">
+        <v>16.8570140392139</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000154598811228082</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3789.04614900673</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0409088198640058</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>96</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000042742024280705</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000726614412771986</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.108545022260677</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.927523010036298</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.00651738015036231</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-16.6547016986025</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000056745190795161</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6252.59403377362</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0632634643691698</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>155</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000148167998187365</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000266702396737257</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.184639555001897</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.879868876165601</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0113440424489662</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-16.2763455648673</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000453469771005938</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4962.2142692397</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.151752022688993</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>126</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000112174101248837</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000213130792372791</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.102678947823832</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.0737654931116</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.00636622322621904</v>
+      </c>
+      <c r="F21" t="n">
+        <v>16.1287067976116</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000126611576584498</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8077.19435887464</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0777265069909981</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>206</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000029753720497357</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000595074409947139</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.0582399324742474</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.960435122128788</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.00373257019636594</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-15.6031713833407</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000018752359039146</v>
+      </c>
+      <c r="H22" t="n">
+        <v>14838.5527043939</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0490352045066334</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>369</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000419695654685649</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000881360874839864</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.0455637194806325</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.968911150065903</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.00303786067432485</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-14.9986205311272</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000161003684551174</v>
+      </c>
+      <c r="H23" t="n">
+        <v>16547.1073023987</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0362257945562599</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>408</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.000000000000000000000000000000000000000000000000034396241699569</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.000000000000000000000000000000000000000000000000756717317390519</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.0838986468678353</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.94350453224928</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.00662994141239303</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-12.6545080339636</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.00000000000000000000000000000000000213451027774096</v>
+      </c>
+      <c r="H24" t="n">
+        <v>9121.21450613839</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0952139377043082</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>231</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.00000000000000000000000000000000000436182535016632</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.000000000000000000000000000000000100321983053825</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0691105166410052</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.04906968774405</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.00550994930218955</v>
+      </c>
+      <c r="F25" t="n">
+        <v>12.5428588995441</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0000000000000000000000000000000000158226356952163</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4748.51464917409</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0343296351766675</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>117</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.0000000000000000000000000000000000309859949031319</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.000000000000000000000000000000000743663877675165</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0721897106374572</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.05131114467395</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.00644636328715928</v>
+      </c>
+      <c r="F26" t="n">
+        <v>11.1985172758188</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.000000000000000000000000000111516699462251</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3953.8749758439</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0390686568214067</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>100</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.000000000000000000000000000209651394989031</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.00000000000000000000000000524128487472578</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.0492413567708963</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.966444401484134</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.00501582094424667</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-9.81720785455429</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.000000000000000000000129415755522009</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7586.10354182939</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0452736159437332</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>190</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.000000000000000000000233943865751324</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.00000000000000000000608254050953442</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0868775273825801</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.06206902198341</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0105786692447764</v>
+      </c>
+      <c r="F28" t="n">
+        <v>8.2125194929862</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.000000000000000302098778264076</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3474.010510799</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0924899293480104</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>87</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.00000000000000052587565105228</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0000000000000141986425784116</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.201491376174464</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.869651102565147</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0243047220881997</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-8.29021518712574</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.00000000000000165399967737315</v>
+      </c>
+      <c r="H29" t="n">
+        <v>407.930763185275</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0591628315039677</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>11</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.00000000000000277635660130494</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0000000000000777379848365382</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.188923327902018</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.877260169528274</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.026653519244082</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-7.08811944013603</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.00000000000695963314774018</v>
+      </c>
+      <c r="H30" t="n">
+        <v>368.861929076292</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.0642647895076392</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>10</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.0000000000112794054463375</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.000000000327102757943789</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.163441279160213</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.11995539860171</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0241710642228152</v>
+      </c>
+      <c r="F31" t="n">
+        <v>6.76185697301404</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0000000000382860327407192</v>
+      </c>
+      <c r="H31" t="n">
+        <v>497.776757464823</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0709453417812289</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>14</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.0000000000599814512937934</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.0000000017994435388138</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.067132841853386</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.04763258757382</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0122631514895004</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5.47435477013102</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0000000474963472726454</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3029.28991331832</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.108635487827136</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>80</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.0000000720105910262688</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.00000223232832181433</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.124103392207987</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.08983021320579</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0226268375762504</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5.48478733670887</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.000000076298684413283</v>
+      </c>
+      <c r="H33" t="n">
+        <v>374.665517447395</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0472829107402503</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>11</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.000000112063692732009</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0000035860381674243</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.0160918704409552</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.988907940978102</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.00430999335360323</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-3.73361838887806</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.000189743649869898</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10524.1717364462</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.046387466972226</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>264</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.00027024095587531</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.00891795154388523</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0332974206290862</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.02334841768277</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.00966359879790608</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3.44565428733456</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.000577797652689812</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2891.70324701564</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.064336246177115</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>74</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.000798720284600622</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0271564896764211</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.038558961516406</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.973626970893176</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0117190276959904</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-3.29028674704802</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.00101193374350921</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3133.21963296941</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.102494622274798</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>79</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.00135888245556951</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0475608859449328</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0775007261756352</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.05518848510738</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0289202480639219</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2.67980848588631</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.00747236535554935</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1142.15111500634</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.230027716411486</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>33</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.00975558810307831</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.351201171710819</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.100436635700003</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.07209788687189</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0401952853352611</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.49871682368419</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0133814764741131</v>
+      </c>
+      <c r="H38" t="n">
+        <v>175.896538258166</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.0730775881808951</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>5</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0169980917373869</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.628929394283316</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.0311611178457993</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.978632352218174</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0129094055378833</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-2.41383057913514</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0158874978909191</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1756.882173081</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.0699443156874038</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>46</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0196503263387683</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.746712400873197</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.0242564350860507</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.016955418264</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0115099459231855</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.10743258464742</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0351443486610113</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3864.94277168928</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.121819643213241</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>99</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.0423534458222444</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.0610408506164754</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.958572295664796</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.034831412700714</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-1.75246554427648</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0802776816191808</v>
+      </c>
+      <c r="H41" t="n">
+        <v>524.860904637506</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.155353529295646</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>15</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.00110814869245215</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.00076840521395</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.00292082564454633</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.379395700842758</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.704523116126366</v>
-      </c>
-      <c r="H13" t="n">
-        <v>624.000000064585</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.00146310464946147</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" t="n">
-        <v>49</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.704523116126366</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="L41" t="n">
+        <v>0.0943262759025374</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0448975528715541</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.03160992111193</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0300162827910106</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.49577325027735</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.135498426332862</v>
+      </c>
+      <c r="H42" t="n">
+        <v>401.460436554164</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.0890256401496535</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>11</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.155327464332793</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0550535411227067</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.03889765802564</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0390078374665311</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.41134563457774</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.159787174395327</v>
+      </c>
+      <c r="H43" t="n">
+        <v>188.954909315548</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.0737396286002801</v>
+      </c>
+      <c r="J43" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>6</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.178809457061438</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.0180748887804444</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.01260736936855</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0147053595757741</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.22913613144294</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.219164794909283</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2007.85544686471</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.103783891904342</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>55</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.239552217691541</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0.0470548764090449</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.967910209378418</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0442843795446882</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-1.06256149217493</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.288750287404743</v>
+      </c>
+      <c r="H45" t="n">
+        <v>333.229144290387</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.161572783479029</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>11</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.308437807000521</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.0206021680710466</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.01438278578927</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0236742938709692</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.870233688207706</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.384661855217743</v>
+      </c>
+      <c r="H46" t="n">
+        <v>426.823739194329</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.0586501316163911</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>11</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.396563956050514</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0110927741352534</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.00771856080801</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0128511392124111</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.863174381033897</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.388126425070715</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2440.18415659935</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.0960421115130143</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>61</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.396563956050514</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.00265470871807801</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.00184179789316</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0129998177960313</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.204211225090283</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.83829127067589</v>
+      </c>
+      <c r="H48" t="n">
+        <v>404.00381659787</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.0163795408492165</v>
+      </c>
+      <c r="J48" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>10</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.83829127067589</v>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>

--- a/tables/SWIP_Module_Results.xlsx
+++ b/tables/SWIP_Module_Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve">Module</t>
   </si>
@@ -53,94 +53,136 @@
     <t xml:space="preserve">Padjust</t>
   </si>
   <si>
+    <t xml:space="preserve">M3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutant-Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1</t>
+  </si>
+  <si>
     <t xml:space="preserve">M4</t>
   </si>
   <si>
-    <t xml:space="preserve">Mutant-Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M9</t>
+    <t xml:space="preserve">M21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M19</t>
   </si>
   <si>
     <t xml:space="preserve">M13</t>
   </si>
   <si>
+    <t xml:space="preserve">M36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M5</t>
+  </si>
+  <si>
     <t xml:space="preserve">M20</t>
   </si>
   <si>
-    <t xml:space="preserve">M11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M15</t>
+    <t xml:space="preserve">M12</t>
   </si>
   <si>
     <t xml:space="preserve">M33</t>
   </si>
   <si>
-    <t xml:space="preserve">M27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M17</t>
+    <t xml:space="preserve">M40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M43</t>
   </si>
   <si>
     <t xml:space="preserve">M28</t>
   </si>
   <si>
-    <t xml:space="preserve">M42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M45</t>
+    <t xml:space="preserve">M48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M41</t>
   </si>
   <si>
     <t xml:space="preserve">M38</t>
@@ -149,52 +191,13 @@
     <t xml:space="preserve">M29</t>
   </si>
   <si>
-    <t xml:space="preserve">M40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M36</t>
+    <t xml:space="preserve">M44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M37</t>
   </si>
   <si>
     <t xml:space="preserve">M47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M44</t>
   </si>
 </sst>
 </file>
@@ -575,31 +578,31 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>0.238069443982049</v>
+        <v>0.238880691830487</v>
       </c>
       <c r="D2" t="n">
-        <v>1.17941336183957</v>
+        <v>1.18007674917067</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00443856815397644</v>
+        <v>0.00453089851531788</v>
       </c>
       <c r="F2" t="n">
-        <v>53.6365412726099</v>
+        <v>52.7225871475356</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>16257.2571140938</v>
+        <v>15398.6910751915</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0759331692145933</v>
+        <v>0.0749466672051525</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -616,31 +619,31 @@
         <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.284034572487322</v>
+        <v>-0.311562558715946</v>
       </c>
       <c r="D3" t="n">
-        <v>0.821291019244357</v>
+        <v>0.805768572062287</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00708405044407224</v>
+        <v>0.00728764586819641</v>
       </c>
       <c r="F3" t="n">
-        <v>-40.0949392906985</v>
+        <v>-42.7521540358619</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>9602.07744041337</v>
+        <v>6275.11111498936</v>
       </c>
       <c r="I3" t="n">
-        <v>0.114273371170076</v>
+        <v>0.0792031551418915</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>241</v>
+        <v>159</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -657,37 +660,37 @@
         <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.253053631828818</v>
+        <v>-0.223256426485538</v>
       </c>
       <c r="D4" t="n">
-        <v>0.839118442507615</v>
+        <v>0.856629682766905</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00594239516480352</v>
+        <v>0.00597923589546632</v>
       </c>
       <c r="F4" t="n">
-        <v>-42.5844503454838</v>
+        <v>-37.3386215878888</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.95276183496406e-277</v>
       </c>
       <c r="H4" t="n">
-        <v>8122.29286780464</v>
+        <v>6714.45416333241</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0680655423112383</v>
+        <v>0.0570332483369565</v>
       </c>
       <c r="J4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3.1244189359425e-276</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>9.37325680782749e-276</v>
       </c>
     </row>
     <row r="5">
@@ -698,37 +701,37 @@
         <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>0.171334437209625</v>
+        <v>-0.161414972173826</v>
       </c>
       <c r="D5" t="n">
-        <v>1.12609960177038</v>
+        <v>0.894147675021355</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00471792208040485</v>
+        <v>0.00501594567738343</v>
       </c>
       <c r="F5" t="n">
-        <v>36.3156564033211</v>
+        <v>-32.1803668850793</v>
       </c>
       <c r="G5" t="n">
-        <v>5.61431246799448e-271</v>
+        <v>1.9635392946423e-216</v>
       </c>
       <c r="H5" t="n">
-        <v>9763.11135193501</v>
+        <v>10145.9760148815</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0515616280478017</v>
+        <v>0.0605520003330475</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="L5" t="n">
-        <v>6.59681714989352e-270</v>
+        <v>2.35624715357076e-215</v>
       </c>
       <c r="M5" t="n">
-        <v>2.63872685995741e-269</v>
+        <v>9.424988614283e-215</v>
       </c>
     </row>
     <row r="6">
@@ -739,37 +742,37 @@
         <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.167832530171095</v>
+        <v>0.128629951601923</v>
       </c>
       <c r="D6" t="n">
-        <v>0.890179060344122</v>
+        <v>1.09325500379215</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00503353296168704</v>
+        <v>0.00433451458293245</v>
       </c>
       <c r="F6" t="n">
-        <v>-33.3428888712084</v>
+        <v>29.6757454937203</v>
       </c>
       <c r="G6" t="n">
-        <v>5.46863389048377e-231</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000127401231428527</v>
       </c>
       <c r="H6" t="n">
-        <v>9791.35391355614</v>
+        <v>10090.994471319</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0588491063621309</v>
+        <v>0.0449729295235028</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="L6" t="n">
-        <v>5.14051585705474e-230</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000122305182171386</v>
       </c>
       <c r="M6" t="n">
-        <v>2.57025792852737e-229</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000611525910856931</v>
       </c>
     </row>
     <row r="7">
@@ -780,37 +783,37 @@
         <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>0.188057842598765</v>
+        <v>0.168484408284754</v>
       </c>
       <c r="D7" t="n">
-        <v>1.13922905191157</v>
+        <v>1.12387719970435</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0057856027189921</v>
+        <v>0.00610774175047453</v>
       </c>
       <c r="F7" t="n">
-        <v>32.5044514344957</v>
+        <v>27.585385101075</v>
       </c>
       <c r="G7" t="n">
-        <v>2.28196120751075e-218</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000152307783254373</v>
       </c>
       <c r="H7" t="n">
-        <v>8369.19285260387</v>
+        <v>10070.6691446833</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0664132471048164</v>
+        <v>0.0890433019492355</v>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="L7" t="n">
-        <v>1.78753627921676e-217</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000121846226603498</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07252176753005e-216</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000731077359620989</v>
       </c>
     </row>
     <row r="8">
@@ -821,37 +824,37 @@
         <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>0.232843156967891</v>
+        <v>0.17082349076046</v>
       </c>
       <c r="D8" t="n">
-        <v>1.17514856483974</v>
+        <v>1.12570085172228</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00766791495973811</v>
+        <v>0.00698287549580952</v>
       </c>
       <c r="F8" t="n">
-        <v>30.3659023594393</v>
+        <v>24.4632015654544</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000235506724663775</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000936610564829065</v>
       </c>
       <c r="H8" t="n">
-        <v>5916.47063452827</v>
+        <v>6815.38892787</v>
       </c>
       <c r="I8" t="n">
-        <v>0.082579633718309</v>
+        <v>0.0788452731525557</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000015812594370282</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000642247244454216</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110688160591974</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000044957307111795</v>
       </c>
     </row>
     <row r="9">
@@ -862,37 +865,37 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>0.171859864694802</v>
+        <v>-0.145323014863068</v>
       </c>
       <c r="D9" t="n">
-        <v>1.12650980033855</v>
+        <v>0.904176912541316</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00628951616378985</v>
+        <v>0.00609725033077251</v>
       </c>
       <c r="F9" t="n">
-        <v>27.3248148536826</v>
+        <v>-23.8341886882403</v>
       </c>
       <c r="G9" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000025023796927459</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000578738029932955</v>
       </c>
       <c r="H9" t="n">
-        <v>9511.30408533097</v>
+        <v>21693.7957574497</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0891823460468669</v>
+        <v>0.191203048758932</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>235</v>
+        <v>547</v>
       </c>
       <c r="L9" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000147014806948822</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000347242817959773</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000117611845559058</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000277794254367819</v>
       </c>
     </row>
     <row r="10">
@@ -903,37 +906,37 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0986266884338342</v>
+        <v>0.155410795481816</v>
       </c>
       <c r="D10" t="n">
-        <v>0.933921575067476</v>
+        <v>1.11373870096769</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00408007753950373</v>
+        <v>0.00671057076170409</v>
       </c>
       <c r="F10" t="n">
-        <v>-24.1727485516931</v>
+        <v>23.1591024073116</v>
       </c>
       <c r="G10" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000442762983374022</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000212551160939774</v>
       </c>
       <c r="H10" t="n">
-        <v>18098.0771797632</v>
+        <v>13535.6779031686</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0715761714289997</v>
+        <v>0.144550743070074</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>451</v>
+        <v>336</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000231220669095323</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000113360619167879</v>
       </c>
       <c r="M10" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000020809860218579</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000102024557251091</v>
       </c>
     </row>
     <row r="11">
@@ -944,37 +947,37 @@
         <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.146486311374925</v>
+        <v>-0.216604041030566</v>
       </c>
       <c r="D11" t="n">
-        <v>0.903448136278659</v>
+        <v>0.8605887935458</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00610740222457066</v>
+        <v>0.00966275490444771</v>
       </c>
       <c r="F11" t="n">
-        <v>-23.9850440479581</v>
+        <v>-22.4163857173759</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000186883568975846</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000223867998223482</v>
       </c>
       <c r="H11" t="n">
-        <v>21192.0834008206</v>
+        <v>5268.15878261868</v>
       </c>
       <c r="I11" t="n">
-        <v>0.187381452372455</v>
+        <v>0.116711992300644</v>
       </c>
       <c r="J11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>534</v>
+        <v>133</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000878352774186478</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000107456639147271</v>
       </c>
       <c r="M11" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000878352774186478</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000107456639147271</v>
       </c>
     </row>
     <row r="12">
@@ -985,37 +988,37 @@
         <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>0.147572380427393</v>
+        <v>-0.227633440010351</v>
       </c>
       <c r="D12" t="n">
-        <v>1.10770397208752</v>
+        <v>0.854034679978181</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00681872116737488</v>
+        <v>0.010110265848176</v>
       </c>
       <c r="F12" t="n">
-        <v>21.6422371299583</v>
+        <v>-22.5150795665199</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000385675146705257</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000015820905607336</v>
       </c>
       <c r="H12" t="n">
-        <v>13521.5817412633</v>
+        <v>3828.70608863511</v>
       </c>
       <c r="I12" t="n">
-        <v>0.14908352526744</v>
+        <v>0.0930764039485775</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>336</v>
+        <v>95</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000164788471774064</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000006903667901383</v>
       </c>
       <c r="M12" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000018126731895147</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000075940346915213</v>
       </c>
     </row>
     <row r="13">
@@ -1026,37 +1029,37 @@
         <v>14</v>
       </c>
       <c r="C13" t="n">
-        <v>0.125280105356105</v>
+        <v>0.149100618552672</v>
       </c>
       <c r="D13" t="n">
-        <v>1.0907194799181</v>
+        <v>1.10887797789991</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00657636082342364</v>
+        <v>0.00674416414259101</v>
       </c>
       <c r="F13" t="n">
-        <v>19.050065639629</v>
+        <v>22.108094554085</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000061866555144624</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010286639551643</v>
       </c>
       <c r="H13" t="n">
-        <v>7041.46924325207</v>
+        <v>6930.10507991245</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0723209745805804</v>
+        <v>0.0748739039921029</v>
       </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000242310674316444</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000411465582065719</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000290772809179733</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000493758698478863</v>
       </c>
     </row>
     <row r="14">
@@ -1067,37 +1070,37 @@
         <v>14</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.113615384827763</v>
+        <v>0.176101809685295</v>
       </c>
       <c r="D14" t="n">
-        <v>0.924268945012048</v>
+        <v>1.12982694262326</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00615964122142969</v>
+        <v>0.00845973587211062</v>
       </c>
       <c r="F14" t="n">
-        <v>-18.4451302833175</v>
+        <v>20.8164666542195</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000188528774774288</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000631652385318308</v>
       </c>
       <c r="H14" t="n">
-        <v>8096.24645919265</v>
+        <v>8566.07961342326</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0729497818221528</v>
+        <v>0.145529483471337</v>
       </c>
       <c r="J14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000681604031876273</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000233225496117529</v>
       </c>
       <c r="M14" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000886085241439155</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000303193144952788</v>
       </c>
     </row>
     <row r="15">
@@ -1108,37 +1111,37 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.271066860123121</v>
+        <v>0.216348253070223</v>
       </c>
       <c r="D15" t="n">
-        <v>1.20669984160876</v>
+        <v>1.16178914309758</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0144999021274526</v>
+        <v>0.0100886417016016</v>
       </c>
       <c r="F15" t="n">
-        <v>18.6943923993742</v>
+        <v>21.4447355223128</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000221645769831295</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000818607239363308</v>
       </c>
       <c r="H15" t="n">
-        <v>2149.52835047156</v>
+        <v>2508.93989234849</v>
       </c>
       <c r="I15" t="n">
-        <v>0.107938817691427</v>
+        <v>0.0608031809027182</v>
       </c>
       <c r="J15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000074409651300506</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000280665339210277</v>
       </c>
       <c r="M15" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000104173511820709</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000392931474894388</v>
       </c>
     </row>
     <row r="16">
@@ -1149,37 +1152,37 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.170575376489519</v>
+        <v>-0.0639887644495022</v>
       </c>
       <c r="D16" t="n">
-        <v>0.888488263082056</v>
+        <v>0.956615608080135</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00956563435150899</v>
+        <v>0.00319100453334071</v>
       </c>
       <c r="F16" t="n">
-        <v>-17.8321029449145</v>
+        <v>-20.0528591485614</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000310187325150259</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000188677298656339</v>
       </c>
       <c r="H16" t="n">
-        <v>3610.33511143929</v>
+        <v>17453.0213546981</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0786348615406539</v>
+        <v>0.0421545471869566</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>92</v>
+        <v>432</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000971920285470813</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000603767355700286</v>
       </c>
       <c r="M16" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000145788042820622</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000905651033550429</v>
       </c>
     </row>
     <row r="17">
@@ -1190,37 +1193,37 @@
         <v>14</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.254369291092429</v>
+        <v>0.113864373696405</v>
       </c>
       <c r="D17" t="n">
-        <v>0.838353561030449</v>
+        <v>1.08212291046202</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0146655844843204</v>
+        <v>0.00563646829414596</v>
       </c>
       <c r="F17" t="n">
-        <v>-17.3446405333785</v>
+        <v>20.2013686149294</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000158728768362805</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000553885325051384</v>
       </c>
       <c r="H17" t="n">
-        <v>5104.04257866182</v>
+        <v>4556.79420222729</v>
       </c>
       <c r="I17" t="n">
-        <v>0.261300081869839</v>
+        <v>0.0343846716823801</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000466265757065739</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000166165597515415</v>
       </c>
       <c r="M17" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000746025211305183</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000265864956024664</v>
       </c>
     </row>
     <row r="18">
@@ -1231,37 +1234,37 @@
         <v>14</v>
       </c>
       <c r="C18" t="n">
-        <v>0.113608180250405</v>
+        <v>-0.100492445033007</v>
       </c>
       <c r="D18" t="n">
-        <v>1.08193076439126</v>
+        <v>0.932714567308804</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00673951982160792</v>
+        <v>0.005070668750321</v>
       </c>
       <c r="F18" t="n">
-        <v>16.8570140392139</v>
+        <v>-19.8183809633878</v>
       </c>
       <c r="G18" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000154598811228082</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000751078315161758</v>
       </c>
       <c r="H18" t="n">
-        <v>3789.04614900673</v>
+        <v>10527.5299798439</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0409088198640058</v>
+        <v>0.06428940990065</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>96</v>
+        <v>263</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000042742024280705</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000021206917133979</v>
       </c>
       <c r="M18" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000726614412771986</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000360517591277644</v>
       </c>
     </row>
     <row r="19">
@@ -1272,37 +1275,37 @@
         <v>14</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.108545022260677</v>
+        <v>-0.126179392240889</v>
       </c>
       <c r="D19" t="n">
-        <v>0.927523010036298</v>
+        <v>0.916254705693173</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00651738015036231</v>
+        <v>0.00690502022015616</v>
       </c>
       <c r="F19" t="n">
-        <v>-16.6547016986025</v>
+        <v>-18.2735731710914</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000056745190795161</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000111448459188313</v>
       </c>
       <c r="H19" t="n">
-        <v>6252.59403377362</v>
+        <v>6125.81004247298</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0632634643691698</v>
+        <v>0.0694002708157512</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000148167998187365</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000297195891168835</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000266702396737257</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000534952604103902</v>
       </c>
     </row>
     <row r="20">
@@ -1313,37 +1316,37 @@
         <v>14</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.184639555001897</v>
+        <v>0.116849279058586</v>
       </c>
       <c r="D20" t="n">
-        <v>0.879868876165601</v>
+        <v>1.08436411745886</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0113440424489662</v>
+        <v>0.00653402002101818</v>
       </c>
       <c r="F20" t="n">
-        <v>-16.2763455648673</v>
+        <v>17.8832141136258</v>
       </c>
       <c r="G20" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000453469771005938</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000268935242951453</v>
       </c>
       <c r="H20" t="n">
-        <v>4962.2142692397</v>
+        <v>8892.92805888793</v>
       </c>
       <c r="I20" t="n">
-        <v>0.151752022688993</v>
+        <v>0.0901538148878529</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>126</v>
+        <v>227</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000112174101248837</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000679415350614198</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000213130792372791</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000129088916616698</v>
       </c>
     </row>
     <row r="21">
@@ -1354,37 +1357,37 @@
         <v>14</v>
       </c>
       <c r="C21" t="n">
-        <v>0.102678947823832</v>
+        <v>0.279203251915618</v>
       </c>
       <c r="D21" t="n">
-        <v>1.0737654931116</v>
+        <v>1.21352451377758</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00636622322621904</v>
+        <v>0.0152951860475075</v>
       </c>
       <c r="F21" t="n">
-        <v>16.1287067976116</v>
+        <v>18.2543220493298</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000126611576584498</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000262459188826606</v>
       </c>
       <c r="H21" t="n">
-        <v>8077.19435887464</v>
+        <v>2141.43909452812</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0777265069909981</v>
+        <v>0.119594887862801</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000029753720497357</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000629902053183854</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000595074409947139</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000125980410636771</v>
       </c>
     </row>
     <row r="22">
@@ -1395,37 +1398,37 @@
         <v>14</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0582399324742474</v>
+        <v>-0.176032083647408</v>
       </c>
       <c r="D22" t="n">
-        <v>0.960435122128788</v>
+        <v>0.885134080138479</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00373257019636594</v>
+        <v>0.0117982374352974</v>
       </c>
       <c r="F22" t="n">
-        <v>-15.6031713833407</v>
+        <v>-14.9202018193635</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000018752359039146</v>
+        <v>0.000000000000000000000000000000000000000000000000342602680593748</v>
       </c>
       <c r="H22" t="n">
-        <v>14838.5527043939</v>
+        <v>4580.43892760504</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0490352045066334</v>
+        <v>0.151554942056032</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>369</v>
+        <v>116</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000419695654685649</v>
+        <v>0.000000000000000000000000000000000000000000000000783091841357138</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000881360874839864</v>
+        <v>0.0000000000000000000000000000000000000000000000164449286684999</v>
       </c>
     </row>
     <row r="23">
@@ -1436,37 +1439,37 @@
         <v>14</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.0455637194806325</v>
+        <v>-0.083269774896408</v>
       </c>
       <c r="D23" t="n">
-        <v>0.968911150065903</v>
+        <v>0.943915896312158</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00303786067432485</v>
+        <v>0.00570066486983318</v>
       </c>
       <c r="F23" t="n">
-        <v>-14.9986205311272</v>
+        <v>-14.6070286181978</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000161003684551174</v>
+        <v>0.0000000000000000000000000000000000000000000000077633905517226</v>
       </c>
       <c r="H23" t="n">
-        <v>16547.1073023987</v>
+        <v>10116.0183466249</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0362257945562599</v>
+        <v>0.0779994346791694</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>408</v>
+        <v>253</v>
       </c>
       <c r="L23" t="n">
-        <v>0.000000000000000000000000000000000000000000000000034396241699569</v>
+        <v>0.0000000000000000000000000000000000000000000000169383066583038</v>
       </c>
       <c r="M23" t="n">
-        <v>0.000000000000000000000000000000000000000000000000756717317390519</v>
+        <v>0.000000000000000000000000000000000000000000000372642746482685</v>
       </c>
     </row>
     <row r="24">
@@ -1477,37 +1480,37 @@
         <v>14</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0838986468678353</v>
+        <v>-0.103065717086894</v>
       </c>
       <c r="D24" t="n">
-        <v>0.94350453224928</v>
+        <v>0.931052407924841</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00662994141239303</v>
+        <v>0.00770059105681046</v>
       </c>
       <c r="F24" t="n">
-        <v>-12.6545080339636</v>
+        <v>-13.3841306889998</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00000000000000000000000000000000000213451027774096</v>
+        <v>0.000000000000000000000000000000000000000476614448248457</v>
       </c>
       <c r="H24" t="n">
-        <v>9121.21450613839</v>
+        <v>4263.67948198993</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0952139377043082</v>
+        <v>0.0601566588775642</v>
       </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>231</v>
+        <v>105</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00000000000000000000000000000000000436182535016632</v>
+        <v>0.000000000000000000000000000000000000000994673631127216</v>
       </c>
       <c r="M24" t="n">
-        <v>0.000000000000000000000000000000000100321983053825</v>
+        <v>0.000000000000000000000000000000000000022877493515926</v>
       </c>
     </row>
     <row r="25">
@@ -1518,37 +1521,37 @@
         <v>14</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0691105166410052</v>
+        <v>-0.143332541484189</v>
       </c>
       <c r="D25" t="n">
-        <v>1.04906968774405</v>
+        <v>0.90542525826716</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00550994930218955</v>
+        <v>0.010976866461253</v>
       </c>
       <c r="F25" t="n">
-        <v>12.5428588995441</v>
+        <v>-13.0576920098404</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0000000000000000000000000000000000158226356952163</v>
+        <v>0.0000000000000000000000000000000000000658821836356719</v>
       </c>
       <c r="H25" t="n">
-        <v>4748.51464917409</v>
+        <v>2901.08971068892</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0343296351766675</v>
+        <v>0.0833060366619947</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0000000000000000000000000000000000309859949031319</v>
+        <v>0.000000000000000000000000000000000000131764367271344</v>
       </c>
       <c r="M25" t="n">
-        <v>0.000000000000000000000000000000000743663877675165</v>
+        <v>0.00000000000000000000000000000000000316234481451225</v>
       </c>
     </row>
     <row r="26">
@@ -1559,37 +1562,37 @@
         <v>14</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0721897106374572</v>
+        <v>-0.230243737574053</v>
       </c>
       <c r="D26" t="n">
-        <v>1.05131114467395</v>
+        <v>0.852490854670675</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00644636328715928</v>
+        <v>0.0176498053164448</v>
       </c>
       <c r="F26" t="n">
-        <v>11.1985172758188</v>
+        <v>-13.0451148579825</v>
       </c>
       <c r="G26" t="n">
-        <v>0.000000000000000000000000000111516699462251</v>
+        <v>0.0000000000000000000000000000000000000824154317832134</v>
       </c>
       <c r="H26" t="n">
-        <v>3953.8749758439</v>
+        <v>2819.13156997211</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0390686568214067</v>
+        <v>0.209352368838254</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="L26" t="n">
-        <v>0.000000000000000000000000000209651394989031</v>
+        <v>0.00000000000000000000000000000000000015823762902377</v>
       </c>
       <c r="M26" t="n">
-        <v>0.00000000000000000000000000524128487472578</v>
+        <v>0.00000000000000000000000000000000000395594072559424</v>
       </c>
     </row>
     <row r="27">
@@ -1600,37 +1603,37 @@
         <v>14</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.0492413567708963</v>
+        <v>-0.076025755541823</v>
       </c>
       <c r="D27" t="n">
-        <v>0.966444401484134</v>
+        <v>0.948667379017599</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00501582094424667</v>
+        <v>0.00629949809727417</v>
       </c>
       <c r="F27" t="n">
-        <v>-9.81720785455429</v>
+        <v>-12.0685417104451</v>
       </c>
       <c r="G27" t="n">
-        <v>0.000000000000000000000129415755522009</v>
+        <v>0.00000000000000000000000000000000267271416946878</v>
       </c>
       <c r="H27" t="n">
-        <v>7586.10354182939</v>
+        <v>9753.53180234219</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0452736159437332</v>
+        <v>0.0919169495509051</v>
       </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="L27" t="n">
-        <v>0.000000000000000000000233943865751324</v>
+        <v>0.00000000000000000000000000000000493424154363468</v>
       </c>
       <c r="M27" t="n">
-        <v>0.00000000000000000000608254050953442</v>
+        <v>0.000000000000000000000000000000128290280134502</v>
       </c>
     </row>
     <row r="28">
@@ -1641,37 +1644,37 @@
         <v>14</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0868775273825801</v>
+        <v>-0.13202300073929</v>
       </c>
       <c r="D28" t="n">
-        <v>1.06206902198341</v>
+        <v>0.9125509397213</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0105786692447764</v>
+        <v>0.0115258729135195</v>
       </c>
       <c r="F28" t="n">
-        <v>8.2125194929862</v>
+        <v>-11.4544904086553</v>
       </c>
       <c r="G28" t="n">
-        <v>0.000000000000000302098778264076</v>
+        <v>0.0000000000000000000000000000208827505096817</v>
       </c>
       <c r="H28" t="n">
-        <v>3474.010510799</v>
+        <v>1867.58647020804</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0924899293480104</v>
+        <v>0.0592287650955555</v>
       </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00000000000000052587565105228</v>
+        <v>0.0000000000000000000000000000371248897949897</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0000000000000141986425784116</v>
+        <v>0.00000000000000000000000000100237202446472</v>
       </c>
     </row>
     <row r="29">
@@ -1682,37 +1685,37 @@
         <v>14</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.201491376174464</v>
+        <v>-0.187705697924777</v>
       </c>
       <c r="D29" t="n">
-        <v>0.869651102565147</v>
+        <v>0.878000886829111</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0243047220881997</v>
+        <v>0.0176699528432283</v>
       </c>
       <c r="F29" t="n">
-        <v>-8.29021518712574</v>
+        <v>-10.6228748650402</v>
       </c>
       <c r="G29" t="n">
-        <v>0.00000000000000165399967737315</v>
+        <v>0.0000000000000000000000000603848357464828</v>
       </c>
       <c r="H29" t="n">
-        <v>407.930763185275</v>
+        <v>3331.40579956559</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0591628315039677</v>
+        <v>0.248066164083206</v>
       </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="L29" t="n">
-        <v>0.00000000000000277635660130494</v>
+        <v>0.000000000000000000000000103516861279685</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0000000000000777379848365382</v>
+        <v>0.00000000000000000000000289847211583117</v>
       </c>
     </row>
     <row r="30">
@@ -1723,37 +1726,37 @@
         <v>14</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.188923327902018</v>
+        <v>0.0528383947948689</v>
       </c>
       <c r="D30" t="n">
-        <v>0.877260169528274</v>
+        <v>1.03730373524284</v>
       </c>
       <c r="E30" t="n">
-        <v>0.026653519244082</v>
+        <v>0.00508197769052894</v>
       </c>
       <c r="F30" t="n">
-        <v>-7.08811944013603</v>
+        <v>10.3972110883803</v>
       </c>
       <c r="G30" t="n">
-        <v>0.00000000000695963314774018</v>
+        <v>0.000000000000000000000000521333225553211</v>
       </c>
       <c r="H30" t="n">
-        <v>368.861929076292</v>
+        <v>4095.73920912747</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0642647895076392</v>
+        <v>0.0251987146985675</v>
       </c>
       <c r="J30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0000000000112794054463375</v>
+        <v>0.000000000000000000000000862896373329453</v>
       </c>
       <c r="M30" t="n">
-        <v>0.000000000327102757943789</v>
+        <v>0.0000000000000000000000250239948265541</v>
       </c>
     </row>
     <row r="31">
@@ -1764,37 +1767,37 @@
         <v>14</v>
       </c>
       <c r="C31" t="n">
-        <v>0.163441279160213</v>
+        <v>0.247324400308398</v>
       </c>
       <c r="D31" t="n">
-        <v>1.11995539860171</v>
+        <v>1.18700367392489</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0241710642228152</v>
+        <v>0.0229429982454742</v>
       </c>
       <c r="F31" t="n">
-        <v>6.76185697301404</v>
+        <v>10.7799511494617</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0000000000382860327407192</v>
+        <v>0.000000000000000000000000688145391661827</v>
       </c>
       <c r="H31" t="n">
-        <v>497.776757464823</v>
+        <v>600.000325086344</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0709453417812289</v>
+        <v>0.0765277237268895</v>
       </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0000000000599814512937934</v>
+        <v>0.00000000000000000000000110103262665892</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0000000017994435388138</v>
+        <v>0.0000000000000000000000330309787997677</v>
       </c>
     </row>
     <row r="32">
@@ -1805,37 +1808,37 @@
         <v>14</v>
       </c>
       <c r="C32" t="n">
-        <v>0.067132841853386</v>
+        <v>0.151911154937094</v>
       </c>
       <c r="D32" t="n">
-        <v>1.04763258757382</v>
+        <v>1.11104030568105</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0122631514895004</v>
+        <v>0.0156140254132662</v>
       </c>
       <c r="F32" t="n">
-        <v>5.47435477013102</v>
+        <v>9.72914741178949</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0000000474963472726454</v>
+        <v>0.00000000000000000000154907634029049</v>
       </c>
       <c r="H32" t="n">
-        <v>3029.28991331832</v>
+        <v>1127.1206366193</v>
       </c>
       <c r="I32" t="n">
-        <v>0.108635487827136</v>
+        <v>0.0659777756362205</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0000000720105910262688</v>
+        <v>0.00000000000000000000239856981722398</v>
       </c>
       <c r="M32" t="n">
-        <v>0.00000223232832181433</v>
+        <v>0.0000000000000000000743556643339433</v>
       </c>
     </row>
     <row r="33">
@@ -1846,37 +1849,37 @@
         <v>14</v>
       </c>
       <c r="C33" t="n">
-        <v>0.124103392207987</v>
+        <v>-0.0330784077039395</v>
       </c>
       <c r="D33" t="n">
-        <v>1.08983021320579</v>
+        <v>0.97733264881547</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0226268375762504</v>
+        <v>0.00359912654734442</v>
       </c>
       <c r="F33" t="n">
-        <v>5.48478733670887</v>
+        <v>-9.19067647908797</v>
       </c>
       <c r="G33" t="n">
-        <v>0.000000076298684413283</v>
+        <v>0.0000000000000000000453372711975916</v>
       </c>
       <c r="H33" t="n">
-        <v>374.665517447395</v>
+        <v>12148.3655444248</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0472829107402503</v>
+        <v>0.037369629213768</v>
       </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>11</v>
+        <v>301</v>
       </c>
       <c r="L33" t="n">
-        <v>0.000000112063692732009</v>
+        <v>0.0000000000000000000680059067963875</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0000035860381674243</v>
+        <v>0.0000000000000000021761890174844</v>
       </c>
     </row>
     <row r="34">
@@ -1887,37 +1890,37 @@
         <v>14</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.0160918704409552</v>
+        <v>-0.050310670386541</v>
       </c>
       <c r="D34" t="n">
-        <v>0.988907940978102</v>
+        <v>0.96572834629789</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00430999335360323</v>
+        <v>0.00567840215232408</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.73361838887806</v>
+        <v>-8.86000481067542</v>
       </c>
       <c r="G34" t="n">
-        <v>0.000189743649869898</v>
+        <v>0.00000000000000000104944031810167</v>
       </c>
       <c r="H34" t="n">
-        <v>10524.1717364462</v>
+        <v>5771.07212576588</v>
       </c>
       <c r="I34" t="n">
-        <v>0.046387466972226</v>
+        <v>0.0441696632208201</v>
       </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>264</v>
+        <v>144</v>
       </c>
       <c r="L34" t="n">
-        <v>0.00027024095587531</v>
+        <v>0.00000000000000000152645864451151</v>
       </c>
       <c r="M34" t="n">
-        <v>0.00891795154388523</v>
+        <v>0.0000000000000000503731352688799</v>
       </c>
     </row>
     <row r="35">
@@ -1928,37 +1931,37 @@
         <v>14</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0332974206290862</v>
+        <v>-0.0230395808427522</v>
       </c>
       <c r="D35" t="n">
-        <v>1.02334841768277</v>
+        <v>0.98415702097152</v>
       </c>
       <c r="E35" t="n">
-        <v>0.00966359879790608</v>
+        <v>0.00454759354508554</v>
       </c>
       <c r="F35" t="n">
-        <v>3.44565428733456</v>
+        <v>-5.06632367522169</v>
       </c>
       <c r="G35" t="n">
-        <v>0.000577797652689812</v>
+        <v>0.000000413437941516268</v>
       </c>
       <c r="H35" t="n">
-        <v>2891.70324701564</v>
+        <v>9215.96062807698</v>
       </c>
       <c r="I35" t="n">
-        <v>0.064336246177115</v>
+        <v>0.0452332600689823</v>
       </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="L35" t="n">
-        <v>0.000798720284600622</v>
+        <v>0.00000058367709390532</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0271564896764211</v>
+        <v>0.0000198450211927809</v>
       </c>
     </row>
     <row r="36">
@@ -1969,37 +1972,37 @@
         <v>14</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.038558961516406</v>
+        <v>0.0617068983126973</v>
       </c>
       <c r="D36" t="n">
-        <v>0.973626970893176</v>
+        <v>1.04369986509414</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0117190276959904</v>
+        <v>0.013496968533252</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.29028674704802</v>
+        <v>4.57190799257419</v>
       </c>
       <c r="G36" t="n">
-        <v>0.00101193374350921</v>
+        <v>0.00000506220113139408</v>
       </c>
       <c r="H36" t="n">
-        <v>3133.21963296941</v>
+        <v>2565.78902698975</v>
       </c>
       <c r="I36" t="n">
-        <v>0.102494622274798</v>
+        <v>0.111584517707209</v>
       </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="L36" t="n">
-        <v>0.00135888245556951</v>
+        <v>0.00000694244726591188</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0475608859449328</v>
+        <v>0.000242985654306916</v>
       </c>
     </row>
     <row r="37">
@@ -2010,37 +2013,37 @@
         <v>14</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0775007261756352</v>
+        <v>0.125955574473071</v>
       </c>
       <c r="D37" t="n">
-        <v>1.05518848510738</v>
+        <v>1.09123027381589</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0289202480639219</v>
+        <v>0.0277542189912542</v>
       </c>
       <c r="F37" t="n">
-        <v>2.67980848588631</v>
+        <v>4.53824964459499</v>
       </c>
       <c r="G37" t="n">
-        <v>0.00747236535554935</v>
+        <v>0.00000613837302287385</v>
       </c>
       <c r="H37" t="n">
-        <v>1142.15111500634</v>
+        <v>1457.68847943773</v>
       </c>
       <c r="I37" t="n">
-        <v>0.230027716411486</v>
+        <v>0.269664016441174</v>
       </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="L37" t="n">
-        <v>0.00975558810307831</v>
+        <v>0.0000081844973638318</v>
       </c>
       <c r="M37" t="n">
-        <v>0.351201171710819</v>
+        <v>0.000294641905097945</v>
       </c>
     </row>
     <row r="38">
@@ -2051,37 +2054,37 @@
         <v>14</v>
       </c>
       <c r="C38" t="n">
-        <v>0.100436635700003</v>
+        <v>0.125685580723758</v>
       </c>
       <c r="D38" t="n">
-        <v>1.07209788687189</v>
+        <v>1.09102607419125</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0401952853352611</v>
+        <v>0.0293416185333988</v>
       </c>
       <c r="F38" t="n">
-        <v>2.49871682368419</v>
+        <v>4.28352582461304</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0133814764741131</v>
+        <v>0.00002138885717804</v>
       </c>
       <c r="H38" t="n">
-        <v>175.896538258166</v>
+        <v>606.053783486972</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0730775881808951</v>
+        <v>0.126598964160343</v>
       </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0169980917373869</v>
+        <v>0.0000277477066093492</v>
       </c>
       <c r="M38" t="n">
-        <v>0.628929394283316</v>
+        <v>0.00102666514454592</v>
       </c>
     </row>
     <row r="39">
@@ -2092,37 +2095,37 @@
         <v>14</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.0311611178457993</v>
+        <v>0.0354794117194215</v>
       </c>
       <c r="D39" t="n">
-        <v>0.978632352218174</v>
+        <v>1.02489734279222</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0129094055378833</v>
+        <v>0.00966427659751074</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.41383057913514</v>
+        <v>3.67119166773021</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0158874978909191</v>
+        <v>0.000245731358637344</v>
       </c>
       <c r="H39" t="n">
-        <v>1756.882173081</v>
+        <v>2930.32570754168</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0699443156874038</v>
+        <v>0.065177604062598</v>
       </c>
       <c r="J39" t="b">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0196503263387683</v>
+        <v>0.000310397505647171</v>
       </c>
       <c r="M39" t="n">
-        <v>0.746712400873197</v>
+        <v>0.0117951052145925</v>
       </c>
     </row>
     <row r="40">
@@ -2133,37 +2136,37 @@
         <v>14</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0242564350860507</v>
+        <v>-0.0332089632674522</v>
       </c>
       <c r="D40" t="n">
-        <v>1.016955418264</v>
+        <v>0.977244209860664</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0115099459231855</v>
+        <v>0.0107204824785023</v>
       </c>
       <c r="F40" t="n">
-        <v>2.10743258464742</v>
+        <v>-3.09771163136042</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0351443486610113</v>
+        <v>0.00197154094807566</v>
       </c>
       <c r="H40" t="n">
-        <v>3864.94277168928</v>
+        <v>2539.05719342973</v>
       </c>
       <c r="I40" t="n">
-        <v>0.121819643213241</v>
+        <v>0.069434643066731</v>
       </c>
       <c r="J40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0423534458222444</v>
+        <v>0.00242651193609312</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>0.0946339655076316</v>
       </c>
     </row>
     <row r="41">
@@ -2174,37 +2177,37 @@
         <v>14</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0610408506164754</v>
+        <v>0.0539204215589396</v>
       </c>
       <c r="D41" t="n">
-        <v>0.958572295664796</v>
+        <v>1.03808200880444</v>
       </c>
       <c r="E41" t="n">
-        <v>0.034831412700714</v>
+        <v>0.0182340534639761</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.75246554427648</v>
+        <v>2.95712753422968</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0802776816191808</v>
+        <v>0.00320288552412826</v>
       </c>
       <c r="H41" t="n">
-        <v>524.860904637506</v>
+        <v>748.715897966785</v>
       </c>
       <c r="I41" t="n">
-        <v>0.155353529295646</v>
+        <v>0.0601334706181464</v>
       </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0943262759025374</v>
+        <v>0.00384346262895391</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0.153738505158157</v>
       </c>
     </row>
     <row r="42">
@@ -2215,37 +2218,37 @@
         <v>14</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0448975528715541</v>
+        <v>0.033399243903766</v>
       </c>
       <c r="D42" t="n">
-        <v>1.03160992111193</v>
+        <v>1.02342064664407</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0300162827910106</v>
+        <v>0.0125537475232943</v>
       </c>
       <c r="F42" t="n">
-        <v>1.49577325027735</v>
+        <v>2.66049988991665</v>
       </c>
       <c r="G42" t="n">
-        <v>0.135498426332862</v>
+        <v>0.00783781916264743</v>
       </c>
       <c r="H42" t="n">
-        <v>401.460436554164</v>
+        <v>3525.74233143056</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0890256401496535</v>
+        <v>0.132358873010674</v>
       </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="L42" t="n">
-        <v>0.155327464332793</v>
+        <v>0.00917598340992869</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0.376215319807076</v>
       </c>
     </row>
     <row r="43">
@@ -2256,37 +2259,37 @@
         <v>14</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0550535411227067</v>
+        <v>0.100436635700003</v>
       </c>
       <c r="D43" t="n">
-        <v>1.03889765802564</v>
+        <v>1.07209788687189</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0390078374665311</v>
+        <v>0.0401952853352611</v>
       </c>
       <c r="F43" t="n">
-        <v>1.41134563457774</v>
+        <v>2.49871682368419</v>
       </c>
       <c r="G43" t="n">
-        <v>0.159787174395327</v>
+        <v>0.0133814764741131</v>
       </c>
       <c r="H43" t="n">
-        <v>188.954909315548</v>
+        <v>175.896538258166</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0737396286002801</v>
+        <v>0.0730775881808951</v>
       </c>
       <c r="J43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L43" t="n">
-        <v>0.178809457061438</v>
+        <v>0.015293115970415</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>0.642310870757429</v>
       </c>
     </row>
     <row r="44">
@@ -2297,34 +2300,34 @@
         <v>14</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0180748887804444</v>
+        <v>-0.0247588765357535</v>
       </c>
       <c r="D44" t="n">
-        <v>1.01260736936855</v>
+        <v>0.982984875059446</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0147053595757741</v>
+        <v>0.0135124849429868</v>
       </c>
       <c r="F44" t="n">
-        <v>1.22913613144294</v>
+        <v>-1.83229632744966</v>
       </c>
       <c r="G44" t="n">
-        <v>0.219164794909283</v>
+        <v>0.0670987358935994</v>
       </c>
       <c r="H44" t="n">
-        <v>2007.85544686471</v>
+        <v>1552.54229432742</v>
       </c>
       <c r="I44" t="n">
-        <v>0.103783891904342</v>
+        <v>0.0677835316739122</v>
       </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="L44" t="n">
-        <v>0.239552217691541</v>
+        <v>0.0749009144858784</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
@@ -2338,34 +2341,34 @@
         <v>14</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.0470548764090449</v>
+        <v>0.0165638644925994</v>
       </c>
       <c r="D45" t="n">
-        <v>0.967910209378418</v>
+        <v>1.01154735786614</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0442843795446882</v>
+        <v>0.00919255445570941</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.06256149217493</v>
+        <v>1.80187831058338</v>
       </c>
       <c r="G45" t="n">
-        <v>0.288750287404743</v>
+        <v>0.0717005218889631</v>
       </c>
       <c r="H45" t="n">
-        <v>333.229144290387</v>
+        <v>2214.20477972231</v>
       </c>
       <c r="I45" t="n">
-        <v>0.161572783479029</v>
+        <v>0.0447736199628545</v>
       </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="L45" t="n">
-        <v>0.308437807000521</v>
+        <v>0.0782187511515961</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
@@ -2379,34 +2382,34 @@
         <v>14</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0206021680710466</v>
+        <v>0.0129446336712462</v>
       </c>
       <c r="D46" t="n">
-        <v>1.01438278578927</v>
+        <v>1.00901291019838</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0236742938709692</v>
+        <v>0.00845216141819799</v>
       </c>
       <c r="F46" t="n">
-        <v>0.870233688207706</v>
+        <v>1.53151756465223</v>
       </c>
       <c r="G46" t="n">
-        <v>0.384661855217743</v>
+        <v>0.125739791088071</v>
       </c>
       <c r="H46" t="n">
-        <v>426.823739194329</v>
+        <v>3219.05741025441</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0586501316163911</v>
+        <v>0.0547003177608723</v>
       </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="L46" t="n">
-        <v>0.396563956050514</v>
+        <v>0.134122443827276</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
@@ -2420,34 +2423,34 @@
         <v>14</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0110927741352534</v>
+        <v>-0.0533665516941424</v>
       </c>
       <c r="D47" t="n">
-        <v>1.00771856080801</v>
+        <v>0.963684929085206</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0128511392124111</v>
+        <v>0.0366030901119831</v>
       </c>
       <c r="F47" t="n">
-        <v>0.863174381033897</v>
+        <v>-1.45797940913932</v>
       </c>
       <c r="G47" t="n">
-        <v>0.388126425070715</v>
+        <v>0.14529328060359</v>
       </c>
       <c r="H47" t="n">
-        <v>2440.18415659935</v>
+        <v>702.239380336146</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0960421115130143</v>
+        <v>0.227848028783652</v>
       </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="L47" t="n">
-        <v>0.396563956050514</v>
+        <v>0.151610379760268</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
@@ -2461,36 +2464,77 @@
         <v>14</v>
       </c>
       <c r="C48" t="n">
-        <v>0.00265470871807801</v>
+        <v>0.016187294876969</v>
       </c>
       <c r="D48" t="n">
-        <v>1.00184179789316</v>
+        <v>1.0112833600842</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0129998177960313</v>
+        <v>0.014209906445242</v>
       </c>
       <c r="F48" t="n">
-        <v>0.204211225090283</v>
+        <v>1.1391556263475</v>
       </c>
       <c r="G48" t="n">
-        <v>0.83829127067589</v>
+        <v>0.254768808204439</v>
       </c>
       <c r="H48" t="n">
-        <v>404.00381659787</v>
+        <v>2089.7984679255</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0163795408492165</v>
+        <v>0.100822523817673</v>
       </c>
       <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>57</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.260189421144959</v>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
-      <c r="K48" t="n">
-        <v>10</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.83829127067589</v>
-      </c>
-      <c r="M48" t="n">
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-0.0230089000961921</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.984177950545925</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0375703435021102</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.612421871918733</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.540637043689444</v>
+      </c>
+      <c r="H49" t="n">
+        <v>367.865562804719</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.128461828134819</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>11</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.540637043689444</v>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
